--- a/models/keast-bladder/source/keast-bladder.xlsx
+++ b/models/keast-bladder/source/keast-bladder.xlsx
@@ -1239,7 +1239,7 @@
     <t>KM_1, KM_87, KM_10, KM_11, KM_88</t>
   </si>
   <si>
-    <t>K102</t>
+    <t>housing#img</t>
   </si>
   <si>
     <t>Inferior Mesenteric Ganglion (kblad)</t>
@@ -2475,7 +2475,7 @@
     <t>0,0,0,0</t>
   </si>
   <si>
-    <t>n-lumspl,K102, n-hypo, K104</t>
+    <t>n-lumspl,housing#img, n-hypo, K104</t>
   </si>
   <si>
     <t>dc-snl18</t>
@@ -2661,7 +2661,7 @@
     <t>L1-7 L2-7 SPR axon chain_Neuron 7 (kblad)</t>
   </si>
   <si>
-    <t xml:space="preserve"> n-lumspl,K102</t>
+    <t xml:space="preserve"> n-lumspl,housing#img</t>
   </si>
   <si>
     <t>dc-snl59</t>
@@ -3015,7 +3015,7 @@
     <t>0,0,0,0,0</t>
   </si>
   <si>
-    <t>n-lumspl, K102, n-hypo, K104,n-blad</t>
+    <t>n-lumspl, housing#img, n-hypo, K104,n-blad</t>
   </si>
   <si>
     <t>dc-img-bn3_11</t>
@@ -3156,7 +3156,7 @@
     <t>ns302</t>
   </si>
   <si>
-    <t>K102, n-hypo, K104,n-blad</t>
+    <t>housing#img, n-hypo, K104,n-blad</t>
   </si>
   <si>
     <t>an-bn_3</t>
@@ -4047,7 +4047,7 @@
     <t>IMG and PG</t>
   </si>
   <si>
-    <t>K102, K104</t>
+    <t>housing#img, K104</t>
   </si>
   <si>
     <t>lnk-K102,lnk-K104</t>
@@ -4629,7 +4629,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="204">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4771,8 +4771,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -4826,6 +4826,9 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -5104,6 +5107,9 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -5193,6 +5199,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -5552,7 +5561,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5566,194 +5575,194 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="195" t="s">
         <v>1328</v>
       </c>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="196" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="197" t="s">
         <v>1387</v>
       </c>
-      <c r="C3" s="193" t="s">
+      <c r="C3" s="196" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="198" t="s">
         <v>1389</v>
       </c>
-      <c r="C4" s="193" t="s">
+      <c r="C4" s="196" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="198" t="s">
         <v>1391</v>
       </c>
-      <c r="C5" s="193" t="s">
+      <c r="C5" s="196" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="195" t="s">
         <v>1393</v>
       </c>
-      <c r="C6" s="193" t="s">
+      <c r="C6" s="196" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="195" t="s">
         <v>1395</v>
       </c>
-      <c r="C7" s="193" t="s">
+      <c r="C7" s="196" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="195" t="s">
         <v>1397</v>
       </c>
-      <c r="C8" s="193" t="s">
+      <c r="C8" s="196" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="195" t="s">
         <v>1399</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="196" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="195" t="s">
         <v>1401</v>
       </c>
-      <c r="C10" s="193" t="s">
+      <c r="C10" s="196" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="195" t="s">
         <v>1403</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="196" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="195" t="s">
         <v>1405</v>
       </c>
-      <c r="C12" s="193" t="s">
+      <c r="C12" s="196" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="192" t="s">
+      <c r="A13" s="195" t="s">
         <v>1407</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="196" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="192" t="s">
+      <c r="A14" s="195" t="s">
         <v>1409</v>
       </c>
-      <c r="C14" s="193" t="s">
+      <c r="C14" s="196" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="192" t="s">
+      <c r="A15" s="195" t="s">
         <v>1411</v>
       </c>
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="196" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="192" t="s">
+      <c r="A16" s="195" t="s">
         <v>1413</v>
       </c>
-      <c r="C16" s="193" t="s">
+      <c r="C16" s="196" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="192" t="s">
+      <c r="A17" s="195" t="s">
         <v>1415</v>
       </c>
-      <c r="C17" s="193" t="s">
+      <c r="C17" s="196" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="192" t="s">
+      <c r="A18" s="195" t="s">
         <v>1417</v>
       </c>
-      <c r="C18" s="193" t="s">
+      <c r="C18" s="196" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="192" t="s">
+      <c r="A19" s="195" t="s">
         <v>1419</v>
       </c>
-      <c r="C19" s="193" t="s">
+      <c r="C19" s="196" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="192" t="s">
+      <c r="A20" s="195" t="s">
         <v>1421</v>
       </c>
-      <c r="C20" s="193" t="s">
+      <c r="C20" s="196" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="192" t="s">
+      <c r="A21" s="195" t="s">
         <v>1423</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="196" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="196" t="s">
+      <c r="A22" s="199" t="s">
         <v>1425</v>
       </c>
-      <c r="C22" s="193" t="s">
+      <c r="C22" s="196" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="192" t="s">
+      <c r="A23" s="195" t="s">
         <v>1427</v>
       </c>
-      <c r="C23" s="193" t="s">
+      <c r="C23" s="196" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="192" t="s">
+      <c r="A24" s="195" t="s">
         <v>1429</v>
       </c>
-      <c r="C24" s="193" t="s">
+      <c r="C24" s="196" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="192" t="s">
+      <c r="A25" s="195" t="s">
         <v>1431</v>
       </c>
-      <c r="C25" s="193" t="s">
+      <c r="C25" s="196" t="s">
         <v>1432</v>
       </c>
     </row>
@@ -5784,82 +5793,82 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="200" t="s">
         <v>1435</v>
       </c>
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="201" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="200" t="s">
         <v>1437</v>
       </c>
-      <c r="B3" s="199" t="s">
+      <c r="B3" s="202" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="197" t="s">
+      <c r="A4" s="200" t="s">
         <v>1439</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="203" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="197" t="s">
+      <c r="A5" s="200" t="s">
         <v>1441</v>
       </c>
-      <c r="B5" s="200" t="s">
+      <c r="B5" s="203" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="200" t="s">
         <v>1443</v>
       </c>
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="203" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="200" t="s">
         <v>1445</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="203" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="200" t="s">
         <v>1447</v>
       </c>
-      <c r="B8" s="200" t="s">
+      <c r="B8" s="203" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="200" t="s">
         <v>1449</v>
       </c>
-      <c r="B9" s="200" t="s">
+      <c r="B9" s="203" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="200" t="s">
         <v>1451</v>
       </c>
-      <c r="B10" s="200" t="s">
+      <c r="B10" s="203" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="200" t="s">
         <v>1453</v>
       </c>
-      <c r="B11" s="200" t="s">
+      <c r="B11" s="203" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -5867,7 +5876,7 @@
       <c r="A12" s="3" t="s">
         <v>1455</v>
       </c>
-      <c r="B12" s="187" t="s">
+      <c r="B12" s="189" t="s">
         <v>1456</v>
       </c>
     </row>
@@ -5875,7 +5884,7 @@
       <c r="A13" s="3" t="s">
         <v>1457</v>
       </c>
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="189" t="s">
         <v>1458</v>
       </c>
     </row>
@@ -9901,7 +9910,7 @@
         <v>229.0</v>
       </c>
       <c r="K138" s="13"/>
-      <c r="L138" s="16" t="s">
+      <c r="L138" s="66" t="s">
         <v>395</v>
       </c>
       <c r="M138" s="13"/>
@@ -9956,8 +9965,8 @@
       <c r="I140" s="17"/>
       <c r="J140" s="11"/>
       <c r="K140" s="13"/>
-      <c r="L140" s="66"/>
-      <c r="M140" s="66"/>
+      <c r="L140" s="67"/>
+      <c r="M140" s="67"/>
       <c r="N140" s="20"/>
       <c r="O140" s="13"/>
       <c r="P140" s="13"/>
@@ -9981,8 +9990,8 @@
       <c r="I141" s="17"/>
       <c r="J141" s="11"/>
       <c r="K141" s="13"/>
-      <c r="L141" s="67"/>
-      <c r="M141" s="67"/>
+      <c r="L141" s="68"/>
+      <c r="M141" s="68"/>
       <c r="N141" s="15"/>
       <c r="O141" s="13"/>
       <c r="P141" s="13"/>
@@ -10006,7 +10015,7 @@
       <c r="I142" s="17"/>
       <c r="J142" s="11"/>
       <c r="K142" s="13"/>
-      <c r="L142" s="67"/>
+      <c r="L142" s="68"/>
       <c r="M142" s="32"/>
       <c r="N142" s="20"/>
       <c r="O142" s="13"/>
@@ -10014,144 +10023,144 @@
       <c r="Q142" s="13"/>
     </row>
     <row r="143">
-      <c r="A143" s="68" t="s">
+      <c r="A143" s="69" t="s">
         <v>461</v>
       </c>
-      <c r="B143" s="69" t="s">
+      <c r="B143" s="70" t="s">
         <v>462</v>
       </c>
-      <c r="C143" s="70" t="s">
+      <c r="C143" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="D143" s="71"/>
-      <c r="E143" s="72"/>
-      <c r="F143" s="73"/>
-      <c r="G143" s="71"/>
-      <c r="H143" s="71"/>
-      <c r="I143" s="73"/>
-      <c r="J143" s="74">
+      <c r="D143" s="72"/>
+      <c r="E143" s="73"/>
+      <c r="F143" s="74"/>
+      <c r="G143" s="72"/>
+      <c r="H143" s="72"/>
+      <c r="I143" s="74"/>
+      <c r="J143" s="75">
         <v>229.0</v>
       </c>
-      <c r="K143" s="71"/>
-      <c r="L143" s="69" t="s">
+      <c r="K143" s="72"/>
+      <c r="L143" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="M143" s="73"/>
-      <c r="N143" s="75"/>
-      <c r="O143" s="71"/>
-      <c r="P143" s="71"/>
-      <c r="Q143" s="71"/>
+      <c r="M143" s="74"/>
+      <c r="N143" s="76"/>
+      <c r="O143" s="72"/>
+      <c r="P143" s="72"/>
+      <c r="Q143" s="72"/>
       <c r="R143" s="3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="68" t="s">
+      <c r="A144" s="69" t="s">
         <v>464</v>
       </c>
-      <c r="B144" s="69" t="s">
+      <c r="B144" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="C144" s="70" t="s">
+      <c r="C144" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="D144" s="71"/>
-      <c r="E144" s="73"/>
-      <c r="F144" s="73"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="73"/>
-      <c r="J144" s="74">
+      <c r="D144" s="72"/>
+      <c r="E144" s="74"/>
+      <c r="F144" s="74"/>
+      <c r="G144" s="72"/>
+      <c r="H144" s="72"/>
+      <c r="I144" s="74"/>
+      <c r="J144" s="75">
         <v>229.0</v>
       </c>
-      <c r="K144" s="71"/>
-      <c r="L144" s="69" t="s">
+      <c r="K144" s="72"/>
+      <c r="L144" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="M144" s="73"/>
-      <c r="N144" s="75"/>
-      <c r="O144" s="71"/>
-      <c r="P144" s="71"/>
-      <c r="Q144" s="71"/>
+      <c r="M144" s="74"/>
+      <c r="N144" s="76"/>
+      <c r="O144" s="72"/>
+      <c r="P144" s="72"/>
+      <c r="Q144" s="72"/>
     </row>
     <row r="145">
-      <c r="A145" s="76" t="s">
+      <c r="A145" s="77" t="s">
         <v>466</v>
       </c>
-      <c r="B145" s="69" t="s">
+      <c r="B145" s="70" t="s">
         <v>467</v>
       </c>
-      <c r="C145" s="70" t="s">
+      <c r="C145" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="D145" s="71"/>
-      <c r="E145" s="72"/>
-      <c r="F145" s="73"/>
-      <c r="G145" s="71"/>
-      <c r="H145" s="71"/>
-      <c r="I145" s="73"/>
-      <c r="J145" s="74">
+      <c r="D145" s="72"/>
+      <c r="E145" s="73"/>
+      <c r="F145" s="74"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="74"/>
+      <c r="J145" s="75">
         <v>229.0</v>
       </c>
-      <c r="K145" s="71"/>
-      <c r="L145" s="77" t="s">
+      <c r="K145" s="72"/>
+      <c r="L145" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="M145" s="75"/>
-      <c r="N145" s="75"/>
-      <c r="O145" s="71"/>
-      <c r="P145" s="71"/>
-      <c r="Q145" s="71"/>
+      <c r="M145" s="76"/>
+      <c r="N145" s="76"/>
+      <c r="O145" s="72"/>
+      <c r="P145" s="72"/>
+      <c r="Q145" s="72"/>
       <c r="R145" s="3" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="68" t="s">
+      <c r="A146" s="69" t="s">
         <v>469</v>
       </c>
-      <c r="B146" s="69" t="s">
+      <c r="B146" s="70" t="s">
         <v>470</v>
       </c>
-      <c r="C146" s="70" t="s">
+      <c r="C146" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="D146" s="71"/>
-      <c r="E146" s="72"/>
-      <c r="F146" s="73"/>
-      <c r="G146" s="71"/>
-      <c r="H146" s="71"/>
-      <c r="I146" s="73"/>
-      <c r="J146" s="74">
+      <c r="D146" s="72"/>
+      <c r="E146" s="73"/>
+      <c r="F146" s="74"/>
+      <c r="G146" s="72"/>
+      <c r="H146" s="72"/>
+      <c r="I146" s="74"/>
+      <c r="J146" s="75">
         <v>229.0</v>
       </c>
-      <c r="K146" s="71"/>
-      <c r="L146" s="77" t="s">
+      <c r="K146" s="72"/>
+      <c r="L146" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="M146" s="75"/>
-      <c r="N146" s="75"/>
-      <c r="O146" s="71"/>
-      <c r="P146" s="71"/>
-      <c r="Q146" s="71"/>
+      <c r="M146" s="76"/>
+      <c r="N146" s="76"/>
+      <c r="O146" s="72"/>
+      <c r="P146" s="72"/>
+      <c r="Q146" s="72"/>
     </row>
     <row r="147">
-      <c r="A147" s="78" t="s">
+      <c r="A147" s="79" t="s">
         <v>471</v>
       </c>
-      <c r="B147" s="79" t="s">
+      <c r="B147" s="80" t="s">
         <v>472</v>
       </c>
-      <c r="C147" s="80" t="s">
+      <c r="C147" s="81" t="s">
         <v>473</v>
       </c>
-      <c r="D147" s="81"/>
-      <c r="E147" s="79"/>
-      <c r="F147" s="82"/>
-      <c r="G147" s="83"/>
-      <c r="H147" s="84"/>
-      <c r="I147" s="81"/>
-      <c r="J147" s="80"/>
+      <c r="D147" s="82"/>
+      <c r="E147" s="80"/>
+      <c r="F147" s="83"/>
+      <c r="G147" s="84"/>
+      <c r="H147" s="85"/>
+      <c r="I147" s="82"/>
+      <c r="J147" s="81"/>
       <c r="K147" s="15"/>
       <c r="L147" s="15"/>
       <c r="M147" s="20"/>
@@ -10161,65 +10170,65 @@
       <c r="Q147" s="13"/>
     </row>
     <row r="148">
-      <c r="A148" s="76" t="s">
+      <c r="A148" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="B148" s="69" t="s">
+      <c r="B148" s="70" t="s">
         <v>474</v>
       </c>
-      <c r="C148" s="70" t="s">
+      <c r="C148" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="D148" s="71"/>
-      <c r="E148" s="69"/>
-      <c r="F148" s="85"/>
-      <c r="G148" s="71"/>
-      <c r="H148" s="71"/>
-      <c r="I148" s="73"/>
-      <c r="J148" s="74">
+      <c r="D148" s="72"/>
+      <c r="E148" s="70"/>
+      <c r="F148" s="86"/>
+      <c r="G148" s="72"/>
+      <c r="H148" s="72"/>
+      <c r="I148" s="74"/>
+      <c r="J148" s="75">
         <v>229.0</v>
       </c>
-      <c r="K148" s="71"/>
-      <c r="L148" s="69" t="s">
+      <c r="K148" s="72"/>
+      <c r="L148" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="M148" s="71"/>
-      <c r="N148" s="75"/>
-      <c r="O148" s="71"/>
-      <c r="P148" s="71"/>
-      <c r="Q148" s="71"/>
+      <c r="M148" s="72"/>
+      <c r="N148" s="76"/>
+      <c r="O148" s="72"/>
+      <c r="P148" s="72"/>
+      <c r="Q148" s="72"/>
       <c r="R148" s="3" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="76" t="s">
+      <c r="A149" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="B149" s="69" t="s">
+      <c r="B149" s="70" t="s">
         <v>476</v>
       </c>
-      <c r="C149" s="85" t="s">
+      <c r="C149" s="86" t="s">
         <v>477</v>
       </c>
-      <c r="D149" s="71"/>
-      <c r="E149" s="73"/>
-      <c r="F149" s="85"/>
-      <c r="G149" s="71"/>
-      <c r="H149" s="71"/>
-      <c r="I149" s="73"/>
-      <c r="J149" s="74">
+      <c r="D149" s="72"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="86"/>
+      <c r="G149" s="72"/>
+      <c r="H149" s="72"/>
+      <c r="I149" s="74"/>
+      <c r="J149" s="75">
         <v>229.0</v>
       </c>
-      <c r="K149" s="71"/>
-      <c r="L149" s="69" t="s">
+      <c r="K149" s="72"/>
+      <c r="L149" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="M149" s="71"/>
-      <c r="N149" s="75"/>
-      <c r="O149" s="71"/>
-      <c r="P149" s="71"/>
-      <c r="Q149" s="71"/>
+      <c r="M149" s="72"/>
+      <c r="N149" s="76"/>
+      <c r="O149" s="72"/>
+      <c r="P149" s="72"/>
+      <c r="Q149" s="72"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -10243,27 +10252,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="87" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>478</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="90" t="s">
         <v>480</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -10271,7 +10280,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>482</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -10283,7 +10292,7 @@
       <c r="D3" s="22"/>
     </row>
     <row r="4">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="89" t="s">
         <v>485</v>
       </c>
       <c r="B4" s="23" t="s">
@@ -10292,10 +10301,10 @@
       <c r="C4" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="91"/>
     </row>
     <row r="5">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="89" t="s">
         <v>488</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -10304,13 +10313,13 @@
       <c r="C5" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="D5" s="90"/>
+      <c r="D5" s="91"/>
     </row>
     <row r="6">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="89" t="s">
         <v>491</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="92" t="s">
         <v>492</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -10319,7 +10328,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="89" t="s">
         <v>494</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -10328,12 +10337,12 @@
       <c r="C7" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="93" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="89" t="s">
         <v>498</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -10342,12 +10351,12 @@
       <c r="C8" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="93" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="89" t="s">
         <v>497</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -10356,12 +10365,12 @@
       <c r="C9" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="94" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="89" t="s">
         <v>503</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -10370,12 +10379,12 @@
       <c r="C10" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="93" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="89" t="s">
         <v>506</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -10384,421 +10393,421 @@
       <c r="C11" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="D11" s="94"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="89" t="s">
         <v>509</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="93" t="s">
         <v>510</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="93" t="s">
         <v>511</v>
       </c>
-      <c r="D12" s="94"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="13">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="89" t="s">
         <v>512</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="96" t="s">
         <v>513</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="93" t="s">
         <v>514</v>
       </c>
-      <c r="D13" s="94"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="14">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="89" t="s">
         <v>515</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="96" t="s">
         <v>516</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="93" t="s">
         <v>517</v>
       </c>
-      <c r="D14" s="94"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="89" t="s">
         <v>518</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="96" t="s">
         <v>519</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="93" t="s">
         <v>520</v>
       </c>
-      <c r="D15" s="94"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="89" t="s">
         <v>521</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="96" t="s">
         <v>522</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="93" t="s">
         <v>523</v>
       </c>
-      <c r="D16" s="94"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="89" t="s">
         <v>524</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="96" t="s">
         <v>525</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="93" t="s">
         <v>526</v>
       </c>
-      <c r="D17" s="94"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="89" t="s">
         <v>527</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="96" t="s">
         <v>528</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="93" t="s">
         <v>529</v>
       </c>
-      <c r="D18" s="94"/>
+      <c r="D18" s="95"/>
     </row>
     <row r="19">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="89" t="s">
         <v>530</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="96" t="s">
         <v>531</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="93" t="s">
         <v>532</v>
       </c>
-      <c r="D19" s="94"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="89" t="s">
         <v>533</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="96" t="s">
         <v>534</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="97" t="s">
         <v>501</v>
       </c>
-      <c r="D20" s="94"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="89" t="s">
         <v>535</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="98" t="s">
         <v>536</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="97" t="s">
         <v>537</v>
       </c>
-      <c r="D21" s="94"/>
+      <c r="D21" s="95"/>
     </row>
     <row r="22">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="89" t="s">
         <v>538</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="96" t="s">
         <v>539</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="99" t="s">
         <v>540</v>
       </c>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="93" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="89" t="s">
         <v>541</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="100" t="s">
         <v>542</v>
       </c>
-      <c r="C23" s="100" t="s">
+      <c r="C23" s="101" t="s">
         <v>543</v>
       </c>
-      <c r="D23" s="94"/>
+      <c r="D23" s="95"/>
     </row>
     <row r="24">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="89" t="s">
         <v>544</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="102" t="s">
         <v>545</v>
       </c>
-      <c r="C24" s="100" t="s">
+      <c r="C24" s="101" t="s">
         <v>546</v>
       </c>
-      <c r="D24" s="94"/>
+      <c r="D24" s="95"/>
     </row>
     <row r="25">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="89" t="s">
         <v>547</v>
       </c>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="102" t="s">
         <v>548</v>
       </c>
-      <c r="C25" s="100" t="s">
+      <c r="C25" s="101" t="s">
         <v>549</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D25" s="93" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="89" t="s">
         <v>550</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="93" t="s">
         <v>551</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="93" t="s">
         <v>552</v>
       </c>
-      <c r="D26" s="92" t="s">
+      <c r="D26" s="93" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="89" t="s">
         <v>553</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="93" t="s">
         <v>554</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="93" t="s">
         <v>555</v>
       </c>
-      <c r="D27" s="94"/>
+      <c r="D27" s="95"/>
     </row>
     <row r="28">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="93" t="s">
         <v>556</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="93" t="s">
         <v>557</v>
       </c>
-      <c r="D28" s="94"/>
+      <c r="D28" s="95"/>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="103" t="s">
         <v>559</v>
       </c>
-      <c r="C29" s="103" t="s">
+      <c r="C29" s="104" t="s">
         <v>560</v>
       </c>
-      <c r="D29" s="103"/>
+      <c r="D29" s="104"/>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="103" t="s">
         <v>562</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="104" t="s">
         <v>563</v>
       </c>
-      <c r="D30" s="103"/>
+      <c r="D30" s="104"/>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="103" t="s">
         <v>565</v>
       </c>
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="104" t="s">
         <v>566</v>
       </c>
-      <c r="D31" s="103"/>
+      <c r="D31" s="104"/>
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="103" t="s">
         <v>568</v>
       </c>
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="104" t="s">
         <v>569</v>
       </c>
-      <c r="D32" s="103"/>
+      <c r="D32" s="104"/>
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="103" t="s">
         <v>571</v>
       </c>
-      <c r="C33" s="103" t="s">
+      <c r="C33" s="104" t="s">
         <v>572</v>
       </c>
-      <c r="D33" s="103"/>
+      <c r="D33" s="104"/>
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="103" t="s">
         <v>574</v>
       </c>
-      <c r="C34" s="103" t="s">
+      <c r="C34" s="104" t="s">
         <v>575</v>
       </c>
-      <c r="D34" s="103"/>
+      <c r="D34" s="104"/>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="B35" s="102" t="s">
+      <c r="B35" s="103" t="s">
         <v>577</v>
       </c>
-      <c r="C35" s="103" t="s">
+      <c r="C35" s="104" t="s">
         <v>578</v>
       </c>
-      <c r="D35" s="103"/>
+      <c r="D35" s="104"/>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="B36" s="102" t="s">
+      <c r="B36" s="103" t="s">
         <v>580</v>
       </c>
-      <c r="C36" s="103" t="s">
+      <c r="C36" s="104" t="s">
         <v>581</v>
       </c>
-      <c r="D36" s="103"/>
+      <c r="D36" s="104"/>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="103" t="s">
         <v>583</v>
       </c>
-      <c r="C37" s="103" t="s">
+      <c r="C37" s="104" t="s">
         <v>584</v>
       </c>
-      <c r="D37" s="103"/>
+      <c r="D37" s="104"/>
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="103" t="s">
         <v>586</v>
       </c>
-      <c r="C38" s="103" t="s">
+      <c r="C38" s="104" t="s">
         <v>587</v>
       </c>
-      <c r="D38" s="103"/>
+      <c r="D38" s="104"/>
     </row>
     <row r="39">
-      <c r="A39" s="104">
+      <c r="A39" s="105">
         <v>54.0</v>
       </c>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="106" t="s">
         <v>588</v>
       </c>
-      <c r="C39" s="106" t="s">
+      <c r="C39" s="107" t="s">
         <v>589</v>
       </c>
-      <c r="D39" s="107"/>
+      <c r="D39" s="108"/>
     </row>
     <row r="40">
-      <c r="A40" s="104">
+      <c r="A40" s="105">
         <v>55.0</v>
       </c>
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="106" t="s">
         <v>590</v>
       </c>
-      <c r="C40" s="106" t="s">
+      <c r="C40" s="107" t="s">
         <v>591</v>
       </c>
-      <c r="D40" s="101"/>
+      <c r="D40" s="102"/>
     </row>
     <row r="41">
-      <c r="A41" s="104">
+      <c r="A41" s="105">
         <v>56.0</v>
       </c>
-      <c r="B41" s="105" t="s">
+      <c r="B41" s="106" t="s">
         <v>592</v>
       </c>
-      <c r="C41" s="106" t="s">
+      <c r="C41" s="107" t="s">
         <v>593</v>
       </c>
-      <c r="D41" s="107"/>
+      <c r="D41" s="108"/>
     </row>
     <row r="42">
-      <c r="A42" s="104">
+      <c r="A42" s="105">
         <v>116.0</v>
       </c>
-      <c r="B42" s="105" t="s">
+      <c r="B42" s="106" t="s">
         <v>492</v>
       </c>
-      <c r="C42" s="108" t="s">
+      <c r="C42" s="109" t="s">
         <v>594</v>
       </c>
-      <c r="D42" s="94"/>
+      <c r="D42" s="95"/>
     </row>
     <row r="43">
-      <c r="A43" s="109" t="s">
+      <c r="A43" s="110" t="s">
         <v>595</v>
       </c>
-      <c r="B43" s="99" t="s">
+      <c r="B43" s="100" t="s">
         <v>596</v>
       </c>
-      <c r="C43" s="108" t="s">
+      <c r="C43" s="109" t="s">
         <v>597</v>
       </c>
-      <c r="D43" s="94"/>
+      <c r="D43" s="95"/>
     </row>
     <row r="44">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="110" t="s">
         <v>598</v>
       </c>
-      <c r="B44" s="99" t="s">
+      <c r="B44" s="100" t="s">
         <v>599</v>
       </c>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="109" t="s">
         <v>600</v>
       </c>
-      <c r="D44" s="94"/>
+      <c r="D44" s="95"/>
     </row>
     <row r="45">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="110" t="s">
         <v>601</v>
       </c>
-      <c r="B45" s="99" t="s">
+      <c r="B45" s="100" t="s">
         <v>602</v>
       </c>
-      <c r="C45" s="110" t="s">
+      <c r="C45" s="111" t="s">
         <v>603</v>
       </c>
-      <c r="D45" s="94"/>
+      <c r="D45" s="95"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10823,25 +10832,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="112" t="s">
         <v>604</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="112" t="s">
         <v>605</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="112" t="s">
         <v>606</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="112" t="s">
         <v>607</v>
       </c>
     </row>
@@ -10859,10 +10868,10 @@
       <c r="E2" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="112">
+      <c r="F2" s="113">
         <v>4.0</v>
       </c>
-      <c r="G2" s="113"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
@@ -10878,7 +10887,7 @@
       <c r="E3" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="112">
+      <c r="F3" s="113">
         <v>4.0</v>
       </c>
       <c r="G3" s="13"/>
@@ -10897,7 +10906,7 @@
       <c r="E4" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="112">
+      <c r="F4" s="113">
         <v>4.0</v>
       </c>
       <c r="G4" s="13"/>
@@ -10916,7 +10925,7 @@
       <c r="E5" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="112">
+      <c r="F5" s="113">
         <v>4.0</v>
       </c>
       <c r="G5" s="13"/>
@@ -10935,7 +10944,7 @@
       <c r="E6" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="112">
+      <c r="F6" s="113">
         <v>4.0</v>
       </c>
       <c r="G6" s="13"/>
@@ -10954,7 +10963,7 @@
       <c r="E7" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="112">
+      <c r="F7" s="113">
         <v>4.0</v>
       </c>
       <c r="G7" s="13"/>
@@ -10973,7 +10982,7 @@
       <c r="E8" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="112">
+      <c r="F8" s="113">
         <v>4.0</v>
       </c>
       <c r="G8" s="13"/>
@@ -10992,7 +11001,7 @@
       <c r="E9" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="112">
+      <c r="F9" s="113">
         <v>4.0</v>
       </c>
       <c r="G9" s="13"/>
@@ -11011,7 +11020,7 @@
       <c r="E10" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="F10" s="112">
+      <c r="F10" s="113">
         <v>4.0</v>
       </c>
       <c r="G10" s="13"/>
@@ -11030,7 +11039,7 @@
       <c r="E11" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="F11" s="112">
+      <c r="F11" s="113">
         <v>4.0</v>
       </c>
       <c r="G11" s="13"/>
@@ -11046,10 +11055,10 @@
       <c r="D12" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="66" t="s">
         <v>395</v>
       </c>
-      <c r="F12" s="112">
+      <c r="F12" s="113">
         <v>16.0</v>
       </c>
       <c r="G12" s="13"/>
@@ -11068,7 +11077,7 @@
       <c r="E13" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F13" s="113">
         <v>16.0</v>
       </c>
       <c r="G13" s="13"/>
@@ -11087,7 +11096,7 @@
       <c r="E14" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="F14" s="112">
+      <c r="F14" s="113">
         <v>4.0</v>
       </c>
       <c r="G14" s="13"/>
@@ -11106,7 +11115,7 @@
       <c r="E15" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="F15" s="112">
+      <c r="F15" s="113">
         <v>4.0</v>
       </c>
       <c r="G15" s="13"/>
@@ -11125,7 +11134,7 @@
       <c r="E16" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="F16" s="112">
+      <c r="F16" s="113">
         <v>4.0</v>
       </c>
       <c r="G16" s="13"/>
@@ -11144,7 +11153,7 @@
       <c r="E17" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="F17" s="112">
+      <c r="F17" s="113">
         <v>4.0</v>
       </c>
       <c r="G17" s="13"/>
@@ -11163,7 +11172,7 @@
       <c r="E18" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="112">
+      <c r="F18" s="113">
         <v>4.0</v>
       </c>
       <c r="G18" s="13"/>
@@ -11182,7 +11191,7 @@
       <c r="E19" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="F19" s="112">
+      <c r="F19" s="113">
         <v>4.0</v>
       </c>
       <c r="G19" s="13"/>
@@ -11201,7 +11210,7 @@
       <c r="E20" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="F20" s="112">
+      <c r="F20" s="113">
         <v>4.0</v>
       </c>
       <c r="G20" s="13"/>
@@ -11220,45 +11229,45 @@
       <c r="E21" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="112">
+      <c r="F21" s="113">
         <v>4.0</v>
       </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="115" t="s">
         <v>668</v>
       </c>
       <c r="B22" s="37"/>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="116" t="s">
         <v>669</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="116" t="s">
         <v>670</v>
       </c>
-      <c r="E22" s="114" t="s">
+      <c r="E22" s="115" t="s">
         <v>242</v>
       </c>
-      <c r="F22" s="112">
+      <c r="F22" s="113">
         <v>4.0</v>
       </c>
       <c r="G22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="115" t="s">
         <v>671</v>
       </c>
       <c r="B23" s="37"/>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="116" t="s">
         <v>672</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="117" t="s">
         <v>673</v>
       </c>
-      <c r="E23" s="114" t="s">
+      <c r="E23" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="112">
+      <c r="F23" s="113">
         <v>4.0</v>
       </c>
       <c r="G23" s="13"/>
@@ -11277,7 +11286,7 @@
       <c r="E24" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="F24" s="112">
+      <c r="F24" s="113">
         <v>4.0</v>
       </c>
       <c r="G24" s="13"/>
@@ -11296,7 +11305,7 @@
       <c r="E25" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="F25" s="112">
+      <c r="F25" s="113">
         <v>4.0</v>
       </c>
       <c r="G25" s="13"/>
@@ -11315,7 +11324,7 @@
       <c r="E26" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="F26" s="112">
+      <c r="F26" s="113">
         <v>4.0</v>
       </c>
       <c r="G26" s="13"/>
@@ -11334,7 +11343,7 @@
       <c r="E27" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="F27" s="112">
+      <c r="F27" s="113">
         <v>4.0</v>
       </c>
       <c r="G27" s="13"/>
@@ -11353,7 +11362,7 @@
       <c r="E28" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="F28" s="112">
+      <c r="F28" s="113">
         <v>4.0</v>
       </c>
       <c r="G28" s="13"/>
@@ -11372,7 +11381,7 @@
       <c r="E29" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="112">
+      <c r="F29" s="113">
         <v>4.0</v>
       </c>
       <c r="G29" s="13"/>
@@ -11391,7 +11400,7 @@
       <c r="E30" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="F30" s="112">
+      <c r="F30" s="113">
         <v>4.0</v>
       </c>
       <c r="G30" s="13"/>
@@ -11410,7 +11419,7 @@
       <c r="E31" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="F31" s="112">
+      <c r="F31" s="113">
         <v>4.0</v>
       </c>
       <c r="G31" s="13"/>
@@ -11429,7 +11438,7 @@
       <c r="E32" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="F32" s="112">
+      <c r="F32" s="113">
         <v>4.0</v>
       </c>
       <c r="G32" s="13"/>
@@ -11448,7 +11457,7 @@
       <c r="E33" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="F33" s="112">
+      <c r="F33" s="113">
         <v>4.0</v>
       </c>
       <c r="G33" s="13"/>
@@ -11467,7 +11476,7 @@
       <c r="E34" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="F34" s="112">
+      <c r="F34" s="113">
         <v>4.0</v>
       </c>
       <c r="G34" s="13"/>
@@ -11486,7 +11495,7 @@
       <c r="E35" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="F35" s="112">
+      <c r="F35" s="113">
         <v>4.0</v>
       </c>
       <c r="G35" s="13"/>
@@ -11505,7 +11514,7 @@
       <c r="E36" s="41" t="s">
         <v>464</v>
       </c>
-      <c r="F36" s="112">
+      <c r="F36" s="113">
         <v>4.0</v>
       </c>
       <c r="G36" s="13"/>
@@ -11524,7 +11533,7 @@
       <c r="E37" s="32" t="s">
         <v>466</v>
       </c>
-      <c r="F37" s="112">
+      <c r="F37" s="113">
         <v>4.0</v>
       </c>
       <c r="G37" s="13"/>
@@ -11543,7 +11552,7 @@
       <c r="E38" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="F38" s="112">
+      <c r="F38" s="113">
         <v>4.0</v>
       </c>
       <c r="G38" s="13"/>
@@ -11573,7 +11582,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.0"/>
-    <col customWidth="1" min="2" max="2" width="12.71"/>
+    <col customWidth="1" min="2" max="2" width="26.0"/>
     <col customWidth="1" min="3" max="3" width="16.57"/>
     <col customWidth="1" min="4" max="4" width="13.14"/>
     <col customWidth="1" min="6" max="7" width="18.86"/>
@@ -11585,40 +11594,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="112" t="s">
         <v>720</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="112" t="s">
         <v>721</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="112" t="s">
         <v>722</v>
       </c>
-      <c r="H1" s="111" t="s">
+      <c r="H1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="111" t="s">
+      <c r="I1" s="112" t="s">
         <v>723</v>
       </c>
-      <c r="J1" s="117" t="s">
+      <c r="J1" s="118" t="s">
         <v>724</v>
       </c>
-      <c r="K1" s="118" t="s">
+      <c r="K1" s="119" t="s">
         <v>725</v>
       </c>
-      <c r="L1" s="119" t="s">
+      <c r="L1" s="120" t="s">
         <v>726</v>
       </c>
       <c r="M1" s="19" t="s">
@@ -11648,14 +11657,14 @@
       <c r="G2" s="17" t="s">
         <v>733</v>
       </c>
-      <c r="H2" s="112">
+      <c r="H2" s="113">
         <v>100.0</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
       <c r="N2" s="19">
         <v>1.0</v>
       </c>
@@ -11670,7 +11679,7 @@
       <c r="C3" s="36" t="s">
         <v>736</v>
       </c>
-      <c r="D3" s="122"/>
+      <c r="D3" s="123"/>
       <c r="E3" s="41" t="s">
         <v>214</v>
       </c>
@@ -11678,17 +11687,17 @@
         <v>609</v>
       </c>
       <c r="G3" s="17"/>
-      <c r="H3" s="112">
+      <c r="H3" s="113">
         <v>4.0</v>
       </c>
       <c r="I3" s="31"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="123" t="s">
+      <c r="K3" s="121"/>
+      <c r="L3" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121">
+      <c r="M3" s="122"/>
+      <c r="N3" s="122">
         <v>2.0</v>
       </c>
     </row>
@@ -11714,14 +11723,14 @@
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="124" t="s">
+      <c r="K4" s="125" t="s">
         <v>740</v>
       </c>
-      <c r="L4" s="125" t="s">
+      <c r="L4" s="126" t="s">
         <v>741</v>
       </c>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121">
+      <c r="M4" s="122"/>
+      <c r="N4" s="122">
         <v>3.0</v>
       </c>
     </row>
@@ -11745,12 +11754,12 @@
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="125" t="s">
+      <c r="K5" s="125"/>
+      <c r="L5" s="126" t="s">
         <v>177</v>
       </c>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121">
+      <c r="M5" s="122"/>
+      <c r="N5" s="122">
         <v>4.0</v>
       </c>
     </row>
@@ -11774,14 +11783,14 @@
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="124" t="s">
+      <c r="K6" s="125" t="s">
         <v>746</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="126" t="s">
         <v>747</v>
       </c>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121">
+      <c r="M6" s="122"/>
+      <c r="N6" s="122">
         <v>5.0</v>
       </c>
     </row>
@@ -11805,12 +11814,12 @@
       <c r="H7" s="11"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="125" t="s">
+      <c r="K7" s="125"/>
+      <c r="L7" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121">
+      <c r="M7" s="122"/>
+      <c r="N7" s="122">
         <v>6.0</v>
       </c>
     </row>
@@ -11834,14 +11843,14 @@
       <c r="H8" s="11"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="124" t="s">
+      <c r="K8" s="125" t="s">
         <v>752</v>
       </c>
-      <c r="L8" s="125" t="s">
+      <c r="L8" s="126" t="s">
         <v>753</v>
       </c>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121">
+      <c r="M8" s="122"/>
+      <c r="N8" s="122">
         <v>7.0</v>
       </c>
     </row>
@@ -11865,12 +11874,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="125" t="s">
+      <c r="K9" s="125"/>
+      <c r="L9" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121">
+      <c r="M9" s="122"/>
+      <c r="N9" s="122">
         <v>8.0</v>
       </c>
     </row>
@@ -11894,14 +11903,14 @@
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="124" t="s">
+      <c r="K10" s="125" t="s">
         <v>752</v>
       </c>
-      <c r="L10" s="125" t="s">
+      <c r="L10" s="126" t="s">
         <v>758</v>
       </c>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121">
+      <c r="M10" s="122"/>
+      <c r="N10" s="122">
         <v>9.0</v>
       </c>
     </row>
@@ -11925,12 +11934,12 @@
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125" t="s">
+      <c r="K11" s="125"/>
+      <c r="L11" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121">
+      <c r="M11" s="122"/>
+      <c r="N11" s="122">
         <v>10.0</v>
       </c>
     </row>
@@ -11954,14 +11963,14 @@
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="124" t="s">
+      <c r="K12" s="125" t="s">
         <v>746</v>
       </c>
-      <c r="L12" s="125" t="s">
+      <c r="L12" s="126" t="s">
         <v>763</v>
       </c>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121">
+      <c r="M12" s="122"/>
+      <c r="N12" s="122">
         <v>11.0</v>
       </c>
     </row>
@@ -11985,12 +11994,12 @@
       <c r="H13" s="11"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125" t="s">
+      <c r="K13" s="125"/>
+      <c r="L13" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121">
+      <c r="M13" s="122"/>
+      <c r="N13" s="122">
         <v>12.0</v>
       </c>
     </row>
@@ -12014,14 +12023,14 @@
       <c r="H14" s="11"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="124" t="s">
+      <c r="K14" s="125" t="s">
         <v>746</v>
       </c>
-      <c r="L14" s="125" t="s">
+      <c r="L14" s="126" t="s">
         <v>768</v>
       </c>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121">
+      <c r="M14" s="122"/>
+      <c r="N14" s="122">
         <v>13.0</v>
       </c>
     </row>
@@ -12045,12 +12054,12 @@
       <c r="H15" s="11"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125" t="s">
+      <c r="K15" s="125"/>
+      <c r="L15" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121">
+      <c r="M15" s="122"/>
+      <c r="N15" s="122">
         <v>14.0</v>
       </c>
     </row>
@@ -12074,14 +12083,14 @@
       <c r="H16" s="11"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="124" t="s">
+      <c r="K16" s="125" t="s">
         <v>746</v>
       </c>
-      <c r="L16" s="125" t="s">
+      <c r="L16" s="126" t="s">
         <v>773</v>
       </c>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121">
+      <c r="M16" s="122"/>
+      <c r="N16" s="122">
         <v>15.0</v>
       </c>
     </row>
@@ -12105,12 +12114,12 @@
       <c r="H17" s="11"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="125" t="s">
+      <c r="K17" s="125"/>
+      <c r="L17" s="126" t="s">
         <v>184</v>
       </c>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121">
+      <c r="M17" s="122"/>
+      <c r="N17" s="122">
         <v>16.0</v>
       </c>
     </row>
@@ -12137,14 +12146,14 @@
       <c r="H18" s="11"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="124" t="s">
+      <c r="K18" s="125" t="s">
         <v>779</v>
       </c>
-      <c r="L18" s="125" t="s">
+      <c r="L18" s="126" t="s">
         <v>780</v>
       </c>
-      <c r="M18" s="121"/>
-      <c r="N18" s="121">
+      <c r="M18" s="122"/>
+      <c r="N18" s="122">
         <v>17.0</v>
       </c>
     </row>
@@ -12155,7 +12164,7 @@
       <c r="B19" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D19" s="17"/>
@@ -12171,14 +12180,14 @@
       <c r="H19" s="11"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="124" t="s">
+      <c r="K19" s="125" t="s">
         <v>784</v>
       </c>
-      <c r="L19" s="125" t="s">
+      <c r="L19" s="126" t="s">
         <v>785</v>
       </c>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121">
+      <c r="M19" s="122"/>
+      <c r="N19" s="122">
         <v>18.0</v>
       </c>
     </row>
@@ -12189,7 +12198,7 @@
       <c r="B20" s="21" t="s">
         <v>787</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D20" s="17"/>
@@ -12205,14 +12214,14 @@
       <c r="H20" s="11"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="124" t="s">
+      <c r="K20" s="125" t="s">
         <v>789</v>
       </c>
-      <c r="L20" s="125" t="s">
+      <c r="L20" s="126" t="s">
         <v>790</v>
       </c>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121">
+      <c r="M20" s="122"/>
+      <c r="N20" s="122">
         <v>19.0</v>
       </c>
     </row>
@@ -12220,10 +12229,10 @@
       <c r="A21" s="51" t="s">
         <v>791</v>
       </c>
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="128" t="s">
         <v>792</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="129" t="s">
         <v>736</v>
       </c>
       <c r="D21" s="49"/>
@@ -12237,14 +12246,14 @@
       <c r="H21" s="51"/>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
-      <c r="K21" s="129">
+      <c r="K21" s="130">
         <v>6.0</v>
       </c>
-      <c r="L21" s="130" t="s">
+      <c r="L21" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121">
+      <c r="M21" s="122"/>
+      <c r="N21" s="122">
         <v>20.0</v>
       </c>
     </row>
@@ -12252,10 +12261,10 @@
       <c r="A22" s="51" t="s">
         <v>793</v>
       </c>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="128" t="s">
         <v>794</v>
       </c>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="129" t="s">
         <v>739</v>
       </c>
       <c r="D22" s="49"/>
@@ -12271,14 +12280,14 @@
       <c r="H22" s="51"/>
       <c r="I22" s="50"/>
       <c r="J22" s="50"/>
-      <c r="K22" s="131" t="s">
+      <c r="K22" s="132" t="s">
         <v>796</v>
       </c>
-      <c r="L22" s="132" t="s">
+      <c r="L22" s="133" t="s">
         <v>797</v>
       </c>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121">
+      <c r="M22" s="122"/>
+      <c r="N22" s="122">
         <v>21.0</v>
       </c>
     </row>
@@ -12303,14 +12312,14 @@
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
       <c r="J23" s="50"/>
-      <c r="K23" s="129">
+      <c r="K23" s="130">
         <v>6.0</v>
       </c>
-      <c r="L23" s="132" t="s">
+      <c r="L23" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121">
+      <c r="M23" s="122"/>
+      <c r="N23" s="122">
         <v>22.0</v>
       </c>
     </row>
@@ -12321,7 +12330,7 @@
       <c r="B24" s="48" t="s">
         <v>801</v>
       </c>
-      <c r="C24" s="128" t="s">
+      <c r="C24" s="129" t="s">
         <v>739</v>
       </c>
       <c r="D24" s="49"/>
@@ -12337,14 +12346,14 @@
       <c r="H24" s="51"/>
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
-      <c r="K24" s="131" t="s">
+      <c r="K24" s="132" t="s">
         <v>796</v>
       </c>
-      <c r="L24" s="130" t="s">
+      <c r="L24" s="131" t="s">
         <v>802</v>
       </c>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121">
+      <c r="M24" s="122"/>
+      <c r="N24" s="122">
         <v>23.0</v>
       </c>
     </row>
@@ -12352,10 +12361,10 @@
       <c r="A25" s="51" t="s">
         <v>803</v>
       </c>
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="128" t="s">
         <v>804</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="129" t="s">
         <v>739</v>
       </c>
       <c r="D25" s="49"/>
@@ -12371,14 +12380,14 @@
       <c r="H25" s="51"/>
       <c r="I25" s="50"/>
       <c r="J25" s="50"/>
-      <c r="K25" s="133" t="s">
+      <c r="K25" s="134" t="s">
         <v>806</v>
       </c>
-      <c r="L25" s="134" t="s">
+      <c r="L25" s="135" t="s">
         <v>807</v>
       </c>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121">
+      <c r="M25" s="122"/>
+      <c r="N25" s="122">
         <v>24.0</v>
       </c>
     </row>
@@ -12405,14 +12414,14 @@
       <c r="H26" s="11"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="135">
+      <c r="K26" s="136">
         <v>6.0</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121">
+      <c r="M26" s="122"/>
+      <c r="N26" s="122">
         <v>25.0</v>
       </c>
     </row>
@@ -12423,7 +12432,7 @@
       <c r="B27" s="21" t="s">
         <v>812</v>
       </c>
-      <c r="C27" s="126" t="s">
+      <c r="C27" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D27" s="17"/>
@@ -12439,14 +12448,14 @@
       <c r="H27" s="11"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="124" t="s">
+      <c r="K27" s="125" t="s">
         <v>814</v>
       </c>
-      <c r="L27" s="125" t="s">
+      <c r="L27" s="126" t="s">
         <v>815</v>
       </c>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121">
+      <c r="M27" s="122"/>
+      <c r="N27" s="122">
         <v>26.0</v>
       </c>
     </row>
@@ -12473,14 +12482,14 @@
       <c r="H28" s="11"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="135">
+      <c r="K28" s="136">
         <v>6.0</v>
       </c>
       <c r="L28" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121">
+      <c r="M28" s="122"/>
+      <c r="N28" s="122">
         <v>27.0</v>
       </c>
     </row>
@@ -12507,304 +12516,304 @@
       <c r="H29" s="11"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="124" t="s">
+      <c r="K29" s="125" t="s">
         <v>814</v>
       </c>
-      <c r="L29" s="125" t="s">
+      <c r="L29" s="126" t="s">
         <v>822</v>
       </c>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121">
+      <c r="M29" s="122"/>
+      <c r="N29" s="122">
         <v>28.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="136" t="s">
+      <c r="A30" s="137" t="s">
         <v>823</v>
       </c>
-      <c r="B30" s="137" t="s">
+      <c r="B30" s="138" t="s">
         <v>824</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D30" s="138"/>
+      <c r="D30" s="139"/>
       <c r="E30" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F30" s="137" t="s">
+      <c r="F30" s="138" t="s">
         <v>825</v>
       </c>
-      <c r="G30" s="139" t="s">
+      <c r="G30" s="140" t="s">
         <v>826</v>
       </c>
-      <c r="H30" s="140"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="142" t="s">
+      <c r="H30" s="141"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="143" t="s">
         <v>827</v>
       </c>
-      <c r="L30" s="143" t="s">
+      <c r="L30" s="144" t="s">
         <v>828</v>
       </c>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="145"/>
     </row>
     <row r="31">
-      <c r="A31" s="136" t="s">
+      <c r="A31" s="137" t="s">
         <v>829</v>
       </c>
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="138" t="s">
         <v>830</v>
       </c>
       <c r="C31" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D31" s="138"/>
+      <c r="D31" s="139"/>
       <c r="E31" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F31" s="137" t="s">
+      <c r="F31" s="138" t="s">
         <v>826</v>
       </c>
-      <c r="G31" s="139" t="s">
+      <c r="G31" s="140" t="s">
         <v>831</v>
       </c>
-      <c r="H31" s="140"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="142" t="s">
+      <c r="H31" s="141"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="143" t="s">
         <v>827</v>
       </c>
-      <c r="L31" s="145" t="s">
+      <c r="L31" s="146" t="s">
         <v>832</v>
       </c>
-      <c r="M31" s="144"/>
-      <c r="N31" s="144"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
     </row>
     <row r="32">
-      <c r="A32" s="136" t="s">
+      <c r="A32" s="137" t="s">
         <v>833</v>
       </c>
-      <c r="B32" s="137" t="s">
+      <c r="B32" s="138" t="s">
         <v>834</v>
       </c>
       <c r="C32" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D32" s="138"/>
+      <c r="D32" s="139"/>
       <c r="E32" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="137" t="s">
+      <c r="F32" s="138" t="s">
         <v>813</v>
       </c>
-      <c r="G32" s="139" t="s">
+      <c r="G32" s="140" t="s">
         <v>831</v>
       </c>
-      <c r="H32" s="140"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="142">
+      <c r="H32" s="141"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="143">
         <v>0.0</v>
       </c>
-      <c r="L32" s="143" t="s">
+      <c r="L32" s="144" t="s">
         <v>318</v>
       </c>
-      <c r="M32" s="144"/>
-      <c r="N32" s="144"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
     </row>
     <row r="33">
-      <c r="A33" s="136" t="s">
+      <c r="A33" s="137" t="s">
         <v>835</v>
       </c>
-      <c r="B33" s="137" t="s">
+      <c r="B33" s="138" t="s">
         <v>836</v>
       </c>
       <c r="C33" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D33" s="138"/>
+      <c r="D33" s="139"/>
       <c r="E33" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="137" t="s">
+      <c r="F33" s="138" t="s">
         <v>831</v>
       </c>
-      <c r="G33" s="139" t="s">
+      <c r="G33" s="140" t="s">
         <v>837</v>
       </c>
-      <c r="H33" s="140"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="142" t="s">
+      <c r="H33" s="141"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="143" t="s">
         <v>827</v>
       </c>
-      <c r="L33" s="143" t="s">
+      <c r="L33" s="144" t="s">
         <v>838</v>
       </c>
-      <c r="M33" s="144"/>
-      <c r="N33" s="144"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
     </row>
     <row r="34">
-      <c r="A34" s="146" t="s">
+      <c r="A34" s="147" t="s">
         <v>839</v>
       </c>
-      <c r="B34" s="147" t="s">
+      <c r="B34" s="148" t="s">
         <v>840</v>
       </c>
       <c r="C34" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D34" s="138"/>
+      <c r="D34" s="139"/>
       <c r="E34" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="137" t="s">
+      <c r="F34" s="138" t="s">
         <v>821</v>
       </c>
-      <c r="G34" s="139" t="s">
+      <c r="G34" s="140" t="s">
         <v>837</v>
       </c>
-      <c r="H34" s="140"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="142">
+      <c r="H34" s="141"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="143">
         <v>0.0</v>
       </c>
-      <c r="L34" s="143" t="s">
+      <c r="L34" s="144" t="s">
         <v>322</v>
       </c>
-      <c r="M34" s="144"/>
-      <c r="N34" s="144"/>
+      <c r="M34" s="145"/>
+      <c r="N34" s="145"/>
     </row>
     <row r="35">
-      <c r="A35" s="136" t="s">
+      <c r="A35" s="137" t="s">
         <v>841</v>
       </c>
-      <c r="B35" s="137" t="s">
+      <c r="B35" s="138" t="s">
         <v>842</v>
       </c>
       <c r="C35" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D35" s="138"/>
+      <c r="D35" s="139"/>
       <c r="E35" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F35" s="137" t="s">
+      <c r="F35" s="138" t="s">
         <v>837</v>
       </c>
-      <c r="G35" s="139" t="s">
+      <c r="G35" s="140" t="s">
         <v>843</v>
       </c>
-      <c r="H35" s="140"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="142" t="s">
+      <c r="H35" s="141"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="143" t="s">
         <v>827</v>
       </c>
-      <c r="L35" s="143" t="s">
+      <c r="L35" s="144" t="s">
         <v>844</v>
       </c>
-      <c r="M35" s="144"/>
-      <c r="N35" s="144"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
     </row>
     <row r="36">
-      <c r="A36" s="136" t="s">
+      <c r="A36" s="137" t="s">
         <v>845</v>
       </c>
-      <c r="B36" s="137" t="s">
+      <c r="B36" s="138" t="s">
         <v>846</v>
       </c>
       <c r="C36" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D36" s="138"/>
+      <c r="D36" s="139"/>
       <c r="E36" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F36" s="137" t="s">
+      <c r="F36" s="138" t="s">
         <v>843</v>
       </c>
-      <c r="G36" s="139" t="s">
+      <c r="G36" s="140" t="s">
         <v>847</v>
       </c>
-      <c r="H36" s="140"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="142" t="s">
+      <c r="H36" s="141"/>
+      <c r="I36" s="142"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="143" t="s">
         <v>827</v>
       </c>
-      <c r="L36" s="145" t="s">
+      <c r="L36" s="146" t="s">
         <v>848</v>
       </c>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
+      <c r="M36" s="145"/>
+      <c r="N36" s="145"/>
     </row>
     <row r="37">
-      <c r="A37" s="136" t="s">
+      <c r="A37" s="137" t="s">
         <v>849</v>
       </c>
-      <c r="B37" s="137" t="s">
+      <c r="B37" s="138" t="s">
         <v>850</v>
       </c>
       <c r="C37" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D37" s="138"/>
+      <c r="D37" s="139"/>
       <c r="E37" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F37" s="137" t="s">
+      <c r="F37" s="138" t="s">
         <v>847</v>
       </c>
-      <c r="G37" s="139" t="s">
+      <c r="G37" s="140" t="s">
         <v>851</v>
       </c>
-      <c r="H37" s="140"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="142" t="s">
+      <c r="H37" s="141"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="143" t="s">
         <v>827</v>
       </c>
-      <c r="L37" s="145" t="s">
+      <c r="L37" s="146" t="s">
         <v>852</v>
       </c>
-      <c r="M37" s="144"/>
-      <c r="N37" s="144"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="145"/>
     </row>
     <row r="38">
-      <c r="A38" s="136" t="s">
+      <c r="A38" s="137" t="s">
         <v>853</v>
       </c>
-      <c r="B38" s="137" t="s">
+      <c r="B38" s="138" t="s">
         <v>854</v>
       </c>
       <c r="C38" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D38" s="138"/>
+      <c r="D38" s="139"/>
       <c r="E38" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F38" s="147" t="s">
+      <c r="F38" s="148" t="s">
         <v>855</v>
       </c>
-      <c r="G38" s="148" t="s">
+      <c r="G38" s="149" t="s">
         <v>856</v>
       </c>
-      <c r="H38" s="140"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="141"/>
-      <c r="K38" s="142" t="s">
+      <c r="H38" s="141"/>
+      <c r="I38" s="142"/>
+      <c r="J38" s="142"/>
+      <c r="K38" s="143" t="s">
         <v>260</v>
       </c>
-      <c r="L38" s="145" t="s">
+      <c r="L38" s="146" t="s">
         <v>857</v>
       </c>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
+      <c r="M38" s="145"/>
+      <c r="N38" s="145"/>
     </row>
     <row r="39">
       <c r="A39" s="32" t="s">
@@ -12826,14 +12835,14 @@
       <c r="H39" s="11"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="149">
+      <c r="K39" s="150">
         <v>6.0</v>
       </c>
-      <c r="L39" s="125" t="s">
+      <c r="L39" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="M39" s="121"/>
-      <c r="N39" s="121">
+      <c r="M39" s="122"/>
+      <c r="N39" s="122">
         <v>36.0</v>
       </c>
     </row>
@@ -12860,14 +12869,14 @@
       <c r="H40" s="11"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="124" t="s">
+      <c r="K40" s="125" t="s">
         <v>796</v>
       </c>
-      <c r="L40" s="125" t="s">
+      <c r="L40" s="126" t="s">
         <v>797</v>
       </c>
-      <c r="M40" s="121"/>
-      <c r="N40" s="121">
+      <c r="M40" s="122"/>
+      <c r="N40" s="122">
         <v>37.0</v>
       </c>
     </row>
@@ -12891,14 +12900,14 @@
       <c r="H41" s="11"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="149">
+      <c r="K41" s="150">
         <v>6.0</v>
       </c>
-      <c r="L41" s="125" t="s">
+      <c r="L41" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="M41" s="121"/>
-      <c r="N41" s="121">
+      <c r="M41" s="122"/>
+      <c r="N41" s="122">
         <v>38.0</v>
       </c>
     </row>
@@ -12925,14 +12934,14 @@
       <c r="H42" s="11"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="124" t="s">
+      <c r="K42" s="125" t="s">
         <v>796</v>
       </c>
-      <c r="L42" s="125" t="s">
+      <c r="L42" s="126" t="s">
         <v>802</v>
       </c>
-      <c r="M42" s="121"/>
-      <c r="N42" s="121">
+      <c r="M42" s="122"/>
+      <c r="N42" s="122">
         <v>39.0</v>
       </c>
     </row>
@@ -12957,14 +12966,14 @@
       <c r="H43" s="11"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="150" t="s">
+      <c r="K43" s="151" t="s">
         <v>260</v>
       </c>
-      <c r="L43" s="151" t="s">
+      <c r="L43" s="152" t="s">
         <v>869</v>
       </c>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121">
+      <c r="M43" s="122"/>
+      <c r="N43" s="122">
         <v>40.0</v>
       </c>
     </row>
@@ -12988,14 +12997,14 @@
       <c r="H44" s="11"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="149">
+      <c r="K44" s="150">
         <v>4.0</v>
       </c>
-      <c r="L44" s="125" t="s">
+      <c r="L44" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="M44" s="121"/>
-      <c r="N44" s="121">
+      <c r="M44" s="122"/>
+      <c r="N44" s="122">
         <v>41.0</v>
       </c>
     </row>
@@ -13022,16 +13031,16 @@
       <c r="H45" s="11"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="124" t="s">
+      <c r="K45" s="125" t="s">
         <v>875</v>
       </c>
-      <c r="L45" s="151" t="s">
+      <c r="L45" s="152" t="s">
         <v>876</v>
       </c>
       <c r="M45" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="N45" s="121">
+      <c r="N45" s="122">
         <v>42.0</v>
       </c>
     </row>
@@ -13055,14 +13064,14 @@
       <c r="H46" s="11"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="149">
+      <c r="K46" s="150">
         <v>4.0</v>
       </c>
-      <c r="L46" s="125" t="s">
+      <c r="L46" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="M46" s="121"/>
-      <c r="N46" s="121">
+      <c r="M46" s="122"/>
+      <c r="N46" s="122">
         <v>43.0</v>
       </c>
     </row>
@@ -13089,16 +13098,16 @@
       <c r="H47" s="11"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="124" t="s">
+      <c r="K47" s="125" t="s">
         <v>875</v>
       </c>
-      <c r="L47" s="151" t="s">
+      <c r="L47" s="152" t="s">
         <v>882</v>
       </c>
       <c r="M47" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="N47" s="121">
+      <c r="N47" s="122">
         <v>44.0</v>
       </c>
     </row>
@@ -13125,14 +13134,14 @@
       <c r="H48" s="11"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
-      <c r="K48" s="150" t="s">
+      <c r="K48" s="151" t="s">
         <v>886</v>
       </c>
-      <c r="L48" s="151" t="s">
+      <c r="L48" s="152" t="s">
         <v>887</v>
       </c>
-      <c r="M48" s="121"/>
-      <c r="N48" s="121">
+      <c r="M48" s="122"/>
+      <c r="N48" s="122">
         <v>45.0</v>
       </c>
     </row>
@@ -13156,14 +13165,14 @@
       <c r="H49" s="11"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="149">
+      <c r="K49" s="150">
         <v>6.0</v>
       </c>
-      <c r="L49" s="125" t="s">
+      <c r="L49" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="M49" s="121"/>
-      <c r="N49" s="121">
+      <c r="M49" s="122"/>
+      <c r="N49" s="122">
         <v>46.0</v>
       </c>
     </row>
@@ -13190,14 +13199,14 @@
       <c r="H50" s="11"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
-      <c r="K50" s="124" t="s">
+      <c r="K50" s="125" t="s">
         <v>893</v>
       </c>
-      <c r="L50" s="125" t="s">
+      <c r="L50" s="126" t="s">
         <v>894</v>
       </c>
-      <c r="M50" s="121"/>
-      <c r="N50" s="121">
+      <c r="M50" s="122"/>
+      <c r="N50" s="122">
         <v>47.0</v>
       </c>
     </row>
@@ -13221,14 +13230,14 @@
       <c r="H51" s="11"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
-      <c r="K51" s="149">
+      <c r="K51" s="150">
         <v>6.0</v>
       </c>
-      <c r="L51" s="125" t="s">
+      <c r="L51" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="M51" s="121"/>
-      <c r="N51" s="121">
+      <c r="M51" s="122"/>
+      <c r="N51" s="122">
         <v>48.0</v>
       </c>
     </row>
@@ -13255,14 +13264,14 @@
       <c r="H52" s="11"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
-      <c r="K52" s="124" t="s">
+      <c r="K52" s="125" t="s">
         <v>893</v>
       </c>
-      <c r="L52" s="125" t="s">
+      <c r="L52" s="126" t="s">
         <v>899</v>
       </c>
-      <c r="M52" s="121"/>
-      <c r="N52" s="121">
+      <c r="M52" s="122"/>
+      <c r="N52" s="122">
         <v>49.0</v>
       </c>
     </row>
@@ -13289,14 +13298,14 @@
       <c r="H53" s="11"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
-      <c r="K53" s="150" t="s">
+      <c r="K53" s="151" t="s">
         <v>260</v>
       </c>
-      <c r="L53" s="151" t="s">
+      <c r="L53" s="152" t="s">
         <v>903</v>
       </c>
-      <c r="M53" s="121"/>
-      <c r="N53" s="121">
+      <c r="M53" s="122"/>
+      <c r="N53" s="122">
         <v>50.0</v>
       </c>
     </row>
@@ -13310,7 +13319,7 @@
       <c r="C54" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D54" s="123" t="s">
+      <c r="D54" s="124" t="s">
         <v>906</v>
       </c>
       <c r="E54" s="21"/>
@@ -13325,234 +13334,234 @@
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="121"/>
-      <c r="N54" s="121">
+      <c r="K54" s="125"/>
+      <c r="L54" s="126"/>
+      <c r="M54" s="122"/>
+      <c r="N54" s="122">
         <v>51.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="114" t="s">
+      <c r="A55" s="115" t="s">
         <v>909</v>
       </c>
-      <c r="B55" s="116" t="s">
+      <c r="B55" s="117" t="s">
         <v>910</v>
       </c>
-      <c r="C55" s="152" t="s">
+      <c r="C55" s="153" t="s">
         <v>736</v>
       </c>
-      <c r="D55" s="153"/>
+      <c r="D55" s="154"/>
       <c r="E55" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F55" s="115" t="s">
+      <c r="F55" s="116" t="s">
         <v>911</v>
       </c>
-      <c r="G55" s="154"/>
-      <c r="H55" s="155"/>
+      <c r="G55" s="155"/>
+      <c r="H55" s="156"/>
       <c r="I55" s="37"/>
       <c r="J55" s="37"/>
-      <c r="K55" s="156">
+      <c r="K55" s="157">
         <v>0.0</v>
       </c>
-      <c r="L55" s="157" t="s">
+      <c r="L55" s="158" t="s">
         <v>310</v>
       </c>
-      <c r="M55" s="158"/>
-      <c r="N55" s="121">
+      <c r="M55" s="159"/>
+      <c r="N55" s="122">
         <v>52.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="114" t="s">
+      <c r="A56" s="115" t="s">
         <v>912</v>
       </c>
-      <c r="B56" s="116" t="s">
+      <c r="B56" s="117" t="s">
         <v>913</v>
       </c>
-      <c r="C56" s="152" t="s">
+      <c r="C56" s="153" t="s">
         <v>736</v>
       </c>
-      <c r="D56" s="153"/>
+      <c r="D56" s="154"/>
       <c r="E56" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F56" s="115" t="s">
+      <c r="F56" s="116" t="s">
         <v>914</v>
       </c>
-      <c r="G56" s="154"/>
-      <c r="H56" s="155"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="156"/>
       <c r="I56" s="37"/>
       <c r="J56" s="37"/>
-      <c r="K56" s="156">
+      <c r="K56" s="157">
         <v>0.0</v>
       </c>
-      <c r="L56" s="157" t="s">
+      <c r="L56" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="M56" s="158"/>
-      <c r="N56" s="121">
+      <c r="M56" s="159"/>
+      <c r="N56" s="122">
         <v>53.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="114" t="s">
+      <c r="A57" s="115" t="s">
         <v>915</v>
       </c>
-      <c r="B57" s="116" t="s">
+      <c r="B57" s="117" t="s">
         <v>916</v>
       </c>
-      <c r="C57" s="152" t="s">
+      <c r="C57" s="153" t="s">
         <v>736</v>
       </c>
-      <c r="D57" s="153"/>
+      <c r="D57" s="154"/>
       <c r="E57" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F57" s="115" t="s">
+      <c r="F57" s="116" t="s">
         <v>917</v>
       </c>
-      <c r="G57" s="154"/>
-      <c r="H57" s="155"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="156"/>
       <c r="I57" s="37"/>
       <c r="J57" s="37"/>
-      <c r="K57" s="156">
+      <c r="K57" s="157">
         <v>0.0</v>
       </c>
-      <c r="L57" s="157" t="s">
+      <c r="L57" s="158" t="s">
         <v>318</v>
       </c>
-      <c r="M57" s="158"/>
-      <c r="N57" s="121">
+      <c r="M57" s="159"/>
+      <c r="N57" s="122">
         <v>54.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="114" t="s">
+      <c r="A58" s="115" t="s">
         <v>918</v>
       </c>
-      <c r="B58" s="116" t="s">
+      <c r="B58" s="117" t="s">
         <v>919</v>
       </c>
-      <c r="C58" s="152" t="s">
+      <c r="C58" s="153" t="s">
         <v>736</v>
       </c>
-      <c r="D58" s="153"/>
+      <c r="D58" s="154"/>
       <c r="E58" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F58" s="115" t="s">
+      <c r="F58" s="116" t="s">
         <v>920</v>
       </c>
-      <c r="G58" s="154"/>
-      <c r="H58" s="155"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="156"/>
       <c r="I58" s="37"/>
       <c r="J58" s="37"/>
-      <c r="K58" s="156">
+      <c r="K58" s="157">
         <v>0.0</v>
       </c>
-      <c r="L58" s="157" t="s">
+      <c r="L58" s="158" t="s">
         <v>322</v>
       </c>
-      <c r="M58" s="158"/>
-      <c r="N58" s="121">
+      <c r="M58" s="159"/>
+      <c r="N58" s="122">
         <v>55.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="114" t="s">
+      <c r="A59" s="115" t="s">
         <v>921</v>
       </c>
-      <c r="B59" s="116" t="s">
+      <c r="B59" s="117" t="s">
         <v>922</v>
       </c>
-      <c r="C59" s="152" t="s">
+      <c r="C59" s="153" t="s">
         <v>736</v>
       </c>
-      <c r="D59" s="153"/>
+      <c r="D59" s="154"/>
       <c r="E59" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F59" s="115" t="s">
+      <c r="F59" s="116" t="s">
         <v>923</v>
       </c>
-      <c r="G59" s="154"/>
-      <c r="H59" s="155"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="156"/>
       <c r="I59" s="37"/>
       <c r="J59" s="37"/>
-      <c r="K59" s="156">
+      <c r="K59" s="157">
         <v>0.0</v>
       </c>
-      <c r="L59" s="157" t="s">
+      <c r="L59" s="158" t="s">
         <v>326</v>
       </c>
-      <c r="M59" s="158"/>
-      <c r="N59" s="121">
+      <c r="M59" s="159"/>
+      <c r="N59" s="122">
         <v>56.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="114" t="s">
+      <c r="A60" s="115" t="s">
         <v>924</v>
       </c>
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="117" t="s">
         <v>925</v>
       </c>
-      <c r="C60" s="152" t="s">
+      <c r="C60" s="153" t="s">
         <v>736</v>
       </c>
-      <c r="D60" s="153"/>
+      <c r="D60" s="154"/>
       <c r="E60" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F60" s="115" t="s">
+      <c r="F60" s="116" t="s">
         <v>926</v>
       </c>
-      <c r="G60" s="154"/>
-      <c r="H60" s="155"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="156"/>
       <c r="I60" s="37"/>
       <c r="J60" s="37"/>
-      <c r="K60" s="156">
+      <c r="K60" s="157">
         <v>0.0</v>
       </c>
-      <c r="L60" s="157" t="s">
+      <c r="L60" s="158" t="s">
         <v>330</v>
       </c>
-      <c r="M60" s="158"/>
-      <c r="N60" s="121">
+      <c r="M60" s="159"/>
+      <c r="N60" s="122">
         <v>57.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="159" t="s">
+      <c r="A61" s="160" t="s">
         <v>927</v>
       </c>
-      <c r="B61" s="116" t="s">
+      <c r="B61" s="117" t="s">
         <v>928</v>
       </c>
-      <c r="C61" s="152" t="s">
+      <c r="C61" s="153" t="s">
         <v>736</v>
       </c>
-      <c r="D61" s="153"/>
+      <c r="D61" s="154"/>
       <c r="E61" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="115" t="s">
+      <c r="F61" s="116" t="s">
         <v>929</v>
       </c>
-      <c r="G61" s="154"/>
-      <c r="H61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="156"/>
       <c r="I61" s="37"/>
       <c r="J61" s="37"/>
-      <c r="K61" s="156">
+      <c r="K61" s="157">
         <v>0.0</v>
       </c>
-      <c r="L61" s="157" t="s">
+      <c r="L61" s="158" t="s">
         <v>334</v>
       </c>
-      <c r="M61" s="158"/>
-      <c r="N61" s="121">
+      <c r="M61" s="159"/>
+      <c r="N61" s="122">
         <v>58.0</v>
       </c>
     </row>
@@ -13563,12 +13572,12 @@
       <c r="B62" s="16" t="s">
         <v>931</v>
       </c>
-      <c r="C62" s="126" t="s">
+      <c r="C62" s="127" t="s">
         <v>736</v>
       </c>
-      <c r="D62" s="123"/>
-      <c r="E62" s="41" t="s">
-        <v>214</v>
+      <c r="D62" s="124"/>
+      <c r="E62" s="161" t="s">
+        <v>217</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>669</v>
@@ -13579,14 +13588,14 @@
       <c r="H62" s="11"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
-      <c r="K62" s="150" t="s">
+      <c r="K62" s="151" t="s">
         <v>260</v>
       </c>
-      <c r="L62" s="160" t="s">
+      <c r="L62" s="162" t="s">
         <v>933</v>
       </c>
-      <c r="M62" s="121"/>
-      <c r="N62" s="121">
+      <c r="M62" s="122"/>
+      <c r="N62" s="122">
         <v>59.0</v>
       </c>
     </row>
@@ -13597,12 +13606,12 @@
       <c r="B63" s="16" t="s">
         <v>935</v>
       </c>
-      <c r="C63" s="126" t="s">
+      <c r="C63" s="127" t="s">
         <v>736</v>
       </c>
-      <c r="D63" s="123"/>
-      <c r="E63" s="41" t="s">
-        <v>214</v>
+      <c r="D63" s="124"/>
+      <c r="E63" s="161" t="s">
+        <v>217</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>672</v>
@@ -13613,14 +13622,14 @@
       <c r="H63" s="11"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
-      <c r="K63" s="150" t="s">
+      <c r="K63" s="151" t="s">
         <v>260</v>
       </c>
-      <c r="L63" s="160" t="s">
+      <c r="L63" s="162" t="s">
         <v>936</v>
       </c>
-      <c r="M63" s="121"/>
-      <c r="N63" s="121">
+      <c r="M63" s="122"/>
+      <c r="N63" s="122">
         <v>60.0</v>
       </c>
     </row>
@@ -13634,7 +13643,7 @@
       <c r="C64" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D64" s="123"/>
+      <c r="D64" s="124"/>
       <c r="E64" s="16" t="s">
         <v>212</v>
       </c>
@@ -13647,14 +13656,14 @@
       <c r="H64" s="11"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
-      <c r="K64" s="150" t="s">
+      <c r="K64" s="151" t="s">
         <v>940</v>
       </c>
-      <c r="L64" s="160" t="s">
+      <c r="L64" s="162" t="s">
         <v>941</v>
       </c>
-      <c r="M64" s="121"/>
-      <c r="N64" s="121">
+      <c r="M64" s="122"/>
+      <c r="N64" s="122">
         <v>61.0</v>
       </c>
     </row>
@@ -13668,7 +13677,7 @@
       <c r="C65" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D65" s="123"/>
+      <c r="D65" s="124"/>
       <c r="E65" s="16" t="s">
         <v>209</v>
       </c>
@@ -13681,14 +13690,14 @@
       <c r="H65" s="11"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
-      <c r="K65" s="150" t="s">
+      <c r="K65" s="151" t="s">
         <v>945</v>
       </c>
-      <c r="L65" s="160" t="s">
+      <c r="L65" s="162" t="s">
         <v>946</v>
       </c>
-      <c r="M65" s="121"/>
-      <c r="N65" s="121">
+      <c r="M65" s="122"/>
+      <c r="N65" s="122">
         <v>62.0</v>
       </c>
     </row>
@@ -13702,7 +13711,7 @@
       <c r="C66" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D66" s="123"/>
+      <c r="D66" s="124"/>
       <c r="E66" s="16" t="s">
         <v>209</v>
       </c>
@@ -13715,14 +13724,14 @@
       <c r="H66" s="11"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
-      <c r="K66" s="150" t="s">
+      <c r="K66" s="151" t="s">
         <v>950</v>
       </c>
-      <c r="L66" s="160" t="s">
+      <c r="L66" s="162" t="s">
         <v>946</v>
       </c>
-      <c r="M66" s="121"/>
-      <c r="N66" s="121">
+      <c r="M66" s="122"/>
+      <c r="N66" s="122">
         <v>63.0</v>
       </c>
     </row>
@@ -13736,7 +13745,7 @@
       <c r="C67" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D67" s="123"/>
+      <c r="D67" s="124"/>
       <c r="E67" s="16" t="s">
         <v>209</v>
       </c>
@@ -13749,14 +13758,14 @@
       <c r="H67" s="11"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
-      <c r="K67" s="150" t="s">
+      <c r="K67" s="151" t="s">
         <v>954</v>
       </c>
-      <c r="L67" s="160" t="s">
+      <c r="L67" s="162" t="s">
         <v>946</v>
       </c>
-      <c r="M67" s="121"/>
-      <c r="N67" s="121">
+      <c r="M67" s="122"/>
+      <c r="N67" s="122">
         <v>64.0</v>
       </c>
     </row>
@@ -13770,7 +13779,7 @@
       <c r="C68" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D68" s="123"/>
+      <c r="D68" s="124"/>
       <c r="E68" s="16" t="s">
         <v>209</v>
       </c>
@@ -13783,14 +13792,14 @@
       <c r="H68" s="11"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
-      <c r="K68" s="150" t="s">
+      <c r="K68" s="151" t="s">
         <v>958</v>
       </c>
-      <c r="L68" s="160" t="s">
+      <c r="L68" s="162" t="s">
         <v>946</v>
       </c>
-      <c r="M68" s="121"/>
-      <c r="N68" s="121">
+      <c r="M68" s="122"/>
+      <c r="N68" s="122">
         <v>65.0</v>
       </c>
     </row>
@@ -13804,7 +13813,7 @@
       <c r="C69" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D69" s="123"/>
+      <c r="D69" s="124"/>
       <c r="E69" s="16" t="s">
         <v>209</v>
       </c>
@@ -13817,14 +13826,14 @@
       <c r="H69" s="11"/>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
-      <c r="K69" s="150" t="s">
+      <c r="K69" s="151" t="s">
         <v>962</v>
       </c>
-      <c r="L69" s="160" t="s">
+      <c r="L69" s="162" t="s">
         <v>946</v>
       </c>
-      <c r="M69" s="121"/>
-      <c r="N69" s="121">
+      <c r="M69" s="122"/>
+      <c r="N69" s="122">
         <v>66.0</v>
       </c>
     </row>
@@ -13838,7 +13847,7 @@
       <c r="C70" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D70" s="123"/>
+      <c r="D70" s="124"/>
       <c r="E70" s="16" t="s">
         <v>212</v>
       </c>
@@ -13851,14 +13860,14 @@
       <c r="H70" s="11"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
-      <c r="K70" s="150" t="s">
+      <c r="K70" s="151" t="s">
         <v>940</v>
       </c>
-      <c r="L70" s="160" t="s">
+      <c r="L70" s="162" t="s">
         <v>966</v>
       </c>
-      <c r="M70" s="121"/>
-      <c r="N70" s="121">
+      <c r="M70" s="122"/>
+      <c r="N70" s="122">
         <v>67.0</v>
       </c>
     </row>
@@ -13872,7 +13881,7 @@
       <c r="C71" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D71" s="123"/>
+      <c r="D71" s="124"/>
       <c r="E71" s="16" t="s">
         <v>209</v>
       </c>
@@ -13885,14 +13894,14 @@
       <c r="H71" s="11"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
-      <c r="K71" s="150" t="s">
+      <c r="K71" s="151" t="s">
         <v>945</v>
       </c>
-      <c r="L71" s="160" t="s">
+      <c r="L71" s="162" t="s">
         <v>970</v>
       </c>
-      <c r="M71" s="121"/>
-      <c r="N71" s="121">
+      <c r="M71" s="122"/>
+      <c r="N71" s="122">
         <v>68.0</v>
       </c>
     </row>
@@ -13906,7 +13915,7 @@
       <c r="C72" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D72" s="123"/>
+      <c r="D72" s="124"/>
       <c r="E72" s="16" t="s">
         <v>209</v>
       </c>
@@ -13919,14 +13928,14 @@
       <c r="H72" s="11"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
-      <c r="K72" s="150" t="s">
+      <c r="K72" s="151" t="s">
         <v>950</v>
       </c>
-      <c r="L72" s="160" t="s">
+      <c r="L72" s="162" t="s">
         <v>970</v>
       </c>
-      <c r="M72" s="121"/>
-      <c r="N72" s="121">
+      <c r="M72" s="122"/>
+      <c r="N72" s="122">
         <v>69.0</v>
       </c>
     </row>
@@ -13940,7 +13949,7 @@
       <c r="C73" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D73" s="123"/>
+      <c r="D73" s="124"/>
       <c r="E73" s="16" t="s">
         <v>209</v>
       </c>
@@ -13953,14 +13962,14 @@
       <c r="H73" s="11"/>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
-      <c r="K73" s="150" t="s">
+      <c r="K73" s="151" t="s">
         <v>954</v>
       </c>
-      <c r="L73" s="160" t="s">
+      <c r="L73" s="162" t="s">
         <v>970</v>
       </c>
-      <c r="M73" s="121"/>
-      <c r="N73" s="121">
+      <c r="M73" s="122"/>
+      <c r="N73" s="122">
         <v>70.0</v>
       </c>
     </row>
@@ -13974,7 +13983,7 @@
       <c r="C74" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D74" s="123"/>
+      <c r="D74" s="124"/>
       <c r="E74" s="16" t="s">
         <v>209</v>
       </c>
@@ -13987,14 +13996,14 @@
       <c r="H74" s="11"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
-      <c r="K74" s="150" t="s">
+      <c r="K74" s="151" t="s">
         <v>958</v>
       </c>
-      <c r="L74" s="160" t="s">
+      <c r="L74" s="162" t="s">
         <v>970</v>
       </c>
-      <c r="M74" s="121"/>
-      <c r="N74" s="121">
+      <c r="M74" s="122"/>
+      <c r="N74" s="122">
         <v>71.0</v>
       </c>
     </row>
@@ -14008,7 +14017,7 @@
       <c r="C75" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D75" s="123"/>
+      <c r="D75" s="124"/>
       <c r="E75" s="16" t="s">
         <v>209</v>
       </c>
@@ -14021,14 +14030,14 @@
       <c r="H75" s="11"/>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
-      <c r="K75" s="150" t="s">
+      <c r="K75" s="151" t="s">
         <v>962</v>
       </c>
-      <c r="L75" s="160" t="s">
+      <c r="L75" s="162" t="s">
         <v>970</v>
       </c>
-      <c r="M75" s="121"/>
-      <c r="N75" s="121">
+      <c r="M75" s="122"/>
+      <c r="N75" s="122">
         <v>72.0</v>
       </c>
     </row>
@@ -14039,7 +14048,7 @@
       <c r="B76" s="57" t="s">
         <v>984</v>
       </c>
-      <c r="C76" s="126" t="s">
+      <c r="C76" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D76" s="63"/>
@@ -14052,31 +14061,31 @@
       <c r="G76" s="62" t="s">
         <v>985</v>
       </c>
-      <c r="H76" s="161"/>
+      <c r="H76" s="163"/>
       <c r="I76" s="59"/>
       <c r="J76" s="59"/>
-      <c r="K76" s="162" t="s">
+      <c r="K76" s="164" t="s">
         <v>986</v>
       </c>
-      <c r="L76" s="163" t="s">
+      <c r="L76" s="165" t="s">
         <v>987</v>
       </c>
-      <c r="M76" s="164"/>
-      <c r="N76" s="121">
+      <c r="M76" s="166"/>
+      <c r="N76" s="122">
         <v>73.0</v>
       </c>
     </row>
     <row r="77" ht="18.0" customHeight="1">
-      <c r="A77" s="165" t="s">
+      <c r="A77" s="167" t="s">
         <v>988</v>
       </c>
       <c r="B77" s="57" t="s">
         <v>989</v>
       </c>
-      <c r="C77" s="126" t="s">
+      <c r="C77" s="127" t="s">
         <v>736</v>
       </c>
-      <c r="D77" s="166"/>
+      <c r="D77" s="168"/>
       <c r="E77" s="16" t="s">
         <v>214</v>
       </c>
@@ -14086,31 +14095,31 @@
       <c r="G77" s="62" t="s">
         <v>990</v>
       </c>
-      <c r="H77" s="161"/>
+      <c r="H77" s="163"/>
       <c r="I77" s="59"/>
       <c r="J77" s="59"/>
-      <c r="K77" s="162" t="s">
+      <c r="K77" s="164" t="s">
         <v>991</v>
       </c>
-      <c r="L77" s="163" t="s">
+      <c r="L77" s="165" t="s">
         <v>992</v>
       </c>
-      <c r="M77" s="164"/>
-      <c r="N77" s="121">
+      <c r="M77" s="166"/>
+      <c r="N77" s="122">
         <v>74.0</v>
       </c>
     </row>
     <row r="78" ht="18.0" customHeight="1">
-      <c r="A78" s="165" t="s">
+      <c r="A78" s="167" t="s">
         <v>993</v>
       </c>
       <c r="B78" s="57" t="s">
         <v>994</v>
       </c>
-      <c r="C78" s="126" t="s">
+      <c r="C78" s="127" t="s">
         <v>736</v>
       </c>
-      <c r="D78" s="166"/>
+      <c r="D78" s="168"/>
       <c r="E78" s="16" t="s">
         <v>214</v>
       </c>
@@ -14120,31 +14129,31 @@
       <c r="G78" s="62" t="s">
         <v>995</v>
       </c>
-      <c r="H78" s="161"/>
+      <c r="H78" s="163"/>
       <c r="I78" s="59"/>
       <c r="J78" s="59"/>
-      <c r="K78" s="162" t="s">
+      <c r="K78" s="164" t="s">
         <v>996</v>
       </c>
-      <c r="L78" s="167" t="s">
+      <c r="L78" s="169" t="s">
         <v>997</v>
       </c>
-      <c r="M78" s="164"/>
-      <c r="N78" s="121">
+      <c r="M78" s="166"/>
+      <c r="N78" s="122">
         <v>75.0</v>
       </c>
     </row>
     <row r="79" ht="18.0" customHeight="1">
-      <c r="A79" s="165" t="s">
+      <c r="A79" s="167" t="s">
         <v>998</v>
       </c>
       <c r="B79" s="57" t="s">
         <v>999</v>
       </c>
-      <c r="C79" s="126" t="s">
+      <c r="C79" s="127" t="s">
         <v>736</v>
       </c>
-      <c r="D79" s="166"/>
+      <c r="D79" s="168"/>
       <c r="E79" s="16" t="s">
         <v>214</v>
       </c>
@@ -14154,22 +14163,22 @@
       <c r="G79" s="62" t="s">
         <v>1000</v>
       </c>
-      <c r="H79" s="161"/>
+      <c r="H79" s="163"/>
       <c r="I79" s="59"/>
       <c r="J79" s="59"/>
-      <c r="K79" s="162" t="s">
+      <c r="K79" s="164" t="s">
         <v>1001</v>
       </c>
-      <c r="L79" s="167" t="s">
+      <c r="L79" s="169" t="s">
         <v>1002</v>
       </c>
-      <c r="M79" s="164"/>
-      <c r="N79" s="121">
+      <c r="M79" s="166"/>
+      <c r="N79" s="122">
         <v>76.0</v>
       </c>
     </row>
     <row r="80" ht="18.0" customHeight="1">
-      <c r="A80" s="165" t="s">
+      <c r="A80" s="167" t="s">
         <v>1003</v>
       </c>
       <c r="B80" s="57" t="s">
@@ -14178,7 +14187,7 @@
       <c r="C80" s="60" t="s">
         <v>736</v>
       </c>
-      <c r="D80" s="166"/>
+      <c r="D80" s="168"/>
       <c r="E80" s="16" t="s">
         <v>214</v>
       </c>
@@ -14188,22 +14197,22 @@
       <c r="G80" s="62" t="s">
         <v>1005</v>
       </c>
-      <c r="H80" s="161"/>
+      <c r="H80" s="163"/>
       <c r="I80" s="59"/>
       <c r="J80" s="59"/>
-      <c r="K80" s="162" t="s">
+      <c r="K80" s="164" t="s">
         <v>991</v>
       </c>
-      <c r="L80" s="163" t="s">
+      <c r="L80" s="165" t="s">
         <v>1006</v>
       </c>
-      <c r="M80" s="164"/>
-      <c r="N80" s="121">
+      <c r="M80" s="166"/>
+      <c r="N80" s="122">
         <v>77.0</v>
       </c>
     </row>
     <row r="81" ht="18.0" customHeight="1">
-      <c r="A81" s="165" t="s">
+      <c r="A81" s="167" t="s">
         <v>1007</v>
       </c>
       <c r="B81" s="57" t="s">
@@ -14212,7 +14221,7 @@
       <c r="C81" s="60" t="s">
         <v>736</v>
       </c>
-      <c r="D81" s="166"/>
+      <c r="D81" s="168"/>
       <c r="E81" s="16" t="s">
         <v>214</v>
       </c>
@@ -14222,22 +14231,22 @@
       <c r="G81" s="62" t="s">
         <v>1009</v>
       </c>
-      <c r="H81" s="161"/>
+      <c r="H81" s="163"/>
       <c r="I81" s="59"/>
       <c r="J81" s="59"/>
-      <c r="K81" s="162" t="s">
+      <c r="K81" s="164" t="s">
         <v>996</v>
       </c>
-      <c r="L81" s="167" t="s">
+      <c r="L81" s="169" t="s">
         <v>1010</v>
       </c>
-      <c r="M81" s="164"/>
-      <c r="N81" s="121">
+      <c r="M81" s="166"/>
+      <c r="N81" s="122">
         <v>78.0</v>
       </c>
     </row>
     <row r="82" ht="18.0" customHeight="1">
-      <c r="A82" s="165" t="s">
+      <c r="A82" s="167" t="s">
         <v>1011</v>
       </c>
       <c r="B82" s="57" t="s">
@@ -14246,7 +14255,7 @@
       <c r="C82" s="60" t="s">
         <v>736</v>
       </c>
-      <c r="D82" s="166"/>
+      <c r="D82" s="168"/>
       <c r="E82" s="16" t="s">
         <v>214</v>
       </c>
@@ -14261,148 +14270,148 @@
       </c>
       <c r="I82" s="59"/>
       <c r="J82" s="59"/>
-      <c r="K82" s="162" t="s">
+      <c r="K82" s="164" t="s">
         <v>1001</v>
       </c>
-      <c r="L82" s="167" t="s">
+      <c r="L82" s="169" t="s">
         <v>1015</v>
       </c>
-      <c r="M82" s="164"/>
-      <c r="N82" s="121">
+      <c r="M82" s="166"/>
+      <c r="N82" s="122">
         <v>79.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="114" t="s">
+      <c r="A83" s="115" t="s">
         <v>1016</v>
       </c>
-      <c r="B83" s="116" t="s">
+      <c r="B83" s="117" t="s">
         <v>1017</v>
       </c>
-      <c r="C83" s="152" t="s">
+      <c r="C83" s="153" t="s">
         <v>736</v>
       </c>
-      <c r="D83" s="115"/>
+      <c r="D83" s="116"/>
       <c r="E83" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F83" s="115" t="s">
+      <c r="F83" s="116" t="s">
         <v>678</v>
       </c>
       <c r="G83" s="37"/>
-      <c r="H83" s="155"/>
+      <c r="H83" s="156"/>
       <c r="I83" s="37"/>
       <c r="J83" s="37"/>
-      <c r="K83" s="168">
+      <c r="K83" s="170">
         <v>0.0</v>
       </c>
-      <c r="L83" s="157" t="s">
+      <c r="L83" s="158" t="s">
         <v>403</v>
       </c>
-      <c r="M83" s="158"/>
-      <c r="N83" s="121">
+      <c r="M83" s="159"/>
+      <c r="N83" s="122">
         <v>80.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="75" t="s">
+      <c r="A84" s="76" t="s">
         <v>1018</v>
       </c>
-      <c r="B84" s="69" t="s">
+      <c r="B84" s="70" t="s">
         <v>1019</v>
       </c>
       <c r="C84" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D84" s="73"/>
+      <c r="D84" s="74"/>
       <c r="E84" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F84" s="69" t="s">
+      <c r="F84" s="70" t="s">
         <v>679</v>
       </c>
-      <c r="G84" s="77" t="s">
+      <c r="G84" s="78" t="s">
         <v>1020</v>
       </c>
-      <c r="H84" s="73"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="71"/>
-      <c r="K84" s="169" t="s">
+      <c r="H84" s="74"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="72"/>
+      <c r="K84" s="171" t="s">
         <v>260</v>
       </c>
-      <c r="L84" s="170" t="s">
+      <c r="L84" s="172" t="s">
         <v>1021</v>
       </c>
-      <c r="M84" s="171"/>
-      <c r="N84" s="121">
+      <c r="M84" s="173"/>
+      <c r="N84" s="122">
         <v>81.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="75" t="s">
+      <c r="A85" s="76" t="s">
         <v>1022</v>
       </c>
-      <c r="B85" s="69" t="s">
+      <c r="B85" s="70" t="s">
         <v>1023</v>
       </c>
-      <c r="C85" s="172" t="s">
+      <c r="C85" s="174" t="s">
         <v>739</v>
       </c>
-      <c r="D85" s="73"/>
+      <c r="D85" s="74"/>
       <c r="E85" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F85" s="69" t="s">
+      <c r="F85" s="70" t="s">
         <v>1020</v>
       </c>
-      <c r="G85" s="77" t="s">
+      <c r="G85" s="78" t="s">
         <v>1024</v>
       </c>
-      <c r="H85" s="73"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="169" t="s">
+      <c r="H85" s="74"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
+      <c r="K85" s="171" t="s">
         <v>996</v>
       </c>
-      <c r="L85" s="170" t="s">
+      <c r="L85" s="172" t="s">
         <v>997</v>
       </c>
-      <c r="M85" s="171"/>
-      <c r="N85" s="121">
+      <c r="M85" s="173"/>
+      <c r="N85" s="122">
         <v>82.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="75" t="s">
+      <c r="A86" s="76" t="s">
         <v>1025</v>
       </c>
-      <c r="B86" s="69" t="s">
+      <c r="B86" s="70" t="s">
         <v>1026</v>
       </c>
       <c r="C86" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D86" s="73"/>
+      <c r="D86" s="74"/>
       <c r="E86" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F86" s="69" t="s">
+      <c r="F86" s="70" t="s">
         <v>1020</v>
       </c>
-      <c r="G86" s="77" t="s">
+      <c r="G86" s="78" t="s">
         <v>1027</v>
       </c>
-      <c r="H86" s="73"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="169" t="s">
+      <c r="H86" s="74"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="72"/>
+      <c r="K86" s="171" t="s">
         <v>996</v>
       </c>
-      <c r="L86" s="170" t="s">
+      <c r="L86" s="172" t="s">
         <v>1028</v>
       </c>
-      <c r="M86" s="171"/>
-      <c r="N86" s="121">
+      <c r="M86" s="173"/>
+      <c r="N86" s="122">
         <v>83.0</v>
       </c>
     </row>
@@ -14416,7 +14425,7 @@
       <c r="C87" s="36" t="s">
         <v>736</v>
       </c>
-      <c r="D87" s="123"/>
+      <c r="D87" s="124"/>
       <c r="E87" s="41" t="s">
         <v>214</v>
       </c>
@@ -14426,14 +14435,14 @@
       <c r="H87" s="11"/>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
-      <c r="K87" s="149">
+      <c r="K87" s="150">
         <v>0.0</v>
       </c>
-      <c r="L87" s="125" t="s">
+      <c r="L87" s="152" t="s">
         <v>395</v>
       </c>
-      <c r="M87" s="121"/>
-      <c r="N87" s="121">
+      <c r="M87" s="122"/>
+      <c r="N87" s="122">
         <v>84.0</v>
       </c>
     </row>
@@ -14460,14 +14469,14 @@
       <c r="H88" s="17"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
-      <c r="K88" s="150" t="s">
+      <c r="K88" s="151" t="s">
         <v>806</v>
       </c>
-      <c r="L88" s="160" t="s">
+      <c r="L88" s="162" t="s">
         <v>1034</v>
       </c>
-      <c r="M88" s="121"/>
-      <c r="N88" s="121">
+      <c r="M88" s="122"/>
+      <c r="N88" s="122">
         <v>85.0</v>
       </c>
     </row>
@@ -14494,14 +14503,14 @@
       <c r="H89" s="17"/>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
-      <c r="K89" s="150" t="s">
+      <c r="K89" s="151" t="s">
         <v>1038</v>
       </c>
-      <c r="L89" s="173" t="s">
+      <c r="L89" s="175" t="s">
         <v>1039</v>
       </c>
-      <c r="M89" s="121"/>
-      <c r="N89" s="121">
+      <c r="M89" s="122"/>
+      <c r="N89" s="122">
         <v>86.0</v>
       </c>
     </row>
@@ -14528,14 +14537,14 @@
       <c r="H90" s="17"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
-      <c r="K90" s="150" t="s">
+      <c r="K90" s="151" t="s">
         <v>1038</v>
       </c>
-      <c r="L90" s="160" t="s">
+      <c r="L90" s="162" t="s">
         <v>1043</v>
       </c>
-      <c r="M90" s="121"/>
-      <c r="N90" s="121">
+      <c r="M90" s="122"/>
+      <c r="N90" s="122">
         <v>87.0</v>
       </c>
     </row>
@@ -14562,14 +14571,14 @@
       <c r="H91" s="17"/>
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
-      <c r="K91" s="149">
+      <c r="K91" s="150">
         <v>0.0</v>
       </c>
-      <c r="L91" s="174" t="s">
+      <c r="L91" s="176" t="s">
         <v>310</v>
       </c>
-      <c r="M91" s="121"/>
-      <c r="N91" s="121">
+      <c r="M91" s="122"/>
+      <c r="N91" s="122">
         <v>88.0</v>
       </c>
     </row>
@@ -14596,14 +14605,14 @@
       <c r="H92" s="17"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
-      <c r="K92" s="149">
+      <c r="K92" s="150">
         <v>0.0</v>
       </c>
-      <c r="L92" s="174" t="s">
+      <c r="L92" s="176" t="s">
         <v>314</v>
       </c>
-      <c r="M92" s="121"/>
-      <c r="N92" s="121">
+      <c r="M92" s="122"/>
+      <c r="N92" s="122">
         <v>89.0</v>
       </c>
     </row>
@@ -14630,14 +14639,14 @@
       <c r="H93" s="17"/>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
-      <c r="K93" s="149">
+      <c r="K93" s="150">
         <v>0.0</v>
       </c>
-      <c r="L93" s="174" t="s">
+      <c r="L93" s="176" t="s">
         <v>318</v>
       </c>
-      <c r="M93" s="121"/>
-      <c r="N93" s="121">
+      <c r="M93" s="122"/>
+      <c r="N93" s="122">
         <v>90.0</v>
       </c>
     </row>
@@ -14664,14 +14673,14 @@
       <c r="H94" s="17"/>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
-      <c r="K94" s="149">
+      <c r="K94" s="150">
         <v>0.0</v>
       </c>
-      <c r="L94" s="174" t="s">
+      <c r="L94" s="176" t="s">
         <v>322</v>
       </c>
-      <c r="M94" s="121"/>
-      <c r="N94" s="121">
+      <c r="M94" s="122"/>
+      <c r="N94" s="122">
         <v>91.0</v>
       </c>
     </row>
@@ -14698,14 +14707,14 @@
       <c r="H95" s="17"/>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
-      <c r="K95" s="149">
+      <c r="K95" s="150">
         <v>0.0</v>
       </c>
-      <c r="L95" s="174" t="s">
+      <c r="L95" s="176" t="s">
         <v>326</v>
       </c>
-      <c r="M95" s="121"/>
-      <c r="N95" s="121">
+      <c r="M95" s="122"/>
+      <c r="N95" s="122">
         <v>92.0</v>
       </c>
     </row>
@@ -14732,14 +14741,14 @@
       <c r="H96" s="17"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
-      <c r="K96" s="149">
+      <c r="K96" s="150">
         <v>0.0</v>
       </c>
-      <c r="L96" s="174" t="s">
+      <c r="L96" s="176" t="s">
         <v>330</v>
       </c>
-      <c r="M96" s="121"/>
-      <c r="N96" s="121">
+      <c r="M96" s="122"/>
+      <c r="N96" s="122">
         <v>93.0</v>
       </c>
     </row>
@@ -14766,14 +14775,14 @@
       <c r="H97" s="17"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
-      <c r="K97" s="149">
+      <c r="K97" s="150">
         <v>0.0</v>
       </c>
-      <c r="L97" s="174" t="s">
+      <c r="L97" s="176" t="s">
         <v>334</v>
       </c>
-      <c r="M97" s="121"/>
-      <c r="N97" s="121">
+      <c r="M97" s="122"/>
+      <c r="N97" s="122">
         <v>94.0</v>
       </c>
     </row>
@@ -14800,14 +14809,14 @@
       <c r="H98" s="17"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
-      <c r="K98" s="149">
+      <c r="K98" s="150">
         <v>0.0</v>
       </c>
-      <c r="L98" s="174" t="s">
+      <c r="L98" s="176" t="s">
         <v>338</v>
       </c>
-      <c r="M98" s="121"/>
-      <c r="N98" s="121">
+      <c r="M98" s="122"/>
+      <c r="N98" s="122">
         <v>95.0</v>
       </c>
     </row>
@@ -14834,14 +14843,14 @@
       <c r="H99" s="17"/>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
-      <c r="K99" s="175" t="s">
+      <c r="K99" s="177" t="s">
         <v>1071</v>
       </c>
       <c r="L99" s="18" t="s">
         <v>1072</v>
       </c>
-      <c r="M99" s="176"/>
-      <c r="N99" s="121">
+      <c r="M99" s="178"/>
+      <c r="N99" s="122">
         <v>96.0</v>
       </c>
     </row>
@@ -14868,14 +14877,14 @@
       <c r="H100" s="17"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
-      <c r="K100" s="175" t="s">
+      <c r="K100" s="177" t="s">
         <v>1075</v>
       </c>
       <c r="L100" s="18" t="s">
         <v>1076</v>
       </c>
-      <c r="M100" s="121"/>
-      <c r="N100" s="121">
+      <c r="M100" s="122"/>
+      <c r="N100" s="122">
         <v>97.0</v>
       </c>
     </row>
@@ -14902,14 +14911,14 @@
       <c r="H101" s="17"/>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
-      <c r="K101" s="175" t="s">
+      <c r="K101" s="177" t="s">
         <v>1079</v>
       </c>
       <c r="L101" s="18" t="s">
         <v>1080</v>
       </c>
-      <c r="M101" s="121"/>
-      <c r="N101" s="121">
+      <c r="M101" s="122"/>
+      <c r="N101" s="122">
         <v>98.0</v>
       </c>
     </row>
@@ -14936,14 +14945,14 @@
       <c r="H102" s="17"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
-      <c r="K102" s="175" t="s">
+      <c r="K102" s="177" t="s">
         <v>1083</v>
       </c>
       <c r="L102" s="18" t="s">
         <v>1084</v>
       </c>
-      <c r="M102" s="121"/>
-      <c r="N102" s="121">
+      <c r="M102" s="122"/>
+      <c r="N102" s="122">
         <v>99.0</v>
       </c>
     </row>
@@ -14970,14 +14979,14 @@
       <c r="H103" s="17"/>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
-      <c r="K103" s="175" t="s">
+      <c r="K103" s="177" t="s">
         <v>1087</v>
       </c>
       <c r="L103" s="18" t="s">
         <v>1088</v>
       </c>
-      <c r="M103" s="121"/>
-      <c r="N103" s="121">
+      <c r="M103" s="122"/>
+      <c r="N103" s="122">
         <v>100.0</v>
       </c>
     </row>
@@ -15004,14 +15013,14 @@
       <c r="H104" s="17"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
-      <c r="K104" s="175" t="s">
+      <c r="K104" s="177" t="s">
         <v>986</v>
       </c>
       <c r="L104" s="18" t="s">
         <v>1091</v>
       </c>
-      <c r="M104" s="121"/>
-      <c r="N104" s="121">
+      <c r="M104" s="122"/>
+      <c r="N104" s="122">
         <v>101.0</v>
       </c>
     </row>
@@ -15038,14 +15047,14 @@
       <c r="H105" s="17"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13"/>
-      <c r="K105" s="175" t="s">
+      <c r="K105" s="177" t="s">
         <v>827</v>
       </c>
       <c r="L105" s="18" t="s">
         <v>1094</v>
       </c>
-      <c r="M105" s="121"/>
-      <c r="N105" s="121">
+      <c r="M105" s="122"/>
+      <c r="N105" s="122">
         <v>102.0</v>
       </c>
     </row>
@@ -15072,14 +15081,14 @@
       <c r="H106" s="17"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13"/>
-      <c r="K106" s="175" t="s">
+      <c r="K106" s="177" t="s">
         <v>260</v>
       </c>
       <c r="L106" s="18" t="s">
         <v>1097</v>
       </c>
-      <c r="M106" s="121"/>
-      <c r="N106" s="121">
+      <c r="M106" s="122"/>
+      <c r="N106" s="122">
         <v>103.0</v>
       </c>
     </row>
@@ -15106,14 +15115,14 @@
       <c r="H107" s="17"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
-      <c r="K107" s="149" t="s">
+      <c r="K107" s="150" t="s">
         <v>827</v>
       </c>
       <c r="L107" s="19" t="s">
         <v>1101</v>
       </c>
-      <c r="M107" s="121"/>
-      <c r="N107" s="121">
+      <c r="M107" s="122"/>
+      <c r="N107" s="122">
         <v>104.0</v>
       </c>
     </row>
@@ -15140,14 +15149,14 @@
       <c r="H108" s="17"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13"/>
-      <c r="K108" s="149" t="s">
+      <c r="K108" s="150" t="s">
         <v>986</v>
       </c>
       <c r="L108" s="19" t="s">
         <v>1104</v>
       </c>
-      <c r="M108" s="121"/>
-      <c r="N108" s="121">
+      <c r="M108" s="122"/>
+      <c r="N108" s="122">
         <v>105.0</v>
       </c>
     </row>
@@ -15174,14 +15183,14 @@
       <c r="H109" s="17"/>
       <c r="I109" s="13"/>
       <c r="J109" s="13"/>
-      <c r="K109" s="149" t="s">
+      <c r="K109" s="150" t="s">
         <v>827</v>
       </c>
-      <c r="L109" s="177" t="s">
+      <c r="L109" s="179" t="s">
         <v>1108</v>
       </c>
-      <c r="M109" s="121"/>
-      <c r="N109" s="121">
+      <c r="M109" s="122"/>
+      <c r="N109" s="122">
         <v>106.0</v>
       </c>
     </row>
@@ -15208,14 +15217,14 @@
       <c r="H110" s="17"/>
       <c r="I110" s="13"/>
       <c r="J110" s="13"/>
-      <c r="K110" s="150" t="s">
+      <c r="K110" s="151" t="s">
         <v>1112</v>
       </c>
-      <c r="L110" s="174" t="s">
+      <c r="L110" s="176" t="s">
         <v>1113</v>
       </c>
-      <c r="M110" s="121"/>
-      <c r="N110" s="121">
+      <c r="M110" s="122"/>
+      <c r="N110" s="122">
         <v>107.0</v>
       </c>
     </row>
@@ -15242,14 +15251,14 @@
       <c r="H111" s="17"/>
       <c r="I111" s="13"/>
       <c r="J111" s="13"/>
-      <c r="K111" s="150" t="s">
+      <c r="K111" s="151" t="s">
         <v>1112</v>
       </c>
-      <c r="L111" s="174" t="s">
+      <c r="L111" s="176" t="s">
         <v>1117</v>
       </c>
-      <c r="M111" s="121"/>
-      <c r="N111" s="121">
+      <c r="M111" s="122"/>
+      <c r="N111" s="122">
         <v>108.0</v>
       </c>
     </row>
@@ -15260,7 +15269,7 @@
       <c r="B112" s="16" t="s">
         <v>1119</v>
       </c>
-      <c r="C112" s="126" t="s">
+      <c r="C112" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D112" s="17"/>
@@ -15276,16 +15285,16 @@
       <c r="H112" s="17"/>
       <c r="I112" s="13"/>
       <c r="J112" s="13"/>
-      <c r="K112" s="178" t="s">
+      <c r="K112" s="180" t="s">
         <v>260</v>
       </c>
-      <c r="L112" s="179" t="s">
+      <c r="L112" s="181" t="s">
         <v>1121</v>
       </c>
       <c r="M112" s="19" t="s">
         <v>1122</v>
       </c>
-      <c r="N112" s="121">
+      <c r="N112" s="122">
         <v>109.0</v>
       </c>
     </row>
@@ -15296,7 +15305,7 @@
       <c r="B113" s="16" t="s">
         <v>1124</v>
       </c>
-      <c r="C113" s="126" t="s">
+      <c r="C113" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D113" s="17"/>
@@ -15312,14 +15321,14 @@
       <c r="H113" s="17"/>
       <c r="I113" s="13"/>
       <c r="J113" s="13"/>
-      <c r="K113" s="149" t="s">
+      <c r="K113" s="150" t="s">
         <v>940</v>
       </c>
-      <c r="L113" s="174" t="s">
+      <c r="L113" s="176" t="s">
         <v>1126</v>
       </c>
-      <c r="M113" s="121"/>
-      <c r="N113" s="121">
+      <c r="M113" s="122"/>
+      <c r="N113" s="122">
         <v>110.0</v>
       </c>
     </row>
@@ -15330,7 +15339,7 @@
       <c r="B114" s="16" t="s">
         <v>1128</v>
       </c>
-      <c r="C114" s="126" t="s">
+      <c r="C114" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D114" s="17"/>
@@ -15346,14 +15355,14 @@
       <c r="H114" s="17"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
-      <c r="K114" s="150" t="s">
+      <c r="K114" s="151" t="s">
         <v>1130</v>
       </c>
-      <c r="L114" s="160" t="s">
+      <c r="L114" s="162" t="s">
         <v>1131</v>
       </c>
-      <c r="M114" s="121"/>
-      <c r="N114" s="121">
+      <c r="M114" s="122"/>
+      <c r="N114" s="122">
         <v>111.0</v>
       </c>
     </row>
@@ -15364,7 +15373,7 @@
       <c r="B115" s="16" t="s">
         <v>1133</v>
       </c>
-      <c r="C115" s="126" t="s">
+      <c r="C115" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D115" s="17"/>
@@ -15380,14 +15389,14 @@
       <c r="H115" s="17"/>
       <c r="I115" s="13"/>
       <c r="J115" s="13"/>
-      <c r="K115" s="150" t="s">
+      <c r="K115" s="151" t="s">
         <v>958</v>
       </c>
-      <c r="L115" s="160" t="s">
+      <c r="L115" s="162" t="s">
         <v>1131</v>
       </c>
-      <c r="M115" s="121"/>
-      <c r="N115" s="121">
+      <c r="M115" s="122"/>
+      <c r="N115" s="122">
         <v>112.0</v>
       </c>
     </row>
@@ -15398,7 +15407,7 @@
       <c r="B116" s="16" t="s">
         <v>1136</v>
       </c>
-      <c r="C116" s="126" t="s">
+      <c r="C116" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D116" s="17"/>
@@ -15414,14 +15423,14 @@
       <c r="H116" s="17"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13"/>
-      <c r="K116" s="150" t="s">
+      <c r="K116" s="151" t="s">
         <v>954</v>
       </c>
-      <c r="L116" s="160" t="s">
+      <c r="L116" s="162" t="s">
         <v>1131</v>
       </c>
-      <c r="M116" s="121"/>
-      <c r="N116" s="121">
+      <c r="M116" s="122"/>
+      <c r="N116" s="122">
         <v>113.0</v>
       </c>
     </row>
@@ -15432,7 +15441,7 @@
       <c r="B117" s="16" t="s">
         <v>1139</v>
       </c>
-      <c r="C117" s="126" t="s">
+      <c r="C117" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D117" s="17"/>
@@ -15448,14 +15457,14 @@
       <c r="H117" s="17"/>
       <c r="I117" s="13"/>
       <c r="J117" s="13"/>
-      <c r="K117" s="150" t="s">
+      <c r="K117" s="151" t="s">
         <v>950</v>
       </c>
-      <c r="L117" s="160" t="s">
+      <c r="L117" s="162" t="s">
         <v>1131</v>
       </c>
-      <c r="M117" s="121"/>
-      <c r="N117" s="121">
+      <c r="M117" s="122"/>
+      <c r="N117" s="122">
         <v>114.0</v>
       </c>
     </row>
@@ -15466,7 +15475,7 @@
       <c r="B118" s="16" t="s">
         <v>1142</v>
       </c>
-      <c r="C118" s="126" t="s">
+      <c r="C118" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D118" s="17"/>
@@ -15482,14 +15491,14 @@
       <c r="H118" s="17"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13"/>
-      <c r="K118" s="150" t="s">
+      <c r="K118" s="151" t="s">
         <v>950</v>
       </c>
-      <c r="L118" s="160" t="s">
+      <c r="L118" s="162" t="s">
         <v>1131</v>
       </c>
-      <c r="M118" s="121"/>
-      <c r="N118" s="121">
+      <c r="M118" s="122"/>
+      <c r="N118" s="122">
         <v>115.0</v>
       </c>
     </row>
@@ -15500,7 +15509,7 @@
       <c r="B119" s="16" t="s">
         <v>1145</v>
       </c>
-      <c r="C119" s="126" t="s">
+      <c r="C119" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D119" s="17"/>
@@ -15516,16 +15525,16 @@
       <c r="H119" s="17"/>
       <c r="I119" s="13"/>
       <c r="J119" s="13"/>
-      <c r="K119" s="178" t="s">
+      <c r="K119" s="180" t="s">
         <v>260</v>
       </c>
-      <c r="L119" s="179" t="s">
+      <c r="L119" s="181" t="s">
         <v>1146</v>
       </c>
       <c r="M119" s="19" t="s">
         <v>1122</v>
       </c>
-      <c r="N119" s="121">
+      <c r="N119" s="122">
         <v>116.0</v>
       </c>
     </row>
@@ -15536,7 +15545,7 @@
       <c r="B120" s="16" t="s">
         <v>1148</v>
       </c>
-      <c r="C120" s="126" t="s">
+      <c r="C120" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D120" s="17"/>
@@ -15552,14 +15561,14 @@
       <c r="H120" s="17"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13"/>
-      <c r="K120" s="149" t="s">
+      <c r="K120" s="150" t="s">
         <v>940</v>
       </c>
-      <c r="L120" s="174" t="s">
+      <c r="L120" s="176" t="s">
         <v>1150</v>
       </c>
-      <c r="M120" s="121"/>
-      <c r="N120" s="121">
+      <c r="M120" s="122"/>
+      <c r="N120" s="122">
         <v>117.0</v>
       </c>
     </row>
@@ -15570,7 +15579,7 @@
       <c r="B121" s="16" t="s">
         <v>1152</v>
       </c>
-      <c r="C121" s="126" t="s">
+      <c r="C121" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D121" s="17"/>
@@ -15586,14 +15595,14 @@
       <c r="H121" s="17"/>
       <c r="I121" s="13"/>
       <c r="J121" s="13"/>
-      <c r="K121" s="150" t="s">
+      <c r="K121" s="151" t="s">
         <v>962</v>
       </c>
-      <c r="L121" s="160" t="s">
+      <c r="L121" s="162" t="s">
         <v>1154</v>
       </c>
-      <c r="M121" s="121"/>
-      <c r="N121" s="121">
+      <c r="M121" s="122"/>
+      <c r="N121" s="122">
         <v>118.0</v>
       </c>
     </row>
@@ -15604,7 +15613,7 @@
       <c r="B122" s="16" t="s">
         <v>1156</v>
       </c>
-      <c r="C122" s="126" t="s">
+      <c r="C122" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D122" s="17"/>
@@ -15620,14 +15629,14 @@
       <c r="H122" s="17"/>
       <c r="I122" s="13"/>
       <c r="J122" s="13"/>
-      <c r="K122" s="150" t="s">
+      <c r="K122" s="151" t="s">
         <v>958</v>
       </c>
-      <c r="L122" s="160" t="s">
+      <c r="L122" s="162" t="s">
         <v>1154</v>
       </c>
-      <c r="M122" s="121"/>
-      <c r="N122" s="121">
+      <c r="M122" s="122"/>
+      <c r="N122" s="122">
         <v>119.0</v>
       </c>
     </row>
@@ -15638,7 +15647,7 @@
       <c r="B123" s="16" t="s">
         <v>1159</v>
       </c>
-      <c r="C123" s="126" t="s">
+      <c r="C123" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D123" s="17"/>
@@ -15654,14 +15663,14 @@
       <c r="H123" s="17"/>
       <c r="I123" s="13"/>
       <c r="J123" s="13"/>
-      <c r="K123" s="150" t="s">
+      <c r="K123" s="151" t="s">
         <v>954</v>
       </c>
-      <c r="L123" s="160" t="s">
+      <c r="L123" s="162" t="s">
         <v>1154</v>
       </c>
-      <c r="M123" s="121"/>
-      <c r="N123" s="121">
+      <c r="M123" s="122"/>
+      <c r="N123" s="122">
         <v>120.0</v>
       </c>
     </row>
@@ -15672,7 +15681,7 @@
       <c r="B124" s="16" t="s">
         <v>1162</v>
       </c>
-      <c r="C124" s="126" t="s">
+      <c r="C124" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D124" s="17"/>
@@ -15688,14 +15697,14 @@
       <c r="H124" s="17"/>
       <c r="I124" s="13"/>
       <c r="J124" s="13"/>
-      <c r="K124" s="150" t="s">
+      <c r="K124" s="151" t="s">
         <v>950</v>
       </c>
-      <c r="L124" s="160" t="s">
+      <c r="L124" s="162" t="s">
         <v>1154</v>
       </c>
-      <c r="M124" s="121"/>
-      <c r="N124" s="121">
+      <c r="M124" s="122"/>
+      <c r="N124" s="122">
         <v>121.0</v>
       </c>
     </row>
@@ -15706,7 +15715,7 @@
       <c r="B125" s="16" t="s">
         <v>1165</v>
       </c>
-      <c r="C125" s="126" t="s">
+      <c r="C125" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D125" s="17"/>
@@ -15722,14 +15731,14 @@
       <c r="H125" s="17"/>
       <c r="I125" s="13"/>
       <c r="J125" s="13"/>
-      <c r="K125" s="150" t="s">
+      <c r="K125" s="151" t="s">
         <v>945</v>
       </c>
-      <c r="L125" s="160" t="s">
+      <c r="L125" s="162" t="s">
         <v>1154</v>
       </c>
-      <c r="M125" s="121"/>
-      <c r="N125" s="121">
+      <c r="M125" s="122"/>
+      <c r="N125" s="122">
         <v>122.0</v>
       </c>
     </row>
@@ -15740,7 +15749,7 @@
       <c r="B126" s="16" t="s">
         <v>1168</v>
       </c>
-      <c r="C126" s="126" t="s">
+      <c r="C126" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D126" s="17"/>
@@ -15756,14 +15765,14 @@
       <c r="H126" s="17"/>
       <c r="I126" s="13"/>
       <c r="J126" s="13"/>
-      <c r="K126" s="149" t="s">
+      <c r="K126" s="150" t="s">
         <v>260</v>
       </c>
       <c r="L126" s="19" t="s">
         <v>1108</v>
       </c>
-      <c r="M126" s="180"/>
-      <c r="N126" s="121">
+      <c r="M126" s="182"/>
+      <c r="N126" s="122">
         <v>123.0</v>
       </c>
     </row>
@@ -15774,7 +15783,7 @@
       <c r="B127" s="16" t="s">
         <v>1171</v>
       </c>
-      <c r="C127" s="126" t="s">
+      <c r="C127" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D127" s="17"/>
@@ -15790,14 +15799,14 @@
       <c r="H127" s="17"/>
       <c r="I127" s="13"/>
       <c r="J127" s="13"/>
-      <c r="K127" s="150" t="s">
+      <c r="K127" s="151" t="s">
         <v>1173</v>
       </c>
-      <c r="L127" s="160" t="s">
+      <c r="L127" s="162" t="s">
         <v>1113</v>
       </c>
-      <c r="M127" s="121"/>
-      <c r="N127" s="121">
+      <c r="M127" s="122"/>
+      <c r="N127" s="122">
         <v>124.0</v>
       </c>
     </row>
@@ -15808,7 +15817,7 @@
       <c r="B128" s="16" t="s">
         <v>1175</v>
       </c>
-      <c r="C128" s="126" t="s">
+      <c r="C128" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D128" s="17"/>
@@ -15824,14 +15833,14 @@
       <c r="H128" s="17"/>
       <c r="I128" s="13"/>
       <c r="J128" s="13"/>
-      <c r="K128" s="150" t="s">
+      <c r="K128" s="151" t="s">
         <v>996</v>
       </c>
-      <c r="L128" s="160" t="s">
+      <c r="L128" s="162" t="s">
         <v>997</v>
       </c>
-      <c r="M128" s="121"/>
-      <c r="N128" s="121">
+      <c r="M128" s="122"/>
+      <c r="N128" s="122">
         <v>125.0</v>
       </c>
     </row>
@@ -15842,7 +15851,7 @@
       <c r="B129" s="16" t="s">
         <v>1178</v>
       </c>
-      <c r="C129" s="126" t="s">
+      <c r="C129" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D129" s="17"/>
@@ -15858,14 +15867,14 @@
       <c r="H129" s="17"/>
       <c r="I129" s="13"/>
       <c r="J129" s="13"/>
-      <c r="K129" s="150" t="s">
+      <c r="K129" s="151" t="s">
         <v>1001</v>
       </c>
-      <c r="L129" s="160" t="s">
+      <c r="L129" s="162" t="s">
         <v>1002</v>
       </c>
-      <c r="M129" s="121"/>
-      <c r="N129" s="121">
+      <c r="M129" s="122"/>
+      <c r="N129" s="122">
         <v>126.0</v>
       </c>
     </row>
@@ -15876,7 +15885,7 @@
       <c r="B130" s="16" t="s">
         <v>1181</v>
       </c>
-      <c r="C130" s="126" t="s">
+      <c r="C130" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D130" s="17"/>
@@ -15892,14 +15901,14 @@
       <c r="H130" s="17"/>
       <c r="I130" s="13"/>
       <c r="J130" s="13"/>
-      <c r="K130" s="150" t="s">
+      <c r="K130" s="151" t="s">
         <v>991</v>
       </c>
-      <c r="L130" s="160" t="s">
+      <c r="L130" s="162" t="s">
         <v>1183</v>
       </c>
-      <c r="M130" s="121"/>
-      <c r="N130" s="121">
+      <c r="M130" s="122"/>
+      <c r="N130" s="122">
         <v>127.0</v>
       </c>
     </row>
@@ -15910,7 +15919,7 @@
       <c r="B131" s="16" t="s">
         <v>1185</v>
       </c>
-      <c r="C131" s="126" t="s">
+      <c r="C131" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D131" s="17"/>
@@ -15926,14 +15935,14 @@
       <c r="H131" s="17"/>
       <c r="I131" s="13"/>
       <c r="J131" s="13"/>
-      <c r="K131" s="150" t="s">
+      <c r="K131" s="151" t="s">
         <v>996</v>
       </c>
-      <c r="L131" s="160" t="s">
+      <c r="L131" s="162" t="s">
         <v>1187</v>
       </c>
-      <c r="M131" s="121"/>
-      <c r="N131" s="121">
+      <c r="M131" s="122"/>
+      <c r="N131" s="122">
         <v>128.0</v>
       </c>
     </row>
@@ -15944,7 +15953,7 @@
       <c r="B132" s="16" t="s">
         <v>1189</v>
       </c>
-      <c r="C132" s="126" t="s">
+      <c r="C132" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D132" s="17"/>
@@ -15960,14 +15969,14 @@
       <c r="H132" s="17"/>
       <c r="I132" s="13"/>
       <c r="J132" s="13"/>
-      <c r="K132" s="150" t="s">
+      <c r="K132" s="151" t="s">
         <v>1001</v>
       </c>
-      <c r="L132" s="160" t="s">
+      <c r="L132" s="162" t="s">
         <v>1191</v>
       </c>
-      <c r="M132" s="121"/>
-      <c r="N132" s="121">
+      <c r="M132" s="122"/>
+      <c r="N132" s="122">
         <v>129.0</v>
       </c>
     </row>
@@ -15978,7 +15987,7 @@
       <c r="B133" s="16" t="s">
         <v>1193</v>
       </c>
-      <c r="C133" s="126" t="s">
+      <c r="C133" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D133" s="17"/>
@@ -15994,16 +16003,16 @@
       <c r="H133" s="17"/>
       <c r="I133" s="13"/>
       <c r="J133" s="13"/>
-      <c r="K133" s="175" t="s">
+      <c r="K133" s="177" t="s">
         <v>260</v>
       </c>
-      <c r="L133" s="181" t="s">
+      <c r="L133" s="183" t="s">
         <v>1195</v>
       </c>
-      <c r="M133" s="180" t="s">
+      <c r="M133" s="182" t="s">
         <v>1122</v>
       </c>
-      <c r="N133" s="121">
+      <c r="N133" s="122">
         <v>130.0</v>
       </c>
     </row>
@@ -16014,7 +16023,7 @@
       <c r="B134" s="16" t="s">
         <v>1197</v>
       </c>
-      <c r="C134" s="126" t="s">
+      <c r="C134" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D134" s="17"/>
@@ -16030,14 +16039,14 @@
       <c r="H134" s="17"/>
       <c r="I134" s="13"/>
       <c r="J134" s="13"/>
-      <c r="K134" s="178" t="s">
+      <c r="K134" s="180" t="s">
         <v>940</v>
       </c>
-      <c r="L134" s="174" t="s">
+      <c r="L134" s="176" t="s">
         <v>1126</v>
       </c>
-      <c r="M134" s="182"/>
-      <c r="N134" s="121">
+      <c r="M134" s="184"/>
+      <c r="N134" s="122">
         <v>131.0</v>
       </c>
     </row>
@@ -16048,7 +16057,7 @@
       <c r="B135" s="16" t="s">
         <v>1200</v>
       </c>
-      <c r="C135" s="126" t="s">
+      <c r="C135" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D135" s="17"/>
@@ -16064,14 +16073,14 @@
       <c r="H135" s="17"/>
       <c r="I135" s="13"/>
       <c r="J135" s="13"/>
-      <c r="K135" s="183" t="s">
+      <c r="K135" s="185" t="s">
         <v>962</v>
       </c>
-      <c r="L135" s="160" t="s">
+      <c r="L135" s="162" t="s">
         <v>1202</v>
       </c>
-      <c r="M135" s="182"/>
-      <c r="N135" s="121">
+      <c r="M135" s="184"/>
+      <c r="N135" s="122">
         <v>132.0</v>
       </c>
     </row>
@@ -16082,7 +16091,7 @@
       <c r="B136" s="16" t="s">
         <v>1204</v>
       </c>
-      <c r="C136" s="126" t="s">
+      <c r="C136" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D136" s="17"/>
@@ -16098,14 +16107,14 @@
       <c r="H136" s="17"/>
       <c r="I136" s="13"/>
       <c r="J136" s="13"/>
-      <c r="K136" s="183" t="s">
+      <c r="K136" s="185" t="s">
         <v>958</v>
       </c>
-      <c r="L136" s="160" t="s">
+      <c r="L136" s="162" t="s">
         <v>1202</v>
       </c>
-      <c r="M136" s="182"/>
-      <c r="N136" s="121">
+      <c r="M136" s="184"/>
+      <c r="N136" s="122">
         <v>133.0</v>
       </c>
     </row>
@@ -16116,7 +16125,7 @@
       <c r="B137" s="16" t="s">
         <v>1207</v>
       </c>
-      <c r="C137" s="126" t="s">
+      <c r="C137" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D137" s="17"/>
@@ -16132,14 +16141,14 @@
       <c r="H137" s="17"/>
       <c r="I137" s="13"/>
       <c r="J137" s="13"/>
-      <c r="K137" s="183" t="s">
+      <c r="K137" s="185" t="s">
         <v>954</v>
       </c>
-      <c r="L137" s="160" t="s">
+      <c r="L137" s="162" t="s">
         <v>1202</v>
       </c>
-      <c r="M137" s="182"/>
-      <c r="N137" s="121">
+      <c r="M137" s="184"/>
+      <c r="N137" s="122">
         <v>134.0</v>
       </c>
     </row>
@@ -16150,7 +16159,7 @@
       <c r="B138" s="16" t="s">
         <v>1210</v>
       </c>
-      <c r="C138" s="126" t="s">
+      <c r="C138" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D138" s="17"/>
@@ -16166,14 +16175,14 @@
       <c r="H138" s="17"/>
       <c r="I138" s="13"/>
       <c r="J138" s="13"/>
-      <c r="K138" s="183" t="s">
+      <c r="K138" s="185" t="s">
         <v>950</v>
       </c>
-      <c r="L138" s="160" t="s">
+      <c r="L138" s="162" t="s">
         <v>1202</v>
       </c>
-      <c r="M138" s="182"/>
-      <c r="N138" s="121">
+      <c r="M138" s="184"/>
+      <c r="N138" s="122">
         <v>135.0</v>
       </c>
     </row>
@@ -16184,7 +16193,7 @@
       <c r="B139" s="16" t="s">
         <v>1213</v>
       </c>
-      <c r="C139" s="126" t="s">
+      <c r="C139" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D139" s="17"/>
@@ -16200,14 +16209,14 @@
       <c r="H139" s="17"/>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
-      <c r="K139" s="183" t="s">
+      <c r="K139" s="185" t="s">
         <v>945</v>
       </c>
-      <c r="L139" s="160" t="s">
+      <c r="L139" s="162" t="s">
         <v>1202</v>
       </c>
-      <c r="M139" s="182"/>
-      <c r="N139" s="121">
+      <c r="M139" s="184"/>
+      <c r="N139" s="122">
         <v>136.0</v>
       </c>
     </row>
@@ -16218,7 +16227,7 @@
       <c r="B140" s="16" t="s">
         <v>1216</v>
       </c>
-      <c r="C140" s="126" t="s">
+      <c r="C140" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D140" s="17"/>
@@ -16234,16 +16243,16 @@
       <c r="H140" s="17"/>
       <c r="I140" s="13"/>
       <c r="J140" s="13"/>
-      <c r="K140" s="149" t="s">
+      <c r="K140" s="150" t="s">
         <v>260</v>
       </c>
-      <c r="L140" s="174" t="s">
+      <c r="L140" s="176" t="s">
         <v>1217</v>
       </c>
       <c r="M140" s="19" t="s">
         <v>1122</v>
       </c>
-      <c r="N140" s="121">
+      <c r="N140" s="122">
         <v>137.0</v>
       </c>
     </row>
@@ -16254,7 +16263,7 @@
       <c r="B141" s="16" t="s">
         <v>1219</v>
       </c>
-      <c r="C141" s="126" t="s">
+      <c r="C141" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D141" s="17"/>
@@ -16270,14 +16279,14 @@
       <c r="H141" s="17"/>
       <c r="I141" s="13"/>
       <c r="J141" s="13"/>
-      <c r="K141" s="149" t="s">
+      <c r="K141" s="150" t="s">
         <v>260</v>
       </c>
-      <c r="L141" s="174" t="s">
+      <c r="L141" s="176" t="s">
         <v>1150</v>
       </c>
-      <c r="M141" s="184"/>
-      <c r="N141" s="121">
+      <c r="M141" s="186"/>
+      <c r="N141" s="122">
         <v>138.0</v>
       </c>
     </row>
@@ -16288,7 +16297,7 @@
       <c r="B142" s="16" t="s">
         <v>1222</v>
       </c>
-      <c r="C142" s="126" t="s">
+      <c r="C142" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D142" s="17"/>
@@ -16304,14 +16313,14 @@
       <c r="H142" s="17"/>
       <c r="I142" s="13"/>
       <c r="J142" s="13"/>
-      <c r="K142" s="149">
+      <c r="K142" s="150">
         <v>0.0</v>
       </c>
-      <c r="L142" s="174" t="s">
+      <c r="L142" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="M142" s="121"/>
-      <c r="N142" s="121">
+      <c r="M142" s="122"/>
+      <c r="N142" s="122">
         <v>139.0</v>
       </c>
     </row>
@@ -16322,7 +16331,7 @@
       <c r="B143" s="16" t="s">
         <v>1225</v>
       </c>
-      <c r="C143" s="126" t="s">
+      <c r="C143" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D143" s="17"/>
@@ -16338,14 +16347,14 @@
       <c r="H143" s="17"/>
       <c r="I143" s="13"/>
       <c r="J143" s="13"/>
-      <c r="K143" s="149">
+      <c r="K143" s="150">
         <v>0.0</v>
       </c>
-      <c r="L143" s="174" t="s">
+      <c r="L143" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="M143" s="121"/>
-      <c r="N143" s="121">
+      <c r="M143" s="122"/>
+      <c r="N143" s="122">
         <v>140.0</v>
       </c>
     </row>
@@ -16356,7 +16365,7 @@
       <c r="B144" s="16" t="s">
         <v>1228</v>
       </c>
-      <c r="C144" s="126" t="s">
+      <c r="C144" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D144" s="17"/>
@@ -16372,14 +16381,14 @@
       <c r="H144" s="17"/>
       <c r="I144" s="13"/>
       <c r="J144" s="13"/>
-      <c r="K144" s="149">
+      <c r="K144" s="150">
         <v>0.0</v>
       </c>
-      <c r="L144" s="174" t="s">
+      <c r="L144" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="M144" s="121"/>
-      <c r="N144" s="121">
+      <c r="M144" s="122"/>
+      <c r="N144" s="122">
         <v>141.0</v>
       </c>
     </row>
@@ -16390,7 +16399,7 @@
       <c r="B145" s="16" t="s">
         <v>1231</v>
       </c>
-      <c r="C145" s="126" t="s">
+      <c r="C145" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D145" s="17"/>
@@ -16406,14 +16415,14 @@
       <c r="H145" s="17"/>
       <c r="I145" s="13"/>
       <c r="J145" s="13"/>
-      <c r="K145" s="149">
+      <c r="K145" s="150">
         <v>0.0</v>
       </c>
-      <c r="L145" s="174" t="s">
+      <c r="L145" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="M145" s="121"/>
-      <c r="N145" s="121">
+      <c r="M145" s="122"/>
+      <c r="N145" s="122">
         <v>142.0</v>
       </c>
     </row>
@@ -16424,7 +16433,7 @@
       <c r="B146" s="16" t="s">
         <v>1234</v>
       </c>
-      <c r="C146" s="126" t="s">
+      <c r="C146" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D146" s="17"/>
@@ -16440,14 +16449,14 @@
       <c r="H146" s="17"/>
       <c r="I146" s="13"/>
       <c r="J146" s="13"/>
-      <c r="K146" s="135">
+      <c r="K146" s="136">
         <v>0.0</v>
       </c>
-      <c r="L146" s="174" t="s">
+      <c r="L146" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="M146" s="182"/>
-      <c r="N146" s="121">
+      <c r="M146" s="184"/>
+      <c r="N146" s="122">
         <v>143.0</v>
       </c>
     </row>
@@ -16458,7 +16467,7 @@
       <c r="B147" s="16" t="s">
         <v>1237</v>
       </c>
-      <c r="C147" s="126" t="s">
+      <c r="C147" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D147" s="17"/>
@@ -16474,14 +16483,14 @@
       <c r="H147" s="17"/>
       <c r="I147" s="13"/>
       <c r="J147" s="13"/>
-      <c r="K147" s="150" t="s">
+      <c r="K147" s="151" t="s">
         <v>886</v>
       </c>
-      <c r="L147" s="174" t="s">
+      <c r="L147" s="176" t="s">
         <v>887</v>
       </c>
-      <c r="M147" s="121"/>
-      <c r="N147" s="121">
+      <c r="M147" s="122"/>
+      <c r="N147" s="122">
         <v>144.0</v>
       </c>
     </row>
@@ -16492,7 +16501,7 @@
       <c r="B148" s="16" t="s">
         <v>1240</v>
       </c>
-      <c r="C148" s="126" t="s">
+      <c r="C148" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D148" s="17"/>
@@ -16508,14 +16517,14 @@
       <c r="H148" s="17"/>
       <c r="I148" s="13"/>
       <c r="J148" s="13"/>
-      <c r="K148" s="150">
+      <c r="K148" s="151">
         <v>0.0</v>
       </c>
-      <c r="L148" s="160" t="s">
+      <c r="L148" s="162" t="s">
         <v>403</v>
       </c>
-      <c r="M148" s="121"/>
-      <c r="N148" s="121">
+      <c r="M148" s="122"/>
+      <c r="N148" s="122">
         <v>145.0</v>
       </c>
     </row>
@@ -16526,7 +16535,7 @@
       <c r="B149" s="16" t="s">
         <v>1243</v>
       </c>
-      <c r="C149" s="126" t="s">
+      <c r="C149" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D149" s="17"/>
@@ -16542,14 +16551,14 @@
       <c r="H149" s="17"/>
       <c r="I149" s="13"/>
       <c r="J149" s="13"/>
-      <c r="K149" s="150" t="s">
+      <c r="K149" s="151" t="s">
         <v>260</v>
       </c>
-      <c r="L149" s="160" t="s">
+      <c r="L149" s="162" t="s">
         <v>1021</v>
       </c>
-      <c r="M149" s="121"/>
-      <c r="N149" s="121">
+      <c r="M149" s="122"/>
+      <c r="N149" s="122">
         <v>146.0</v>
       </c>
     </row>
@@ -16560,7 +16569,7 @@
       <c r="B150" s="16" t="s">
         <v>1246</v>
       </c>
-      <c r="C150" s="126" t="s">
+      <c r="C150" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D150" s="17"/>
@@ -16576,14 +16585,14 @@
       <c r="H150" s="17"/>
       <c r="I150" s="13"/>
       <c r="J150" s="13"/>
-      <c r="K150" s="150" t="s">
+      <c r="K150" s="151" t="s">
         <v>996</v>
       </c>
-      <c r="L150" s="160" t="s">
+      <c r="L150" s="162" t="s">
         <v>1248</v>
       </c>
-      <c r="M150" s="121"/>
-      <c r="N150" s="121">
+      <c r="M150" s="122"/>
+      <c r="N150" s="122">
         <v>147.0</v>
       </c>
     </row>
@@ -16594,7 +16603,7 @@
       <c r="B151" s="16" t="s">
         <v>1250</v>
       </c>
-      <c r="C151" s="126" t="s">
+      <c r="C151" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D151" s="17"/>
@@ -16610,14 +16619,14 @@
       <c r="H151" s="17"/>
       <c r="I151" s="13"/>
       <c r="J151" s="13"/>
-      <c r="K151" s="150" t="s">
+      <c r="K151" s="151" t="s">
         <v>1001</v>
       </c>
-      <c r="L151" s="160" t="s">
+      <c r="L151" s="162" t="s">
         <v>1252</v>
       </c>
-      <c r="M151" s="121"/>
-      <c r="N151" s="121">
+      <c r="M151" s="122"/>
+      <c r="N151" s="122">
         <v>148.0</v>
       </c>
     </row>
@@ -16628,7 +16637,7 @@
       <c r="B152" s="16" t="s">
         <v>1254</v>
       </c>
-      <c r="C152" s="126" t="s">
+      <c r="C152" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D152" s="17"/>
@@ -16644,14 +16653,14 @@
       <c r="H152" s="17"/>
       <c r="I152" s="13"/>
       <c r="J152" s="13"/>
-      <c r="K152" s="150" t="s">
+      <c r="K152" s="151" t="s">
         <v>996</v>
       </c>
-      <c r="L152" s="160" t="s">
+      <c r="L152" s="162" t="s">
         <v>1028</v>
       </c>
-      <c r="M152" s="121"/>
-      <c r="N152" s="121">
+      <c r="M152" s="122"/>
+      <c r="N152" s="122">
         <v>149.0</v>
       </c>
     </row>
@@ -16662,7 +16671,7 @@
       <c r="B153" s="16" t="s">
         <v>1257</v>
       </c>
-      <c r="C153" s="126" t="s">
+      <c r="C153" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D153" s="17"/>
@@ -16678,14 +16687,14 @@
       <c r="H153" s="17"/>
       <c r="I153" s="13"/>
       <c r="J153" s="13"/>
-      <c r="K153" s="150" t="s">
+      <c r="K153" s="151" t="s">
         <v>1001</v>
       </c>
-      <c r="L153" s="160" t="s">
+      <c r="L153" s="162" t="s">
         <v>1015</v>
       </c>
-      <c r="M153" s="121"/>
-      <c r="N153" s="121">
+      <c r="M153" s="122"/>
+      <c r="N153" s="122">
         <v>150.0</v>
       </c>
     </row>
@@ -16708,16 +16717,16 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="112" t="s">
         <v>1259</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -16977,24 +16986,24 @@
       <c r="A20" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="B20" s="185" t="s">
+      <c r="B20" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="185"/>
-      <c r="K20" s="185"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="187"/>
+      <c r="K20" s="187"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="B21" s="185" t="s">
+      <c r="B21" s="187" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -17017,26 +17026,26 @@
       <c r="A27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="185" t="s">
+      <c r="A28" s="187" t="s">
         <v>1303</v>
       </c>
-      <c r="B28" s="186" t="s">
+      <c r="B28" s="188" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="185" t="s">
+      <c r="A29" s="187" t="s">
         <v>1305</v>
       </c>
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="188" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="187" t="s">
         <v>1307</v>
       </c>
-      <c r="B30" s="186" t="s">
+      <c r="B30" s="188" t="s">
         <v>1308</v>
       </c>
     </row>
@@ -17044,26 +17053,26 @@
       <c r="A31" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="B31" s="185"/>
+      <c r="B31" s="187"/>
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="B32" s="185"/>
+      <c r="B32" s="187"/>
     </row>
     <row r="33">
       <c r="A33" s="3"/>
-      <c r="B33" s="185"/>
-      <c r="C33" s="185"/>
-      <c r="D33" s="185"/>
-      <c r="E33" s="185"/>
-      <c r="F33" s="185"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="185"/>
-      <c r="K33" s="185"/>
+      <c r="B33" s="187"/>
+      <c r="C33" s="187"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17109,7 +17118,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="189" t="s">
         <v>1312</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -17117,7 +17126,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="189" t="s">
         <v>1314</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -17125,7 +17134,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="189" t="s">
         <v>1316</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -17133,7 +17142,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="189" t="s">
         <v>1318</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -17175,16 +17184,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="190" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="188" t="s">
+      <c r="C1" s="190" t="s">
         <v>719</v>
       </c>
-      <c r="D1" s="188" t="s">
+      <c r="D1" s="190" t="s">
         <v>1320</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -17193,7 +17202,7 @@
       <c r="F1" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="G1" s="185" t="s">
+      <c r="G1" s="187" t="s">
         <v>607</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -17210,11 +17219,11 @@
       <c r="B2" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="191" t="s">
         <v>1326</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="G2" s="184"/>
+      <c r="D2" s="186"/>
+      <c r="G2" s="186"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -17223,10 +17232,10 @@
       <c r="B3" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="G3" s="185" t="s">
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="G3" s="187" t="s">
         <v>1328</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -17240,17 +17249,17 @@
       <c r="B4" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="192" t="s">
         <v>1331</v>
       </c>
-      <c r="D4" s="185" t="s">
+      <c r="D4" s="187" t="s">
         <v>1332</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="G4" s="184"/>
-      <c r="I4" s="185"/>
+      <c r="G4" s="186"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
@@ -17259,11 +17268,11 @@
       <c r="B5" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C5" s="184"/>
-      <c r="D5" s="185" t="s">
+      <c r="C5" s="186"/>
+      <c r="D5" s="187" t="s">
         <v>1336</v>
       </c>
-      <c r="G5" s="184"/>
+      <c r="G5" s="186"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
@@ -17272,10 +17281,10 @@
       <c r="B6" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="C6" s="184"/>
+      <c r="C6" s="186"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="180"/>
-      <c r="G6" s="185" t="s">
+      <c r="E6" s="182"/>
+      <c r="G6" s="187" t="s">
         <v>1338</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -17290,11 +17299,11 @@
       <c r="B7" s="3" t="s">
         <v>1340</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185" t="s">
+      <c r="C7" s="186"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187" t="s">
         <v>1341</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -17309,11 +17318,11 @@
       <c r="B8" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="C8" s="184"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185" t="s">
+      <c r="C8" s="186"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187" t="s">
         <v>1344</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -17328,10 +17337,10 @@
       <c r="B9" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="C9" s="184"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="G9" s="185" t="s">
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="G9" s="187" t="s">
         <v>1347</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -17346,10 +17355,10 @@
       <c r="B10" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="G10" s="184"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="G10" s="186"/>
       <c r="H10" s="3" t="s">
         <v>1350</v>
       </c>
@@ -17362,11 +17371,11 @@
       <c r="B11" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185" t="s">
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="187" t="s">
         <v>1352</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -17381,10 +17390,10 @@
       <c r="B12" s="3" t="s">
         <v>1354</v>
       </c>
-      <c r="C12" s="184"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="G12" s="185" t="s">
+      <c r="C12" s="186"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="187"/>
+      <c r="G12" s="187" t="s">
         <v>1355</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -17399,9 +17408,9 @@
       <c r="B13" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="D13" s="145"/>
-      <c r="E13" s="190"/>
-      <c r="G13" s="185" t="s">
+      <c r="D13" s="146"/>
+      <c r="E13" s="193"/>
+      <c r="G13" s="187" t="s">
         <v>1355</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -17416,9 +17425,9 @@
       <c r="B14" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="190"/>
-      <c r="G14" s="185" t="s">
+      <c r="D14" s="187"/>
+      <c r="E14" s="193"/>
+      <c r="G14" s="187" t="s">
         <v>1360</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -17433,9 +17442,9 @@
       <c r="B15" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="D15" s="185"/>
-      <c r="E15" s="190"/>
-      <c r="G15" s="185" t="s">
+      <c r="D15" s="187"/>
+      <c r="E15" s="193"/>
+      <c r="G15" s="187" t="s">
         <v>1363</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -17450,9 +17459,9 @@
       <c r="B16" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="190"/>
-      <c r="G16" s="185" t="s">
+      <c r="D16" s="187"/>
+      <c r="E16" s="193"/>
+      <c r="G16" s="187" t="s">
         <v>1366</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -17468,8 +17477,8 @@
         <v>1368</v>
       </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="190"/>
-      <c r="G17" s="184"/>
+      <c r="E17" s="193"/>
+      <c r="G17" s="186"/>
       <c r="H17" s="3" t="s">
         <v>1369</v>
       </c>
@@ -17483,8 +17492,8 @@
         <v>1370</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="190"/>
-      <c r="G18" s="184"/>
+      <c r="E18" s="193"/>
+      <c r="G18" s="186"/>
       <c r="H18" s="3" t="s">
         <v>1371</v>
       </c>
@@ -17498,8 +17507,8 @@
         <v>1372</v>
       </c>
       <c r="D19" s="16"/>
-      <c r="E19" s="190"/>
-      <c r="G19" s="184"/>
+      <c r="E19" s="193"/>
+      <c r="G19" s="186"/>
       <c r="H19" s="3" t="s">
         <v>1373</v>
       </c>
@@ -17515,7 +17524,7 @@
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="184"/>
+      <c r="G20" s="186"/>
       <c r="H20" s="3" t="s">
         <v>1375</v>
       </c>
@@ -17531,7 +17540,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="184"/>
+      <c r="G21" s="186"/>
       <c r="H21" s="3" t="s">
         <v>1377</v>
       </c>
@@ -17547,7 +17556,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="184"/>
+      <c r="G22" s="186"/>
       <c r="H22" s="3" t="s">
         <v>1379</v>
       </c>
@@ -17561,8 +17570,8 @@
         <v>1380</v>
       </c>
       <c r="D23" s="16"/>
-      <c r="E23" s="190"/>
-      <c r="G23" s="184"/>
+      <c r="E23" s="193"/>
+      <c r="G23" s="186"/>
       <c r="H23" s="3" t="s">
         <v>1381</v>
       </c>
@@ -17576,8 +17585,8 @@
         <v>1382</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="190"/>
-      <c r="G24" s="184"/>
+      <c r="E24" s="193"/>
+      <c r="G24" s="186"/>
       <c r="H24" s="3" t="s">
         <v>1383</v>
       </c>

--- a/models/keast-bladder/source/keast-bladder.xlsx
+++ b/models/keast-bladder/source/keast-bladder.xlsx
@@ -2847,7 +2847,7 @@
     <t>dc-sn-drgl1_11</t>
   </si>
   <si>
-    <t>L1 DRG POS_11 dendrite chain (kblad)</t>
+    <t>L1 DRG FOS_11 dendrite chain (kblad)</t>
   </si>
   <si>
     <t>ns128</t>
@@ -2859,7 +2859,7 @@
     <t>dc-sn-drgl2_11</t>
   </si>
   <si>
-    <t>L2 DRG POS_11 dendrite chain (kblad)</t>
+    <t>L2 DRG FOS_11 dendrite chain (kblad)</t>
   </si>
   <si>
     <t>K57, n-lumspl</t>
@@ -2868,7 +2868,7 @@
     <t>ac-sn-drgl1_11</t>
   </si>
   <si>
-    <t>L1 DRG POS_11 axon chain to spinal cord segment_Neuron 11 (kblad)</t>
+    <t>L1 DRG FOS_11 axon chain to spinal cord segment_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns122</t>
@@ -2883,7 +2883,7 @@
     <t>ac-sn-drgl1-2_11</t>
   </si>
   <si>
-    <t>L1 DRG POS_11 axon chain to spinal cord segment-layer2_Neuron 11 (kblad)</t>
+    <t>L1 DRG FOS_11 axon chain to spinal cord segment-layer2_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns123</t>
@@ -2898,7 +2898,7 @@
     <t>ac-sn-drgl1-6_11</t>
   </si>
   <si>
-    <t>L1 DRG POS_11 axon chain to spinal cord segment-layer6_Neuron 11 (kblad)</t>
+    <t>L1 DRG FOS_11 axon chain to spinal cord segment-layer6_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns124</t>
@@ -2910,7 +2910,7 @@
     <t>ac-sn-drgl1-8_11</t>
   </si>
   <si>
-    <t>L1 DRG POS_11 axon chain to spinal cord segment-layer8_Neuron 11 (kblad)</t>
+    <t>L1 DRG FOS_11 axon chain to spinal cord segment-layer8_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns125</t>
@@ -2922,7 +2922,7 @@
     <t>ac-sn-drgl1-11_11</t>
   </si>
   <si>
-    <t>L1 DRG POS_11 axon chain to spinal cord segment-layer 11_Neuron 11 (kblad)</t>
+    <t>L1 DRG FOS_11 axon chain to spinal cord segment-layer 11_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns126</t>
@@ -2934,7 +2934,7 @@
     <t>ac-sn-drgl1-12_11</t>
   </si>
   <si>
-    <t>L1 DRG POS_11 axon chain to spinal cord segment-layer 12_Neuron 11 (kblad)</t>
+    <t>L1 DRG FOS_11 axon chain to spinal cord segment-layer 12_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns127</t>
@@ -2946,7 +2946,7 @@
     <t>ac-sn-drgl2_11</t>
   </si>
   <si>
-    <t>L2 DRG POS_11 axon chain to spinal cord segment_Neuron 11 (kblad)</t>
+    <t>L2 DRG FOS_11 axon chain to spinal cord segment_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns132</t>
@@ -2958,7 +2958,7 @@
     <t>ac-sn-drgl2-2_11</t>
   </si>
   <si>
-    <t>L2 DRG POS_11 axon chain to spinal cord segment-layer2_Neuron 11 (kblad)</t>
+    <t>L2 DRG FOS_11 axon chain to spinal cord segment-layer2_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns133</t>
@@ -2970,7 +2970,7 @@
     <t>ac-sn-drgl2-6_11</t>
   </si>
   <si>
-    <t>L2 DRG POS_11 axon chain to spinal cord segment-layer6_Neuron 11 (kblad)</t>
+    <t>L2 DRG FOS_11 axon chain to spinal cord segment-layer6_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns134</t>
@@ -2979,7 +2979,7 @@
     <t>ac-sn-drgl2-8_11</t>
   </si>
   <si>
-    <t>L2 DRG POS_11 axon chain to spinal cord segment-layer8_Neuron 11 (kblad)</t>
+    <t>L2 DRG FOS_11 axon chain to spinal cord segment-layer8_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns135</t>
@@ -2988,7 +2988,7 @@
     <t>ac-sn-drgl2-11_11</t>
   </si>
   <si>
-    <t>L2 DRG POS_11 axon chain to spinal cord segment-layer 11_Neuron 11 (kblad)</t>
+    <t>L2 DRG FOS_11 axon chain to spinal cord segment-layer 11_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns136</t>
@@ -2997,7 +2997,7 @@
     <t>ac-sn-drgl2-12_11</t>
   </si>
   <si>
-    <t>L2 DRG POS_11 axon chain to spinal cord segment-layer 12_Neuron 11 (kblad)</t>
+    <t>L2 DRG FOS_11 axon chain to spinal cord segment-layer 12_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns137</t>
@@ -3006,7 +3006,7 @@
     <t>dc-img-bn_11</t>
   </si>
   <si>
-    <t>L1 L2 DRG POS_11 dendrite chain from img_Neuron 11 (kblad)</t>
+    <t>L1 L2 DRG FOS_11 dendrite chain from img_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns141</t>
@@ -3021,7 +3021,7 @@
     <t>dc-img-bn3_11</t>
   </si>
   <si>
-    <t>L1 L2 DRG POS_11 dendrite chain from bladder nerve to bladder neck_layer3bv_Neuron 11 (kblad)</t>
+    <t>L1 L2 DRG FOS_11 dendrite chain from bladder nerve to bladder neck_layer3bv_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns142</t>
@@ -3036,7 +3036,7 @@
     <t>dc-img-bn2_11</t>
   </si>
   <si>
-    <t>L1 L2 DRG POS_11 dendrite chain from bladder nerve to bladder neck_layer2_Neuron 11 (kblad)</t>
+    <t>L1 L2 DRG FOS_11 dendrite chain from bladder nerve to bladder neck_layer2_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns143</t>
@@ -3051,7 +3051,7 @@
     <t>dc-img-bn1_11</t>
   </si>
   <si>
-    <t>L1 L2 DRG POS_11 dendrite chain from bladder nerve to bladder neck_layer1_Neuron 11 (kblad)</t>
+    <t>L1 L2 DRG FOS_11 dendrite chain from bladder nerve to bladder neck_layer1_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns144</t>
@@ -3066,7 +3066,7 @@
     <t>dc-img-bd3_11</t>
   </si>
   <si>
-    <t>L1 L2 DRG POS_11 dendrite chain from bladder nerve to bladder dome_layer3bv_Neuron 11 (kblad)</t>
+    <t>L1 L2 DRG FOS_11 dendrite chain from bladder nerve to bladder dome_layer3bv_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns145</t>
@@ -3078,7 +3078,7 @@
     <t>dc-img-bd2_11</t>
   </si>
   <si>
-    <t>L1 L2 DRG POS_11 dendrite chain from bladder nerve to bladder dome_layer2_Neuron 11 (kblad)</t>
+    <t>L1 L2 DRG FOS_11 dendrite chain from bladder nerve to bladder dome_layer2_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns146</t>
@@ -3090,7 +3090,7 @@
     <t>dc-img-bd1_11</t>
   </si>
   <si>
-    <t>L1 L2 DRG POS_11 dendrite chain from bladder nerve to bladder dome_layer1_Neuron 11 (kblad)</t>
+    <t>L1 L2 DRG FOS_11 dendrite chain from bladder nerve to bladder dome_layer1_Neuron 11 (kblad)</t>
   </si>
   <si>
     <t>ns147</t>
@@ -4435,7 +4435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -4478,9 +4478,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -4513,7 +4510,9 @@
       <color rgb="FF660E7A"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
@@ -4629,7 +4628,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="200">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4759,9 +4758,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4771,7 +4767,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4826,9 +4822,6 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -4889,10 +4882,10 @@
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4923,51 +4916,51 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -4980,7 +4973,7 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5007,6 +5000,9 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -5055,7 +5051,7 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5065,15 +5061,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5107,12 +5094,12 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -5173,6 +5160,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -5188,52 +5178,49 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -5523,24 +5510,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5561,7 +5530,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="190" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5575,194 +5544,194 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="191" t="s">
         <v>1328</v>
       </c>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="192" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="193" t="s">
         <v>1387</v>
       </c>
-      <c r="C3" s="196" t="s">
+      <c r="C3" s="192" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="194" t="s">
         <v>1389</v>
       </c>
-      <c r="C4" s="196" t="s">
+      <c r="C4" s="192" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="194" t="s">
         <v>1391</v>
       </c>
-      <c r="C5" s="196" t="s">
+      <c r="C5" s="192" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="191" t="s">
         <v>1393</v>
       </c>
-      <c r="C6" s="196" t="s">
+      <c r="C6" s="192" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="191" t="s">
         <v>1395</v>
       </c>
-      <c r="C7" s="196" t="s">
+      <c r="C7" s="192" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="191" t="s">
         <v>1397</v>
       </c>
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="192" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="191" t="s">
         <v>1399</v>
       </c>
-      <c r="C9" s="196" t="s">
+      <c r="C9" s="192" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="191" t="s">
         <v>1401</v>
       </c>
-      <c r="C10" s="196" t="s">
+      <c r="C10" s="192" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="191" t="s">
         <v>1403</v>
       </c>
-      <c r="C11" s="196" t="s">
+      <c r="C11" s="192" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="191" t="s">
         <v>1405</v>
       </c>
-      <c r="C12" s="196" t="s">
+      <c r="C12" s="192" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="191" t="s">
         <v>1407</v>
       </c>
-      <c r="C13" s="196" t="s">
+      <c r="C13" s="192" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="191" t="s">
         <v>1409</v>
       </c>
-      <c r="C14" s="196" t="s">
+      <c r="C14" s="192" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="191" t="s">
         <v>1411</v>
       </c>
-      <c r="C15" s="196" t="s">
+      <c r="C15" s="192" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="191" t="s">
         <v>1413</v>
       </c>
-      <c r="C16" s="196" t="s">
+      <c r="C16" s="192" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="191" t="s">
         <v>1415</v>
       </c>
-      <c r="C17" s="196" t="s">
+      <c r="C17" s="192" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="195" t="s">
+      <c r="A18" s="191" t="s">
         <v>1417</v>
       </c>
-      <c r="C18" s="196" t="s">
+      <c r="C18" s="192" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="195" t="s">
+      <c r="A19" s="191" t="s">
         <v>1419</v>
       </c>
-      <c r="C19" s="196" t="s">
+      <c r="C19" s="192" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="195" t="s">
+      <c r="A20" s="191" t="s">
         <v>1421</v>
       </c>
-      <c r="C20" s="196" t="s">
+      <c r="C20" s="192" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="195" t="s">
+      <c r="A21" s="191" t="s">
         <v>1423</v>
       </c>
-      <c r="C21" s="196" t="s">
+      <c r="C21" s="192" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="199" t="s">
+      <c r="A22" s="195" t="s">
         <v>1425</v>
       </c>
-      <c r="C22" s="196" t="s">
+      <c r="C22" s="192" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="195" t="s">
+      <c r="A23" s="191" t="s">
         <v>1427</v>
       </c>
-      <c r="C23" s="196" t="s">
+      <c r="C23" s="192" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="195" t="s">
+      <c r="A24" s="191" t="s">
         <v>1429</v>
       </c>
-      <c r="C24" s="196" t="s">
+      <c r="C24" s="192" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="195" t="s">
+      <c r="A25" s="191" t="s">
         <v>1431</v>
       </c>
-      <c r="C25" s="196" t="s">
+      <c r="C25" s="192" t="s">
         <v>1432</v>
       </c>
     </row>
@@ -5793,82 +5762,82 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="196" t="s">
         <v>1435</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="197" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="196" t="s">
         <v>1437</v>
       </c>
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="198" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="196" t="s">
         <v>1439</v>
       </c>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="199" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="200" t="s">
+      <c r="A5" s="196" t="s">
         <v>1441</v>
       </c>
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="199" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="196" t="s">
         <v>1443</v>
       </c>
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="199" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="200" t="s">
+      <c r="A7" s="196" t="s">
         <v>1445</v>
       </c>
-      <c r="B7" s="203" t="s">
+      <c r="B7" s="199" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="200" t="s">
+      <c r="A8" s="196" t="s">
         <v>1447</v>
       </c>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="199" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="200" t="s">
+      <c r="A9" s="196" t="s">
         <v>1449</v>
       </c>
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="199" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="196" t="s">
         <v>1451</v>
       </c>
-      <c r="B10" s="203" t="s">
+      <c r="B10" s="199" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="196" t="s">
         <v>1453</v>
       </c>
-      <c r="B11" s="203" t="s">
+      <c r="B11" s="199" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -5876,7 +5845,7 @@
       <c r="A12" s="3" t="s">
         <v>1455</v>
       </c>
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="186" t="s">
         <v>1456</v>
       </c>
     </row>
@@ -5884,7 +5853,7 @@
       <c r="A13" s="3" t="s">
         <v>1457</v>
       </c>
-      <c r="B13" s="189" t="s">
+      <c r="B13" s="186" t="s">
         <v>1458</v>
       </c>
     </row>
@@ -7581,7 +7550,7 @@
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="43" t="s">
+      <c r="I54" s="13" t="s">
         <v>200</v>
       </c>
       <c r="J54" s="40"/>
@@ -7612,7 +7581,7 @@
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
-      <c r="I55" s="43" t="s">
+      <c r="I55" s="13" t="s">
         <v>200</v>
       </c>
       <c r="J55" s="40"/>
@@ -7643,7 +7612,7 @@
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
-      <c r="I56" s="43" t="s">
+      <c r="I56" s="13" t="s">
         <v>200</v>
       </c>
       <c r="J56" s="40"/>
@@ -7674,7 +7643,7 @@
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
-      <c r="I57" s="43" t="s">
+      <c r="I57" s="13" t="s">
         <v>200</v>
       </c>
       <c r="J57" s="40"/>
@@ -8573,8 +8542,8 @@
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
       <c r="K90" s="13"/>
-      <c r="L90" s="44"/>
-      <c r="M90" s="45" t="s">
+      <c r="L90" s="43"/>
+      <c r="M90" s="44" t="s">
         <v>317</v>
       </c>
       <c r="N90" s="41" t="s">
@@ -9098,7 +9067,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
-      <c r="I110" s="46" t="s">
+      <c r="I110" s="45" t="s">
         <v>384</v>
       </c>
       <c r="J110" s="17"/>
@@ -9129,7 +9098,7 @@
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
-      <c r="I111" s="46" t="s">
+      <c r="I111" s="45" t="s">
         <v>384</v>
       </c>
       <c r="J111" s="17"/>
@@ -9160,7 +9129,7 @@
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
-      <c r="I112" s="46" t="s">
+      <c r="I112" s="45" t="s">
         <v>394</v>
       </c>
       <c r="J112" s="17"/>
@@ -9173,33 +9142,33 @@
       <c r="Q112" s="13"/>
     </row>
     <row r="113">
-      <c r="A113" s="47" t="s">
+      <c r="A113" s="46" t="s">
         <v>395</v>
       </c>
-      <c r="B113" s="48" t="s">
+      <c r="B113" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="C113" s="49" t="s">
+      <c r="C113" s="48" t="s">
         <v>397</v>
       </c>
-      <c r="D113" s="50"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="50"/>
-      <c r="G113" s="50"/>
-      <c r="H113" s="50"/>
-      <c r="I113" s="50"/>
-      <c r="J113" s="49"/>
-      <c r="K113" s="50"/>
-      <c r="L113" s="51"/>
-      <c r="M113" s="51" t="s">
+      <c r="D113" s="49"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="49"/>
+      <c r="I113" s="49"/>
+      <c r="J113" s="48"/>
+      <c r="K113" s="49"/>
+      <c r="L113" s="50"/>
+      <c r="M113" s="50" t="s">
         <v>398</v>
       </c>
-      <c r="N113" s="52" t="s">
+      <c r="N113" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="O113" s="50"/>
-      <c r="P113" s="50"/>
-      <c r="Q113" s="50"/>
+      <c r="O113" s="49"/>
+      <c r="P113" s="49"/>
+      <c r="Q113" s="49"/>
     </row>
     <row r="114">
       <c r="A114" s="32" t="s">
@@ -9218,7 +9187,7 @@
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
-      <c r="I114" s="53" t="s">
+      <c r="I114" s="52" t="s">
         <v>402</v>
       </c>
       <c r="J114" s="17"/>
@@ -9234,7 +9203,7 @@
       <c r="A115" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="B115" s="54" t="s">
+      <c r="B115" s="53" t="s">
         <v>404</v>
       </c>
       <c r="C115" s="11" t="s">
@@ -9249,7 +9218,7 @@
       <c r="J115" s="17"/>
       <c r="K115" s="13"/>
       <c r="L115" s="11"/>
-      <c r="M115" s="55" t="s">
+      <c r="M115" s="54" t="s">
         <v>406</v>
       </c>
       <c r="N115" s="41" t="s">
@@ -9363,62 +9332,62 @@
       <c r="Q119" s="13"/>
     </row>
     <row r="120">
-      <c r="A120" s="56" t="s">
+      <c r="A120" s="55" t="s">
         <v>414</v>
       </c>
-      <c r="B120" s="57" t="s">
+      <c r="B120" s="56" t="s">
         <v>415</v>
       </c>
-      <c r="C120" s="58" t="s">
+      <c r="C120" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="D120" s="59"/>
-      <c r="E120" s="57"/>
-      <c r="F120" s="59"/>
-      <c r="G120" s="59"/>
-      <c r="H120" s="59"/>
-      <c r="I120" s="60"/>
-      <c r="J120" s="61">
+      <c r="D120" s="58"/>
+      <c r="E120" s="56"/>
+      <c r="F120" s="58"/>
+      <c r="G120" s="58"/>
+      <c r="H120" s="58"/>
+      <c r="I120" s="59"/>
+      <c r="J120" s="60">
         <v>229.0</v>
       </c>
-      <c r="K120" s="59"/>
-      <c r="L120" s="62"/>
-      <c r="M120" s="63"/>
-      <c r="N120" s="64"/>
-      <c r="O120" s="59"/>
-      <c r="P120" s="59"/>
-      <c r="Q120" s="59"/>
-      <c r="R120" s="62" t="s">
+      <c r="K120" s="58"/>
+      <c r="L120" s="61"/>
+      <c r="M120" s="62"/>
+      <c r="N120" s="63"/>
+      <c r="O120" s="58"/>
+      <c r="P120" s="58"/>
+      <c r="Q120" s="58"/>
+      <c r="R120" s="61" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="56" t="s">
+      <c r="A121" s="55" t="s">
         <v>417</v>
       </c>
-      <c r="B121" s="57" t="s">
+      <c r="B121" s="56" t="s">
         <v>418</v>
       </c>
-      <c r="C121" s="58" t="s">
+      <c r="C121" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="D121" s="59"/>
-      <c r="E121" s="57"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="59"/>
-      <c r="H121" s="59"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="61">
+      <c r="D121" s="58"/>
+      <c r="E121" s="56"/>
+      <c r="F121" s="58"/>
+      <c r="G121" s="58"/>
+      <c r="H121" s="58"/>
+      <c r="I121" s="59"/>
+      <c r="J121" s="60">
         <v>229.0</v>
       </c>
-      <c r="K121" s="59"/>
-      <c r="L121" s="62"/>
-      <c r="M121" s="63"/>
-      <c r="N121" s="65"/>
-      <c r="O121" s="59"/>
-      <c r="P121" s="59"/>
-      <c r="Q121" s="59"/>
-      <c r="R121" s="63"/>
+      <c r="K121" s="58"/>
+      <c r="L121" s="61"/>
+      <c r="M121" s="62"/>
+      <c r="N121" s="64"/>
+      <c r="O121" s="58"/>
+      <c r="P121" s="58"/>
+      <c r="Q121" s="58"/>
+      <c r="R121" s="62"/>
     </row>
     <row r="122">
       <c r="A122" s="32" t="s">
@@ -9781,7 +9750,7 @@
         <v>202</v>
       </c>
       <c r="D134" s="13"/>
-      <c r="E134" s="57"/>
+      <c r="E134" s="56"/>
       <c r="F134" s="11"/>
       <c r="G134" s="13"/>
       <c r="H134" s="13"/>
@@ -9910,7 +9879,7 @@
         <v>229.0</v>
       </c>
       <c r="K138" s="13"/>
-      <c r="L138" s="66" t="s">
+      <c r="L138" s="16" t="s">
         <v>395</v>
       </c>
       <c r="M138" s="13"/>
@@ -9965,8 +9934,8 @@
       <c r="I140" s="17"/>
       <c r="J140" s="11"/>
       <c r="K140" s="13"/>
-      <c r="L140" s="67"/>
-      <c r="M140" s="67"/>
+      <c r="L140" s="65"/>
+      <c r="M140" s="65"/>
       <c r="N140" s="20"/>
       <c r="O140" s="13"/>
       <c r="P140" s="13"/>
@@ -9990,8 +9959,8 @@
       <c r="I141" s="17"/>
       <c r="J141" s="11"/>
       <c r="K141" s="13"/>
-      <c r="L141" s="68"/>
-      <c r="M141" s="68"/>
+      <c r="L141" s="66"/>
+      <c r="M141" s="66"/>
       <c r="N141" s="15"/>
       <c r="O141" s="13"/>
       <c r="P141" s="13"/>
@@ -10015,7 +9984,7 @@
       <c r="I142" s="17"/>
       <c r="J142" s="11"/>
       <c r="K142" s="13"/>
-      <c r="L142" s="68"/>
+      <c r="L142" s="66"/>
       <c r="M142" s="32"/>
       <c r="N142" s="20"/>
       <c r="O142" s="13"/>
@@ -10023,144 +9992,144 @@
       <c r="Q142" s="13"/>
     </row>
     <row r="143">
-      <c r="A143" s="69" t="s">
+      <c r="A143" s="67" t="s">
         <v>461</v>
       </c>
-      <c r="B143" s="70" t="s">
+      <c r="B143" s="68" t="s">
         <v>462</v>
       </c>
-      <c r="C143" s="71" t="s">
+      <c r="C143" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="D143" s="72"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="74"/>
-      <c r="G143" s="72"/>
-      <c r="H143" s="72"/>
-      <c r="I143" s="74"/>
-      <c r="J143" s="75">
+      <c r="D143" s="70"/>
+      <c r="E143" s="71"/>
+      <c r="F143" s="72"/>
+      <c r="G143" s="70"/>
+      <c r="H143" s="70"/>
+      <c r="I143" s="72"/>
+      <c r="J143" s="73">
         <v>229.0</v>
       </c>
-      <c r="K143" s="72"/>
-      <c r="L143" s="70" t="s">
+      <c r="K143" s="70"/>
+      <c r="L143" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="M143" s="74"/>
-      <c r="N143" s="76"/>
-      <c r="O143" s="72"/>
-      <c r="P143" s="72"/>
-      <c r="Q143" s="72"/>
+      <c r="M143" s="72"/>
+      <c r="N143" s="74"/>
+      <c r="O143" s="70"/>
+      <c r="P143" s="70"/>
+      <c r="Q143" s="70"/>
       <c r="R143" s="3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="69" t="s">
+      <c r="A144" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="B144" s="70" t="s">
+      <c r="B144" s="68" t="s">
         <v>465</v>
       </c>
-      <c r="C144" s="71" t="s">
+      <c r="C144" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="D144" s="72"/>
-      <c r="E144" s="74"/>
-      <c r="F144" s="74"/>
-      <c r="G144" s="72"/>
-      <c r="H144" s="72"/>
-      <c r="I144" s="74"/>
-      <c r="J144" s="75">
+      <c r="D144" s="70"/>
+      <c r="E144" s="72"/>
+      <c r="F144" s="72"/>
+      <c r="G144" s="70"/>
+      <c r="H144" s="70"/>
+      <c r="I144" s="72"/>
+      <c r="J144" s="73">
         <v>229.0</v>
       </c>
-      <c r="K144" s="72"/>
-      <c r="L144" s="70" t="s">
+      <c r="K144" s="70"/>
+      <c r="L144" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="M144" s="74"/>
-      <c r="N144" s="76"/>
-      <c r="O144" s="72"/>
-      <c r="P144" s="72"/>
-      <c r="Q144" s="72"/>
+      <c r="M144" s="72"/>
+      <c r="N144" s="74"/>
+      <c r="O144" s="70"/>
+      <c r="P144" s="70"/>
+      <c r="Q144" s="70"/>
     </row>
     <row r="145">
-      <c r="A145" s="77" t="s">
+      <c r="A145" s="75" t="s">
         <v>466</v>
       </c>
-      <c r="B145" s="70" t="s">
+      <c r="B145" s="68" t="s">
         <v>467</v>
       </c>
-      <c r="C145" s="71" t="s">
+      <c r="C145" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="D145" s="72"/>
-      <c r="E145" s="73"/>
-      <c r="F145" s="74"/>
-      <c r="G145" s="72"/>
-      <c r="H145" s="72"/>
-      <c r="I145" s="74"/>
-      <c r="J145" s="75">
+      <c r="D145" s="70"/>
+      <c r="E145" s="71"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="70"/>
+      <c r="H145" s="70"/>
+      <c r="I145" s="72"/>
+      <c r="J145" s="73">
         <v>229.0</v>
       </c>
-      <c r="K145" s="72"/>
-      <c r="L145" s="78" t="s">
+      <c r="K145" s="70"/>
+      <c r="L145" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="M145" s="76"/>
-      <c r="N145" s="76"/>
-      <c r="O145" s="72"/>
-      <c r="P145" s="72"/>
-      <c r="Q145" s="72"/>
+      <c r="M145" s="74"/>
+      <c r="N145" s="74"/>
+      <c r="O145" s="70"/>
+      <c r="P145" s="70"/>
+      <c r="Q145" s="70"/>
       <c r="R145" s="3" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="69" t="s">
+      <c r="A146" s="67" t="s">
         <v>469</v>
       </c>
-      <c r="B146" s="70" t="s">
+      <c r="B146" s="68" t="s">
         <v>470</v>
       </c>
-      <c r="C146" s="71" t="s">
+      <c r="C146" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="D146" s="72"/>
-      <c r="E146" s="73"/>
-      <c r="F146" s="74"/>
-      <c r="G146" s="72"/>
-      <c r="H146" s="72"/>
-      <c r="I146" s="74"/>
-      <c r="J146" s="75">
+      <c r="D146" s="70"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="70"/>
+      <c r="H146" s="70"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="73">
         <v>229.0</v>
       </c>
-      <c r="K146" s="72"/>
-      <c r="L146" s="78" t="s">
+      <c r="K146" s="70"/>
+      <c r="L146" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="M146" s="76"/>
-      <c r="N146" s="76"/>
-      <c r="O146" s="72"/>
-      <c r="P146" s="72"/>
-      <c r="Q146" s="72"/>
+      <c r="M146" s="74"/>
+      <c r="N146" s="74"/>
+      <c r="O146" s="70"/>
+      <c r="P146" s="70"/>
+      <c r="Q146" s="70"/>
     </row>
     <row r="147">
-      <c r="A147" s="79" t="s">
+      <c r="A147" s="77" t="s">
         <v>471</v>
       </c>
-      <c r="B147" s="80" t="s">
+      <c r="B147" s="78" t="s">
         <v>472</v>
       </c>
-      <c r="C147" s="81" t="s">
+      <c r="C147" s="79" t="s">
         <v>473</v>
       </c>
-      <c r="D147" s="82"/>
-      <c r="E147" s="80"/>
-      <c r="F147" s="83"/>
-      <c r="G147" s="84"/>
-      <c r="H147" s="85"/>
-      <c r="I147" s="82"/>
-      <c r="J147" s="81"/>
+      <c r="D147" s="80"/>
+      <c r="E147" s="78"/>
+      <c r="F147" s="81"/>
+      <c r="G147" s="82"/>
+      <c r="H147" s="83"/>
+      <c r="I147" s="80"/>
+      <c r="J147" s="79"/>
       <c r="K147" s="15"/>
       <c r="L147" s="15"/>
       <c r="M147" s="20"/>
@@ -10170,65 +10139,65 @@
       <c r="Q147" s="13"/>
     </row>
     <row r="148">
-      <c r="A148" s="77" t="s">
+      <c r="A148" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="B148" s="70" t="s">
+      <c r="B148" s="68" t="s">
         <v>474</v>
       </c>
-      <c r="C148" s="71" t="s">
+      <c r="C148" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="D148" s="72"/>
-      <c r="E148" s="70"/>
-      <c r="F148" s="86"/>
-      <c r="G148" s="72"/>
-      <c r="H148" s="72"/>
-      <c r="I148" s="74"/>
-      <c r="J148" s="75">
+      <c r="D148" s="70"/>
+      <c r="E148" s="68"/>
+      <c r="F148" s="84"/>
+      <c r="G148" s="70"/>
+      <c r="H148" s="70"/>
+      <c r="I148" s="72"/>
+      <c r="J148" s="73">
         <v>229.0</v>
       </c>
-      <c r="K148" s="72"/>
-      <c r="L148" s="70" t="s">
+      <c r="K148" s="70"/>
+      <c r="L148" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="M148" s="72"/>
-      <c r="N148" s="76"/>
-      <c r="O148" s="72"/>
-      <c r="P148" s="72"/>
-      <c r="Q148" s="72"/>
+      <c r="M148" s="70"/>
+      <c r="N148" s="74"/>
+      <c r="O148" s="70"/>
+      <c r="P148" s="70"/>
+      <c r="Q148" s="70"/>
       <c r="R148" s="3" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="77" t="s">
+      <c r="A149" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="B149" s="70" t="s">
+      <c r="B149" s="68" t="s">
         <v>476</v>
       </c>
-      <c r="C149" s="86" t="s">
+      <c r="C149" s="84" t="s">
         <v>477</v>
       </c>
-      <c r="D149" s="72"/>
-      <c r="E149" s="74"/>
-      <c r="F149" s="86"/>
-      <c r="G149" s="72"/>
-      <c r="H149" s="72"/>
-      <c r="I149" s="74"/>
-      <c r="J149" s="75">
+      <c r="D149" s="70"/>
+      <c r="E149" s="72"/>
+      <c r="F149" s="84"/>
+      <c r="G149" s="70"/>
+      <c r="H149" s="70"/>
+      <c r="I149" s="72"/>
+      <c r="J149" s="73">
         <v>229.0</v>
       </c>
-      <c r="K149" s="72"/>
-      <c r="L149" s="70" t="s">
+      <c r="K149" s="70"/>
+      <c r="L149" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="M149" s="72"/>
-      <c r="N149" s="76"/>
-      <c r="O149" s="72"/>
-      <c r="P149" s="72"/>
-      <c r="Q149" s="72"/>
+      <c r="M149" s="70"/>
+      <c r="N149" s="74"/>
+      <c r="O149" s="70"/>
+      <c r="P149" s="70"/>
+      <c r="Q149" s="70"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -10252,27 +10221,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="85" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="87" t="s">
         <v>478</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="88" t="s">
         <v>480</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -10280,7 +10249,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="87" t="s">
         <v>482</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -10292,7 +10261,7 @@
       <c r="D3" s="22"/>
     </row>
     <row r="4">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="87" t="s">
         <v>485</v>
       </c>
       <c r="B4" s="23" t="s">
@@ -10301,10 +10270,10 @@
       <c r="C4" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="89"/>
     </row>
     <row r="5">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="87" t="s">
         <v>488</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -10313,13 +10282,13 @@
       <c r="C5" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="D5" s="91"/>
+      <c r="D5" s="89"/>
     </row>
     <row r="6">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="90" t="s">
         <v>492</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -10328,7 +10297,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="87" t="s">
         <v>494</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -10337,12 +10306,12 @@
       <c r="C7" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="91" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="87" t="s">
         <v>498</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -10351,12 +10320,12 @@
       <c r="C8" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="91" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="87" t="s">
         <v>497</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -10365,12 +10334,12 @@
       <c r="C9" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="92" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="87" t="s">
         <v>503</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -10379,12 +10348,12 @@
       <c r="C10" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="91" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="87" t="s">
         <v>506</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -10393,421 +10362,421 @@
       <c r="C11" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="D11" s="95"/>
+      <c r="D11" s="93"/>
     </row>
     <row r="12">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="87" t="s">
         <v>509</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="91" t="s">
         <v>510</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="91" t="s">
         <v>511</v>
       </c>
-      <c r="D12" s="95"/>
+      <c r="D12" s="93"/>
     </row>
     <row r="13">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="87" t="s">
         <v>512</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="94" t="s">
         <v>513</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="91" t="s">
         <v>514</v>
       </c>
-      <c r="D13" s="95"/>
+      <c r="D13" s="93"/>
     </row>
     <row r="14">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="87" t="s">
         <v>515</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="94" t="s">
         <v>516</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="91" t="s">
         <v>517</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="93"/>
     </row>
     <row r="15">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="87" t="s">
         <v>518</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="94" t="s">
         <v>519</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="91" t="s">
         <v>520</v>
       </c>
-      <c r="D15" s="95"/>
+      <c r="D15" s="93"/>
     </row>
     <row r="16">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="94" t="s">
         <v>522</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="91" t="s">
         <v>523</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="93"/>
     </row>
     <row r="17">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="87" t="s">
         <v>524</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="94" t="s">
         <v>525</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="91" t="s">
         <v>526</v>
       </c>
-      <c r="D17" s="95"/>
+      <c r="D17" s="93"/>
     </row>
     <row r="18">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="87" t="s">
         <v>527</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="94" t="s">
         <v>528</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="91" t="s">
         <v>529</v>
       </c>
-      <c r="D18" s="95"/>
+      <c r="D18" s="93"/>
     </row>
     <row r="19">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="87" t="s">
         <v>530</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="94" t="s">
         <v>531</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="91" t="s">
         <v>532</v>
       </c>
-      <c r="D19" s="95"/>
+      <c r="D19" s="93"/>
     </row>
     <row r="20">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="87" t="s">
         <v>533</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="94" t="s">
         <v>534</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="95" t="s">
         <v>501</v>
       </c>
-      <c r="D20" s="95"/>
+      <c r="D20" s="93"/>
     </row>
     <row r="21">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="87" t="s">
         <v>535</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="96" t="s">
         <v>536</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="95" t="s">
         <v>537</v>
       </c>
-      <c r="D21" s="95"/>
+      <c r="D21" s="93"/>
     </row>
     <row r="22">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="87" t="s">
         <v>538</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="94" t="s">
         <v>539</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="97" t="s">
         <v>540</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="91" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="87" t="s">
         <v>541</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="98" t="s">
         <v>542</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="99" t="s">
         <v>543</v>
       </c>
-      <c r="D23" s="95"/>
+      <c r="D23" s="93"/>
     </row>
     <row r="24">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="87" t="s">
         <v>544</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="100" t="s">
         <v>545</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="99" t="s">
         <v>546</v>
       </c>
-      <c r="D24" s="95"/>
+      <c r="D24" s="93"/>
     </row>
     <row r="25">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="87" t="s">
         <v>547</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="100" t="s">
         <v>548</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="99" t="s">
         <v>549</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="91" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="87" t="s">
         <v>550</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="91" t="s">
         <v>551</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="91" t="s">
         <v>552</v>
       </c>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="91" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="87" t="s">
         <v>553</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="91" t="s">
         <v>554</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="91" t="s">
         <v>555</v>
       </c>
-      <c r="D27" s="95"/>
+      <c r="D27" s="93"/>
     </row>
     <row r="28">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="91" t="s">
         <v>556</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="91" t="s">
         <v>557</v>
       </c>
-      <c r="D28" s="95"/>
+      <c r="D28" s="93"/>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="101" t="s">
         <v>559</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="102" t="s">
         <v>560</v>
       </c>
-      <c r="D29" s="104"/>
+      <c r="D29" s="102"/>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="101" t="s">
         <v>562</v>
       </c>
-      <c r="C30" s="104" t="s">
+      <c r="C30" s="102" t="s">
         <v>563</v>
       </c>
-      <c r="D30" s="104"/>
+      <c r="D30" s="102"/>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="101" t="s">
         <v>565</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="102" t="s">
         <v>566</v>
       </c>
-      <c r="D31" s="104"/>
+      <c r="D31" s="102"/>
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="101" t="s">
         <v>568</v>
       </c>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="102" t="s">
         <v>569</v>
       </c>
-      <c r="D32" s="104"/>
+      <c r="D32" s="102"/>
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="101" t="s">
         <v>571</v>
       </c>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="102" t="s">
         <v>572</v>
       </c>
-      <c r="D33" s="104"/>
+      <c r="D33" s="102"/>
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="101" t="s">
         <v>574</v>
       </c>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="102" t="s">
         <v>575</v>
       </c>
-      <c r="D34" s="104"/>
+      <c r="D34" s="102"/>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="101" t="s">
         <v>577</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="102" t="s">
         <v>578</v>
       </c>
-      <c r="D35" s="104"/>
+      <c r="D35" s="102"/>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="101" t="s">
         <v>580</v>
       </c>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="102" t="s">
         <v>581</v>
       </c>
-      <c r="D36" s="104"/>
+      <c r="D36" s="102"/>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="B37" s="103" t="s">
+      <c r="B37" s="101" t="s">
         <v>583</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="102" t="s">
         <v>584</v>
       </c>
-      <c r="D37" s="104"/>
+      <c r="D37" s="102"/>
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="101" t="s">
         <v>586</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="102" t="s">
         <v>587</v>
       </c>
-      <c r="D38" s="104"/>
+      <c r="D38" s="102"/>
     </row>
     <row r="39">
-      <c r="A39" s="105">
+      <c r="A39" s="103">
         <v>54.0</v>
       </c>
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="104" t="s">
         <v>588</v>
       </c>
-      <c r="C39" s="107" t="s">
+      <c r="C39" s="105" t="s">
         <v>589</v>
       </c>
-      <c r="D39" s="108"/>
+      <c r="D39" s="106"/>
     </row>
     <row r="40">
-      <c r="A40" s="105">
+      <c r="A40" s="103">
         <v>55.0</v>
       </c>
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="104" t="s">
         <v>590</v>
       </c>
-      <c r="C40" s="107" t="s">
+      <c r="C40" s="105" t="s">
         <v>591</v>
       </c>
-      <c r="D40" s="102"/>
+      <c r="D40" s="100"/>
     </row>
     <row r="41">
-      <c r="A41" s="105">
+      <c r="A41" s="103">
         <v>56.0</v>
       </c>
-      <c r="B41" s="106" t="s">
+      <c r="B41" s="104" t="s">
         <v>592</v>
       </c>
-      <c r="C41" s="107" t="s">
+      <c r="C41" s="105" t="s">
         <v>593</v>
       </c>
-      <c r="D41" s="108"/>
+      <c r="D41" s="106"/>
     </row>
     <row r="42">
-      <c r="A42" s="105">
+      <c r="A42" s="103">
         <v>116.0</v>
       </c>
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="104" t="s">
         <v>492</v>
       </c>
-      <c r="C42" s="109" t="s">
+      <c r="C42" s="107" t="s">
         <v>594</v>
       </c>
-      <c r="D42" s="95"/>
+      <c r="D42" s="93"/>
     </row>
     <row r="43">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="108" t="s">
         <v>595</v>
       </c>
-      <c r="B43" s="100" t="s">
+      <c r="B43" s="98" t="s">
         <v>596</v>
       </c>
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="107" t="s">
         <v>597</v>
       </c>
-      <c r="D43" s="95"/>
+      <c r="D43" s="93"/>
     </row>
     <row r="44">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="108" t="s">
         <v>598</v>
       </c>
-      <c r="B44" s="100" t="s">
+      <c r="B44" s="98" t="s">
         <v>599</v>
       </c>
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="107" t="s">
         <v>600</v>
       </c>
-      <c r="D44" s="95"/>
+      <c r="D44" s="93"/>
     </row>
     <row r="45">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="108" t="s">
         <v>601</v>
       </c>
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="C45" s="111" t="s">
+      <c r="C45" s="109" t="s">
         <v>603</v>
       </c>
-      <c r="D45" s="95"/>
+      <c r="D45" s="93"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10832,25 +10801,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="110" t="s">
         <v>604</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="110" t="s">
         <v>605</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="110" t="s">
         <v>606</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="110" t="s">
         <v>607</v>
       </c>
     </row>
@@ -10868,10 +10837,10 @@
       <c r="E2" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="113">
+      <c r="F2" s="111">
         <v>4.0</v>
       </c>
-      <c r="G2" s="114"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
@@ -10887,7 +10856,7 @@
       <c r="E3" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="113">
+      <c r="F3" s="111">
         <v>4.0</v>
       </c>
       <c r="G3" s="13"/>
@@ -10906,7 +10875,7 @@
       <c r="E4" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="113">
+      <c r="F4" s="111">
         <v>4.0</v>
       </c>
       <c r="G4" s="13"/>
@@ -10925,7 +10894,7 @@
       <c r="E5" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="113">
+      <c r="F5" s="111">
         <v>4.0</v>
       </c>
       <c r="G5" s="13"/>
@@ -10944,7 +10913,7 @@
       <c r="E6" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="113">
+      <c r="F6" s="111">
         <v>4.0</v>
       </c>
       <c r="G6" s="13"/>
@@ -10963,7 +10932,7 @@
       <c r="E7" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="113">
+      <c r="F7" s="111">
         <v>4.0</v>
       </c>
       <c r="G7" s="13"/>
@@ -10982,7 +10951,7 @@
       <c r="E8" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="111">
         <v>4.0</v>
       </c>
       <c r="G8" s="13"/>
@@ -11001,7 +10970,7 @@
       <c r="E9" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="111">
         <v>4.0</v>
       </c>
       <c r="G9" s="13"/>
@@ -11020,7 +10989,7 @@
       <c r="E10" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="F10" s="113">
+      <c r="F10" s="111">
         <v>4.0</v>
       </c>
       <c r="G10" s="13"/>
@@ -11039,7 +11008,7 @@
       <c r="E11" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="F11" s="113">
+      <c r="F11" s="111">
         <v>4.0</v>
       </c>
       <c r="G11" s="13"/>
@@ -11055,10 +11024,10 @@
       <c r="D12" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="111">
         <v>16.0</v>
       </c>
       <c r="G12" s="13"/>
@@ -11077,7 +11046,7 @@
       <c r="E13" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="111">
         <v>16.0</v>
       </c>
       <c r="G13" s="13"/>
@@ -11096,7 +11065,7 @@
       <c r="E14" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="111">
         <v>4.0</v>
       </c>
       <c r="G14" s="13"/>
@@ -11115,7 +11084,7 @@
       <c r="E15" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="111">
         <v>4.0</v>
       </c>
       <c r="G15" s="13"/>
@@ -11134,7 +11103,7 @@
       <c r="E16" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="F16" s="113">
+      <c r="F16" s="111">
         <v>4.0</v>
       </c>
       <c r="G16" s="13"/>
@@ -11153,7 +11122,7 @@
       <c r="E17" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="F17" s="113">
+      <c r="F17" s="111">
         <v>4.0</v>
       </c>
       <c r="G17" s="13"/>
@@ -11172,7 +11141,7 @@
       <c r="E18" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="113">
+      <c r="F18" s="111">
         <v>4.0</v>
       </c>
       <c r="G18" s="13"/>
@@ -11191,7 +11160,7 @@
       <c r="E19" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="F19" s="113">
+      <c r="F19" s="111">
         <v>4.0</v>
       </c>
       <c r="G19" s="13"/>
@@ -11210,7 +11179,7 @@
       <c r="E20" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="F20" s="113">
+      <c r="F20" s="111">
         <v>4.0</v>
       </c>
       <c r="G20" s="13"/>
@@ -11229,45 +11198,45 @@
       <c r="E21" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="113">
+      <c r="F21" s="111">
         <v>4.0</v>
       </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="113" t="s">
         <v>668</v>
       </c>
       <c r="B22" s="37"/>
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="114" t="s">
         <v>669</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D22" s="114" t="s">
         <v>670</v>
       </c>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="113" t="s">
         <v>242</v>
       </c>
-      <c r="F22" s="113">
+      <c r="F22" s="111">
         <v>4.0</v>
       </c>
       <c r="G22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="113" t="s">
         <v>671</v>
       </c>
       <c r="B23" s="37"/>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="114" t="s">
         <v>672</v>
       </c>
-      <c r="D23" s="117" t="s">
+      <c r="D23" s="115" t="s">
         <v>673</v>
       </c>
-      <c r="E23" s="115" t="s">
+      <c r="E23" s="113" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="113">
+      <c r="F23" s="111">
         <v>4.0</v>
       </c>
       <c r="G23" s="13"/>
@@ -11286,7 +11255,7 @@
       <c r="E24" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="111">
         <v>4.0</v>
       </c>
       <c r="G24" s="13"/>
@@ -11305,7 +11274,7 @@
       <c r="E25" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="111">
         <v>4.0</v>
       </c>
       <c r="G25" s="13"/>
@@ -11324,7 +11293,7 @@
       <c r="E26" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="111">
         <v>4.0</v>
       </c>
       <c r="G26" s="13"/>
@@ -11343,7 +11312,7 @@
       <c r="E27" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="111">
         <v>4.0</v>
       </c>
       <c r="G27" s="13"/>
@@ -11362,7 +11331,7 @@
       <c r="E28" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="F28" s="113">
+      <c r="F28" s="111">
         <v>4.0</v>
       </c>
       <c r="G28" s="13"/>
@@ -11381,7 +11350,7 @@
       <c r="E29" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="113">
+      <c r="F29" s="111">
         <v>4.0</v>
       </c>
       <c r="G29" s="13"/>
@@ -11400,7 +11369,7 @@
       <c r="E30" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="F30" s="113">
+      <c r="F30" s="111">
         <v>4.0</v>
       </c>
       <c r="G30" s="13"/>
@@ -11419,7 +11388,7 @@
       <c r="E31" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="F31" s="113">
+      <c r="F31" s="111">
         <v>4.0</v>
       </c>
       <c r="G31" s="13"/>
@@ -11438,7 +11407,7 @@
       <c r="E32" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="F32" s="113">
+      <c r="F32" s="111">
         <v>4.0</v>
       </c>
       <c r="G32" s="13"/>
@@ -11457,7 +11426,7 @@
       <c r="E33" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="F33" s="113">
+      <c r="F33" s="111">
         <v>4.0</v>
       </c>
       <c r="G33" s="13"/>
@@ -11476,7 +11445,7 @@
       <c r="E34" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="F34" s="113">
+      <c r="F34" s="111">
         <v>4.0</v>
       </c>
       <c r="G34" s="13"/>
@@ -11495,7 +11464,7 @@
       <c r="E35" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="F35" s="113">
+      <c r="F35" s="111">
         <v>4.0</v>
       </c>
       <c r="G35" s="13"/>
@@ -11514,7 +11483,7 @@
       <c r="E36" s="41" t="s">
         <v>464</v>
       </c>
-      <c r="F36" s="113">
+      <c r="F36" s="111">
         <v>4.0</v>
       </c>
       <c r="G36" s="13"/>
@@ -11533,7 +11502,7 @@
       <c r="E37" s="32" t="s">
         <v>466</v>
       </c>
-      <c r="F37" s="113">
+      <c r="F37" s="111">
         <v>4.0</v>
       </c>
       <c r="G37" s="13"/>
@@ -11552,7 +11521,7 @@
       <c r="E38" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="F38" s="113">
+      <c r="F38" s="111">
         <v>4.0</v>
       </c>
       <c r="G38" s="13"/>
@@ -11582,7 +11551,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.0"/>
-    <col customWidth="1" min="2" max="2" width="26.0"/>
+    <col customWidth="1" min="2" max="2" width="61.71"/>
     <col customWidth="1" min="3" max="3" width="16.57"/>
     <col customWidth="1" min="4" max="4" width="13.14"/>
     <col customWidth="1" min="6" max="7" width="18.86"/>
@@ -11594,40 +11563,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="110" t="s">
         <v>719</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="110" t="s">
         <v>720</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="110" t="s">
         <v>721</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="110" t="s">
         <v>722</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="110" t="s">
         <v>723</v>
       </c>
-      <c r="J1" s="118" t="s">
+      <c r="J1" s="116" t="s">
         <v>724</v>
       </c>
-      <c r="K1" s="119" t="s">
+      <c r="K1" s="117" t="s">
         <v>725</v>
       </c>
-      <c r="L1" s="120" t="s">
+      <c r="L1" s="118" t="s">
         <v>726</v>
       </c>
       <c r="M1" s="19" t="s">
@@ -11657,14 +11626,14 @@
       <c r="G2" s="17" t="s">
         <v>733</v>
       </c>
-      <c r="H2" s="113">
+      <c r="H2" s="111">
         <v>100.0</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
       <c r="N2" s="19">
         <v>1.0</v>
       </c>
@@ -11679,7 +11648,7 @@
       <c r="C3" s="36" t="s">
         <v>736</v>
       </c>
-      <c r="D3" s="123"/>
+      <c r="D3" s="121"/>
       <c r="E3" s="41" t="s">
         <v>214</v>
       </c>
@@ -11687,17 +11656,17 @@
         <v>609</v>
       </c>
       <c r="G3" s="17"/>
-      <c r="H3" s="113">
+      <c r="H3" s="111">
         <v>4.0</v>
       </c>
       <c r="I3" s="31"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="124" t="s">
+      <c r="K3" s="119"/>
+      <c r="L3" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122">
+      <c r="M3" s="120"/>
+      <c r="N3" s="120">
         <v>2.0</v>
       </c>
     </row>
@@ -11723,14 +11692,14 @@
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="125" t="s">
+      <c r="K4" s="123" t="s">
         <v>740</v>
       </c>
-      <c r="L4" s="126" t="s">
+      <c r="L4" s="124" t="s">
         <v>741</v>
       </c>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122">
+      <c r="M4" s="120"/>
+      <c r="N4" s="120">
         <v>3.0</v>
       </c>
     </row>
@@ -11754,12 +11723,12 @@
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="126" t="s">
+      <c r="K5" s="123"/>
+      <c r="L5" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122">
+      <c r="M5" s="120"/>
+      <c r="N5" s="120">
         <v>4.0</v>
       </c>
     </row>
@@ -11783,14 +11752,14 @@
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="125" t="s">
+      <c r="K6" s="123" t="s">
         <v>746</v>
       </c>
-      <c r="L6" s="126" t="s">
+      <c r="L6" s="124" t="s">
         <v>747</v>
       </c>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122">
+      <c r="M6" s="120"/>
+      <c r="N6" s="120">
         <v>5.0</v>
       </c>
     </row>
@@ -11814,12 +11783,12 @@
       <c r="H7" s="11"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="126" t="s">
+      <c r="K7" s="123"/>
+      <c r="L7" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122">
+      <c r="M7" s="120"/>
+      <c r="N7" s="120">
         <v>6.0</v>
       </c>
     </row>
@@ -11843,14 +11812,14 @@
       <c r="H8" s="11"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="125" t="s">
+      <c r="K8" s="123" t="s">
         <v>752</v>
       </c>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="124" t="s">
         <v>753</v>
       </c>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122">
+      <c r="M8" s="120"/>
+      <c r="N8" s="120">
         <v>7.0</v>
       </c>
     </row>
@@ -11874,12 +11843,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="126" t="s">
+      <c r="K9" s="123"/>
+      <c r="L9" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122">
+      <c r="M9" s="120"/>
+      <c r="N9" s="120">
         <v>8.0</v>
       </c>
     </row>
@@ -11903,14 +11872,14 @@
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="125" t="s">
+      <c r="K10" s="123" t="s">
         <v>752</v>
       </c>
-      <c r="L10" s="126" t="s">
+      <c r="L10" s="124" t="s">
         <v>758</v>
       </c>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122">
+      <c r="M10" s="120"/>
+      <c r="N10" s="120">
         <v>9.0</v>
       </c>
     </row>
@@ -11934,12 +11903,12 @@
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="126" t="s">
+      <c r="K11" s="123"/>
+      <c r="L11" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122">
+      <c r="M11" s="120"/>
+      <c r="N11" s="120">
         <v>10.0</v>
       </c>
     </row>
@@ -11963,14 +11932,14 @@
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="125" t="s">
+      <c r="K12" s="123" t="s">
         <v>746</v>
       </c>
-      <c r="L12" s="126" t="s">
+      <c r="L12" s="124" t="s">
         <v>763</v>
       </c>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122">
+      <c r="M12" s="120"/>
+      <c r="N12" s="120">
         <v>11.0</v>
       </c>
     </row>
@@ -11994,12 +11963,12 @@
       <c r="H13" s="11"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="126" t="s">
+      <c r="K13" s="123"/>
+      <c r="L13" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122">
+      <c r="M13" s="120"/>
+      <c r="N13" s="120">
         <v>12.0</v>
       </c>
     </row>
@@ -12023,14 +11992,14 @@
       <c r="H14" s="11"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="125" t="s">
+      <c r="K14" s="123" t="s">
         <v>746</v>
       </c>
-      <c r="L14" s="126" t="s">
+      <c r="L14" s="124" t="s">
         <v>768</v>
       </c>
-      <c r="M14" s="122"/>
-      <c r="N14" s="122">
+      <c r="M14" s="120"/>
+      <c r="N14" s="120">
         <v>13.0</v>
       </c>
     </row>
@@ -12054,12 +12023,12 @@
       <c r="H15" s="11"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="126" t="s">
+      <c r="K15" s="123"/>
+      <c r="L15" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122">
+      <c r="M15" s="120"/>
+      <c r="N15" s="120">
         <v>14.0</v>
       </c>
     </row>
@@ -12083,14 +12052,14 @@
       <c r="H16" s="11"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="125" t="s">
+      <c r="K16" s="123" t="s">
         <v>746</v>
       </c>
-      <c r="L16" s="126" t="s">
+      <c r="L16" s="124" t="s">
         <v>773</v>
       </c>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122">
+      <c r="M16" s="120"/>
+      <c r="N16" s="120">
         <v>15.0</v>
       </c>
     </row>
@@ -12114,12 +12083,12 @@
       <c r="H17" s="11"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="126" t="s">
+      <c r="K17" s="123"/>
+      <c r="L17" s="124" t="s">
         <v>184</v>
       </c>
-      <c r="M17" s="122"/>
-      <c r="N17" s="122">
+      <c r="M17" s="120"/>
+      <c r="N17" s="120">
         <v>16.0</v>
       </c>
     </row>
@@ -12134,8 +12103,8 @@
         <v>739</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="16" t="s">
-        <v>209</v>
+      <c r="E18" s="125" t="s">
+        <v>212</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>631</v>
@@ -12146,14 +12115,14 @@
       <c r="H18" s="11"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="125" t="s">
+      <c r="K18" s="123" t="s">
         <v>779</v>
       </c>
-      <c r="L18" s="126" t="s">
+      <c r="L18" s="124" t="s">
         <v>780</v>
       </c>
-      <c r="M18" s="122"/>
-      <c r="N18" s="122">
+      <c r="M18" s="120"/>
+      <c r="N18" s="120">
         <v>17.0</v>
       </c>
     </row>
@@ -12164,7 +12133,7 @@
       <c r="B19" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D19" s="17"/>
@@ -12180,14 +12149,14 @@
       <c r="H19" s="11"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="125" t="s">
+      <c r="K19" s="123" t="s">
         <v>784</v>
       </c>
-      <c r="L19" s="126" t="s">
+      <c r="L19" s="124" t="s">
         <v>785</v>
       </c>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122">
+      <c r="M19" s="120"/>
+      <c r="N19" s="120">
         <v>18.0</v>
       </c>
     </row>
@@ -12198,7 +12167,7 @@
       <c r="B20" s="21" t="s">
         <v>787</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D20" s="17"/>
@@ -12214,180 +12183,180 @@
       <c r="H20" s="11"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="125" t="s">
+      <c r="K20" s="123" t="s">
         <v>789</v>
       </c>
-      <c r="L20" s="126" t="s">
+      <c r="L20" s="124" t="s">
         <v>790</v>
       </c>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122">
+      <c r="M20" s="120"/>
+      <c r="N20" s="120">
         <v>19.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>791</v>
       </c>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="127" t="s">
         <v>792</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="128" t="s">
         <v>736</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="48" t="s">
         <v>633</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="130">
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="129">
         <v>6.0</v>
       </c>
-      <c r="L21" s="131" t="s">
+      <c r="L21" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122">
+      <c r="M21" s="120"/>
+      <c r="N21" s="120">
         <v>20.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="50" t="s">
         <v>793</v>
       </c>
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="127" t="s">
         <v>794</v>
       </c>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="128" t="s">
         <v>739</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="48" t="s">
         <v>634</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="48" t="s">
         <v>795</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="132" t="s">
+      <c r="H22" s="50"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="131" t="s">
         <v>796</v>
       </c>
-      <c r="L22" s="133" t="s">
+      <c r="L22" s="132" t="s">
         <v>797</v>
       </c>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122">
+      <c r="M22" s="120"/>
+      <c r="N22" s="120">
         <v>21.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="48" t="s">
         <v>798</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="47" t="s">
         <v>799</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>736</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="48" t="s">
         <v>636</v>
       </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="130">
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="129">
         <v>6.0</v>
       </c>
-      <c r="L23" s="133" t="s">
+      <c r="L23" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="M23" s="122"/>
-      <c r="N23" s="122">
+      <c r="M23" s="120"/>
+      <c r="N23" s="120">
         <v>22.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="48" t="s">
         <v>800</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>801</v>
       </c>
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="128" t="s">
         <v>739</v>
       </c>
-      <c r="D24" s="49"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="48" t="s">
         <v>637</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="48" t="s">
         <v>795</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="132" t="s">
+      <c r="H24" s="50"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="131" t="s">
         <v>796</v>
       </c>
-      <c r="L24" s="131" t="s">
+      <c r="L24" s="130" t="s">
         <v>802</v>
       </c>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122">
+      <c r="M24" s="120"/>
+      <c r="N24" s="120">
         <v>23.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="50" t="s">
         <v>803</v>
       </c>
-      <c r="B25" s="128" t="s">
+      <c r="B25" s="127" t="s">
         <v>804</v>
       </c>
-      <c r="C25" s="129" t="s">
+      <c r="C25" s="128" t="s">
         <v>739</v>
       </c>
-      <c r="D25" s="49"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="48" t="s">
         <v>795</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="47" t="s">
         <v>805</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="134" t="s">
+      <c r="H25" s="50"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="133" t="s">
         <v>806</v>
       </c>
-      <c r="L25" s="135" t="s">
+      <c r="L25" s="134" t="s">
         <v>807</v>
       </c>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122">
+      <c r="M25" s="120"/>
+      <c r="N25" s="120">
         <v>24.0</v>
       </c>
     </row>
@@ -12414,14 +12383,14 @@
       <c r="H26" s="11"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="136">
+      <c r="K26" s="135">
         <v>6.0</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M26" s="122"/>
-      <c r="N26" s="122">
+      <c r="M26" s="120"/>
+      <c r="N26" s="120">
         <v>25.0</v>
       </c>
     </row>
@@ -12432,7 +12401,7 @@
       <c r="B27" s="21" t="s">
         <v>812</v>
       </c>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D27" s="17"/>
@@ -12448,14 +12417,14 @@
       <c r="H27" s="11"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="125" t="s">
+      <c r="K27" s="123" t="s">
         <v>814</v>
       </c>
-      <c r="L27" s="126" t="s">
+      <c r="L27" s="124" t="s">
         <v>815</v>
       </c>
-      <c r="M27" s="122"/>
-      <c r="N27" s="122">
+      <c r="M27" s="120"/>
+      <c r="N27" s="120">
         <v>26.0</v>
       </c>
     </row>
@@ -12482,14 +12451,14 @@
       <c r="H28" s="11"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="136">
+      <c r="K28" s="135">
         <v>6.0</v>
       </c>
       <c r="L28" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="M28" s="122"/>
-      <c r="N28" s="122">
+      <c r="M28" s="120"/>
+      <c r="N28" s="120">
         <v>27.0</v>
       </c>
     </row>
@@ -12516,304 +12485,304 @@
       <c r="H29" s="11"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="125" t="s">
+      <c r="K29" s="123" t="s">
         <v>814</v>
       </c>
-      <c r="L29" s="126" t="s">
+      <c r="L29" s="124" t="s">
         <v>822</v>
       </c>
-      <c r="M29" s="122"/>
-      <c r="N29" s="122">
+      <c r="M29" s="120"/>
+      <c r="N29" s="120">
         <v>28.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="137" t="s">
+      <c r="A30" s="136" t="s">
         <v>823</v>
       </c>
-      <c r="B30" s="138" t="s">
+      <c r="B30" s="137" t="s">
         <v>824</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D30" s="139"/>
+      <c r="D30" s="138"/>
       <c r="E30" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F30" s="138" t="s">
+      <c r="F30" s="137" t="s">
         <v>825</v>
       </c>
-      <c r="G30" s="140" t="s">
+      <c r="G30" s="139" t="s">
         <v>826</v>
       </c>
-      <c r="H30" s="141"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="143" t="s">
+      <c r="H30" s="140"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="142" t="s">
         <v>827</v>
       </c>
-      <c r="L30" s="144" t="s">
+      <c r="L30" s="143" t="s">
         <v>828</v>
       </c>
-      <c r="M30" s="145"/>
-      <c r="N30" s="145"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
     </row>
     <row r="31">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="136" t="s">
         <v>829</v>
       </c>
-      <c r="B31" s="138" t="s">
+      <c r="B31" s="137" t="s">
         <v>830</v>
       </c>
       <c r="C31" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D31" s="139"/>
+      <c r="D31" s="138"/>
       <c r="E31" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F31" s="138" t="s">
+      <c r="F31" s="137" t="s">
         <v>826</v>
       </c>
-      <c r="G31" s="140" t="s">
+      <c r="G31" s="139" t="s">
         <v>831</v>
       </c>
-      <c r="H31" s="141"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="143" t="s">
+      <c r="H31" s="140"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="142" t="s">
         <v>827</v>
       </c>
-      <c r="L31" s="146" t="s">
+      <c r="L31" s="145" t="s">
         <v>832</v>
       </c>
-      <c r="M31" s="145"/>
-      <c r="N31" s="145"/>
+      <c r="M31" s="144"/>
+      <c r="N31" s="144"/>
     </row>
     <row r="32">
-      <c r="A32" s="137" t="s">
+      <c r="A32" s="136" t="s">
         <v>833</v>
       </c>
-      <c r="B32" s="138" t="s">
+      <c r="B32" s="137" t="s">
         <v>834</v>
       </c>
       <c r="C32" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D32" s="139"/>
+      <c r="D32" s="138"/>
       <c r="E32" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="138" t="s">
+      <c r="F32" s="137" t="s">
         <v>813</v>
       </c>
-      <c r="G32" s="140" t="s">
+      <c r="G32" s="139" t="s">
         <v>831</v>
       </c>
-      <c r="H32" s="141"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="143">
+      <c r="H32" s="140"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="142">
         <v>0.0</v>
       </c>
-      <c r="L32" s="144" t="s">
+      <c r="L32" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="M32" s="145"/>
-      <c r="N32" s="145"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
     </row>
     <row r="33">
-      <c r="A33" s="137" t="s">
+      <c r="A33" s="136" t="s">
         <v>835</v>
       </c>
-      <c r="B33" s="138" t="s">
+      <c r="B33" s="137" t="s">
         <v>836</v>
       </c>
       <c r="C33" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D33" s="139"/>
+      <c r="D33" s="138"/>
       <c r="E33" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="138" t="s">
+      <c r="F33" s="137" t="s">
         <v>831</v>
       </c>
-      <c r="G33" s="140" t="s">
+      <c r="G33" s="139" t="s">
         <v>837</v>
       </c>
-      <c r="H33" s="141"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="143" t="s">
+      <c r="H33" s="140"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="142" t="s">
         <v>827</v>
       </c>
-      <c r="L33" s="144" t="s">
+      <c r="L33" s="143" t="s">
         <v>838</v>
       </c>
-      <c r="M33" s="145"/>
-      <c r="N33" s="145"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="144"/>
     </row>
     <row r="34">
-      <c r="A34" s="147" t="s">
+      <c r="A34" s="136" t="s">
         <v>839</v>
       </c>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="137" t="s">
         <v>840</v>
       </c>
       <c r="C34" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D34" s="139"/>
+      <c r="D34" s="138"/>
       <c r="E34" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="138" t="s">
+      <c r="F34" s="137" t="s">
         <v>821</v>
       </c>
-      <c r="G34" s="140" t="s">
+      <c r="G34" s="139" t="s">
         <v>837</v>
       </c>
-      <c r="H34" s="141"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="143">
+      <c r="H34" s="140"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="142">
         <v>0.0</v>
       </c>
-      <c r="L34" s="144" t="s">
+      <c r="L34" s="143" t="s">
         <v>322</v>
       </c>
-      <c r="M34" s="145"/>
-      <c r="N34" s="145"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="144"/>
     </row>
     <row r="35">
-      <c r="A35" s="137" t="s">
+      <c r="A35" s="136" t="s">
         <v>841</v>
       </c>
-      <c r="B35" s="138" t="s">
+      <c r="B35" s="137" t="s">
         <v>842</v>
       </c>
       <c r="C35" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D35" s="139"/>
+      <c r="D35" s="138"/>
       <c r="E35" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F35" s="138" t="s">
+      <c r="F35" s="137" t="s">
         <v>837</v>
       </c>
-      <c r="G35" s="140" t="s">
+      <c r="G35" s="139" t="s">
         <v>843</v>
       </c>
-      <c r="H35" s="141"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="143" t="s">
+      <c r="H35" s="140"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="142" t="s">
         <v>827</v>
       </c>
-      <c r="L35" s="144" t="s">
+      <c r="L35" s="143" t="s">
         <v>844</v>
       </c>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
+      <c r="M35" s="144"/>
+      <c r="N35" s="144"/>
     </row>
     <row r="36">
-      <c r="A36" s="137" t="s">
+      <c r="A36" s="136" t="s">
         <v>845</v>
       </c>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="137" t="s">
         <v>846</v>
       </c>
       <c r="C36" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D36" s="139"/>
+      <c r="D36" s="138"/>
       <c r="E36" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F36" s="138" t="s">
+      <c r="F36" s="137" t="s">
         <v>843</v>
       </c>
-      <c r="G36" s="140" t="s">
+      <c r="G36" s="139" t="s">
         <v>847</v>
       </c>
-      <c r="H36" s="141"/>
-      <c r="I36" s="142"/>
-      <c r="J36" s="142"/>
-      <c r="K36" s="143" t="s">
+      <c r="H36" s="140"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="141"/>
+      <c r="K36" s="142" t="s">
         <v>827</v>
       </c>
-      <c r="L36" s="146" t="s">
+      <c r="L36" s="145" t="s">
         <v>848</v>
       </c>
-      <c r="M36" s="145"/>
-      <c r="N36" s="145"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
     </row>
     <row r="37">
-      <c r="A37" s="137" t="s">
+      <c r="A37" s="136" t="s">
         <v>849</v>
       </c>
-      <c r="B37" s="138" t="s">
+      <c r="B37" s="137" t="s">
         <v>850</v>
       </c>
       <c r="C37" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D37" s="139"/>
+      <c r="D37" s="138"/>
       <c r="E37" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F37" s="138" t="s">
+      <c r="F37" s="137" t="s">
         <v>847</v>
       </c>
-      <c r="G37" s="140" t="s">
+      <c r="G37" s="139" t="s">
         <v>851</v>
       </c>
-      <c r="H37" s="141"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="142"/>
-      <c r="K37" s="143" t="s">
+      <c r="H37" s="140"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="142" t="s">
         <v>827</v>
       </c>
-      <c r="L37" s="146" t="s">
+      <c r="L37" s="145" t="s">
         <v>852</v>
       </c>
-      <c r="M37" s="145"/>
-      <c r="N37" s="145"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="144"/>
     </row>
     <row r="38">
-      <c r="A38" s="137" t="s">
+      <c r="A38" s="136" t="s">
         <v>853</v>
       </c>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="137" t="s">
         <v>854</v>
       </c>
       <c r="C38" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D38" s="139"/>
+      <c r="D38" s="138"/>
       <c r="E38" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F38" s="148" t="s">
+      <c r="F38" s="137" t="s">
         <v>855</v>
       </c>
-      <c r="G38" s="149" t="s">
+      <c r="G38" s="139" t="s">
         <v>856</v>
       </c>
-      <c r="H38" s="141"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="142"/>
-      <c r="K38" s="143" t="s">
+      <c r="H38" s="140"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="141"/>
+      <c r="K38" s="142" t="s">
         <v>260</v>
       </c>
-      <c r="L38" s="146" t="s">
+      <c r="L38" s="145" t="s">
         <v>857</v>
       </c>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
+      <c r="M38" s="144"/>
+      <c r="N38" s="144"/>
     </row>
     <row r="39">
       <c r="A39" s="32" t="s">
@@ -12835,14 +12804,14 @@
       <c r="H39" s="11"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="150">
+      <c r="K39" s="146">
         <v>6.0</v>
       </c>
-      <c r="L39" s="126" t="s">
+      <c r="L39" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="M39" s="122"/>
-      <c r="N39" s="122">
+      <c r="M39" s="120"/>
+      <c r="N39" s="120">
         <v>36.0</v>
       </c>
     </row>
@@ -12869,14 +12838,14 @@
       <c r="H40" s="11"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="125" t="s">
+      <c r="K40" s="123" t="s">
         <v>796</v>
       </c>
-      <c r="L40" s="126" t="s">
+      <c r="L40" s="124" t="s">
         <v>797</v>
       </c>
-      <c r="M40" s="122"/>
-      <c r="N40" s="122">
+      <c r="M40" s="120"/>
+      <c r="N40" s="120">
         <v>37.0</v>
       </c>
     </row>
@@ -12900,14 +12869,14 @@
       <c r="H41" s="11"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="150">
+      <c r="K41" s="146">
         <v>6.0</v>
       </c>
-      <c r="L41" s="126" t="s">
+      <c r="L41" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="M41" s="122"/>
-      <c r="N41" s="122">
+      <c r="M41" s="120"/>
+      <c r="N41" s="120">
         <v>38.0</v>
       </c>
     </row>
@@ -12934,14 +12903,14 @@
       <c r="H42" s="11"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="125" t="s">
+      <c r="K42" s="123" t="s">
         <v>796</v>
       </c>
-      <c r="L42" s="126" t="s">
+      <c r="L42" s="124" t="s">
         <v>802</v>
       </c>
-      <c r="M42" s="122"/>
-      <c r="N42" s="122">
+      <c r="M42" s="120"/>
+      <c r="N42" s="120">
         <v>39.0</v>
       </c>
     </row>
@@ -12966,14 +12935,14 @@
       <c r="H43" s="11"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="151" t="s">
+      <c r="K43" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="L43" s="152" t="s">
+      <c r="L43" s="148" t="s">
         <v>869</v>
       </c>
-      <c r="M43" s="122"/>
-      <c r="N43" s="122">
+      <c r="M43" s="120"/>
+      <c r="N43" s="120">
         <v>40.0</v>
       </c>
     </row>
@@ -12997,14 +12966,14 @@
       <c r="H44" s="11"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="150">
+      <c r="K44" s="146">
         <v>4.0</v>
       </c>
-      <c r="L44" s="126" t="s">
+      <c r="L44" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="M44" s="122"/>
-      <c r="N44" s="122">
+      <c r="M44" s="120"/>
+      <c r="N44" s="120">
         <v>41.0</v>
       </c>
     </row>
@@ -13031,16 +13000,16 @@
       <c r="H45" s="11"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="125" t="s">
+      <c r="K45" s="123" t="s">
         <v>875</v>
       </c>
-      <c r="L45" s="152" t="s">
+      <c r="L45" s="148" t="s">
         <v>876</v>
       </c>
       <c r="M45" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="N45" s="122">
+      <c r="N45" s="120">
         <v>42.0</v>
       </c>
     </row>
@@ -13064,14 +13033,14 @@
       <c r="H46" s="11"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="150">
+      <c r="K46" s="146">
         <v>4.0</v>
       </c>
-      <c r="L46" s="126" t="s">
+      <c r="L46" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="M46" s="122"/>
-      <c r="N46" s="122">
+      <c r="M46" s="120"/>
+      <c r="N46" s="120">
         <v>43.0</v>
       </c>
     </row>
@@ -13086,8 +13055,8 @@
         <v>739</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="16" t="s">
-        <v>209</v>
+      <c r="E47" s="125" t="s">
+        <v>212</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>661</v>
@@ -13098,16 +13067,16 @@
       <c r="H47" s="11"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="125" t="s">
+      <c r="K47" s="123" t="s">
         <v>875</v>
       </c>
-      <c r="L47" s="152" t="s">
+      <c r="L47" s="148" t="s">
         <v>882</v>
       </c>
       <c r="M47" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="N47" s="122">
+      <c r="N47" s="120">
         <v>44.0</v>
       </c>
     </row>
@@ -13134,14 +13103,14 @@
       <c r="H48" s="11"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
-      <c r="K48" s="151" t="s">
+      <c r="K48" s="147" t="s">
         <v>886</v>
       </c>
-      <c r="L48" s="152" t="s">
+      <c r="L48" s="148" t="s">
         <v>887</v>
       </c>
-      <c r="M48" s="122"/>
-      <c r="N48" s="122">
+      <c r="M48" s="120"/>
+      <c r="N48" s="120">
         <v>45.0</v>
       </c>
     </row>
@@ -13165,14 +13134,14 @@
       <c r="H49" s="11"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="150">
+      <c r="K49" s="146">
         <v>6.0</v>
       </c>
-      <c r="L49" s="126" t="s">
+      <c r="L49" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="M49" s="122"/>
-      <c r="N49" s="122">
+      <c r="M49" s="120"/>
+      <c r="N49" s="120">
         <v>46.0</v>
       </c>
     </row>
@@ -13187,8 +13156,8 @@
         <v>739</v>
       </c>
       <c r="D50" s="17"/>
-      <c r="E50" s="16" t="s">
-        <v>209</v>
+      <c r="E50" s="125" t="s">
+        <v>212</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>664</v>
@@ -13199,14 +13168,14 @@
       <c r="H50" s="11"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
-      <c r="K50" s="125" t="s">
+      <c r="K50" s="123" t="s">
         <v>893</v>
       </c>
-      <c r="L50" s="126" t="s">
+      <c r="L50" s="124" t="s">
         <v>894</v>
       </c>
-      <c r="M50" s="122"/>
-      <c r="N50" s="122">
+      <c r="M50" s="120"/>
+      <c r="N50" s="120">
         <v>47.0</v>
       </c>
     </row>
@@ -13230,14 +13199,14 @@
       <c r="H51" s="11"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
-      <c r="K51" s="150">
+      <c r="K51" s="146">
         <v>6.0</v>
       </c>
-      <c r="L51" s="126" t="s">
+      <c r="L51" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122">
+      <c r="M51" s="120"/>
+      <c r="N51" s="120">
         <v>48.0</v>
       </c>
     </row>
@@ -13264,14 +13233,14 @@
       <c r="H52" s="11"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
-      <c r="K52" s="125" t="s">
+      <c r="K52" s="123" t="s">
         <v>893</v>
       </c>
-      <c r="L52" s="126" t="s">
+      <c r="L52" s="124" t="s">
         <v>899</v>
       </c>
-      <c r="M52" s="122"/>
-      <c r="N52" s="122">
+      <c r="M52" s="120"/>
+      <c r="N52" s="120">
         <v>49.0</v>
       </c>
     </row>
@@ -13298,14 +13267,14 @@
       <c r="H53" s="11"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
-      <c r="K53" s="151" t="s">
+      <c r="K53" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="L53" s="152" t="s">
+      <c r="L53" s="148" t="s">
         <v>903</v>
       </c>
-      <c r="M53" s="122"/>
-      <c r="N53" s="122">
+      <c r="M53" s="120"/>
+      <c r="N53" s="120">
         <v>50.0</v>
       </c>
     </row>
@@ -13319,7 +13288,7 @@
       <c r="C54" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D54" s="124" t="s">
+      <c r="D54" s="122" t="s">
         <v>906</v>
       </c>
       <c r="E54" s="21"/>
@@ -13334,234 +13303,234 @@
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="126"/>
-      <c r="M54" s="122"/>
-      <c r="N54" s="122">
+      <c r="K54" s="123"/>
+      <c r="L54" s="124"/>
+      <c r="M54" s="120"/>
+      <c r="N54" s="120">
         <v>51.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="115" t="s">
+      <c r="A55" s="113" t="s">
         <v>909</v>
       </c>
-      <c r="B55" s="117" t="s">
+      <c r="B55" s="115" t="s">
         <v>910</v>
       </c>
-      <c r="C55" s="153" t="s">
+      <c r="C55" s="149" t="s">
         <v>736</v>
       </c>
-      <c r="D55" s="154"/>
+      <c r="D55" s="150"/>
       <c r="E55" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F55" s="116" t="s">
+      <c r="F55" s="114" t="s">
         <v>911</v>
       </c>
-      <c r="G55" s="155"/>
-      <c r="H55" s="156"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="152"/>
       <c r="I55" s="37"/>
       <c r="J55" s="37"/>
-      <c r="K55" s="157">
+      <c r="K55" s="153">
         <v>0.0</v>
       </c>
-      <c r="L55" s="158" t="s">
+      <c r="L55" s="154" t="s">
         <v>310</v>
       </c>
-      <c r="M55" s="159"/>
-      <c r="N55" s="122">
+      <c r="M55" s="155"/>
+      <c r="N55" s="120">
         <v>52.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="115" t="s">
+      <c r="A56" s="113" t="s">
         <v>912</v>
       </c>
-      <c r="B56" s="117" t="s">
+      <c r="B56" s="115" t="s">
         <v>913</v>
       </c>
-      <c r="C56" s="153" t="s">
+      <c r="C56" s="149" t="s">
         <v>736</v>
       </c>
-      <c r="D56" s="154"/>
+      <c r="D56" s="150"/>
       <c r="E56" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F56" s="116" t="s">
+      <c r="F56" s="114" t="s">
         <v>914</v>
       </c>
-      <c r="G56" s="155"/>
-      <c r="H56" s="156"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="152"/>
       <c r="I56" s="37"/>
       <c r="J56" s="37"/>
-      <c r="K56" s="157">
+      <c r="K56" s="153">
         <v>0.0</v>
       </c>
-      <c r="L56" s="158" t="s">
+      <c r="L56" s="154" t="s">
         <v>314</v>
       </c>
-      <c r="M56" s="159"/>
-      <c r="N56" s="122">
+      <c r="M56" s="155"/>
+      <c r="N56" s="120">
         <v>53.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="115" t="s">
+      <c r="A57" s="113" t="s">
         <v>915</v>
       </c>
-      <c r="B57" s="117" t="s">
+      <c r="B57" s="115" t="s">
         <v>916</v>
       </c>
-      <c r="C57" s="153" t="s">
+      <c r="C57" s="149" t="s">
         <v>736</v>
       </c>
-      <c r="D57" s="154"/>
+      <c r="D57" s="150"/>
       <c r="E57" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F57" s="116" t="s">
+      <c r="F57" s="114" t="s">
         <v>917</v>
       </c>
-      <c r="G57" s="155"/>
-      <c r="H57" s="156"/>
+      <c r="G57" s="151"/>
+      <c r="H57" s="152"/>
       <c r="I57" s="37"/>
       <c r="J57" s="37"/>
-      <c r="K57" s="157">
+      <c r="K57" s="153">
         <v>0.0</v>
       </c>
-      <c r="L57" s="158" t="s">
+      <c r="L57" s="154" t="s">
         <v>318</v>
       </c>
-      <c r="M57" s="159"/>
-      <c r="N57" s="122">
+      <c r="M57" s="155"/>
+      <c r="N57" s="120">
         <v>54.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="115" t="s">
+      <c r="A58" s="113" t="s">
         <v>918</v>
       </c>
-      <c r="B58" s="117" t="s">
+      <c r="B58" s="115" t="s">
         <v>919</v>
       </c>
-      <c r="C58" s="153" t="s">
+      <c r="C58" s="149" t="s">
         <v>736</v>
       </c>
-      <c r="D58" s="154"/>
+      <c r="D58" s="150"/>
       <c r="E58" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F58" s="116" t="s">
+      <c r="F58" s="114" t="s">
         <v>920</v>
       </c>
-      <c r="G58" s="155"/>
-      <c r="H58" s="156"/>
+      <c r="G58" s="151"/>
+      <c r="H58" s="152"/>
       <c r="I58" s="37"/>
       <c r="J58" s="37"/>
-      <c r="K58" s="157">
+      <c r="K58" s="153">
         <v>0.0</v>
       </c>
-      <c r="L58" s="158" t="s">
+      <c r="L58" s="154" t="s">
         <v>322</v>
       </c>
-      <c r="M58" s="159"/>
-      <c r="N58" s="122">
+      <c r="M58" s="155"/>
+      <c r="N58" s="120">
         <v>55.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="115" t="s">
+      <c r="A59" s="113" t="s">
         <v>921</v>
       </c>
-      <c r="B59" s="117" t="s">
+      <c r="B59" s="115" t="s">
         <v>922</v>
       </c>
-      <c r="C59" s="153" t="s">
+      <c r="C59" s="149" t="s">
         <v>736</v>
       </c>
-      <c r="D59" s="154"/>
+      <c r="D59" s="150"/>
       <c r="E59" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F59" s="116" t="s">
+      <c r="F59" s="114" t="s">
         <v>923</v>
       </c>
-      <c r="G59" s="155"/>
-      <c r="H59" s="156"/>
+      <c r="G59" s="151"/>
+      <c r="H59" s="152"/>
       <c r="I59" s="37"/>
       <c r="J59" s="37"/>
-      <c r="K59" s="157">
+      <c r="K59" s="153">
         <v>0.0</v>
       </c>
-      <c r="L59" s="158" t="s">
+      <c r="L59" s="154" t="s">
         <v>326</v>
       </c>
-      <c r="M59" s="159"/>
-      <c r="N59" s="122">
+      <c r="M59" s="155"/>
+      <c r="N59" s="120">
         <v>56.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="115" t="s">
+      <c r="A60" s="113" t="s">
         <v>924</v>
       </c>
-      <c r="B60" s="117" t="s">
+      <c r="B60" s="115" t="s">
         <v>925</v>
       </c>
-      <c r="C60" s="153" t="s">
+      <c r="C60" s="149" t="s">
         <v>736</v>
       </c>
-      <c r="D60" s="154"/>
+      <c r="D60" s="150"/>
       <c r="E60" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F60" s="116" t="s">
+      <c r="F60" s="114" t="s">
         <v>926</v>
       </c>
-      <c r="G60" s="155"/>
-      <c r="H60" s="156"/>
+      <c r="G60" s="151"/>
+      <c r="H60" s="152"/>
       <c r="I60" s="37"/>
       <c r="J60" s="37"/>
-      <c r="K60" s="157">
+      <c r="K60" s="153">
         <v>0.0</v>
       </c>
-      <c r="L60" s="158" t="s">
+      <c r="L60" s="154" t="s">
         <v>330</v>
       </c>
-      <c r="M60" s="159"/>
-      <c r="N60" s="122">
+      <c r="M60" s="155"/>
+      <c r="N60" s="120">
         <v>57.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="160" t="s">
+      <c r="A61" s="156" t="s">
         <v>927</v>
       </c>
-      <c r="B61" s="117" t="s">
+      <c r="B61" s="115" t="s">
         <v>928</v>
       </c>
-      <c r="C61" s="153" t="s">
+      <c r="C61" s="149" t="s">
         <v>736</v>
       </c>
-      <c r="D61" s="154"/>
+      <c r="D61" s="150"/>
       <c r="E61" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="116" t="s">
+      <c r="F61" s="114" t="s">
         <v>929</v>
       </c>
-      <c r="G61" s="155"/>
-      <c r="H61" s="156"/>
+      <c r="G61" s="151"/>
+      <c r="H61" s="152"/>
       <c r="I61" s="37"/>
       <c r="J61" s="37"/>
-      <c r="K61" s="157">
+      <c r="K61" s="153">
         <v>0.0</v>
       </c>
-      <c r="L61" s="158" t="s">
+      <c r="L61" s="154" t="s">
         <v>334</v>
       </c>
-      <c r="M61" s="159"/>
-      <c r="N61" s="122">
+      <c r="M61" s="155"/>
+      <c r="N61" s="120">
         <v>58.0</v>
       </c>
     </row>
@@ -13569,14 +13538,14 @@
       <c r="A62" s="41" t="s">
         <v>930</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="125" t="s">
         <v>931</v>
       </c>
-      <c r="C62" s="127" t="s">
+      <c r="C62" s="126" t="s">
         <v>736</v>
       </c>
-      <c r="D62" s="124"/>
-      <c r="E62" s="161" t="s">
+      <c r="D62" s="122"/>
+      <c r="E62" s="41" t="s">
         <v>217</v>
       </c>
       <c r="F62" s="17" t="s">
@@ -13588,14 +13557,14 @@
       <c r="H62" s="11"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
-      <c r="K62" s="151" t="s">
+      <c r="K62" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="L62" s="162" t="s">
+      <c r="L62" s="157" t="s">
         <v>933</v>
       </c>
-      <c r="M62" s="122"/>
-      <c r="N62" s="122">
+      <c r="M62" s="120"/>
+      <c r="N62" s="120">
         <v>59.0</v>
       </c>
     </row>
@@ -13603,14 +13572,14 @@
       <c r="A63" s="41" t="s">
         <v>934</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="125" t="s">
         <v>935</v>
       </c>
-      <c r="C63" s="127" t="s">
+      <c r="C63" s="126" t="s">
         <v>736</v>
       </c>
-      <c r="D63" s="124"/>
-      <c r="E63" s="161" t="s">
+      <c r="D63" s="122"/>
+      <c r="E63" s="41" t="s">
         <v>217</v>
       </c>
       <c r="F63" s="17" t="s">
@@ -13622,14 +13591,14 @@
       <c r="H63" s="11"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
-      <c r="K63" s="151" t="s">
+      <c r="K63" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="L63" s="162" t="s">
+      <c r="L63" s="157" t="s">
         <v>936</v>
       </c>
-      <c r="M63" s="122"/>
-      <c r="N63" s="122">
+      <c r="M63" s="120"/>
+      <c r="N63" s="120">
         <v>60.0</v>
       </c>
     </row>
@@ -13637,13 +13606,13 @@
       <c r="A64" s="41" t="s">
         <v>937</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="125" t="s">
         <v>938</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D64" s="124"/>
+      <c r="D64" s="122"/>
       <c r="E64" s="16" t="s">
         <v>212</v>
       </c>
@@ -13656,14 +13625,14 @@
       <c r="H64" s="11"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
-      <c r="K64" s="151" t="s">
+      <c r="K64" s="147" t="s">
         <v>940</v>
       </c>
-      <c r="L64" s="162" t="s">
+      <c r="L64" s="157" t="s">
         <v>941</v>
       </c>
-      <c r="M64" s="122"/>
-      <c r="N64" s="122">
+      <c r="M64" s="120"/>
+      <c r="N64" s="120">
         <v>61.0</v>
       </c>
     </row>
@@ -13671,13 +13640,13 @@
       <c r="A65" s="41" t="s">
         <v>942</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="125" t="s">
         <v>943</v>
       </c>
       <c r="C65" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D65" s="124"/>
+      <c r="D65" s="122"/>
       <c r="E65" s="16" t="s">
         <v>209</v>
       </c>
@@ -13690,14 +13659,14 @@
       <c r="H65" s="11"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
-      <c r="K65" s="151" t="s">
+      <c r="K65" s="147" t="s">
         <v>945</v>
       </c>
-      <c r="L65" s="162" t="s">
+      <c r="L65" s="157" t="s">
         <v>946</v>
       </c>
-      <c r="M65" s="122"/>
-      <c r="N65" s="122">
+      <c r="M65" s="120"/>
+      <c r="N65" s="120">
         <v>62.0</v>
       </c>
     </row>
@@ -13705,13 +13674,13 @@
       <c r="A66" s="41" t="s">
         <v>947</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="125" t="s">
         <v>948</v>
       </c>
       <c r="C66" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D66" s="124"/>
+      <c r="D66" s="122"/>
       <c r="E66" s="16" t="s">
         <v>209</v>
       </c>
@@ -13724,14 +13693,14 @@
       <c r="H66" s="11"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
-      <c r="K66" s="151" t="s">
+      <c r="K66" s="147" t="s">
         <v>950</v>
       </c>
-      <c r="L66" s="162" t="s">
+      <c r="L66" s="157" t="s">
         <v>946</v>
       </c>
-      <c r="M66" s="122"/>
-      <c r="N66" s="122">
+      <c r="M66" s="120"/>
+      <c r="N66" s="120">
         <v>63.0</v>
       </c>
     </row>
@@ -13739,13 +13708,13 @@
       <c r="A67" s="41" t="s">
         <v>951</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="125" t="s">
         <v>952</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D67" s="124"/>
+      <c r="D67" s="122"/>
       <c r="E67" s="16" t="s">
         <v>209</v>
       </c>
@@ -13758,14 +13727,14 @@
       <c r="H67" s="11"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
-      <c r="K67" s="151" t="s">
+      <c r="K67" s="147" t="s">
         <v>954</v>
       </c>
-      <c r="L67" s="162" t="s">
+      <c r="L67" s="157" t="s">
         <v>946</v>
       </c>
-      <c r="M67" s="122"/>
-      <c r="N67" s="122">
+      <c r="M67" s="120"/>
+      <c r="N67" s="120">
         <v>64.0</v>
       </c>
     </row>
@@ -13773,13 +13742,13 @@
       <c r="A68" s="41" t="s">
         <v>955</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="125" t="s">
         <v>956</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D68" s="124"/>
+      <c r="D68" s="122"/>
       <c r="E68" s="16" t="s">
         <v>209</v>
       </c>
@@ -13792,14 +13761,14 @@
       <c r="H68" s="11"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
-      <c r="K68" s="151" t="s">
+      <c r="K68" s="147" t="s">
         <v>958</v>
       </c>
-      <c r="L68" s="162" t="s">
+      <c r="L68" s="157" t="s">
         <v>946</v>
       </c>
-      <c r="M68" s="122"/>
-      <c r="N68" s="122">
+      <c r="M68" s="120"/>
+      <c r="N68" s="120">
         <v>65.0</v>
       </c>
     </row>
@@ -13807,13 +13776,13 @@
       <c r="A69" s="41" t="s">
         <v>959</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="125" t="s">
         <v>960</v>
       </c>
       <c r="C69" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D69" s="124"/>
+      <c r="D69" s="122"/>
       <c r="E69" s="16" t="s">
         <v>209</v>
       </c>
@@ -13826,14 +13795,14 @@
       <c r="H69" s="11"/>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
-      <c r="K69" s="151" t="s">
+      <c r="K69" s="147" t="s">
         <v>962</v>
       </c>
-      <c r="L69" s="162" t="s">
+      <c r="L69" s="157" t="s">
         <v>946</v>
       </c>
-      <c r="M69" s="122"/>
-      <c r="N69" s="122">
+      <c r="M69" s="120"/>
+      <c r="N69" s="120">
         <v>66.0</v>
       </c>
     </row>
@@ -13841,13 +13810,13 @@
       <c r="A70" s="41" t="s">
         <v>963</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="125" t="s">
         <v>964</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D70" s="124"/>
+      <c r="D70" s="122"/>
       <c r="E70" s="16" t="s">
         <v>212</v>
       </c>
@@ -13860,14 +13829,14 @@
       <c r="H70" s="11"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
-      <c r="K70" s="151" t="s">
+      <c r="K70" s="147" t="s">
         <v>940</v>
       </c>
-      <c r="L70" s="162" t="s">
+      <c r="L70" s="157" t="s">
         <v>966</v>
       </c>
-      <c r="M70" s="122"/>
-      <c r="N70" s="122">
+      <c r="M70" s="120"/>
+      <c r="N70" s="120">
         <v>67.0</v>
       </c>
     </row>
@@ -13875,13 +13844,13 @@
       <c r="A71" s="41" t="s">
         <v>967</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="125" t="s">
         <v>968</v>
       </c>
       <c r="C71" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D71" s="124"/>
+      <c r="D71" s="122"/>
       <c r="E71" s="16" t="s">
         <v>209</v>
       </c>
@@ -13894,14 +13863,14 @@
       <c r="H71" s="11"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
-      <c r="K71" s="151" t="s">
+      <c r="K71" s="147" t="s">
         <v>945</v>
       </c>
-      <c r="L71" s="162" t="s">
+      <c r="L71" s="157" t="s">
         <v>970</v>
       </c>
-      <c r="M71" s="122"/>
-      <c r="N71" s="122">
+      <c r="M71" s="120"/>
+      <c r="N71" s="120">
         <v>68.0</v>
       </c>
     </row>
@@ -13909,13 +13878,13 @@
       <c r="A72" s="41" t="s">
         <v>971</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="125" t="s">
         <v>972</v>
       </c>
       <c r="C72" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D72" s="124"/>
+      <c r="D72" s="122"/>
       <c r="E72" s="16" t="s">
         <v>209</v>
       </c>
@@ -13928,14 +13897,14 @@
       <c r="H72" s="11"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
-      <c r="K72" s="151" t="s">
+      <c r="K72" s="147" t="s">
         <v>950</v>
       </c>
-      <c r="L72" s="162" t="s">
+      <c r="L72" s="157" t="s">
         <v>970</v>
       </c>
-      <c r="M72" s="122"/>
-      <c r="N72" s="122">
+      <c r="M72" s="120"/>
+      <c r="N72" s="120">
         <v>69.0</v>
       </c>
     </row>
@@ -13943,13 +13912,13 @@
       <c r="A73" s="41" t="s">
         <v>974</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="125" t="s">
         <v>975</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D73" s="124"/>
+      <c r="D73" s="122"/>
       <c r="E73" s="16" t="s">
         <v>209</v>
       </c>
@@ -13962,14 +13931,14 @@
       <c r="H73" s="11"/>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
-      <c r="K73" s="151" t="s">
+      <c r="K73" s="147" t="s">
         <v>954</v>
       </c>
-      <c r="L73" s="162" t="s">
+      <c r="L73" s="157" t="s">
         <v>970</v>
       </c>
-      <c r="M73" s="122"/>
-      <c r="N73" s="122">
+      <c r="M73" s="120"/>
+      <c r="N73" s="120">
         <v>70.0</v>
       </c>
     </row>
@@ -13977,13 +13946,13 @@
       <c r="A74" s="41" t="s">
         <v>977</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="125" t="s">
         <v>978</v>
       </c>
       <c r="C74" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D74" s="124"/>
+      <c r="D74" s="122"/>
       <c r="E74" s="16" t="s">
         <v>209</v>
       </c>
@@ -13996,14 +13965,14 @@
       <c r="H74" s="11"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
-      <c r="K74" s="151" t="s">
+      <c r="K74" s="147" t="s">
         <v>958</v>
       </c>
-      <c r="L74" s="162" t="s">
+      <c r="L74" s="157" t="s">
         <v>970</v>
       </c>
-      <c r="M74" s="122"/>
-      <c r="N74" s="122">
+      <c r="M74" s="120"/>
+      <c r="N74" s="120">
         <v>71.0</v>
       </c>
     </row>
@@ -14011,13 +13980,13 @@
       <c r="A75" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="125" t="s">
         <v>981</v>
       </c>
       <c r="C75" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D75" s="124"/>
+      <c r="D75" s="122"/>
       <c r="E75" s="16" t="s">
         <v>209</v>
       </c>
@@ -14030,388 +13999,388 @@
       <c r="H75" s="11"/>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
-      <c r="K75" s="151" t="s">
+      <c r="K75" s="147" t="s">
         <v>962</v>
       </c>
-      <c r="L75" s="162" t="s">
+      <c r="L75" s="157" t="s">
         <v>970</v>
       </c>
-      <c r="M75" s="122"/>
-      <c r="N75" s="122">
+      <c r="M75" s="120"/>
+      <c r="N75" s="120">
         <v>72.0</v>
       </c>
     </row>
     <row r="76" ht="45.0" customHeight="1">
-      <c r="A76" s="62" t="s">
+      <c r="A76" s="61" t="s">
         <v>983</v>
       </c>
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="158" t="s">
         <v>984</v>
       </c>
-      <c r="C76" s="127" t="s">
+      <c r="C76" s="126" t="s">
         <v>736</v>
       </c>
-      <c r="D76" s="63"/>
+      <c r="D76" s="62"/>
       <c r="E76" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="F76" s="57" t="s">
+      <c r="F76" s="56" t="s">
         <v>932</v>
       </c>
-      <c r="G76" s="62" t="s">
+      <c r="G76" s="61" t="s">
         <v>985</v>
       </c>
-      <c r="H76" s="163"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="164" t="s">
+      <c r="H76" s="159"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="160" t="s">
         <v>986</v>
       </c>
-      <c r="L76" s="165" t="s">
+      <c r="L76" s="161" t="s">
         <v>987</v>
       </c>
-      <c r="M76" s="166"/>
-      <c r="N76" s="122">
+      <c r="M76" s="162"/>
+      <c r="N76" s="120">
         <v>73.0</v>
       </c>
     </row>
     <row r="77" ht="18.0" customHeight="1">
-      <c r="A77" s="167" t="s">
+      <c r="A77" s="163" t="s">
         <v>988</v>
       </c>
-      <c r="B77" s="57" t="s">
+      <c r="B77" s="158" t="s">
         <v>989</v>
       </c>
-      <c r="C77" s="127" t="s">
+      <c r="C77" s="126" t="s">
         <v>736</v>
       </c>
-      <c r="D77" s="168"/>
+      <c r="D77" s="164"/>
       <c r="E77" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F77" s="57" t="s">
+      <c r="F77" s="56" t="s">
         <v>985</v>
       </c>
-      <c r="G77" s="62" t="s">
+      <c r="G77" s="61" t="s">
         <v>990</v>
       </c>
-      <c r="H77" s="163"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="164" t="s">
+      <c r="H77" s="159"/>
+      <c r="I77" s="58"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="160" t="s">
         <v>991</v>
       </c>
-      <c r="L77" s="165" t="s">
+      <c r="L77" s="161" t="s">
         <v>992</v>
       </c>
-      <c r="M77" s="166"/>
-      <c r="N77" s="122">
+      <c r="M77" s="162"/>
+      <c r="N77" s="120">
         <v>74.0</v>
       </c>
     </row>
     <row r="78" ht="18.0" customHeight="1">
-      <c r="A78" s="167" t="s">
+      <c r="A78" s="163" t="s">
         <v>993</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="158" t="s">
         <v>994</v>
       </c>
-      <c r="C78" s="127" t="s">
+      <c r="C78" s="126" t="s">
         <v>736</v>
       </c>
-      <c r="D78" s="168"/>
+      <c r="D78" s="164"/>
       <c r="E78" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F78" s="57" t="s">
+      <c r="F78" s="56" t="s">
         <v>985</v>
       </c>
-      <c r="G78" s="62" t="s">
+      <c r="G78" s="61" t="s">
         <v>995</v>
       </c>
-      <c r="H78" s="163"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="164" t="s">
+      <c r="H78" s="159"/>
+      <c r="I78" s="58"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="160" t="s">
         <v>996</v>
       </c>
-      <c r="L78" s="169" t="s">
+      <c r="L78" s="165" t="s">
         <v>997</v>
       </c>
-      <c r="M78" s="166"/>
-      <c r="N78" s="122">
+      <c r="M78" s="162"/>
+      <c r="N78" s="120">
         <v>75.0</v>
       </c>
     </row>
     <row r="79" ht="18.0" customHeight="1">
-      <c r="A79" s="167" t="s">
+      <c r="A79" s="163" t="s">
         <v>998</v>
       </c>
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="158" t="s">
         <v>999</v>
       </c>
-      <c r="C79" s="127" t="s">
+      <c r="C79" s="126" t="s">
         <v>736</v>
       </c>
-      <c r="D79" s="168"/>
+      <c r="D79" s="164"/>
       <c r="E79" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F79" s="57" t="s">
+      <c r="F79" s="56" t="s">
         <v>985</v>
       </c>
-      <c r="G79" s="62" t="s">
+      <c r="G79" s="61" t="s">
         <v>1000</v>
       </c>
-      <c r="H79" s="163"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="164" t="s">
+      <c r="H79" s="159"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="160" t="s">
         <v>1001</v>
       </c>
-      <c r="L79" s="169" t="s">
+      <c r="L79" s="165" t="s">
         <v>1002</v>
       </c>
-      <c r="M79" s="166"/>
-      <c r="N79" s="122">
+      <c r="M79" s="162"/>
+      <c r="N79" s="120">
         <v>76.0</v>
       </c>
     </row>
     <row r="80" ht="18.0" customHeight="1">
-      <c r="A80" s="167" t="s">
+      <c r="A80" s="163" t="s">
         <v>1003</v>
       </c>
-      <c r="B80" s="57" t="s">
+      <c r="B80" s="158" t="s">
         <v>1004</v>
       </c>
-      <c r="C80" s="60" t="s">
+      <c r="C80" s="59" t="s">
         <v>736</v>
       </c>
-      <c r="D80" s="168"/>
+      <c r="D80" s="164"/>
       <c r="E80" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F80" s="57" t="s">
+      <c r="F80" s="56" t="s">
         <v>985</v>
       </c>
-      <c r="G80" s="62" t="s">
+      <c r="G80" s="61" t="s">
         <v>1005</v>
       </c>
-      <c r="H80" s="163"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="164" t="s">
+      <c r="H80" s="159"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="160" t="s">
         <v>991</v>
       </c>
-      <c r="L80" s="165" t="s">
+      <c r="L80" s="161" t="s">
         <v>1006</v>
       </c>
-      <c r="M80" s="166"/>
-      <c r="N80" s="122">
+      <c r="M80" s="162"/>
+      <c r="N80" s="120">
         <v>77.0</v>
       </c>
     </row>
     <row r="81" ht="18.0" customHeight="1">
-      <c r="A81" s="167" t="s">
+      <c r="A81" s="163" t="s">
         <v>1007</v>
       </c>
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="158" t="s">
         <v>1008</v>
       </c>
-      <c r="C81" s="60" t="s">
+      <c r="C81" s="59" t="s">
         <v>736</v>
       </c>
-      <c r="D81" s="168"/>
+      <c r="D81" s="164"/>
       <c r="E81" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F81" s="57" t="s">
+      <c r="F81" s="56" t="s">
         <v>985</v>
       </c>
-      <c r="G81" s="62" t="s">
+      <c r="G81" s="61" t="s">
         <v>1009</v>
       </c>
-      <c r="H81" s="163"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="59"/>
-      <c r="K81" s="164" t="s">
+      <c r="H81" s="159"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="58"/>
+      <c r="K81" s="160" t="s">
         <v>996</v>
       </c>
-      <c r="L81" s="169" t="s">
+      <c r="L81" s="165" t="s">
         <v>1010</v>
       </c>
-      <c r="M81" s="166"/>
-      <c r="N81" s="122">
+      <c r="M81" s="162"/>
+      <c r="N81" s="120">
         <v>78.0</v>
       </c>
     </row>
     <row r="82" ht="18.0" customHeight="1">
-      <c r="A82" s="167" t="s">
+      <c r="A82" s="163" t="s">
         <v>1011</v>
       </c>
-      <c r="B82" s="57" t="s">
+      <c r="B82" s="158" t="s">
         <v>1012</v>
       </c>
-      <c r="C82" s="60" t="s">
+      <c r="C82" s="59" t="s">
         <v>736</v>
       </c>
-      <c r="D82" s="168"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F82" s="57" t="s">
+      <c r="F82" s="56" t="s">
         <v>985</v>
       </c>
-      <c r="G82" s="62" t="s">
+      <c r="G82" s="61" t="s">
         <v>1013</v>
       </c>
-      <c r="H82" s="55" t="s">
+      <c r="H82" s="54" t="s">
         <v>1014</v>
       </c>
-      <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
-      <c r="K82" s="164" t="s">
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="160" t="s">
         <v>1001</v>
       </c>
-      <c r="L82" s="169" t="s">
+      <c r="L82" s="165" t="s">
         <v>1015</v>
       </c>
-      <c r="M82" s="166"/>
-      <c r="N82" s="122">
+      <c r="M82" s="162"/>
+      <c r="N82" s="120">
         <v>79.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="115" t="s">
+      <c r="A83" s="113" t="s">
         <v>1016</v>
       </c>
-      <c r="B83" s="117" t="s">
+      <c r="B83" s="115" t="s">
         <v>1017</v>
       </c>
-      <c r="C83" s="153" t="s">
+      <c r="C83" s="149" t="s">
         <v>736</v>
       </c>
-      <c r="D83" s="116"/>
+      <c r="D83" s="114"/>
       <c r="E83" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F83" s="116" t="s">
+      <c r="F83" s="114" t="s">
         <v>678</v>
       </c>
       <c r="G83" s="37"/>
-      <c r="H83" s="156"/>
+      <c r="H83" s="152"/>
       <c r="I83" s="37"/>
       <c r="J83" s="37"/>
-      <c r="K83" s="170">
+      <c r="K83" s="166">
         <v>0.0</v>
       </c>
-      <c r="L83" s="158" t="s">
+      <c r="L83" s="154" t="s">
         <v>403</v>
       </c>
-      <c r="M83" s="159"/>
-      <c r="N83" s="122">
+      <c r="M83" s="155"/>
+      <c r="N83" s="120">
         <v>80.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="76" t="s">
+      <c r="A84" s="74" t="s">
         <v>1018</v>
       </c>
-      <c r="B84" s="70" t="s">
+      <c r="B84" s="68" t="s">
         <v>1019</v>
       </c>
       <c r="C84" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D84" s="74"/>
+      <c r="D84" s="72"/>
       <c r="E84" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F84" s="70" t="s">
+      <c r="F84" s="68" t="s">
         <v>679</v>
       </c>
-      <c r="G84" s="78" t="s">
+      <c r="G84" s="76" t="s">
         <v>1020</v>
       </c>
-      <c r="H84" s="74"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="72"/>
-      <c r="K84" s="171" t="s">
+      <c r="H84" s="72"/>
+      <c r="I84" s="70"/>
+      <c r="J84" s="70"/>
+      <c r="K84" s="167" t="s">
         <v>260</v>
       </c>
-      <c r="L84" s="172" t="s">
+      <c r="L84" s="168" t="s">
         <v>1021</v>
       </c>
-      <c r="M84" s="173"/>
-      <c r="N84" s="122">
+      <c r="M84" s="169"/>
+      <c r="N84" s="120">
         <v>81.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="76" t="s">
+      <c r="A85" s="74" t="s">
         <v>1022</v>
       </c>
-      <c r="B85" s="70" t="s">
+      <c r="B85" s="68" t="s">
         <v>1023</v>
       </c>
-      <c r="C85" s="174" t="s">
+      <c r="C85" s="170" t="s">
         <v>739</v>
       </c>
-      <c r="D85" s="74"/>
+      <c r="D85" s="72"/>
       <c r="E85" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F85" s="70" t="s">
+      <c r="F85" s="68" t="s">
         <v>1020</v>
       </c>
-      <c r="G85" s="78" t="s">
+      <c r="G85" s="76" t="s">
         <v>1024</v>
       </c>
-      <c r="H85" s="74"/>
-      <c r="I85" s="72"/>
-      <c r="J85" s="72"/>
-      <c r="K85" s="171" t="s">
+      <c r="H85" s="72"/>
+      <c r="I85" s="70"/>
+      <c r="J85" s="70"/>
+      <c r="K85" s="167" t="s">
         <v>996</v>
       </c>
-      <c r="L85" s="172" t="s">
+      <c r="L85" s="168" t="s">
         <v>997</v>
       </c>
-      <c r="M85" s="173"/>
-      <c r="N85" s="122">
+      <c r="M85" s="169"/>
+      <c r="N85" s="120">
         <v>82.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="76" t="s">
+      <c r="A86" s="74" t="s">
         <v>1025</v>
       </c>
-      <c r="B86" s="70" t="s">
+      <c r="B86" s="68" t="s">
         <v>1026</v>
       </c>
       <c r="C86" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D86" s="74"/>
+      <c r="D86" s="72"/>
       <c r="E86" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F86" s="70" t="s">
+      <c r="F86" s="68" t="s">
         <v>1020</v>
       </c>
-      <c r="G86" s="78" t="s">
+      <c r="G86" s="76" t="s">
         <v>1027</v>
       </c>
-      <c r="H86" s="74"/>
-      <c r="I86" s="72"/>
-      <c r="J86" s="72"/>
-      <c r="K86" s="171" t="s">
+      <c r="H86" s="72"/>
+      <c r="I86" s="70"/>
+      <c r="J86" s="70"/>
+      <c r="K86" s="167" t="s">
         <v>996</v>
       </c>
-      <c r="L86" s="172" t="s">
+      <c r="L86" s="168" t="s">
         <v>1028</v>
       </c>
-      <c r="M86" s="173"/>
-      <c r="N86" s="122">
+      <c r="M86" s="169"/>
+      <c r="N86" s="120">
         <v>83.0</v>
       </c>
     </row>
@@ -14425,7 +14394,7 @@
       <c r="C87" s="36" t="s">
         <v>736</v>
       </c>
-      <c r="D87" s="124"/>
+      <c r="D87" s="122"/>
       <c r="E87" s="41" t="s">
         <v>214</v>
       </c>
@@ -14435,14 +14404,14 @@
       <c r="H87" s="11"/>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
-      <c r="K87" s="150">
+      <c r="K87" s="146">
         <v>0.0</v>
       </c>
-      <c r="L87" s="152" t="s">
+      <c r="L87" s="148" t="s">
         <v>395</v>
       </c>
-      <c r="M87" s="122"/>
-      <c r="N87" s="122">
+      <c r="M87" s="120"/>
+      <c r="N87" s="120">
         <v>84.0</v>
       </c>
     </row>
@@ -14453,7 +14422,7 @@
       <c r="B88" s="16" t="s">
         <v>1032</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="C88" s="56" t="s">
         <v>739</v>
       </c>
       <c r="D88" s="17"/>
@@ -14469,14 +14438,14 @@
       <c r="H88" s="17"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
-      <c r="K88" s="151" t="s">
+      <c r="K88" s="147" t="s">
         <v>806</v>
       </c>
-      <c r="L88" s="162" t="s">
+      <c r="L88" s="157" t="s">
         <v>1034</v>
       </c>
-      <c r="M88" s="122"/>
-      <c r="N88" s="122">
+      <c r="M88" s="120"/>
+      <c r="N88" s="120">
         <v>85.0</v>
       </c>
     </row>
@@ -14487,7 +14456,7 @@
       <c r="B89" s="16" t="s">
         <v>1036</v>
       </c>
-      <c r="C89" s="57" t="s">
+      <c r="C89" s="56" t="s">
         <v>739</v>
       </c>
       <c r="D89" s="17"/>
@@ -14503,14 +14472,14 @@
       <c r="H89" s="17"/>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
-      <c r="K89" s="151" t="s">
+      <c r="K89" s="147" t="s">
         <v>1038</v>
       </c>
-      <c r="L89" s="175" t="s">
+      <c r="L89" s="171" t="s">
         <v>1039</v>
       </c>
-      <c r="M89" s="122"/>
-      <c r="N89" s="122">
+      <c r="M89" s="120"/>
+      <c r="N89" s="120">
         <v>86.0</v>
       </c>
     </row>
@@ -14521,7 +14490,7 @@
       <c r="B90" s="16" t="s">
         <v>1041</v>
       </c>
-      <c r="C90" s="57" t="s">
+      <c r="C90" s="56" t="s">
         <v>739</v>
       </c>
       <c r="D90" s="17"/>
@@ -14537,14 +14506,14 @@
       <c r="H90" s="17"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
-      <c r="K90" s="151" t="s">
+      <c r="K90" s="147" t="s">
         <v>1038</v>
       </c>
-      <c r="L90" s="162" t="s">
+      <c r="L90" s="157" t="s">
         <v>1043</v>
       </c>
-      <c r="M90" s="122"/>
-      <c r="N90" s="122">
+      <c r="M90" s="120"/>
+      <c r="N90" s="120">
         <v>87.0</v>
       </c>
     </row>
@@ -14571,14 +14540,14 @@
       <c r="H91" s="17"/>
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
-      <c r="K91" s="150">
+      <c r="K91" s="146">
         <v>0.0</v>
       </c>
-      <c r="L91" s="176" t="s">
+      <c r="L91" s="172" t="s">
         <v>310</v>
       </c>
-      <c r="M91" s="122"/>
-      <c r="N91" s="122">
+      <c r="M91" s="120"/>
+      <c r="N91" s="120">
         <v>88.0</v>
       </c>
     </row>
@@ -14605,14 +14574,14 @@
       <c r="H92" s="17"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
-      <c r="K92" s="150">
+      <c r="K92" s="146">
         <v>0.0</v>
       </c>
-      <c r="L92" s="176" t="s">
+      <c r="L92" s="172" t="s">
         <v>314</v>
       </c>
-      <c r="M92" s="122"/>
-      <c r="N92" s="122">
+      <c r="M92" s="120"/>
+      <c r="N92" s="120">
         <v>89.0</v>
       </c>
     </row>
@@ -14639,14 +14608,14 @@
       <c r="H93" s="17"/>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
-      <c r="K93" s="150">
+      <c r="K93" s="146">
         <v>0.0</v>
       </c>
-      <c r="L93" s="176" t="s">
+      <c r="L93" s="172" t="s">
         <v>318</v>
       </c>
-      <c r="M93" s="122"/>
-      <c r="N93" s="122">
+      <c r="M93" s="120"/>
+      <c r="N93" s="120">
         <v>90.0</v>
       </c>
     </row>
@@ -14673,14 +14642,14 @@
       <c r="H94" s="17"/>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
-      <c r="K94" s="150">
+      <c r="K94" s="146">
         <v>0.0</v>
       </c>
-      <c r="L94" s="176" t="s">
+      <c r="L94" s="172" t="s">
         <v>322</v>
       </c>
-      <c r="M94" s="122"/>
-      <c r="N94" s="122">
+      <c r="M94" s="120"/>
+      <c r="N94" s="120">
         <v>91.0</v>
       </c>
     </row>
@@ -14707,14 +14676,14 @@
       <c r="H95" s="17"/>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
-      <c r="K95" s="150">
+      <c r="K95" s="146">
         <v>0.0</v>
       </c>
-      <c r="L95" s="176" t="s">
+      <c r="L95" s="172" t="s">
         <v>326</v>
       </c>
-      <c r="M95" s="122"/>
-      <c r="N95" s="122">
+      <c r="M95" s="120"/>
+      <c r="N95" s="120">
         <v>92.0</v>
       </c>
     </row>
@@ -14741,14 +14710,14 @@
       <c r="H96" s="17"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
-      <c r="K96" s="150">
+      <c r="K96" s="146">
         <v>0.0</v>
       </c>
-      <c r="L96" s="176" t="s">
+      <c r="L96" s="172" t="s">
         <v>330</v>
       </c>
-      <c r="M96" s="122"/>
-      <c r="N96" s="122">
+      <c r="M96" s="120"/>
+      <c r="N96" s="120">
         <v>93.0</v>
       </c>
     </row>
@@ -14775,14 +14744,14 @@
       <c r="H97" s="17"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
-      <c r="K97" s="150">
+      <c r="K97" s="146">
         <v>0.0</v>
       </c>
-      <c r="L97" s="176" t="s">
+      <c r="L97" s="172" t="s">
         <v>334</v>
       </c>
-      <c r="M97" s="122"/>
-      <c r="N97" s="122">
+      <c r="M97" s="120"/>
+      <c r="N97" s="120">
         <v>94.0</v>
       </c>
     </row>
@@ -14809,14 +14778,14 @@
       <c r="H98" s="17"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
-      <c r="K98" s="150">
+      <c r="K98" s="146">
         <v>0.0</v>
       </c>
-      <c r="L98" s="176" t="s">
+      <c r="L98" s="172" t="s">
         <v>338</v>
       </c>
-      <c r="M98" s="122"/>
-      <c r="N98" s="122">
+      <c r="M98" s="120"/>
+      <c r="N98" s="120">
         <v>95.0</v>
       </c>
     </row>
@@ -14843,14 +14812,14 @@
       <c r="H99" s="17"/>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
-      <c r="K99" s="177" t="s">
+      <c r="K99" s="173" t="s">
         <v>1071</v>
       </c>
       <c r="L99" s="18" t="s">
         <v>1072</v>
       </c>
-      <c r="M99" s="178"/>
-      <c r="N99" s="122">
+      <c r="M99" s="174"/>
+      <c r="N99" s="120">
         <v>96.0</v>
       </c>
     </row>
@@ -14877,14 +14846,14 @@
       <c r="H100" s="17"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
-      <c r="K100" s="177" t="s">
+      <c r="K100" s="173" t="s">
         <v>1075</v>
       </c>
       <c r="L100" s="18" t="s">
         <v>1076</v>
       </c>
-      <c r="M100" s="122"/>
-      <c r="N100" s="122">
+      <c r="M100" s="120"/>
+      <c r="N100" s="120">
         <v>97.0</v>
       </c>
     </row>
@@ -14911,14 +14880,14 @@
       <c r="H101" s="17"/>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
-      <c r="K101" s="177" t="s">
+      <c r="K101" s="173" t="s">
         <v>1079</v>
       </c>
       <c r="L101" s="18" t="s">
         <v>1080</v>
       </c>
-      <c r="M101" s="122"/>
-      <c r="N101" s="122">
+      <c r="M101" s="120"/>
+      <c r="N101" s="120">
         <v>98.0</v>
       </c>
     </row>
@@ -14945,14 +14914,14 @@
       <c r="H102" s="17"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
-      <c r="K102" s="177" t="s">
+      <c r="K102" s="173" t="s">
         <v>1083</v>
       </c>
       <c r="L102" s="18" t="s">
         <v>1084</v>
       </c>
-      <c r="M102" s="122"/>
-      <c r="N102" s="122">
+      <c r="M102" s="120"/>
+      <c r="N102" s="120">
         <v>99.0</v>
       </c>
     </row>
@@ -14979,14 +14948,14 @@
       <c r="H103" s="17"/>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
-      <c r="K103" s="177" t="s">
+      <c r="K103" s="173" t="s">
         <v>1087</v>
       </c>
       <c r="L103" s="18" t="s">
         <v>1088</v>
       </c>
-      <c r="M103" s="122"/>
-      <c r="N103" s="122">
+      <c r="M103" s="120"/>
+      <c r="N103" s="120">
         <v>100.0</v>
       </c>
     </row>
@@ -15013,14 +14982,14 @@
       <c r="H104" s="17"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
-      <c r="K104" s="177" t="s">
+      <c r="K104" s="173" t="s">
         <v>986</v>
       </c>
       <c r="L104" s="18" t="s">
         <v>1091</v>
       </c>
-      <c r="M104" s="122"/>
-      <c r="N104" s="122">
+      <c r="M104" s="120"/>
+      <c r="N104" s="120">
         <v>101.0</v>
       </c>
     </row>
@@ -15047,14 +15016,14 @@
       <c r="H105" s="17"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13"/>
-      <c r="K105" s="177" t="s">
+      <c r="K105" s="173" t="s">
         <v>827</v>
       </c>
       <c r="L105" s="18" t="s">
         <v>1094</v>
       </c>
-      <c r="M105" s="122"/>
-      <c r="N105" s="122">
+      <c r="M105" s="120"/>
+      <c r="N105" s="120">
         <v>102.0</v>
       </c>
     </row>
@@ -15081,14 +15050,14 @@
       <c r="H106" s="17"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13"/>
-      <c r="K106" s="177" t="s">
+      <c r="K106" s="173" t="s">
         <v>260</v>
       </c>
       <c r="L106" s="18" t="s">
         <v>1097</v>
       </c>
-      <c r="M106" s="122"/>
-      <c r="N106" s="122">
+      <c r="M106" s="120"/>
+      <c r="N106" s="120">
         <v>103.0</v>
       </c>
     </row>
@@ -15115,14 +15084,14 @@
       <c r="H107" s="17"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
-      <c r="K107" s="150" t="s">
+      <c r="K107" s="146" t="s">
         <v>827</v>
       </c>
       <c r="L107" s="19" t="s">
         <v>1101</v>
       </c>
-      <c r="M107" s="122"/>
-      <c r="N107" s="122">
+      <c r="M107" s="120"/>
+      <c r="N107" s="120">
         <v>104.0</v>
       </c>
     </row>
@@ -15149,14 +15118,14 @@
       <c r="H108" s="17"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13"/>
-      <c r="K108" s="150" t="s">
+      <c r="K108" s="146" t="s">
         <v>986</v>
       </c>
       <c r="L108" s="19" t="s">
         <v>1104</v>
       </c>
-      <c r="M108" s="122"/>
-      <c r="N108" s="122">
+      <c r="M108" s="120"/>
+      <c r="N108" s="120">
         <v>105.0</v>
       </c>
     </row>
@@ -15183,14 +15152,14 @@
       <c r="H109" s="17"/>
       <c r="I109" s="13"/>
       <c r="J109" s="13"/>
-      <c r="K109" s="150" t="s">
+      <c r="K109" s="146" t="s">
         <v>827</v>
       </c>
-      <c r="L109" s="179" t="s">
+      <c r="L109" s="175" t="s">
         <v>1108</v>
       </c>
-      <c r="M109" s="122"/>
-      <c r="N109" s="122">
+      <c r="M109" s="120"/>
+      <c r="N109" s="120">
         <v>106.0</v>
       </c>
     </row>
@@ -15217,14 +15186,14 @@
       <c r="H110" s="17"/>
       <c r="I110" s="13"/>
       <c r="J110" s="13"/>
-      <c r="K110" s="151" t="s">
+      <c r="K110" s="147" t="s">
         <v>1112</v>
       </c>
-      <c r="L110" s="176" t="s">
+      <c r="L110" s="172" t="s">
         <v>1113</v>
       </c>
-      <c r="M110" s="122"/>
-      <c r="N110" s="122">
+      <c r="M110" s="120"/>
+      <c r="N110" s="120">
         <v>107.0</v>
       </c>
     </row>
@@ -15251,14 +15220,14 @@
       <c r="H111" s="17"/>
       <c r="I111" s="13"/>
       <c r="J111" s="13"/>
-      <c r="K111" s="151" t="s">
+      <c r="K111" s="147" t="s">
         <v>1112</v>
       </c>
-      <c r="L111" s="176" t="s">
+      <c r="L111" s="172" t="s">
         <v>1117</v>
       </c>
-      <c r="M111" s="122"/>
-      <c r="N111" s="122">
+      <c r="M111" s="120"/>
+      <c r="N111" s="120">
         <v>108.0</v>
       </c>
     </row>
@@ -15269,7 +15238,7 @@
       <c r="B112" s="16" t="s">
         <v>1119</v>
       </c>
-      <c r="C112" s="127" t="s">
+      <c r="C112" s="126" t="s">
         <v>736</v>
       </c>
       <c r="D112" s="17"/>
@@ -15285,16 +15254,16 @@
       <c r="H112" s="17"/>
       <c r="I112" s="13"/>
       <c r="J112" s="13"/>
-      <c r="K112" s="180" t="s">
+      <c r="K112" s="176" t="s">
         <v>260</v>
       </c>
-      <c r="L112" s="181" t="s">
+      <c r="L112" s="177" t="s">
         <v>1121</v>
       </c>
       <c r="M112" s="19" t="s">
         <v>1122</v>
       </c>
-      <c r="N112" s="122">
+      <c r="N112" s="120">
         <v>109.0</v>
       </c>
     </row>
@@ -15305,7 +15274,7 @@
       <c r="B113" s="16" t="s">
         <v>1124</v>
       </c>
-      <c r="C113" s="127" t="s">
+      <c r="C113" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D113" s="17"/>
@@ -15321,14 +15290,14 @@
       <c r="H113" s="17"/>
       <c r="I113" s="13"/>
       <c r="J113" s="13"/>
-      <c r="K113" s="150" t="s">
+      <c r="K113" s="146" t="s">
         <v>940</v>
       </c>
-      <c r="L113" s="176" t="s">
+      <c r="L113" s="172" t="s">
         <v>1126</v>
       </c>
-      <c r="M113" s="122"/>
-      <c r="N113" s="122">
+      <c r="M113" s="120"/>
+      <c r="N113" s="120">
         <v>110.0</v>
       </c>
     </row>
@@ -15339,7 +15308,7 @@
       <c r="B114" s="16" t="s">
         <v>1128</v>
       </c>
-      <c r="C114" s="127" t="s">
+      <c r="C114" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D114" s="17"/>
@@ -15355,14 +15324,14 @@
       <c r="H114" s="17"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
-      <c r="K114" s="151" t="s">
+      <c r="K114" s="147" t="s">
         <v>1130</v>
       </c>
-      <c r="L114" s="162" t="s">
+      <c r="L114" s="157" t="s">
         <v>1131</v>
       </c>
-      <c r="M114" s="122"/>
-      <c r="N114" s="122">
+      <c r="M114" s="120"/>
+      <c r="N114" s="120">
         <v>111.0</v>
       </c>
     </row>
@@ -15373,7 +15342,7 @@
       <c r="B115" s="16" t="s">
         <v>1133</v>
       </c>
-      <c r="C115" s="127" t="s">
+      <c r="C115" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D115" s="17"/>
@@ -15389,14 +15358,14 @@
       <c r="H115" s="17"/>
       <c r="I115" s="13"/>
       <c r="J115" s="13"/>
-      <c r="K115" s="151" t="s">
+      <c r="K115" s="147" t="s">
         <v>958</v>
       </c>
-      <c r="L115" s="162" t="s">
+      <c r="L115" s="157" t="s">
         <v>1131</v>
       </c>
-      <c r="M115" s="122"/>
-      <c r="N115" s="122">
+      <c r="M115" s="120"/>
+      <c r="N115" s="120">
         <v>112.0</v>
       </c>
     </row>
@@ -15407,7 +15376,7 @@
       <c r="B116" s="16" t="s">
         <v>1136</v>
       </c>
-      <c r="C116" s="127" t="s">
+      <c r="C116" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D116" s="17"/>
@@ -15423,14 +15392,14 @@
       <c r="H116" s="17"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13"/>
-      <c r="K116" s="151" t="s">
+      <c r="K116" s="147" t="s">
         <v>954</v>
       </c>
-      <c r="L116" s="162" t="s">
+      <c r="L116" s="157" t="s">
         <v>1131</v>
       </c>
-      <c r="M116" s="122"/>
-      <c r="N116" s="122">
+      <c r="M116" s="120"/>
+      <c r="N116" s="120">
         <v>113.0</v>
       </c>
     </row>
@@ -15441,7 +15410,7 @@
       <c r="B117" s="16" t="s">
         <v>1139</v>
       </c>
-      <c r="C117" s="127" t="s">
+      <c r="C117" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D117" s="17"/>
@@ -15457,14 +15426,14 @@
       <c r="H117" s="17"/>
       <c r="I117" s="13"/>
       <c r="J117" s="13"/>
-      <c r="K117" s="151" t="s">
+      <c r="K117" s="147" t="s">
         <v>950</v>
       </c>
-      <c r="L117" s="162" t="s">
+      <c r="L117" s="157" t="s">
         <v>1131</v>
       </c>
-      <c r="M117" s="122"/>
-      <c r="N117" s="122">
+      <c r="M117" s="120"/>
+      <c r="N117" s="120">
         <v>114.0</v>
       </c>
     </row>
@@ -15475,7 +15444,7 @@
       <c r="B118" s="16" t="s">
         <v>1142</v>
       </c>
-      <c r="C118" s="127" t="s">
+      <c r="C118" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D118" s="17"/>
@@ -15491,14 +15460,14 @@
       <c r="H118" s="17"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13"/>
-      <c r="K118" s="151" t="s">
+      <c r="K118" s="147" t="s">
         <v>950</v>
       </c>
-      <c r="L118" s="162" t="s">
+      <c r="L118" s="157" t="s">
         <v>1131</v>
       </c>
-      <c r="M118" s="122"/>
-      <c r="N118" s="122">
+      <c r="M118" s="120"/>
+      <c r="N118" s="120">
         <v>115.0</v>
       </c>
     </row>
@@ -15509,7 +15478,7 @@
       <c r="B119" s="16" t="s">
         <v>1145</v>
       </c>
-      <c r="C119" s="127" t="s">
+      <c r="C119" s="126" t="s">
         <v>736</v>
       </c>
       <c r="D119" s="17"/>
@@ -15525,16 +15494,16 @@
       <c r="H119" s="17"/>
       <c r="I119" s="13"/>
       <c r="J119" s="13"/>
-      <c r="K119" s="180" t="s">
+      <c r="K119" s="176" t="s">
         <v>260</v>
       </c>
-      <c r="L119" s="181" t="s">
+      <c r="L119" s="177" t="s">
         <v>1146</v>
       </c>
       <c r="M119" s="19" t="s">
         <v>1122</v>
       </c>
-      <c r="N119" s="122">
+      <c r="N119" s="120">
         <v>116.0</v>
       </c>
     </row>
@@ -15545,7 +15514,7 @@
       <c r="B120" s="16" t="s">
         <v>1148</v>
       </c>
-      <c r="C120" s="127" t="s">
+      <c r="C120" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D120" s="17"/>
@@ -15561,14 +15530,14 @@
       <c r="H120" s="17"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13"/>
-      <c r="K120" s="150" t="s">
+      <c r="K120" s="146" t="s">
         <v>940</v>
       </c>
-      <c r="L120" s="176" t="s">
+      <c r="L120" s="172" t="s">
         <v>1150</v>
       </c>
-      <c r="M120" s="122"/>
-      <c r="N120" s="122">
+      <c r="M120" s="120"/>
+      <c r="N120" s="120">
         <v>117.0</v>
       </c>
     </row>
@@ -15579,7 +15548,7 @@
       <c r="B121" s="16" t="s">
         <v>1152</v>
       </c>
-      <c r="C121" s="127" t="s">
+      <c r="C121" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D121" s="17"/>
@@ -15595,14 +15564,14 @@
       <c r="H121" s="17"/>
       <c r="I121" s="13"/>
       <c r="J121" s="13"/>
-      <c r="K121" s="151" t="s">
+      <c r="K121" s="147" t="s">
         <v>962</v>
       </c>
-      <c r="L121" s="162" t="s">
+      <c r="L121" s="157" t="s">
         <v>1154</v>
       </c>
-      <c r="M121" s="122"/>
-      <c r="N121" s="122">
+      <c r="M121" s="120"/>
+      <c r="N121" s="120">
         <v>118.0</v>
       </c>
     </row>
@@ -15613,7 +15582,7 @@
       <c r="B122" s="16" t="s">
         <v>1156</v>
       </c>
-      <c r="C122" s="127" t="s">
+      <c r="C122" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D122" s="17"/>
@@ -15629,14 +15598,14 @@
       <c r="H122" s="17"/>
       <c r="I122" s="13"/>
       <c r="J122" s="13"/>
-      <c r="K122" s="151" t="s">
+      <c r="K122" s="147" t="s">
         <v>958</v>
       </c>
-      <c r="L122" s="162" t="s">
+      <c r="L122" s="157" t="s">
         <v>1154</v>
       </c>
-      <c r="M122" s="122"/>
-      <c r="N122" s="122">
+      <c r="M122" s="120"/>
+      <c r="N122" s="120">
         <v>119.0</v>
       </c>
     </row>
@@ -15647,7 +15616,7 @@
       <c r="B123" s="16" t="s">
         <v>1159</v>
       </c>
-      <c r="C123" s="127" t="s">
+      <c r="C123" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D123" s="17"/>
@@ -15663,14 +15632,14 @@
       <c r="H123" s="17"/>
       <c r="I123" s="13"/>
       <c r="J123" s="13"/>
-      <c r="K123" s="151" t="s">
+      <c r="K123" s="147" t="s">
         <v>954</v>
       </c>
-      <c r="L123" s="162" t="s">
+      <c r="L123" s="157" t="s">
         <v>1154</v>
       </c>
-      <c r="M123" s="122"/>
-      <c r="N123" s="122">
+      <c r="M123" s="120"/>
+      <c r="N123" s="120">
         <v>120.0</v>
       </c>
     </row>
@@ -15681,7 +15650,7 @@
       <c r="B124" s="16" t="s">
         <v>1162</v>
       </c>
-      <c r="C124" s="127" t="s">
+      <c r="C124" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D124" s="17"/>
@@ -15697,14 +15666,14 @@
       <c r="H124" s="17"/>
       <c r="I124" s="13"/>
       <c r="J124" s="13"/>
-      <c r="K124" s="151" t="s">
+      <c r="K124" s="147" t="s">
         <v>950</v>
       </c>
-      <c r="L124" s="162" t="s">
+      <c r="L124" s="157" t="s">
         <v>1154</v>
       </c>
-      <c r="M124" s="122"/>
-      <c r="N124" s="122">
+      <c r="M124" s="120"/>
+      <c r="N124" s="120">
         <v>121.0</v>
       </c>
     </row>
@@ -15715,7 +15684,7 @@
       <c r="B125" s="16" t="s">
         <v>1165</v>
       </c>
-      <c r="C125" s="127" t="s">
+      <c r="C125" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D125" s="17"/>
@@ -15731,14 +15700,14 @@
       <c r="H125" s="17"/>
       <c r="I125" s="13"/>
       <c r="J125" s="13"/>
-      <c r="K125" s="151" t="s">
+      <c r="K125" s="147" t="s">
         <v>945</v>
       </c>
-      <c r="L125" s="162" t="s">
+      <c r="L125" s="157" t="s">
         <v>1154</v>
       </c>
-      <c r="M125" s="122"/>
-      <c r="N125" s="122">
+      <c r="M125" s="120"/>
+      <c r="N125" s="120">
         <v>122.0</v>
       </c>
     </row>
@@ -15749,7 +15718,7 @@
       <c r="B126" s="16" t="s">
         <v>1168</v>
       </c>
-      <c r="C126" s="127" t="s">
+      <c r="C126" s="126" t="s">
         <v>736</v>
       </c>
       <c r="D126" s="17"/>
@@ -15765,14 +15734,14 @@
       <c r="H126" s="17"/>
       <c r="I126" s="13"/>
       <c r="J126" s="13"/>
-      <c r="K126" s="150" t="s">
+      <c r="K126" s="146" t="s">
         <v>260</v>
       </c>
       <c r="L126" s="19" t="s">
         <v>1108</v>
       </c>
-      <c r="M126" s="182"/>
-      <c r="N126" s="122">
+      <c r="M126" s="178"/>
+      <c r="N126" s="120">
         <v>123.0</v>
       </c>
     </row>
@@ -15783,7 +15752,7 @@
       <c r="B127" s="16" t="s">
         <v>1171</v>
       </c>
-      <c r="C127" s="127" t="s">
+      <c r="C127" s="126" t="s">
         <v>736</v>
       </c>
       <c r="D127" s="17"/>
@@ -15799,14 +15768,14 @@
       <c r="H127" s="17"/>
       <c r="I127" s="13"/>
       <c r="J127" s="13"/>
-      <c r="K127" s="151" t="s">
+      <c r="K127" s="147" t="s">
         <v>1173</v>
       </c>
-      <c r="L127" s="162" t="s">
+      <c r="L127" s="157" t="s">
         <v>1113</v>
       </c>
-      <c r="M127" s="122"/>
-      <c r="N127" s="122">
+      <c r="M127" s="120"/>
+      <c r="N127" s="120">
         <v>124.0</v>
       </c>
     </row>
@@ -15817,7 +15786,7 @@
       <c r="B128" s="16" t="s">
         <v>1175</v>
       </c>
-      <c r="C128" s="127" t="s">
+      <c r="C128" s="126" t="s">
         <v>736</v>
       </c>
       <c r="D128" s="17"/>
@@ -15833,14 +15802,14 @@
       <c r="H128" s="17"/>
       <c r="I128" s="13"/>
       <c r="J128" s="13"/>
-      <c r="K128" s="151" t="s">
+      <c r="K128" s="147" t="s">
         <v>996</v>
       </c>
-      <c r="L128" s="162" t="s">
+      <c r="L128" s="157" t="s">
         <v>997</v>
       </c>
-      <c r="M128" s="122"/>
-      <c r="N128" s="122">
+      <c r="M128" s="120"/>
+      <c r="N128" s="120">
         <v>125.0</v>
       </c>
     </row>
@@ -15851,7 +15820,7 @@
       <c r="B129" s="16" t="s">
         <v>1178</v>
       </c>
-      <c r="C129" s="127" t="s">
+      <c r="C129" s="126" t="s">
         <v>736</v>
       </c>
       <c r="D129" s="17"/>
@@ -15867,14 +15836,14 @@
       <c r="H129" s="17"/>
       <c r="I129" s="13"/>
       <c r="J129" s="13"/>
-      <c r="K129" s="151" t="s">
+      <c r="K129" s="147" t="s">
         <v>1001</v>
       </c>
-      <c r="L129" s="162" t="s">
+      <c r="L129" s="157" t="s">
         <v>1002</v>
       </c>
-      <c r="M129" s="122"/>
-      <c r="N129" s="122">
+      <c r="M129" s="120"/>
+      <c r="N129" s="120">
         <v>126.0</v>
       </c>
     </row>
@@ -15885,7 +15854,7 @@
       <c r="B130" s="16" t="s">
         <v>1181</v>
       </c>
-      <c r="C130" s="127" t="s">
+      <c r="C130" s="126" t="s">
         <v>736</v>
       </c>
       <c r="D130" s="17"/>
@@ -15901,14 +15870,14 @@
       <c r="H130" s="17"/>
       <c r="I130" s="13"/>
       <c r="J130" s="13"/>
-      <c r="K130" s="151" t="s">
+      <c r="K130" s="147" t="s">
         <v>991</v>
       </c>
-      <c r="L130" s="162" t="s">
+      <c r="L130" s="157" t="s">
         <v>1183</v>
       </c>
-      <c r="M130" s="122"/>
-      <c r="N130" s="122">
+      <c r="M130" s="120"/>
+      <c r="N130" s="120">
         <v>127.0</v>
       </c>
     </row>
@@ -15919,7 +15888,7 @@
       <c r="B131" s="16" t="s">
         <v>1185</v>
       </c>
-      <c r="C131" s="127" t="s">
+      <c r="C131" s="126" t="s">
         <v>736</v>
       </c>
       <c r="D131" s="17"/>
@@ -15935,14 +15904,14 @@
       <c r="H131" s="17"/>
       <c r="I131" s="13"/>
       <c r="J131" s="13"/>
-      <c r="K131" s="151" t="s">
+      <c r="K131" s="147" t="s">
         <v>996</v>
       </c>
-      <c r="L131" s="162" t="s">
+      <c r="L131" s="157" t="s">
         <v>1187</v>
       </c>
-      <c r="M131" s="122"/>
-      <c r="N131" s="122">
+      <c r="M131" s="120"/>
+      <c r="N131" s="120">
         <v>128.0</v>
       </c>
     </row>
@@ -15953,7 +15922,7 @@
       <c r="B132" s="16" t="s">
         <v>1189</v>
       </c>
-      <c r="C132" s="127" t="s">
+      <c r="C132" s="126" t="s">
         <v>736</v>
       </c>
       <c r="D132" s="17"/>
@@ -15969,14 +15938,14 @@
       <c r="H132" s="17"/>
       <c r="I132" s="13"/>
       <c r="J132" s="13"/>
-      <c r="K132" s="151" t="s">
+      <c r="K132" s="147" t="s">
         <v>1001</v>
       </c>
-      <c r="L132" s="162" t="s">
+      <c r="L132" s="157" t="s">
         <v>1191</v>
       </c>
-      <c r="M132" s="122"/>
-      <c r="N132" s="122">
+      <c r="M132" s="120"/>
+      <c r="N132" s="120">
         <v>129.0</v>
       </c>
     </row>
@@ -15987,12 +15956,12 @@
       <c r="B133" s="16" t="s">
         <v>1193</v>
       </c>
-      <c r="C133" s="127" t="s">
+      <c r="C133" s="126" t="s">
         <v>736</v>
       </c>
       <c r="D133" s="17"/>
-      <c r="E133" s="41" t="s">
-        <v>214</v>
+      <c r="E133" s="179" t="s">
+        <v>217</v>
       </c>
       <c r="F133" s="41" t="s">
         <v>714</v>
@@ -16003,16 +15972,16 @@
       <c r="H133" s="17"/>
       <c r="I133" s="13"/>
       <c r="J133" s="13"/>
-      <c r="K133" s="177" t="s">
+      <c r="K133" s="173" t="s">
         <v>260</v>
       </c>
-      <c r="L133" s="183" t="s">
+      <c r="L133" s="180" t="s">
         <v>1195</v>
       </c>
-      <c r="M133" s="182" t="s">
+      <c r="M133" s="178" t="s">
         <v>1122</v>
       </c>
-      <c r="N133" s="122">
+      <c r="N133" s="120">
         <v>130.0</v>
       </c>
     </row>
@@ -16023,7 +15992,7 @@
       <c r="B134" s="16" t="s">
         <v>1197</v>
       </c>
-      <c r="C134" s="127" t="s">
+      <c r="C134" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D134" s="17"/>
@@ -16039,14 +16008,14 @@
       <c r="H134" s="17"/>
       <c r="I134" s="13"/>
       <c r="J134" s="13"/>
-      <c r="K134" s="180" t="s">
+      <c r="K134" s="176" t="s">
         <v>940</v>
       </c>
-      <c r="L134" s="176" t="s">
+      <c r="L134" s="172" t="s">
         <v>1126</v>
       </c>
-      <c r="M134" s="184"/>
-      <c r="N134" s="122">
+      <c r="M134" s="181"/>
+      <c r="N134" s="120">
         <v>131.0</v>
       </c>
     </row>
@@ -16057,7 +16026,7 @@
       <c r="B135" s="16" t="s">
         <v>1200</v>
       </c>
-      <c r="C135" s="127" t="s">
+      <c r="C135" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D135" s="17"/>
@@ -16073,14 +16042,14 @@
       <c r="H135" s="17"/>
       <c r="I135" s="13"/>
       <c r="J135" s="13"/>
-      <c r="K135" s="185" t="s">
+      <c r="K135" s="182" t="s">
         <v>962</v>
       </c>
-      <c r="L135" s="162" t="s">
+      <c r="L135" s="157" t="s">
         <v>1202</v>
       </c>
-      <c r="M135" s="184"/>
-      <c r="N135" s="122">
+      <c r="M135" s="181"/>
+      <c r="N135" s="120">
         <v>132.0</v>
       </c>
     </row>
@@ -16091,7 +16060,7 @@
       <c r="B136" s="16" t="s">
         <v>1204</v>
       </c>
-      <c r="C136" s="127" t="s">
+      <c r="C136" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D136" s="17"/>
@@ -16107,14 +16076,14 @@
       <c r="H136" s="17"/>
       <c r="I136" s="13"/>
       <c r="J136" s="13"/>
-      <c r="K136" s="185" t="s">
+      <c r="K136" s="182" t="s">
         <v>958</v>
       </c>
-      <c r="L136" s="162" t="s">
+      <c r="L136" s="157" t="s">
         <v>1202</v>
       </c>
-      <c r="M136" s="184"/>
-      <c r="N136" s="122">
+      <c r="M136" s="181"/>
+      <c r="N136" s="120">
         <v>133.0</v>
       </c>
     </row>
@@ -16125,7 +16094,7 @@
       <c r="B137" s="16" t="s">
         <v>1207</v>
       </c>
-      <c r="C137" s="127" t="s">
+      <c r="C137" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D137" s="17"/>
@@ -16141,14 +16110,14 @@
       <c r="H137" s="17"/>
       <c r="I137" s="13"/>
       <c r="J137" s="13"/>
-      <c r="K137" s="185" t="s">
+      <c r="K137" s="182" t="s">
         <v>954</v>
       </c>
-      <c r="L137" s="162" t="s">
+      <c r="L137" s="157" t="s">
         <v>1202</v>
       </c>
-      <c r="M137" s="184"/>
-      <c r="N137" s="122">
+      <c r="M137" s="181"/>
+      <c r="N137" s="120">
         <v>134.0</v>
       </c>
     </row>
@@ -16159,7 +16128,7 @@
       <c r="B138" s="16" t="s">
         <v>1210</v>
       </c>
-      <c r="C138" s="127" t="s">
+      <c r="C138" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D138" s="17"/>
@@ -16175,14 +16144,14 @@
       <c r="H138" s="17"/>
       <c r="I138" s="13"/>
       <c r="J138" s="13"/>
-      <c r="K138" s="185" t="s">
+      <c r="K138" s="182" t="s">
         <v>950</v>
       </c>
-      <c r="L138" s="162" t="s">
+      <c r="L138" s="157" t="s">
         <v>1202</v>
       </c>
-      <c r="M138" s="184"/>
-      <c r="N138" s="122">
+      <c r="M138" s="181"/>
+      <c r="N138" s="120">
         <v>135.0</v>
       </c>
     </row>
@@ -16193,7 +16162,7 @@
       <c r="B139" s="16" t="s">
         <v>1213</v>
       </c>
-      <c r="C139" s="127" t="s">
+      <c r="C139" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D139" s="17"/>
@@ -16209,14 +16178,14 @@
       <c r="H139" s="17"/>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
-      <c r="K139" s="185" t="s">
+      <c r="K139" s="182" t="s">
         <v>945</v>
       </c>
-      <c r="L139" s="162" t="s">
+      <c r="L139" s="157" t="s">
         <v>1202</v>
       </c>
-      <c r="M139" s="184"/>
-      <c r="N139" s="122">
+      <c r="M139" s="181"/>
+      <c r="N139" s="120">
         <v>136.0</v>
       </c>
     </row>
@@ -16227,12 +16196,12 @@
       <c r="B140" s="16" t="s">
         <v>1216</v>
       </c>
-      <c r="C140" s="127" t="s">
+      <c r="C140" s="126" t="s">
         <v>736</v>
       </c>
       <c r="D140" s="17"/>
-      <c r="E140" s="41" t="s">
-        <v>214</v>
+      <c r="E140" s="179" t="s">
+        <v>217</v>
       </c>
       <c r="F140" s="16" t="s">
         <v>717</v>
@@ -16243,16 +16212,16 @@
       <c r="H140" s="17"/>
       <c r="I140" s="13"/>
       <c r="J140" s="13"/>
-      <c r="K140" s="150" t="s">
+      <c r="K140" s="146" t="s">
         <v>260</v>
       </c>
-      <c r="L140" s="176" t="s">
+      <c r="L140" s="172" t="s">
         <v>1217</v>
       </c>
       <c r="M140" s="19" t="s">
         <v>1122</v>
       </c>
-      <c r="N140" s="122">
+      <c r="N140" s="120">
         <v>137.0</v>
       </c>
     </row>
@@ -16263,7 +16232,7 @@
       <c r="B141" s="16" t="s">
         <v>1219</v>
       </c>
-      <c r="C141" s="127" t="s">
+      <c r="C141" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D141" s="17"/>
@@ -16279,14 +16248,14 @@
       <c r="H141" s="17"/>
       <c r="I141" s="13"/>
       <c r="J141" s="13"/>
-      <c r="K141" s="150" t="s">
+      <c r="K141" s="146" t="s">
         <v>260</v>
       </c>
-      <c r="L141" s="176" t="s">
+      <c r="L141" s="172" t="s">
         <v>1150</v>
       </c>
-      <c r="M141" s="186"/>
-      <c r="N141" s="122">
+      <c r="M141" s="183"/>
+      <c r="N141" s="120">
         <v>138.0</v>
       </c>
     </row>
@@ -16297,7 +16266,7 @@
       <c r="B142" s="16" t="s">
         <v>1222</v>
       </c>
-      <c r="C142" s="127" t="s">
+      <c r="C142" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D142" s="17"/>
@@ -16313,14 +16282,14 @@
       <c r="H142" s="17"/>
       <c r="I142" s="13"/>
       <c r="J142" s="13"/>
-      <c r="K142" s="150">
+      <c r="K142" s="146">
         <v>0.0</v>
       </c>
-      <c r="L142" s="176" t="s">
+      <c r="L142" s="172" t="s">
         <v>113</v>
       </c>
-      <c r="M142" s="122"/>
-      <c r="N142" s="122">
+      <c r="M142" s="120"/>
+      <c r="N142" s="120">
         <v>139.0</v>
       </c>
     </row>
@@ -16331,7 +16300,7 @@
       <c r="B143" s="16" t="s">
         <v>1225</v>
       </c>
-      <c r="C143" s="127" t="s">
+      <c r="C143" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D143" s="17"/>
@@ -16347,14 +16316,14 @@
       <c r="H143" s="17"/>
       <c r="I143" s="13"/>
       <c r="J143" s="13"/>
-      <c r="K143" s="150">
+      <c r="K143" s="146">
         <v>0.0</v>
       </c>
-      <c r="L143" s="176" t="s">
+      <c r="L143" s="172" t="s">
         <v>113</v>
       </c>
-      <c r="M143" s="122"/>
-      <c r="N143" s="122">
+      <c r="M143" s="120"/>
+      <c r="N143" s="120">
         <v>140.0</v>
       </c>
     </row>
@@ -16365,7 +16334,7 @@
       <c r="B144" s="16" t="s">
         <v>1228</v>
       </c>
-      <c r="C144" s="127" t="s">
+      <c r="C144" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D144" s="17"/>
@@ -16381,14 +16350,14 @@
       <c r="H144" s="17"/>
       <c r="I144" s="13"/>
       <c r="J144" s="13"/>
-      <c r="K144" s="150">
+      <c r="K144" s="146">
         <v>0.0</v>
       </c>
-      <c r="L144" s="176" t="s">
+      <c r="L144" s="172" t="s">
         <v>113</v>
       </c>
-      <c r="M144" s="122"/>
-      <c r="N144" s="122">
+      <c r="M144" s="120"/>
+      <c r="N144" s="120">
         <v>141.0</v>
       </c>
     </row>
@@ -16399,7 +16368,7 @@
       <c r="B145" s="16" t="s">
         <v>1231</v>
       </c>
-      <c r="C145" s="127" t="s">
+      <c r="C145" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D145" s="17"/>
@@ -16415,14 +16384,14 @@
       <c r="H145" s="17"/>
       <c r="I145" s="13"/>
       <c r="J145" s="13"/>
-      <c r="K145" s="150">
+      <c r="K145" s="146">
         <v>0.0</v>
       </c>
-      <c r="L145" s="176" t="s">
+      <c r="L145" s="172" t="s">
         <v>113</v>
       </c>
-      <c r="M145" s="122"/>
-      <c r="N145" s="122">
+      <c r="M145" s="120"/>
+      <c r="N145" s="120">
         <v>142.0</v>
       </c>
     </row>
@@ -16433,7 +16402,7 @@
       <c r="B146" s="16" t="s">
         <v>1234</v>
       </c>
-      <c r="C146" s="127" t="s">
+      <c r="C146" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D146" s="17"/>
@@ -16449,14 +16418,14 @@
       <c r="H146" s="17"/>
       <c r="I146" s="13"/>
       <c r="J146" s="13"/>
-      <c r="K146" s="136">
+      <c r="K146" s="135">
         <v>0.0</v>
       </c>
-      <c r="L146" s="176" t="s">
+      <c r="L146" s="172" t="s">
         <v>113</v>
       </c>
-      <c r="M146" s="184"/>
-      <c r="N146" s="122">
+      <c r="M146" s="181"/>
+      <c r="N146" s="120">
         <v>143.0</v>
       </c>
     </row>
@@ -16467,7 +16436,7 @@
       <c r="B147" s="16" t="s">
         <v>1237</v>
       </c>
-      <c r="C147" s="127" t="s">
+      <c r="C147" s="126" t="s">
         <v>736</v>
       </c>
       <c r="D147" s="17"/>
@@ -16483,14 +16452,14 @@
       <c r="H147" s="17"/>
       <c r="I147" s="13"/>
       <c r="J147" s="13"/>
-      <c r="K147" s="151" t="s">
+      <c r="K147" s="147" t="s">
         <v>886</v>
       </c>
-      <c r="L147" s="176" t="s">
+      <c r="L147" s="172" t="s">
         <v>887</v>
       </c>
-      <c r="M147" s="122"/>
-      <c r="N147" s="122">
+      <c r="M147" s="120"/>
+      <c r="N147" s="120">
         <v>144.0</v>
       </c>
     </row>
@@ -16501,7 +16470,7 @@
       <c r="B148" s="16" t="s">
         <v>1240</v>
       </c>
-      <c r="C148" s="127" t="s">
+      <c r="C148" s="126" t="s">
         <v>736</v>
       </c>
       <c r="D148" s="17"/>
@@ -16517,14 +16486,14 @@
       <c r="H148" s="17"/>
       <c r="I148" s="13"/>
       <c r="J148" s="13"/>
-      <c r="K148" s="151">
+      <c r="K148" s="147">
         <v>0.0</v>
       </c>
-      <c r="L148" s="162" t="s">
+      <c r="L148" s="157" t="s">
         <v>403</v>
       </c>
-      <c r="M148" s="122"/>
-      <c r="N148" s="122">
+      <c r="M148" s="120"/>
+      <c r="N148" s="120">
         <v>145.0</v>
       </c>
     </row>
@@ -16535,7 +16504,7 @@
       <c r="B149" s="16" t="s">
         <v>1243</v>
       </c>
-      <c r="C149" s="127" t="s">
+      <c r="C149" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D149" s="17"/>
@@ -16551,14 +16520,14 @@
       <c r="H149" s="17"/>
       <c r="I149" s="13"/>
       <c r="J149" s="13"/>
-      <c r="K149" s="151" t="s">
+      <c r="K149" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="L149" s="162" t="s">
+      <c r="L149" s="157" t="s">
         <v>1021</v>
       </c>
-      <c r="M149" s="122"/>
-      <c r="N149" s="122">
+      <c r="M149" s="120"/>
+      <c r="N149" s="120">
         <v>146.0</v>
       </c>
     </row>
@@ -16569,7 +16538,7 @@
       <c r="B150" s="16" t="s">
         <v>1246</v>
       </c>
-      <c r="C150" s="127" t="s">
+      <c r="C150" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D150" s="17"/>
@@ -16585,14 +16554,14 @@
       <c r="H150" s="17"/>
       <c r="I150" s="13"/>
       <c r="J150" s="13"/>
-      <c r="K150" s="151" t="s">
+      <c r="K150" s="147" t="s">
         <v>996</v>
       </c>
-      <c r="L150" s="162" t="s">
+      <c r="L150" s="157" t="s">
         <v>1248</v>
       </c>
-      <c r="M150" s="122"/>
-      <c r="N150" s="122">
+      <c r="M150" s="120"/>
+      <c r="N150" s="120">
         <v>147.0</v>
       </c>
     </row>
@@ -16603,7 +16572,7 @@
       <c r="B151" s="16" t="s">
         <v>1250</v>
       </c>
-      <c r="C151" s="127" t="s">
+      <c r="C151" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D151" s="17"/>
@@ -16619,14 +16588,14 @@
       <c r="H151" s="17"/>
       <c r="I151" s="13"/>
       <c r="J151" s="13"/>
-      <c r="K151" s="151" t="s">
+      <c r="K151" s="147" t="s">
         <v>1001</v>
       </c>
-      <c r="L151" s="162" t="s">
+      <c r="L151" s="157" t="s">
         <v>1252</v>
       </c>
-      <c r="M151" s="122"/>
-      <c r="N151" s="122">
+      <c r="M151" s="120"/>
+      <c r="N151" s="120">
         <v>148.0</v>
       </c>
     </row>
@@ -16637,7 +16606,7 @@
       <c r="B152" s="16" t="s">
         <v>1254</v>
       </c>
-      <c r="C152" s="127" t="s">
+      <c r="C152" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D152" s="17"/>
@@ -16653,14 +16622,14 @@
       <c r="H152" s="17"/>
       <c r="I152" s="13"/>
       <c r="J152" s="13"/>
-      <c r="K152" s="151" t="s">
+      <c r="K152" s="147" t="s">
         <v>996</v>
       </c>
-      <c r="L152" s="162" t="s">
+      <c r="L152" s="157" t="s">
         <v>1028</v>
       </c>
-      <c r="M152" s="122"/>
-      <c r="N152" s="122">
+      <c r="M152" s="120"/>
+      <c r="N152" s="120">
         <v>149.0</v>
       </c>
     </row>
@@ -16671,7 +16640,7 @@
       <c r="B153" s="16" t="s">
         <v>1257</v>
       </c>
-      <c r="C153" s="127" t="s">
+      <c r="C153" s="126" t="s">
         <v>739</v>
       </c>
       <c r="D153" s="17"/>
@@ -16687,14 +16656,14 @@
       <c r="H153" s="17"/>
       <c r="I153" s="13"/>
       <c r="J153" s="13"/>
-      <c r="K153" s="151" t="s">
+      <c r="K153" s="147" t="s">
         <v>1001</v>
       </c>
-      <c r="L153" s="162" t="s">
+      <c r="L153" s="157" t="s">
         <v>1015</v>
       </c>
-      <c r="M153" s="122"/>
-      <c r="N153" s="122">
+      <c r="M153" s="120"/>
+      <c r="N153" s="120">
         <v>150.0</v>
       </c>
     </row>
@@ -16717,16 +16686,16 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="110" t="s">
         <v>1259</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -16986,24 +16955,24 @@
       <c r="A20" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="B20" s="187" t="s">
+      <c r="B20" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="187"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="184"/>
+      <c r="K20" s="184"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="B21" s="187" t="s">
+      <c r="B21" s="184" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -17026,26 +16995,26 @@
       <c r="A27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="187" t="s">
+      <c r="A28" s="184" t="s">
         <v>1303</v>
       </c>
-      <c r="B28" s="188" t="s">
+      <c r="B28" s="185" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="187" t="s">
+      <c r="A29" s="184" t="s">
         <v>1305</v>
       </c>
-      <c r="B29" s="188" t="s">
+      <c r="B29" s="185" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="187" t="s">
+      <c r="A30" s="184" t="s">
         <v>1307</v>
       </c>
-      <c r="B30" s="188" t="s">
+      <c r="B30" s="185" t="s">
         <v>1308</v>
       </c>
     </row>
@@ -17053,26 +17022,26 @@
       <c r="A31" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="B31" s="187"/>
+      <c r="B31" s="184"/>
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="B32" s="187"/>
+      <c r="B32" s="184"/>
     </row>
     <row r="33">
       <c r="A33" s="3"/>
-      <c r="B33" s="187"/>
-      <c r="C33" s="187"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="187"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17118,7 +17087,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="186" t="s">
         <v>1312</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -17126,7 +17095,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="186" t="s">
         <v>1314</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -17134,7 +17103,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="186" t="s">
         <v>1316</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -17142,7 +17111,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="186" t="s">
         <v>1318</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -17184,16 +17153,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="187" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="190" t="s">
+      <c r="C1" s="187" t="s">
         <v>719</v>
       </c>
-      <c r="D1" s="190" t="s">
+      <c r="D1" s="187" t="s">
         <v>1320</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -17202,7 +17171,7 @@
       <c r="F1" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="G1" s="187" t="s">
+      <c r="G1" s="184" t="s">
         <v>607</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -17219,11 +17188,11 @@
       <c r="B2" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="C2" s="191" t="s">
+      <c r="C2" s="188" t="s">
         <v>1326</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="G2" s="186"/>
+      <c r="D2" s="183"/>
+      <c r="G2" s="183"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -17232,10 +17201,10 @@
       <c r="B3" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="G3" s="187" t="s">
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="G3" s="184" t="s">
         <v>1328</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -17249,17 +17218,17 @@
       <c r="B4" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="D4" s="187" t="s">
+      <c r="D4" s="184" t="s">
         <v>1332</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="G4" s="186"/>
-      <c r="I4" s="187"/>
+      <c r="G4" s="183"/>
+      <c r="I4" s="184"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
@@ -17268,11 +17237,11 @@
       <c r="B5" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C5" s="186"/>
-      <c r="D5" s="187" t="s">
+      <c r="C5" s="183"/>
+      <c r="D5" s="184" t="s">
         <v>1336</v>
       </c>
-      <c r="G5" s="186"/>
+      <c r="G5" s="183"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
@@ -17281,10 +17250,10 @@
       <c r="B6" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="C6" s="186"/>
+      <c r="C6" s="183"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="182"/>
-      <c r="G6" s="187" t="s">
+      <c r="E6" s="178"/>
+      <c r="G6" s="184" t="s">
         <v>1338</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -17299,11 +17268,11 @@
       <c r="B7" s="3" t="s">
         <v>1340</v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187" t="s">
+      <c r="C7" s="183"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184" t="s">
         <v>1341</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -17318,11 +17287,11 @@
       <c r="B8" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187" t="s">
+      <c r="C8" s="183"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184" t="s">
         <v>1344</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -17337,10 +17306,10 @@
       <c r="B9" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="C9" s="186"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="G9" s="187" t="s">
+      <c r="C9" s="183"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="G9" s="184" t="s">
         <v>1347</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -17355,10 +17324,10 @@
       <c r="B10" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="C10" s="186"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="G10" s="186"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="G10" s="183"/>
       <c r="H10" s="3" t="s">
         <v>1350</v>
       </c>
@@ -17371,11 +17340,11 @@
       <c r="B11" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187" t="s">
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184" t="s">
         <v>1352</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -17390,10 +17359,10 @@
       <c r="B12" s="3" t="s">
         <v>1354</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="G12" s="187" t="s">
+      <c r="C12" s="183"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="G12" s="184" t="s">
         <v>1355</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -17408,9 +17377,9 @@
       <c r="B13" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="193"/>
-      <c r="G13" s="187" t="s">
+      <c r="D13" s="145"/>
+      <c r="E13" s="189"/>
+      <c r="G13" s="184" t="s">
         <v>1355</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -17425,9 +17394,9 @@
       <c r="B14" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="D14" s="187"/>
-      <c r="E14" s="193"/>
-      <c r="G14" s="187" t="s">
+      <c r="D14" s="184"/>
+      <c r="E14" s="189"/>
+      <c r="G14" s="184" t="s">
         <v>1360</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -17442,9 +17411,9 @@
       <c r="B15" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="D15" s="187"/>
-      <c r="E15" s="193"/>
-      <c r="G15" s="187" t="s">
+      <c r="D15" s="184"/>
+      <c r="E15" s="189"/>
+      <c r="G15" s="184" t="s">
         <v>1363</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -17459,9 +17428,9 @@
       <c r="B16" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="D16" s="187"/>
-      <c r="E16" s="193"/>
-      <c r="G16" s="187" t="s">
+      <c r="D16" s="184"/>
+      <c r="E16" s="189"/>
+      <c r="G16" s="184" t="s">
         <v>1366</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -17477,8 +17446,8 @@
         <v>1368</v>
       </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="193"/>
-      <c r="G17" s="186"/>
+      <c r="E17" s="189"/>
+      <c r="G17" s="183"/>
       <c r="H17" s="3" t="s">
         <v>1369</v>
       </c>
@@ -17492,8 +17461,8 @@
         <v>1370</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="193"/>
-      <c r="G18" s="186"/>
+      <c r="E18" s="189"/>
+      <c r="G18" s="183"/>
       <c r="H18" s="3" t="s">
         <v>1371</v>
       </c>
@@ -17507,8 +17476,8 @@
         <v>1372</v>
       </c>
       <c r="D19" s="16"/>
-      <c r="E19" s="193"/>
-      <c r="G19" s="186"/>
+      <c r="E19" s="189"/>
+      <c r="G19" s="183"/>
       <c r="H19" s="3" t="s">
         <v>1373</v>
       </c>
@@ -17524,7 +17493,7 @@
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="186"/>
+      <c r="G20" s="183"/>
       <c r="H20" s="3" t="s">
         <v>1375</v>
       </c>
@@ -17540,7 +17509,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="186"/>
+      <c r="G21" s="183"/>
       <c r="H21" s="3" t="s">
         <v>1377</v>
       </c>
@@ -17556,7 +17525,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="186"/>
+      <c r="G22" s="183"/>
       <c r="H22" s="3" t="s">
         <v>1379</v>
       </c>
@@ -17570,8 +17539,8 @@
         <v>1380</v>
       </c>
       <c r="D23" s="16"/>
-      <c r="E23" s="193"/>
-      <c r="G23" s="186"/>
+      <c r="E23" s="189"/>
+      <c r="G23" s="183"/>
       <c r="H23" s="3" t="s">
         <v>1381</v>
       </c>
@@ -17585,8 +17554,8 @@
         <v>1382</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="193"/>
-      <c r="G24" s="186"/>
+      <c r="E24" s="189"/>
+      <c r="G24" s="183"/>
       <c r="H24" s="3" t="s">
         <v>1383</v>
       </c>

--- a/models/keast-bladder/source/keast-bladder.xlsx
+++ b/models/keast-bladder/source/keast-bladder.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="1460">
   <si>
     <t>id</t>
   </si>
@@ -4006,6 +4006,9 @@
   </si>
   <si>
     <t>Janet Keast</t>
+  </si>
+  <si>
+    <t>permission received</t>
   </si>
   <si>
     <t>https://orcid.org/0000-0003-0638-5274</t>
@@ -4435,7 +4438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -4547,19 +4550,17 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
     </font>
+    <font/>
   </fonts>
   <fills count="8">
     <fill>
@@ -4994,6 +4995,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5068,9 +5072,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -5211,18 +5212,12 @@
     <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5537,202 +5532,202 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="191" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C2" s="192" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="193" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C3" s="192" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="194" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C4" s="192" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="194" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="191" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C6" s="192" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="191" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C7" s="192" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="191" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="191" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="191" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C10" s="192" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="191" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="191" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C12" s="192" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="191" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C13" s="192" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="191" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C14" s="192" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="191" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C15" s="192" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="191" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C16" s="192" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="191" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C17" s="192" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="191" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C18" s="192" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="191" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C19" s="192" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="191" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C20" s="192" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="191" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C21" s="192" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="195" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C22" s="192" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="191" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C23" s="192" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="191" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C24" s="192" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="191" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C25" s="192" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
   </sheetData>
@@ -5755,106 +5750,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="196" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B2" s="197" t="s">
+      <c r="A2" t="s">
         <v>1436</v>
       </c>
+      <c r="B2" s="196" t="s">
+        <v>1437</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="196" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B3" s="198" t="s">
+      <c r="A3" t="s">
         <v>1438</v>
       </c>
+      <c r="B3" s="196" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="196" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B4" s="199" t="s">
+      <c r="A4" t="s">
         <v>1440</v>
       </c>
+      <c r="B4" s="197" t="s">
+        <v>1441</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="196" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B5" s="199" t="s">
+      <c r="A5" t="s">
         <v>1442</v>
       </c>
+      <c r="B5" s="198" t="s">
+        <v>1443</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="196" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B6" s="199" t="s">
+      <c r="A6" t="s">
         <v>1444</v>
       </c>
+      <c r="B6" s="198" t="s">
+        <v>1445</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="196" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B7" s="199" t="s">
+      <c r="A7" t="s">
         <v>1446</v>
       </c>
+      <c r="B7" s="198" t="s">
+        <v>1447</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="196" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B8" s="199" t="s">
+      <c r="A8" t="s">
         <v>1448</v>
       </c>
+      <c r="B8" s="198" t="s">
+        <v>1449</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="196" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B9" s="199" t="s">
+      <c r="A9" t="s">
         <v>1450</v>
       </c>
+      <c r="B9" s="198" t="s">
+        <v>1451</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="196" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B10" s="199" t="s">
+      <c r="A10" t="s">
         <v>1452</v>
       </c>
+      <c r="B10" s="198" t="s">
+        <v>1453</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="196" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B11" s="199" t="s">
+      <c r="A11" t="s">
         <v>1454</v>
       </c>
+      <c r="B11" s="198" t="s">
+        <v>1455</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B12" s="186" t="s">
+      <c r="A12" s="199" t="s">
         <v>1456</v>
       </c>
+      <c r="B12" s="196" t="s">
+        <v>1457</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B13" s="186" t="s">
+      <c r="A13" s="199" t="s">
         <v>1458</v>
+      </c>
+      <c r="B13" s="196" t="s">
+        <v>1459</v>
       </c>
     </row>
   </sheetData>
@@ -11553,7 +11548,7 @@
     <col customWidth="1" min="1" max="1" width="25.0"/>
     <col customWidth="1" min="2" max="2" width="61.71"/>
     <col customWidth="1" min="3" max="3" width="16.57"/>
-    <col customWidth="1" min="4" max="4" width="13.14"/>
+    <col customWidth="1" min="4" max="4" width="23.14"/>
     <col customWidth="1" min="6" max="7" width="18.86"/>
     <col customWidth="1" min="9" max="9" width="4.0"/>
     <col customWidth="1" min="10" max="10" width="4.57"/>
@@ -11680,7 +11675,7 @@
       <c r="C4" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="16" t="s">
         <v>209</v>
       </c>
@@ -11692,10 +11687,10 @@
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="123" t="s">
+      <c r="K4" s="124" t="s">
         <v>740</v>
       </c>
-      <c r="L4" s="124" t="s">
+      <c r="L4" s="125" t="s">
         <v>741</v>
       </c>
       <c r="M4" s="120"/>
@@ -11723,8 +11718,8 @@
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="124" t="s">
+      <c r="K5" s="124"/>
+      <c r="L5" s="125" t="s">
         <v>177</v>
       </c>
       <c r="M5" s="120"/>
@@ -11752,10 +11747,10 @@
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="123" t="s">
+      <c r="K6" s="124" t="s">
         <v>746</v>
       </c>
-      <c r="L6" s="124" t="s">
+      <c r="L6" s="125" t="s">
         <v>747</v>
       </c>
       <c r="M6" s="120"/>
@@ -11783,8 +11778,8 @@
       <c r="H7" s="11"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="124" t="s">
+      <c r="K7" s="124"/>
+      <c r="L7" s="125" t="s">
         <v>152</v>
       </c>
       <c r="M7" s="120"/>
@@ -11812,10 +11807,10 @@
       <c r="H8" s="11"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="123" t="s">
+      <c r="K8" s="124" t="s">
         <v>752</v>
       </c>
-      <c r="L8" s="124" t="s">
+      <c r="L8" s="125" t="s">
         <v>753</v>
       </c>
       <c r="M8" s="120"/>
@@ -11843,8 +11838,8 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="124" t="s">
+      <c r="K9" s="124"/>
+      <c r="L9" s="125" t="s">
         <v>156</v>
       </c>
       <c r="M9" s="120"/>
@@ -11872,10 +11867,10 @@
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="123" t="s">
+      <c r="K10" s="124" t="s">
         <v>752</v>
       </c>
-      <c r="L10" s="124" t="s">
+      <c r="L10" s="125" t="s">
         <v>758</v>
       </c>
       <c r="M10" s="120"/>
@@ -11903,8 +11898,8 @@
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="124" t="s">
+      <c r="K11" s="124"/>
+      <c r="L11" s="125" t="s">
         <v>165</v>
       </c>
       <c r="M11" s="120"/>
@@ -11932,10 +11927,10 @@
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="123" t="s">
+      <c r="K12" s="124" t="s">
         <v>746</v>
       </c>
-      <c r="L12" s="124" t="s">
+      <c r="L12" s="125" t="s">
         <v>763</v>
       </c>
       <c r="M12" s="120"/>
@@ -11963,8 +11958,8 @@
       <c r="H13" s="11"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="124" t="s">
+      <c r="K13" s="124"/>
+      <c r="L13" s="125" t="s">
         <v>169</v>
       </c>
       <c r="M13" s="120"/>
@@ -11992,10 +11987,10 @@
       <c r="H14" s="11"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="123" t="s">
+      <c r="K14" s="124" t="s">
         <v>746</v>
       </c>
-      <c r="L14" s="124" t="s">
+      <c r="L14" s="125" t="s">
         <v>768</v>
       </c>
       <c r="M14" s="120"/>
@@ -12023,8 +12018,8 @@
       <c r="H15" s="11"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="124" t="s">
+      <c r="K15" s="124"/>
+      <c r="L15" s="125" t="s">
         <v>173</v>
       </c>
       <c r="M15" s="120"/>
@@ -12052,10 +12047,10 @@
       <c r="H16" s="11"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="123" t="s">
+      <c r="K16" s="124" t="s">
         <v>746</v>
       </c>
-      <c r="L16" s="124" t="s">
+      <c r="L16" s="125" t="s">
         <v>773</v>
       </c>
       <c r="M16" s="120"/>
@@ -12083,8 +12078,8 @@
       <c r="H17" s="11"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="124" t="s">
+      <c r="K17" s="124"/>
+      <c r="L17" s="125" t="s">
         <v>184</v>
       </c>
       <c r="M17" s="120"/>
@@ -12103,7 +12098,7 @@
         <v>739</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="125" t="s">
+      <c r="E18" s="126" t="s">
         <v>212</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -12115,10 +12110,10 @@
       <c r="H18" s="11"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="123" t="s">
+      <c r="K18" s="124" t="s">
         <v>779</v>
       </c>
-      <c r="L18" s="124" t="s">
+      <c r="L18" s="125" t="s">
         <v>780</v>
       </c>
       <c r="M18" s="120"/>
@@ -12133,7 +12128,7 @@
       <c r="B19" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D19" s="17"/>
@@ -12149,10 +12144,10 @@
       <c r="H19" s="11"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="123" t="s">
+      <c r="K19" s="124" t="s">
         <v>784</v>
       </c>
-      <c r="L19" s="124" t="s">
+      <c r="L19" s="125" t="s">
         <v>785</v>
       </c>
       <c r="M19" s="120"/>
@@ -12167,7 +12162,7 @@
       <c r="B20" s="21" t="s">
         <v>787</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D20" s="17"/>
@@ -12183,10 +12178,10 @@
       <c r="H20" s="11"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="123" t="s">
+      <c r="K20" s="124" t="s">
         <v>789</v>
       </c>
-      <c r="L20" s="124" t="s">
+      <c r="L20" s="125" t="s">
         <v>790</v>
       </c>
       <c r="M20" s="120"/>
@@ -12198,10 +12193,10 @@
       <c r="A21" s="50" t="s">
         <v>791</v>
       </c>
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="128" t="s">
         <v>792</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="129" t="s">
         <v>736</v>
       </c>
       <c r="D21" s="48"/>
@@ -12215,10 +12210,10 @@
       <c r="H21" s="50"/>
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
-      <c r="K21" s="129">
+      <c r="K21" s="130">
         <v>6.0</v>
       </c>
-      <c r="L21" s="130" t="s">
+      <c r="L21" s="131" t="s">
         <v>88</v>
       </c>
       <c r="M21" s="120"/>
@@ -12230,10 +12225,10 @@
       <c r="A22" s="50" t="s">
         <v>793</v>
       </c>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="128" t="s">
         <v>794</v>
       </c>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="129" t="s">
         <v>739</v>
       </c>
       <c r="D22" s="48"/>
@@ -12249,10 +12244,10 @@
       <c r="H22" s="50"/>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
-      <c r="K22" s="131" t="s">
+      <c r="K22" s="132" t="s">
         <v>796</v>
       </c>
-      <c r="L22" s="132" t="s">
+      <c r="L22" s="133" t="s">
         <v>797</v>
       </c>
       <c r="M22" s="120"/>
@@ -12281,10 +12276,10 @@
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
-      <c r="K23" s="129">
+      <c r="K23" s="130">
         <v>6.0</v>
       </c>
-      <c r="L23" s="132" t="s">
+      <c r="L23" s="133" t="s">
         <v>93</v>
       </c>
       <c r="M23" s="120"/>
@@ -12299,7 +12294,7 @@
       <c r="B24" s="47" t="s">
         <v>801</v>
       </c>
-      <c r="C24" s="128" t="s">
+      <c r="C24" s="129" t="s">
         <v>739</v>
       </c>
       <c r="D24" s="48"/>
@@ -12315,10 +12310,10 @@
       <c r="H24" s="50"/>
       <c r="I24" s="49"/>
       <c r="J24" s="49"/>
-      <c r="K24" s="131" t="s">
+      <c r="K24" s="132" t="s">
         <v>796</v>
       </c>
-      <c r="L24" s="130" t="s">
+      <c r="L24" s="131" t="s">
         <v>802</v>
       </c>
       <c r="M24" s="120"/>
@@ -12330,10 +12325,10 @@
       <c r="A25" s="50" t="s">
         <v>803</v>
       </c>
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="128" t="s">
         <v>804</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="129" t="s">
         <v>739</v>
       </c>
       <c r="D25" s="48"/>
@@ -12349,10 +12344,10 @@
       <c r="H25" s="50"/>
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
-      <c r="K25" s="133" t="s">
+      <c r="K25" s="134" t="s">
         <v>806</v>
       </c>
-      <c r="L25" s="134" t="s">
+      <c r="L25" s="135" t="s">
         <v>807</v>
       </c>
       <c r="M25" s="120"/>
@@ -12383,7 +12378,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="135">
+      <c r="K26" s="136">
         <v>6.0</v>
       </c>
       <c r="L26" s="18" t="s">
@@ -12401,7 +12396,7 @@
       <c r="B27" s="21" t="s">
         <v>812</v>
       </c>
-      <c r="C27" s="126" t="s">
+      <c r="C27" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D27" s="17"/>
@@ -12417,10 +12412,10 @@
       <c r="H27" s="11"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="123" t="s">
+      <c r="K27" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="L27" s="124" t="s">
+      <c r="L27" s="125" t="s">
         <v>815</v>
       </c>
       <c r="M27" s="120"/>
@@ -12451,7 +12446,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="135">
+      <c r="K28" s="136">
         <v>6.0</v>
       </c>
       <c r="L28" s="18" t="s">
@@ -12485,10 +12480,10 @@
       <c r="H29" s="11"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="123" t="s">
+      <c r="K29" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="L29" s="124" t="s">
+      <c r="L29" s="125" t="s">
         <v>822</v>
       </c>
       <c r="M29" s="120"/>
@@ -12497,292 +12492,292 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="136" t="s">
+      <c r="A30" s="137" t="s">
         <v>823</v>
       </c>
-      <c r="B30" s="137" t="s">
+      <c r="B30" s="138" t="s">
         <v>824</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D30" s="138"/>
+      <c r="D30" s="139"/>
       <c r="E30" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F30" s="137" t="s">
+      <c r="F30" s="138" t="s">
         <v>825</v>
       </c>
-      <c r="G30" s="139" t="s">
+      <c r="G30" s="140" t="s">
         <v>826</v>
       </c>
-      <c r="H30" s="140"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="142" t="s">
+      <c r="H30" s="141"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="143" t="s">
         <v>827</v>
       </c>
-      <c r="L30" s="143" t="s">
+      <c r="L30" s="144" t="s">
         <v>828</v>
       </c>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="145"/>
     </row>
     <row r="31">
-      <c r="A31" s="136" t="s">
+      <c r="A31" s="137" t="s">
         <v>829</v>
       </c>
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="138" t="s">
         <v>830</v>
       </c>
       <c r="C31" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D31" s="138"/>
+      <c r="D31" s="139"/>
       <c r="E31" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F31" s="137" t="s">
+      <c r="F31" s="138" t="s">
         <v>826</v>
       </c>
-      <c r="G31" s="139" t="s">
+      <c r="G31" s="140" t="s">
         <v>831</v>
       </c>
-      <c r="H31" s="140"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="142" t="s">
+      <c r="H31" s="141"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="143" t="s">
         <v>827</v>
       </c>
-      <c r="L31" s="145" t="s">
+      <c r="L31" s="146" t="s">
         <v>832</v>
       </c>
-      <c r="M31" s="144"/>
-      <c r="N31" s="144"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
     </row>
     <row r="32">
-      <c r="A32" s="136" t="s">
+      <c r="A32" s="137" t="s">
         <v>833</v>
       </c>
-      <c r="B32" s="137" t="s">
+      <c r="B32" s="138" t="s">
         <v>834</v>
       </c>
       <c r="C32" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D32" s="138"/>
+      <c r="D32" s="139"/>
       <c r="E32" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="137" t="s">
+      <c r="F32" s="138" t="s">
         <v>813</v>
       </c>
-      <c r="G32" s="139" t="s">
+      <c r="G32" s="140" t="s">
         <v>831</v>
       </c>
-      <c r="H32" s="140"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="142">
+      <c r="H32" s="141"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="143">
         <v>0.0</v>
       </c>
-      <c r="L32" s="143" t="s">
+      <c r="L32" s="144" t="s">
         <v>318</v>
       </c>
-      <c r="M32" s="144"/>
-      <c r="N32" s="144"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
     </row>
     <row r="33">
-      <c r="A33" s="136" t="s">
+      <c r="A33" s="137" t="s">
         <v>835</v>
       </c>
-      <c r="B33" s="137" t="s">
+      <c r="B33" s="138" t="s">
         <v>836</v>
       </c>
       <c r="C33" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D33" s="138"/>
+      <c r="D33" s="139"/>
       <c r="E33" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="137" t="s">
+      <c r="F33" s="138" t="s">
         <v>831</v>
       </c>
-      <c r="G33" s="139" t="s">
+      <c r="G33" s="140" t="s">
         <v>837</v>
       </c>
-      <c r="H33" s="140"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="142" t="s">
+      <c r="H33" s="141"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="143" t="s">
         <v>827</v>
       </c>
-      <c r="L33" s="143" t="s">
+      <c r="L33" s="144" t="s">
         <v>838</v>
       </c>
-      <c r="M33" s="144"/>
-      <c r="N33" s="144"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
     </row>
     <row r="34">
-      <c r="A34" s="136" t="s">
+      <c r="A34" s="137" t="s">
         <v>839</v>
       </c>
-      <c r="B34" s="137" t="s">
+      <c r="B34" s="138" t="s">
         <v>840</v>
       </c>
       <c r="C34" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D34" s="138"/>
+      <c r="D34" s="139"/>
       <c r="E34" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="137" t="s">
+      <c r="F34" s="138" t="s">
         <v>821</v>
       </c>
-      <c r="G34" s="139" t="s">
+      <c r="G34" s="140" t="s">
         <v>837</v>
       </c>
-      <c r="H34" s="140"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="142">
+      <c r="H34" s="141"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="143">
         <v>0.0</v>
       </c>
-      <c r="L34" s="143" t="s">
+      <c r="L34" s="144" t="s">
         <v>322</v>
       </c>
-      <c r="M34" s="144"/>
-      <c r="N34" s="144"/>
+      <c r="M34" s="145"/>
+      <c r="N34" s="145"/>
     </row>
     <row r="35">
-      <c r="A35" s="136" t="s">
+      <c r="A35" s="137" t="s">
         <v>841</v>
       </c>
-      <c r="B35" s="137" t="s">
+      <c r="B35" s="138" t="s">
         <v>842</v>
       </c>
       <c r="C35" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D35" s="138"/>
+      <c r="D35" s="139"/>
       <c r="E35" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F35" s="137" t="s">
+      <c r="F35" s="138" t="s">
         <v>837</v>
       </c>
-      <c r="G35" s="139" t="s">
+      <c r="G35" s="140" t="s">
         <v>843</v>
       </c>
-      <c r="H35" s="140"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="142" t="s">
+      <c r="H35" s="141"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="143" t="s">
         <v>827</v>
       </c>
-      <c r="L35" s="143" t="s">
+      <c r="L35" s="144" t="s">
         <v>844</v>
       </c>
-      <c r="M35" s="144"/>
-      <c r="N35" s="144"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
     </row>
     <row r="36">
-      <c r="A36" s="136" t="s">
+      <c r="A36" s="137" t="s">
         <v>845</v>
       </c>
-      <c r="B36" s="137" t="s">
+      <c r="B36" s="138" t="s">
         <v>846</v>
       </c>
       <c r="C36" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D36" s="138"/>
+      <c r="D36" s="139"/>
       <c r="E36" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F36" s="137" t="s">
+      <c r="F36" s="138" t="s">
         <v>843</v>
       </c>
-      <c r="G36" s="139" t="s">
+      <c r="G36" s="140" t="s">
         <v>847</v>
       </c>
-      <c r="H36" s="140"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="142" t="s">
+      <c r="H36" s="141"/>
+      <c r="I36" s="142"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="143" t="s">
         <v>827</v>
       </c>
-      <c r="L36" s="145" t="s">
+      <c r="L36" s="146" t="s">
         <v>848</v>
       </c>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
+      <c r="M36" s="145"/>
+      <c r="N36" s="145"/>
     </row>
     <row r="37">
-      <c r="A37" s="136" t="s">
+      <c r="A37" s="137" t="s">
         <v>849</v>
       </c>
-      <c r="B37" s="137" t="s">
+      <c r="B37" s="138" t="s">
         <v>850</v>
       </c>
       <c r="C37" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D37" s="138"/>
+      <c r="D37" s="139"/>
       <c r="E37" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F37" s="137" t="s">
+      <c r="F37" s="138" t="s">
         <v>847</v>
       </c>
-      <c r="G37" s="139" t="s">
+      <c r="G37" s="140" t="s">
         <v>851</v>
       </c>
-      <c r="H37" s="140"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="142" t="s">
+      <c r="H37" s="141"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="143" t="s">
         <v>827</v>
       </c>
-      <c r="L37" s="145" t="s">
+      <c r="L37" s="146" t="s">
         <v>852</v>
       </c>
-      <c r="M37" s="144"/>
-      <c r="N37" s="144"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="145"/>
     </row>
     <row r="38">
-      <c r="A38" s="136" t="s">
+      <c r="A38" s="137" t="s">
         <v>853</v>
       </c>
-      <c r="B38" s="137" t="s">
+      <c r="B38" s="138" t="s">
         <v>854</v>
       </c>
       <c r="C38" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="D38" s="138"/>
+      <c r="D38" s="139"/>
       <c r="E38" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F38" s="137" t="s">
+      <c r="F38" s="138" t="s">
         <v>855</v>
       </c>
-      <c r="G38" s="139" t="s">
+      <c r="G38" s="140" t="s">
         <v>856</v>
       </c>
-      <c r="H38" s="140"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="141"/>
-      <c r="K38" s="142" t="s">
+      <c r="H38" s="141"/>
+      <c r="I38" s="142"/>
+      <c r="J38" s="142"/>
+      <c r="K38" s="143" t="s">
         <v>260</v>
       </c>
-      <c r="L38" s="145" t="s">
+      <c r="L38" s="146" t="s">
         <v>857</v>
       </c>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
+      <c r="M38" s="145"/>
+      <c r="N38" s="145"/>
     </row>
     <row r="39">
       <c r="A39" s="32" t="s">
@@ -12804,10 +12799,10 @@
       <c r="H39" s="11"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="146">
+      <c r="K39" s="147">
         <v>6.0</v>
       </c>
-      <c r="L39" s="124" t="s">
+      <c r="L39" s="125" t="s">
         <v>88</v>
       </c>
       <c r="M39" s="120"/>
@@ -12838,10 +12833,10 @@
       <c r="H40" s="11"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="123" t="s">
+      <c r="K40" s="124" t="s">
         <v>796</v>
       </c>
-      <c r="L40" s="124" t="s">
+      <c r="L40" s="125" t="s">
         <v>797</v>
       </c>
       <c r="M40" s="120"/>
@@ -12869,10 +12864,10 @@
       <c r="H41" s="11"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="146">
+      <c r="K41" s="147">
         <v>6.0</v>
       </c>
-      <c r="L41" s="124" t="s">
+      <c r="L41" s="125" t="s">
         <v>93</v>
       </c>
       <c r="M41" s="120"/>
@@ -12903,10 +12898,10 @@
       <c r="H42" s="11"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="123" t="s">
+      <c r="K42" s="124" t="s">
         <v>796</v>
       </c>
-      <c r="L42" s="124" t="s">
+      <c r="L42" s="125" t="s">
         <v>802</v>
       </c>
       <c r="M42" s="120"/>
@@ -12935,10 +12930,10 @@
       <c r="H43" s="11"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="147" t="s">
+      <c r="K43" s="148" t="s">
         <v>260</v>
       </c>
-      <c r="L43" s="148" t="s">
+      <c r="L43" s="123" t="s">
         <v>869</v>
       </c>
       <c r="M43" s="120"/>
@@ -12966,10 +12961,10 @@
       <c r="H44" s="11"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="146">
+      <c r="K44" s="147">
         <v>4.0</v>
       </c>
-      <c r="L44" s="124" t="s">
+      <c r="L44" s="125" t="s">
         <v>103</v>
       </c>
       <c r="M44" s="120"/>
@@ -13000,10 +12995,10 @@
       <c r="H45" s="11"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="123" t="s">
+      <c r="K45" s="124" t="s">
         <v>875</v>
       </c>
-      <c r="L45" s="148" t="s">
+      <c r="L45" s="123" t="s">
         <v>876</v>
       </c>
       <c r="M45" s="19" t="s">
@@ -13033,10 +13028,10 @@
       <c r="H46" s="11"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="146">
+      <c r="K46" s="147">
         <v>4.0</v>
       </c>
-      <c r="L46" s="124" t="s">
+      <c r="L46" s="125" t="s">
         <v>108</v>
       </c>
       <c r="M46" s="120"/>
@@ -13055,7 +13050,7 @@
         <v>739</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="125" t="s">
+      <c r="E47" s="126" t="s">
         <v>212</v>
       </c>
       <c r="F47" s="17" t="s">
@@ -13067,10 +13062,10 @@
       <c r="H47" s="11"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="123" t="s">
+      <c r="K47" s="124" t="s">
         <v>875</v>
       </c>
-      <c r="L47" s="148" t="s">
+      <c r="L47" s="123" t="s">
         <v>882</v>
       </c>
       <c r="M47" s="19" t="s">
@@ -13103,10 +13098,10 @@
       <c r="H48" s="11"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
-      <c r="K48" s="147" t="s">
+      <c r="K48" s="148" t="s">
         <v>886</v>
       </c>
-      <c r="L48" s="148" t="s">
+      <c r="L48" s="123" t="s">
         <v>887</v>
       </c>
       <c r="M48" s="120"/>
@@ -13134,10 +13129,10 @@
       <c r="H49" s="11"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="146">
+      <c r="K49" s="147">
         <v>6.0</v>
       </c>
-      <c r="L49" s="124" t="s">
+      <c r="L49" s="125" t="s">
         <v>108</v>
       </c>
       <c r="M49" s="120"/>
@@ -13156,7 +13151,7 @@
         <v>739</v>
       </c>
       <c r="D50" s="17"/>
-      <c r="E50" s="125" t="s">
+      <c r="E50" s="126" t="s">
         <v>212</v>
       </c>
       <c r="F50" s="17" t="s">
@@ -13168,10 +13163,10 @@
       <c r="H50" s="11"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
-      <c r="K50" s="123" t="s">
+      <c r="K50" s="124" t="s">
         <v>893</v>
       </c>
-      <c r="L50" s="124" t="s">
+      <c r="L50" s="125" t="s">
         <v>894</v>
       </c>
       <c r="M50" s="120"/>
@@ -13199,10 +13194,10 @@
       <c r="H51" s="11"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
-      <c r="K51" s="146">
+      <c r="K51" s="147">
         <v>6.0</v>
       </c>
-      <c r="L51" s="124" t="s">
+      <c r="L51" s="125" t="s">
         <v>113</v>
       </c>
       <c r="M51" s="120"/>
@@ -13233,10 +13228,10 @@
       <c r="H52" s="11"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
-      <c r="K52" s="123" t="s">
+      <c r="K52" s="124" t="s">
         <v>893</v>
       </c>
-      <c r="L52" s="124" t="s">
+      <c r="L52" s="125" t="s">
         <v>899</v>
       </c>
       <c r="M52" s="120"/>
@@ -13267,10 +13262,10 @@
       <c r="H53" s="11"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
-      <c r="K53" s="147" t="s">
+      <c r="K53" s="148" t="s">
         <v>260</v>
       </c>
-      <c r="L53" s="148" t="s">
+      <c r="L53" s="123" t="s">
         <v>903</v>
       </c>
       <c r="M53" s="120"/>
@@ -13303,8 +13298,8 @@
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
-      <c r="K54" s="123"/>
-      <c r="L54" s="124"/>
+      <c r="K54" s="124"/>
+      <c r="L54" s="125"/>
       <c r="M54" s="120"/>
       <c r="N54" s="120">
         <v>51.0</v>
@@ -13538,10 +13533,10 @@
       <c r="A62" s="41" t="s">
         <v>930</v>
       </c>
-      <c r="B62" s="125" t="s">
+      <c r="B62" s="126" t="s">
         <v>931</v>
       </c>
-      <c r="C62" s="126" t="s">
+      <c r="C62" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D62" s="122"/>
@@ -13557,7 +13552,7 @@
       <c r="H62" s="11"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
-      <c r="K62" s="147" t="s">
+      <c r="K62" s="148" t="s">
         <v>260</v>
       </c>
       <c r="L62" s="157" t="s">
@@ -13572,10 +13567,10 @@
       <c r="A63" s="41" t="s">
         <v>934</v>
       </c>
-      <c r="B63" s="125" t="s">
+      <c r="B63" s="126" t="s">
         <v>935</v>
       </c>
-      <c r="C63" s="126" t="s">
+      <c r="C63" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D63" s="122"/>
@@ -13591,7 +13586,7 @@
       <c r="H63" s="11"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
-      <c r="K63" s="147" t="s">
+      <c r="K63" s="148" t="s">
         <v>260</v>
       </c>
       <c r="L63" s="157" t="s">
@@ -13606,7 +13601,7 @@
       <c r="A64" s="41" t="s">
         <v>937</v>
       </c>
-      <c r="B64" s="125" t="s">
+      <c r="B64" s="126" t="s">
         <v>938</v>
       </c>
       <c r="C64" s="36" t="s">
@@ -13625,7 +13620,7 @@
       <c r="H64" s="11"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
-      <c r="K64" s="147" t="s">
+      <c r="K64" s="148" t="s">
         <v>940</v>
       </c>
       <c r="L64" s="157" t="s">
@@ -13640,7 +13635,7 @@
       <c r="A65" s="41" t="s">
         <v>942</v>
       </c>
-      <c r="B65" s="125" t="s">
+      <c r="B65" s="126" t="s">
         <v>943</v>
       </c>
       <c r="C65" s="36" t="s">
@@ -13659,7 +13654,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
-      <c r="K65" s="147" t="s">
+      <c r="K65" s="148" t="s">
         <v>945</v>
       </c>
       <c r="L65" s="157" t="s">
@@ -13674,7 +13669,7 @@
       <c r="A66" s="41" t="s">
         <v>947</v>
       </c>
-      <c r="B66" s="125" t="s">
+      <c r="B66" s="126" t="s">
         <v>948</v>
       </c>
       <c r="C66" s="36" t="s">
@@ -13693,7 +13688,7 @@
       <c r="H66" s="11"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
-      <c r="K66" s="147" t="s">
+      <c r="K66" s="148" t="s">
         <v>950</v>
       </c>
       <c r="L66" s="157" t="s">
@@ -13708,7 +13703,7 @@
       <c r="A67" s="41" t="s">
         <v>951</v>
       </c>
-      <c r="B67" s="125" t="s">
+      <c r="B67" s="126" t="s">
         <v>952</v>
       </c>
       <c r="C67" s="36" t="s">
@@ -13727,7 +13722,7 @@
       <c r="H67" s="11"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
-      <c r="K67" s="147" t="s">
+      <c r="K67" s="148" t="s">
         <v>954</v>
       </c>
       <c r="L67" s="157" t="s">
@@ -13742,7 +13737,7 @@
       <c r="A68" s="41" t="s">
         <v>955</v>
       </c>
-      <c r="B68" s="125" t="s">
+      <c r="B68" s="126" t="s">
         <v>956</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -13761,7 +13756,7 @@
       <c r="H68" s="11"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
-      <c r="K68" s="147" t="s">
+      <c r="K68" s="148" t="s">
         <v>958</v>
       </c>
       <c r="L68" s="157" t="s">
@@ -13776,7 +13771,7 @@
       <c r="A69" s="41" t="s">
         <v>959</v>
       </c>
-      <c r="B69" s="125" t="s">
+      <c r="B69" s="126" t="s">
         <v>960</v>
       </c>
       <c r="C69" s="36" t="s">
@@ -13795,7 +13790,7 @@
       <c r="H69" s="11"/>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
-      <c r="K69" s="147" t="s">
+      <c r="K69" s="148" t="s">
         <v>962</v>
       </c>
       <c r="L69" s="157" t="s">
@@ -13810,7 +13805,7 @@
       <c r="A70" s="41" t="s">
         <v>963</v>
       </c>
-      <c r="B70" s="125" t="s">
+      <c r="B70" s="126" t="s">
         <v>964</v>
       </c>
       <c r="C70" s="36" t="s">
@@ -13829,7 +13824,7 @@
       <c r="H70" s="11"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
-      <c r="K70" s="147" t="s">
+      <c r="K70" s="148" t="s">
         <v>940</v>
       </c>
       <c r="L70" s="157" t="s">
@@ -13844,7 +13839,7 @@
       <c r="A71" s="41" t="s">
         <v>967</v>
       </c>
-      <c r="B71" s="125" t="s">
+      <c r="B71" s="126" t="s">
         <v>968</v>
       </c>
       <c r="C71" s="36" t="s">
@@ -13863,7 +13858,7 @@
       <c r="H71" s="11"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
-      <c r="K71" s="147" t="s">
+      <c r="K71" s="148" t="s">
         <v>945</v>
       </c>
       <c r="L71" s="157" t="s">
@@ -13878,7 +13873,7 @@
       <c r="A72" s="41" t="s">
         <v>971</v>
       </c>
-      <c r="B72" s="125" t="s">
+      <c r="B72" s="126" t="s">
         <v>972</v>
       </c>
       <c r="C72" s="36" t="s">
@@ -13897,7 +13892,7 @@
       <c r="H72" s="11"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
-      <c r="K72" s="147" t="s">
+      <c r="K72" s="148" t="s">
         <v>950</v>
       </c>
       <c r="L72" s="157" t="s">
@@ -13912,7 +13907,7 @@
       <c r="A73" s="41" t="s">
         <v>974</v>
       </c>
-      <c r="B73" s="125" t="s">
+      <c r="B73" s="126" t="s">
         <v>975</v>
       </c>
       <c r="C73" s="36" t="s">
@@ -13931,7 +13926,7 @@
       <c r="H73" s="11"/>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
-      <c r="K73" s="147" t="s">
+      <c r="K73" s="148" t="s">
         <v>954</v>
       </c>
       <c r="L73" s="157" t="s">
@@ -13946,7 +13941,7 @@
       <c r="A74" s="41" t="s">
         <v>977</v>
       </c>
-      <c r="B74" s="125" t="s">
+      <c r="B74" s="126" t="s">
         <v>978</v>
       </c>
       <c r="C74" s="36" t="s">
@@ -13965,7 +13960,7 @@
       <c r="H74" s="11"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
-      <c r="K74" s="147" t="s">
+      <c r="K74" s="148" t="s">
         <v>958</v>
       </c>
       <c r="L74" s="157" t="s">
@@ -13980,7 +13975,7 @@
       <c r="A75" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="B75" s="125" t="s">
+      <c r="B75" s="126" t="s">
         <v>981</v>
       </c>
       <c r="C75" s="36" t="s">
@@ -13999,7 +13994,7 @@
       <c r="H75" s="11"/>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
-      <c r="K75" s="147" t="s">
+      <c r="K75" s="148" t="s">
         <v>962</v>
       </c>
       <c r="L75" s="157" t="s">
@@ -14017,7 +14012,7 @@
       <c r="B76" s="158" t="s">
         <v>984</v>
       </c>
-      <c r="C76" s="126" t="s">
+      <c r="C76" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D76" s="62"/>
@@ -14051,7 +14046,7 @@
       <c r="B77" s="158" t="s">
         <v>989</v>
       </c>
-      <c r="C77" s="126" t="s">
+      <c r="C77" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D77" s="164"/>
@@ -14085,7 +14080,7 @@
       <c r="B78" s="158" t="s">
         <v>994</v>
       </c>
-      <c r="C78" s="126" t="s">
+      <c r="C78" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D78" s="164"/>
@@ -14119,7 +14114,7 @@
       <c r="B79" s="158" t="s">
         <v>999</v>
       </c>
-      <c r="C79" s="126" t="s">
+      <c r="C79" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D79" s="164"/>
@@ -14404,10 +14399,10 @@
       <c r="H87" s="11"/>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
-      <c r="K87" s="146">
+      <c r="K87" s="147">
         <v>0.0</v>
       </c>
-      <c r="L87" s="148" t="s">
+      <c r="L87" s="123" t="s">
         <v>395</v>
       </c>
       <c r="M87" s="120"/>
@@ -14438,7 +14433,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
-      <c r="K88" s="147" t="s">
+      <c r="K88" s="148" t="s">
         <v>806</v>
       </c>
       <c r="L88" s="157" t="s">
@@ -14472,7 +14467,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
-      <c r="K89" s="147" t="s">
+      <c r="K89" s="148" t="s">
         <v>1038</v>
       </c>
       <c r="L89" s="171" t="s">
@@ -14506,7 +14501,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
-      <c r="K90" s="147" t="s">
+      <c r="K90" s="148" t="s">
         <v>1038</v>
       </c>
       <c r="L90" s="157" t="s">
@@ -14540,7 +14535,7 @@
       <c r="H91" s="17"/>
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
-      <c r="K91" s="146">
+      <c r="K91" s="147">
         <v>0.0</v>
       </c>
       <c r="L91" s="172" t="s">
@@ -14574,7 +14569,7 @@
       <c r="H92" s="17"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
-      <c r="K92" s="146">
+      <c r="K92" s="147">
         <v>0.0</v>
       </c>
       <c r="L92" s="172" t="s">
@@ -14608,7 +14603,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
-      <c r="K93" s="146">
+      <c r="K93" s="147">
         <v>0.0</v>
       </c>
       <c r="L93" s="172" t="s">
@@ -14642,7 +14637,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
-      <c r="K94" s="146">
+      <c r="K94" s="147">
         <v>0.0</v>
       </c>
       <c r="L94" s="172" t="s">
@@ -14676,7 +14671,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
-      <c r="K95" s="146">
+      <c r="K95" s="147">
         <v>0.0</v>
       </c>
       <c r="L95" s="172" t="s">
@@ -14710,7 +14705,7 @@
       <c r="H96" s="17"/>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
-      <c r="K96" s="146">
+      <c r="K96" s="147">
         <v>0.0</v>
       </c>
       <c r="L96" s="172" t="s">
@@ -14744,7 +14739,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
-      <c r="K97" s="146">
+      <c r="K97" s="147">
         <v>0.0</v>
       </c>
       <c r="L97" s="172" t="s">
@@ -14778,7 +14773,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
-      <c r="K98" s="146">
+      <c r="K98" s="147">
         <v>0.0</v>
       </c>
       <c r="L98" s="172" t="s">
@@ -15084,7 +15079,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
-      <c r="K107" s="146" t="s">
+      <c r="K107" s="147" t="s">
         <v>827</v>
       </c>
       <c r="L107" s="19" t="s">
@@ -15118,7 +15113,7 @@
       <c r="H108" s="17"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13"/>
-      <c r="K108" s="146" t="s">
+      <c r="K108" s="147" t="s">
         <v>986</v>
       </c>
       <c r="L108" s="19" t="s">
@@ -15152,7 +15147,7 @@
       <c r="H109" s="17"/>
       <c r="I109" s="13"/>
       <c r="J109" s="13"/>
-      <c r="K109" s="146" t="s">
+      <c r="K109" s="147" t="s">
         <v>827</v>
       </c>
       <c r="L109" s="175" t="s">
@@ -15186,7 +15181,7 @@
       <c r="H110" s="17"/>
       <c r="I110" s="13"/>
       <c r="J110" s="13"/>
-      <c r="K110" s="147" t="s">
+      <c r="K110" s="148" t="s">
         <v>1112</v>
       </c>
       <c r="L110" s="172" t="s">
@@ -15220,7 +15215,7 @@
       <c r="H111" s="17"/>
       <c r="I111" s="13"/>
       <c r="J111" s="13"/>
-      <c r="K111" s="147" t="s">
+      <c r="K111" s="148" t="s">
         <v>1112</v>
       </c>
       <c r="L111" s="172" t="s">
@@ -15238,7 +15233,7 @@
       <c r="B112" s="16" t="s">
         <v>1119</v>
       </c>
-      <c r="C112" s="126" t="s">
+      <c r="C112" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D112" s="17"/>
@@ -15274,7 +15269,7 @@
       <c r="B113" s="16" t="s">
         <v>1124</v>
       </c>
-      <c r="C113" s="126" t="s">
+      <c r="C113" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D113" s="17"/>
@@ -15290,7 +15285,7 @@
       <c r="H113" s="17"/>
       <c r="I113" s="13"/>
       <c r="J113" s="13"/>
-      <c r="K113" s="146" t="s">
+      <c r="K113" s="147" t="s">
         <v>940</v>
       </c>
       <c r="L113" s="172" t="s">
@@ -15308,7 +15303,7 @@
       <c r="B114" s="16" t="s">
         <v>1128</v>
       </c>
-      <c r="C114" s="126" t="s">
+      <c r="C114" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D114" s="17"/>
@@ -15324,7 +15319,7 @@
       <c r="H114" s="17"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
-      <c r="K114" s="147" t="s">
+      <c r="K114" s="148" t="s">
         <v>1130</v>
       </c>
       <c r="L114" s="157" t="s">
@@ -15342,7 +15337,7 @@
       <c r="B115" s="16" t="s">
         <v>1133</v>
       </c>
-      <c r="C115" s="126" t="s">
+      <c r="C115" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D115" s="17"/>
@@ -15358,7 +15353,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="13"/>
       <c r="J115" s="13"/>
-      <c r="K115" s="147" t="s">
+      <c r="K115" s="148" t="s">
         <v>958</v>
       </c>
       <c r="L115" s="157" t="s">
@@ -15376,7 +15371,7 @@
       <c r="B116" s="16" t="s">
         <v>1136</v>
       </c>
-      <c r="C116" s="126" t="s">
+      <c r="C116" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D116" s="17"/>
@@ -15392,7 +15387,7 @@
       <c r="H116" s="17"/>
       <c r="I116" s="13"/>
       <c r="J116" s="13"/>
-      <c r="K116" s="147" t="s">
+      <c r="K116" s="148" t="s">
         <v>954</v>
       </c>
       <c r="L116" s="157" t="s">
@@ -15410,7 +15405,7 @@
       <c r="B117" s="16" t="s">
         <v>1139</v>
       </c>
-      <c r="C117" s="126" t="s">
+      <c r="C117" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D117" s="17"/>
@@ -15426,7 +15421,7 @@
       <c r="H117" s="17"/>
       <c r="I117" s="13"/>
       <c r="J117" s="13"/>
-      <c r="K117" s="147" t="s">
+      <c r="K117" s="148" t="s">
         <v>950</v>
       </c>
       <c r="L117" s="157" t="s">
@@ -15444,7 +15439,7 @@
       <c r="B118" s="16" t="s">
         <v>1142</v>
       </c>
-      <c r="C118" s="126" t="s">
+      <c r="C118" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D118" s="17"/>
@@ -15460,7 +15455,7 @@
       <c r="H118" s="17"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13"/>
-      <c r="K118" s="147" t="s">
+      <c r="K118" s="148" t="s">
         <v>950</v>
       </c>
       <c r="L118" s="157" t="s">
@@ -15478,7 +15473,7 @@
       <c r="B119" s="16" t="s">
         <v>1145</v>
       </c>
-      <c r="C119" s="126" t="s">
+      <c r="C119" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D119" s="17"/>
@@ -15514,7 +15509,7 @@
       <c r="B120" s="16" t="s">
         <v>1148</v>
       </c>
-      <c r="C120" s="126" t="s">
+      <c r="C120" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D120" s="17"/>
@@ -15530,7 +15525,7 @@
       <c r="H120" s="17"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13"/>
-      <c r="K120" s="146" t="s">
+      <c r="K120" s="147" t="s">
         <v>940</v>
       </c>
       <c r="L120" s="172" t="s">
@@ -15548,7 +15543,7 @@
       <c r="B121" s="16" t="s">
         <v>1152</v>
       </c>
-      <c r="C121" s="126" t="s">
+      <c r="C121" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D121" s="17"/>
@@ -15564,7 +15559,7 @@
       <c r="H121" s="17"/>
       <c r="I121" s="13"/>
       <c r="J121" s="13"/>
-      <c r="K121" s="147" t="s">
+      <c r="K121" s="148" t="s">
         <v>962</v>
       </c>
       <c r="L121" s="157" t="s">
@@ -15582,7 +15577,7 @@
       <c r="B122" s="16" t="s">
         <v>1156</v>
       </c>
-      <c r="C122" s="126" t="s">
+      <c r="C122" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D122" s="17"/>
@@ -15598,7 +15593,7 @@
       <c r="H122" s="17"/>
       <c r="I122" s="13"/>
       <c r="J122" s="13"/>
-      <c r="K122" s="147" t="s">
+      <c r="K122" s="148" t="s">
         <v>958</v>
       </c>
       <c r="L122" s="157" t="s">
@@ -15616,7 +15611,7 @@
       <c r="B123" s="16" t="s">
         <v>1159</v>
       </c>
-      <c r="C123" s="126" t="s">
+      <c r="C123" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D123" s="17"/>
@@ -15632,7 +15627,7 @@
       <c r="H123" s="17"/>
       <c r="I123" s="13"/>
       <c r="J123" s="13"/>
-      <c r="K123" s="147" t="s">
+      <c r="K123" s="148" t="s">
         <v>954</v>
       </c>
       <c r="L123" s="157" t="s">
@@ -15650,7 +15645,7 @@
       <c r="B124" s="16" t="s">
         <v>1162</v>
       </c>
-      <c r="C124" s="126" t="s">
+      <c r="C124" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D124" s="17"/>
@@ -15666,7 +15661,7 @@
       <c r="H124" s="17"/>
       <c r="I124" s="13"/>
       <c r="J124" s="13"/>
-      <c r="K124" s="147" t="s">
+      <c r="K124" s="148" t="s">
         <v>950</v>
       </c>
       <c r="L124" s="157" t="s">
@@ -15684,7 +15679,7 @@
       <c r="B125" s="16" t="s">
         <v>1165</v>
       </c>
-      <c r="C125" s="126" t="s">
+      <c r="C125" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D125" s="17"/>
@@ -15700,7 +15695,7 @@
       <c r="H125" s="17"/>
       <c r="I125" s="13"/>
       <c r="J125" s="13"/>
-      <c r="K125" s="147" t="s">
+      <c r="K125" s="148" t="s">
         <v>945</v>
       </c>
       <c r="L125" s="157" t="s">
@@ -15718,7 +15713,7 @@
       <c r="B126" s="16" t="s">
         <v>1168</v>
       </c>
-      <c r="C126" s="126" t="s">
+      <c r="C126" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D126" s="17"/>
@@ -15734,7 +15729,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="13"/>
       <c r="J126" s="13"/>
-      <c r="K126" s="146" t="s">
+      <c r="K126" s="147" t="s">
         <v>260</v>
       </c>
       <c r="L126" s="19" t="s">
@@ -15752,7 +15747,7 @@
       <c r="B127" s="16" t="s">
         <v>1171</v>
       </c>
-      <c r="C127" s="126" t="s">
+      <c r="C127" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D127" s="17"/>
@@ -15768,7 +15763,7 @@
       <c r="H127" s="17"/>
       <c r="I127" s="13"/>
       <c r="J127" s="13"/>
-      <c r="K127" s="147" t="s">
+      <c r="K127" s="148" t="s">
         <v>1173</v>
       </c>
       <c r="L127" s="157" t="s">
@@ -15786,7 +15781,7 @@
       <c r="B128" s="16" t="s">
         <v>1175</v>
       </c>
-      <c r="C128" s="126" t="s">
+      <c r="C128" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D128" s="17"/>
@@ -15802,7 +15797,7 @@
       <c r="H128" s="17"/>
       <c r="I128" s="13"/>
       <c r="J128" s="13"/>
-      <c r="K128" s="147" t="s">
+      <c r="K128" s="148" t="s">
         <v>996</v>
       </c>
       <c r="L128" s="157" t="s">
@@ -15820,7 +15815,7 @@
       <c r="B129" s="16" t="s">
         <v>1178</v>
       </c>
-      <c r="C129" s="126" t="s">
+      <c r="C129" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D129" s="17"/>
@@ -15836,7 +15831,7 @@
       <c r="H129" s="17"/>
       <c r="I129" s="13"/>
       <c r="J129" s="13"/>
-      <c r="K129" s="147" t="s">
+      <c r="K129" s="148" t="s">
         <v>1001</v>
       </c>
       <c r="L129" s="157" t="s">
@@ -15854,7 +15849,7 @@
       <c r="B130" s="16" t="s">
         <v>1181</v>
       </c>
-      <c r="C130" s="126" t="s">
+      <c r="C130" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D130" s="17"/>
@@ -15870,7 +15865,7 @@
       <c r="H130" s="17"/>
       <c r="I130" s="13"/>
       <c r="J130" s="13"/>
-      <c r="K130" s="147" t="s">
+      <c r="K130" s="148" t="s">
         <v>991</v>
       </c>
       <c r="L130" s="157" t="s">
@@ -15888,7 +15883,7 @@
       <c r="B131" s="16" t="s">
         <v>1185</v>
       </c>
-      <c r="C131" s="126" t="s">
+      <c r="C131" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D131" s="17"/>
@@ -15904,7 +15899,7 @@
       <c r="H131" s="17"/>
       <c r="I131" s="13"/>
       <c r="J131" s="13"/>
-      <c r="K131" s="147" t="s">
+      <c r="K131" s="148" t="s">
         <v>996</v>
       </c>
       <c r="L131" s="157" t="s">
@@ -15922,7 +15917,7 @@
       <c r="B132" s="16" t="s">
         <v>1189</v>
       </c>
-      <c r="C132" s="126" t="s">
+      <c r="C132" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D132" s="17"/>
@@ -15938,7 +15933,7 @@
       <c r="H132" s="17"/>
       <c r="I132" s="13"/>
       <c r="J132" s="13"/>
-      <c r="K132" s="147" t="s">
+      <c r="K132" s="148" t="s">
         <v>1001</v>
       </c>
       <c r="L132" s="157" t="s">
@@ -15956,7 +15951,7 @@
       <c r="B133" s="16" t="s">
         <v>1193</v>
       </c>
-      <c r="C133" s="126" t="s">
+      <c r="C133" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D133" s="17"/>
@@ -15992,7 +15987,7 @@
       <c r="B134" s="16" t="s">
         <v>1197</v>
       </c>
-      <c r="C134" s="126" t="s">
+      <c r="C134" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D134" s="17"/>
@@ -16026,7 +16021,7 @@
       <c r="B135" s="16" t="s">
         <v>1200</v>
       </c>
-      <c r="C135" s="126" t="s">
+      <c r="C135" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D135" s="17"/>
@@ -16060,7 +16055,7 @@
       <c r="B136" s="16" t="s">
         <v>1204</v>
       </c>
-      <c r="C136" s="126" t="s">
+      <c r="C136" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D136" s="17"/>
@@ -16094,7 +16089,7 @@
       <c r="B137" s="16" t="s">
         <v>1207</v>
       </c>
-      <c r="C137" s="126" t="s">
+      <c r="C137" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D137" s="17"/>
@@ -16128,7 +16123,7 @@
       <c r="B138" s="16" t="s">
         <v>1210</v>
       </c>
-      <c r="C138" s="126" t="s">
+      <c r="C138" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D138" s="17"/>
@@ -16162,7 +16157,7 @@
       <c r="B139" s="16" t="s">
         <v>1213</v>
       </c>
-      <c r="C139" s="126" t="s">
+      <c r="C139" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D139" s="17"/>
@@ -16196,7 +16191,7 @@
       <c r="B140" s="16" t="s">
         <v>1216</v>
       </c>
-      <c r="C140" s="126" t="s">
+      <c r="C140" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D140" s="17"/>
@@ -16212,7 +16207,7 @@
       <c r="H140" s="17"/>
       <c r="I140" s="13"/>
       <c r="J140" s="13"/>
-      <c r="K140" s="146" t="s">
+      <c r="K140" s="147" t="s">
         <v>260</v>
       </c>
       <c r="L140" s="172" t="s">
@@ -16232,7 +16227,7 @@
       <c r="B141" s="16" t="s">
         <v>1219</v>
       </c>
-      <c r="C141" s="126" t="s">
+      <c r="C141" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D141" s="17"/>
@@ -16248,7 +16243,7 @@
       <c r="H141" s="17"/>
       <c r="I141" s="13"/>
       <c r="J141" s="13"/>
-      <c r="K141" s="146" t="s">
+      <c r="K141" s="147" t="s">
         <v>260</v>
       </c>
       <c r="L141" s="172" t="s">
@@ -16266,7 +16261,7 @@
       <c r="B142" s="16" t="s">
         <v>1222</v>
       </c>
-      <c r="C142" s="126" t="s">
+      <c r="C142" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D142" s="17"/>
@@ -16282,7 +16277,7 @@
       <c r="H142" s="17"/>
       <c r="I142" s="13"/>
       <c r="J142" s="13"/>
-      <c r="K142" s="146">
+      <c r="K142" s="147">
         <v>0.0</v>
       </c>
       <c r="L142" s="172" t="s">
@@ -16300,7 +16295,7 @@
       <c r="B143" s="16" t="s">
         <v>1225</v>
       </c>
-      <c r="C143" s="126" t="s">
+      <c r="C143" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D143" s="17"/>
@@ -16316,7 +16311,7 @@
       <c r="H143" s="17"/>
       <c r="I143" s="13"/>
       <c r="J143" s="13"/>
-      <c r="K143" s="146">
+      <c r="K143" s="147">
         <v>0.0</v>
       </c>
       <c r="L143" s="172" t="s">
@@ -16334,7 +16329,7 @@
       <c r="B144" s="16" t="s">
         <v>1228</v>
       </c>
-      <c r="C144" s="126" t="s">
+      <c r="C144" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D144" s="17"/>
@@ -16350,7 +16345,7 @@
       <c r="H144" s="17"/>
       <c r="I144" s="13"/>
       <c r="J144" s="13"/>
-      <c r="K144" s="146">
+      <c r="K144" s="147">
         <v>0.0</v>
       </c>
       <c r="L144" s="172" t="s">
@@ -16368,7 +16363,7 @@
       <c r="B145" s="16" t="s">
         <v>1231</v>
       </c>
-      <c r="C145" s="126" t="s">
+      <c r="C145" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D145" s="17"/>
@@ -16384,7 +16379,7 @@
       <c r="H145" s="17"/>
       <c r="I145" s="13"/>
       <c r="J145" s="13"/>
-      <c r="K145" s="146">
+      <c r="K145" s="147">
         <v>0.0</v>
       </c>
       <c r="L145" s="172" t="s">
@@ -16402,7 +16397,7 @@
       <c r="B146" s="16" t="s">
         <v>1234</v>
       </c>
-      <c r="C146" s="126" t="s">
+      <c r="C146" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D146" s="17"/>
@@ -16418,7 +16413,7 @@
       <c r="H146" s="17"/>
       <c r="I146" s="13"/>
       <c r="J146" s="13"/>
-      <c r="K146" s="135">
+      <c r="K146" s="136">
         <v>0.0</v>
       </c>
       <c r="L146" s="172" t="s">
@@ -16436,7 +16431,7 @@
       <c r="B147" s="16" t="s">
         <v>1237</v>
       </c>
-      <c r="C147" s="126" t="s">
+      <c r="C147" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D147" s="17"/>
@@ -16452,7 +16447,7 @@
       <c r="H147" s="17"/>
       <c r="I147" s="13"/>
       <c r="J147" s="13"/>
-      <c r="K147" s="147" t="s">
+      <c r="K147" s="148" t="s">
         <v>886</v>
       </c>
       <c r="L147" s="172" t="s">
@@ -16470,7 +16465,7 @@
       <c r="B148" s="16" t="s">
         <v>1240</v>
       </c>
-      <c r="C148" s="126" t="s">
+      <c r="C148" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D148" s="17"/>
@@ -16486,7 +16481,7 @@
       <c r="H148" s="17"/>
       <c r="I148" s="13"/>
       <c r="J148" s="13"/>
-      <c r="K148" s="147">
+      <c r="K148" s="148">
         <v>0.0</v>
       </c>
       <c r="L148" s="157" t="s">
@@ -16504,7 +16499,7 @@
       <c r="B149" s="16" t="s">
         <v>1243</v>
       </c>
-      <c r="C149" s="126" t="s">
+      <c r="C149" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D149" s="17"/>
@@ -16520,7 +16515,7 @@
       <c r="H149" s="17"/>
       <c r="I149" s="13"/>
       <c r="J149" s="13"/>
-      <c r="K149" s="147" t="s">
+      <c r="K149" s="148" t="s">
         <v>260</v>
       </c>
       <c r="L149" s="157" t="s">
@@ -16538,7 +16533,7 @@
       <c r="B150" s="16" t="s">
         <v>1246</v>
       </c>
-      <c r="C150" s="126" t="s">
+      <c r="C150" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D150" s="17"/>
@@ -16554,7 +16549,7 @@
       <c r="H150" s="17"/>
       <c r="I150" s="13"/>
       <c r="J150" s="13"/>
-      <c r="K150" s="147" t="s">
+      <c r="K150" s="148" t="s">
         <v>996</v>
       </c>
       <c r="L150" s="157" t="s">
@@ -16572,7 +16567,7 @@
       <c r="B151" s="16" t="s">
         <v>1250</v>
       </c>
-      <c r="C151" s="126" t="s">
+      <c r="C151" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D151" s="17"/>
@@ -16588,7 +16583,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="13"/>
       <c r="J151" s="13"/>
-      <c r="K151" s="147" t="s">
+      <c r="K151" s="148" t="s">
         <v>1001</v>
       </c>
       <c r="L151" s="157" t="s">
@@ -16606,7 +16601,7 @@
       <c r="B152" s="16" t="s">
         <v>1254</v>
       </c>
-      <c r="C152" s="126" t="s">
+      <c r="C152" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D152" s="17"/>
@@ -16622,7 +16617,7 @@
       <c r="H152" s="17"/>
       <c r="I152" s="13"/>
       <c r="J152" s="13"/>
-      <c r="K152" s="147" t="s">
+      <c r="K152" s="148" t="s">
         <v>996</v>
       </c>
       <c r="L152" s="157" t="s">
@@ -16640,7 +16635,7 @@
       <c r="B153" s="16" t="s">
         <v>1257</v>
       </c>
-      <c r="C153" s="126" t="s">
+      <c r="C153" s="127" t="s">
         <v>739</v>
       </c>
       <c r="D153" s="17"/>
@@ -16656,7 +16651,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="13"/>
       <c r="J153" s="13"/>
-      <c r="K153" s="147" t="s">
+      <c r="K153" s="148" t="s">
         <v>1001</v>
       </c>
       <c r="L153" s="157" t="s">
@@ -17109,13 +17104,16 @@
       <c r="B4" s="3" t="s">
         <v>1317</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>1318</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="186" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
   </sheetData>
@@ -17163,13 +17161,13 @@
         <v>719</v>
       </c>
       <c r="D1" s="187" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="G1" s="184" t="s">
         <v>607</v>
@@ -17178,18 +17176,18 @@
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C2" s="188" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D2" s="183"/>
       <c r="G2" s="183"/>
@@ -17199,16 +17197,16 @@
         <v>416</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C3" s="184"/>
       <c r="D3" s="184"/>
       <c r="E3" s="184"/>
       <c r="G3" s="184" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="4">
@@ -17216,30 +17214,30 @@
         <v>726</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D4" s="184" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="G4" s="183"/>
       <c r="I4" s="184"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C5" s="183"/>
       <c r="D5" s="184" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="G5" s="183"/>
     </row>
@@ -17248,16 +17246,16 @@
         <v>433</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C6" s="183"/>
       <c r="D6" s="17"/>
       <c r="E6" s="178"/>
       <c r="G6" s="184" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -17266,17 +17264,17 @@
         <v>475</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C7" s="183"/>
       <c r="D7" s="184"/>
       <c r="E7" s="184"/>
       <c r="F7" s="184"/>
       <c r="G7" s="184" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -17285,17 +17283,17 @@
         <v>421</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C8" s="183"/>
       <c r="D8" s="184"/>
       <c r="E8" s="184"/>
       <c r="F8" s="184"/>
       <c r="G8" s="184" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -17304,16 +17302,16 @@
         <v>425</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C9" s="183"/>
       <c r="D9" s="184"/>
       <c r="E9" s="184"/>
       <c r="G9" s="184" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -17322,14 +17320,14 @@
         <v>430</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C10" s="183"/>
       <c r="D10" s="184"/>
       <c r="E10" s="184"/>
       <c r="G10" s="183"/>
       <c r="H10" s="3" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -17338,17 +17336,17 @@
         <v>411</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C11" s="184"/>
       <c r="D11" s="184"/>
       <c r="E11" s="184"/>
       <c r="F11" s="184"/>
       <c r="G11" s="184" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -17357,16 +17355,16 @@
         <v>443</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C12" s="183"/>
       <c r="D12" s="184"/>
       <c r="E12" s="184"/>
       <c r="G12" s="184" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -17375,15 +17373,15 @@
         <v>446</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D13" s="145"/>
+        <v>1358</v>
+      </c>
+      <c r="D13" s="146"/>
       <c r="E13" s="189"/>
       <c r="G13" s="184" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -17392,15 +17390,15 @@
         <v>448</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D14" s="184"/>
       <c r="E14" s="189"/>
       <c r="G14" s="184" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -17409,15 +17407,15 @@
         <v>463</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D15" s="184"/>
       <c r="E15" s="189"/>
       <c r="G15" s="184" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -17426,15 +17424,15 @@
         <v>468</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D16" s="184"/>
       <c r="E16" s="189"/>
       <c r="G16" s="184" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="I16" s="3"/>
     </row>
@@ -17443,13 +17441,13 @@
         <v>222</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="189"/>
       <c r="G17" s="183"/>
       <c r="H17" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -17458,13 +17456,13 @@
         <v>224</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="189"/>
       <c r="G18" s="183"/>
       <c r="H18" s="3" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -17473,13 +17471,13 @@
         <v>226</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="189"/>
       <c r="G19" s="183"/>
       <c r="H19" s="3" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="I19" s="3"/>
     </row>
@@ -17488,14 +17486,14 @@
         <v>220</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="183"/>
       <c r="H20" s="3" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -17504,14 +17502,14 @@
         <v>228</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="183"/>
       <c r="H21" s="3" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -17520,14 +17518,14 @@
         <v>230</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="183"/>
       <c r="H22" s="3" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -17536,13 +17534,13 @@
         <v>203</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="189"/>
       <c r="G23" s="183"/>
       <c r="H23" s="3" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="I23" s="3"/>
     </row>
@@ -17551,13 +17549,13 @@
         <v>232</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="189"/>
       <c r="G24" s="183"/>
       <c r="H24" s="3" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="I24" s="3"/>
     </row>

--- a/models/keast-bladder/source/keast-bladder.xlsx
+++ b/models/keast-bladder/source/keast-bladder.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="1460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="1466">
   <si>
     <t>id</t>
   </si>
@@ -384,7 +384,7 @@
     <t>L6 spinal segment (kblad)</t>
   </si>
   <si>
-    <t>EMAPA:19574</t>
+    <t>ILX:0738432</t>
   </si>
   <si>
     <t>snl69, snl65</t>
@@ -3573,9 +3573,6 @@
     <t>ns181</t>
   </si>
   <si>
-    <t>0,0,3,1</t>
-  </si>
-  <si>
     <t>dc-bn2-10</t>
   </si>
   <si>
@@ -3603,9 +3600,6 @@
     <t>ns190</t>
   </si>
   <si>
-    <t>n-blad,K99,K104</t>
-  </si>
-  <si>
     <t>dc-bd2-10</t>
   </si>
   <si>
@@ -4026,9 +4020,15 @@
     <t>groups</t>
   </si>
   <si>
+    <t>publications_tenative</t>
+  </si>
+  <si>
     <t>seed</t>
   </si>
   <si>
+    <t>neuronTypes</t>
+  </si>
+  <si>
     <t>internal</t>
   </si>
   <si>
@@ -4047,6 +4047,9 @@
     <t>ilxtr:neuron-type-keast-8</t>
   </si>
   <si>
+    <t>sympathetic pre-ganglionic neuron</t>
+  </si>
+  <si>
     <t>IMG and PG</t>
   </si>
   <si>
@@ -4077,6 +4080,9 @@
     <t>ilxtr:neuron-type-keast-4</t>
   </si>
   <si>
+    <t>sympathetic post-ganglionic neuron</t>
+  </si>
+  <si>
     <t>Neuron 11</t>
   </si>
   <si>
@@ -4086,6 +4092,9 @@
     <t>ilxtr:neuron-type-keast-11</t>
   </si>
   <si>
+    <t>first order sensory neuron</t>
+  </si>
+  <si>
     <t>Neuron 7</t>
   </si>
   <si>
@@ -4104,12 +4113,18 @@
     <t>ilxtr:neuron-type-keast-9</t>
   </si>
   <si>
+    <t>somatic lower motor neuron</t>
+  </si>
+  <si>
     <t>Neuron 5</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-5</t>
   </si>
   <si>
+    <t>parasympathetic pre-ganglionic neuron</t>
+  </si>
+  <si>
     <t>Neuron 6</t>
   </si>
   <si>
@@ -4126,6 +4141,9 @@
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-1</t>
+  </si>
+  <si>
+    <t>parasympathetic post-ganglionic neuron</t>
   </si>
   <si>
     <t>Neuron 2</t>
@@ -4438,7 +4456,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -4514,9 +4532,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF1155CC"/>
     </font>
@@ -4560,9 +4575,8 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4573,6 +4587,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -4589,12 +4609,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
@@ -4603,6 +4617,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -4629,7 +4649,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="207">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4735,13 +4755,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4759,6 +4782,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4768,22 +4794,22 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4792,35 +4818,32 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4965,234 +4988,252 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -5200,24 +5241,22 @@
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5525,209 +5564,209 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="196" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1386</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="197" t="s">
         <v>1329</v>
       </c>
-      <c r="C2" s="192" t="s">
-        <v>1387</v>
+      <c r="C2" s="198" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="193" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C3" s="192" t="s">
-        <v>1389</v>
+      <c r="A3" s="199" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C3" s="198" t="s">
+        <v>1395</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="194" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C4" s="192" t="s">
-        <v>1391</v>
+      <c r="A4" s="200" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C4" s="198" t="s">
+        <v>1397</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="194" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C5" s="192" t="s">
-        <v>1393</v>
+      <c r="A5" s="200" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C5" s="198" t="s">
+        <v>1399</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="191" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C6" s="192" t="s">
-        <v>1395</v>
+      <c r="A6" s="197" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C6" s="198" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="191" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C7" s="192" t="s">
-        <v>1397</v>
+      <c r="A7" s="197" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C7" s="198" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="191" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C8" s="192" t="s">
-        <v>1399</v>
+      <c r="A8" s="197" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C8" s="198" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="191" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C9" s="192" t="s">
-        <v>1401</v>
+      <c r="A9" s="197" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C9" s="198" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="191" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C10" s="192" t="s">
-        <v>1403</v>
+      <c r="A10" s="197" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C10" s="198" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="191" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C11" s="192" t="s">
-        <v>1405</v>
+      <c r="A11" s="197" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C11" s="198" t="s">
+        <v>1411</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="191" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C12" s="192" t="s">
-        <v>1407</v>
+      <c r="A12" s="197" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C12" s="198" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="191" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C13" s="192" t="s">
-        <v>1409</v>
+      <c r="A13" s="197" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C13" s="198" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="191" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C14" s="192" t="s">
-        <v>1411</v>
+      <c r="A14" s="197" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C14" s="198" t="s">
+        <v>1417</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="191" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C15" s="192" t="s">
-        <v>1413</v>
+      <c r="A15" s="197" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C15" s="198" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="191" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C16" s="192" t="s">
-        <v>1415</v>
+      <c r="A16" s="197" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C16" s="198" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="191" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C17" s="192" t="s">
-        <v>1417</v>
+      <c r="A17" s="197" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C17" s="198" t="s">
+        <v>1423</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="191" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C18" s="192" t="s">
-        <v>1419</v>
+      <c r="A18" s="197" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C18" s="198" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="191" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C19" s="192" t="s">
-        <v>1421</v>
+      <c r="A19" s="197" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C19" s="198" t="s">
+        <v>1427</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="191" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C20" s="192" t="s">
-        <v>1423</v>
+      <c r="A20" s="197" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C20" s="198" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="191" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C21" s="192" t="s">
-        <v>1425</v>
+      <c r="A21" s="197" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C21" s="198" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="195" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C22" s="192" t="s">
-        <v>1427</v>
+      <c r="A22" s="201" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C22" s="198" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="191" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C23" s="192" t="s">
-        <v>1429</v>
+      <c r="A23" s="197" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C23" s="198" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="191" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C24" s="192" t="s">
-        <v>1431</v>
+      <c r="A24" s="197" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C24" s="198" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="191" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C25" s="192" t="s">
-        <v>1433</v>
+      <c r="A25" s="197" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C25" s="198" t="s">
+        <v>1439</v>
       </c>
     </row>
   </sheetData>
@@ -5750,106 +5789,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B2" s="196" t="s">
-        <v>1437</v>
+      <c r="A2" s="202" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B3" s="196" t="s">
-        <v>1439</v>
+      <c r="A3" s="202" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B3" s="203" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B4" s="197" t="s">
-        <v>1441</v>
+      <c r="A4" s="202" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B4" s="204" t="s">
+        <v>1447</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B5" s="198" t="s">
-        <v>1443</v>
+      <c r="A5" s="202" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B5" s="205" t="s">
+        <v>1449</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B6" s="198" t="s">
-        <v>1445</v>
+      <c r="A6" s="202" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B6" s="205" t="s">
+        <v>1451</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B7" s="198" t="s">
-        <v>1447</v>
+      <c r="A7" s="202" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B7" s="205" t="s">
+        <v>1453</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B8" s="198" t="s">
-        <v>1449</v>
+      <c r="A8" s="202" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B8" s="205" t="s">
+        <v>1455</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B9" s="198" t="s">
-        <v>1451</v>
+      <c r="A9" s="202" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B9" s="205" t="s">
+        <v>1457</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B10" s="198" t="s">
-        <v>1453</v>
+      <c r="A10" s="202" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B10" s="205" t="s">
+        <v>1459</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B11" s="198" t="s">
-        <v>1455</v>
+      <c r="A11" s="202" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B11" s="205" t="s">
+        <v>1461</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="199" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B12" s="196" t="s">
-        <v>1457</v>
+      <c r="A12" s="206" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B12" s="203" t="s">
+        <v>1463</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="199" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B13" s="196" t="s">
-        <v>1459</v>
+      <c r="A13" s="206" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B13" s="203" t="s">
+        <v>1465</v>
       </c>
     </row>
   </sheetData>
@@ -6730,7 +6769,7 @@
       <c r="B28" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="21" t="s">
         <v>110</v>
       </c>
       <c r="D28" s="13"/>
@@ -7436,19 +7475,19 @@
       <c r="A51" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="17"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="37"/>
+      <c r="H51" s="38"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="38">
+      <c r="J51" s="39">
         <v>229.0</v>
       </c>
       <c r="K51" s="13"/>
@@ -7475,7 +7514,7 @@
         <v>199</v>
       </c>
       <c r="D52" s="13"/>
-      <c r="E52" s="39" t="b">
+      <c r="E52" s="40" t="b">
         <v>1</v>
       </c>
       <c r="F52" s="21" t="s">
@@ -7484,7 +7523,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="40">
+      <c r="J52" s="41">
         <v>229.0</v>
       </c>
       <c r="K52" s="13"/>
@@ -7506,7 +7545,7 @@
         <v>199</v>
       </c>
       <c r="D53" s="13"/>
-      <c r="E53" s="39" t="b">
+      <c r="E53" s="40" t="b">
         <v>1</v>
       </c>
       <c r="F53" s="21" t="s">
@@ -7515,7 +7554,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="40">
+      <c r="J53" s="41">
         <v>229.0</v>
       </c>
       <c r="K53" s="13"/>
@@ -7527,7 +7566,7 @@
       <c r="Q53" s="13"/>
     </row>
     <row r="54">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="42" t="s">
         <v>209</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -7537,7 +7576,7 @@
         <v>211</v>
       </c>
       <c r="D54" s="13"/>
-      <c r="E54" s="42" t="b">
+      <c r="E54" s="43" t="b">
         <v>1</v>
       </c>
       <c r="F54" s="21" t="s">
@@ -7548,7 +7587,7 @@
       <c r="I54" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="J54" s="40"/>
+      <c r="J54" s="41"/>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
@@ -7558,7 +7597,7 @@
       <c r="Q54" s="13"/>
     </row>
     <row r="55">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="42" t="s">
         <v>212</v>
       </c>
       <c r="B55" s="16" t="s">
@@ -7568,7 +7607,7 @@
         <v>211</v>
       </c>
       <c r="D55" s="13"/>
-      <c r="E55" s="42" t="b">
+      <c r="E55" s="43" t="b">
         <v>1</v>
       </c>
       <c r="F55" s="21" t="s">
@@ -7579,7 +7618,7 @@
       <c r="I55" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="J55" s="40"/>
+      <c r="J55" s="41"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
@@ -7589,7 +7628,7 @@
       <c r="Q55" s="13"/>
     </row>
     <row r="56">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="42" t="s">
         <v>214</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -7599,7 +7638,7 @@
         <v>216</v>
       </c>
       <c r="D56" s="13"/>
-      <c r="E56" s="42" t="b">
+      <c r="E56" s="43" t="b">
         <v>1</v>
       </c>
       <c r="F56" s="21" t="s">
@@ -7610,7 +7649,7 @@
       <c r="I56" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="J56" s="40"/>
+      <c r="J56" s="41"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
@@ -7620,7 +7659,7 @@
       <c r="Q56" s="13"/>
     </row>
     <row r="57">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="42" t="s">
         <v>217</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -7630,7 +7669,7 @@
         <v>216</v>
       </c>
       <c r="D57" s="13"/>
-      <c r="E57" s="42" t="b">
+      <c r="E57" s="43" t="b">
         <v>1</v>
       </c>
       <c r="F57" s="21" t="s">
@@ -7641,7 +7680,7 @@
       <c r="I57" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="J57" s="40"/>
+      <c r="J57" s="41"/>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
@@ -7651,13 +7690,13 @@
       <c r="Q57" s="13"/>
     </row>
     <row r="58">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D58" s="13"/>
@@ -7666,7 +7705,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="17"/>
-      <c r="J58" s="40">
+      <c r="J58" s="41">
         <v>229.0</v>
       </c>
       <c r="K58" s="13"/>
@@ -7683,13 +7722,13 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D59" s="13"/>
@@ -7698,7 +7737,7 @@
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="17"/>
-      <c r="J59" s="40">
+      <c r="J59" s="41">
         <v>229.0</v>
       </c>
       <c r="K59" s="13"/>
@@ -7715,13 +7754,13 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D60" s="13"/>
@@ -7730,7 +7769,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
       <c r="I60" s="17"/>
-      <c r="J60" s="40">
+      <c r="J60" s="41">
         <v>229.0</v>
       </c>
       <c r="K60" s="13"/>
@@ -7747,13 +7786,13 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D61" s="13"/>
@@ -7762,7 +7801,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
       <c r="I61" s="17"/>
-      <c r="J61" s="40">
+      <c r="J61" s="41">
         <v>229.0</v>
       </c>
       <c r="K61" s="13"/>
@@ -7779,13 +7818,13 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D62" s="13"/>
@@ -7794,7 +7833,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
       <c r="I62" s="17"/>
-      <c r="J62" s="40">
+      <c r="J62" s="41">
         <v>229.0</v>
       </c>
       <c r="K62" s="13"/>
@@ -7811,13 +7850,13 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D63" s="13"/>
@@ -7826,7 +7865,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="17"/>
-      <c r="J63" s="40">
+      <c r="J63" s="41">
         <v>229.0</v>
       </c>
       <c r="K63" s="13"/>
@@ -7843,13 +7882,13 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D64" s="13"/>
@@ -7858,7 +7897,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
       <c r="I64" s="17"/>
-      <c r="J64" s="40">
+      <c r="J64" s="41">
         <v>229.0</v>
       </c>
       <c r="K64" s="13"/>
@@ -8068,7 +8107,7 @@
         <v>258</v>
       </c>
       <c r="D72" s="13"/>
-      <c r="E72" s="39"/>
+      <c r="E72" s="40"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
@@ -8097,7 +8136,7 @@
         <v>263</v>
       </c>
       <c r="D73" s="13"/>
-      <c r="E73" s="39"/>
+      <c r="E73" s="40"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
@@ -8309,8 +8348,8 @@
       <c r="J81" s="17"/>
       <c r="K81" s="13"/>
       <c r="L81" s="32"/>
-      <c r="M81" s="41"/>
-      <c r="N81" s="41"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
       <c r="O81" s="13"/>
       <c r="P81" s="13"/>
       <c r="Q81" s="13"/>
@@ -8334,8 +8373,8 @@
       <c r="J82" s="17"/>
       <c r="K82" s="13"/>
       <c r="L82" s="32"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="41"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
       <c r="O82" s="13"/>
       <c r="P82" s="13"/>
       <c r="Q82" s="13"/>
@@ -8359,8 +8398,8 @@
       <c r="J83" s="17"/>
       <c r="K83" s="13"/>
       <c r="L83" s="32"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="41"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
       <c r="O83" s="13"/>
       <c r="P83" s="13"/>
       <c r="Q83" s="13"/>
@@ -8384,8 +8423,8 @@
       <c r="J84" s="17"/>
       <c r="K84" s="13"/>
       <c r="L84" s="32"/>
-      <c r="M84" s="41"/>
-      <c r="N84" s="41"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
       <c r="O84" s="13"/>
       <c r="P84" s="13"/>
       <c r="Q84" s="13"/>
@@ -8409,8 +8448,8 @@
       <c r="J85" s="17"/>
       <c r="K85" s="13"/>
       <c r="L85" s="32"/>
-      <c r="M85" s="41"/>
-      <c r="N85" s="41"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
       <c r="O85" s="13"/>
       <c r="P85" s="13"/>
       <c r="Q85" s="13"/>
@@ -8434,8 +8473,8 @@
       <c r="J86" s="17"/>
       <c r="K86" s="13"/>
       <c r="L86" s="32"/>
-      <c r="M86" s="41"/>
-      <c r="N86" s="41"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
       <c r="O86" s="13"/>
       <c r="P86" s="13"/>
       <c r="Q86" s="13"/>
@@ -8459,8 +8498,8 @@
       <c r="J87" s="17"/>
       <c r="K87" s="13"/>
       <c r="L87" s="32"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
       <c r="O87" s="13"/>
       <c r="P87" s="13"/>
       <c r="Q87" s="13"/>
@@ -8501,7 +8540,7 @@
         <v>312</v>
       </c>
       <c r="D89" s="13"/>
-      <c r="E89" s="39"/>
+      <c r="E89" s="40"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
@@ -8509,10 +8548,10 @@
       <c r="J89" s="17"/>
       <c r="K89" s="13"/>
       <c r="L89" s="32"/>
-      <c r="M89" s="41" t="s">
+      <c r="M89" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="N89" s="41" t="s">
+      <c r="N89" s="42" t="s">
         <v>151</v>
       </c>
       <c r="O89" s="13"/>
@@ -8530,18 +8569,18 @@
         <v>316</v>
       </c>
       <c r="D90" s="13"/>
-      <c r="E90" s="39"/>
+      <c r="E90" s="40"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
       <c r="K90" s="13"/>
-      <c r="L90" s="43"/>
-      <c r="M90" s="44" t="s">
+      <c r="L90" s="45"/>
+      <c r="M90" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="N90" s="41" t="s">
+      <c r="N90" s="42" t="s">
         <v>151</v>
       </c>
       <c r="O90" s="13"/>
@@ -8559,7 +8598,7 @@
         <v>320</v>
       </c>
       <c r="D91" s="13"/>
-      <c r="E91" s="39"/>
+      <c r="E91" s="40"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -8567,10 +8606,10 @@
       <c r="J91" s="17"/>
       <c r="K91" s="13"/>
       <c r="L91" s="32"/>
-      <c r="M91" s="41" t="s">
+      <c r="M91" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="N91" s="41" t="s">
+      <c r="N91" s="42" t="s">
         <v>151</v>
       </c>
       <c r="O91" s="13"/>
@@ -8588,7 +8627,7 @@
         <v>324</v>
       </c>
       <c r="D92" s="13"/>
-      <c r="E92" s="39"/>
+      <c r="E92" s="40"/>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
@@ -8596,10 +8635,10 @@
       <c r="J92" s="17"/>
       <c r="K92" s="13"/>
       <c r="L92" s="32"/>
-      <c r="M92" s="41" t="s">
+      <c r="M92" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="N92" s="41" t="s">
+      <c r="N92" s="42" t="s">
         <v>151</v>
       </c>
       <c r="O92" s="13"/>
@@ -8617,7 +8656,7 @@
         <v>328</v>
       </c>
       <c r="D93" s="13"/>
-      <c r="E93" s="39"/>
+      <c r="E93" s="40"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
@@ -8628,7 +8667,7 @@
       <c r="M93" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="N93" s="41" t="s">
+      <c r="N93" s="42" t="s">
         <v>151</v>
       </c>
       <c r="O93" s="13"/>
@@ -8646,7 +8685,7 @@
         <v>332</v>
       </c>
       <c r="D94" s="13"/>
-      <c r="E94" s="39"/>
+      <c r="E94" s="40"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
@@ -8657,7 +8696,7 @@
       <c r="M94" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="N94" s="41" t="s">
+      <c r="N94" s="42" t="s">
         <v>151</v>
       </c>
       <c r="O94" s="13"/>
@@ -8675,7 +8714,7 @@
         <v>336</v>
       </c>
       <c r="D95" s="13"/>
-      <c r="E95" s="39"/>
+      <c r="E95" s="40"/>
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
@@ -8686,7 +8725,7 @@
       <c r="M95" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="N95" s="41" t="s">
+      <c r="N95" s="42" t="s">
         <v>151</v>
       </c>
       <c r="O95" s="13"/>
@@ -8715,7 +8754,7 @@
       <c r="M96" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="N96" s="41" t="s">
+      <c r="N96" s="42" t="s">
         <v>151</v>
       </c>
       <c r="O96" s="13"/>
@@ -8742,7 +8781,7 @@
       <c r="K97" s="13"/>
       <c r="L97" s="32"/>
       <c r="M97" s="32"/>
-      <c r="N97" s="41"/>
+      <c r="N97" s="42"/>
       <c r="O97" s="13"/>
       <c r="P97" s="13"/>
       <c r="Q97" s="13"/>
@@ -9058,11 +9097,11 @@
         <v>383</v>
       </c>
       <c r="D110" s="13"/>
-      <c r="E110" s="39"/>
+      <c r="E110" s="40"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
-      <c r="I110" s="45" t="s">
+      <c r="I110" s="47" t="s">
         <v>384</v>
       </c>
       <c r="J110" s="17"/>
@@ -9071,7 +9110,7 @@
       <c r="M110" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="N110" s="41" t="s">
+      <c r="N110" s="42" t="s">
         <v>386</v>
       </c>
       <c r="O110" s="13"/>
@@ -9089,11 +9128,11 @@
         <v>389</v>
       </c>
       <c r="D111" s="13"/>
-      <c r="E111" s="39"/>
+      <c r="E111" s="40"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
-      <c r="I111" s="45" t="s">
+      <c r="I111" s="47" t="s">
         <v>384</v>
       </c>
       <c r="J111" s="17"/>
@@ -9102,7 +9141,7 @@
       <c r="M111" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="N111" s="41" t="s">
+      <c r="N111" s="42" t="s">
         <v>386</v>
       </c>
       <c r="O111" s="13"/>
@@ -9120,50 +9159,50 @@
         <v>393</v>
       </c>
       <c r="D112" s="13"/>
-      <c r="E112" s="39"/>
+      <c r="E112" s="40"/>
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
-      <c r="I112" s="45" t="s">
+      <c r="I112" s="47" t="s">
         <v>394</v>
       </c>
       <c r="J112" s="17"/>
       <c r="K112" s="13"/>
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
-      <c r="N112" s="41"/>
+      <c r="N112" s="42"/>
       <c r="O112" s="13"/>
       <c r="P112" s="13"/>
       <c r="Q112" s="13"/>
     </row>
     <row r="113">
-      <c r="A113" s="46" t="s">
+      <c r="A113" s="48" t="s">
         <v>395</v>
       </c>
-      <c r="B113" s="47" t="s">
+      <c r="B113" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="C113" s="48" t="s">
+      <c r="C113" s="50" t="s">
         <v>397</v>
       </c>
-      <c r="D113" s="49"/>
-      <c r="E113" s="48"/>
-      <c r="F113" s="49"/>
-      <c r="G113" s="49"/>
-      <c r="H113" s="49"/>
-      <c r="I113" s="49"/>
-      <c r="J113" s="48"/>
-      <c r="K113" s="49"/>
-      <c r="L113" s="50"/>
-      <c r="M113" s="50" t="s">
+      <c r="D113" s="51"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="51"/>
+      <c r="J113" s="50"/>
+      <c r="K113" s="51"/>
+      <c r="L113" s="52"/>
+      <c r="M113" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="N113" s="51" t="s">
+      <c r="N113" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="O113" s="49"/>
-      <c r="P113" s="49"/>
-      <c r="Q113" s="49"/>
+      <c r="O113" s="51"/>
+      <c r="P113" s="51"/>
+      <c r="Q113" s="51"/>
     </row>
     <row r="114">
       <c r="A114" s="32" t="s">
@@ -9182,14 +9221,14 @@
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
-      <c r="I114" s="52" t="s">
+      <c r="I114" s="54" t="s">
         <v>402</v>
       </c>
       <c r="J114" s="17"/>
       <c r="K114" s="13"/>
       <c r="L114" s="32"/>
-      <c r="M114" s="41"/>
-      <c r="N114" s="41"/>
+      <c r="M114" s="42"/>
+      <c r="N114" s="42"/>
       <c r="O114" s="13"/>
       <c r="P114" s="13"/>
       <c r="Q114" s="13"/>
@@ -9198,14 +9237,14 @@
       <c r="A115" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="B115" s="53" t="s">
+      <c r="B115" s="55" t="s">
         <v>404</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>405</v>
       </c>
       <c r="D115" s="13"/>
-      <c r="E115" s="39"/>
+      <c r="E115" s="40"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
@@ -9213,10 +9252,10 @@
       <c r="J115" s="17"/>
       <c r="K115" s="13"/>
       <c r="L115" s="11"/>
-      <c r="M115" s="54" t="s">
+      <c r="M115" s="56" t="s">
         <v>406</v>
       </c>
-      <c r="N115" s="41" t="s">
+      <c r="N115" s="42" t="s">
         <v>260</v>
       </c>
       <c r="O115" s="13"/>
@@ -9239,10 +9278,13 @@
       <c r="G116" s="13"/>
       <c r="H116" s="13"/>
       <c r="I116" s="17"/>
+      <c r="J116" s="3" t="s">
+        <v>399</v>
+      </c>
       <c r="K116" s="13"/>
       <c r="L116" s="11"/>
       <c r="M116" s="11"/>
-      <c r="N116" s="41"/>
+      <c r="N116" s="42"/>
       <c r="O116" s="13"/>
       <c r="P116" s="13"/>
       <c r="Q116" s="13"/>
@@ -9263,10 +9305,13 @@
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
       <c r="I117" s="17"/>
+      <c r="J117" s="3" t="s">
+        <v>399</v>
+      </c>
       <c r="K117" s="13"/>
       <c r="L117" s="11"/>
       <c r="M117" s="11"/>
-      <c r="N117" s="41"/>
+      <c r="N117" s="42"/>
       <c r="O117" s="13"/>
       <c r="P117" s="13"/>
       <c r="Q117" s="13"/>
@@ -9278,7 +9323,7 @@
       <c r="B118" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="C118" s="36" t="s">
+      <c r="C118" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D118" s="13"/>
@@ -9287,7 +9332,7 @@
       <c r="G118" s="13"/>
       <c r="H118" s="13"/>
       <c r="I118" s="17"/>
-      <c r="J118" s="40">
+      <c r="J118" s="41">
         <v>229.0</v>
       </c>
       <c r="K118" s="13"/>
@@ -9307,7 +9352,7 @@
       <c r="B119" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="C119" s="36" t="s">
+      <c r="C119" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D119" s="13"/>
@@ -9316,7 +9361,7 @@
       <c r="G119" s="13"/>
       <c r="H119" s="13"/>
       <c r="I119" s="17"/>
-      <c r="J119" s="40">
+      <c r="J119" s="41">
         <v>229.0</v>
       </c>
       <c r="K119" s="13"/>
@@ -9327,62 +9372,62 @@
       <c r="Q119" s="13"/>
     </row>
     <row r="120">
-      <c r="A120" s="55" t="s">
+      <c r="A120" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="B120" s="56" t="s">
+      <c r="B120" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="C120" s="57" t="s">
+      <c r="C120" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="D120" s="58"/>
-      <c r="E120" s="56"/>
-      <c r="F120" s="58"/>
-      <c r="G120" s="58"/>
-      <c r="H120" s="58"/>
-      <c r="I120" s="59"/>
-      <c r="J120" s="60">
+      <c r="D120" s="59"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="59"/>
+      <c r="G120" s="59"/>
+      <c r="H120" s="59"/>
+      <c r="I120" s="60"/>
+      <c r="J120" s="61">
         <v>229.0</v>
       </c>
-      <c r="K120" s="58"/>
-      <c r="L120" s="61"/>
-      <c r="M120" s="62"/>
-      <c r="N120" s="63"/>
-      <c r="O120" s="58"/>
-      <c r="P120" s="58"/>
-      <c r="Q120" s="58"/>
-      <c r="R120" s="61" t="s">
+      <c r="K120" s="59"/>
+      <c r="L120" s="62"/>
+      <c r="M120" s="63"/>
+      <c r="N120" s="64"/>
+      <c r="O120" s="59"/>
+      <c r="P120" s="59"/>
+      <c r="Q120" s="59"/>
+      <c r="R120" s="62" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="55" t="s">
+      <c r="A121" s="57" t="s">
         <v>417</v>
       </c>
-      <c r="B121" s="56" t="s">
+      <c r="B121" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="C121" s="57" t="s">
+      <c r="C121" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="D121" s="58"/>
-      <c r="E121" s="56"/>
-      <c r="F121" s="58"/>
-      <c r="G121" s="58"/>
-      <c r="H121" s="58"/>
-      <c r="I121" s="59"/>
-      <c r="J121" s="60">
+      <c r="D121" s="59"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="59"/>
+      <c r="H121" s="59"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="61">
         <v>229.0</v>
       </c>
-      <c r="K121" s="58"/>
-      <c r="L121" s="61"/>
-      <c r="M121" s="62"/>
-      <c r="N121" s="64"/>
-      <c r="O121" s="58"/>
-      <c r="P121" s="58"/>
-      <c r="Q121" s="58"/>
-      <c r="R121" s="62"/>
+      <c r="K121" s="59"/>
+      <c r="L121" s="62"/>
+      <c r="M121" s="63"/>
+      <c r="N121" s="65"/>
+      <c r="O121" s="59"/>
+      <c r="P121" s="59"/>
+      <c r="Q121" s="59"/>
+      <c r="R121" s="63"/>
     </row>
     <row r="122">
       <c r="A122" s="32" t="s">
@@ -9391,7 +9436,7 @@
       <c r="B122" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C122" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D122" s="13"/>
@@ -9400,7 +9445,7 @@
       <c r="G122" s="13"/>
       <c r="H122" s="13"/>
       <c r="I122" s="17"/>
-      <c r="J122" s="40">
+      <c r="J122" s="41">
         <v>229.0</v>
       </c>
       <c r="K122" s="13"/>
@@ -9421,7 +9466,7 @@
       <c r="B123" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="C123" s="36" t="s">
+      <c r="C123" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D123" s="13"/>
@@ -9430,7 +9475,7 @@
       <c r="G123" s="13"/>
       <c r="H123" s="13"/>
       <c r="I123" s="17"/>
-      <c r="J123" s="40">
+      <c r="J123" s="41">
         <v>229.0</v>
       </c>
       <c r="K123" s="13"/>
@@ -9448,7 +9493,7 @@
       <c r="B124" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D124" s="13"/>
@@ -9457,7 +9502,7 @@
       <c r="G124" s="13"/>
       <c r="H124" s="13"/>
       <c r="I124" s="17"/>
-      <c r="J124" s="40">
+      <c r="J124" s="41">
         <v>229.0</v>
       </c>
       <c r="K124" s="13"/>
@@ -9478,7 +9523,7 @@
       <c r="B125" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="C125" s="36" t="s">
+      <c r="C125" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D125" s="13"/>
@@ -9487,7 +9532,7 @@
       <c r="G125" s="13"/>
       <c r="H125" s="13"/>
       <c r="I125" s="17"/>
-      <c r="J125" s="40">
+      <c r="J125" s="41">
         <v>229.0</v>
       </c>
       <c r="K125" s="13"/>
@@ -9505,7 +9550,7 @@
       <c r="B126" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="C126" s="36" t="s">
+      <c r="C126" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D126" s="13"/>
@@ -9514,7 +9559,7 @@
       <c r="G126" s="13"/>
       <c r="H126" s="13"/>
       <c r="I126" s="17"/>
-      <c r="J126" s="40">
+      <c r="J126" s="41">
         <v>229.0</v>
       </c>
       <c r="K126" s="13"/>
@@ -9535,7 +9580,7 @@
       <c r="B127" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D127" s="13"/>
@@ -9544,7 +9589,7 @@
       <c r="G127" s="13"/>
       <c r="H127" s="13"/>
       <c r="I127" s="17"/>
-      <c r="J127" s="40">
+      <c r="J127" s="41">
         <v>229.0</v>
       </c>
       <c r="K127" s="13"/>
@@ -9562,7 +9607,7 @@
       <c r="B128" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="C128" s="36" t="s">
+      <c r="C128" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D128" s="13"/>
@@ -9573,7 +9618,7 @@
       <c r="G128" s="13"/>
       <c r="H128" s="13"/>
       <c r="I128" s="17"/>
-      <c r="J128" s="40">
+      <c r="J128" s="41">
         <v>229.0</v>
       </c>
       <c r="K128" s="13"/>
@@ -9596,7 +9641,7 @@
       <c r="B129" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="C129" s="36" t="s">
+      <c r="C129" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D129" s="13"/>
@@ -9605,7 +9650,7 @@
       <c r="G129" s="13"/>
       <c r="H129" s="13"/>
       <c r="I129" s="17"/>
-      <c r="J129" s="40">
+      <c r="J129" s="41">
         <v>229.0</v>
       </c>
       <c r="K129" s="13"/>
@@ -9625,7 +9670,7 @@
       <c r="B130" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C130" s="36" t="s">
+      <c r="C130" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D130" s="13"/>
@@ -9634,7 +9679,7 @@
       <c r="G130" s="13"/>
       <c r="H130" s="13"/>
       <c r="I130" s="17"/>
-      <c r="J130" s="40">
+      <c r="J130" s="41">
         <v>229.0</v>
       </c>
       <c r="K130" s="13"/>
@@ -9654,7 +9699,7 @@
       <c r="B131" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C131" s="36" t="s">
+      <c r="C131" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D131" s="13"/>
@@ -9663,7 +9708,7 @@
       <c r="G131" s="13"/>
       <c r="H131" s="13"/>
       <c r="I131" s="17"/>
-      <c r="J131" s="40">
+      <c r="J131" s="41">
         <v>229.0</v>
       </c>
       <c r="K131" s="13"/>
@@ -9683,7 +9728,7 @@
       <c r="B132" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="C132" s="36" t="s">
+      <c r="C132" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D132" s="13"/>
@@ -9692,7 +9737,7 @@
       <c r="G132" s="13"/>
       <c r="H132" s="13"/>
       <c r="I132" s="17"/>
-      <c r="J132" s="40">
+      <c r="J132" s="41">
         <v>229.0</v>
       </c>
       <c r="K132" s="13"/>
@@ -9712,7 +9757,7 @@
       <c r="B133" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="C133" s="36" t="s">
+      <c r="C133" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D133" s="13"/>
@@ -9721,7 +9766,7 @@
       <c r="G133" s="13"/>
       <c r="H133" s="13"/>
       <c r="I133" s="17"/>
-      <c r="J133" s="40">
+      <c r="J133" s="41">
         <v>229.0</v>
       </c>
       <c r="K133" s="13"/>
@@ -9741,16 +9786,16 @@
       <c r="B134" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C134" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D134" s="13"/>
-      <c r="E134" s="56"/>
+      <c r="E134" s="36"/>
       <c r="F134" s="11"/>
       <c r="G134" s="13"/>
       <c r="H134" s="13"/>
       <c r="I134" s="17"/>
-      <c r="J134" s="40">
+      <c r="J134" s="41">
         <v>229.0</v>
       </c>
       <c r="K134" s="13"/>
@@ -9770,7 +9815,7 @@
       <c r="B135" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="C135" s="36" t="s">
+      <c r="C135" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D135" s="13"/>
@@ -9779,7 +9824,7 @@
       <c r="G135" s="13"/>
       <c r="H135" s="13"/>
       <c r="I135" s="17"/>
-      <c r="J135" s="40">
+      <c r="J135" s="41">
         <v>229.0</v>
       </c>
       <c r="K135" s="13"/>
@@ -9799,7 +9844,7 @@
       <c r="B136" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="C136" s="36" t="s">
+      <c r="C136" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D136" s="13"/>
@@ -9808,7 +9853,7 @@
       <c r="G136" s="13"/>
       <c r="H136" s="13"/>
       <c r="I136" s="17"/>
-      <c r="J136" s="40">
+      <c r="J136" s="41">
         <v>229.0</v>
       </c>
       <c r="K136" s="13"/>
@@ -9829,7 +9874,7 @@
       <c r="B137" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="C137" s="36" t="s">
+      <c r="C137" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D137" s="13"/>
@@ -9838,7 +9883,7 @@
       <c r="G137" s="13"/>
       <c r="H137" s="13"/>
       <c r="I137" s="17"/>
-      <c r="J137" s="40">
+      <c r="J137" s="41">
         <v>229.0</v>
       </c>
       <c r="K137" s="13"/>
@@ -9861,7 +9906,7 @@
       <c r="B138" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="C138" s="36" t="s">
+      <c r="C138" s="37" t="s">
         <v>202</v>
       </c>
       <c r="D138" s="13"/>
@@ -9870,7 +9915,7 @@
       <c r="G138" s="13"/>
       <c r="H138" s="13"/>
       <c r="I138" s="17"/>
-      <c r="J138" s="40">
+      <c r="J138" s="41">
         <v>229.0</v>
       </c>
       <c r="K138" s="13"/>
@@ -9922,15 +9967,15 @@
         <v>454</v>
       </c>
       <c r="D140" s="13"/>
-      <c r="E140" s="39"/>
+      <c r="E140" s="40"/>
       <c r="F140" s="11"/>
       <c r="G140" s="13"/>
       <c r="H140" s="13"/>
       <c r="I140" s="17"/>
       <c r="J140" s="11"/>
       <c r="K140" s="13"/>
-      <c r="L140" s="65"/>
-      <c r="M140" s="65"/>
+      <c r="L140" s="66"/>
+      <c r="M140" s="66"/>
       <c r="N140" s="20"/>
       <c r="O140" s="13"/>
       <c r="P140" s="13"/>
@@ -9947,15 +9992,15 @@
         <v>457</v>
       </c>
       <c r="D141" s="13"/>
-      <c r="E141" s="39"/>
+      <c r="E141" s="40"/>
       <c r="F141" s="11"/>
       <c r="G141" s="13"/>
       <c r="H141" s="13"/>
       <c r="I141" s="17"/>
       <c r="J141" s="11"/>
       <c r="K141" s="13"/>
-      <c r="L141" s="66"/>
-      <c r="M141" s="66"/>
+      <c r="L141" s="67"/>
+      <c r="M141" s="67"/>
       <c r="N141" s="15"/>
       <c r="O141" s="13"/>
       <c r="P141" s="13"/>
@@ -9972,14 +10017,14 @@
         <v>460</v>
       </c>
       <c r="D142" s="13"/>
-      <c r="E142" s="39"/>
+      <c r="E142" s="40"/>
       <c r="F142" s="11"/>
       <c r="G142" s="13"/>
       <c r="H142" s="13"/>
       <c r="I142" s="17"/>
       <c r="J142" s="11"/>
       <c r="K142" s="13"/>
-      <c r="L142" s="66"/>
+      <c r="L142" s="67"/>
       <c r="M142" s="32"/>
       <c r="N142" s="20"/>
       <c r="O142" s="13"/>
@@ -9987,144 +10032,144 @@
       <c r="Q142" s="13"/>
     </row>
     <row r="143">
-      <c r="A143" s="67" t="s">
+      <c r="A143" s="68" t="s">
         <v>461</v>
       </c>
-      <c r="B143" s="68" t="s">
+      <c r="B143" s="69" t="s">
         <v>462</v>
       </c>
-      <c r="C143" s="69" t="s">
+      <c r="C143" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="D143" s="70"/>
-      <c r="E143" s="71"/>
-      <c r="F143" s="72"/>
-      <c r="G143" s="70"/>
-      <c r="H143" s="70"/>
-      <c r="I143" s="72"/>
-      <c r="J143" s="73">
+      <c r="D143" s="71"/>
+      <c r="E143" s="72"/>
+      <c r="F143" s="73"/>
+      <c r="G143" s="71"/>
+      <c r="H143" s="71"/>
+      <c r="I143" s="73"/>
+      <c r="J143" s="74">
         <v>229.0</v>
       </c>
-      <c r="K143" s="70"/>
-      <c r="L143" s="68" t="s">
+      <c r="K143" s="71"/>
+      <c r="L143" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="M143" s="72"/>
-      <c r="N143" s="74"/>
-      <c r="O143" s="70"/>
-      <c r="P143" s="70"/>
-      <c r="Q143" s="70"/>
+      <c r="M143" s="73"/>
+      <c r="N143" s="75"/>
+      <c r="O143" s="71"/>
+      <c r="P143" s="71"/>
+      <c r="Q143" s="71"/>
       <c r="R143" s="3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="67" t="s">
+      <c r="A144" s="68" t="s">
         <v>464</v>
       </c>
-      <c r="B144" s="68" t="s">
+      <c r="B144" s="69" t="s">
         <v>465</v>
       </c>
-      <c r="C144" s="69" t="s">
+      <c r="C144" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="D144" s="70"/>
-      <c r="E144" s="72"/>
-      <c r="F144" s="72"/>
-      <c r="G144" s="70"/>
-      <c r="H144" s="70"/>
-      <c r="I144" s="72"/>
-      <c r="J144" s="73">
+      <c r="D144" s="71"/>
+      <c r="E144" s="73"/>
+      <c r="F144" s="73"/>
+      <c r="G144" s="71"/>
+      <c r="H144" s="71"/>
+      <c r="I144" s="73"/>
+      <c r="J144" s="74">
         <v>229.0</v>
       </c>
-      <c r="K144" s="70"/>
-      <c r="L144" s="68" t="s">
+      <c r="K144" s="71"/>
+      <c r="L144" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="M144" s="72"/>
-      <c r="N144" s="74"/>
-      <c r="O144" s="70"/>
-      <c r="P144" s="70"/>
-      <c r="Q144" s="70"/>
+      <c r="M144" s="73"/>
+      <c r="N144" s="75"/>
+      <c r="O144" s="71"/>
+      <c r="P144" s="71"/>
+      <c r="Q144" s="71"/>
     </row>
     <row r="145">
-      <c r="A145" s="75" t="s">
+      <c r="A145" s="76" t="s">
         <v>466</v>
       </c>
-      <c r="B145" s="68" t="s">
+      <c r="B145" s="69" t="s">
         <v>467</v>
       </c>
-      <c r="C145" s="69" t="s">
+      <c r="C145" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="D145" s="70"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="72"/>
-      <c r="G145" s="70"/>
-      <c r="H145" s="70"/>
-      <c r="I145" s="72"/>
-      <c r="J145" s="73">
+      <c r="D145" s="71"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="73"/>
+      <c r="G145" s="71"/>
+      <c r="H145" s="71"/>
+      <c r="I145" s="73"/>
+      <c r="J145" s="74">
         <v>229.0</v>
       </c>
-      <c r="K145" s="70"/>
-      <c r="L145" s="76" t="s">
+      <c r="K145" s="71"/>
+      <c r="L145" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="M145" s="74"/>
-      <c r="N145" s="74"/>
-      <c r="O145" s="70"/>
-      <c r="P145" s="70"/>
-      <c r="Q145" s="70"/>
+      <c r="M145" s="75"/>
+      <c r="N145" s="75"/>
+      <c r="O145" s="71"/>
+      <c r="P145" s="71"/>
+      <c r="Q145" s="71"/>
       <c r="R145" s="3" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="67" t="s">
+      <c r="A146" s="68" t="s">
         <v>469</v>
       </c>
-      <c r="B146" s="68" t="s">
+      <c r="B146" s="69" t="s">
         <v>470</v>
       </c>
-      <c r="C146" s="69" t="s">
+      <c r="C146" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="D146" s="70"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="72"/>
-      <c r="G146" s="70"/>
-      <c r="H146" s="70"/>
-      <c r="I146" s="72"/>
-      <c r="J146" s="73">
+      <c r="D146" s="71"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="73"/>
+      <c r="G146" s="71"/>
+      <c r="H146" s="71"/>
+      <c r="I146" s="73"/>
+      <c r="J146" s="74">
         <v>229.0</v>
       </c>
-      <c r="K146" s="70"/>
-      <c r="L146" s="76" t="s">
+      <c r="K146" s="71"/>
+      <c r="L146" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="M146" s="74"/>
-      <c r="N146" s="74"/>
-      <c r="O146" s="70"/>
-      <c r="P146" s="70"/>
-      <c r="Q146" s="70"/>
+      <c r="M146" s="75"/>
+      <c r="N146" s="75"/>
+      <c r="O146" s="71"/>
+      <c r="P146" s="71"/>
+      <c r="Q146" s="71"/>
     </row>
     <row r="147">
-      <c r="A147" s="77" t="s">
+      <c r="A147" s="78" t="s">
         <v>471</v>
       </c>
-      <c r="B147" s="78" t="s">
+      <c r="B147" s="79" t="s">
         <v>472</v>
       </c>
-      <c r="C147" s="79" t="s">
+      <c r="C147" s="80" t="s">
         <v>473</v>
       </c>
-      <c r="D147" s="80"/>
-      <c r="E147" s="78"/>
-      <c r="F147" s="81"/>
-      <c r="G147" s="82"/>
-      <c r="H147" s="83"/>
-      <c r="I147" s="80"/>
-      <c r="J147" s="79"/>
+      <c r="D147" s="81"/>
+      <c r="E147" s="79"/>
+      <c r="F147" s="82"/>
+      <c r="G147" s="83"/>
+      <c r="H147" s="84"/>
+      <c r="I147" s="81"/>
+      <c r="J147" s="80"/>
       <c r="K147" s="15"/>
       <c r="L147" s="15"/>
       <c r="M147" s="20"/>
@@ -10134,65 +10179,65 @@
       <c r="Q147" s="13"/>
     </row>
     <row r="148">
-      <c r="A148" s="75" t="s">
+      <c r="A148" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="B148" s="68" t="s">
+      <c r="B148" s="69" t="s">
         <v>474</v>
       </c>
-      <c r="C148" s="69" t="s">
+      <c r="C148" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="D148" s="70"/>
-      <c r="E148" s="68"/>
-      <c r="F148" s="84"/>
-      <c r="G148" s="70"/>
-      <c r="H148" s="70"/>
-      <c r="I148" s="72"/>
-      <c r="J148" s="73">
+      <c r="D148" s="71"/>
+      <c r="E148" s="69"/>
+      <c r="F148" s="85"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="71"/>
+      <c r="I148" s="73"/>
+      <c r="J148" s="74">
         <v>229.0</v>
       </c>
-      <c r="K148" s="70"/>
-      <c r="L148" s="68" t="s">
+      <c r="K148" s="71"/>
+      <c r="L148" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="M148" s="70"/>
-      <c r="N148" s="74"/>
-      <c r="O148" s="70"/>
-      <c r="P148" s="70"/>
-      <c r="Q148" s="70"/>
+      <c r="M148" s="71"/>
+      <c r="N148" s="75"/>
+      <c r="O148" s="71"/>
+      <c r="P148" s="71"/>
+      <c r="Q148" s="71"/>
       <c r="R148" s="3" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="75" t="s">
+      <c r="A149" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="B149" s="68" t="s">
+      <c r="B149" s="69" t="s">
         <v>476</v>
       </c>
-      <c r="C149" s="84" t="s">
+      <c r="C149" s="85" t="s">
         <v>477</v>
       </c>
-      <c r="D149" s="70"/>
-      <c r="E149" s="72"/>
-      <c r="F149" s="84"/>
-      <c r="G149" s="70"/>
-      <c r="H149" s="70"/>
-      <c r="I149" s="72"/>
-      <c r="J149" s="73">
+      <c r="D149" s="71"/>
+      <c r="E149" s="73"/>
+      <c r="F149" s="85"/>
+      <c r="G149" s="71"/>
+      <c r="H149" s="71"/>
+      <c r="I149" s="73"/>
+      <c r="J149" s="74">
         <v>229.0</v>
       </c>
-      <c r="K149" s="70"/>
-      <c r="L149" s="68" t="s">
+      <c r="K149" s="71"/>
+      <c r="L149" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="M149" s="70"/>
-      <c r="N149" s="74"/>
-      <c r="O149" s="70"/>
-      <c r="P149" s="70"/>
-      <c r="Q149" s="70"/>
+      <c r="M149" s="71"/>
+      <c r="N149" s="75"/>
+      <c r="O149" s="71"/>
+      <c r="P149" s="71"/>
+      <c r="Q149" s="71"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -10216,27 +10261,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="86" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>478</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="89" t="s">
         <v>480</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -10244,7 +10289,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>482</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -10256,7 +10301,7 @@
       <c r="D3" s="22"/>
     </row>
     <row r="4">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="88" t="s">
         <v>485</v>
       </c>
       <c r="B4" s="23" t="s">
@@ -10265,10 +10310,10 @@
       <c r="C4" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="90"/>
     </row>
     <row r="5">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="88" t="s">
         <v>488</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -10277,13 +10322,13 @@
       <c r="C5" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="90"/>
     </row>
     <row r="6">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="88" t="s">
         <v>491</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="91" t="s">
         <v>492</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -10292,7 +10337,7 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="88" t="s">
         <v>494</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -10301,12 +10346,12 @@
       <c r="C7" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="92" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="88" t="s">
         <v>498</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -10315,12 +10360,12 @@
       <c r="C8" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="92" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="88" t="s">
         <v>497</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -10329,12 +10374,12 @@
       <c r="C9" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="93" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="88" t="s">
         <v>503</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -10343,12 +10388,12 @@
       <c r="C10" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="92" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="88" t="s">
         <v>506</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -10357,421 +10402,421 @@
       <c r="C11" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="D11" s="93"/>
+      <c r="D11" s="94"/>
     </row>
     <row r="12">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="88" t="s">
         <v>509</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="92" t="s">
         <v>510</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="92" t="s">
         <v>511</v>
       </c>
-      <c r="D12" s="93"/>
+      <c r="D12" s="94"/>
     </row>
     <row r="13">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="88" t="s">
         <v>512</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="95" t="s">
         <v>513</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="92" t="s">
         <v>514</v>
       </c>
-      <c r="D13" s="93"/>
+      <c r="D13" s="94"/>
     </row>
     <row r="14">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="88" t="s">
         <v>515</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="95" t="s">
         <v>516</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="92" t="s">
         <v>517</v>
       </c>
-      <c r="D14" s="93"/>
+      <c r="D14" s="94"/>
     </row>
     <row r="15">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>518</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="95" t="s">
         <v>519</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="D15" s="93"/>
+      <c r="D15" s="94"/>
     </row>
     <row r="16">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="88" t="s">
         <v>521</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="95" t="s">
         <v>522</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="92" t="s">
         <v>523</v>
       </c>
-      <c r="D16" s="93"/>
+      <c r="D16" s="94"/>
     </row>
     <row r="17">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="88" t="s">
         <v>524</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="95" t="s">
         <v>525</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="92" t="s">
         <v>526</v>
       </c>
-      <c r="D17" s="93"/>
+      <c r="D17" s="94"/>
     </row>
     <row r="18">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="88" t="s">
         <v>527</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="95" t="s">
         <v>528</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="92" t="s">
         <v>529</v>
       </c>
-      <c r="D18" s="93"/>
+      <c r="D18" s="94"/>
     </row>
     <row r="19">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="88" t="s">
         <v>530</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="95" t="s">
         <v>531</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="92" t="s">
         <v>532</v>
       </c>
-      <c r="D19" s="93"/>
+      <c r="D19" s="94"/>
     </row>
     <row r="20">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="88" t="s">
         <v>533</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="95" t="s">
         <v>534</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="96" t="s">
         <v>501</v>
       </c>
-      <c r="D20" s="93"/>
+      <c r="D20" s="94"/>
     </row>
     <row r="21">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="88" t="s">
         <v>535</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="97" t="s">
         <v>536</v>
       </c>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="96" t="s">
         <v>537</v>
       </c>
-      <c r="D21" s="93"/>
+      <c r="D21" s="94"/>
     </row>
     <row r="22">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="88" t="s">
         <v>538</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="95" t="s">
         <v>539</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="98" t="s">
         <v>540</v>
       </c>
-      <c r="D22" s="91" t="s">
+      <c r="D22" s="92" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="88" t="s">
         <v>541</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="99" t="s">
         <v>542</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="100" t="s">
         <v>543</v>
       </c>
-      <c r="D23" s="93"/>
+      <c r="D23" s="94"/>
     </row>
     <row r="24">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="88" t="s">
         <v>544</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="101" t="s">
         <v>545</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="100" t="s">
         <v>546</v>
       </c>
-      <c r="D24" s="93"/>
+      <c r="D24" s="94"/>
     </row>
     <row r="25">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="88" t="s">
         <v>547</v>
       </c>
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="101" t="s">
         <v>548</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="100" t="s">
         <v>549</v>
       </c>
-      <c r="D25" s="91" t="s">
+      <c r="D25" s="92" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="88" t="s">
         <v>550</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="92" t="s">
         <v>551</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="92" t="s">
         <v>552</v>
       </c>
-      <c r="D26" s="91" t="s">
+      <c r="D26" s="92" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="88" t="s">
         <v>553</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="92" t="s">
         <v>554</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="92" t="s">
         <v>555</v>
       </c>
-      <c r="D27" s="93"/>
+      <c r="D27" s="94"/>
     </row>
     <row r="28">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="92" t="s">
         <v>556</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="92" t="s">
         <v>557</v>
       </c>
-      <c r="D28" s="93"/>
+      <c r="D28" s="94"/>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="102" t="s">
         <v>559</v>
       </c>
-      <c r="C29" s="102" t="s">
+      <c r="C29" s="103" t="s">
         <v>560</v>
       </c>
-      <c r="D29" s="102"/>
+      <c r="D29" s="103"/>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="102" t="s">
         <v>562</v>
       </c>
-      <c r="C30" s="102" t="s">
+      <c r="C30" s="103" t="s">
         <v>563</v>
       </c>
-      <c r="D30" s="102"/>
+      <c r="D30" s="103"/>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="102" t="s">
         <v>565</v>
       </c>
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="103" t="s">
         <v>566</v>
       </c>
-      <c r="D31" s="102"/>
+      <c r="D31" s="103"/>
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="102" t="s">
         <v>568</v>
       </c>
-      <c r="C32" s="102" t="s">
+      <c r="C32" s="103" t="s">
         <v>569</v>
       </c>
-      <c r="D32" s="102"/>
+      <c r="D32" s="103"/>
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="102" t="s">
         <v>571</v>
       </c>
-      <c r="C33" s="102" t="s">
+      <c r="C33" s="103" t="s">
         <v>572</v>
       </c>
-      <c r="D33" s="102"/>
+      <c r="D33" s="103"/>
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="102" t="s">
         <v>574</v>
       </c>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="103" t="s">
         <v>575</v>
       </c>
-      <c r="D34" s="102"/>
+      <c r="D34" s="103"/>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="102" t="s">
         <v>577</v>
       </c>
-      <c r="C35" s="102" t="s">
+      <c r="C35" s="103" t="s">
         <v>578</v>
       </c>
-      <c r="D35" s="102"/>
+      <c r="D35" s="103"/>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="B36" s="101" t="s">
+      <c r="B36" s="102" t="s">
         <v>580</v>
       </c>
-      <c r="C36" s="102" t="s">
+      <c r="C36" s="103" t="s">
         <v>581</v>
       </c>
-      <c r="D36" s="102"/>
+      <c r="D36" s="103"/>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="102" t="s">
         <v>583</v>
       </c>
-      <c r="C37" s="102" t="s">
+      <c r="C37" s="103" t="s">
         <v>584</v>
       </c>
-      <c r="D37" s="102"/>
+      <c r="D37" s="103"/>
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="B38" s="101" t="s">
+      <c r="B38" s="102" t="s">
         <v>586</v>
       </c>
-      <c r="C38" s="102" t="s">
+      <c r="C38" s="103" t="s">
         <v>587</v>
       </c>
-      <c r="D38" s="102"/>
+      <c r="D38" s="103"/>
     </row>
     <row r="39">
-      <c r="A39" s="103">
+      <c r="A39" s="104">
         <v>54.0</v>
       </c>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="105" t="s">
         <v>588</v>
       </c>
-      <c r="C39" s="105" t="s">
+      <c r="C39" s="106" t="s">
         <v>589</v>
       </c>
-      <c r="D39" s="106"/>
+      <c r="D39" s="107"/>
     </row>
     <row r="40">
-      <c r="A40" s="103">
+      <c r="A40" s="104">
         <v>55.0</v>
       </c>
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="105" t="s">
         <v>590</v>
       </c>
-      <c r="C40" s="105" t="s">
+      <c r="C40" s="106" t="s">
         <v>591</v>
       </c>
-      <c r="D40" s="100"/>
+      <c r="D40" s="101"/>
     </row>
     <row r="41">
-      <c r="A41" s="103">
+      <c r="A41" s="104">
         <v>56.0</v>
       </c>
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="105" t="s">
         <v>592</v>
       </c>
-      <c r="C41" s="105" t="s">
+      <c r="C41" s="106" t="s">
         <v>593</v>
       </c>
-      <c r="D41" s="106"/>
+      <c r="D41" s="107"/>
     </row>
     <row r="42">
-      <c r="A42" s="103">
+      <c r="A42" s="104">
         <v>116.0</v>
       </c>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="105" t="s">
         <v>492</v>
       </c>
-      <c r="C42" s="107" t="s">
+      <c r="C42" s="108" t="s">
         <v>594</v>
       </c>
-      <c r="D42" s="93"/>
+      <c r="D42" s="94"/>
     </row>
     <row r="43">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="109" t="s">
         <v>595</v>
       </c>
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="99" t="s">
         <v>596</v>
       </c>
-      <c r="C43" s="107" t="s">
+      <c r="C43" s="108" t="s">
         <v>597</v>
       </c>
-      <c r="D43" s="93"/>
+      <c r="D43" s="94"/>
     </row>
     <row r="44">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="109" t="s">
         <v>598</v>
       </c>
-      <c r="B44" s="98" t="s">
+      <c r="B44" s="99" t="s">
         <v>599</v>
       </c>
-      <c r="C44" s="107" t="s">
+      <c r="C44" s="108" t="s">
         <v>600</v>
       </c>
-      <c r="D44" s="93"/>
+      <c r="D44" s="94"/>
     </row>
     <row r="45">
-      <c r="A45" s="108" t="s">
+      <c r="A45" s="109" t="s">
         <v>601</v>
       </c>
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="99" t="s">
         <v>602</v>
       </c>
-      <c r="C45" s="109" t="s">
+      <c r="C45" s="110" t="s">
         <v>603</v>
       </c>
-      <c r="D45" s="93"/>
+      <c r="D45" s="94"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10796,25 +10841,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="111" t="s">
         <v>604</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="111" t="s">
         <v>605</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="111" t="s">
         <v>606</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="111" t="s">
         <v>607</v>
       </c>
     </row>
@@ -10832,10 +10877,10 @@
       <c r="E2" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="111">
+      <c r="F2" s="112">
         <v>4.0</v>
       </c>
-      <c r="G2" s="112"/>
+      <c r="G2" s="113"/>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
@@ -10851,7 +10896,7 @@
       <c r="E3" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="111">
+      <c r="F3" s="112">
         <v>4.0</v>
       </c>
       <c r="G3" s="13"/>
@@ -10870,7 +10915,7 @@
       <c r="E4" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="111">
+      <c r="F4" s="112">
         <v>4.0</v>
       </c>
       <c r="G4" s="13"/>
@@ -10889,7 +10934,7 @@
       <c r="E5" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="111">
+      <c r="F5" s="112">
         <v>4.0</v>
       </c>
       <c r="G5" s="13"/>
@@ -10908,7 +10953,7 @@
       <c r="E6" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="111">
+      <c r="F6" s="112">
         <v>4.0</v>
       </c>
       <c r="G6" s="13"/>
@@ -10927,7 +10972,7 @@
       <c r="E7" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="111">
+      <c r="F7" s="112">
         <v>4.0</v>
       </c>
       <c r="G7" s="13"/>
@@ -10946,7 +10991,7 @@
       <c r="E8" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="111">
+      <c r="F8" s="112">
         <v>4.0</v>
       </c>
       <c r="G8" s="13"/>
@@ -10965,7 +11010,7 @@
       <c r="E9" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="111">
+      <c r="F9" s="112">
         <v>4.0</v>
       </c>
       <c r="G9" s="13"/>
@@ -10984,7 +11029,7 @@
       <c r="E10" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="F10" s="111">
+      <c r="F10" s="112">
         <v>4.0</v>
       </c>
       <c r="G10" s="13"/>
@@ -11003,7 +11048,7 @@
       <c r="E11" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="F11" s="111">
+      <c r="F11" s="112">
         <v>4.0</v>
       </c>
       <c r="G11" s="13"/>
@@ -11022,7 +11067,7 @@
       <c r="E12" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="F12" s="111">
+      <c r="F12" s="112">
         <v>16.0</v>
       </c>
       <c r="G12" s="13"/>
@@ -11041,7 +11086,7 @@
       <c r="E13" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="F13" s="111">
+      <c r="F13" s="112">
         <v>16.0</v>
       </c>
       <c r="G13" s="13"/>
@@ -11060,7 +11105,7 @@
       <c r="E14" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="F14" s="111">
+      <c r="F14" s="112">
         <v>4.0</v>
       </c>
       <c r="G14" s="13"/>
@@ -11079,7 +11124,7 @@
       <c r="E15" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="F15" s="111">
+      <c r="F15" s="112">
         <v>4.0</v>
       </c>
       <c r="G15" s="13"/>
@@ -11098,7 +11143,7 @@
       <c r="E16" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="F16" s="111">
+      <c r="F16" s="112">
         <v>4.0</v>
       </c>
       <c r="G16" s="13"/>
@@ -11117,7 +11162,7 @@
       <c r="E17" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="F17" s="111">
+      <c r="F17" s="112">
         <v>4.0</v>
       </c>
       <c r="G17" s="13"/>
@@ -11136,7 +11181,7 @@
       <c r="E18" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="111">
+      <c r="F18" s="112">
         <v>4.0</v>
       </c>
       <c r="G18" s="13"/>
@@ -11155,7 +11200,7 @@
       <c r="E19" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="F19" s="111">
+      <c r="F19" s="112">
         <v>4.0</v>
       </c>
       <c r="G19" s="13"/>
@@ -11174,7 +11219,7 @@
       <c r="E20" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="F20" s="111">
+      <c r="F20" s="112">
         <v>4.0</v>
       </c>
       <c r="G20" s="13"/>
@@ -11193,45 +11238,45 @@
       <c r="E21" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="111">
+      <c r="F21" s="112">
         <v>4.0</v>
       </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="113" t="s">
+      <c r="A22" s="114" t="s">
         <v>668</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="114" t="s">
+      <c r="B22" s="38"/>
+      <c r="C22" s="115" t="s">
         <v>669</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="115" t="s">
         <v>670</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="114" t="s">
         <v>242</v>
       </c>
-      <c r="F22" s="111">
+      <c r="F22" s="112">
         <v>4.0</v>
       </c>
       <c r="G22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="114" t="s">
         <v>671</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="114" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="115" t="s">
         <v>672</v>
       </c>
-      <c r="D23" s="115" t="s">
+      <c r="D23" s="116" t="s">
         <v>673</v>
       </c>
-      <c r="E23" s="113" t="s">
+      <c r="E23" s="114" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="111">
+      <c r="F23" s="112">
         <v>4.0</v>
       </c>
       <c r="G23" s="13"/>
@@ -11250,7 +11295,7 @@
       <c r="E24" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="F24" s="111">
+      <c r="F24" s="112">
         <v>4.0</v>
       </c>
       <c r="G24" s="13"/>
@@ -11269,7 +11314,7 @@
       <c r="E25" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="F25" s="111">
+      <c r="F25" s="112">
         <v>4.0</v>
       </c>
       <c r="G25" s="13"/>
@@ -11288,7 +11333,7 @@
       <c r="E26" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="F26" s="111">
+      <c r="F26" s="112">
         <v>4.0</v>
       </c>
       <c r="G26" s="13"/>
@@ -11304,10 +11349,10 @@
       <c r="D27" s="17" t="s">
         <v>685</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="F27" s="111">
+      <c r="F27" s="112">
         <v>4.0</v>
       </c>
       <c r="G27" s="13"/>
@@ -11323,10 +11368,10 @@
       <c r="D28" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="F28" s="111">
+      <c r="F28" s="112">
         <v>4.0</v>
       </c>
       <c r="G28" s="13"/>
@@ -11342,10 +11387,10 @@
       <c r="D29" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="111">
+      <c r="F29" s="112">
         <v>4.0</v>
       </c>
       <c r="G29" s="13"/>
@@ -11361,10 +11406,10 @@
       <c r="D30" s="17" t="s">
         <v>694</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="F30" s="111">
+      <c r="F30" s="112">
         <v>4.0</v>
       </c>
       <c r="G30" s="13"/>
@@ -11380,10 +11425,10 @@
       <c r="D31" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="F31" s="111">
+      <c r="F31" s="112">
         <v>4.0</v>
       </c>
       <c r="G31" s="13"/>
@@ -11399,10 +11444,10 @@
       <c r="D32" s="17" t="s">
         <v>700</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="F32" s="111">
+      <c r="F32" s="112">
         <v>4.0</v>
       </c>
       <c r="G32" s="13"/>
@@ -11418,10 +11463,10 @@
       <c r="D33" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="F33" s="111">
+      <c r="F33" s="112">
         <v>4.0</v>
       </c>
       <c r="G33" s="13"/>
@@ -11437,16 +11482,16 @@
       <c r="D34" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="F34" s="111">
+      <c r="F34" s="112">
         <v>4.0</v>
       </c>
       <c r="G34" s="13"/>
     </row>
     <row r="35">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>707</v>
       </c>
       <c r="B35" s="13"/>
@@ -11456,16 +11501,16 @@
       <c r="D35" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="F35" s="111">
+      <c r="F35" s="112">
         <v>4.0</v>
       </c>
       <c r="G35" s="13"/>
     </row>
     <row r="36">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="42" t="s">
         <v>710</v>
       </c>
       <c r="B36" s="13"/>
@@ -11475,10 +11520,10 @@
       <c r="D36" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="42" t="s">
         <v>464</v>
       </c>
-      <c r="F36" s="111">
+      <c r="F36" s="112">
         <v>4.0</v>
       </c>
       <c r="G36" s="13"/>
@@ -11497,7 +11542,7 @@
       <c r="E37" s="32" t="s">
         <v>466</v>
       </c>
-      <c r="F37" s="111">
+      <c r="F37" s="112">
         <v>4.0</v>
       </c>
       <c r="G37" s="13"/>
@@ -11513,10 +11558,10 @@
       <c r="D38" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="42" t="s">
         <v>469</v>
       </c>
-      <c r="F38" s="111">
+      <c r="F38" s="112">
         <v>4.0</v>
       </c>
       <c r="G38" s="13"/>
@@ -11537,10 +11582,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4.0" ySplit="1.0" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E1" sqref="E1" pane="topRight"/>
+      <pane xSplit="3.0" ySplit="1.0" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1" pane="topRight"/>
       <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="E2" sqref="E2" pane="bottomRight"/>
+      <selection activeCell="D2" sqref="D2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
@@ -11552,46 +11597,46 @@
     <col customWidth="1" min="6" max="7" width="18.86"/>
     <col customWidth="1" min="9" max="9" width="4.0"/>
     <col customWidth="1" min="10" max="10" width="4.57"/>
-    <col customWidth="1" min="11" max="11" width="8.29"/>
+    <col customWidth="1" min="11" max="11" width="12.29"/>
     <col customWidth="1" min="12" max="12" width="25.86"/>
     <col customWidth="1" min="13" max="13" width="27.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="111" t="s">
         <v>719</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="111" t="s">
         <v>720</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="111" t="s">
         <v>721</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="111" t="s">
         <v>722</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="110" t="s">
+      <c r="I1" s="111" t="s">
         <v>723</v>
       </c>
-      <c r="J1" s="116" t="s">
+      <c r="J1" s="117" t="s">
         <v>724</v>
       </c>
-      <c r="K1" s="117" t="s">
+      <c r="K1" s="118" t="s">
         <v>725</v>
       </c>
-      <c r="L1" s="118" t="s">
+      <c r="L1" s="119" t="s">
         <v>726</v>
       </c>
       <c r="M1" s="19" t="s">
@@ -11621,14 +11666,14 @@
       <c r="G2" s="17" t="s">
         <v>733</v>
       </c>
-      <c r="H2" s="111">
+      <c r="H2" s="112">
         <v>100.0</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
       <c r="N2" s="19">
         <v>1.0</v>
       </c>
@@ -11640,28 +11685,28 @@
       <c r="B3" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>736</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="122"/>
+      <c r="E3" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>609</v>
       </c>
       <c r="G3" s="17"/>
-      <c r="H3" s="111">
+      <c r="H3" s="112">
         <v>4.0</v>
       </c>
       <c r="I3" s="31"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="122" t="s">
+      <c r="K3" s="120"/>
+      <c r="L3" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120">
+      <c r="M3" s="121"/>
+      <c r="N3" s="121">
         <v>2.0</v>
       </c>
     </row>
@@ -11672,29 +11717,29 @@
       <c r="B4" s="21" t="s">
         <v>738</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D4" s="123"/>
+      <c r="D4" s="124"/>
       <c r="E4" s="16" t="s">
         <v>209</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="41">
         <v>10.0</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="124" t="s">
+      <c r="K4" s="125" t="s">
         <v>740</v>
       </c>
-      <c r="L4" s="125" t="s">
+      <c r="L4" s="126" t="s">
         <v>741</v>
       </c>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120">
+      <c r="M4" s="121"/>
+      <c r="N4" s="121">
         <v>3.0</v>
       </c>
     </row>
@@ -11705,11 +11750,11 @@
       <c r="B5" s="21" t="s">
         <v>743</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F5" s="17" t="s">
@@ -11718,12 +11763,12 @@
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="125" t="s">
+      <c r="K5" s="125"/>
+      <c r="L5" s="126" t="s">
         <v>177</v>
       </c>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120">
+      <c r="M5" s="121"/>
+      <c r="N5" s="121">
         <v>4.0</v>
       </c>
     </row>
@@ -11734,7 +11779,7 @@
       <c r="B6" s="21" t="s">
         <v>745</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D6" s="17"/>
@@ -11747,14 +11792,14 @@
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="124" t="s">
+      <c r="K6" s="125" t="s">
         <v>746</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="126" t="s">
         <v>747</v>
       </c>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120">
+      <c r="M6" s="121"/>
+      <c r="N6" s="121">
         <v>5.0</v>
       </c>
     </row>
@@ -11765,11 +11810,11 @@
       <c r="B7" s="21" t="s">
         <v>749</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -11778,12 +11823,12 @@
       <c r="H7" s="11"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="125" t="s">
+      <c r="K7" s="125"/>
+      <c r="L7" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120">
+      <c r="M7" s="121"/>
+      <c r="N7" s="121">
         <v>6.0</v>
       </c>
     </row>
@@ -11794,7 +11839,7 @@
       <c r="B8" s="21" t="s">
         <v>751</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D8" s="17"/>
@@ -11807,14 +11852,14 @@
       <c r="H8" s="11"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="124" t="s">
+      <c r="K8" s="125" t="s">
         <v>752</v>
       </c>
-      <c r="L8" s="125" t="s">
+      <c r="L8" s="126" t="s">
         <v>753</v>
       </c>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120">
+      <c r="M8" s="121"/>
+      <c r="N8" s="121">
         <v>7.0</v>
       </c>
     </row>
@@ -11825,11 +11870,11 @@
       <c r="B9" s="21" t="s">
         <v>755</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F9" s="17" t="s">
@@ -11838,12 +11883,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="125" t="s">
+      <c r="K9" s="125"/>
+      <c r="L9" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120">
+      <c r="M9" s="121"/>
+      <c r="N9" s="121">
         <v>8.0</v>
       </c>
     </row>
@@ -11854,7 +11899,7 @@
       <c r="B10" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D10" s="17"/>
@@ -11867,14 +11912,14 @@
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="124" t="s">
+      <c r="K10" s="125" t="s">
         <v>752</v>
       </c>
-      <c r="L10" s="125" t="s">
+      <c r="L10" s="126" t="s">
         <v>758</v>
       </c>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120">
+      <c r="M10" s="121"/>
+      <c r="N10" s="121">
         <v>9.0</v>
       </c>
     </row>
@@ -11885,11 +11930,11 @@
       <c r="B11" s="21" t="s">
         <v>760</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F11" s="17" t="s">
@@ -11898,12 +11943,12 @@
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125" t="s">
+      <c r="K11" s="125"/>
+      <c r="L11" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120">
+      <c r="M11" s="121"/>
+      <c r="N11" s="121">
         <v>10.0</v>
       </c>
     </row>
@@ -11914,7 +11959,7 @@
       <c r="B12" s="21" t="s">
         <v>762</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D12" s="17"/>
@@ -11927,14 +11972,14 @@
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="124" t="s">
+      <c r="K12" s="125" t="s">
         <v>746</v>
       </c>
-      <c r="L12" s="125" t="s">
+      <c r="L12" s="126" t="s">
         <v>763</v>
       </c>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120">
+      <c r="M12" s="121"/>
+      <c r="N12" s="121">
         <v>11.0</v>
       </c>
     </row>
@@ -11945,11 +11990,11 @@
       <c r="B13" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F13" s="17" t="s">
@@ -11958,12 +12003,12 @@
       <c r="H13" s="11"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125" t="s">
+      <c r="K13" s="125"/>
+      <c r="L13" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120">
+      <c r="M13" s="121"/>
+      <c r="N13" s="121">
         <v>12.0</v>
       </c>
     </row>
@@ -11974,7 +12019,7 @@
       <c r="B14" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D14" s="17"/>
@@ -11987,14 +12032,14 @@
       <c r="H14" s="11"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="124" t="s">
+      <c r="K14" s="125" t="s">
         <v>746</v>
       </c>
-      <c r="L14" s="125" t="s">
+      <c r="L14" s="126" t="s">
         <v>768</v>
       </c>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120">
+      <c r="M14" s="121"/>
+      <c r="N14" s="121">
         <v>13.0</v>
       </c>
     </row>
@@ -12005,11 +12050,11 @@
       <c r="B15" s="21" t="s">
         <v>770</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F15" s="17" t="s">
@@ -12018,12 +12063,12 @@
       <c r="H15" s="11"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125" t="s">
+      <c r="K15" s="125"/>
+      <c r="L15" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120">
+      <c r="M15" s="121"/>
+      <c r="N15" s="121">
         <v>14.0</v>
       </c>
     </row>
@@ -12034,7 +12079,7 @@
       <c r="B16" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D16" s="17"/>
@@ -12047,14 +12092,14 @@
       <c r="H16" s="11"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="124" t="s">
+      <c r="K16" s="125" t="s">
         <v>746</v>
       </c>
-      <c r="L16" s="125" t="s">
+      <c r="L16" s="126" t="s">
         <v>773</v>
       </c>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120">
+      <c r="M16" s="121"/>
+      <c r="N16" s="121">
         <v>15.0</v>
       </c>
     </row>
@@ -12065,11 +12110,11 @@
       <c r="B17" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F17" s="17" t="s">
@@ -12078,12 +12123,12 @@
       <c r="H17" s="11"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="125" t="s">
+      <c r="K17" s="125"/>
+      <c r="L17" s="126" t="s">
         <v>184</v>
       </c>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120">
+      <c r="M17" s="121"/>
+      <c r="N17" s="121">
         <v>16.0</v>
       </c>
     </row>
@@ -12094,11 +12139,11 @@
       <c r="B18" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="126" t="s">
+      <c r="E18" s="16" t="s">
         <v>212</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -12110,14 +12155,14 @@
       <c r="H18" s="11"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="124" t="s">
+      <c r="K18" s="125" t="s">
         <v>779</v>
       </c>
-      <c r="L18" s="125" t="s">
+      <c r="L18" s="126" t="s">
         <v>780</v>
       </c>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120">
+      <c r="M18" s="121"/>
+      <c r="N18" s="121">
         <v>17.0</v>
       </c>
     </row>
@@ -12144,14 +12189,14 @@
       <c r="H19" s="11"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="124" t="s">
+      <c r="K19" s="125" t="s">
         <v>784</v>
       </c>
-      <c r="L19" s="125" t="s">
+      <c r="L19" s="126" t="s">
         <v>785</v>
       </c>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120">
+      <c r="M19" s="121"/>
+      <c r="N19" s="121">
         <v>18.0</v>
       </c>
     </row>
@@ -12178,19 +12223,19 @@
       <c r="H20" s="11"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="124" t="s">
+      <c r="K20" s="125" t="s">
         <v>789</v>
       </c>
-      <c r="L20" s="125" t="s">
+      <c r="L20" s="126" t="s">
         <v>790</v>
       </c>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120">
+      <c r="M20" s="121"/>
+      <c r="N20" s="121">
         <v>19.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="52" t="s">
         <v>791</v>
       </c>
       <c r="B21" s="128" t="s">
@@ -12199,30 +12244,30 @@
       <c r="C21" s="129" t="s">
         <v>736</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="41" t="s">
+      <c r="D21" s="50"/>
+      <c r="E21" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="50" t="s">
         <v>633</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="130">
         <v>6.0</v>
       </c>
       <c r="L21" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120">
+      <c r="M21" s="121"/>
+      <c r="N21" s="121">
         <v>20.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="52" t="s">
         <v>793</v>
       </c>
       <c r="B22" s="128" t="s">
@@ -12231,98 +12276,98 @@
       <c r="C22" s="129" t="s">
         <v>739</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="50" t="s">
         <v>634</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="50" t="s">
         <v>795</v>
       </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="132" t="s">
         <v>796</v>
       </c>
       <c r="L22" s="133" t="s">
         <v>797</v>
       </c>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120">
+      <c r="M22" s="121"/>
+      <c r="N22" s="121">
         <v>21.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="50" t="s">
         <v>798</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="49" t="s">
         <v>799</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="51" t="s">
         <v>736</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="41" t="s">
+      <c r="D23" s="51"/>
+      <c r="E23" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="50" t="s">
         <v>636</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="130">
         <v>6.0</v>
       </c>
       <c r="L23" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120">
+      <c r="M23" s="121"/>
+      <c r="N23" s="121">
         <v>22.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="50" t="s">
         <v>800</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="49" t="s">
         <v>801</v>
       </c>
       <c r="C24" s="129" t="s">
         <v>739</v>
       </c>
-      <c r="D24" s="48"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="50" t="s">
         <v>637</v>
       </c>
-      <c r="G24" s="48" t="s">
+      <c r="G24" s="50" t="s">
         <v>795</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="132" t="s">
         <v>796</v>
       </c>
       <c r="L24" s="131" t="s">
         <v>802</v>
       </c>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120">
+      <c r="M24" s="121"/>
+      <c r="N24" s="121">
         <v>23.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="52" t="s">
         <v>803</v>
       </c>
       <c r="B25" s="128" t="s">
@@ -12331,27 +12376,27 @@
       <c r="C25" s="129" t="s">
         <v>739</v>
       </c>
-      <c r="D25" s="48"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="50" t="s">
         <v>795</v>
       </c>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="49" t="s">
         <v>805</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
       <c r="K25" s="134" t="s">
         <v>806</v>
       </c>
       <c r="L25" s="135" t="s">
         <v>807</v>
       </c>
-      <c r="M25" s="120"/>
-      <c r="N25" s="120">
+      <c r="M25" s="121"/>
+      <c r="N25" s="121">
         <v>24.0</v>
       </c>
     </row>
@@ -12362,11 +12407,11 @@
       <c r="B26" s="21" t="s">
         <v>809</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F26" s="17" t="s">
@@ -12384,8 +12429,8 @@
       <c r="L26" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M26" s="120"/>
-      <c r="N26" s="120">
+      <c r="M26" s="121"/>
+      <c r="N26" s="121">
         <v>25.0</v>
       </c>
     </row>
@@ -12412,14 +12457,14 @@
       <c r="H27" s="11"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="124" t="s">
+      <c r="K27" s="125" t="s">
         <v>814</v>
       </c>
-      <c r="L27" s="125" t="s">
+      <c r="L27" s="126" t="s">
         <v>815</v>
       </c>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120">
+      <c r="M27" s="121"/>
+      <c r="N27" s="121">
         <v>26.0</v>
       </c>
     </row>
@@ -12430,11 +12475,11 @@
       <c r="B28" s="21" t="s">
         <v>817</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F28" s="17" t="s">
@@ -12452,8 +12497,8 @@
       <c r="L28" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120">
+      <c r="M28" s="121"/>
+      <c r="N28" s="121">
         <v>27.0</v>
       </c>
     </row>
@@ -12464,7 +12509,7 @@
       <c r="B29" s="21" t="s">
         <v>820</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D29" s="17"/>
@@ -12480,14 +12525,14 @@
       <c r="H29" s="11"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="124" t="s">
+      <c r="K29" s="125" t="s">
         <v>814</v>
       </c>
-      <c r="L29" s="125" t="s">
+      <c r="L29" s="126" t="s">
         <v>822</v>
       </c>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120">
+      <c r="M29" s="121"/>
+      <c r="N29" s="121">
         <v>28.0</v>
       </c>
     </row>
@@ -12498,7 +12543,7 @@
       <c r="B30" s="138" t="s">
         <v>824</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D30" s="139"/>
@@ -12530,7 +12575,7 @@
       <c r="B31" s="138" t="s">
         <v>830</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D31" s="139"/>
@@ -12562,7 +12607,7 @@
       <c r="B32" s="138" t="s">
         <v>834</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D32" s="139"/>
@@ -12594,7 +12639,7 @@
       <c r="B33" s="138" t="s">
         <v>836</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D33" s="139"/>
@@ -12626,7 +12671,7 @@
       <c r="B34" s="138" t="s">
         <v>840</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D34" s="139"/>
@@ -12658,7 +12703,7 @@
       <c r="B35" s="138" t="s">
         <v>842</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D35" s="139"/>
@@ -12690,7 +12735,7 @@
       <c r="B36" s="138" t="s">
         <v>846</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D36" s="139"/>
@@ -12722,7 +12767,7 @@
       <c r="B37" s="138" t="s">
         <v>850</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D37" s="139"/>
@@ -12754,7 +12799,7 @@
       <c r="B38" s="138" t="s">
         <v>854</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D38" s="139"/>
@@ -12786,11 +12831,11 @@
       <c r="B39" s="16" t="s">
         <v>859</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F39" s="17" t="s">
@@ -12802,11 +12847,11 @@
       <c r="K39" s="147">
         <v>6.0</v>
       </c>
-      <c r="L39" s="125" t="s">
+      <c r="L39" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="M39" s="120"/>
-      <c r="N39" s="120">
+      <c r="M39" s="121"/>
+      <c r="N39" s="121">
         <v>36.0</v>
       </c>
     </row>
@@ -12817,7 +12862,7 @@
       <c r="B40" s="16" t="s">
         <v>861</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D40" s="17"/>
@@ -12833,14 +12878,14 @@
       <c r="H40" s="11"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="124" t="s">
+      <c r="K40" s="125" t="s">
         <v>796</v>
       </c>
-      <c r="L40" s="125" t="s">
+      <c r="L40" s="126" t="s">
         <v>797</v>
       </c>
-      <c r="M40" s="120"/>
-      <c r="N40" s="120">
+      <c r="M40" s="121"/>
+      <c r="N40" s="121">
         <v>37.0</v>
       </c>
     </row>
@@ -12851,11 +12896,11 @@
       <c r="B41" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D41" s="17"/>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F41" s="17" t="s">
@@ -12867,11 +12912,11 @@
       <c r="K41" s="147">
         <v>6.0</v>
       </c>
-      <c r="L41" s="125" t="s">
+      <c r="L41" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="M41" s="120"/>
-      <c r="N41" s="120">
+      <c r="M41" s="121"/>
+      <c r="N41" s="121">
         <v>38.0</v>
       </c>
     </row>
@@ -12882,7 +12927,7 @@
       <c r="B42" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D42" s="17"/>
@@ -12898,14 +12943,14 @@
       <c r="H42" s="11"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="124" t="s">
+      <c r="K42" s="125" t="s">
         <v>796</v>
       </c>
-      <c r="L42" s="125" t="s">
+      <c r="L42" s="126" t="s">
         <v>802</v>
       </c>
-      <c r="M42" s="120"/>
-      <c r="N42" s="120">
+      <c r="M42" s="121"/>
+      <c r="N42" s="121">
         <v>39.0</v>
       </c>
     </row>
@@ -12916,7 +12961,7 @@
       <c r="B43" s="16" t="s">
         <v>868</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D43" s="17"/>
@@ -12933,11 +12978,11 @@
       <c r="K43" s="148" t="s">
         <v>260</v>
       </c>
-      <c r="L43" s="123" t="s">
+      <c r="L43" s="124" t="s">
         <v>869</v>
       </c>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120">
+      <c r="M43" s="121"/>
+      <c r="N43" s="121">
         <v>40.0</v>
       </c>
     </row>
@@ -12948,11 +12993,11 @@
       <c r="B44" s="16" t="s">
         <v>871</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F44" s="17" t="s">
@@ -12964,11 +13009,11 @@
       <c r="K44" s="147">
         <v>4.0</v>
       </c>
-      <c r="L44" s="125" t="s">
+      <c r="L44" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="M44" s="120"/>
-      <c r="N44" s="120">
+      <c r="M44" s="121"/>
+      <c r="N44" s="121">
         <v>41.0</v>
       </c>
     </row>
@@ -12979,7 +13024,7 @@
       <c r="B45" s="16" t="s">
         <v>873</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D45" s="17"/>
@@ -12995,31 +13040,31 @@
       <c r="H45" s="11"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="124" t="s">
+      <c r="K45" s="125" t="s">
         <v>875</v>
       </c>
-      <c r="L45" s="123" t="s">
+      <c r="L45" s="124" t="s">
         <v>876</v>
       </c>
       <c r="M45" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="N45" s="120">
+      <c r="N45" s="121">
         <v>42.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
         <v>878</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>879</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D46" s="17"/>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F46" s="17" t="s">
@@ -13031,11 +13076,11 @@
       <c r="K46" s="147">
         <v>4.0</v>
       </c>
-      <c r="L46" s="125" t="s">
+      <c r="L46" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="M46" s="120"/>
-      <c r="N46" s="120">
+      <c r="M46" s="121"/>
+      <c r="N46" s="121">
         <v>43.0</v>
       </c>
     </row>
@@ -13046,11 +13091,11 @@
       <c r="B47" s="16" t="s">
         <v>881</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="126" t="s">
+      <c r="E47" s="16" t="s">
         <v>212</v>
       </c>
       <c r="F47" s="17" t="s">
@@ -13062,16 +13107,16 @@
       <c r="H47" s="11"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="124" t="s">
+      <c r="K47" s="125" t="s">
         <v>875</v>
       </c>
-      <c r="L47" s="123" t="s">
+      <c r="L47" s="124" t="s">
         <v>882</v>
       </c>
       <c r="M47" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="N47" s="120">
+      <c r="N47" s="121">
         <v>44.0</v>
       </c>
     </row>
@@ -13082,7 +13127,7 @@
       <c r="B48" s="16" t="s">
         <v>884</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D48" s="17"/>
@@ -13101,11 +13146,11 @@
       <c r="K48" s="148" t="s">
         <v>886</v>
       </c>
-      <c r="L48" s="123" t="s">
+      <c r="L48" s="124" t="s">
         <v>887</v>
       </c>
-      <c r="M48" s="120"/>
-      <c r="N48" s="120">
+      <c r="M48" s="121"/>
+      <c r="N48" s="121">
         <v>45.0</v>
       </c>
     </row>
@@ -13116,11 +13161,11 @@
       <c r="B49" s="16" t="s">
         <v>889</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F49" s="17" t="s">
@@ -13132,11 +13177,11 @@
       <c r="K49" s="147">
         <v>6.0</v>
       </c>
-      <c r="L49" s="125" t="s">
+      <c r="L49" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="M49" s="120"/>
-      <c r="N49" s="120">
+      <c r="M49" s="121"/>
+      <c r="N49" s="121">
         <v>46.0</v>
       </c>
     </row>
@@ -13147,11 +13192,11 @@
       <c r="B50" s="16" t="s">
         <v>891</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D50" s="17"/>
-      <c r="E50" s="126" t="s">
+      <c r="E50" s="16" t="s">
         <v>212</v>
       </c>
       <c r="F50" s="17" t="s">
@@ -13163,14 +13208,14 @@
       <c r="H50" s="11"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
-      <c r="K50" s="124" t="s">
+      <c r="K50" s="125" t="s">
         <v>893</v>
       </c>
-      <c r="L50" s="125" t="s">
+      <c r="L50" s="126" t="s">
         <v>894</v>
       </c>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120">
+      <c r="M50" s="121"/>
+      <c r="N50" s="121">
         <v>47.0</v>
       </c>
     </row>
@@ -13181,11 +13226,11 @@
       <c r="B51" s="16" t="s">
         <v>896</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="37" t="s">
         <v>736</v>
       </c>
       <c r="D51" s="17"/>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F51" s="17" t="s">
@@ -13197,11 +13242,11 @@
       <c r="K51" s="147">
         <v>6.0</v>
       </c>
-      <c r="L51" s="125" t="s">
+      <c r="L51" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="M51" s="120"/>
-      <c r="N51" s="120">
+      <c r="M51" s="121"/>
+      <c r="N51" s="121">
         <v>48.0</v>
       </c>
     </row>
@@ -13212,7 +13257,7 @@
       <c r="B52" s="16" t="s">
         <v>898</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D52" s="17"/>
@@ -13228,14 +13273,14 @@
       <c r="H52" s="11"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
-      <c r="K52" s="124" t="s">
+      <c r="K52" s="125" t="s">
         <v>893</v>
       </c>
-      <c r="L52" s="125" t="s">
+      <c r="L52" s="126" t="s">
         <v>899</v>
       </c>
-      <c r="M52" s="120"/>
-      <c r="N52" s="120">
+      <c r="M52" s="121"/>
+      <c r="N52" s="121">
         <v>49.0</v>
       </c>
     </row>
@@ -13246,7 +13291,7 @@
       <c r="B53" s="16" t="s">
         <v>901</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="37" t="s">
         <v>739</v>
       </c>
       <c r="D53" s="17"/>
@@ -13265,11 +13310,11 @@
       <c r="K53" s="148" t="s">
         <v>260</v>
       </c>
-      <c r="L53" s="123" t="s">
+      <c r="L53" s="124" t="s">
         <v>903</v>
       </c>
-      <c r="M53" s="120"/>
-      <c r="N53" s="120">
+      <c r="M53" s="121"/>
+      <c r="N53" s="121">
         <v>50.0</v>
       </c>
     </row>
@@ -13280,10 +13325,10 @@
       <c r="B54" s="16" t="s">
         <v>905</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D54" s="122" t="s">
+      <c r="D54" s="123" t="s">
         <v>906</v>
       </c>
       <c r="E54" s="21"/>
@@ -13293,39 +13338,39 @@
       <c r="G54" s="17" t="s">
         <v>908</v>
       </c>
-      <c r="H54" s="40">
+      <c r="H54" s="41">
         <v>100.0</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="120"/>
-      <c r="N54" s="120">
+      <c r="K54" s="125"/>
+      <c r="L54" s="126"/>
+      <c r="M54" s="121"/>
+      <c r="N54" s="121">
         <v>51.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="113" t="s">
+      <c r="A55" s="114" t="s">
         <v>909</v>
       </c>
-      <c r="B55" s="115" t="s">
+      <c r="B55" s="116" t="s">
         <v>910</v>
       </c>
       <c r="C55" s="149" t="s">
         <v>736</v>
       </c>
       <c r="D55" s="150"/>
-      <c r="E55" s="41" t="s">
+      <c r="E55" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F55" s="114" t="s">
+      <c r="F55" s="115" t="s">
         <v>911</v>
       </c>
       <c r="G55" s="151"/>
       <c r="H55" s="152"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
       <c r="K55" s="153">
         <v>0.0</v>
       </c>
@@ -13333,31 +13378,31 @@
         <v>310</v>
       </c>
       <c r="M55" s="155"/>
-      <c r="N55" s="120">
+      <c r="N55" s="121">
         <v>52.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="113" t="s">
+      <c r="A56" s="114" t="s">
         <v>912</v>
       </c>
-      <c r="B56" s="115" t="s">
+      <c r="B56" s="116" t="s">
         <v>913</v>
       </c>
       <c r="C56" s="149" t="s">
         <v>736</v>
       </c>
       <c r="D56" s="150"/>
-      <c r="E56" s="41" t="s">
+      <c r="E56" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F56" s="114" t="s">
+      <c r="F56" s="115" t="s">
         <v>914</v>
       </c>
       <c r="G56" s="151"/>
       <c r="H56" s="152"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
       <c r="K56" s="153">
         <v>0.0</v>
       </c>
@@ -13365,31 +13410,31 @@
         <v>314</v>
       </c>
       <c r="M56" s="155"/>
-      <c r="N56" s="120">
+      <c r="N56" s="121">
         <v>53.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="113" t="s">
+      <c r="A57" s="114" t="s">
         <v>915</v>
       </c>
-      <c r="B57" s="115" t="s">
+      <c r="B57" s="116" t="s">
         <v>916</v>
       </c>
       <c r="C57" s="149" t="s">
         <v>736</v>
       </c>
       <c r="D57" s="150"/>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F57" s="114" t="s">
+      <c r="F57" s="115" t="s">
         <v>917</v>
       </c>
       <c r="G57" s="151"/>
       <c r="H57" s="152"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
       <c r="K57" s="153">
         <v>0.0</v>
       </c>
@@ -13397,31 +13442,31 @@
         <v>318</v>
       </c>
       <c r="M57" s="155"/>
-      <c r="N57" s="120">
+      <c r="N57" s="121">
         <v>54.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="113" t="s">
+      <c r="A58" s="114" t="s">
         <v>918</v>
       </c>
-      <c r="B58" s="115" t="s">
+      <c r="B58" s="116" t="s">
         <v>919</v>
       </c>
       <c r="C58" s="149" t="s">
         <v>736</v>
       </c>
       <c r="D58" s="150"/>
-      <c r="E58" s="41" t="s">
+      <c r="E58" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F58" s="114" t="s">
+      <c r="F58" s="115" t="s">
         <v>920</v>
       </c>
       <c r="G58" s="151"/>
       <c r="H58" s="152"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
       <c r="K58" s="153">
         <v>0.0</v>
       </c>
@@ -13429,31 +13474,31 @@
         <v>322</v>
       </c>
       <c r="M58" s="155"/>
-      <c r="N58" s="120">
+      <c r="N58" s="121">
         <v>55.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="113" t="s">
+      <c r="A59" s="114" t="s">
         <v>921</v>
       </c>
-      <c r="B59" s="115" t="s">
+      <c r="B59" s="116" t="s">
         <v>922</v>
       </c>
       <c r="C59" s="149" t="s">
         <v>736</v>
       </c>
       <c r="D59" s="150"/>
-      <c r="E59" s="41" t="s">
+      <c r="E59" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F59" s="114" t="s">
+      <c r="F59" s="115" t="s">
         <v>923</v>
       </c>
       <c r="G59" s="151"/>
       <c r="H59" s="152"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
       <c r="K59" s="153">
         <v>0.0</v>
       </c>
@@ -13461,31 +13506,31 @@
         <v>326</v>
       </c>
       <c r="M59" s="155"/>
-      <c r="N59" s="120">
+      <c r="N59" s="121">
         <v>56.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="113" t="s">
+      <c r="A60" s="114" t="s">
         <v>924</v>
       </c>
-      <c r="B60" s="115" t="s">
+      <c r="B60" s="116" t="s">
         <v>925</v>
       </c>
       <c r="C60" s="149" t="s">
         <v>736</v>
       </c>
       <c r="D60" s="150"/>
-      <c r="E60" s="41" t="s">
+      <c r="E60" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F60" s="114" t="s">
+      <c r="F60" s="115" t="s">
         <v>926</v>
       </c>
       <c r="G60" s="151"/>
       <c r="H60" s="152"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
       <c r="K60" s="153">
         <v>0.0</v>
       </c>
@@ -13493,7 +13538,7 @@
         <v>330</v>
       </c>
       <c r="M60" s="155"/>
-      <c r="N60" s="120">
+      <c r="N60" s="121">
         <v>57.0</v>
       </c>
     </row>
@@ -13501,7 +13546,7 @@
       <c r="A61" s="156" t="s">
         <v>927</v>
       </c>
-      <c r="B61" s="115" t="s">
+      <c r="B61" s="116" t="s">
         <v>928</v>
       </c>
       <c r="C61" s="149" t="s">
@@ -13511,13 +13556,13 @@
       <c r="E61" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="114" t="s">
+      <c r="F61" s="115" t="s">
         <v>929</v>
       </c>
       <c r="G61" s="151"/>
       <c r="H61" s="152"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
       <c r="K61" s="153">
         <v>0.0</v>
       </c>
@@ -13525,22 +13570,22 @@
         <v>334</v>
       </c>
       <c r="M61" s="155"/>
-      <c r="N61" s="120">
+      <c r="N61" s="121">
         <v>58.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="42" t="s">
         <v>930</v>
       </c>
-      <c r="B62" s="126" t="s">
+      <c r="B62" s="16" t="s">
         <v>931</v>
       </c>
       <c r="C62" s="127" t="s">
         <v>736</v>
       </c>
-      <c r="D62" s="122"/>
-      <c r="E62" s="41" t="s">
+      <c r="D62" s="123"/>
+      <c r="E62" s="42" t="s">
         <v>217</v>
       </c>
       <c r="F62" s="17" t="s">
@@ -13558,23 +13603,23 @@
       <c r="L62" s="157" t="s">
         <v>933</v>
       </c>
-      <c r="M62" s="120"/>
-      <c r="N62" s="120">
+      <c r="M62" s="121"/>
+      <c r="N62" s="121">
         <v>59.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="42" t="s">
         <v>934</v>
       </c>
-      <c r="B63" s="126" t="s">
+      <c r="B63" s="16" t="s">
         <v>935</v>
       </c>
       <c r="C63" s="127" t="s">
         <v>736</v>
       </c>
-      <c r="D63" s="122"/>
-      <c r="E63" s="41" t="s">
+      <c r="D63" s="123"/>
+      <c r="E63" s="42" t="s">
         <v>217</v>
       </c>
       <c r="F63" s="17" t="s">
@@ -13592,22 +13637,22 @@
       <c r="L63" s="157" t="s">
         <v>936</v>
       </c>
-      <c r="M63" s="120"/>
-      <c r="N63" s="120">
+      <c r="M63" s="121"/>
+      <c r="N63" s="121">
         <v>60.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="42" t="s">
         <v>937</v>
       </c>
-      <c r="B64" s="126" t="s">
+      <c r="B64" s="16" t="s">
         <v>938</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D64" s="122"/>
+      <c r="D64" s="123"/>
       <c r="E64" s="16" t="s">
         <v>212</v>
       </c>
@@ -13626,22 +13671,22 @@
       <c r="L64" s="157" t="s">
         <v>941</v>
       </c>
-      <c r="M64" s="120"/>
-      <c r="N64" s="120">
+      <c r="M64" s="121"/>
+      <c r="N64" s="121">
         <v>61.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="42" t="s">
         <v>942</v>
       </c>
-      <c r="B65" s="126" t="s">
+      <c r="B65" s="16" t="s">
         <v>943</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D65" s="122"/>
+      <c r="D65" s="123"/>
       <c r="E65" s="16" t="s">
         <v>209</v>
       </c>
@@ -13660,22 +13705,22 @@
       <c r="L65" s="157" t="s">
         <v>946</v>
       </c>
-      <c r="M65" s="120"/>
-      <c r="N65" s="120">
+      <c r="M65" s="121"/>
+      <c r="N65" s="121">
         <v>62.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="42" t="s">
         <v>947</v>
       </c>
-      <c r="B66" s="126" t="s">
+      <c r="B66" s="16" t="s">
         <v>948</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D66" s="122"/>
+      <c r="D66" s="123"/>
       <c r="E66" s="16" t="s">
         <v>209</v>
       </c>
@@ -13694,22 +13739,22 @@
       <c r="L66" s="157" t="s">
         <v>946</v>
       </c>
-      <c r="M66" s="120"/>
-      <c r="N66" s="120">
+      <c r="M66" s="121"/>
+      <c r="N66" s="121">
         <v>63.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="B67" s="126" t="s">
+      <c r="B67" s="16" t="s">
         <v>952</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D67" s="122"/>
+      <c r="D67" s="123"/>
       <c r="E67" s="16" t="s">
         <v>209</v>
       </c>
@@ -13728,22 +13773,22 @@
       <c r="L67" s="157" t="s">
         <v>946</v>
       </c>
-      <c r="M67" s="120"/>
-      <c r="N67" s="120">
+      <c r="M67" s="121"/>
+      <c r="N67" s="121">
         <v>64.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="42" t="s">
         <v>955</v>
       </c>
-      <c r="B68" s="126" t="s">
+      <c r="B68" s="16" t="s">
         <v>956</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D68" s="122"/>
+      <c r="D68" s="123"/>
       <c r="E68" s="16" t="s">
         <v>209</v>
       </c>
@@ -13762,22 +13807,22 @@
       <c r="L68" s="157" t="s">
         <v>946</v>
       </c>
-      <c r="M68" s="120"/>
-      <c r="N68" s="120">
+      <c r="M68" s="121"/>
+      <c r="N68" s="121">
         <v>65.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="42" t="s">
         <v>959</v>
       </c>
-      <c r="B69" s="126" t="s">
+      <c r="B69" s="16" t="s">
         <v>960</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D69" s="122"/>
+      <c r="D69" s="123"/>
       <c r="E69" s="16" t="s">
         <v>209</v>
       </c>
@@ -13796,22 +13841,22 @@
       <c r="L69" s="157" t="s">
         <v>946</v>
       </c>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120">
+      <c r="M69" s="121"/>
+      <c r="N69" s="121">
         <v>66.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="42" t="s">
         <v>963</v>
       </c>
-      <c r="B70" s="126" t="s">
+      <c r="B70" s="16" t="s">
         <v>964</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D70" s="122"/>
+      <c r="D70" s="123"/>
       <c r="E70" s="16" t="s">
         <v>212</v>
       </c>
@@ -13830,22 +13875,22 @@
       <c r="L70" s="157" t="s">
         <v>966</v>
       </c>
-      <c r="M70" s="120"/>
-      <c r="N70" s="120">
+      <c r="M70" s="121"/>
+      <c r="N70" s="121">
         <v>67.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="42" t="s">
         <v>967</v>
       </c>
-      <c r="B71" s="126" t="s">
+      <c r="B71" s="16" t="s">
         <v>968</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D71" s="122"/>
+      <c r="D71" s="123"/>
       <c r="E71" s="16" t="s">
         <v>209</v>
       </c>
@@ -13864,22 +13909,22 @@
       <c r="L71" s="157" t="s">
         <v>970</v>
       </c>
-      <c r="M71" s="120"/>
-      <c r="N71" s="120">
+      <c r="M71" s="121"/>
+      <c r="N71" s="121">
         <v>68.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="42" t="s">
         <v>971</v>
       </c>
-      <c r="B72" s="126" t="s">
+      <c r="B72" s="16" t="s">
         <v>972</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D72" s="122"/>
+      <c r="D72" s="123"/>
       <c r="E72" s="16" t="s">
         <v>209</v>
       </c>
@@ -13898,22 +13943,22 @@
       <c r="L72" s="157" t="s">
         <v>970</v>
       </c>
-      <c r="M72" s="120"/>
-      <c r="N72" s="120">
+      <c r="M72" s="121"/>
+      <c r="N72" s="121">
         <v>69.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="42" t="s">
         <v>974</v>
       </c>
-      <c r="B73" s="126" t="s">
+      <c r="B73" s="16" t="s">
         <v>975</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D73" s="122"/>
+      <c r="D73" s="123"/>
       <c r="E73" s="16" t="s">
         <v>209</v>
       </c>
@@ -13932,22 +13977,22 @@
       <c r="L73" s="157" t="s">
         <v>970</v>
       </c>
-      <c r="M73" s="120"/>
-      <c r="N73" s="120">
+      <c r="M73" s="121"/>
+      <c r="N73" s="121">
         <v>70.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="42" t="s">
         <v>977</v>
       </c>
-      <c r="B74" s="126" t="s">
+      <c r="B74" s="16" t="s">
         <v>978</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D74" s="122"/>
+      <c r="D74" s="123"/>
       <c r="E74" s="16" t="s">
         <v>209</v>
       </c>
@@ -13966,22 +14011,22 @@
       <c r="L74" s="157" t="s">
         <v>970</v>
       </c>
-      <c r="M74" s="120"/>
-      <c r="N74" s="120">
+      <c r="M74" s="121"/>
+      <c r="N74" s="121">
         <v>71.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="42" t="s">
         <v>980</v>
       </c>
-      <c r="B75" s="126" t="s">
+      <c r="B75" s="16" t="s">
         <v>981</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D75" s="122"/>
+      <c r="D75" s="123"/>
       <c r="E75" s="16" t="s">
         <v>209</v>
       </c>
@@ -14000,382 +14045,382 @@
       <c r="L75" s="157" t="s">
         <v>970</v>
       </c>
-      <c r="M75" s="120"/>
-      <c r="N75" s="120">
+      <c r="M75" s="121"/>
+      <c r="N75" s="121">
         <v>72.0</v>
       </c>
     </row>
     <row r="76" ht="45.0" customHeight="1">
-      <c r="A76" s="61" t="s">
+      <c r="A76" s="62" t="s">
         <v>983</v>
       </c>
-      <c r="B76" s="158" t="s">
+      <c r="B76" s="36" t="s">
         <v>984</v>
       </c>
       <c r="C76" s="127" t="s">
         <v>736</v>
       </c>
-      <c r="D76" s="62"/>
+      <c r="D76" s="63"/>
       <c r="E76" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="F76" s="56" t="s">
+      <c r="F76" s="36" t="s">
         <v>932</v>
       </c>
-      <c r="G76" s="61" t="s">
+      <c r="G76" s="62" t="s">
         <v>985</v>
       </c>
-      <c r="H76" s="159"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="160" t="s">
+      <c r="H76" s="158"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="159" t="s">
         <v>986</v>
       </c>
-      <c r="L76" s="161" t="s">
+      <c r="L76" s="160" t="s">
         <v>987</v>
       </c>
-      <c r="M76" s="162"/>
-      <c r="N76" s="120">
+      <c r="M76" s="161"/>
+      <c r="N76" s="121">
         <v>73.0</v>
       </c>
     </row>
     <row r="77" ht="18.0" customHeight="1">
-      <c r="A77" s="163" t="s">
+      <c r="A77" s="44" t="s">
         <v>988</v>
       </c>
-      <c r="B77" s="158" t="s">
+      <c r="B77" s="36" t="s">
         <v>989</v>
       </c>
       <c r="C77" s="127" t="s">
         <v>736</v>
       </c>
-      <c r="D77" s="164"/>
+      <c r="D77" s="162"/>
       <c r="E77" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F77" s="56" t="s">
+      <c r="F77" s="36" t="s">
         <v>985</v>
       </c>
-      <c r="G77" s="61" t="s">
+      <c r="G77" s="62" t="s">
         <v>990</v>
       </c>
-      <c r="H77" s="159"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="58"/>
-      <c r="K77" s="160" t="s">
+      <c r="H77" s="158"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="159" t="s">
         <v>991</v>
       </c>
-      <c r="L77" s="161" t="s">
+      <c r="L77" s="160" t="s">
         <v>992</v>
       </c>
-      <c r="M77" s="162"/>
-      <c r="N77" s="120">
+      <c r="M77" s="161"/>
+      <c r="N77" s="121">
         <v>74.0</v>
       </c>
     </row>
     <row r="78" ht="18.0" customHeight="1">
-      <c r="A78" s="163" t="s">
+      <c r="A78" s="44" t="s">
         <v>993</v>
       </c>
-      <c r="B78" s="158" t="s">
+      <c r="B78" s="36" t="s">
         <v>994</v>
       </c>
       <c r="C78" s="127" t="s">
         <v>736</v>
       </c>
-      <c r="D78" s="164"/>
+      <c r="D78" s="162"/>
       <c r="E78" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F78" s="56" t="s">
+      <c r="F78" s="36" t="s">
         <v>985</v>
       </c>
-      <c r="G78" s="61" t="s">
+      <c r="G78" s="62" t="s">
         <v>995</v>
       </c>
-      <c r="H78" s="159"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="160" t="s">
+      <c r="H78" s="158"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="159" t="s">
         <v>996</v>
       </c>
-      <c r="L78" s="165" t="s">
+      <c r="L78" s="163" t="s">
         <v>997</v>
       </c>
-      <c r="M78" s="162"/>
-      <c r="N78" s="120">
+      <c r="M78" s="161"/>
+      <c r="N78" s="121">
         <v>75.0</v>
       </c>
     </row>
     <row r="79" ht="18.0" customHeight="1">
-      <c r="A79" s="163" t="s">
+      <c r="A79" s="44" t="s">
         <v>998</v>
       </c>
-      <c r="B79" s="158" t="s">
+      <c r="B79" s="36" t="s">
         <v>999</v>
       </c>
       <c r="C79" s="127" t="s">
         <v>736</v>
       </c>
-      <c r="D79" s="164"/>
+      <c r="D79" s="162"/>
       <c r="E79" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F79" s="56" t="s">
+      <c r="F79" s="36" t="s">
         <v>985</v>
       </c>
-      <c r="G79" s="61" t="s">
+      <c r="G79" s="62" t="s">
         <v>1000</v>
       </c>
-      <c r="H79" s="159"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="160" t="s">
+      <c r="H79" s="158"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="159" t="s">
         <v>1001</v>
       </c>
-      <c r="L79" s="165" t="s">
+      <c r="L79" s="163" t="s">
         <v>1002</v>
       </c>
-      <c r="M79" s="162"/>
-      <c r="N79" s="120">
+      <c r="M79" s="161"/>
+      <c r="N79" s="121">
         <v>76.0</v>
       </c>
     </row>
     <row r="80" ht="18.0" customHeight="1">
-      <c r="A80" s="163" t="s">
+      <c r="A80" s="44" t="s">
         <v>1003</v>
       </c>
-      <c r="B80" s="158" t="s">
+      <c r="B80" s="36" t="s">
         <v>1004</v>
       </c>
-      <c r="C80" s="59" t="s">
+      <c r="C80" s="60" t="s">
         <v>736</v>
       </c>
-      <c r="D80" s="164"/>
+      <c r="D80" s="162"/>
       <c r="E80" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F80" s="56" t="s">
+      <c r="F80" s="36" t="s">
         <v>985</v>
       </c>
-      <c r="G80" s="61" t="s">
+      <c r="G80" s="62" t="s">
         <v>1005</v>
       </c>
-      <c r="H80" s="159"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58"/>
-      <c r="K80" s="160" t="s">
+      <c r="H80" s="158"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
+      <c r="K80" s="159" t="s">
         <v>991</v>
       </c>
-      <c r="L80" s="161" t="s">
+      <c r="L80" s="160" t="s">
         <v>1006</v>
       </c>
-      <c r="M80" s="162"/>
-      <c r="N80" s="120">
+      <c r="M80" s="161"/>
+      <c r="N80" s="121">
         <v>77.0</v>
       </c>
     </row>
     <row r="81" ht="18.0" customHeight="1">
-      <c r="A81" s="163" t="s">
+      <c r="A81" s="44" t="s">
         <v>1007</v>
       </c>
-      <c r="B81" s="158" t="s">
+      <c r="B81" s="36" t="s">
         <v>1008</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="60" t="s">
         <v>736</v>
       </c>
-      <c r="D81" s="164"/>
+      <c r="D81" s="162"/>
       <c r="E81" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F81" s="56" t="s">
+      <c r="F81" s="36" t="s">
         <v>985</v>
       </c>
-      <c r="G81" s="61" t="s">
+      <c r="G81" s="62" t="s">
         <v>1009</v>
       </c>
-      <c r="H81" s="159"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
-      <c r="K81" s="160" t="s">
+      <c r="H81" s="158"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="159" t="s">
         <v>996</v>
       </c>
-      <c r="L81" s="165" t="s">
+      <c r="L81" s="163" t="s">
         <v>1010</v>
       </c>
-      <c r="M81" s="162"/>
-      <c r="N81" s="120">
+      <c r="M81" s="161"/>
+      <c r="N81" s="121">
         <v>78.0</v>
       </c>
     </row>
     <row r="82" ht="18.0" customHeight="1">
-      <c r="A82" s="163" t="s">
+      <c r="A82" s="44" t="s">
         <v>1011</v>
       </c>
-      <c r="B82" s="158" t="s">
+      <c r="B82" s="36" t="s">
         <v>1012</v>
       </c>
-      <c r="C82" s="59" t="s">
+      <c r="C82" s="60" t="s">
         <v>736</v>
       </c>
-      <c r="D82" s="164"/>
+      <c r="D82" s="162"/>
       <c r="E82" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F82" s="56" t="s">
+      <c r="F82" s="36" t="s">
         <v>985</v>
       </c>
-      <c r="G82" s="61" t="s">
+      <c r="G82" s="62" t="s">
         <v>1013</v>
       </c>
-      <c r="H82" s="54" t="s">
+      <c r="H82" s="56" t="s">
         <v>1014</v>
       </c>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="160" t="s">
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="159" t="s">
         <v>1001</v>
       </c>
-      <c r="L82" s="165" t="s">
+      <c r="L82" s="163" t="s">
         <v>1015</v>
       </c>
-      <c r="M82" s="162"/>
-      <c r="N82" s="120">
+      <c r="M82" s="161"/>
+      <c r="N82" s="121">
         <v>79.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="113" t="s">
+      <c r="A83" s="114" t="s">
         <v>1016</v>
       </c>
-      <c r="B83" s="115" t="s">
+      <c r="B83" s="116" t="s">
         <v>1017</v>
       </c>
       <c r="C83" s="149" t="s">
         <v>736</v>
       </c>
-      <c r="D83" s="114"/>
-      <c r="E83" s="41" t="s">
+      <c r="D83" s="115"/>
+      <c r="E83" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F83" s="114" t="s">
+      <c r="F83" s="115" t="s">
         <v>678</v>
       </c>
-      <c r="G83" s="37"/>
+      <c r="G83" s="38"/>
       <c r="H83" s="152"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="166">
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="164">
         <v>0.0</v>
       </c>
       <c r="L83" s="154" t="s">
         <v>403</v>
       </c>
       <c r="M83" s="155"/>
-      <c r="N83" s="120">
+      <c r="N83" s="121">
         <v>80.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="74" t="s">
+      <c r="A84" s="75" t="s">
         <v>1018</v>
       </c>
-      <c r="B84" s="68" t="s">
+      <c r="B84" s="69" t="s">
         <v>1019</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D84" s="72"/>
+      <c r="D84" s="73"/>
       <c r="E84" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F84" s="68" t="s">
+      <c r="F84" s="69" t="s">
         <v>679</v>
       </c>
-      <c r="G84" s="76" t="s">
+      <c r="G84" s="77" t="s">
         <v>1020</v>
       </c>
-      <c r="H84" s="72"/>
-      <c r="I84" s="70"/>
-      <c r="J84" s="70"/>
-      <c r="K84" s="167" t="s">
+      <c r="H84" s="73"/>
+      <c r="I84" s="71"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="165" t="s">
         <v>260</v>
       </c>
-      <c r="L84" s="168" t="s">
+      <c r="L84" s="166" t="s">
         <v>1021</v>
       </c>
-      <c r="M84" s="169"/>
-      <c r="N84" s="120">
+      <c r="M84" s="167"/>
+      <c r="N84" s="121">
         <v>81.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="74" t="s">
+      <c r="A85" s="75" t="s">
         <v>1022</v>
       </c>
-      <c r="B85" s="68" t="s">
+      <c r="B85" s="69" t="s">
         <v>1023</v>
       </c>
-      <c r="C85" s="170" t="s">
+      <c r="C85" s="168" t="s">
         <v>739</v>
       </c>
-      <c r="D85" s="72"/>
+      <c r="D85" s="73"/>
       <c r="E85" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F85" s="68" t="s">
+      <c r="F85" s="69" t="s">
         <v>1020</v>
       </c>
-      <c r="G85" s="76" t="s">
+      <c r="G85" s="77" t="s">
         <v>1024</v>
       </c>
-      <c r="H85" s="72"/>
-      <c r="I85" s="70"/>
-      <c r="J85" s="70"/>
-      <c r="K85" s="167" t="s">
+      <c r="H85" s="73"/>
+      <c r="I85" s="71"/>
+      <c r="J85" s="71"/>
+      <c r="K85" s="165" t="s">
         <v>996</v>
       </c>
-      <c r="L85" s="168" t="s">
+      <c r="L85" s="166" t="s">
         <v>997</v>
       </c>
-      <c r="M85" s="169"/>
-      <c r="N85" s="120">
+      <c r="M85" s="167"/>
+      <c r="N85" s="121">
         <v>82.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="74" t="s">
+      <c r="A86" s="75" t="s">
         <v>1025</v>
       </c>
-      <c r="B86" s="68" t="s">
+      <c r="B86" s="69" t="s">
         <v>1026</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D86" s="72"/>
+      <c r="D86" s="73"/>
       <c r="E86" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F86" s="68" t="s">
+      <c r="F86" s="69" t="s">
         <v>1020</v>
       </c>
-      <c r="G86" s="76" t="s">
+      <c r="G86" s="77" t="s">
         <v>1027</v>
       </c>
-      <c r="H86" s="72"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70"/>
-      <c r="K86" s="167" t="s">
+      <c r="H86" s="73"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="165" t="s">
         <v>996</v>
       </c>
-      <c r="L86" s="168" t="s">
+      <c r="L86" s="166" t="s">
         <v>1028</v>
       </c>
-      <c r="M86" s="169"/>
-      <c r="N86" s="120">
+      <c r="M86" s="167"/>
+      <c r="N86" s="121">
         <v>83.0</v>
       </c>
     </row>
@@ -14386,11 +14431,11 @@
       <c r="B87" s="16" t="s">
         <v>1030</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="37" t="s">
         <v>736</v>
       </c>
-      <c r="D87" s="122"/>
-      <c r="E87" s="41" t="s">
+      <c r="D87" s="123"/>
+      <c r="E87" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F87" s="17" t="s">
@@ -14402,22 +14447,22 @@
       <c r="K87" s="147">
         <v>0.0</v>
       </c>
-      <c r="L87" s="123" t="s">
+      <c r="L87" s="124" t="s">
         <v>395</v>
       </c>
-      <c r="M87" s="120"/>
-      <c r="N87" s="120">
+      <c r="M87" s="121"/>
+      <c r="N87" s="121">
         <v>84.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="41" t="s">
+      <c r="A88" s="42" t="s">
         <v>1031</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>1032</v>
       </c>
-      <c r="C88" s="56" t="s">
+      <c r="C88" s="36" t="s">
         <v>739</v>
       </c>
       <c r="D88" s="17"/>
@@ -14439,19 +14484,19 @@
       <c r="L88" s="157" t="s">
         <v>1034</v>
       </c>
-      <c r="M88" s="120"/>
-      <c r="N88" s="120">
+      <c r="M88" s="121"/>
+      <c r="N88" s="121">
         <v>85.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="41" t="s">
+      <c r="A89" s="42" t="s">
         <v>1035</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>1036</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="36" t="s">
         <v>739</v>
       </c>
       <c r="D89" s="17"/>
@@ -14470,22 +14515,22 @@
       <c r="K89" s="148" t="s">
         <v>1038</v>
       </c>
-      <c r="L89" s="171" t="s">
+      <c r="L89" s="169" t="s">
         <v>1039</v>
       </c>
-      <c r="M89" s="120"/>
-      <c r="N89" s="120">
+      <c r="M89" s="121"/>
+      <c r="N89" s="121">
         <v>86.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="41" t="s">
+      <c r="A90" s="42" t="s">
         <v>1040</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>1041</v>
       </c>
-      <c r="C90" s="56" t="s">
+      <c r="C90" s="36" t="s">
         <v>739</v>
       </c>
       <c r="D90" s="17"/>
@@ -14507,8 +14552,8 @@
       <c r="L90" s="157" t="s">
         <v>1043</v>
       </c>
-      <c r="M90" s="120"/>
-      <c r="N90" s="120">
+      <c r="M90" s="121"/>
+      <c r="N90" s="121">
         <v>87.0</v>
       </c>
     </row>
@@ -14523,7 +14568,7 @@
         <v>736</v>
       </c>
       <c r="D91" s="17"/>
-      <c r="E91" s="41" t="s">
+      <c r="E91" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F91" s="17" t="s">
@@ -14538,11 +14583,11 @@
       <c r="K91" s="147">
         <v>0.0</v>
       </c>
-      <c r="L91" s="172" t="s">
+      <c r="L91" s="170" t="s">
         <v>310</v>
       </c>
-      <c r="M91" s="120"/>
-      <c r="N91" s="120">
+      <c r="M91" s="121"/>
+      <c r="N91" s="121">
         <v>88.0</v>
       </c>
     </row>
@@ -14557,7 +14602,7 @@
         <v>736</v>
       </c>
       <c r="D92" s="17"/>
-      <c r="E92" s="41" t="s">
+      <c r="E92" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F92" s="17" t="s">
@@ -14572,11 +14617,11 @@
       <c r="K92" s="147">
         <v>0.0</v>
       </c>
-      <c r="L92" s="172" t="s">
+      <c r="L92" s="170" t="s">
         <v>314</v>
       </c>
-      <c r="M92" s="120"/>
-      <c r="N92" s="120">
+      <c r="M92" s="121"/>
+      <c r="N92" s="121">
         <v>89.0</v>
       </c>
     </row>
@@ -14591,7 +14636,7 @@
         <v>736</v>
       </c>
       <c r="D93" s="17"/>
-      <c r="E93" s="41" t="s">
+      <c r="E93" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F93" s="17" t="s">
@@ -14606,11 +14651,11 @@
       <c r="K93" s="147">
         <v>0.0</v>
       </c>
-      <c r="L93" s="172" t="s">
+      <c r="L93" s="170" t="s">
         <v>318</v>
       </c>
-      <c r="M93" s="120"/>
-      <c r="N93" s="120">
+      <c r="M93" s="121"/>
+      <c r="N93" s="121">
         <v>90.0</v>
       </c>
     </row>
@@ -14625,7 +14670,7 @@
         <v>736</v>
       </c>
       <c r="D94" s="17"/>
-      <c r="E94" s="41" t="s">
+      <c r="E94" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F94" s="17" t="s">
@@ -14640,11 +14685,11 @@
       <c r="K94" s="147">
         <v>0.0</v>
       </c>
-      <c r="L94" s="172" t="s">
+      <c r="L94" s="170" t="s">
         <v>322</v>
       </c>
-      <c r="M94" s="120"/>
-      <c r="N94" s="120">
+      <c r="M94" s="121"/>
+      <c r="N94" s="121">
         <v>91.0</v>
       </c>
     </row>
@@ -14659,7 +14704,7 @@
         <v>736</v>
       </c>
       <c r="D95" s="17"/>
-      <c r="E95" s="41" t="s">
+      <c r="E95" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F95" s="17" t="s">
@@ -14674,11 +14719,11 @@
       <c r="K95" s="147">
         <v>0.0</v>
       </c>
-      <c r="L95" s="172" t="s">
+      <c r="L95" s="170" t="s">
         <v>326</v>
       </c>
-      <c r="M95" s="120"/>
-      <c r="N95" s="120">
+      <c r="M95" s="121"/>
+      <c r="N95" s="121">
         <v>92.0</v>
       </c>
     </row>
@@ -14693,7 +14738,7 @@
         <v>736</v>
       </c>
       <c r="D96" s="17"/>
-      <c r="E96" s="41" t="s">
+      <c r="E96" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F96" s="17" t="s">
@@ -14708,11 +14753,11 @@
       <c r="K96" s="147">
         <v>0.0</v>
       </c>
-      <c r="L96" s="172" t="s">
+      <c r="L96" s="170" t="s">
         <v>330</v>
       </c>
-      <c r="M96" s="120"/>
-      <c r="N96" s="120">
+      <c r="M96" s="121"/>
+      <c r="N96" s="121">
         <v>93.0</v>
       </c>
     </row>
@@ -14727,7 +14772,7 @@
         <v>736</v>
       </c>
       <c r="D97" s="17"/>
-      <c r="E97" s="41" t="s">
+      <c r="E97" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F97" s="17" t="s">
@@ -14742,11 +14787,11 @@
       <c r="K97" s="147">
         <v>0.0</v>
       </c>
-      <c r="L97" s="172" t="s">
+      <c r="L97" s="170" t="s">
         <v>334</v>
       </c>
-      <c r="M97" s="120"/>
-      <c r="N97" s="120">
+      <c r="M97" s="121"/>
+      <c r="N97" s="121">
         <v>94.0</v>
       </c>
     </row>
@@ -14761,7 +14806,7 @@
         <v>736</v>
       </c>
       <c r="D98" s="17"/>
-      <c r="E98" s="41" t="s">
+      <c r="E98" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F98" s="17" t="s">
@@ -14776,11 +14821,11 @@
       <c r="K98" s="147">
         <v>0.0</v>
       </c>
-      <c r="L98" s="172" t="s">
+      <c r="L98" s="170" t="s">
         <v>338</v>
       </c>
-      <c r="M98" s="120"/>
-      <c r="N98" s="120">
+      <c r="M98" s="121"/>
+      <c r="N98" s="121">
         <v>95.0</v>
       </c>
     </row>
@@ -14807,14 +14852,14 @@
       <c r="H99" s="17"/>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
-      <c r="K99" s="173" t="s">
+      <c r="K99" s="171" t="s">
         <v>1071</v>
       </c>
       <c r="L99" s="18" t="s">
         <v>1072</v>
       </c>
-      <c r="M99" s="174"/>
-      <c r="N99" s="120">
+      <c r="M99" s="172"/>
+      <c r="N99" s="121">
         <v>96.0</v>
       </c>
     </row>
@@ -14841,14 +14886,14 @@
       <c r="H100" s="17"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
-      <c r="K100" s="173" t="s">
+      <c r="K100" s="171" t="s">
         <v>1075</v>
       </c>
       <c r="L100" s="18" t="s">
         <v>1076</v>
       </c>
-      <c r="M100" s="120"/>
-      <c r="N100" s="120">
+      <c r="M100" s="121"/>
+      <c r="N100" s="121">
         <v>97.0</v>
       </c>
     </row>
@@ -14875,14 +14920,14 @@
       <c r="H101" s="17"/>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
-      <c r="K101" s="173" t="s">
+      <c r="K101" s="171" t="s">
         <v>1079</v>
       </c>
       <c r="L101" s="18" t="s">
         <v>1080</v>
       </c>
-      <c r="M101" s="120"/>
-      <c r="N101" s="120">
+      <c r="M101" s="121"/>
+      <c r="N101" s="121">
         <v>98.0</v>
       </c>
     </row>
@@ -14909,14 +14954,14 @@
       <c r="H102" s="17"/>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
-      <c r="K102" s="173" t="s">
+      <c r="K102" s="171" t="s">
         <v>1083</v>
       </c>
       <c r="L102" s="18" t="s">
         <v>1084</v>
       </c>
-      <c r="M102" s="120"/>
-      <c r="N102" s="120">
+      <c r="M102" s="121"/>
+      <c r="N102" s="121">
         <v>99.0</v>
       </c>
     </row>
@@ -14943,14 +14988,14 @@
       <c r="H103" s="17"/>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
-      <c r="K103" s="173" t="s">
+      <c r="K103" s="171" t="s">
         <v>1087</v>
       </c>
       <c r="L103" s="18" t="s">
         <v>1088</v>
       </c>
-      <c r="M103" s="120"/>
-      <c r="N103" s="120">
+      <c r="M103" s="121"/>
+      <c r="N103" s="121">
         <v>100.0</v>
       </c>
     </row>
@@ -14977,14 +15022,14 @@
       <c r="H104" s="17"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
-      <c r="K104" s="173" t="s">
+      <c r="K104" s="171" t="s">
         <v>986</v>
       </c>
       <c r="L104" s="18" t="s">
         <v>1091</v>
       </c>
-      <c r="M104" s="120"/>
-      <c r="N104" s="120">
+      <c r="M104" s="121"/>
+      <c r="N104" s="121">
         <v>101.0</v>
       </c>
     </row>
@@ -15011,14 +15056,14 @@
       <c r="H105" s="17"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13"/>
-      <c r="K105" s="173" t="s">
+      <c r="K105" s="171" t="s">
         <v>827</v>
       </c>
       <c r="L105" s="18" t="s">
         <v>1094</v>
       </c>
-      <c r="M105" s="120"/>
-      <c r="N105" s="120">
+      <c r="M105" s="121"/>
+      <c r="N105" s="121">
         <v>102.0</v>
       </c>
     </row>
@@ -15045,14 +15090,14 @@
       <c r="H106" s="17"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13"/>
-      <c r="K106" s="173" t="s">
+      <c r="K106" s="171" t="s">
         <v>260</v>
       </c>
       <c r="L106" s="18" t="s">
         <v>1097</v>
       </c>
-      <c r="M106" s="120"/>
-      <c r="N106" s="120">
+      <c r="M106" s="121"/>
+      <c r="N106" s="121">
         <v>103.0</v>
       </c>
     </row>
@@ -15085,8 +15130,8 @@
       <c r="L107" s="19" t="s">
         <v>1101</v>
       </c>
-      <c r="M107" s="120"/>
-      <c r="N107" s="120">
+      <c r="M107" s="121"/>
+      <c r="N107" s="121">
         <v>104.0</v>
       </c>
     </row>
@@ -15119,8 +15164,8 @@
       <c r="L108" s="19" t="s">
         <v>1104</v>
       </c>
-      <c r="M108" s="120"/>
-      <c r="N108" s="120">
+      <c r="M108" s="121"/>
+      <c r="N108" s="121">
         <v>105.0</v>
       </c>
     </row>
@@ -15150,11 +15195,11 @@
       <c r="K109" s="147" t="s">
         <v>827</v>
       </c>
-      <c r="L109" s="175" t="s">
+      <c r="L109" s="173" t="s">
         <v>1108</v>
       </c>
-      <c r="M109" s="120"/>
-      <c r="N109" s="120">
+      <c r="M109" s="121"/>
+      <c r="N109" s="121">
         <v>106.0</v>
       </c>
     </row>
@@ -15184,11 +15229,11 @@
       <c r="K110" s="148" t="s">
         <v>1112</v>
       </c>
-      <c r="L110" s="172" t="s">
+      <c r="L110" s="170" t="s">
         <v>1113</v>
       </c>
-      <c r="M110" s="120"/>
-      <c r="N110" s="120">
+      <c r="M110" s="121"/>
+      <c r="N110" s="121">
         <v>107.0</v>
       </c>
     </row>
@@ -15218,11 +15263,11 @@
       <c r="K111" s="148" t="s">
         <v>1112</v>
       </c>
-      <c r="L111" s="172" t="s">
+      <c r="L111" s="170" t="s">
         <v>1117</v>
       </c>
-      <c r="M111" s="120"/>
-      <c r="N111" s="120">
+      <c r="M111" s="121"/>
+      <c r="N111" s="121">
         <v>108.0</v>
       </c>
     </row>
@@ -15249,16 +15294,16 @@
       <c r="H112" s="17"/>
       <c r="I112" s="13"/>
       <c r="J112" s="13"/>
-      <c r="K112" s="176" t="s">
+      <c r="K112" s="174" t="s">
         <v>260</v>
       </c>
-      <c r="L112" s="177" t="s">
+      <c r="L112" s="175" t="s">
         <v>1121</v>
       </c>
       <c r="M112" s="19" t="s">
         <v>1122</v>
       </c>
-      <c r="N112" s="120">
+      <c r="N112" s="121">
         <v>109.0</v>
       </c>
     </row>
@@ -15288,11 +15333,11 @@
       <c r="K113" s="147" t="s">
         <v>940</v>
       </c>
-      <c r="L113" s="172" t="s">
+      <c r="L113" s="170" t="s">
         <v>1126</v>
       </c>
-      <c r="M113" s="120"/>
-      <c r="N113" s="120">
+      <c r="M113" s="121"/>
+      <c r="N113" s="121">
         <v>110.0</v>
       </c>
     </row>
@@ -15325,8 +15370,8 @@
       <c r="L114" s="157" t="s">
         <v>1131</v>
       </c>
-      <c r="M114" s="120"/>
-      <c r="N114" s="120">
+      <c r="M114" s="121"/>
+      <c r="N114" s="121">
         <v>111.0</v>
       </c>
     </row>
@@ -15359,8 +15404,8 @@
       <c r="L115" s="157" t="s">
         <v>1131</v>
       </c>
-      <c r="M115" s="120"/>
-      <c r="N115" s="120">
+      <c r="M115" s="121"/>
+      <c r="N115" s="121">
         <v>112.0</v>
       </c>
     </row>
@@ -15393,8 +15438,8 @@
       <c r="L116" s="157" t="s">
         <v>1131</v>
       </c>
-      <c r="M116" s="120"/>
-      <c r="N116" s="120">
+      <c r="M116" s="121"/>
+      <c r="N116" s="121">
         <v>113.0</v>
       </c>
     </row>
@@ -15427,13 +15472,13 @@
       <c r="L117" s="157" t="s">
         <v>1131</v>
       </c>
-      <c r="M117" s="120"/>
-      <c r="N117" s="120">
+      <c r="M117" s="121"/>
+      <c r="N117" s="121">
         <v>114.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="41" t="s">
+      <c r="A118" s="42" t="s">
         <v>1141</v>
       </c>
       <c r="B118" s="16" t="s">
@@ -15461,13 +15506,13 @@
       <c r="L118" s="157" t="s">
         <v>1131</v>
       </c>
-      <c r="M118" s="120"/>
-      <c r="N118" s="120">
+      <c r="M118" s="121"/>
+      <c r="N118" s="121">
         <v>115.0</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="41" t="s">
+      <c r="A119" s="42" t="s">
         <v>1144</v>
       </c>
       <c r="B119" s="16" t="s">
@@ -15489,16 +15534,16 @@
       <c r="H119" s="17"/>
       <c r="I119" s="13"/>
       <c r="J119" s="13"/>
-      <c r="K119" s="176" t="s">
+      <c r="K119" s="174" t="s">
         <v>260</v>
       </c>
-      <c r="L119" s="177" t="s">
+      <c r="L119" s="175" t="s">
         <v>1146</v>
       </c>
       <c r="M119" s="19" t="s">
         <v>1122</v>
       </c>
-      <c r="N119" s="120">
+      <c r="N119" s="121">
         <v>116.0</v>
       </c>
     </row>
@@ -15528,11 +15573,11 @@
       <c r="K120" s="147" t="s">
         <v>940</v>
       </c>
-      <c r="L120" s="172" t="s">
+      <c r="L120" s="170" t="s">
         <v>1150</v>
       </c>
-      <c r="M120" s="120"/>
-      <c r="N120" s="120">
+      <c r="M120" s="121"/>
+      <c r="N120" s="121">
         <v>117.0</v>
       </c>
     </row>
@@ -15565,8 +15610,8 @@
       <c r="L121" s="157" t="s">
         <v>1154</v>
       </c>
-      <c r="M121" s="120"/>
-      <c r="N121" s="120">
+      <c r="M121" s="121"/>
+      <c r="N121" s="121">
         <v>118.0</v>
       </c>
     </row>
@@ -15599,8 +15644,8 @@
       <c r="L122" s="157" t="s">
         <v>1154</v>
       </c>
-      <c r="M122" s="120"/>
-      <c r="N122" s="120">
+      <c r="M122" s="121"/>
+      <c r="N122" s="121">
         <v>119.0</v>
       </c>
     </row>
@@ -15633,8 +15678,8 @@
       <c r="L123" s="157" t="s">
         <v>1154</v>
       </c>
-      <c r="M123" s="120"/>
-      <c r="N123" s="120">
+      <c r="M123" s="121"/>
+      <c r="N123" s="121">
         <v>120.0</v>
       </c>
     </row>
@@ -15667,13 +15712,13 @@
       <c r="L124" s="157" t="s">
         <v>1154</v>
       </c>
-      <c r="M124" s="120"/>
-      <c r="N124" s="120">
+      <c r="M124" s="121"/>
+      <c r="N124" s="121">
         <v>121.0</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="42" t="s">
         <v>1164</v>
       </c>
       <c r="B125" s="16" t="s">
@@ -15701,13 +15746,13 @@
       <c r="L125" s="157" t="s">
         <v>1154</v>
       </c>
-      <c r="M125" s="120"/>
-      <c r="N125" s="120">
+      <c r="M125" s="121"/>
+      <c r="N125" s="121">
         <v>122.0</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="41" t="s">
+      <c r="A126" s="42" t="s">
         <v>1167</v>
       </c>
       <c r="B126" s="16" t="s">
@@ -15735,51 +15780,51 @@
       <c r="L126" s="19" t="s">
         <v>1108</v>
       </c>
-      <c r="M126" s="178"/>
-      <c r="N126" s="120">
+      <c r="M126" s="176"/>
+      <c r="N126" s="121">
         <v>123.0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="41" t="s">
+      <c r="A127" s="177" t="s">
         <v>1170</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="178" t="s">
         <v>1171</v>
       </c>
-      <c r="C127" s="127" t="s">
+      <c r="C127" s="179" t="s">
         <v>736</v>
       </c>
-      <c r="D127" s="17"/>
-      <c r="E127" s="16" t="s">
+      <c r="D127" s="180"/>
+      <c r="E127" s="178" t="s">
         <v>214</v>
       </c>
-      <c r="F127" s="17" t="s">
+      <c r="F127" s="180" t="s">
         <v>1169</v>
       </c>
-      <c r="G127" s="13" t="s">
+      <c r="G127" s="181" t="s">
         <v>1172</v>
       </c>
-      <c r="H127" s="17"/>
-      <c r="I127" s="13"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="148" t="s">
+      <c r="H127" s="180"/>
+      <c r="I127" s="181"/>
+      <c r="J127" s="181"/>
+      <c r="K127" s="182" t="s">
+        <v>991</v>
+      </c>
+      <c r="L127" s="183" t="s">
+        <v>1113</v>
+      </c>
+      <c r="M127" s="184"/>
+      <c r="N127" s="184">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="42" t="s">
         <v>1173</v>
       </c>
-      <c r="L127" s="157" t="s">
-        <v>1113</v>
-      </c>
-      <c r="M127" s="120"/>
-      <c r="N127" s="120">
-        <v>124.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="41" t="s">
+      <c r="B128" s="16" t="s">
         <v>1174</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>1175</v>
       </c>
       <c r="C128" s="127" t="s">
         <v>736</v>
@@ -15792,7 +15837,7 @@
         <v>1169</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H128" s="17"/>
       <c r="I128" s="13"/>
@@ -15803,17 +15848,17 @@
       <c r="L128" s="157" t="s">
         <v>997</v>
       </c>
-      <c r="M128" s="120"/>
-      <c r="N128" s="120">
+      <c r="M128" s="121"/>
+      <c r="N128" s="121">
         <v>125.0</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="41" t="s">
+      <c r="A129" s="42" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B129" s="16" t="s">
         <v>1177</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>1178</v>
       </c>
       <c r="C129" s="127" t="s">
         <v>736</v>
@@ -15826,7 +15871,7 @@
         <v>1169</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H129" s="17"/>
       <c r="I129" s="13"/>
@@ -15837,51 +15882,51 @@
       <c r="L129" s="157" t="s">
         <v>1002</v>
       </c>
-      <c r="M129" s="120"/>
-      <c r="N129" s="120">
+      <c r="M129" s="121"/>
+      <c r="N129" s="121">
         <v>126.0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="41" t="s">
+      <c r="A130" s="177" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B130" s="178" t="s">
         <v>1180</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="C130" s="179" t="s">
+        <v>736</v>
+      </c>
+      <c r="D130" s="180"/>
+      <c r="E130" s="178" t="s">
+        <v>214</v>
+      </c>
+      <c r="F130" s="180" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G130" s="181" t="s">
         <v>1181</v>
       </c>
-      <c r="C130" s="127" t="s">
-        <v>736</v>
-      </c>
-      <c r="D130" s="17"/>
-      <c r="E130" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F130" s="17" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G130" s="13" t="s">
+      <c r="H130" s="180"/>
+      <c r="I130" s="181"/>
+      <c r="J130" s="181"/>
+      <c r="K130" s="182" t="s">
+        <v>991</v>
+      </c>
+      <c r="L130" s="183" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M130" s="184"/>
+      <c r="N130" s="184">
+        <v>127.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="42" t="s">
         <v>1182</v>
       </c>
-      <c r="H130" s="17"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="148" t="s">
-        <v>991</v>
-      </c>
-      <c r="L130" s="157" t="s">
+      <c r="B131" s="16" t="s">
         <v>1183</v>
-      </c>
-      <c r="M130" s="120"/>
-      <c r="N130" s="120">
-        <v>127.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="41" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>1185</v>
       </c>
       <c r="C131" s="127" t="s">
         <v>736</v>
@@ -15894,7 +15939,7 @@
         <v>1169</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="H131" s="17"/>
       <c r="I131" s="13"/>
@@ -15903,19 +15948,19 @@
         <v>996</v>
       </c>
       <c r="L131" s="157" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M131" s="121"/>
+      <c r="N131" s="121">
+        <v>128.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="42" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B132" s="16" t="s">
         <v>1187</v>
-      </c>
-      <c r="M131" s="120"/>
-      <c r="N131" s="120">
-        <v>128.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="41" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>1189</v>
       </c>
       <c r="C132" s="127" t="s">
         <v>736</v>
@@ -15928,7 +15973,7 @@
         <v>1169</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="H132" s="17"/>
       <c r="I132" s="13"/>
@@ -15937,55 +15982,55 @@
         <v>1001</v>
       </c>
       <c r="L132" s="157" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M132" s="120"/>
-      <c r="N132" s="120">
+        <v>1189</v>
+      </c>
+      <c r="M132" s="121"/>
+      <c r="N132" s="121">
         <v>129.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="32" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C133" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D133" s="17"/>
-      <c r="E133" s="179" t="s">
+      <c r="E133" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="F133" s="41" t="s">
+      <c r="F133" s="42" t="s">
         <v>714</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="H133" s="17"/>
       <c r="I133" s="13"/>
       <c r="J133" s="13"/>
-      <c r="K133" s="173" t="s">
+      <c r="K133" s="171" t="s">
         <v>260</v>
       </c>
-      <c r="L133" s="180" t="s">
-        <v>1195</v>
-      </c>
-      <c r="M133" s="178" t="s">
+      <c r="L133" s="185" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M133" s="176" t="s">
         <v>1122</v>
       </c>
-      <c r="N133" s="120">
+      <c r="N133" s="121">
         <v>130.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="32" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C134" s="127" t="s">
         <v>739</v>
@@ -15994,32 +16039,32 @@
       <c r="E134" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F134" s="41" t="s">
+      <c r="F134" s="42" t="s">
         <v>715</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H134" s="17"/>
       <c r="I134" s="13"/>
       <c r="J134" s="13"/>
-      <c r="K134" s="176" t="s">
+      <c r="K134" s="174" t="s">
         <v>940</v>
       </c>
-      <c r="L134" s="172" t="s">
+      <c r="L134" s="170" t="s">
         <v>1126</v>
       </c>
-      <c r="M134" s="181"/>
-      <c r="N134" s="120">
+      <c r="M134" s="186"/>
+      <c r="N134" s="121">
         <v>131.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="32" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C135" s="127" t="s">
         <v>739</v>
@@ -16029,31 +16074,31 @@
         <v>209</v>
       </c>
       <c r="F135" s="32" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="H135" s="17"/>
       <c r="I135" s="13"/>
       <c r="J135" s="13"/>
-      <c r="K135" s="182" t="s">
+      <c r="K135" s="187" t="s">
         <v>962</v>
       </c>
       <c r="L135" s="157" t="s">
-        <v>1202</v>
-      </c>
-      <c r="M135" s="181"/>
-      <c r="N135" s="120">
+        <v>1200</v>
+      </c>
+      <c r="M135" s="186"/>
+      <c r="N135" s="121">
         <v>132.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="32" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C136" s="127" t="s">
         <v>739</v>
@@ -16063,31 +16108,31 @@
         <v>209</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="H136" s="17"/>
       <c r="I136" s="13"/>
       <c r="J136" s="13"/>
-      <c r="K136" s="182" t="s">
+      <c r="K136" s="187" t="s">
         <v>958</v>
       </c>
       <c r="L136" s="157" t="s">
-        <v>1202</v>
-      </c>
-      <c r="M136" s="181"/>
-      <c r="N136" s="120">
+        <v>1200</v>
+      </c>
+      <c r="M136" s="186"/>
+      <c r="N136" s="121">
         <v>133.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="32" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C137" s="127" t="s">
         <v>739</v>
@@ -16097,31 +16142,31 @@
         <v>209</v>
       </c>
       <c r="F137" s="32" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H137" s="17"/>
       <c r="I137" s="13"/>
       <c r="J137" s="13"/>
-      <c r="K137" s="182" t="s">
+      <c r="K137" s="187" t="s">
         <v>954</v>
       </c>
       <c r="L137" s="157" t="s">
-        <v>1202</v>
-      </c>
-      <c r="M137" s="181"/>
-      <c r="N137" s="120">
+        <v>1200</v>
+      </c>
+      <c r="M137" s="186"/>
+      <c r="N137" s="121">
         <v>134.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="32" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C138" s="127" t="s">
         <v>739</v>
@@ -16131,31 +16176,31 @@
         <v>209</v>
       </c>
       <c r="F138" s="32" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H138" s="17"/>
       <c r="I138" s="13"/>
       <c r="J138" s="13"/>
-      <c r="K138" s="182" t="s">
+      <c r="K138" s="187" t="s">
         <v>950</v>
       </c>
       <c r="L138" s="157" t="s">
-        <v>1202</v>
-      </c>
-      <c r="M138" s="181"/>
-      <c r="N138" s="120">
+        <v>1200</v>
+      </c>
+      <c r="M138" s="186"/>
+      <c r="N138" s="121">
         <v>135.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="32" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C139" s="127" t="s">
         <v>739</v>
@@ -16165,44 +16210,44 @@
         <v>209</v>
       </c>
       <c r="F139" s="32" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="H139" s="17"/>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
-      <c r="K139" s="182" t="s">
+      <c r="K139" s="187" t="s">
         <v>945</v>
       </c>
       <c r="L139" s="157" t="s">
-        <v>1202</v>
-      </c>
-      <c r="M139" s="181"/>
-      <c r="N139" s="120">
+        <v>1200</v>
+      </c>
+      <c r="M139" s="186"/>
+      <c r="N139" s="121">
         <v>136.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="32" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C140" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D140" s="17"/>
-      <c r="E140" s="179" t="s">
+      <c r="E140" s="42" t="s">
         <v>217</v>
       </c>
       <c r="F140" s="16" t="s">
         <v>717</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="H140" s="17"/>
       <c r="I140" s="13"/>
@@ -16210,22 +16255,22 @@
       <c r="K140" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="L140" s="172" t="s">
-        <v>1217</v>
+      <c r="L140" s="170" t="s">
+        <v>1215</v>
       </c>
       <c r="M140" s="19" t="s">
         <v>1122</v>
       </c>
-      <c r="N140" s="120">
+      <c r="N140" s="121">
         <v>137.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="32" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C141" s="127" t="s">
         <v>739</v>
@@ -16238,7 +16283,7 @@
         <v>718</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="H141" s="17"/>
       <c r="I141" s="13"/>
@@ -16246,20 +16291,20 @@
       <c r="K141" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="L141" s="172" t="s">
+      <c r="L141" s="170" t="s">
         <v>1150</v>
       </c>
-      <c r="M141" s="183"/>
-      <c r="N141" s="120">
+      <c r="M141" s="188"/>
+      <c r="N141" s="121">
         <v>138.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="32" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C142" s="127" t="s">
         <v>739</v>
@@ -16269,10 +16314,10 @@
         <v>209</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="H142" s="17"/>
       <c r="I142" s="13"/>
@@ -16280,20 +16325,20 @@
       <c r="K142" s="147">
         <v>0.0</v>
       </c>
-      <c r="L142" s="172" t="s">
+      <c r="L142" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="M142" s="120"/>
-      <c r="N142" s="120">
+      <c r="M142" s="121"/>
+      <c r="N142" s="121">
         <v>139.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="32" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C143" s="127" t="s">
         <v>739</v>
@@ -16303,10 +16348,10 @@
         <v>209</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="H143" s="17"/>
       <c r="I143" s="13"/>
@@ -16314,20 +16359,20 @@
       <c r="K143" s="147">
         <v>0.0</v>
       </c>
-      <c r="L143" s="172" t="s">
+      <c r="L143" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="M143" s="120"/>
-      <c r="N143" s="120">
+      <c r="M143" s="121"/>
+      <c r="N143" s="121">
         <v>140.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="32" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C144" s="127" t="s">
         <v>739</v>
@@ -16337,10 +16382,10 @@
         <v>209</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G144" s="16" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="H144" s="17"/>
       <c r="I144" s="13"/>
@@ -16348,20 +16393,20 @@
       <c r="K144" s="147">
         <v>0.0</v>
       </c>
-      <c r="L144" s="172" t="s">
+      <c r="L144" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="M144" s="120"/>
-      <c r="N144" s="120">
+      <c r="M144" s="121"/>
+      <c r="N144" s="121">
         <v>141.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="32" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C145" s="127" t="s">
         <v>739</v>
@@ -16371,10 +16416,10 @@
         <v>209</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="H145" s="17"/>
       <c r="I145" s="13"/>
@@ -16382,20 +16427,20 @@
       <c r="K145" s="147">
         <v>0.0</v>
       </c>
-      <c r="L145" s="172" t="s">
+      <c r="L145" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="M145" s="120"/>
-      <c r="N145" s="120">
+      <c r="M145" s="121"/>
+      <c r="N145" s="121">
         <v>142.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="32" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C146" s="127" t="s">
         <v>739</v>
@@ -16405,10 +16450,10 @@
         <v>209</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G146" s="16" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="H146" s="17"/>
       <c r="I146" s="13"/>
@@ -16416,20 +16461,20 @@
       <c r="K146" s="136">
         <v>0.0</v>
       </c>
-      <c r="L146" s="172" t="s">
+      <c r="L146" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="M146" s="181"/>
-      <c r="N146" s="120">
+      <c r="M146" s="186"/>
+      <c r="N146" s="121">
         <v>143.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="41" t="s">
-        <v>1236</v>
+      <c r="A147" s="42" t="s">
+        <v>1234</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C147" s="127" t="s">
         <v>736</v>
@@ -16439,10 +16484,10 @@
         <v>214</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="H147" s="17"/>
       <c r="I147" s="13"/>
@@ -16450,33 +16495,33 @@
       <c r="K147" s="148" t="s">
         <v>886</v>
       </c>
-      <c r="L147" s="172" t="s">
+      <c r="L147" s="170" t="s">
         <v>887</v>
       </c>
-      <c r="M147" s="120"/>
-      <c r="N147" s="120">
+      <c r="M147" s="121"/>
+      <c r="N147" s="121">
         <v>144.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="41" t="s">
-        <v>1239</v>
+      <c r="A148" s="42" t="s">
+        <v>1237</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C148" s="127" t="s">
         <v>736</v>
       </c>
       <c r="D148" s="17"/>
-      <c r="E148" s="41" t="s">
+      <c r="E148" s="42" t="s">
         <v>214</v>
       </c>
       <c r="F148" s="16" t="s">
         <v>676</v>
       </c>
       <c r="G148" s="16" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H148" s="17"/>
       <c r="I148" s="13"/>
@@ -16487,17 +16532,17 @@
       <c r="L148" s="157" t="s">
         <v>403</v>
       </c>
-      <c r="M148" s="120"/>
-      <c r="N148" s="120">
+      <c r="M148" s="121"/>
+      <c r="N148" s="121">
         <v>145.0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="41" t="s">
-        <v>1242</v>
+      <c r="A149" s="42" t="s">
+        <v>1240</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C149" s="127" t="s">
         <v>739</v>
@@ -16510,7 +16555,7 @@
         <v>675</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H149" s="17"/>
       <c r="I149" s="13"/>
@@ -16521,17 +16566,17 @@
       <c r="L149" s="157" t="s">
         <v>1021</v>
       </c>
-      <c r="M149" s="120"/>
-      <c r="N149" s="120">
+      <c r="M149" s="121"/>
+      <c r="N149" s="121">
         <v>146.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="41" t="s">
-        <v>1245</v>
+      <c r="A150" s="42" t="s">
+        <v>1243</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C150" s="127" t="s">
         <v>739</v>
@@ -16541,10 +16586,10 @@
         <v>209</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="G150" s="16" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="H150" s="17"/>
       <c r="I150" s="13"/>
@@ -16553,19 +16598,19 @@
         <v>996</v>
       </c>
       <c r="L150" s="157" t="s">
+        <v>1246</v>
+      </c>
+      <c r="M150" s="121"/>
+      <c r="N150" s="121">
+        <v>147.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="42" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B151" s="16" t="s">
         <v>1248</v>
-      </c>
-      <c r="M150" s="120"/>
-      <c r="N150" s="120">
-        <v>147.0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="41" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>1250</v>
       </c>
       <c r="C151" s="127" t="s">
         <v>739</v>
@@ -16575,10 +16620,10 @@
         <v>209</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="H151" s="17"/>
       <c r="I151" s="13"/>
@@ -16587,19 +16632,19 @@
         <v>1001</v>
       </c>
       <c r="L151" s="157" t="s">
+        <v>1250</v>
+      </c>
+      <c r="M151" s="121"/>
+      <c r="N151" s="121">
+        <v>148.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="42" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B152" s="16" t="s">
         <v>1252</v>
-      </c>
-      <c r="M151" s="120"/>
-      <c r="N151" s="120">
-        <v>148.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="41" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B152" s="16" t="s">
-        <v>1254</v>
       </c>
       <c r="C152" s="127" t="s">
         <v>739</v>
@@ -16609,10 +16654,10 @@
         <v>209</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="G152" s="16" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H152" s="17"/>
       <c r="I152" s="13"/>
@@ -16623,17 +16668,17 @@
       <c r="L152" s="157" t="s">
         <v>1028</v>
       </c>
-      <c r="M152" s="120"/>
-      <c r="N152" s="120">
+      <c r="M152" s="121"/>
+      <c r="N152" s="121">
         <v>149.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="41" t="s">
-        <v>1256</v>
+      <c r="A153" s="42" t="s">
+        <v>1254</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C153" s="127" t="s">
         <v>739</v>
@@ -16643,10 +16688,10 @@
         <v>209</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="H153" s="17"/>
       <c r="I153" s="13"/>
@@ -16657,8 +16702,8 @@
       <c r="L153" s="157" t="s">
         <v>1015</v>
       </c>
-      <c r="M153" s="120"/>
-      <c r="N153" s="120">
+      <c r="M153" s="121"/>
+      <c r="N153" s="121">
         <v>150.0</v>
       </c>
     </row>
@@ -16681,20 +16726,20 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="110" t="s">
-        <v>1259</v>
+      <c r="D1" s="111" t="s">
+        <v>1257</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="2">
@@ -16702,7 +16747,7 @@
         <v>732</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="3">
@@ -16710,15 +16755,15 @@
         <v>733</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>1</v>
@@ -16726,10 +16771,10 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>1</v>
@@ -16740,7 +16785,7 @@
         <v>907</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -16749,7 +16794,7 @@
         <v>908</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -16758,16 +16803,16 @@
         <v>911</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -16793,16 +16838,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1271</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="2">
@@ -16810,24 +16855,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1274</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1277</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="6">
@@ -16835,34 +16880,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="3" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="3" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="3" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="10">
@@ -16871,64 +16916,64 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -16939,7 +16984,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>5</v>
@@ -16948,27 +16993,27 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B20" s="184" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B20" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="184"/>
-      <c r="K20" s="184"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="189"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="189"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B21" s="184" t="s">
-        <v>1302</v>
+        <v>1299</v>
+      </c>
+      <c r="B21" s="189" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="22">
@@ -16990,53 +17035,53 @@
       <c r="A27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="184" t="s">
+      <c r="A28" s="189" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B28" s="190" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="189" t="s">
         <v>1303</v>
       </c>
-      <c r="B28" s="185" t="s">
+      <c r="B29" s="190" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="184" t="s">
+    <row r="30">
+      <c r="A30" s="189" t="s">
         <v>1305</v>
       </c>
-      <c r="B29" s="185" t="s">
+      <c r="B30" s="190" t="s">
         <v>1306</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="184" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B30" s="185" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="31" hidden="1">
       <c r="A31" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B31" s="184"/>
+        <v>1307</v>
+      </c>
+      <c r="B31" s="189"/>
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B32" s="184"/>
+        <v>1308</v>
+      </c>
+      <c r="B32" s="189"/>
     </row>
     <row r="33">
       <c r="A33" s="3"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="184"/>
+      <c r="B33" s="189"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17078,42 +17123,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="191" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="186" t="s">
+    <row r="3">
+      <c r="A3" s="191" t="s">
         <v>1312</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="186" t="s">
+    <row r="4">
+      <c r="A4" s="191" t="s">
         <v>1314</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="186" t="s">
+      <c r="C4" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="191" t="s">
         <v>1317</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>1318</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="186" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1320</v>
       </c>
     </row>
   </sheetData>
@@ -17147,35 +17192,38 @@
     <col customWidth="1" min="5" max="5" width="28.0"/>
     <col customWidth="1" min="6" max="6" width="20.29"/>
     <col customWidth="1" min="7" max="7" width="19.29"/>
-    <col customWidth="1" min="8" max="9" width="22.14"/>
+    <col customWidth="1" min="8" max="10" width="22.14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="192" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="192" t="s">
         <v>719</v>
       </c>
-      <c r="D1" s="187" t="s">
+      <c r="D1" s="192" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="189" t="s">
         <v>1322</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G1" s="184" t="s">
-        <v>607</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>1324</v>
       </c>
     </row>
@@ -17186,11 +17234,11 @@
       <c r="B2" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="193" t="s">
         <v>1327</v>
       </c>
-      <c r="D2" s="183"/>
-      <c r="G2" s="183"/>
+      <c r="D2" s="188"/>
+      <c r="G2" s="188"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -17199,14 +17247,17 @@
       <c r="B3" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="G3" s="184" t="s">
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="G3" s="189" t="s">
         <v>1329</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>1330</v>
+      </c>
+      <c r="J3" s="194" t="s">
+        <v>1331</v>
       </c>
     </row>
     <row r="4">
@@ -17214,350 +17265,392 @@
         <v>726</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D4" s="184" t="s">
         <v>1333</v>
       </c>
+      <c r="D4" s="189" t="s">
+        <v>1334</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G4" s="183"/>
-      <c r="I4" s="184"/>
+        <v>1335</v>
+      </c>
+      <c r="G4" s="188"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C5" s="183"/>
-      <c r="D5" s="184" t="s">
         <v>1337</v>
       </c>
-      <c r="G5" s="183"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="189" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G5" s="188"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
         <v>433</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C6" s="183"/>
+        <v>1339</v>
+      </c>
+      <c r="C6" s="188"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="178"/>
-      <c r="G6" s="184" t="s">
-        <v>1339</v>
+      <c r="E6" s="176"/>
+      <c r="G6" s="189" t="s">
+        <v>1340</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>1342</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
         <v>475</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C7" s="183"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184" t="s">
-        <v>1342</v>
+        <v>1343</v>
+      </c>
+      <c r="C7" s="188"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189" t="s">
+        <v>1344</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
         <v>421</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184" t="s">
-        <v>1345</v>
+        <v>1347</v>
+      </c>
+      <c r="C8" s="188"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189" t="s">
+        <v>1348</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="I8" s="3"/>
+      <c r="J8" s="194" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C9" s="183"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="184"/>
-      <c r="G9" s="184" t="s">
-        <v>1348</v>
+        <v>1350</v>
+      </c>
+      <c r="C9" s="188"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="G9" s="189" t="s">
+        <v>1351</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>1353</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C10" s="183"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184"/>
-      <c r="G10" s="183"/>
+        <v>1354</v>
+      </c>
+      <c r="C10" s="188"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="G10" s="188"/>
       <c r="H10" s="3" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184" t="s">
-        <v>1353</v>
+        <v>1357</v>
+      </c>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189" t="s">
+        <v>1358</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1354</v>
+        <v>1359</v>
       </c>
       <c r="I11" s="3"/>
+      <c r="J11" s="194" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="G12" s="184" t="s">
-        <v>1356</v>
+        <v>1360</v>
+      </c>
+      <c r="C12" s="188"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="G12" s="189" t="s">
+        <v>1361</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>1363</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
         <v>446</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1358</v>
+        <v>1364</v>
       </c>
       <c r="D13" s="146"/>
-      <c r="E13" s="189"/>
-      <c r="G13" s="184" t="s">
-        <v>1356</v>
+      <c r="E13" s="195"/>
+      <c r="G13" s="189" t="s">
+        <v>1361</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1359</v>
+        <v>1365</v>
       </c>
       <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>1342</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
         <v>448</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D14" s="184"/>
-      <c r="E14" s="189"/>
-      <c r="G14" s="184" t="s">
-        <v>1361</v>
+        <v>1366</v>
+      </c>
+      <c r="D14" s="189"/>
+      <c r="E14" s="195"/>
+      <c r="G14" s="189" t="s">
+        <v>1367</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
       <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>1342</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D15" s="184"/>
-      <c r="E15" s="189"/>
-      <c r="G15" s="184" t="s">
-        <v>1364</v>
+        <v>1369</v>
+      </c>
+      <c r="D15" s="189"/>
+      <c r="E15" s="195"/>
+      <c r="G15" s="189" t="s">
+        <v>1370</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
         <v>468</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1366</v>
-      </c>
-      <c r="D16" s="184"/>
-      <c r="E16" s="189"/>
-      <c r="G16" s="184" t="s">
-        <v>1367</v>
+        <v>1372</v>
+      </c>
+      <c r="D16" s="189"/>
+      <c r="E16" s="195"/>
+      <c r="G16" s="189" t="s">
+        <v>1373</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1368</v>
+        <v>1374</v>
       </c>
       <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="189"/>
-      <c r="G17" s="183"/>
+      <c r="E17" s="195"/>
+      <c r="G17" s="188"/>
       <c r="H17" s="3" t="s">
-        <v>1370</v>
+        <v>1376</v>
       </c>
       <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="189"/>
-      <c r="G18" s="183"/>
+      <c r="E18" s="195"/>
+      <c r="G18" s="188"/>
       <c r="H18" s="3" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
       <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="D19" s="16"/>
-      <c r="E19" s="189"/>
-      <c r="G19" s="183"/>
+      <c r="E19" s="195"/>
+      <c r="G19" s="188"/>
       <c r="H19" s="3" t="s">
-        <v>1374</v>
+        <v>1380</v>
       </c>
       <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="183"/>
+      <c r="G20" s="188"/>
       <c r="H20" s="3" t="s">
-        <v>1376</v>
+        <v>1382</v>
       </c>
       <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1377</v>
+        <v>1383</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="183"/>
+      <c r="G21" s="188"/>
       <c r="H21" s="3" t="s">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1379</v>
+        <v>1385</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="183"/>
+      <c r="G22" s="188"/>
       <c r="H22" s="3" t="s">
-        <v>1380</v>
+        <v>1386</v>
       </c>
       <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1381</v>
+        <v>1387</v>
       </c>
       <c r="D23" s="16"/>
-      <c r="E23" s="189"/>
-      <c r="G23" s="183"/>
+      <c r="E23" s="195"/>
+      <c r="G23" s="188"/>
       <c r="H23" s="3" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
       <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="189"/>
-      <c r="G24" s="183"/>
+      <c r="E24" s="195"/>
+      <c r="G24" s="188"/>
       <c r="H24" s="3" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/models/keast-bladder/source/keast-bladder.xlsx
+++ b/models/keast-bladder/source/keast-bladder.xlsx
@@ -1260,7 +1260,7 @@
     <t>UBERON:0001981</t>
   </si>
   <si>
-    <t>KM_26, KM_7</t>
+    <t>KM_7, KM_26</t>
   </si>
   <si>
     <t>K104</t>

--- a/models/keast-bladder/source/keast-bladder.xlsx
+++ b/models/keast-bladder/source/keast-bladder.xlsx
@@ -4092,7 +4092,7 @@
     <t>L6-S1 sensory neurons innervating bladder</t>
   </si>
   <si>
-    <t>PMID:1619047,PMID:7174880,PMID:4700666,PMID:11382385,PMID:11382385,PMID:32598494</t>
+    <t>PMID:1619047,PMID:7174880,PMID:4700666,PMID:11382385,PMID:1358408,PMID:32598494</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-10</t>
@@ -4107,7 +4107,7 @@
     <t>L1-L2 sensory neurons innervating bladder</t>
   </si>
   <si>
-    <t>PMID:4700666,PMID:11382385,PMID:3558884,PMID:1619047,PMID:2891149,PMID:11382385</t>
+    <t>PMID:4700666,PMID:11382385,PMID:3558884,PMID:1619047,PMID:2891149,PMID:1358408</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-11</t>
@@ -4206,7 +4206,7 @@
     <t>sympathetic chain ganglion neuron OR paravertebral sympathetic ganglion neuron</t>
   </si>
   <si>
-    <t>PMID:11382385,PMID:9622251,PMID:7174880,PMID:9442414</t>
+    <t>PMID:1358408,PMID:9622251,PMID:7174880,PMID:9442414</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-4</t>
@@ -4233,7 +4233,7 @@
     <t>sympathetic preganglionic neuron innervating pelvic ganglion neuron</t>
   </si>
   <si>
-    <t>PMID:11382385,PMID:3225349,PMID:30704972,PMID:3558884,PMID:2891149,PMID:10473279,PMID:21283532,PMID:758335,PMID:1726105</t>
+    <t>PMID:1358408,PMID:3225349,PMID:30704972,PMID:3558884,PMID:2891149,PMID:10473279,PMID:21283532,PMID:758335,PMID:1726105</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-6</t>
@@ -4260,7 +4260,7 @@
     <t>sympathetic preganglionic neuron innervating sympathetic chain ganglion neuron</t>
   </si>
   <si>
-    <t>PMID:11382385,PMID:2891149,PMID:2567744,PMID:1726105</t>
+    <t>PMID:1358408,PMID:2891149,PMID:2567744,PMID:1726105</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-8</t>

--- a/models/keast-bladder/source/keast-bladder.xlsx
+++ b/models/keast-bladder/source/keast-bladder.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="1498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1503">
   <si>
     <t>id</t>
   </si>
@@ -2235,6 +2235,9 @@
     <t>housingLyphs</t>
   </si>
   <si>
+    <t>levelTargets</t>
+  </si>
+  <si>
     <t>wiredTo</t>
   </si>
   <si>
@@ -2727,6 +2730,9 @@
     <t>L6-5 PSPO dendrite chain_Neuron 5 (kblad)</t>
   </si>
   <si>
+    <t>ns62_5</t>
+  </si>
+  <si>
     <t>ac-snl65</t>
   </si>
   <si>
@@ -2748,6 +2754,9 @@
     <t>S1-5 PSPO dendrite chain_Neuron 5 (kblad)</t>
   </si>
   <si>
+    <t>ns64_5</t>
+  </si>
+  <si>
     <t>ac-sns15</t>
   </si>
   <si>
@@ -3111,6 +3120,9 @@
     <t>Pelvic Ganglia SPO dendrite chain_Neuron 2 (kblad)</t>
   </si>
   <si>
+    <t>ns250_5</t>
+  </si>
+  <si>
     <t>ac-pg_2</t>
   </si>
   <si>
@@ -3148,6 +3160,9 @@
   </si>
   <si>
     <t>IMG SPO dendrite chain_Neuron 3 (kblad)</t>
+  </si>
+  <si>
+    <t>ns300_5</t>
   </si>
   <si>
     <t>an-img_3</t>
@@ -4672,7 +4687,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4711,8 +4726,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
     <fill>
@@ -4745,7 +4790,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="220">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5163,38 +5208,65 @@
     <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -5284,28 +5356,28 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5673,333 +5745,333 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="210" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1412</v>
+        <v>1417</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1413</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="202" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C2" s="203" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D2" s="203"/>
+      <c r="A2" s="211" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2" s="212" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D2" s="212"/>
     </row>
     <row r="3">
-      <c r="A3" s="204" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C3" s="203" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D3" s="203"/>
+      <c r="A3" s="213" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C3" s="212" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D3" s="212"/>
     </row>
     <row r="4">
-      <c r="A4" s="204" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C4" s="203" t="s">
+      <c r="A4" s="213" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C4" s="212" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D4" s="212"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="214" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C5" s="212" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D5" s="212"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="214" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C6" s="212" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D6" s="212"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="214" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C7" s="212" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D7" s="212"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="214" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C8" s="212" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D8" s="212"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="214" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C9" s="212" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D9" s="212"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="214" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C10" s="212" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D10" s="212"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="214" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C11" s="212" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D11" s="212"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="214" t="s">
         <v>1419</v>
       </c>
-      <c r="D4" s="203"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="205" t="s">
+      <c r="C12" s="212" t="s">
         <v>1420</v>
       </c>
-      <c r="C5" s="203" t="s">
+      <c r="D12" s="212"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="214" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C13" s="212" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D13" s="212"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="214" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C14" s="212" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D14" s="212"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="214" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C15" s="212" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D15" s="212"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="214" t="s">
         <v>1421</v>
       </c>
-      <c r="D5" s="203"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="205" t="s">
+      <c r="C16" s="212" t="s">
         <v>1422</v>
       </c>
-      <c r="C6" s="203" t="s">
+      <c r="D16" s="212"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="214" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C17" s="212" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D17" s="212"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="214" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C18" s="212" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D18" s="212"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="214" t="s">
         <v>1423</v>
       </c>
-      <c r="D6" s="203"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="205" t="s">
+      <c r="C19" s="212" t="s">
         <v>1424</v>
       </c>
-      <c r="C7" s="203" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D7" s="203"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="205" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C8" s="203" t="s">
+      <c r="D19" s="212"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="214" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C20" s="212" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D20" s="212"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="215" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C21" s="212" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D21" s="212"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="214" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C22" s="212" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D22" s="212"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="214" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C23" s="212" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D23" s="212"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="214" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C24" s="212" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D24" s="212"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="214" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C25" s="212" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D25" s="212"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="214" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C26" s="212" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D26" s="212"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="214" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C27" s="212" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D27" s="212"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="214" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C28" s="212" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D28" s="212"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="214" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C29" s="212" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D29" s="212"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="214" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C30" s="212" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D30" s="212"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="214" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C31" s="212" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D31" s="212"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="214" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C32" s="212" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D32" s="212"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="214" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C33" s="212" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D33" s="212"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="214" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C34" s="212" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D34" s="212"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="214" t="s">
         <v>1427</v>
       </c>
-      <c r="D8" s="203"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="205" t="s">
+      <c r="C35" s="212" t="s">
         <v>1428</v>
       </c>
-      <c r="C9" s="203" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D9" s="203"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="205" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C10" s="203" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D10" s="203"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="205" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C11" s="203" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D11" s="203"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="205" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C12" s="203" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D12" s="203"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="205" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C13" s="203" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D13" s="203"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="205" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C14" s="203" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D14" s="203"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="205" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C15" s="203" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D15" s="203"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="205" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C16" s="203" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D16" s="203"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="205" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C17" s="203" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D17" s="203"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="205" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C18" s="203" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D18" s="203"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="205" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C19" s="203" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D19" s="203"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="205" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C20" s="203" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D20" s="203"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="206" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C21" s="203" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D21" s="203"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="205" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C22" s="203" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D22" s="203"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="205" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C23" s="203" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D23" s="203"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="205" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C24" s="203" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D24" s="203"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="205" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C25" s="203" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D25" s="203"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="205" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C26" s="203" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D26" s="203"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="205" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C27" s="203" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D27" s="203"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="205" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C28" s="203" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D28" s="203"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="205" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C29" s="203" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D29" s="203"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="205" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C30" s="203" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D30" s="203"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="205" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C31" s="203" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D31" s="203"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="205" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C32" s="203" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D32" s="203"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="205" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C33" s="203" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D33" s="203"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="205" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C34" s="203" t="s">
-        <v>1471</v>
-      </c>
-      <c r="D34" s="203"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="205" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C35" s="203" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D35" s="203"/>
+      <c r="D35" s="212"/>
     </row>
     <row r="36">
-      <c r="A36" s="205" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C36" s="203" t="s">
-        <v>1471</v>
-      </c>
-      <c r="D36" s="203"/>
+      <c r="A36" s="214" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C36" s="212" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D36" s="212"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6021,106 +6093,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1472</v>
+        <v>1477</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1473</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="207" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B2" s="208" t="s">
-        <v>1475</v>
+      <c r="A2" s="216" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B2" s="217" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="207" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B3" s="208" t="s">
-        <v>1477</v>
+      <c r="A3" s="216" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B3" s="217" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="207" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B4" s="209" t="s">
-        <v>1479</v>
+      <c r="A4" s="216" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B4" s="218" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="207" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B5" s="210" t="s">
-        <v>1481</v>
+      <c r="A5" s="216" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B5" s="219" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="207" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B6" s="210" t="s">
-        <v>1483</v>
+      <c r="A6" s="216" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B6" s="219" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="207" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B7" s="210" t="s">
-        <v>1485</v>
+      <c r="A7" s="216" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B7" s="219" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="207" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B8" s="210" t="s">
-        <v>1487</v>
+      <c r="A8" s="216" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B8" s="219" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="207" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B9" s="210" t="s">
-        <v>1489</v>
+      <c r="A9" s="216" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B9" s="219" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="207" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B10" s="210" t="s">
-        <v>1491</v>
+      <c r="A10" s="216" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B10" s="219" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="207" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B11" s="210" t="s">
-        <v>1493</v>
+      <c r="A11" s="216" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B11" s="219" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="126" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B12" s="208" t="s">
-        <v>1495</v>
+        <v>1499</v>
+      </c>
+      <c r="B12" s="217" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="126" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B13" s="208" t="s">
-        <v>1497</v>
+        <v>1501</v>
+      </c>
+      <c r="B13" s="217" t="s">
+        <v>1502</v>
       </c>
     </row>
   </sheetData>
@@ -11833,8 +11905,9 @@
     <col customWidth="1" min="10" max="10" width="5.57"/>
     <col customWidth="1" min="11" max="11" width="12.29"/>
     <col customWidth="1" min="12" max="12" width="25.86"/>
-    <col customWidth="1" min="13" max="13" width="14.57"/>
-    <col customWidth="1" min="14" max="14" width="27.71"/>
+    <col customWidth="1" min="13" max="13" width="12.14"/>
+    <col customWidth="1" min="14" max="14" width="14.57"/>
+    <col customWidth="1" min="15" max="15" width="27.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11877,32 +11950,35 @@
       <c r="M1" s="123" t="s">
         <v>727</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="123" t="s">
+        <v>728</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>607</v>
       </c>
-      <c r="O1" s="20" t="s">
-        <v>728</v>
+      <c r="P1" s="20" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="18" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H2" s="114">
         <v>100.0</v>
@@ -11911,23 +11987,24 @@
       <c r="J2" s="14"/>
       <c r="K2" s="124"/>
       <c r="L2" s="125"/>
-      <c r="M2" s="126" t="s">
-        <v>735</v>
-      </c>
-      <c r="N2" s="125"/>
-      <c r="O2" s="20">
+      <c r="M2" s="125"/>
+      <c r="N2" s="126" t="s">
+        <v>736</v>
+      </c>
+      <c r="O2" s="125"/>
+      <c r="P2" s="20">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D3" s="127"/>
       <c r="E3" s="43" t="s">
@@ -11947,20 +12024,21 @@
         <v>145</v>
       </c>
       <c r="M3" s="128"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125">
+      <c r="N3" s="128"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D4" s="129"/>
       <c r="E4" s="17" t="s">
@@ -11975,26 +12053,27 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="130" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L4" s="131" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M4" s="131"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125">
+      <c r="N4" s="131"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="43" t="s">
@@ -12011,20 +12090,21 @@
         <v>177</v>
       </c>
       <c r="M5" s="131"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125">
+      <c r="N5" s="131"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
@@ -12037,26 +12117,27 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="130" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L6" s="131" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M6" s="131"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125">
+      <c r="N6" s="131"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125">
         <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="43" t="s">
@@ -12073,20 +12154,21 @@
         <v>152</v>
       </c>
       <c r="M7" s="131"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125">
+      <c r="N7" s="131"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125">
         <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
@@ -12099,26 +12181,27 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="130" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L8" s="131" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M8" s="131"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125">
+      <c r="N8" s="131"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125">
         <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="43" t="s">
@@ -12135,20 +12218,21 @@
         <v>156</v>
       </c>
       <c r="M9" s="131"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125">
+      <c r="N9" s="131"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125">
         <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
@@ -12161,26 +12245,27 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="130" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L10" s="131" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M10" s="131"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125">
+      <c r="N10" s="131"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125">
         <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="43" t="s">
@@ -12197,20 +12282,21 @@
         <v>165</v>
       </c>
       <c r="M11" s="131"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125">
+      <c r="N11" s="131"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="125">
         <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="17" t="s">
@@ -12223,26 +12309,27 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="130" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L12" s="131" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M12" s="131"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125">
+      <c r="N12" s="131"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="125">
         <v>11.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="43" t="s">
@@ -12259,20 +12346,21 @@
         <v>169</v>
       </c>
       <c r="M13" s="131"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125">
+      <c r="N13" s="131"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="125">
         <v>12.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="17" t="s">
@@ -12285,26 +12373,27 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="130" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L14" s="131" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M14" s="131"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125">
+      <c r="N14" s="131"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125">
         <v>13.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="43" t="s">
@@ -12321,20 +12410,21 @@
         <v>173</v>
       </c>
       <c r="M15" s="131"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125">
+      <c r="N15" s="131"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125">
         <v>14.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="17" t="s">
@@ -12347,26 +12437,27 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="130" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L16" s="131" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M16" s="131"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125">
+      <c r="N16" s="131"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="125">
         <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="43" t="s">
@@ -12383,20 +12474,21 @@
         <v>184</v>
       </c>
       <c r="M17" s="131"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125">
+      <c r="N17" s="131"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125">
         <v>16.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="17" t="s">
@@ -12406,102 +12498,105 @@
         <v>631</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="130" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L18" s="131" t="s">
-        <v>782</v>
-      </c>
-      <c r="M18" s="131"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125">
+        <v>783</v>
+      </c>
+      <c r="M18" s="129"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125">
         <v>17.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C19" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="130" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L19" s="131" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M19" s="131"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125">
+      <c r="N19" s="131"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125">
         <v>18.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C20" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="130" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L20" s="131" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M20" s="131"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125">
+      <c r="N20" s="131"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="125">
         <v>19.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="53" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B21" s="133" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C21" s="134" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="43" t="s">
@@ -12521,20 +12616,21 @@
         <v>88</v>
       </c>
       <c r="M21" s="136"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125">
+      <c r="N21" s="136"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125">
         <v>20.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="53" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C22" s="134" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D22" s="51"/>
       <c r="E22" s="17" t="s">
@@ -12544,32 +12640,33 @@
         <v>634</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H22" s="53"/>
       <c r="I22" s="52"/>
       <c r="J22" s="52"/>
       <c r="K22" s="137" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L22" s="138" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M22" s="138"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125">
+      <c r="N22" s="138"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="125">
         <v>21.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="51" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="43" t="s">
@@ -12589,20 +12686,21 @@
         <v>93</v>
       </c>
       <c r="M23" s="138"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125">
+      <c r="N23" s="138"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125">
         <v>22.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="51" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C24" s="134" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D24" s="51"/>
       <c r="E24" s="17" t="s">
@@ -12612,67 +12710,69 @@
         <v>637</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H24" s="53"/>
       <c r="I24" s="52"/>
       <c r="J24" s="52"/>
       <c r="K24" s="137" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L24" s="136" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M24" s="136"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125">
+      <c r="N24" s="136"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125">
         <v>23.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="53" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B25" s="133" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H25" s="53"/>
       <c r="I25" s="52"/>
       <c r="J25" s="52"/>
       <c r="K25" s="139" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L25" s="140" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M25" s="140"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125">
+      <c r="N25" s="140"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125">
         <v>24.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
-        <v>810</v>
-      </c>
-      <c r="B26" s="22" t="s">
         <v>811</v>
       </c>
+      <c r="B26" s="141" t="s">
+        <v>812</v>
+      </c>
       <c r="C26" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="43" t="s">
@@ -12682,32 +12782,33 @@
         <v>645</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="141">
+      <c r="K26" s="142">
         <v>6.0</v>
       </c>
       <c r="L26" s="19" t="s">
         <v>88</v>
       </c>
       <c r="M26" s="19"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125">
+      <c r="N26" s="19"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125">
         <v>25.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C27" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="17" t="s">
@@ -12716,33 +12817,34 @@
       <c r="F27" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>815</v>
+      <c r="G27" s="143" t="s">
+        <v>816</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="130" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L27" s="131" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M27" s="131"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125">
+      <c r="N27" s="131"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="125">
         <v>26.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="43" t="s">
@@ -12752,32 +12854,33 @@
         <v>648</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="141">
+      <c r="K28" s="142">
         <v>6.0</v>
       </c>
       <c r="L28" s="19" t="s">
         <v>93</v>
       </c>
       <c r="M28" s="19"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125">
+      <c r="N28" s="19"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="125">
         <v>27.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="17" t="s">
@@ -12786,330 +12889,340 @@
       <c r="F29" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>823</v>
+      <c r="G29" s="144" t="s">
+        <v>824</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="130" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L29" s="131" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="M29" s="131"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125">
+      <c r="N29" s="131"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="125">
         <v>28.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="142" t="s">
-        <v>825</v>
-      </c>
-      <c r="B30" s="143" t="s">
+      <c r="A30" s="145" t="s">
         <v>826</v>
       </c>
+      <c r="B30" s="146" t="s">
+        <v>827</v>
+      </c>
       <c r="C30" s="38" t="s">
-        <v>741</v>
-      </c>
-      <c r="D30" s="144"/>
+        <v>742</v>
+      </c>
+      <c r="D30" s="147"/>
       <c r="E30" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="F30" s="143" t="s">
-        <v>827</v>
-      </c>
-      <c r="G30" s="145" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="146" t="s">
         <v>828</v>
       </c>
-      <c r="H30" s="146"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="148" t="s">
+      <c r="G30" s="148" t="s">
         <v>829</v>
       </c>
-      <c r="L30" s="149" t="s">
+      <c r="H30" s="149"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="151" t="s">
         <v>830</v>
       </c>
-      <c r="M30" s="149"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="150"/>
+      <c r="L30" s="152" t="s">
+        <v>831</v>
+      </c>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="153"/>
+      <c r="P30" s="153"/>
     </row>
     <row r="31">
-      <c r="A31" s="142" t="s">
-        <v>831</v>
-      </c>
-      <c r="B31" s="143" t="s">
+      <c r="A31" s="145" t="s">
         <v>832</v>
       </c>
+      <c r="B31" s="146" t="s">
+        <v>833</v>
+      </c>
       <c r="C31" s="38" t="s">
-        <v>741</v>
-      </c>
-      <c r="D31" s="144"/>
+        <v>742</v>
+      </c>
+      <c r="D31" s="147"/>
       <c r="E31" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F31" s="143" t="s">
-        <v>828</v>
-      </c>
-      <c r="G31" s="145" t="s">
-        <v>833</v>
-      </c>
-      <c r="H31" s="146"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="148" t="s">
+      <c r="F31" s="146" t="s">
         <v>829</v>
       </c>
-      <c r="L31" s="151" t="s">
+      <c r="G31" s="154" t="s">
         <v>834</v>
       </c>
-      <c r="M31" s="151"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="150"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="151" t="s">
+        <v>830</v>
+      </c>
+      <c r="L31" s="155" t="s">
+        <v>835</v>
+      </c>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="153"/>
+      <c r="P31" s="153"/>
     </row>
     <row r="32">
-      <c r="A32" s="142" t="s">
-        <v>835</v>
-      </c>
-      <c r="B32" s="143" t="s">
+      <c r="A32" s="145" t="s">
         <v>836</v>
       </c>
+      <c r="B32" s="146" t="s">
+        <v>837</v>
+      </c>
       <c r="C32" s="38" t="s">
-        <v>741</v>
-      </c>
-      <c r="D32" s="144"/>
+        <v>742</v>
+      </c>
+      <c r="D32" s="147"/>
       <c r="E32" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="143" t="s">
-        <v>815</v>
-      </c>
-      <c r="G32" s="145" t="s">
-        <v>833</v>
-      </c>
-      <c r="H32" s="146"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="148">
+      <c r="F32" s="156" t="s">
+        <v>816</v>
+      </c>
+      <c r="G32" s="154" t="s">
+        <v>834</v>
+      </c>
+      <c r="H32" s="149"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="151">
         <v>0.0</v>
       </c>
-      <c r="L32" s="149" t="s">
+      <c r="L32" s="152" t="s">
         <v>318</v>
       </c>
-      <c r="M32" s="149"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="150"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="153"/>
+      <c r="P32" s="153"/>
     </row>
     <row r="33">
-      <c r="A33" s="142" t="s">
-        <v>837</v>
-      </c>
-      <c r="B33" s="143" t="s">
+      <c r="A33" s="145" t="s">
         <v>838</v>
       </c>
+      <c r="B33" s="146" t="s">
+        <v>839</v>
+      </c>
       <c r="C33" s="38" t="s">
-        <v>741</v>
-      </c>
-      <c r="D33" s="144"/>
+        <v>742</v>
+      </c>
+      <c r="D33" s="147"/>
       <c r="E33" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="143" t="s">
-        <v>833</v>
-      </c>
-      <c r="G33" s="145" t="s">
-        <v>839</v>
-      </c>
-      <c r="H33" s="146"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="148" t="s">
-        <v>829</v>
-      </c>
-      <c r="L33" s="149" t="s">
+      <c r="F33" s="157" t="s">
+        <v>834</v>
+      </c>
+      <c r="G33" s="158" t="s">
         <v>840</v>
       </c>
-      <c r="M33" s="149"/>
-      <c r="N33" s="150"/>
-      <c r="O33" s="150"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="151" t="s">
+        <v>830</v>
+      </c>
+      <c r="L33" s="152" t="s">
+        <v>841</v>
+      </c>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="153"/>
+      <c r="P33" s="153"/>
     </row>
     <row r="34">
-      <c r="A34" s="142" t="s">
-        <v>841</v>
-      </c>
-      <c r="B34" s="143" t="s">
+      <c r="A34" s="145" t="s">
         <v>842</v>
       </c>
+      <c r="B34" s="146" t="s">
+        <v>843</v>
+      </c>
       <c r="C34" s="38" t="s">
-        <v>741</v>
-      </c>
-      <c r="D34" s="144"/>
+        <v>742</v>
+      </c>
+      <c r="D34" s="147"/>
       <c r="E34" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="143" t="s">
-        <v>823</v>
-      </c>
-      <c r="G34" s="145" t="s">
-        <v>839</v>
-      </c>
-      <c r="H34" s="146"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="148">
+      <c r="F34" s="159" t="s">
+        <v>824</v>
+      </c>
+      <c r="G34" s="158" t="s">
+        <v>840</v>
+      </c>
+      <c r="H34" s="149"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="151">
         <v>0.0</v>
       </c>
-      <c r="L34" s="149" t="s">
+      <c r="L34" s="152" t="s">
         <v>322</v>
       </c>
-      <c r="M34" s="149"/>
-      <c r="N34" s="150"/>
-      <c r="O34" s="150"/>
+      <c r="M34" s="152"/>
+      <c r="N34" s="152"/>
+      <c r="O34" s="153"/>
+      <c r="P34" s="153"/>
     </row>
     <row r="35">
-      <c r="A35" s="142" t="s">
-        <v>843</v>
-      </c>
-      <c r="B35" s="143" t="s">
+      <c r="A35" s="145" t="s">
         <v>844</v>
       </c>
+      <c r="B35" s="146" t="s">
+        <v>845</v>
+      </c>
       <c r="C35" s="38" t="s">
-        <v>741</v>
-      </c>
-      <c r="D35" s="144"/>
+        <v>742</v>
+      </c>
+      <c r="D35" s="147"/>
       <c r="E35" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F35" s="143" t="s">
-        <v>839</v>
-      </c>
-      <c r="G35" s="145" t="s">
-        <v>845</v>
-      </c>
-      <c r="H35" s="146"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="148" t="s">
-        <v>829</v>
-      </c>
-      <c r="L35" s="149" t="s">
+      <c r="F35" s="160" t="s">
+        <v>840</v>
+      </c>
+      <c r="G35" s="148" t="s">
         <v>846</v>
       </c>
-      <c r="M35" s="149"/>
-      <c r="N35" s="150"/>
-      <c r="O35" s="150"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="151" t="s">
+        <v>830</v>
+      </c>
+      <c r="L35" s="152" t="s">
+        <v>847</v>
+      </c>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="153"/>
+      <c r="P35" s="153"/>
     </row>
     <row r="36">
-      <c r="A36" s="142" t="s">
-        <v>847</v>
-      </c>
-      <c r="B36" s="143" t="s">
+      <c r="A36" s="145" t="s">
         <v>848</v>
       </c>
+      <c r="B36" s="146" t="s">
+        <v>849</v>
+      </c>
       <c r="C36" s="38" t="s">
-        <v>741</v>
-      </c>
-      <c r="D36" s="144"/>
+        <v>742</v>
+      </c>
+      <c r="D36" s="147"/>
       <c r="E36" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F36" s="143" t="s">
-        <v>845</v>
-      </c>
-      <c r="G36" s="145" t="s">
-        <v>849</v>
-      </c>
-      <c r="H36" s="146"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="148" t="s">
-        <v>829</v>
-      </c>
-      <c r="L36" s="151" t="s">
+      <c r="F36" s="146" t="s">
+        <v>846</v>
+      </c>
+      <c r="G36" s="148" t="s">
         <v>850</v>
       </c>
-      <c r="M36" s="151"/>
-      <c r="N36" s="150"/>
-      <c r="O36" s="150"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="151" t="s">
+        <v>830</v>
+      </c>
+      <c r="L36" s="155" t="s">
+        <v>851</v>
+      </c>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
     </row>
     <row r="37">
-      <c r="A37" s="142" t="s">
-        <v>851</v>
-      </c>
-      <c r="B37" s="143" t="s">
+      <c r="A37" s="145" t="s">
         <v>852</v>
       </c>
+      <c r="B37" s="146" t="s">
+        <v>853</v>
+      </c>
       <c r="C37" s="38" t="s">
-        <v>741</v>
-      </c>
-      <c r="D37" s="144"/>
+        <v>742</v>
+      </c>
+      <c r="D37" s="147"/>
       <c r="E37" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F37" s="143" t="s">
-        <v>849</v>
-      </c>
-      <c r="G37" s="145" t="s">
-        <v>853</v>
-      </c>
-      <c r="H37" s="146"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="148" t="s">
-        <v>829</v>
-      </c>
-      <c r="L37" s="151" t="s">
+      <c r="F37" s="146" t="s">
+        <v>850</v>
+      </c>
+      <c r="G37" s="148" t="s">
         <v>854</v>
       </c>
-      <c r="M37" s="151"/>
-      <c r="N37" s="150"/>
-      <c r="O37" s="150"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="151" t="s">
+        <v>830</v>
+      </c>
+      <c r="L37" s="155" t="s">
+        <v>855</v>
+      </c>
+      <c r="M37" s="155"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="153"/>
     </row>
     <row r="38">
-      <c r="A38" s="142" t="s">
-        <v>855</v>
-      </c>
-      <c r="B38" s="143" t="s">
+      <c r="A38" s="145" t="s">
         <v>856</v>
       </c>
+      <c r="B38" s="146" t="s">
+        <v>857</v>
+      </c>
       <c r="C38" s="38" t="s">
-        <v>741</v>
-      </c>
-      <c r="D38" s="144"/>
+        <v>742</v>
+      </c>
+      <c r="D38" s="147"/>
       <c r="E38" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F38" s="143" t="s">
-        <v>853</v>
-      </c>
-      <c r="G38" s="145" t="s">
-        <v>857</v>
-      </c>
-      <c r="H38" s="146"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="148" t="s">
-        <v>829</v>
-      </c>
-      <c r="L38" s="151" t="s">
+      <c r="F38" s="146" t="s">
+        <v>854</v>
+      </c>
+      <c r="G38" s="148" t="s">
         <v>858</v>
       </c>
-      <c r="M38" s="151"/>
-      <c r="N38" s="150"/>
-      <c r="O38" s="150"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="151" t="s">
+        <v>830</v>
+      </c>
+      <c r="L38" s="155" t="s">
+        <v>859</v>
+      </c>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="153"/>
+      <c r="P38" s="153"/>
     </row>
     <row r="39">
       <c r="A39" s="33" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="43" t="s">
@@ -13121,27 +13234,28 @@
       <c r="H39" s="12"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="152">
+      <c r="K39" s="161">
         <v>6.0</v>
       </c>
       <c r="L39" s="131" t="s">
         <v>88</v>
       </c>
       <c r="M39" s="131"/>
-      <c r="N39" s="125"/>
-      <c r="O39" s="125">
+      <c r="N39" s="131"/>
+      <c r="O39" s="125"/>
+      <c r="P39" s="125">
         <v>36.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="17" t="s">
@@ -13151,32 +13265,33 @@
         <v>652</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="130" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L40" s="131" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M40" s="131"/>
-      <c r="N40" s="125"/>
-      <c r="O40" s="125">
+      <c r="N40" s="131"/>
+      <c r="O40" s="125"/>
+      <c r="P40" s="125">
         <v>37.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="33" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="43" t="s">
@@ -13188,27 +13303,28 @@
       <c r="H41" s="12"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
-      <c r="K41" s="152">
+      <c r="K41" s="161">
         <v>6.0</v>
       </c>
       <c r="L41" s="131" t="s">
         <v>93</v>
       </c>
       <c r="M41" s="131"/>
-      <c r="N41" s="125"/>
-      <c r="O41" s="125">
+      <c r="N41" s="131"/>
+      <c r="O41" s="125"/>
+      <c r="P41" s="125">
         <v>38.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="33" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="17" t="s">
@@ -13218,65 +13334,67 @@
         <v>655</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="130" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L42" s="131" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M42" s="131"/>
-      <c r="N42" s="125"/>
-      <c r="O42" s="125">
+      <c r="N42" s="131"/>
+      <c r="O42" s="125"/>
+      <c r="P42" s="125">
         <v>39.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="33" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="12"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
-      <c r="K43" s="153" t="s">
+      <c r="K43" s="162" t="s">
         <v>260</v>
       </c>
       <c r="L43" s="129" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="M43" s="129"/>
-      <c r="N43" s="125"/>
-      <c r="O43" s="125">
+      <c r="N43" s="129"/>
+      <c r="O43" s="125"/>
+      <c r="P43" s="125">
         <v>40.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="33" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="43" t="s">
@@ -13288,27 +13406,28 @@
       <c r="H44" s="12"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
-      <c r="K44" s="152">
+      <c r="K44" s="161">
         <v>4.0</v>
       </c>
       <c r="L44" s="131" t="s">
         <v>103</v>
       </c>
       <c r="M44" s="131"/>
-      <c r="N44" s="125"/>
-      <c r="O44" s="125">
+      <c r="N44" s="131"/>
+      <c r="O44" s="125"/>
+      <c r="P44" s="125">
         <v>41.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="33" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="17" t="s">
@@ -13318,34 +13437,35 @@
         <v>658</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="130" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="L45" s="129" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="M45" s="129"/>
-      <c r="N45" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="O45" s="125">
+      <c r="N45" s="129"/>
+      <c r="O45" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="P45" s="125">
         <v>42.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="43" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="43" t="s">
@@ -13357,27 +13477,28 @@
       <c r="H46" s="12"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
-      <c r="K46" s="152">
+      <c r="K46" s="161">
         <v>4.0</v>
       </c>
       <c r="L46" s="131" t="s">
         <v>108</v>
       </c>
       <c r="M46" s="131"/>
-      <c r="N46" s="125"/>
-      <c r="O46" s="125">
+      <c r="N46" s="131"/>
+      <c r="O46" s="125"/>
+      <c r="P46" s="125">
         <v>43.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="33" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="17" t="s">
@@ -13387,69 +13508,71 @@
         <v>661</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
       <c r="K47" s="130" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="L47" s="129" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="M47" s="129"/>
-      <c r="N47" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="O47" s="125">
+      <c r="N47" s="129"/>
+      <c r="O47" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="P47" s="125">
         <v>44.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="33" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
-      <c r="K48" s="153" t="s">
-        <v>887</v>
+      <c r="K48" s="162" t="s">
+        <v>888</v>
       </c>
       <c r="L48" s="129" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="M48" s="129"/>
-      <c r="N48" s="125"/>
-      <c r="O48" s="125">
+      <c r="N48" s="129"/>
+      <c r="O48" s="125"/>
+      <c r="P48" s="125">
         <v>45.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="33" t="s">
-        <v>889</v>
-      </c>
-      <c r="B49" s="17" t="s">
         <v>890</v>
       </c>
+      <c r="B49" s="156" t="s">
+        <v>891</v>
+      </c>
       <c r="C49" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="43" t="s">
@@ -13458,30 +13581,34 @@
       <c r="F49" s="18" t="s">
         <v>663</v>
       </c>
+      <c r="G49" s="4" t="s">
+        <v>892</v>
+      </c>
       <c r="H49" s="12"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
-      <c r="K49" s="152">
+      <c r="K49" s="161">
         <v>6.0</v>
       </c>
       <c r="L49" s="131" t="s">
         <v>108</v>
       </c>
       <c r="M49" s="131"/>
-      <c r="N49" s="125"/>
-      <c r="O49" s="125">
+      <c r="N49" s="131"/>
+      <c r="O49" s="125"/>
+      <c r="P49" s="125">
         <v>46.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="33" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="17" t="s">
@@ -13491,32 +13618,33 @@
         <v>664</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
       <c r="K50" s="130" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="L50" s="131" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="M50" s="131"/>
-      <c r="N50" s="125"/>
-      <c r="O50" s="125">
+      <c r="N50" s="131"/>
+      <c r="O50" s="125"/>
+      <c r="P50" s="125">
         <v>47.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="33" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="43" t="s">
@@ -13525,30 +13653,34 @@
       <c r="F51" s="18" t="s">
         <v>666</v>
       </c>
+      <c r="G51" s="4" t="s">
+        <v>900</v>
+      </c>
       <c r="H51" s="12"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
-      <c r="K51" s="152">
+      <c r="K51" s="161">
         <v>6.0</v>
       </c>
       <c r="L51" s="131" t="s">
         <v>113</v>
       </c>
       <c r="M51" s="131"/>
-      <c r="N51" s="125"/>
-      <c r="O51" s="125">
+      <c r="N51" s="131"/>
+      <c r="O51" s="125"/>
+      <c r="P51" s="125">
         <v>48.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="33" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="17" t="s">
@@ -13558,77 +13690,79 @@
         <v>667</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="130" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="L52" s="131" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="M52" s="131"/>
-      <c r="N52" s="125"/>
-      <c r="O52" s="125">
+      <c r="N52" s="131"/>
+      <c r="O52" s="125"/>
+      <c r="P52" s="125">
         <v>49.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="33" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
-      <c r="K53" s="153" t="s">
+      <c r="K53" s="162" t="s">
         <v>260</v>
       </c>
       <c r="L53" s="129" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="M53" s="129"/>
-      <c r="N53" s="125"/>
-      <c r="O53" s="125">
+      <c r="N53" s="129"/>
+      <c r="O53" s="125"/>
+      <c r="P53" s="125">
         <v>50.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="33" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D54" s="128" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="18" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="H54" s="42">
         <v>100.0</v>
@@ -13637,254 +13771,262 @@
       <c r="J54" s="14"/>
       <c r="K54" s="130"/>
       <c r="L54" s="131"/>
-      <c r="M54" s="17" t="s">
-        <v>910</v>
-      </c>
-      <c r="N54" s="125"/>
-      <c r="O54" s="125">
+      <c r="M54" s="131"/>
+      <c r="N54" s="17" t="s">
+        <v>913</v>
+      </c>
+      <c r="O54" s="125"/>
+      <c r="P54" s="125">
         <v>51.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="117" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B55" s="119" t="s">
-        <v>912</v>
-      </c>
-      <c r="C55" s="154" t="s">
-        <v>738</v>
-      </c>
-      <c r="D55" s="155"/>
+        <v>915</v>
+      </c>
+      <c r="C55" s="163" t="s">
+        <v>739</v>
+      </c>
+      <c r="D55" s="164"/>
       <c r="E55" s="43" t="s">
         <v>214</v>
       </c>
       <c r="F55" s="118" t="s">
-        <v>913</v>
-      </c>
-      <c r="G55" s="156"/>
-      <c r="H55" s="157"/>
+        <v>916</v>
+      </c>
+      <c r="G55" s="165"/>
+      <c r="H55" s="166"/>
       <c r="I55" s="39"/>
       <c r="J55" s="39"/>
-      <c r="K55" s="158">
+      <c r="K55" s="167">
         <v>0.0</v>
       </c>
-      <c r="L55" s="159" t="s">
+      <c r="L55" s="168" t="s">
         <v>310</v>
       </c>
-      <c r="M55" s="159"/>
-      <c r="N55" s="160"/>
-      <c r="O55" s="125">
+      <c r="M55" s="168"/>
+      <c r="N55" s="168"/>
+      <c r="O55" s="169"/>
+      <c r="P55" s="125">
         <v>52.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="117" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B56" s="119" t="s">
-        <v>915</v>
-      </c>
-      <c r="C56" s="154" t="s">
-        <v>738</v>
-      </c>
-      <c r="D56" s="155"/>
+        <v>918</v>
+      </c>
+      <c r="C56" s="163" t="s">
+        <v>739</v>
+      </c>
+      <c r="D56" s="164"/>
       <c r="E56" s="43" t="s">
         <v>214</v>
       </c>
       <c r="F56" s="118" t="s">
-        <v>916</v>
-      </c>
-      <c r="G56" s="156"/>
-      <c r="H56" s="157"/>
+        <v>919</v>
+      </c>
+      <c r="G56" s="165"/>
+      <c r="H56" s="166"/>
       <c r="I56" s="39"/>
       <c r="J56" s="39"/>
-      <c r="K56" s="158">
+      <c r="K56" s="167">
         <v>0.0</v>
       </c>
-      <c r="L56" s="159" t="s">
+      <c r="L56" s="168" t="s">
         <v>314</v>
       </c>
-      <c r="M56" s="159"/>
-      <c r="N56" s="160"/>
-      <c r="O56" s="125">
+      <c r="M56" s="168"/>
+      <c r="N56" s="168"/>
+      <c r="O56" s="169"/>
+      <c r="P56" s="125">
         <v>53.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="117" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B57" s="119" t="s">
-        <v>918</v>
-      </c>
-      <c r="C57" s="154" t="s">
-        <v>738</v>
-      </c>
-      <c r="D57" s="155"/>
+        <v>921</v>
+      </c>
+      <c r="C57" s="163" t="s">
+        <v>739</v>
+      </c>
+      <c r="D57" s="164"/>
       <c r="E57" s="43" t="s">
         <v>214</v>
       </c>
       <c r="F57" s="118" t="s">
-        <v>919</v>
-      </c>
-      <c r="G57" s="156"/>
-      <c r="H57" s="157"/>
+        <v>922</v>
+      </c>
+      <c r="G57" s="165"/>
+      <c r="H57" s="166"/>
       <c r="I57" s="39"/>
       <c r="J57" s="39"/>
-      <c r="K57" s="158">
+      <c r="K57" s="167">
         <v>0.0</v>
       </c>
-      <c r="L57" s="159" t="s">
+      <c r="L57" s="168" t="s">
         <v>318</v>
       </c>
-      <c r="M57" s="159"/>
-      <c r="N57" s="160"/>
-      <c r="O57" s="125">
+      <c r="M57" s="168"/>
+      <c r="N57" s="168"/>
+      <c r="O57" s="169"/>
+      <c r="P57" s="125">
         <v>54.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="117" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B58" s="119" t="s">
-        <v>921</v>
-      </c>
-      <c r="C58" s="154" t="s">
-        <v>738</v>
-      </c>
-      <c r="D58" s="155"/>
+        <v>924</v>
+      </c>
+      <c r="C58" s="163" t="s">
+        <v>739</v>
+      </c>
+      <c r="D58" s="164"/>
       <c r="E58" s="43" t="s">
         <v>214</v>
       </c>
       <c r="F58" s="118" t="s">
-        <v>922</v>
-      </c>
-      <c r="G58" s="156"/>
-      <c r="H58" s="157"/>
+        <v>925</v>
+      </c>
+      <c r="G58" s="165"/>
+      <c r="H58" s="166"/>
       <c r="I58" s="39"/>
       <c r="J58" s="39"/>
-      <c r="K58" s="158">
+      <c r="K58" s="167">
         <v>0.0</v>
       </c>
-      <c r="L58" s="159" t="s">
+      <c r="L58" s="168" t="s">
         <v>322</v>
       </c>
-      <c r="M58" s="159"/>
-      <c r="N58" s="160"/>
-      <c r="O58" s="125">
+      <c r="M58" s="168"/>
+      <c r="N58" s="168"/>
+      <c r="O58" s="169"/>
+      <c r="P58" s="125">
         <v>55.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="117" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B59" s="119" t="s">
-        <v>924</v>
-      </c>
-      <c r="C59" s="154" t="s">
-        <v>738</v>
-      </c>
-      <c r="D59" s="155"/>
+        <v>927</v>
+      </c>
+      <c r="C59" s="163" t="s">
+        <v>739</v>
+      </c>
+      <c r="D59" s="164"/>
       <c r="E59" s="43" t="s">
         <v>214</v>
       </c>
       <c r="F59" s="118" t="s">
-        <v>925</v>
-      </c>
-      <c r="G59" s="156"/>
-      <c r="H59" s="157"/>
+        <v>928</v>
+      </c>
+      <c r="G59" s="165"/>
+      <c r="H59" s="166"/>
       <c r="I59" s="39"/>
       <c r="J59" s="39"/>
-      <c r="K59" s="158">
+      <c r="K59" s="167">
         <v>0.0</v>
       </c>
-      <c r="L59" s="159" t="s">
+      <c r="L59" s="168" t="s">
         <v>326</v>
       </c>
-      <c r="M59" s="159"/>
-      <c r="N59" s="160"/>
-      <c r="O59" s="125">
+      <c r="M59" s="168"/>
+      <c r="N59" s="168"/>
+      <c r="O59" s="169"/>
+      <c r="P59" s="125">
         <v>56.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="117" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B60" s="119" t="s">
-        <v>927</v>
-      </c>
-      <c r="C60" s="154" t="s">
-        <v>738</v>
-      </c>
-      <c r="D60" s="155"/>
+        <v>930</v>
+      </c>
+      <c r="C60" s="163" t="s">
+        <v>739</v>
+      </c>
+      <c r="D60" s="164"/>
       <c r="E60" s="43" t="s">
         <v>214</v>
       </c>
       <c r="F60" s="118" t="s">
-        <v>928</v>
-      </c>
-      <c r="G60" s="156"/>
-      <c r="H60" s="157"/>
+        <v>931</v>
+      </c>
+      <c r="G60" s="165"/>
+      <c r="H60" s="166"/>
       <c r="I60" s="39"/>
       <c r="J60" s="39"/>
-      <c r="K60" s="158">
+      <c r="K60" s="167">
         <v>0.0</v>
       </c>
-      <c r="L60" s="159" t="s">
+      <c r="L60" s="168" t="s">
         <v>330</v>
       </c>
-      <c r="M60" s="159"/>
-      <c r="N60" s="160"/>
-      <c r="O60" s="125">
+      <c r="M60" s="168"/>
+      <c r="N60" s="168"/>
+      <c r="O60" s="169"/>
+      <c r="P60" s="125">
         <v>57.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="161" t="s">
-        <v>929</v>
+      <c r="A61" s="170" t="s">
+        <v>932</v>
       </c>
       <c r="B61" s="119" t="s">
-        <v>930</v>
-      </c>
-      <c r="C61" s="154" t="s">
-        <v>738</v>
-      </c>
-      <c r="D61" s="155"/>
+        <v>933</v>
+      </c>
+      <c r="C61" s="163" t="s">
+        <v>739</v>
+      </c>
+      <c r="D61" s="164"/>
       <c r="E61" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F61" s="118" t="s">
-        <v>931</v>
-      </c>
-      <c r="G61" s="156"/>
-      <c r="H61" s="157"/>
+        <v>934</v>
+      </c>
+      <c r="G61" s="165"/>
+      <c r="H61" s="166"/>
       <c r="I61" s="39"/>
       <c r="J61" s="39"/>
-      <c r="K61" s="158">
+      <c r="K61" s="167">
         <v>0.0</v>
       </c>
-      <c r="L61" s="159" t="s">
+      <c r="L61" s="168" t="s">
         <v>334</v>
       </c>
-      <c r="M61" s="159"/>
-      <c r="N61" s="160"/>
-      <c r="O61" s="125">
+      <c r="M61" s="168"/>
+      <c r="N61" s="168"/>
+      <c r="O61" s="169"/>
+      <c r="P61" s="125">
         <v>58.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="43" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C62" s="132" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D62" s="128"/>
       <c r="E62" s="43" t="s">
@@ -13894,32 +14036,33 @@
         <v>669</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
-      <c r="K62" s="153" t="s">
+      <c r="K62" s="162" t="s">
         <v>260</v>
       </c>
-      <c r="L62" s="162" t="s">
-        <v>935</v>
-      </c>
-      <c r="M62" s="162"/>
-      <c r="N62" s="125"/>
-      <c r="O62" s="125">
+      <c r="L62" s="171" t="s">
+        <v>938</v>
+      </c>
+      <c r="M62" s="171"/>
+      <c r="N62" s="171"/>
+      <c r="O62" s="125"/>
+      <c r="P62" s="125">
         <v>59.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="43" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="C63" s="132" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D63" s="128"/>
       <c r="E63" s="43" t="s">
@@ -13929,32 +14072,33 @@
         <v>672</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
-      <c r="K63" s="153" t="s">
+      <c r="K63" s="162" t="s">
         <v>260</v>
       </c>
-      <c r="L63" s="162" t="s">
-        <v>938</v>
-      </c>
-      <c r="M63" s="162"/>
-      <c r="N63" s="125"/>
-      <c r="O63" s="125">
+      <c r="L63" s="171" t="s">
+        <v>941</v>
+      </c>
+      <c r="M63" s="171"/>
+      <c r="N63" s="171"/>
+      <c r="O63" s="125"/>
+      <c r="P63" s="125">
         <v>60.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="43" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D64" s="128"/>
       <c r="E64" s="17" t="s">
@@ -13964,207 +14108,213 @@
         <v>670</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
-      <c r="K64" s="153" t="s">
-        <v>942</v>
-      </c>
-      <c r="L64" s="162" t="s">
-        <v>943</v>
-      </c>
-      <c r="M64" s="162"/>
-      <c r="N64" s="125"/>
-      <c r="O64" s="125">
+      <c r="K64" s="162" t="s">
+        <v>945</v>
+      </c>
+      <c r="L64" s="171" t="s">
+        <v>946</v>
+      </c>
+      <c r="M64" s="171"/>
+      <c r="N64" s="171"/>
+      <c r="O64" s="125"/>
+      <c r="P64" s="125">
         <v>61.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="43" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D65" s="128"/>
       <c r="E65" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
-      <c r="K65" s="153" t="s">
-        <v>947</v>
-      </c>
-      <c r="L65" s="162" t="s">
-        <v>948</v>
-      </c>
-      <c r="M65" s="162"/>
-      <c r="N65" s="125"/>
-      <c r="O65" s="125">
+      <c r="K65" s="162" t="s">
+        <v>950</v>
+      </c>
+      <c r="L65" s="171" t="s">
+        <v>951</v>
+      </c>
+      <c r="M65" s="171"/>
+      <c r="N65" s="171"/>
+      <c r="O65" s="125"/>
+      <c r="P65" s="125">
         <v>62.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="43" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D66" s="128"/>
       <c r="E66" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
-      <c r="K66" s="153" t="s">
-        <v>952</v>
-      </c>
-      <c r="L66" s="162" t="s">
-        <v>948</v>
-      </c>
-      <c r="M66" s="162"/>
-      <c r="N66" s="125"/>
-      <c r="O66" s="125">
+      <c r="K66" s="162" t="s">
+        <v>955</v>
+      </c>
+      <c r="L66" s="171" t="s">
+        <v>951</v>
+      </c>
+      <c r="M66" s="171"/>
+      <c r="N66" s="171"/>
+      <c r="O66" s="125"/>
+      <c r="P66" s="125">
         <v>63.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="43" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D67" s="128"/>
       <c r="E67" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
-      <c r="K67" s="153" t="s">
-        <v>956</v>
-      </c>
-      <c r="L67" s="162" t="s">
-        <v>948</v>
-      </c>
-      <c r="M67" s="162"/>
-      <c r="N67" s="125"/>
-      <c r="O67" s="125">
+      <c r="K67" s="162" t="s">
+        <v>959</v>
+      </c>
+      <c r="L67" s="171" t="s">
+        <v>951</v>
+      </c>
+      <c r="M67" s="171"/>
+      <c r="N67" s="171"/>
+      <c r="O67" s="125"/>
+      <c r="P67" s="125">
         <v>64.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="43" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D68" s="128"/>
       <c r="E68" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
-      <c r="K68" s="153" t="s">
-        <v>960</v>
-      </c>
-      <c r="L68" s="162" t="s">
-        <v>948</v>
-      </c>
-      <c r="M68" s="162"/>
-      <c r="N68" s="125"/>
-      <c r="O68" s="125">
+      <c r="K68" s="162" t="s">
+        <v>963</v>
+      </c>
+      <c r="L68" s="171" t="s">
+        <v>951</v>
+      </c>
+      <c r="M68" s="171"/>
+      <c r="N68" s="171"/>
+      <c r="O68" s="125"/>
+      <c r="P68" s="125">
         <v>65.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="43" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D69" s="128"/>
       <c r="E69" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="H69" s="12"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
-      <c r="K69" s="153" t="s">
-        <v>964</v>
-      </c>
-      <c r="L69" s="162" t="s">
-        <v>948</v>
-      </c>
-      <c r="M69" s="162"/>
-      <c r="N69" s="125"/>
-      <c r="O69" s="125">
+      <c r="K69" s="162" t="s">
+        <v>967</v>
+      </c>
+      <c r="L69" s="171" t="s">
+        <v>951</v>
+      </c>
+      <c r="M69" s="171"/>
+      <c r="N69" s="171"/>
+      <c r="O69" s="125"/>
+      <c r="P69" s="125">
         <v>66.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="43" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D70" s="128"/>
       <c r="E70" s="17" t="s">
@@ -14174,452 +14324,465 @@
         <v>673</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
-      <c r="K70" s="153" t="s">
-        <v>942</v>
-      </c>
-      <c r="L70" s="162" t="s">
-        <v>968</v>
-      </c>
-      <c r="M70" s="162"/>
-      <c r="N70" s="125"/>
-      <c r="O70" s="125">
+      <c r="K70" s="162" t="s">
+        <v>945</v>
+      </c>
+      <c r="L70" s="171" t="s">
+        <v>971</v>
+      </c>
+      <c r="M70" s="171"/>
+      <c r="N70" s="171"/>
+      <c r="O70" s="125"/>
+      <c r="P70" s="125">
         <v>67.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="43" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D71" s="128"/>
       <c r="E71" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
-      <c r="K71" s="153" t="s">
-        <v>947</v>
-      </c>
-      <c r="L71" s="162" t="s">
-        <v>972</v>
-      </c>
-      <c r="M71" s="162"/>
-      <c r="N71" s="125"/>
-      <c r="O71" s="125">
+      <c r="K71" s="162" t="s">
+        <v>950</v>
+      </c>
+      <c r="L71" s="171" t="s">
+        <v>975</v>
+      </c>
+      <c r="M71" s="171"/>
+      <c r="N71" s="171"/>
+      <c r="O71" s="125"/>
+      <c r="P71" s="125">
         <v>68.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="43" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D72" s="128"/>
       <c r="E72" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
-      <c r="K72" s="153" t="s">
-        <v>952</v>
-      </c>
-      <c r="L72" s="162" t="s">
-        <v>972</v>
-      </c>
-      <c r="M72" s="162"/>
-      <c r="N72" s="125"/>
-      <c r="O72" s="125">
+      <c r="K72" s="162" t="s">
+        <v>955</v>
+      </c>
+      <c r="L72" s="171" t="s">
+        <v>975</v>
+      </c>
+      <c r="M72" s="171"/>
+      <c r="N72" s="171"/>
+      <c r="O72" s="125"/>
+      <c r="P72" s="125">
         <v>69.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="43" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D73" s="128"/>
       <c r="E73" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
-      <c r="K73" s="153" t="s">
-        <v>956</v>
-      </c>
-      <c r="L73" s="162" t="s">
-        <v>972</v>
-      </c>
-      <c r="M73" s="162"/>
-      <c r="N73" s="125"/>
-      <c r="O73" s="125">
+      <c r="K73" s="162" t="s">
+        <v>959</v>
+      </c>
+      <c r="L73" s="171" t="s">
+        <v>975</v>
+      </c>
+      <c r="M73" s="171"/>
+      <c r="N73" s="171"/>
+      <c r="O73" s="125"/>
+      <c r="P73" s="125">
         <v>70.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="43" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D74" s="128"/>
       <c r="E74" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
-      <c r="K74" s="153" t="s">
-        <v>960</v>
-      </c>
-      <c r="L74" s="162" t="s">
-        <v>972</v>
-      </c>
-      <c r="M74" s="162"/>
-      <c r="N74" s="125"/>
-      <c r="O74" s="125">
+      <c r="K74" s="162" t="s">
+        <v>963</v>
+      </c>
+      <c r="L74" s="171" t="s">
+        <v>975</v>
+      </c>
+      <c r="M74" s="171"/>
+      <c r="N74" s="171"/>
+      <c r="O74" s="125"/>
+      <c r="P74" s="125">
         <v>71.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="43" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D75" s="128"/>
       <c r="E75" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
-      <c r="K75" s="153" t="s">
-        <v>964</v>
-      </c>
-      <c r="L75" s="162" t="s">
-        <v>972</v>
-      </c>
-      <c r="M75" s="162"/>
-      <c r="N75" s="125"/>
-      <c r="O75" s="125">
+      <c r="K75" s="162" t="s">
+        <v>967</v>
+      </c>
+      <c r="L75" s="171" t="s">
+        <v>975</v>
+      </c>
+      <c r="M75" s="171"/>
+      <c r="N75" s="171"/>
+      <c r="O75" s="125"/>
+      <c r="P75" s="125">
         <v>72.0</v>
       </c>
     </row>
     <row r="76" ht="45.0" customHeight="1">
       <c r="A76" s="63" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="C76" s="132" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D76" s="64"/>
       <c r="E76" s="17" t="s">
         <v>217</v>
       </c>
       <c r="F76" s="37" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="G76" s="63" t="s">
-        <v>987</v>
-      </c>
-      <c r="H76" s="163"/>
+        <v>990</v>
+      </c>
+      <c r="H76" s="172"/>
       <c r="I76" s="60"/>
       <c r="J76" s="60"/>
-      <c r="K76" s="164" t="s">
-        <v>988</v>
-      </c>
-      <c r="L76" s="165" t="s">
-        <v>989</v>
-      </c>
-      <c r="M76" s="165"/>
-      <c r="N76" s="166"/>
-      <c r="O76" s="125">
+      <c r="K76" s="173" t="s">
+        <v>991</v>
+      </c>
+      <c r="L76" s="174" t="s">
+        <v>992</v>
+      </c>
+      <c r="M76" s="174"/>
+      <c r="N76" s="174"/>
+      <c r="O76" s="175"/>
+      <c r="P76" s="125">
         <v>73.0</v>
       </c>
     </row>
     <row r="77" ht="18.0" customHeight="1">
       <c r="A77" s="45" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C77" s="132" t="s">
-        <v>738</v>
-      </c>
-      <c r="D77" s="167"/>
+        <v>739</v>
+      </c>
+      <c r="D77" s="176"/>
       <c r="E77" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F77" s="37" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="G77" s="63" t="s">
-        <v>992</v>
-      </c>
-      <c r="H77" s="163"/>
+        <v>995</v>
+      </c>
+      <c r="H77" s="172"/>
       <c r="I77" s="60"/>
       <c r="J77" s="60"/>
-      <c r="K77" s="164" t="s">
-        <v>993</v>
-      </c>
-      <c r="L77" s="165" t="s">
-        <v>994</v>
-      </c>
-      <c r="M77" s="165"/>
-      <c r="N77" s="166"/>
-      <c r="O77" s="125">
+      <c r="K77" s="173" t="s">
+        <v>996</v>
+      </c>
+      <c r="L77" s="174" t="s">
+        <v>997</v>
+      </c>
+      <c r="M77" s="174"/>
+      <c r="N77" s="174"/>
+      <c r="O77" s="175"/>
+      <c r="P77" s="125">
         <v>74.0</v>
       </c>
     </row>
     <row r="78" ht="18.0" customHeight="1">
       <c r="A78" s="45" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C78" s="132" t="s">
-        <v>738</v>
-      </c>
-      <c r="D78" s="167"/>
+        <v>739</v>
+      </c>
+      <c r="D78" s="176"/>
       <c r="E78" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F78" s="37" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="G78" s="63" t="s">
-        <v>997</v>
-      </c>
-      <c r="H78" s="163"/>
+        <v>1000</v>
+      </c>
+      <c r="H78" s="172"/>
       <c r="I78" s="60"/>
       <c r="J78" s="60"/>
-      <c r="K78" s="164" t="s">
-        <v>998</v>
-      </c>
-      <c r="L78" s="168" t="s">
-        <v>999</v>
-      </c>
-      <c r="M78" s="168"/>
-      <c r="N78" s="166"/>
-      <c r="O78" s="125">
+      <c r="K78" s="173" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L78" s="177" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M78" s="177"/>
+      <c r="N78" s="177"/>
+      <c r="O78" s="175"/>
+      <c r="P78" s="125">
         <v>75.0</v>
       </c>
     </row>
     <row r="79" ht="18.0" customHeight="1">
       <c r="A79" s="45" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C79" s="132" t="s">
-        <v>738</v>
-      </c>
-      <c r="D79" s="167"/>
+        <v>739</v>
+      </c>
+      <c r="D79" s="176"/>
       <c r="E79" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F79" s="37" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="G79" s="63" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H79" s="163"/>
+        <v>1005</v>
+      </c>
+      <c r="H79" s="172"/>
       <c r="I79" s="60"/>
       <c r="J79" s="60"/>
-      <c r="K79" s="164" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L79" s="168" t="s">
-        <v>1004</v>
-      </c>
-      <c r="M79" s="168"/>
-      <c r="N79" s="166"/>
-      <c r="O79" s="125">
+      <c r="K79" s="173" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L79" s="177" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M79" s="177"/>
+      <c r="N79" s="177"/>
+      <c r="O79" s="175"/>
+      <c r="P79" s="125">
         <v>76.0</v>
       </c>
     </row>
     <row r="80" ht="18.0" customHeight="1">
       <c r="A80" s="45" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C80" s="61" t="s">
-        <v>738</v>
-      </c>
-      <c r="D80" s="167"/>
+        <v>739</v>
+      </c>
+      <c r="D80" s="176"/>
       <c r="E80" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F80" s="37" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="G80" s="63" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H80" s="163"/>
+        <v>1010</v>
+      </c>
+      <c r="H80" s="172"/>
       <c r="I80" s="60"/>
       <c r="J80" s="60"/>
-      <c r="K80" s="164" t="s">
-        <v>993</v>
-      </c>
-      <c r="L80" s="165" t="s">
-        <v>1008</v>
-      </c>
-      <c r="M80" s="165"/>
-      <c r="N80" s="166"/>
-      <c r="O80" s="125">
+      <c r="K80" s="173" t="s">
+        <v>996</v>
+      </c>
+      <c r="L80" s="174" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M80" s="174"/>
+      <c r="N80" s="174"/>
+      <c r="O80" s="175"/>
+      <c r="P80" s="125">
         <v>77.0</v>
       </c>
     </row>
     <row r="81" ht="18.0" customHeight="1">
       <c r="A81" s="45" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C81" s="61" t="s">
-        <v>738</v>
-      </c>
-      <c r="D81" s="167"/>
+        <v>739</v>
+      </c>
+      <c r="D81" s="176"/>
       <c r="E81" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F81" s="37" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="G81" s="63" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H81" s="163"/>
+        <v>1014</v>
+      </c>
+      <c r="H81" s="172"/>
       <c r="I81" s="60"/>
       <c r="J81" s="60"/>
-      <c r="K81" s="164" t="s">
-        <v>998</v>
-      </c>
-      <c r="L81" s="168" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M81" s="168"/>
-      <c r="N81" s="166"/>
-      <c r="O81" s="125">
+      <c r="K81" s="173" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L81" s="177" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M81" s="177"/>
+      <c r="N81" s="177"/>
+      <c r="O81" s="175"/>
+      <c r="P81" s="125">
         <v>78.0</v>
       </c>
     </row>
     <row r="82" ht="18.0" customHeight="1">
       <c r="A82" s="45" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C82" s="61" t="s">
-        <v>738</v>
-      </c>
-      <c r="D82" s="167"/>
+        <v>739</v>
+      </c>
+      <c r="D82" s="176"/>
       <c r="E82" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F82" s="37" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="G82" s="63" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="H82" s="57"/>
       <c r="I82" s="60"/>
       <c r="J82" s="60"/>
-      <c r="K82" s="164" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L82" s="168" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M82" s="168"/>
-      <c r="N82" s="166"/>
-      <c r="O82" s="125">
+      <c r="K82" s="173" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L82" s="177" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M82" s="177"/>
+      <c r="N82" s="177"/>
+      <c r="O82" s="175"/>
+      <c r="P82" s="125">
         <v>79.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="117" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B83" s="119" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C83" s="154" t="s">
-        <v>738</v>
+        <v>1021</v>
+      </c>
+      <c r="C83" s="163" t="s">
+        <v>739</v>
       </c>
       <c r="D83" s="118"/>
       <c r="E83" s="43" t="s">
@@ -14628,31 +14791,34 @@
       <c r="F83" s="118" t="s">
         <v>678</v>
       </c>
-      <c r="G83" s="39"/>
-      <c r="H83" s="157"/>
+      <c r="G83" s="119" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H83" s="166"/>
       <c r="I83" s="39"/>
       <c r="J83" s="39"/>
-      <c r="K83" s="169">
+      <c r="K83" s="178">
         <v>0.0</v>
       </c>
-      <c r="L83" s="159" t="s">
+      <c r="L83" s="168" t="s">
         <v>403</v>
       </c>
-      <c r="M83" s="159"/>
-      <c r="N83" s="160"/>
-      <c r="O83" s="125">
+      <c r="M83" s="168"/>
+      <c r="N83" s="168"/>
+      <c r="O83" s="169"/>
+      <c r="P83" s="125">
         <v>80.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="76" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B84" s="70" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D84" s="74"/>
       <c r="E84" s="17" t="s">
@@ -14662,102 +14828,105 @@
         <v>679</v>
       </c>
       <c r="G84" s="78" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="H84" s="74"/>
       <c r="I84" s="72"/>
       <c r="J84" s="72"/>
-      <c r="K84" s="170" t="s">
+      <c r="K84" s="179" t="s">
         <v>260</v>
       </c>
-      <c r="L84" s="171" t="s">
-        <v>1022</v>
-      </c>
-      <c r="M84" s="171"/>
-      <c r="N84" s="172"/>
-      <c r="O84" s="125">
+      <c r="L84" s="180" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M84" s="180"/>
+      <c r="N84" s="180"/>
+      <c r="O84" s="181"/>
+      <c r="P84" s="125">
         <v>81.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="76" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B85" s="70" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C85" s="173" t="s">
-        <v>741</v>
+        <v>1028</v>
+      </c>
+      <c r="C85" s="182" t="s">
+        <v>742</v>
       </c>
       <c r="D85" s="74"/>
       <c r="E85" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F85" s="70" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="G85" s="78" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="H85" s="74"/>
       <c r="I85" s="72"/>
       <c r="J85" s="72"/>
-      <c r="K85" s="170" t="s">
-        <v>998</v>
-      </c>
-      <c r="L85" s="171" t="s">
-        <v>999</v>
-      </c>
-      <c r="M85" s="171"/>
-      <c r="N85" s="172"/>
-      <c r="O85" s="125">
+      <c r="K85" s="179" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L85" s="180" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M85" s="180"/>
+      <c r="N85" s="180"/>
+      <c r="O85" s="181"/>
+      <c r="P85" s="125">
         <v>82.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="76" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="B86" s="70" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D86" s="74"/>
       <c r="E86" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F86" s="70" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="G86" s="78" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="H86" s="74"/>
       <c r="I86" s="72"/>
       <c r="J86" s="72"/>
-      <c r="K86" s="170" t="s">
-        <v>998</v>
-      </c>
-      <c r="L86" s="171" t="s">
-        <v>1029</v>
-      </c>
-      <c r="M86" s="171"/>
-      <c r="N86" s="172"/>
-      <c r="O86" s="125">
+      <c r="K86" s="179" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L86" s="180" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M86" s="180"/>
+      <c r="N86" s="180"/>
+      <c r="O86" s="181"/>
+      <c r="P86" s="125">
         <v>83.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="33" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D87" s="128"/>
       <c r="E87" s="43" t="s">
@@ -14766,30 +14935,34 @@
       <c r="F87" s="18" t="s">
         <v>681</v>
       </c>
+      <c r="G87" s="4" t="s">
+        <v>1036</v>
+      </c>
       <c r="H87" s="12"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
-      <c r="K87" s="152">
+      <c r="K87" s="161">
         <v>0.0</v>
       </c>
       <c r="L87" s="129" t="s">
         <v>395</v>
       </c>
       <c r="M87" s="129"/>
-      <c r="N87" s="125"/>
-      <c r="O87" s="125">
+      <c r="N87" s="129"/>
+      <c r="O87" s="125"/>
+      <c r="P87" s="125">
         <v>84.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="43" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="17" t="s">
@@ -14799,102 +14972,105 @@
         <v>682</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="H88" s="18"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
-      <c r="K88" s="153" t="s">
-        <v>808</v>
-      </c>
-      <c r="L88" s="162" t="s">
-        <v>1035</v>
-      </c>
-      <c r="M88" s="162"/>
-      <c r="N88" s="125"/>
-      <c r="O88" s="125">
+      <c r="K88" s="162" t="s">
+        <v>809</v>
+      </c>
+      <c r="L88" s="171" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M88" s="171"/>
+      <c r="N88" s="171"/>
+      <c r="O88" s="125"/>
+      <c r="P88" s="125">
         <v>85.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="43" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="H89" s="18"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
-      <c r="K89" s="153" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L89" s="174" t="s">
-        <v>1040</v>
-      </c>
-      <c r="M89" s="174"/>
-      <c r="N89" s="125"/>
-      <c r="O89" s="125">
+      <c r="K89" s="162" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L89" s="183" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M89" s="183"/>
+      <c r="N89" s="183"/>
+      <c r="O89" s="125"/>
+      <c r="P89" s="125">
         <v>86.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="43" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="H90" s="18"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
-      <c r="K90" s="153" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L90" s="162" t="s">
+      <c r="K90" s="162" t="s">
         <v>1044</v>
       </c>
-      <c r="M90" s="162"/>
-      <c r="N90" s="125"/>
-      <c r="O90" s="125">
+      <c r="L90" s="171" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M90" s="171"/>
+      <c r="N90" s="171"/>
+      <c r="O90" s="125"/>
+      <c r="P90" s="125">
         <v>87.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="16" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="43" t="s">
@@ -14904,32 +15080,33 @@
         <v>684</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="H91" s="18"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
-      <c r="K91" s="152">
+      <c r="K91" s="161">
         <v>0.0</v>
       </c>
-      <c r="L91" s="175" t="s">
+      <c r="L91" s="184" t="s">
         <v>310</v>
       </c>
-      <c r="M91" s="175"/>
-      <c r="N91" s="125"/>
-      <c r="O91" s="125">
+      <c r="M91" s="184"/>
+      <c r="N91" s="184"/>
+      <c r="O91" s="125"/>
+      <c r="P91" s="125">
         <v>88.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="16" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="43" t="s">
@@ -14939,32 +15116,33 @@
         <v>687</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="H92" s="18"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
-      <c r="K92" s="152">
+      <c r="K92" s="161">
         <v>0.0</v>
       </c>
-      <c r="L92" s="175" t="s">
+      <c r="L92" s="184" t="s">
         <v>314</v>
       </c>
-      <c r="M92" s="175"/>
-      <c r="N92" s="125"/>
-      <c r="O92" s="125">
+      <c r="M92" s="184"/>
+      <c r="N92" s="184"/>
+      <c r="O92" s="125"/>
+      <c r="P92" s="125">
         <v>89.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="16" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="43" t="s">
@@ -14974,32 +15152,33 @@
         <v>690</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="H93" s="18"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
-      <c r="K93" s="152">
+      <c r="K93" s="161">
         <v>0.0</v>
       </c>
-      <c r="L93" s="175" t="s">
+      <c r="L93" s="184" t="s">
         <v>318</v>
       </c>
-      <c r="M93" s="175"/>
-      <c r="N93" s="125"/>
-      <c r="O93" s="125">
+      <c r="M93" s="184"/>
+      <c r="N93" s="184"/>
+      <c r="O93" s="125"/>
+      <c r="P93" s="125">
         <v>90.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="16" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="43" t="s">
@@ -15009,32 +15188,33 @@
         <v>693</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="H94" s="18"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
-      <c r="K94" s="152">
+      <c r="K94" s="161">
         <v>0.0</v>
       </c>
-      <c r="L94" s="175" t="s">
+      <c r="L94" s="184" t="s">
         <v>322</v>
       </c>
-      <c r="M94" s="175"/>
-      <c r="N94" s="125"/>
-      <c r="O94" s="125">
+      <c r="M94" s="184"/>
+      <c r="N94" s="184"/>
+      <c r="O94" s="125"/>
+      <c r="P94" s="125">
         <v>91.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="16" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="43" t="s">
@@ -15044,32 +15224,33 @@
         <v>696</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="H95" s="18"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
-      <c r="K95" s="152">
+      <c r="K95" s="161">
         <v>0.0</v>
       </c>
-      <c r="L95" s="175" t="s">
+      <c r="L95" s="184" t="s">
         <v>326</v>
       </c>
-      <c r="M95" s="175"/>
-      <c r="N95" s="125"/>
-      <c r="O95" s="125">
+      <c r="M95" s="184"/>
+      <c r="N95" s="184"/>
+      <c r="O95" s="125"/>
+      <c r="P95" s="125">
         <v>92.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="16" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="43" t="s">
@@ -15079,32 +15260,33 @@
         <v>699</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
-      <c r="K96" s="152">
+      <c r="K96" s="161">
         <v>0.0</v>
       </c>
-      <c r="L96" s="175" t="s">
+      <c r="L96" s="184" t="s">
         <v>330</v>
       </c>
-      <c r="M96" s="175"/>
-      <c r="N96" s="125"/>
-      <c r="O96" s="125">
+      <c r="M96" s="184"/>
+      <c r="N96" s="184"/>
+      <c r="O96" s="125"/>
+      <c r="P96" s="125">
         <v>93.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="16" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="43" t="s">
@@ -15114,32 +15296,33 @@
         <v>702</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="H97" s="18"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
-      <c r="K97" s="152">
+      <c r="K97" s="161">
         <v>0.0</v>
       </c>
-      <c r="L97" s="175" t="s">
+      <c r="L97" s="184" t="s">
         <v>334</v>
       </c>
-      <c r="M97" s="175"/>
-      <c r="N97" s="125"/>
-      <c r="O97" s="125">
+      <c r="M97" s="184"/>
+      <c r="N97" s="184"/>
+      <c r="O97" s="125"/>
+      <c r="P97" s="125">
         <v>94.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="16" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="43" t="s">
@@ -15149,32 +15332,33 @@
         <v>705</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="H98" s="18"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
-      <c r="K98" s="152">
+      <c r="K98" s="161">
         <v>0.0</v>
       </c>
-      <c r="L98" s="175" t="s">
+      <c r="L98" s="184" t="s">
         <v>338</v>
       </c>
-      <c r="M98" s="175"/>
-      <c r="N98" s="125"/>
-      <c r="O98" s="125">
+      <c r="M98" s="184"/>
+      <c r="N98" s="184"/>
+      <c r="O98" s="125"/>
+      <c r="P98" s="125">
         <v>95.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="16" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="17" t="s">
@@ -15184,32 +15368,33 @@
         <v>685</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="H99" s="18"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
-      <c r="K99" s="176" t="s">
-        <v>1072</v>
+      <c r="K99" s="185" t="s">
+        <v>1077</v>
       </c>
       <c r="L99" s="19" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="M99" s="19"/>
-      <c r="N99" s="177"/>
-      <c r="O99" s="125">
+      <c r="N99" s="19"/>
+      <c r="O99" s="186"/>
+      <c r="P99" s="125">
         <v>96.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="16" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="17" t="s">
@@ -15219,32 +15404,33 @@
         <v>688</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
-      <c r="K100" s="176" t="s">
-        <v>1076</v>
+      <c r="K100" s="185" t="s">
+        <v>1081</v>
       </c>
       <c r="L100" s="19" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="M100" s="19"/>
-      <c r="N100" s="125"/>
-      <c r="O100" s="125">
+      <c r="N100" s="19"/>
+      <c r="O100" s="125"/>
+      <c r="P100" s="125">
         <v>97.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="16" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D101" s="18"/>
       <c r="E101" s="17" t="s">
@@ -15254,32 +15440,33 @@
         <v>691</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
-      <c r="K101" s="176" t="s">
-        <v>1080</v>
+      <c r="K101" s="185" t="s">
+        <v>1085</v>
       </c>
       <c r="L101" s="19" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="M101" s="19"/>
-      <c r="N101" s="125"/>
-      <c r="O101" s="125">
+      <c r="N101" s="19"/>
+      <c r="O101" s="125"/>
+      <c r="P101" s="125">
         <v>98.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="16" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="17" t="s">
@@ -15289,32 +15476,33 @@
         <v>694</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="H102" s="18"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
-      <c r="K102" s="176" t="s">
-        <v>1084</v>
+      <c r="K102" s="185" t="s">
+        <v>1089</v>
       </c>
       <c r="L102" s="19" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="M102" s="19"/>
-      <c r="N102" s="125"/>
-      <c r="O102" s="125">
+      <c r="N102" s="19"/>
+      <c r="O102" s="125"/>
+      <c r="P102" s="125">
         <v>99.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="16" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="17" t="s">
@@ -15324,32 +15512,33 @@
         <v>697</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="H103" s="18"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
-      <c r="K103" s="176" t="s">
-        <v>1088</v>
+      <c r="K103" s="185" t="s">
+        <v>1093</v>
       </c>
       <c r="L103" s="19" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="M103" s="19"/>
-      <c r="N103" s="125"/>
-      <c r="O103" s="125">
+      <c r="N103" s="19"/>
+      <c r="O103" s="125"/>
+      <c r="P103" s="125">
         <v>100.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="16" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="17" t="s">
@@ -15359,32 +15548,33 @@
         <v>700</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="H104" s="18"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
-      <c r="K104" s="176" t="s">
-        <v>988</v>
+      <c r="K104" s="185" t="s">
+        <v>991</v>
       </c>
       <c r="L104" s="19" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="M104" s="19"/>
-      <c r="N104" s="125"/>
-      <c r="O104" s="125">
+      <c r="N104" s="19"/>
+      <c r="O104" s="125"/>
+      <c r="P104" s="125">
         <v>101.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="16" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="17" t="s">
@@ -15394,32 +15584,33 @@
         <v>703</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="H105" s="18"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
-      <c r="K105" s="176" t="s">
-        <v>829</v>
+      <c r="K105" s="185" t="s">
+        <v>830</v>
       </c>
       <c r="L105" s="19" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="M105" s="19"/>
-      <c r="N105" s="125"/>
-      <c r="O105" s="125">
+      <c r="N105" s="19"/>
+      <c r="O105" s="125"/>
+      <c r="P105" s="125">
         <v>102.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="16" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="17" t="s">
@@ -15429,207 +15620,213 @@
         <v>706</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="H106" s="18"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
-      <c r="K106" s="176" t="s">
+      <c r="K106" s="185" t="s">
         <v>260</v>
       </c>
       <c r="L106" s="19" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="M106" s="19"/>
-      <c r="N106" s="125"/>
-      <c r="O106" s="125">
+      <c r="N106" s="19"/>
+      <c r="O106" s="125"/>
+      <c r="P106" s="125">
         <v>103.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="16" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="17" t="s">
         <v>212</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="H107" s="18"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
-      <c r="K107" s="152" t="s">
-        <v>829</v>
+      <c r="K107" s="161" t="s">
+        <v>830</v>
       </c>
       <c r="L107" s="20" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="M107" s="20"/>
-      <c r="N107" s="125"/>
-      <c r="O107" s="125">
+      <c r="N107" s="20"/>
+      <c r="O107" s="125"/>
+      <c r="P107" s="125">
         <v>104.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="16" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="17" t="s">
         <v>212</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="H108" s="18"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
-      <c r="K108" s="152" t="s">
-        <v>988</v>
+      <c r="K108" s="161" t="s">
+        <v>991</v>
       </c>
       <c r="L108" s="20" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="M108" s="20"/>
-      <c r="N108" s="125"/>
-      <c r="O108" s="125">
+      <c r="N108" s="20"/>
+      <c r="O108" s="125"/>
+      <c r="P108" s="125">
         <v>105.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="16" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="17" t="s">
         <v>212</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="H109" s="18"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
-      <c r="K109" s="152" t="s">
-        <v>829</v>
-      </c>
-      <c r="L109" s="178" t="s">
-        <v>1109</v>
-      </c>
-      <c r="M109" s="178"/>
-      <c r="N109" s="125"/>
-      <c r="O109" s="125">
+      <c r="K109" s="161" t="s">
+        <v>830</v>
+      </c>
+      <c r="L109" s="187" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M109" s="187"/>
+      <c r="N109" s="187"/>
+      <c r="O109" s="125"/>
+      <c r="P109" s="125">
         <v>106.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="16" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="H110" s="18"/>
       <c r="I110" s="14"/>
       <c r="J110" s="14"/>
-      <c r="K110" s="153" t="s">
-        <v>1113</v>
-      </c>
-      <c r="L110" s="175" t="s">
-        <v>1114</v>
-      </c>
-      <c r="M110" s="175"/>
-      <c r="N110" s="125"/>
-      <c r="O110" s="125">
+      <c r="K110" s="162" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L110" s="184" t="s">
+        <v>1119</v>
+      </c>
+      <c r="M110" s="184"/>
+      <c r="N110" s="184"/>
+      <c r="O110" s="125"/>
+      <c r="P110" s="125">
         <v>107.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="16" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="H111" s="18"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14"/>
-      <c r="K111" s="153" t="s">
-        <v>1113</v>
-      </c>
-      <c r="L111" s="175" t="s">
+      <c r="K111" s="162" t="s">
         <v>1118</v>
       </c>
-      <c r="M111" s="175"/>
-      <c r="N111" s="125"/>
-      <c r="O111" s="125">
+      <c r="L111" s="184" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M111" s="184"/>
+      <c r="N111" s="184"/>
+      <c r="O111" s="125"/>
+      <c r="P111" s="125">
         <v>108.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="33" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="C112" s="132" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="17" t="s">
@@ -15639,34 +15836,35 @@
         <v>708</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="H112" s="18"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
-      <c r="K112" s="179" t="s">
+      <c r="K112" s="188" t="s">
         <v>260</v>
       </c>
-      <c r="L112" s="180" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M112" s="180"/>
-      <c r="N112" s="20" t="s">
-        <v>1123</v>
-      </c>
-      <c r="O112" s="125">
+      <c r="L112" s="189" t="s">
+        <v>1127</v>
+      </c>
+      <c r="M112" s="189"/>
+      <c r="N112" s="189"/>
+      <c r="O112" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="P112" s="125">
         <v>109.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="33" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="C113" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="17" t="s">
@@ -15676,207 +15874,213 @@
         <v>709</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="H113" s="18"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
-      <c r="K113" s="152" t="s">
-        <v>942</v>
-      </c>
-      <c r="L113" s="175" t="s">
-        <v>1127</v>
-      </c>
-      <c r="M113" s="175"/>
-      <c r="N113" s="125"/>
-      <c r="O113" s="125">
+      <c r="K113" s="161" t="s">
+        <v>945</v>
+      </c>
+      <c r="L113" s="184" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M113" s="184"/>
+      <c r="N113" s="184"/>
+      <c r="O113" s="125"/>
+      <c r="P113" s="125">
         <v>110.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="33" t="s">
-        <v>1128</v>
+        <v>1133</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="C114" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F114" s="17" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="H114" s="18"/>
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
-      <c r="K114" s="153" t="s">
-        <v>1131</v>
-      </c>
-      <c r="L114" s="162" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M114" s="162"/>
-      <c r="N114" s="125"/>
-      <c r="O114" s="125">
+      <c r="K114" s="162" t="s">
+        <v>1136</v>
+      </c>
+      <c r="L114" s="171" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M114" s="171"/>
+      <c r="N114" s="171"/>
+      <c r="O114" s="125"/>
+      <c r="P114" s="125">
         <v>111.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="33" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="C115" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F115" s="17" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>1135</v>
+        <v>1140</v>
       </c>
       <c r="H115" s="18"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
-      <c r="K115" s="153" t="s">
-        <v>960</v>
-      </c>
-      <c r="L115" s="162" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M115" s="162"/>
-      <c r="N115" s="125"/>
-      <c r="O115" s="125">
+      <c r="K115" s="162" t="s">
+        <v>963</v>
+      </c>
+      <c r="L115" s="171" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M115" s="171"/>
+      <c r="N115" s="171"/>
+      <c r="O115" s="125"/>
+      <c r="P115" s="125">
         <v>112.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="33" t="s">
-        <v>1136</v>
+        <v>1141</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>1137</v>
+        <v>1142</v>
       </c>
       <c r="C116" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="H116" s="18"/>
       <c r="I116" s="14"/>
       <c r="J116" s="14"/>
-      <c r="K116" s="153" t="s">
-        <v>956</v>
-      </c>
-      <c r="L116" s="162" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M116" s="162"/>
-      <c r="N116" s="125"/>
-      <c r="O116" s="125">
+      <c r="K116" s="162" t="s">
+        <v>959</v>
+      </c>
+      <c r="L116" s="171" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M116" s="171"/>
+      <c r="N116" s="171"/>
+      <c r="O116" s="125"/>
+      <c r="P116" s="125">
         <v>113.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="33" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>1140</v>
+        <v>1145</v>
       </c>
       <c r="C117" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D117" s="18"/>
       <c r="E117" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F117" s="17" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="H117" s="18"/>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
-      <c r="K117" s="153" t="s">
-        <v>952</v>
-      </c>
-      <c r="L117" s="162" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M117" s="162"/>
-      <c r="N117" s="125"/>
-      <c r="O117" s="125">
+      <c r="K117" s="162" t="s">
+        <v>955</v>
+      </c>
+      <c r="L117" s="171" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M117" s="171"/>
+      <c r="N117" s="171"/>
+      <c r="O117" s="125"/>
+      <c r="P117" s="125">
         <v>114.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="43" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>1143</v>
+        <v>1148</v>
       </c>
       <c r="C118" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D118" s="18"/>
       <c r="E118" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="H118" s="18"/>
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
-      <c r="K118" s="153" t="s">
-        <v>952</v>
-      </c>
-      <c r="L118" s="162" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M118" s="162"/>
-      <c r="N118" s="125"/>
-      <c r="O118" s="125">
+      <c r="K118" s="162" t="s">
+        <v>955</v>
+      </c>
+      <c r="L118" s="171" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M118" s="171"/>
+      <c r="N118" s="171"/>
+      <c r="O118" s="125"/>
+      <c r="P118" s="125">
         <v>115.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="43" t="s">
-        <v>1145</v>
+        <v>1150</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="C119" s="132" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D119" s="18"/>
       <c r="E119" s="17" t="s">
@@ -15886,34 +16090,35 @@
         <v>711</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="H119" s="18"/>
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
-      <c r="K119" s="179" t="s">
+      <c r="K119" s="188" t="s">
         <v>260</v>
       </c>
-      <c r="L119" s="180" t="s">
-        <v>1147</v>
-      </c>
-      <c r="M119" s="180"/>
-      <c r="N119" s="20" t="s">
-        <v>1123</v>
-      </c>
-      <c r="O119" s="125">
+      <c r="L119" s="189" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M119" s="189"/>
+      <c r="N119" s="189"/>
+      <c r="O119" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="P119" s="125">
         <v>116.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="33" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>1149</v>
+        <v>1154</v>
       </c>
       <c r="C120" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="17" t="s">
@@ -15923,452 +16128,465 @@
         <v>712</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="H120" s="18"/>
       <c r="I120" s="14"/>
       <c r="J120" s="14"/>
-      <c r="K120" s="152" t="s">
-        <v>942</v>
-      </c>
-      <c r="L120" s="175" t="s">
-        <v>1151</v>
-      </c>
-      <c r="M120" s="175"/>
-      <c r="N120" s="125"/>
-      <c r="O120" s="125">
+      <c r="K120" s="161" t="s">
+        <v>945</v>
+      </c>
+      <c r="L120" s="184" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M120" s="184"/>
+      <c r="N120" s="184"/>
+      <c r="O120" s="125"/>
+      <c r="P120" s="125">
         <v>117.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="33" t="s">
-        <v>1152</v>
+        <v>1157</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="C121" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D121" s="18"/>
       <c r="E121" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F121" s="17" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="H121" s="18"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
-      <c r="K121" s="153" t="s">
-        <v>964</v>
-      </c>
-      <c r="L121" s="162" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M121" s="162"/>
-      <c r="N121" s="125"/>
-      <c r="O121" s="125">
+      <c r="K121" s="162" t="s">
+        <v>967</v>
+      </c>
+      <c r="L121" s="171" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M121" s="171"/>
+      <c r="N121" s="171"/>
+      <c r="O121" s="125"/>
+      <c r="P121" s="125">
         <v>118.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="33" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="C122" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>1158</v>
+        <v>1163</v>
       </c>
       <c r="H122" s="18"/>
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
-      <c r="K122" s="153" t="s">
-        <v>960</v>
-      </c>
-      <c r="L122" s="162" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M122" s="162"/>
-      <c r="N122" s="125"/>
-      <c r="O122" s="125">
+      <c r="K122" s="162" t="s">
+        <v>963</v>
+      </c>
+      <c r="L122" s="171" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M122" s="171"/>
+      <c r="N122" s="171"/>
+      <c r="O122" s="125"/>
+      <c r="P122" s="125">
         <v>119.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="33" t="s">
-        <v>1159</v>
+        <v>1164</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="C123" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D123" s="18"/>
       <c r="E123" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="H123" s="18"/>
       <c r="I123" s="14"/>
       <c r="J123" s="14"/>
-      <c r="K123" s="153" t="s">
-        <v>956</v>
-      </c>
-      <c r="L123" s="162" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M123" s="162"/>
-      <c r="N123" s="125"/>
-      <c r="O123" s="125">
+      <c r="K123" s="162" t="s">
+        <v>959</v>
+      </c>
+      <c r="L123" s="171" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M123" s="171"/>
+      <c r="N123" s="171"/>
+      <c r="O123" s="125"/>
+      <c r="P123" s="125">
         <v>120.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="33" t="s">
-        <v>1162</v>
+        <v>1167</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>1163</v>
+        <v>1168</v>
       </c>
       <c r="C124" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>1164</v>
+        <v>1169</v>
       </c>
       <c r="H124" s="18"/>
       <c r="I124" s="14"/>
       <c r="J124" s="14"/>
-      <c r="K124" s="153" t="s">
-        <v>952</v>
-      </c>
-      <c r="L124" s="162" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M124" s="162"/>
-      <c r="N124" s="125"/>
-      <c r="O124" s="125">
+      <c r="K124" s="162" t="s">
+        <v>955</v>
+      </c>
+      <c r="L124" s="171" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M124" s="171"/>
+      <c r="N124" s="171"/>
+      <c r="O124" s="125"/>
+      <c r="P124" s="125">
         <v>121.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="43" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="C125" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F125" s="17" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>1167</v>
+        <v>1172</v>
       </c>
       <c r="H125" s="18"/>
       <c r="I125" s="14"/>
       <c r="J125" s="14"/>
-      <c r="K125" s="153" t="s">
-        <v>947</v>
-      </c>
-      <c r="L125" s="162" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M125" s="162"/>
-      <c r="N125" s="125"/>
-      <c r="O125" s="125">
+      <c r="K125" s="162" t="s">
+        <v>950</v>
+      </c>
+      <c r="L125" s="171" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M125" s="171"/>
+      <c r="N125" s="171"/>
+      <c r="O125" s="125"/>
+      <c r="P125" s="125">
         <v>122.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="43" t="s">
-        <v>1168</v>
+        <v>1173</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
       <c r="C126" s="132" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D126" s="18"/>
       <c r="E126" s="17" t="s">
         <v>217</v>
       </c>
       <c r="F126" s="17" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="H126" s="18"/>
       <c r="I126" s="14"/>
       <c r="J126" s="14"/>
-      <c r="K126" s="152" t="s">
+      <c r="K126" s="161" t="s">
         <v>260</v>
       </c>
       <c r="L126" s="20" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="M126" s="20"/>
-      <c r="N126" s="181"/>
-      <c r="O126" s="125">
+      <c r="N126" s="20"/>
+      <c r="O126" s="190"/>
+      <c r="P126" s="125">
         <v>123.0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="182" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B127" s="183" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C127" s="184" t="s">
-        <v>738</v>
-      </c>
-      <c r="D127" s="185"/>
-      <c r="E127" s="183" t="s">
+      <c r="A127" s="191" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B127" s="192" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C127" s="193" t="s">
+        <v>739</v>
+      </c>
+      <c r="D127" s="194"/>
+      <c r="E127" s="192" t="s">
         <v>214</v>
       </c>
-      <c r="F127" s="185" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G127" s="186" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H127" s="185"/>
-      <c r="I127" s="186"/>
-      <c r="J127" s="186"/>
-      <c r="K127" s="187" t="s">
-        <v>993</v>
-      </c>
-      <c r="L127" s="188" t="s">
-        <v>1114</v>
-      </c>
-      <c r="M127" s="188"/>
-      <c r="N127" s="189"/>
-      <c r="O127" s="189">
+      <c r="F127" s="194" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G127" s="195" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H127" s="194"/>
+      <c r="I127" s="195"/>
+      <c r="J127" s="195"/>
+      <c r="K127" s="196" t="s">
+        <v>996</v>
+      </c>
+      <c r="L127" s="197" t="s">
+        <v>1119</v>
+      </c>
+      <c r="M127" s="197"/>
+      <c r="N127" s="197"/>
+      <c r="O127" s="198"/>
+      <c r="P127" s="198">
         <v>124.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="43" t="s">
-        <v>1174</v>
+        <v>1179</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>1175</v>
+        <v>1180</v>
       </c>
       <c r="C128" s="132" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D128" s="18"/>
       <c r="E128" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
       <c r="H128" s="18"/>
       <c r="I128" s="14"/>
       <c r="J128" s="14"/>
-      <c r="K128" s="153" t="s">
-        <v>998</v>
-      </c>
-      <c r="L128" s="162" t="s">
-        <v>999</v>
-      </c>
-      <c r="M128" s="162"/>
-      <c r="N128" s="125"/>
-      <c r="O128" s="125">
+      <c r="K128" s="162" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L128" s="171" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M128" s="171"/>
+      <c r="N128" s="171"/>
+      <c r="O128" s="125"/>
+      <c r="P128" s="125">
         <v>125.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="43" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="C129" s="132" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D129" s="18"/>
       <c r="E129" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>1179</v>
+        <v>1184</v>
       </c>
       <c r="H129" s="18"/>
       <c r="I129" s="14"/>
       <c r="J129" s="14"/>
-      <c r="K129" s="153" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L129" s="162" t="s">
-        <v>1004</v>
-      </c>
-      <c r="M129" s="162"/>
-      <c r="N129" s="125"/>
-      <c r="O129" s="125">
+      <c r="K129" s="162" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L129" s="171" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M129" s="171"/>
+      <c r="N129" s="171"/>
+      <c r="O129" s="125"/>
+      <c r="P129" s="125">
         <v>126.0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="182" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B130" s="183" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C130" s="184" t="s">
-        <v>738</v>
-      </c>
-      <c r="D130" s="185"/>
-      <c r="E130" s="183" t="s">
+      <c r="A130" s="191" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B130" s="192" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C130" s="193" t="s">
+        <v>739</v>
+      </c>
+      <c r="D130" s="194"/>
+      <c r="E130" s="192" t="s">
         <v>214</v>
       </c>
-      <c r="F130" s="185" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G130" s="186" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H130" s="185"/>
-      <c r="I130" s="186"/>
-      <c r="J130" s="186"/>
-      <c r="K130" s="187" t="s">
-        <v>993</v>
-      </c>
-      <c r="L130" s="188" t="s">
-        <v>1118</v>
-      </c>
-      <c r="M130" s="188"/>
-      <c r="N130" s="189"/>
-      <c r="O130" s="189">
+      <c r="F130" s="194" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G130" s="195" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H130" s="194"/>
+      <c r="I130" s="195"/>
+      <c r="J130" s="195"/>
+      <c r="K130" s="196" t="s">
+        <v>996</v>
+      </c>
+      <c r="L130" s="197" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M130" s="197"/>
+      <c r="N130" s="197"/>
+      <c r="O130" s="198"/>
+      <c r="P130" s="198">
         <v>127.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="43" t="s">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>1184</v>
+        <v>1189</v>
       </c>
       <c r="C131" s="132" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D131" s="18"/>
       <c r="E131" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="H131" s="18"/>
       <c r="I131" s="14"/>
       <c r="J131" s="14"/>
-      <c r="K131" s="153" t="s">
-        <v>998</v>
-      </c>
-      <c r="L131" s="162" t="s">
-        <v>1186</v>
-      </c>
-      <c r="M131" s="162"/>
-      <c r="N131" s="125"/>
-      <c r="O131" s="125">
+      <c r="K131" s="162" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L131" s="171" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M131" s="171"/>
+      <c r="N131" s="171"/>
+      <c r="O131" s="125"/>
+      <c r="P131" s="125">
         <v>128.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="43" t="s">
-        <v>1187</v>
+        <v>1192</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>1188</v>
+        <v>1193</v>
       </c>
       <c r="C132" s="132" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>1189</v>
+        <v>1194</v>
       </c>
       <c r="H132" s="18"/>
       <c r="I132" s="14"/>
       <c r="J132" s="14"/>
-      <c r="K132" s="153" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L132" s="162" t="s">
-        <v>1190</v>
-      </c>
-      <c r="M132" s="162"/>
-      <c r="N132" s="125"/>
-      <c r="O132" s="125">
+      <c r="K132" s="162" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L132" s="171" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M132" s="171"/>
+      <c r="N132" s="171"/>
+      <c r="O132" s="125"/>
+      <c r="P132" s="125">
         <v>129.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="33" t="s">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>1192</v>
+        <v>1197</v>
       </c>
       <c r="C133" s="132" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D133" s="18"/>
       <c r="E133" s="43" t="s">
@@ -16378,34 +16596,35 @@
         <v>714</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="H133" s="18"/>
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
-      <c r="K133" s="176" t="s">
+      <c r="K133" s="185" t="s">
         <v>260</v>
       </c>
-      <c r="L133" s="190" t="s">
-        <v>1194</v>
-      </c>
-      <c r="M133" s="190"/>
-      <c r="N133" s="181" t="s">
-        <v>1123</v>
-      </c>
-      <c r="O133" s="125">
+      <c r="L133" s="199" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M133" s="199"/>
+      <c r="N133" s="199"/>
+      <c r="O133" s="190" t="s">
+        <v>1128</v>
+      </c>
+      <c r="P133" s="125">
         <v>130.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="33" t="s">
-        <v>1195</v>
+        <v>1200</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="C134" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D134" s="18"/>
       <c r="E134" s="17" t="s">
@@ -16415,207 +16634,213 @@
         <v>715</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="H134" s="18"/>
       <c r="I134" s="14"/>
       <c r="J134" s="14"/>
-      <c r="K134" s="179" t="s">
-        <v>942</v>
-      </c>
-      <c r="L134" s="175" t="s">
-        <v>1127</v>
-      </c>
-      <c r="M134" s="175"/>
-      <c r="N134" s="191"/>
-      <c r="O134" s="125">
+      <c r="K134" s="188" t="s">
+        <v>945</v>
+      </c>
+      <c r="L134" s="184" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M134" s="184"/>
+      <c r="N134" s="184"/>
+      <c r="O134" s="200"/>
+      <c r="P134" s="125">
         <v>131.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="33" t="s">
-        <v>1198</v>
+        <v>1203</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>1199</v>
+        <v>1204</v>
       </c>
       <c r="C135" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D135" s="18"/>
       <c r="E135" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F135" s="33" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
       <c r="H135" s="18"/>
       <c r="I135" s="14"/>
       <c r="J135" s="14"/>
-      <c r="K135" s="192" t="s">
-        <v>964</v>
-      </c>
-      <c r="L135" s="162" t="s">
-        <v>1201</v>
-      </c>
-      <c r="M135" s="162"/>
-      <c r="N135" s="191"/>
-      <c r="O135" s="125">
+      <c r="K135" s="201" t="s">
+        <v>967</v>
+      </c>
+      <c r="L135" s="171" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M135" s="171"/>
+      <c r="N135" s="171"/>
+      <c r="O135" s="200"/>
+      <c r="P135" s="125">
         <v>132.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="33" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>1203</v>
+        <v>1208</v>
       </c>
       <c r="C136" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D136" s="18"/>
       <c r="E136" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F136" s="33" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="H136" s="18"/>
       <c r="I136" s="14"/>
       <c r="J136" s="14"/>
-      <c r="K136" s="192" t="s">
-        <v>960</v>
-      </c>
-      <c r="L136" s="162" t="s">
-        <v>1201</v>
-      </c>
-      <c r="M136" s="162"/>
-      <c r="N136" s="191"/>
-      <c r="O136" s="125">
+      <c r="K136" s="201" t="s">
+        <v>963</v>
+      </c>
+      <c r="L136" s="171" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M136" s="171"/>
+      <c r="N136" s="171"/>
+      <c r="O136" s="200"/>
+      <c r="P136" s="125">
         <v>133.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="33" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="C137" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D137" s="18"/>
       <c r="E137" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F137" s="33" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>1207</v>
+        <v>1212</v>
       </c>
       <c r="H137" s="18"/>
       <c r="I137" s="14"/>
       <c r="J137" s="14"/>
-      <c r="K137" s="192" t="s">
-        <v>956</v>
-      </c>
-      <c r="L137" s="162" t="s">
-        <v>1201</v>
-      </c>
-      <c r="M137" s="162"/>
-      <c r="N137" s="191"/>
-      <c r="O137" s="125">
+      <c r="K137" s="201" t="s">
+        <v>959</v>
+      </c>
+      <c r="L137" s="171" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M137" s="171"/>
+      <c r="N137" s="171"/>
+      <c r="O137" s="200"/>
+      <c r="P137" s="125">
         <v>134.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="33" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="C138" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D138" s="18"/>
       <c r="E138" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F138" s="33" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="H138" s="18"/>
       <c r="I138" s="14"/>
       <c r="J138" s="14"/>
-      <c r="K138" s="192" t="s">
-        <v>952</v>
-      </c>
-      <c r="L138" s="162" t="s">
-        <v>1201</v>
-      </c>
-      <c r="M138" s="162"/>
-      <c r="N138" s="191"/>
-      <c r="O138" s="125">
+      <c r="K138" s="201" t="s">
+        <v>955</v>
+      </c>
+      <c r="L138" s="171" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M138" s="171"/>
+      <c r="N138" s="171"/>
+      <c r="O138" s="200"/>
+      <c r="P138" s="125">
         <v>135.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="33" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="C139" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F139" s="33" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="H139" s="18"/>
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
-      <c r="K139" s="192" t="s">
-        <v>947</v>
-      </c>
-      <c r="L139" s="162" t="s">
-        <v>1201</v>
-      </c>
-      <c r="M139" s="162"/>
-      <c r="N139" s="191"/>
-      <c r="O139" s="125">
+      <c r="K139" s="201" t="s">
+        <v>950</v>
+      </c>
+      <c r="L139" s="171" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M139" s="171"/>
+      <c r="N139" s="171"/>
+      <c r="O139" s="200"/>
+      <c r="P139" s="125">
         <v>136.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="33" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="C140" s="132" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="43" t="s">
@@ -16625,34 +16850,35 @@
         <v>717</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="H140" s="18"/>
       <c r="I140" s="14"/>
       <c r="J140" s="14"/>
-      <c r="K140" s="152" t="s">
+      <c r="K140" s="161" t="s">
         <v>260</v>
       </c>
-      <c r="L140" s="175" t="s">
-        <v>1216</v>
-      </c>
-      <c r="M140" s="175"/>
-      <c r="N140" s="20" t="s">
-        <v>1123</v>
-      </c>
-      <c r="O140" s="125">
+      <c r="L140" s="184" t="s">
+        <v>1221</v>
+      </c>
+      <c r="M140" s="184"/>
+      <c r="N140" s="184"/>
+      <c r="O140" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="P140" s="125">
         <v>137.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="33" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="C141" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="17" t="s">
@@ -16662,242 +16888,249 @@
         <v>718</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="H141" s="18"/>
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
-      <c r="K141" s="153" t="s">
-        <v>942</v>
-      </c>
-      <c r="L141" s="175" t="s">
-        <v>1151</v>
-      </c>
-      <c r="M141" s="175"/>
-      <c r="N141" s="193"/>
-      <c r="O141" s="125">
+      <c r="K141" s="162" t="s">
+        <v>945</v>
+      </c>
+      <c r="L141" s="184" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M141" s="184"/>
+      <c r="N141" s="184"/>
+      <c r="O141" s="202"/>
+      <c r="P141" s="125">
         <v>138.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="33" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="C142" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D142" s="18"/>
       <c r="E142" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="H142" s="18"/>
       <c r="I142" s="14"/>
       <c r="J142" s="14"/>
-      <c r="K142" s="192" t="s">
-        <v>964</v>
-      </c>
-      <c r="L142" s="162" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M142" s="175"/>
-      <c r="N142" s="125"/>
-      <c r="O142" s="125">
+      <c r="K142" s="201" t="s">
+        <v>967</v>
+      </c>
+      <c r="L142" s="171" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M142" s="171"/>
+      <c r="N142" s="184"/>
+      <c r="O142" s="125"/>
+      <c r="P142" s="125">
         <v>139.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="33" t="s">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
       <c r="C143" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D143" s="18"/>
       <c r="E143" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="H143" s="18"/>
       <c r="I143" s="14"/>
       <c r="J143" s="14"/>
-      <c r="K143" s="192" t="s">
-        <v>960</v>
-      </c>
-      <c r="L143" s="162" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M143" s="175"/>
-      <c r="N143" s="125"/>
-      <c r="O143" s="125">
+      <c r="K143" s="201" t="s">
+        <v>963</v>
+      </c>
+      <c r="L143" s="171" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M143" s="171"/>
+      <c r="N143" s="184"/>
+      <c r="O143" s="125"/>
+      <c r="P143" s="125">
         <v>140.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="33" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
       <c r="C144" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D144" s="18"/>
       <c r="E144" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>1228</v>
+        <v>1233</v>
       </c>
       <c r="H144" s="18"/>
       <c r="I144" s="14"/>
       <c r="J144" s="14"/>
-      <c r="K144" s="192" t="s">
-        <v>956</v>
-      </c>
-      <c r="L144" s="162" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M144" s="175"/>
-      <c r="N144" s="125"/>
-      <c r="O144" s="125">
+      <c r="K144" s="201" t="s">
+        <v>959</v>
+      </c>
+      <c r="L144" s="171" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M144" s="171"/>
+      <c r="N144" s="184"/>
+      <c r="O144" s="125"/>
+      <c r="P144" s="125">
         <v>141.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="33" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="C145" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D145" s="18"/>
       <c r="E145" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>1231</v>
+        <v>1236</v>
       </c>
       <c r="H145" s="18"/>
       <c r="I145" s="14"/>
       <c r="J145" s="14"/>
-      <c r="K145" s="192" t="s">
-        <v>952</v>
-      </c>
-      <c r="L145" s="162" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M145" s="175"/>
-      <c r="N145" s="125"/>
-      <c r="O145" s="125">
+      <c r="K145" s="201" t="s">
+        <v>955</v>
+      </c>
+      <c r="L145" s="171" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M145" s="171"/>
+      <c r="N145" s="184"/>
+      <c r="O145" s="125"/>
+      <c r="P145" s="125">
         <v>142.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="33" t="s">
-        <v>1232</v>
+        <v>1237</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>1233</v>
+        <v>1238</v>
       </c>
       <c r="C146" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="H146" s="18"/>
       <c r="I146" s="14"/>
       <c r="J146" s="14"/>
-      <c r="K146" s="192" t="s">
-        <v>947</v>
-      </c>
-      <c r="L146" s="162" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M146" s="175"/>
-      <c r="N146" s="191"/>
-      <c r="O146" s="125">
+      <c r="K146" s="201" t="s">
+        <v>950</v>
+      </c>
+      <c r="L146" s="171" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M146" s="171"/>
+      <c r="N146" s="184"/>
+      <c r="O146" s="200"/>
+      <c r="P146" s="125">
         <v>143.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="43" t="s">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="C147" s="132" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D147" s="18"/>
       <c r="E147" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="H147" s="18"/>
       <c r="I147" s="14"/>
       <c r="J147" s="14"/>
-      <c r="K147" s="153" t="s">
-        <v>887</v>
-      </c>
-      <c r="L147" s="175" t="s">
+      <c r="K147" s="162" t="s">
         <v>888</v>
       </c>
-      <c r="M147" s="175"/>
-      <c r="N147" s="125"/>
-      <c r="O147" s="125">
+      <c r="L147" s="184" t="s">
+        <v>889</v>
+      </c>
+      <c r="M147" s="184"/>
+      <c r="N147" s="184"/>
+      <c r="O147" s="125"/>
+      <c r="P147" s="125">
         <v>144.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="43" t="s">
-        <v>1238</v>
+        <v>1243</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="C148" s="132" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="43" t="s">
@@ -16907,32 +17140,33 @@
         <v>676</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="H148" s="18"/>
       <c r="I148" s="14"/>
       <c r="J148" s="14"/>
-      <c r="K148" s="153">
+      <c r="K148" s="162">
         <v>0.0</v>
       </c>
-      <c r="L148" s="162" t="s">
+      <c r="L148" s="171" t="s">
         <v>403</v>
       </c>
-      <c r="M148" s="162"/>
-      <c r="N148" s="125"/>
-      <c r="O148" s="125">
+      <c r="M148" s="171"/>
+      <c r="N148" s="171"/>
+      <c r="O148" s="125"/>
+      <c r="P148" s="125">
         <v>145.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="43" t="s">
-        <v>1241</v>
+        <v>1246</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="C149" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="17" t="s">
@@ -16942,191 +17176,197 @@
         <v>675</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="H149" s="18"/>
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
-      <c r="K149" s="153" t="s">
+      <c r="K149" s="162" t="s">
         <v>260</v>
       </c>
-      <c r="L149" s="162" t="s">
-        <v>1022</v>
-      </c>
-      <c r="M149" s="162"/>
-      <c r="N149" s="125"/>
-      <c r="O149" s="125">
+      <c r="L149" s="171" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M149" s="171"/>
+      <c r="N149" s="171"/>
+      <c r="O149" s="125"/>
+      <c r="P149" s="125">
         <v>146.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="43" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="C150" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D150" s="18"/>
       <c r="E150" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
       <c r="H150" s="18"/>
       <c r="I150" s="14"/>
       <c r="J150" s="14"/>
-      <c r="K150" s="153" t="s">
-        <v>998</v>
-      </c>
-      <c r="L150" s="162" t="s">
-        <v>1247</v>
-      </c>
-      <c r="M150" s="162"/>
-      <c r="N150" s="125"/>
-      <c r="O150" s="125">
+      <c r="K150" s="162" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L150" s="171" t="s">
+        <v>1252</v>
+      </c>
+      <c r="M150" s="171"/>
+      <c r="N150" s="171"/>
+      <c r="O150" s="125"/>
+      <c r="P150" s="125">
         <v>147.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="43" t="s">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="C151" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="H151" s="18"/>
       <c r="I151" s="14"/>
       <c r="J151" s="14"/>
-      <c r="K151" s="153" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L151" s="162" t="s">
-        <v>1251</v>
-      </c>
-      <c r="M151" s="162"/>
-      <c r="N151" s="125"/>
-      <c r="O151" s="125">
+      <c r="K151" s="162" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L151" s="171" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M151" s="171"/>
+      <c r="N151" s="171"/>
+      <c r="O151" s="125"/>
+      <c r="P151" s="125">
         <v>148.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="43" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
       <c r="C152" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H152" s="18"/>
       <c r="I152" s="14"/>
       <c r="J152" s="14"/>
-      <c r="K152" s="153" t="s">
-        <v>998</v>
-      </c>
-      <c r="L152" s="162" t="s">
-        <v>1029</v>
-      </c>
-      <c r="M152" s="162"/>
-      <c r="N152" s="125"/>
-      <c r="O152" s="125">
+      <c r="K152" s="162" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L152" s="171" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M152" s="171"/>
+      <c r="N152" s="171"/>
+      <c r="O152" s="125"/>
+      <c r="P152" s="125">
         <v>149.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="43" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>1256</v>
+        <v>1261</v>
       </c>
       <c r="C153" s="132" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D153" s="18"/>
       <c r="E153" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F153" s="17" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="H153" s="18"/>
       <c r="I153" s="14"/>
       <c r="J153" s="14"/>
-      <c r="K153" s="153" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L153" s="162" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M153" s="162"/>
-      <c r="N153" s="125"/>
-      <c r="O153" s="125">
+      <c r="K153" s="162" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L153" s="171" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M153" s="171"/>
+      <c r="N153" s="171"/>
+      <c r="O153" s="125"/>
+      <c r="P153" s="125">
         <v>150.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="16" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>1259</v>
+        <v>1264</v>
       </c>
       <c r="C154" s="132"/>
       <c r="D154" s="17" t="s">
-        <v>1260</v>
+        <v>1265</v>
       </c>
       <c r="E154" s="17"/>
       <c r="F154" s="17" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="H154" s="18"/>
       <c r="I154" s="14"/>
       <c r="J154" s="14"/>
-      <c r="K154" s="153"/>
-      <c r="L154" s="162"/>
-      <c r="M154" s="17" t="s">
-        <v>1263</v>
-      </c>
-      <c r="N154" s="125"/>
+      <c r="K154" s="162"/>
+      <c r="L154" s="171"/>
+      <c r="M154" s="171"/>
+      <c r="N154" s="17" t="s">
+        <v>1268</v>
+      </c>
       <c r="O154" s="125"/>
+      <c r="P154" s="125"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -17157,34 +17397,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="112" t="s">
-        <v>1264</v>
+        <v>1269</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1266</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1267</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="E4" s="4" t="b">
         <v>1</v>
@@ -17192,10 +17432,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>1271</v>
+        <v>1276</v>
       </c>
       <c r="E5" s="4" t="b">
         <v>1</v>
@@ -17203,37 +17443,37 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>1272</v>
+        <v>1277</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>1273</v>
+        <v>1278</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -17259,16 +17499,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>1275</v>
+        <v>1280</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1276</v>
+        <v>1281</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1278</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="2">
@@ -17276,24 +17516,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1279</v>
+        <v>1284</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1281</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1283</v>
+        <v>1288</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1284</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="6">
@@ -17301,34 +17541,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1286</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="4" t="s">
-        <v>1287</v>
+        <v>1292</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1286</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="4" t="s">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1286</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="4" t="s">
-        <v>1289</v>
+        <v>1294</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1286</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="10">
@@ -17337,64 +17577,64 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>1290</v>
+        <v>1295</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1293</v>
+        <v>1298</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>1294</v>
+        <v>1299</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1297</v>
+        <v>1302</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1301</v>
+        <v>1306</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -17405,7 +17645,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
@@ -17414,27 +17654,27 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B20" s="194" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B20" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="194"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="194"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="203"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B21" s="194" t="s">
-        <v>1307</v>
+        <v>1311</v>
+      </c>
+      <c r="B21" s="203" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="22">
@@ -17456,53 +17696,53 @@
       <c r="A27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="194" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B28" s="195" t="s">
-        <v>1309</v>
+      <c r="A28" s="203" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B28" s="204" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="194" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B29" s="195" t="s">
-        <v>1311</v>
+      <c r="A29" s="203" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B29" s="204" t="s">
+        <v>1316</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="194" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B30" s="195" t="s">
-        <v>1313</v>
+      <c r="A30" s="203" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B30" s="204" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="31" hidden="1">
       <c r="A31" s="4" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B31" s="194"/>
+        <v>1319</v>
+      </c>
+      <c r="B31" s="203"/>
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="4" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B32" s="194"/>
+        <v>1320</v>
+      </c>
+      <c r="B32" s="203"/>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
-      <c r="B33" s="194"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="194"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="203"/>
+      <c r="K33" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17544,51 +17784,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="196" t="s">
-        <v>1317</v>
+      <c r="A2" s="205" t="s">
+        <v>1322</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1318</v>
+        <v>1323</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="196" t="s">
-        <v>1320</v>
+      <c r="A3" s="205" t="s">
+        <v>1325</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="196" t="s">
-        <v>1322</v>
+      <c r="A4" s="205" t="s">
+        <v>1327</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1323</v>
+        <v>1328</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="205" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>1324</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1319</v>
       </c>
     </row>
   </sheetData>
@@ -17626,38 +17866,38 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="206" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D1" s="197" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D1" s="206" t="s">
         <v>719</v>
       </c>
-      <c r="E1" s="197" t="s">
-        <v>1327</v>
+      <c r="E1" s="206" t="s">
+        <v>1332</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1329</v>
-      </c>
-      <c r="H1" s="194" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H1" s="203" t="s">
         <v>607</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>1331</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="2">
@@ -17665,58 +17905,58 @@
         <v>726</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1332</v>
+        <v>1337</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E2" s="194" t="s">
-        <v>1334</v>
+        <v>1338</v>
+      </c>
+      <c r="E2" s="203" t="s">
+        <v>1339</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H2" s="193"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
+        <v>1340</v>
+      </c>
+      <c r="H2" s="202"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1336</v>
+        <v>1341</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="198" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E3" s="193"/>
-      <c r="H3" s="193"/>
+      <c r="D3" s="207" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E3" s="202"/>
+      <c r="H3" s="202"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
         <v>443</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1339</v>
+        <v>1344</v>
       </c>
       <c r="C4" s="126" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="H4" s="194" t="s">
-        <v>1341</v>
+        <v>1345</v>
+      </c>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="H4" s="203" t="s">
+        <v>1346</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="5">
@@ -17724,22 +17964,22 @@
         <v>463</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E5" s="194"/>
-      <c r="F5" s="199"/>
-      <c r="H5" s="194" t="s">
-        <v>1346</v>
+        <v>1350</v>
+      </c>
+      <c r="E5" s="203"/>
+      <c r="F5" s="208"/>
+      <c r="H5" s="203" t="s">
+        <v>1351</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>1347</v>
+        <v>1352</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="6">
@@ -17747,24 +17987,24 @@
         <v>475</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1349</v>
+        <v>1354</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194" t="s">
-        <v>1351</v>
+        <v>1355</v>
+      </c>
+      <c r="D6" s="202"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203" t="s">
+        <v>1356</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1352</v>
+        <v>1357</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="7">
@@ -17772,22 +18012,22 @@
         <v>468</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1353</v>
+        <v>1358</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E7" s="194"/>
-      <c r="F7" s="199"/>
-      <c r="H7" s="194" t="s">
-        <v>1355</v>
+        <v>1359</v>
+      </c>
+      <c r="E7" s="203"/>
+      <c r="F7" s="208"/>
+      <c r="H7" s="203" t="s">
+        <v>1360</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="8">
@@ -17795,14 +18035,14 @@
         <v>222</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="C8" s="126"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="199"/>
-      <c r="H8" s="193"/>
+      <c r="F8" s="208"/>
+      <c r="H8" s="202"/>
       <c r="I8" s="4" t="s">
-        <v>1358</v>
+        <v>1363</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -17812,14 +18052,14 @@
         <v>224</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="C9" s="126"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="199"/>
-      <c r="H9" s="193"/>
+      <c r="F9" s="208"/>
+      <c r="H9" s="202"/>
       <c r="I9" s="4" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -17829,14 +18069,14 @@
         <v>226</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1361</v>
+        <v>1366</v>
       </c>
       <c r="C10" s="126"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="199"/>
-      <c r="H10" s="193"/>
+      <c r="F10" s="208"/>
+      <c r="H10" s="202"/>
       <c r="I10" s="4" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -17846,15 +18086,15 @@
         <v>220</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="C11" s="126"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="193"/>
+      <c r="H11" s="202"/>
       <c r="I11" s="4" t="s">
-        <v>1364</v>
+        <v>1369</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -17864,15 +18104,15 @@
         <v>228</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1365</v>
+        <v>1370</v>
       </c>
       <c r="C12" s="126"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="193"/>
+      <c r="H12" s="202"/>
       <c r="I12" s="4" t="s">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -17882,15 +18122,15 @@
         <v>230</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1367</v>
+        <v>1372</v>
       </c>
       <c r="C13" s="126"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="193"/>
+      <c r="H13" s="202"/>
       <c r="I13" s="4" t="s">
-        <v>1368</v>
+        <v>1373</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -17900,14 +18140,14 @@
         <v>203</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1369</v>
+        <v>1374</v>
       </c>
       <c r="C14" s="126"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="199"/>
-      <c r="H14" s="193"/>
+      <c r="F14" s="208"/>
+      <c r="H14" s="202"/>
       <c r="I14" s="4" t="s">
-        <v>1370</v>
+        <v>1375</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -17917,22 +18157,22 @@
         <v>446</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1371</v>
+        <v>1376</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E15" s="151"/>
-      <c r="F15" s="199"/>
-      <c r="H15" s="194" t="s">
-        <v>1373</v>
+        <v>1377</v>
+      </c>
+      <c r="E15" s="155"/>
+      <c r="F15" s="208"/>
+      <c r="H15" s="203" t="s">
+        <v>1378</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="16">
@@ -17940,14 +18180,14 @@
         <v>232</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="C16" s="126"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="199"/>
-      <c r="H16" s="193"/>
+      <c r="F16" s="208"/>
+      <c r="H16" s="202"/>
       <c r="I16" s="4" t="s">
-        <v>1377</v>
+        <v>1382</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -17957,22 +18197,22 @@
         <v>448</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="C17" s="126" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E17" s="194"/>
-      <c r="F17" s="199"/>
-      <c r="H17" s="194" t="s">
-        <v>1380</v>
+        <v>1384</v>
+      </c>
+      <c r="E17" s="203"/>
+      <c r="F17" s="208"/>
+      <c r="H17" s="203" t="s">
+        <v>1385</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="18">
@@ -17980,23 +18220,23 @@
         <v>433</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="C18" s="126" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D18" s="193"/>
+        <v>1388</v>
+      </c>
+      <c r="D18" s="202"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="181"/>
-      <c r="H18" s="194" t="s">
-        <v>1384</v>
+      <c r="F18" s="190"/>
+      <c r="H18" s="203" t="s">
+        <v>1389</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="19">
@@ -18004,23 +18244,23 @@
         <v>430</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D19" s="193"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="194"/>
-      <c r="H19" s="194" t="s">
-        <v>1388</v>
+        <v>1392</v>
+      </c>
+      <c r="D19" s="202"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="H19" s="203" t="s">
+        <v>1393</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="20">
@@ -18028,24 +18268,24 @@
         <v>411</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
       <c r="C20" s="126" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D20" s="194"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194" t="s">
-        <v>1393</v>
+        <v>1397</v>
+      </c>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203" t="s">
+        <v>1398</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="200" t="s">
-        <v>1395</v>
+      <c r="K20" s="209" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="21">
@@ -18053,24 +18293,24 @@
         <v>421</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1396</v>
+        <v>1401</v>
       </c>
       <c r="C21" s="126" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D21" s="193"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194" t="s">
-        <v>1398</v>
+        <v>1402</v>
+      </c>
+      <c r="D21" s="202"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="203" t="s">
+        <v>1403</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="200" t="s">
-        <v>1395</v>
+      <c r="K21" s="209" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="22">
@@ -18078,22 +18318,22 @@
         <v>416</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="H22" s="203" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K22" s="209" t="s">
         <v>1400</v>
-      </c>
-      <c r="C22" s="126" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
-      <c r="H22" s="194" t="s">
-        <v>1402</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>1403</v>
-      </c>
-      <c r="K22" s="200" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="23">
@@ -18101,38 +18341,38 @@
         <v>425</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1404</v>
+        <v>1409</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D23" s="193"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="H23" s="194" t="s">
-        <v>1406</v>
+        <v>1410</v>
+      </c>
+      <c r="D23" s="202"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
+      <c r="H23" s="203" t="s">
+        <v>1411</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="C24" s="126"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="194" t="s">
-        <v>1411</v>
-      </c>
-      <c r="H24" s="193"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="203" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H24" s="202"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/models/keast-bladder/source/keast-bladder.xlsx
+++ b/models/keast-bladder/source/keast-bladder.xlsx
@@ -2538,16 +2538,16 @@
     <t>T12 sympathetic ganglia SPR axon chain to T13_Neuron 8 (kblad)</t>
   </si>
   <si>
+    <t>ns40</t>
+  </si>
+  <si>
     <t>ns38</t>
   </si>
   <si>
-    <t>ns40</t>
-  </si>
-  <si>
     <t>0,0,0</t>
   </si>
   <si>
-    <t>K78, K70, K79</t>
+    <t>K79, K70, K78</t>
   </si>
   <si>
     <t>ac-sgt13-l1</t>
@@ -2559,7 +2559,7 @@
     <t>ns41</t>
   </si>
   <si>
-    <t>K79, K71, K80</t>
+    <t>K80, K71, K79</t>
   </si>
   <si>
     <t>ac-sgt13-l1join</t>
@@ -2577,7 +2577,7 @@
     <t>ns42</t>
   </si>
   <si>
-    <t>K80, K72, K81</t>
+    <t>K81, K72, K80</t>
   </si>
   <si>
     <t>ac-sgl1-l2join</t>
@@ -2595,7 +2595,7 @@
     <t>ns43</t>
   </si>
   <si>
-    <t>K81, K73, K82</t>
+    <t>K82, K73, K81</t>
   </si>
   <si>
     <t>ac-sgl3-l4</t>
@@ -12957,10 +12957,10 @@
         <v>212</v>
       </c>
       <c r="F31" s="146" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="G31" s="154" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="H31" s="149"/>
       <c r="I31" s="150"/>
@@ -12971,7 +12971,6 @@
       <c r="L31" s="155" t="s">
         <v>835</v>
       </c>
-      <c r="M31" s="155"/>
       <c r="N31" s="155"/>
       <c r="O31" s="153"/>
       <c r="P31" s="153"/>
@@ -12991,10 +12990,10 @@
         <v>212</v>
       </c>
       <c r="F32" s="156" t="s">
+        <v>834</v>
+      </c>
+      <c r="G32" s="154" t="s">
         <v>816</v>
-      </c>
-      <c r="G32" s="154" t="s">
-        <v>834</v>
       </c>
       <c r="H32" s="149"/>
       <c r="I32" s="150"/>
@@ -13025,10 +13024,10 @@
         <v>212</v>
       </c>
       <c r="F33" s="157" t="s">
+        <v>840</v>
+      </c>
+      <c r="G33" s="158" t="s">
         <v>834</v>
-      </c>
-      <c r="G33" s="158" t="s">
-        <v>840</v>
       </c>
       <c r="H33" s="149"/>
       <c r="I33" s="150"/>
@@ -13058,11 +13057,11 @@
       <c r="E34" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="159" t="s">
+      <c r="F34" s="158" t="s">
+        <v>840</v>
+      </c>
+      <c r="G34" s="159" t="s">
         <v>824</v>
-      </c>
-      <c r="G34" s="158" t="s">
-        <v>840</v>
       </c>
       <c r="H34" s="149"/>
       <c r="I34" s="150"/>
@@ -13092,11 +13091,11 @@
       <c r="E35" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F35" s="160" t="s">
+      <c r="F35" s="148" t="s">
+        <v>846</v>
+      </c>
+      <c r="G35" s="160" t="s">
         <v>840</v>
-      </c>
-      <c r="G35" s="148" t="s">
-        <v>846</v>
       </c>
       <c r="H35" s="149"/>
       <c r="I35" s="150"/>
@@ -13141,7 +13140,6 @@
       <c r="L36" s="155" t="s">
         <v>851</v>
       </c>
-      <c r="M36" s="155"/>
       <c r="N36" s="155"/>
       <c r="O36" s="153"/>
       <c r="P36" s="153"/>

--- a/models/keast-bladder/source/keast-bladder.xlsx
+++ b/models/keast-bladder/source/keast-bladder.xlsx
@@ -855,7 +855,7 @@
     <t>L1 ventral root (kblad)</t>
   </si>
   <si>
-    <t>EMAPA:25269</t>
+    <t>ILX:0785421</t>
   </si>
   <si>
     <t>K64</t>
@@ -864,7 +864,7 @@
     <t>L2 ventral root (kblad)</t>
   </si>
   <si>
-    <t>EMAPA:25271</t>
+    <t>ILX:0788675</t>
   </si>
   <si>
     <t>K65</t>
@@ -873,7 +873,7 @@
     <t>L3 ventral root (kblad)</t>
   </si>
   <si>
-    <t>EMAPA:25273</t>
+    <t>ILX:0787520</t>
   </si>
   <si>
     <t>K66</t>
@@ -882,7 +882,7 @@
     <t>L4 ventral root (kblad)</t>
   </si>
   <si>
-    <t>EMAPA:25275</t>
+    <t>ILX:0789968</t>
   </si>
   <si>
     <t>K67</t>
@@ -891,7 +891,7 @@
     <t>L5 ventral root (kblad)</t>
   </si>
   <si>
-    <t>EMAPA:25277</t>
+    <t>ILX:0791148</t>
   </si>
   <si>
     <t>K68</t>
@@ -900,7 +900,7 @@
     <t>L6 ventral root (kblad)</t>
   </si>
   <si>
-    <t>EMAPA:25279</t>
+    <t>ILX:0792853</t>
   </si>
   <si>
     <t>K69</t>
@@ -909,7 +909,7 @@
     <t>S1 ventral root (kblad)</t>
   </si>
   <si>
-    <t>EMAPA:25281</t>
+    <t>ILX:0788884</t>
   </si>
   <si>
     <t>K70</t>
@@ -990,7 +990,7 @@
     <t>T12 sympathetic ganglion (kblad)</t>
   </si>
   <si>
-    <t>FMA:6485</t>
+    <t>ILX:0787009</t>
   </si>
   <si>
     <t>sn-sgt12</t>
@@ -1014,7 +1014,7 @@
     <t>L1 sympathetic ganglion (kblad)</t>
   </si>
   <si>
-    <t>FMA:6540</t>
+    <t>ILX:0789862</t>
   </si>
   <si>
     <t>sn-sgl1</t>
@@ -1026,7 +1026,7 @@
     <t>L2 sympathetic ganglion (kblad)</t>
   </si>
   <si>
-    <t>FMA:6541</t>
+    <t>ILX:0786933</t>
   </si>
   <si>
     <t>sn-sgl2</t>
@@ -1038,7 +1038,7 @@
     <t>L3 sympathetic ganglion (kblad)</t>
   </si>
   <si>
-    <t>FMA:6542</t>
+    <t>ILX:0788315</t>
   </si>
   <si>
     <t>sn-sgl3</t>
@@ -1050,7 +1050,7 @@
     <t>L4 sympathetic ganglion (kblad)</t>
   </si>
   <si>
-    <t>FMA:6543</t>
+    <t>ILX:0790472</t>
   </si>
   <si>
     <t>sn-sgl4</t>
@@ -1086,7 +1086,7 @@
     <t>S1 sympathetic ganglion (kblad)</t>
   </si>
   <si>
-    <t>FMA:6552</t>
+    <t>ILX:0789109</t>
   </si>
   <si>
     <t>K87</t>
@@ -1095,7 +1095,7 @@
     <t>T12 white ramus (kblad)</t>
   </si>
   <si>
-    <t>FMA:14056</t>
+    <t>ILX:0793218</t>
   </si>
   <si>
     <t>K88</t>
@@ -1104,7 +1104,7 @@
     <t>L1 white ramus (kblad)</t>
   </si>
   <si>
-    <t>FMA:12697</t>
+    <t>ILX:0793220</t>
   </si>
   <si>
     <t>K89</t>
@@ -1113,7 +1113,7 @@
     <t>L2 white ramus (kblad)</t>
   </si>
   <si>
-    <t>FMA:12698</t>
+    <t>ILX:0793221</t>
   </si>
   <si>
     <t>K90</t>
@@ -1140,7 +1140,7 @@
     <t>L1 gray ramus (kblad)</t>
   </si>
   <si>
-    <t>FMA:65910</t>
+    <t>ILX:0785825</t>
   </si>
   <si>
     <t>K93</t>
@@ -1149,7 +1149,7 @@
     <t>L2 gray ramus (kblad)</t>
   </si>
   <si>
-    <t>FMA:65911</t>
+    <t>ILX:0785733</t>
   </si>
   <si>
     <t>K94</t>
@@ -1158,7 +1158,7 @@
     <t>L3 gray ramus (kblad)</t>
   </si>
   <si>
-    <t>FMA:65912</t>
+    <t>ILX:0785932</t>
   </si>
   <si>
     <t>K95</t>
@@ -1167,7 +1167,7 @@
     <t>L4 gray ramus (kblad)</t>
   </si>
   <si>
-    <t>FMA:65913</t>
+    <t>ILX:0788536</t>
   </si>
   <si>
     <t>K96</t>
@@ -1176,7 +1176,7 @@
     <t>L5 gray ramus (kblad)</t>
   </si>
   <si>
-    <t>FMA:65914</t>
+    <t>ILX:0785119</t>
   </si>
   <si>
     <t>K97</t>
@@ -1194,7 +1194,7 @@
     <t>S1 gray ramus (kblad)</t>
   </si>
   <si>
-    <t>FMA:65986</t>
+    <t>ILX:0793228</t>
   </si>
   <si>
     <t>K99</t>
@@ -4567,11 +4567,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -4581,11 +4588,16 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -4610,6 +4622,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -4621,11 +4638,6 @@
     <font>
       <color rgb="FF555555"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -4687,7 +4699,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4710,6 +4722,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -4790,63 +4808,377 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="223">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -4854,589 +5186,284 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5691,11 +5718,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.43"/>
-    <col customWidth="1" min="3" max="3" width="24.29"/>
-    <col customWidth="1" min="4" max="4" width="19.43"/>
+    <col customWidth="1" min="2" max="2" width="17.0"/>
+    <col customWidth="1" min="3" max="3" width="21.25"/>
+    <col customWidth="1" min="4" max="4" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5737,15 +5764,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="3" max="3" width="38.14"/>
-    <col customWidth="1" min="4" max="4" width="52.71"/>
+    <col customWidth="1" min="1" max="1" width="14.0"/>
+    <col customWidth="1" min="3" max="3" width="33.38"/>
+    <col customWidth="1" min="4" max="4" width="46.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5759,319 +5786,319 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="214" t="s">
         <v>1419</v>
       </c>
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="215" t="s">
         <v>1420</v>
       </c>
-      <c r="D2" s="212"/>
+      <c r="D2" s="215"/>
     </row>
     <row r="3">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="216" t="s">
         <v>1421</v>
       </c>
-      <c r="C3" s="212" t="s">
+      <c r="C3" s="215" t="s">
         <v>1422</v>
       </c>
-      <c r="D3" s="212"/>
+      <c r="D3" s="215"/>
     </row>
     <row r="4">
-      <c r="A4" s="213" t="s">
+      <c r="A4" s="216" t="s">
         <v>1423</v>
       </c>
-      <c r="C4" s="212" t="s">
+      <c r="C4" s="215" t="s">
         <v>1424</v>
       </c>
-      <c r="D4" s="212"/>
+      <c r="D4" s="215"/>
     </row>
     <row r="5">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="217" t="s">
         <v>1425</v>
       </c>
-      <c r="C5" s="212" t="s">
+      <c r="C5" s="215" t="s">
         <v>1426</v>
       </c>
-      <c r="D5" s="212"/>
+      <c r="D5" s="215"/>
     </row>
     <row r="6">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="217" t="s">
         <v>1427</v>
       </c>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="215" t="s">
         <v>1428</v>
       </c>
-      <c r="D6" s="212"/>
+      <c r="D6" s="215"/>
     </row>
     <row r="7">
-      <c r="A7" s="214" t="s">
+      <c r="A7" s="217" t="s">
         <v>1429</v>
       </c>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="215" t="s">
         <v>1430</v>
       </c>
-      <c r="D7" s="212"/>
+      <c r="D7" s="215"/>
     </row>
     <row r="8">
-      <c r="A8" s="214" t="s">
+      <c r="A8" s="217" t="s">
         <v>1431</v>
       </c>
-      <c r="C8" s="212" t="s">
+      <c r="C8" s="215" t="s">
         <v>1432</v>
       </c>
-      <c r="D8" s="212"/>
+      <c r="D8" s="215"/>
     </row>
     <row r="9">
-      <c r="A9" s="214" t="s">
+      <c r="A9" s="217" t="s">
         <v>1433</v>
       </c>
-      <c r="C9" s="212" t="s">
+      <c r="C9" s="215" t="s">
         <v>1434</v>
       </c>
-      <c r="D9" s="212"/>
+      <c r="D9" s="215"/>
     </row>
     <row r="10">
-      <c r="A10" s="214" t="s">
+      <c r="A10" s="217" t="s">
         <v>1435</v>
       </c>
-      <c r="C10" s="212" t="s">
+      <c r="C10" s="215" t="s">
         <v>1436</v>
       </c>
-      <c r="D10" s="212"/>
+      <c r="D10" s="215"/>
     </row>
     <row r="11">
-      <c r="A11" s="214" t="s">
+      <c r="A11" s="217" t="s">
         <v>1437</v>
       </c>
-      <c r="C11" s="212" t="s">
+      <c r="C11" s="215" t="s">
         <v>1438</v>
       </c>
-      <c r="D11" s="212"/>
+      <c r="D11" s="215"/>
     </row>
     <row r="12">
-      <c r="A12" s="214" t="s">
+      <c r="A12" s="217" t="s">
         <v>1419</v>
       </c>
-      <c r="C12" s="212" t="s">
+      <c r="C12" s="215" t="s">
         <v>1420</v>
       </c>
-      <c r="D12" s="212"/>
+      <c r="D12" s="215"/>
     </row>
     <row r="13">
-      <c r="A13" s="214" t="s">
+      <c r="A13" s="217" t="s">
         <v>1439</v>
       </c>
-      <c r="C13" s="212" t="s">
+      <c r="C13" s="215" t="s">
         <v>1440</v>
       </c>
-      <c r="D13" s="212"/>
+      <c r="D13" s="215"/>
     </row>
     <row r="14">
-      <c r="A14" s="214" t="s">
+      <c r="A14" s="217" t="s">
         <v>1441</v>
       </c>
-      <c r="C14" s="212" t="s">
+      <c r="C14" s="215" t="s">
         <v>1442</v>
       </c>
-      <c r="D14" s="212"/>
+      <c r="D14" s="215"/>
     </row>
     <row r="15">
-      <c r="A15" s="214" t="s">
+      <c r="A15" s="217" t="s">
         <v>1443</v>
       </c>
-      <c r="C15" s="212" t="s">
+      <c r="C15" s="215" t="s">
         <v>1444</v>
       </c>
-      <c r="D15" s="212"/>
+      <c r="D15" s="215"/>
     </row>
     <row r="16">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="217" t="s">
         <v>1421</v>
       </c>
-      <c r="C16" s="212" t="s">
+      <c r="C16" s="215" t="s">
         <v>1422</v>
       </c>
-      <c r="D16" s="212"/>
+      <c r="D16" s="215"/>
     </row>
     <row r="17">
-      <c r="A17" s="214" t="s">
+      <c r="A17" s="217" t="s">
         <v>1445</v>
       </c>
-      <c r="C17" s="212" t="s">
+      <c r="C17" s="215" t="s">
         <v>1446</v>
       </c>
-      <c r="D17" s="212"/>
+      <c r="D17" s="215"/>
     </row>
     <row r="18">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="217" t="s">
         <v>1447</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="215" t="s">
         <v>1448</v>
       </c>
-      <c r="D18" s="212"/>
+      <c r="D18" s="215"/>
     </row>
     <row r="19">
-      <c r="A19" s="214" t="s">
+      <c r="A19" s="217" t="s">
         <v>1423</v>
       </c>
-      <c r="C19" s="212" t="s">
+      <c r="C19" s="215" t="s">
         <v>1424</v>
       </c>
-      <c r="D19" s="212"/>
+      <c r="D19" s="215"/>
     </row>
     <row r="20">
-      <c r="A20" s="214" t="s">
+      <c r="A20" s="217" t="s">
         <v>1423</v>
       </c>
-      <c r="C20" s="212" t="s">
+      <c r="C20" s="215" t="s">
         <v>1424</v>
       </c>
-      <c r="D20" s="212"/>
+      <c r="D20" s="215"/>
     </row>
     <row r="21">
-      <c r="A21" s="215" t="s">
+      <c r="A21" s="218" t="s">
         <v>1449</v>
       </c>
-      <c r="C21" s="212" t="s">
+      <c r="C21" s="215" t="s">
         <v>1450</v>
       </c>
-      <c r="D21" s="212"/>
+      <c r="D21" s="215"/>
     </row>
     <row r="22">
-      <c r="A22" s="214" t="s">
+      <c r="A22" s="217" t="s">
         <v>1451</v>
       </c>
-      <c r="C22" s="212" t="s">
+      <c r="C22" s="215" t="s">
         <v>1452</v>
       </c>
-      <c r="D22" s="212"/>
+      <c r="D22" s="215"/>
     </row>
     <row r="23">
-      <c r="A23" s="214" t="s">
+      <c r="A23" s="217" t="s">
         <v>1453</v>
       </c>
-      <c r="C23" s="212" t="s">
+      <c r="C23" s="215" t="s">
         <v>1454</v>
       </c>
-      <c r="D23" s="212"/>
+      <c r="D23" s="215"/>
     </row>
     <row r="24">
-      <c r="A24" s="214" t="s">
+      <c r="A24" s="217" t="s">
         <v>1455</v>
       </c>
-      <c r="C24" s="212" t="s">
+      <c r="C24" s="215" t="s">
         <v>1456</v>
       </c>
-      <c r="D24" s="212"/>
+      <c r="D24" s="215"/>
     </row>
     <row r="25">
-      <c r="A25" s="214" t="s">
+      <c r="A25" s="217" t="s">
         <v>1457</v>
       </c>
-      <c r="C25" s="212" t="s">
+      <c r="C25" s="215" t="s">
         <v>1458</v>
       </c>
-      <c r="D25" s="212"/>
+      <c r="D25" s="215"/>
     </row>
     <row r="26">
-      <c r="A26" s="214" t="s">
+      <c r="A26" s="217" t="s">
         <v>1459</v>
       </c>
-      <c r="C26" s="212" t="s">
+      <c r="C26" s="215" t="s">
         <v>1460</v>
       </c>
-      <c r="D26" s="212"/>
+      <c r="D26" s="215"/>
     </row>
     <row r="27">
-      <c r="A27" s="214" t="s">
+      <c r="A27" s="217" t="s">
         <v>1461</v>
       </c>
-      <c r="C27" s="212" t="s">
+      <c r="C27" s="215" t="s">
         <v>1462</v>
       </c>
-      <c r="D27" s="212"/>
+      <c r="D27" s="215"/>
     </row>
     <row r="28">
-      <c r="A28" s="214" t="s">
+      <c r="A28" s="217" t="s">
         <v>1463</v>
       </c>
-      <c r="C28" s="212" t="s">
+      <c r="C28" s="215" t="s">
         <v>1464</v>
       </c>
-      <c r="D28" s="212"/>
+      <c r="D28" s="215"/>
     </row>
     <row r="29">
-      <c r="A29" s="214" t="s">
+      <c r="A29" s="217" t="s">
         <v>1465</v>
       </c>
-      <c r="C29" s="212" t="s">
+      <c r="C29" s="215" t="s">
         <v>1466</v>
       </c>
-      <c r="D29" s="212"/>
+      <c r="D29" s="215"/>
     </row>
     <row r="30">
-      <c r="A30" s="214" t="s">
+      <c r="A30" s="217" t="s">
         <v>1467</v>
       </c>
-      <c r="C30" s="212" t="s">
+      <c r="C30" s="215" t="s">
         <v>1468</v>
       </c>
-      <c r="D30" s="212"/>
+      <c r="D30" s="215"/>
     </row>
     <row r="31">
-      <c r="A31" s="214" t="s">
+      <c r="A31" s="217" t="s">
         <v>1469</v>
       </c>
-      <c r="C31" s="212" t="s">
+      <c r="C31" s="215" t="s">
         <v>1470</v>
       </c>
-      <c r="D31" s="212"/>
+      <c r="D31" s="215"/>
     </row>
     <row r="32">
-      <c r="A32" s="214" t="s">
+      <c r="A32" s="217" t="s">
         <v>1471</v>
       </c>
-      <c r="C32" s="212" t="s">
+      <c r="C32" s="215" t="s">
         <v>1472</v>
       </c>
-      <c r="D32" s="212"/>
+      <c r="D32" s="215"/>
     </row>
     <row r="33">
-      <c r="A33" s="214" t="s">
+      <c r="A33" s="217" t="s">
         <v>1473</v>
       </c>
-      <c r="C33" s="212" t="s">
+      <c r="C33" s="215" t="s">
         <v>1474</v>
       </c>
-      <c r="D33" s="212"/>
+      <c r="D33" s="215"/>
     </row>
     <row r="34">
-      <c r="A34" s="214" t="s">
+      <c r="A34" s="217" t="s">
         <v>1475</v>
       </c>
-      <c r="C34" s="212" t="s">
+      <c r="C34" s="215" t="s">
         <v>1476</v>
       </c>
-      <c r="D34" s="212"/>
+      <c r="D34" s="215"/>
     </row>
     <row r="35">
-      <c r="A35" s="214" t="s">
+      <c r="A35" s="217" t="s">
         <v>1427</v>
       </c>
-      <c r="C35" s="212" t="s">
+      <c r="C35" s="215" t="s">
         <v>1428</v>
       </c>
-      <c r="D35" s="212"/>
+      <c r="D35" s="215"/>
     </row>
     <row r="36">
-      <c r="A36" s="214" t="s">
+      <c r="A36" s="217" t="s">
         <v>1475</v>
       </c>
-      <c r="C36" s="212" t="s">
+      <c r="C36" s="215" t="s">
         <v>1476</v>
       </c>
-      <c r="D36" s="212"/>
+      <c r="D36" s="215"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6086,9 +6113,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="35.57"/>
+    <col customWidth="1" min="2" max="2" width="31.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6100,98 +6127,98 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="219" t="s">
         <v>1479</v>
       </c>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="220" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="219" t="s">
         <v>1481</v>
       </c>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="220" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="216" t="s">
+      <c r="A4" s="219" t="s">
         <v>1483</v>
       </c>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="221" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="219" t="s">
         <v>1485</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="222" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="216" t="s">
+      <c r="A6" s="219" t="s">
         <v>1487</v>
       </c>
-      <c r="B6" s="219" t="s">
+      <c r="B6" s="222" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="216" t="s">
+      <c r="A7" s="219" t="s">
         <v>1489</v>
       </c>
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="222" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="216" t="s">
+      <c r="A8" s="219" t="s">
         <v>1491</v>
       </c>
-      <c r="B8" s="219" t="s">
+      <c r="B8" s="222" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="216" t="s">
+      <c r="A9" s="219" t="s">
         <v>1493</v>
       </c>
-      <c r="B9" s="219" t="s">
+      <c r="B9" s="222" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="216" t="s">
+      <c r="A10" s="219" t="s">
         <v>1495</v>
       </c>
-      <c r="B10" s="219" t="s">
+      <c r="B10" s="222" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="216" t="s">
+      <c r="A11" s="219" t="s">
         <v>1497</v>
       </c>
-      <c r="B11" s="219" t="s">
+      <c r="B11" s="222" t="s">
         <v>1498</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="129" t="s">
         <v>1499</v>
       </c>
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="220" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="129" t="s">
         <v>1501</v>
       </c>
-      <c r="B13" s="217" t="s">
+      <c r="B13" s="220" t="s">
         <v>1502</v>
       </c>
     </row>
@@ -6227,19 +6254,19 @@
       <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.57"/>
-    <col customWidth="1" min="2" max="2" width="60.14"/>
-    <col customWidth="1" min="3" max="3" width="18.57"/>
-    <col customWidth="1" min="4" max="4" width="11.29"/>
-    <col customWidth="1" min="5" max="5" width="13.29"/>
-    <col customWidth="1" min="6" max="9" width="25.0"/>
-    <col customWidth="1" min="10" max="10" width="10.86"/>
-    <col customWidth="1" min="11" max="11" width="12.29"/>
-    <col customWidth="1" min="12" max="12" width="16.29"/>
-    <col customWidth="1" min="13" max="13" width="24.43"/>
-    <col customWidth="1" min="14" max="14" width="27.86"/>
+    <col customWidth="1" min="1" max="1" width="12.75"/>
+    <col customWidth="1" min="2" max="2" width="52.63"/>
+    <col customWidth="1" min="3" max="3" width="16.25"/>
+    <col customWidth="1" min="4" max="4" width="9.88"/>
+    <col customWidth="1" min="5" max="5" width="11.63"/>
+    <col customWidth="1" min="6" max="9" width="21.88"/>
+    <col customWidth="1" min="10" max="10" width="9.5"/>
+    <col customWidth="1" min="11" max="11" width="10.75"/>
+    <col customWidth="1" min="12" max="12" width="14.25"/>
+    <col customWidth="1" min="13" max="13" width="21.38"/>
+    <col customWidth="1" min="14" max="14" width="24.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8465,7 +8492,7 @@
       <c r="B74" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="46" t="s">
         <v>267</v>
       </c>
       <c r="D74" s="14"/>
@@ -8490,7 +8517,7 @@
       <c r="B75" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="47" t="s">
         <v>270</v>
       </c>
       <c r="D75" s="14"/>
@@ -8515,7 +8542,7 @@
       <c r="B76" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="47" t="s">
         <v>273</v>
       </c>
       <c r="D76" s="14"/>
@@ -8540,7 +8567,7 @@
       <c r="B77" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="47" t="s">
         <v>276</v>
       </c>
       <c r="D77" s="14"/>
@@ -8565,7 +8592,7 @@
       <c r="B78" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="47" t="s">
         <v>279</v>
       </c>
       <c r="D78" s="14"/>
@@ -8590,7 +8617,7 @@
       <c r="B79" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="47" t="s">
         <v>282</v>
       </c>
       <c r="D79" s="14"/>
@@ -8615,7 +8642,7 @@
       <c r="B80" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="47" t="s">
         <v>285</v>
       </c>
       <c r="D80" s="14"/>
@@ -8840,7 +8867,7 @@
       <c r="B89" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="4" t="s">
         <v>312</v>
       </c>
       <c r="D89" s="14"/>
@@ -8880,8 +8907,8 @@
       <c r="I90" s="18"/>
       <c r="J90" s="18"/>
       <c r="K90" s="14"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="47" t="s">
+      <c r="L90" s="48"/>
+      <c r="M90" s="49" t="s">
         <v>317</v>
       </c>
       <c r="N90" s="43" t="s">
@@ -8898,7 +8925,7 @@
       <c r="B91" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="47" t="s">
         <v>320</v>
       </c>
       <c r="D91" s="14"/>
@@ -8927,7 +8954,7 @@
       <c r="B92" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="47" t="s">
         <v>324</v>
       </c>
       <c r="D92" s="14"/>
@@ -8956,7 +8983,7 @@
       <c r="B93" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="47" t="s">
         <v>328</v>
       </c>
       <c r="D93" s="14"/>
@@ -8985,7 +9012,7 @@
       <c r="B94" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="47" t="s">
         <v>332</v>
       </c>
       <c r="D94" s="14"/>
@@ -9072,7 +9099,7 @@
       <c r="B97" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="46" t="s">
         <v>344</v>
       </c>
       <c r="D97" s="14"/>
@@ -9097,10 +9124,10 @@
       <c r="B98" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="D98" s="14"/>
+      <c r="D98" s="46"/>
       <c r="E98" s="18"/>
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
@@ -9122,7 +9149,7 @@
       <c r="B99" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="46" t="s">
         <v>350</v>
       </c>
       <c r="D99" s="14"/>
@@ -9147,7 +9174,7 @@
       <c r="B100" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="46" t="s">
         <v>353</v>
       </c>
       <c r="D100" s="14"/>
@@ -9200,7 +9227,7 @@
       <c r="C102" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="D102" s="14"/>
+      <c r="D102" s="50"/>
       <c r="E102" s="18"/>
       <c r="F102" s="14"/>
       <c r="G102" s="14"/>
@@ -9222,10 +9249,10 @@
       <c r="B103" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C103" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="D103" s="14"/>
+      <c r="D103" s="50"/>
       <c r="E103" s="18"/>
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
@@ -9247,10 +9274,10 @@
       <c r="B104" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C104" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="D104" s="14"/>
+      <c r="D104" s="50"/>
       <c r="E104" s="18"/>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
@@ -9272,10 +9299,9 @@
       <c r="B105" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="46" t="s">
         <v>368</v>
       </c>
-      <c r="D105" s="14"/>
       <c r="E105" s="18"/>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
@@ -9297,10 +9323,10 @@
       <c r="B106" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="D106" s="14"/>
+      <c r="D106" s="50"/>
       <c r="E106" s="18"/>
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
@@ -9322,10 +9348,9 @@
       <c r="B107" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="D107" s="14"/>
       <c r="E107" s="18"/>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
@@ -9347,10 +9372,10 @@
       <c r="B108" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D108" s="14"/>
+      <c r="D108" s="50"/>
       <c r="E108" s="18"/>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
@@ -9372,10 +9397,10 @@
       <c r="B109" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="D109" s="14"/>
+      <c r="D109" s="46"/>
       <c r="E109" s="18"/>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
@@ -9400,12 +9425,11 @@
       <c r="C110" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D110" s="14"/>
       <c r="E110" s="41"/>
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
       <c r="H110" s="14"/>
-      <c r="I110" s="48" t="s">
+      <c r="I110" s="51" t="s">
         <v>384</v>
       </c>
       <c r="J110" s="18"/>
@@ -9436,7 +9460,7 @@
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
-      <c r="I111" s="48" t="s">
+      <c r="I111" s="51" t="s">
         <v>384</v>
       </c>
       <c r="J111" s="18"/>
@@ -9467,7 +9491,7 @@
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
-      <c r="I112" s="48" t="s">
+      <c r="I112" s="51" t="s">
         <v>394</v>
       </c>
       <c r="J112" s="18"/>
@@ -9480,33 +9504,33 @@
       <c r="Q112" s="14"/>
     </row>
     <row r="113">
-      <c r="A113" s="49" t="s">
+      <c r="A113" s="52" t="s">
         <v>395</v>
       </c>
-      <c r="B113" s="50" t="s">
+      <c r="B113" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="C113" s="51" t="s">
+      <c r="C113" s="54" t="s">
         <v>397</v>
       </c>
-      <c r="D113" s="52"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="52"/>
-      <c r="G113" s="52"/>
-      <c r="H113" s="52"/>
-      <c r="I113" s="52"/>
-      <c r="J113" s="51"/>
-      <c r="K113" s="52"/>
-      <c r="L113" s="53"/>
-      <c r="M113" s="53" t="s">
+      <c r="D113" s="55"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="55"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="55"/>
+      <c r="L113" s="56"/>
+      <c r="M113" s="56" t="s">
         <v>398</v>
       </c>
-      <c r="N113" s="54" t="s">
+      <c r="N113" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="O113" s="52"/>
-      <c r="P113" s="52"/>
-      <c r="Q113" s="52"/>
+      <c r="O113" s="55"/>
+      <c r="P113" s="55"/>
+      <c r="Q113" s="55"/>
     </row>
     <row r="114">
       <c r="A114" s="33" t="s">
@@ -9525,7 +9549,7 @@
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
-      <c r="I114" s="55" t="s">
+      <c r="I114" s="58" t="s">
         <v>402</v>
       </c>
       <c r="J114" s="18"/>
@@ -9541,7 +9565,7 @@
       <c r="A115" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="B115" s="56" t="s">
+      <c r="B115" s="59" t="s">
         <v>404</v>
       </c>
       <c r="C115" s="12" t="s">
@@ -9556,7 +9580,7 @@
       <c r="J115" s="18"/>
       <c r="K115" s="14"/>
       <c r="L115" s="12"/>
-      <c r="M115" s="57" t="s">
+      <c r="M115" s="60" t="s">
         <v>406</v>
       </c>
       <c r="N115" s="43" t="s">
@@ -9676,62 +9700,62 @@
       <c r="Q119" s="14"/>
     </row>
     <row r="120">
-      <c r="A120" s="58" t="s">
+      <c r="A120" s="61" t="s">
         <v>414</v>
       </c>
       <c r="B120" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="C120" s="59" t="s">
+      <c r="C120" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D120" s="60"/>
+      <c r="D120" s="63"/>
       <c r="E120" s="37"/>
-      <c r="F120" s="60"/>
-      <c r="G120" s="60"/>
-      <c r="H120" s="60"/>
-      <c r="I120" s="61"/>
-      <c r="J120" s="62">
+      <c r="F120" s="63"/>
+      <c r="G120" s="63"/>
+      <c r="H120" s="63"/>
+      <c r="I120" s="64"/>
+      <c r="J120" s="65">
         <v>229.0</v>
       </c>
-      <c r="K120" s="60"/>
-      <c r="L120" s="63"/>
-      <c r="M120" s="64"/>
-      <c r="N120" s="65"/>
-      <c r="O120" s="60"/>
-      <c r="P120" s="60"/>
-      <c r="Q120" s="60"/>
-      <c r="R120" s="63" t="s">
+      <c r="K120" s="63"/>
+      <c r="L120" s="66"/>
+      <c r="M120" s="67"/>
+      <c r="N120" s="68"/>
+      <c r="O120" s="63"/>
+      <c r="P120" s="63"/>
+      <c r="Q120" s="63"/>
+      <c r="R120" s="66" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="58" t="s">
+      <c r="A121" s="61" t="s">
         <v>417</v>
       </c>
       <c r="B121" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="C121" s="59" t="s">
+      <c r="C121" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="D121" s="60"/>
+      <c r="D121" s="63"/>
       <c r="E121" s="37"/>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="62">
+      <c r="F121" s="63"/>
+      <c r="G121" s="63"/>
+      <c r="H121" s="63"/>
+      <c r="I121" s="64"/>
+      <c r="J121" s="65">
         <v>229.0</v>
       </c>
-      <c r="K121" s="60"/>
-      <c r="L121" s="63"/>
-      <c r="M121" s="64"/>
-      <c r="N121" s="66"/>
-      <c r="O121" s="60"/>
-      <c r="P121" s="60"/>
-      <c r="Q121" s="60"/>
-      <c r="R121" s="64"/>
+      <c r="K121" s="63"/>
+      <c r="L121" s="66"/>
+      <c r="M121" s="67"/>
+      <c r="N121" s="69"/>
+      <c r="O121" s="63"/>
+      <c r="P121" s="63"/>
+      <c r="Q121" s="63"/>
+      <c r="R121" s="67"/>
     </row>
     <row r="122">
       <c r="A122" s="33" t="s">
@@ -10278,8 +10302,8 @@
       <c r="I140" s="18"/>
       <c r="J140" s="12"/>
       <c r="K140" s="14"/>
-      <c r="L140" s="67"/>
-      <c r="M140" s="67"/>
+      <c r="L140" s="70"/>
+      <c r="M140" s="70"/>
       <c r="N140" s="21"/>
       <c r="O140" s="14"/>
       <c r="P140" s="14"/>
@@ -10303,8 +10327,8 @@
       <c r="I141" s="18"/>
       <c r="J141" s="12"/>
       <c r="K141" s="14"/>
-      <c r="L141" s="68"/>
-      <c r="M141" s="68"/>
+      <c r="L141" s="71"/>
+      <c r="M141" s="71"/>
       <c r="N141" s="16"/>
       <c r="O141" s="14"/>
       <c r="P141" s="14"/>
@@ -10328,7 +10352,7 @@
       <c r="I142" s="18"/>
       <c r="J142" s="12"/>
       <c r="K142" s="14"/>
-      <c r="L142" s="68"/>
+      <c r="L142" s="71"/>
       <c r="M142" s="33"/>
       <c r="N142" s="21"/>
       <c r="O142" s="14"/>
@@ -10336,144 +10360,144 @@
       <c r="Q142" s="14"/>
     </row>
     <row r="143">
-      <c r="A143" s="69" t="s">
+      <c r="A143" s="72" t="s">
         <v>461</v>
       </c>
-      <c r="B143" s="70" t="s">
+      <c r="B143" s="73" t="s">
         <v>462</v>
       </c>
-      <c r="C143" s="71" t="s">
+      <c r="C143" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="D143" s="72"/>
-      <c r="E143" s="73"/>
-      <c r="F143" s="74"/>
-      <c r="G143" s="72"/>
-      <c r="H143" s="72"/>
-      <c r="I143" s="74"/>
-      <c r="J143" s="75">
+      <c r="D143" s="75"/>
+      <c r="E143" s="76"/>
+      <c r="F143" s="77"/>
+      <c r="G143" s="75"/>
+      <c r="H143" s="75"/>
+      <c r="I143" s="77"/>
+      <c r="J143" s="78">
         <v>229.0</v>
       </c>
-      <c r="K143" s="72"/>
-      <c r="L143" s="70" t="s">
+      <c r="K143" s="75"/>
+      <c r="L143" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="M143" s="74"/>
-      <c r="N143" s="76"/>
-      <c r="O143" s="72"/>
-      <c r="P143" s="72"/>
-      <c r="Q143" s="72"/>
+      <c r="M143" s="77"/>
+      <c r="N143" s="79"/>
+      <c r="O143" s="75"/>
+      <c r="P143" s="75"/>
+      <c r="Q143" s="75"/>
       <c r="R143" s="4" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="69" t="s">
+      <c r="A144" s="72" t="s">
         <v>464</v>
       </c>
-      <c r="B144" s="70" t="s">
+      <c r="B144" s="73" t="s">
         <v>465</v>
       </c>
-      <c r="C144" s="71" t="s">
+      <c r="C144" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="D144" s="72"/>
-      <c r="E144" s="74"/>
-      <c r="F144" s="74"/>
-      <c r="G144" s="72"/>
-      <c r="H144" s="72"/>
-      <c r="I144" s="74"/>
-      <c r="J144" s="75">
+      <c r="D144" s="75"/>
+      <c r="E144" s="77"/>
+      <c r="F144" s="77"/>
+      <c r="G144" s="75"/>
+      <c r="H144" s="75"/>
+      <c r="I144" s="77"/>
+      <c r="J144" s="78">
         <v>229.0</v>
       </c>
-      <c r="K144" s="72"/>
-      <c r="L144" s="70" t="s">
+      <c r="K144" s="75"/>
+      <c r="L144" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="M144" s="74"/>
-      <c r="N144" s="76"/>
-      <c r="O144" s="72"/>
-      <c r="P144" s="72"/>
-      <c r="Q144" s="72"/>
+      <c r="M144" s="77"/>
+      <c r="N144" s="79"/>
+      <c r="O144" s="75"/>
+      <c r="P144" s="75"/>
+      <c r="Q144" s="75"/>
     </row>
     <row r="145">
-      <c r="A145" s="77" t="s">
+      <c r="A145" s="80" t="s">
         <v>466</v>
       </c>
-      <c r="B145" s="70" t="s">
+      <c r="B145" s="73" t="s">
         <v>467</v>
       </c>
-      <c r="C145" s="71" t="s">
+      <c r="C145" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="D145" s="72"/>
-      <c r="E145" s="73"/>
-      <c r="F145" s="74"/>
-      <c r="G145" s="72"/>
-      <c r="H145" s="72"/>
-      <c r="I145" s="74"/>
-      <c r="J145" s="75">
+      <c r="D145" s="75"/>
+      <c r="E145" s="76"/>
+      <c r="F145" s="77"/>
+      <c r="G145" s="75"/>
+      <c r="H145" s="75"/>
+      <c r="I145" s="77"/>
+      <c r="J145" s="78">
         <v>229.0</v>
       </c>
-      <c r="K145" s="72"/>
-      <c r="L145" s="78" t="s">
+      <c r="K145" s="75"/>
+      <c r="L145" s="81" t="s">
         <v>256</v>
       </c>
-      <c r="M145" s="76"/>
-      <c r="N145" s="76"/>
-      <c r="O145" s="72"/>
-      <c r="P145" s="72"/>
-      <c r="Q145" s="72"/>
+      <c r="M145" s="79"/>
+      <c r="N145" s="79"/>
+      <c r="O145" s="75"/>
+      <c r="P145" s="75"/>
+      <c r="Q145" s="75"/>
       <c r="R145" s="4" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="69" t="s">
+      <c r="A146" s="72" t="s">
         <v>469</v>
       </c>
-      <c r="B146" s="70" t="s">
+      <c r="B146" s="73" t="s">
         <v>470</v>
       </c>
-      <c r="C146" s="71" t="s">
+      <c r="C146" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="D146" s="72"/>
-      <c r="E146" s="73"/>
-      <c r="F146" s="74"/>
-      <c r="G146" s="72"/>
-      <c r="H146" s="72"/>
-      <c r="I146" s="74"/>
-      <c r="J146" s="75">
+      <c r="D146" s="75"/>
+      <c r="E146" s="76"/>
+      <c r="F146" s="77"/>
+      <c r="G146" s="75"/>
+      <c r="H146" s="75"/>
+      <c r="I146" s="77"/>
+      <c r="J146" s="78">
         <v>229.0</v>
       </c>
-      <c r="K146" s="72"/>
-      <c r="L146" s="78" t="s">
+      <c r="K146" s="75"/>
+      <c r="L146" s="81" t="s">
         <v>261</v>
       </c>
-      <c r="M146" s="76"/>
-      <c r="N146" s="76"/>
-      <c r="O146" s="72"/>
-      <c r="P146" s="72"/>
-      <c r="Q146" s="72"/>
+      <c r="M146" s="79"/>
+      <c r="N146" s="79"/>
+      <c r="O146" s="75"/>
+      <c r="P146" s="75"/>
+      <c r="Q146" s="75"/>
     </row>
     <row r="147">
-      <c r="A147" s="79" t="s">
+      <c r="A147" s="82" t="s">
         <v>471</v>
       </c>
-      <c r="B147" s="80" t="s">
+      <c r="B147" s="83" t="s">
         <v>472</v>
       </c>
-      <c r="C147" s="81" t="s">
+      <c r="C147" s="84" t="s">
         <v>473</v>
       </c>
-      <c r="D147" s="82"/>
-      <c r="E147" s="80"/>
-      <c r="F147" s="83"/>
-      <c r="G147" s="84"/>
-      <c r="H147" s="85"/>
-      <c r="I147" s="82"/>
-      <c r="J147" s="81"/>
+      <c r="D147" s="85"/>
+      <c r="E147" s="83"/>
+      <c r="F147" s="86"/>
+      <c r="G147" s="87"/>
+      <c r="H147" s="88"/>
+      <c r="I147" s="85"/>
+      <c r="J147" s="84"/>
       <c r="K147" s="16"/>
       <c r="L147" s="16"/>
       <c r="M147" s="21"/>
@@ -10483,65 +10507,65 @@
       <c r="Q147" s="14"/>
     </row>
     <row r="148">
-      <c r="A148" s="77" t="s">
+      <c r="A148" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="B148" s="70" t="s">
+      <c r="B148" s="73" t="s">
         <v>474</v>
       </c>
-      <c r="C148" s="71" t="s">
+      <c r="C148" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="D148" s="72"/>
-      <c r="E148" s="70"/>
-      <c r="F148" s="86"/>
-      <c r="G148" s="72"/>
-      <c r="H148" s="72"/>
-      <c r="I148" s="74"/>
-      <c r="J148" s="75">
+      <c r="D148" s="75"/>
+      <c r="E148" s="73"/>
+      <c r="F148" s="89"/>
+      <c r="G148" s="75"/>
+      <c r="H148" s="75"/>
+      <c r="I148" s="77"/>
+      <c r="J148" s="78">
         <v>229.0</v>
       </c>
-      <c r="K148" s="72"/>
-      <c r="L148" s="70" t="s">
+      <c r="K148" s="75"/>
+      <c r="L148" s="73" t="s">
         <v>239</v>
       </c>
-      <c r="M148" s="72"/>
-      <c r="N148" s="76"/>
-      <c r="O148" s="72"/>
-      <c r="P148" s="72"/>
-      <c r="Q148" s="72"/>
+      <c r="M148" s="75"/>
+      <c r="N148" s="79"/>
+      <c r="O148" s="75"/>
+      <c r="P148" s="75"/>
+      <c r="Q148" s="75"/>
       <c r="R148" s="4" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="77" t="s">
+      <c r="A149" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="B149" s="70" t="s">
+      <c r="B149" s="73" t="s">
         <v>476</v>
       </c>
-      <c r="C149" s="86" t="s">
+      <c r="C149" s="89" t="s">
         <v>477</v>
       </c>
-      <c r="D149" s="72"/>
-      <c r="E149" s="74"/>
-      <c r="F149" s="86"/>
-      <c r="G149" s="72"/>
-      <c r="H149" s="72"/>
-      <c r="I149" s="74"/>
-      <c r="J149" s="75">
+      <c r="D149" s="75"/>
+      <c r="E149" s="77"/>
+      <c r="F149" s="89"/>
+      <c r="G149" s="75"/>
+      <c r="H149" s="75"/>
+      <c r="I149" s="77"/>
+      <c r="J149" s="78">
         <v>229.0</v>
       </c>
-      <c r="K149" s="72"/>
-      <c r="L149" s="70" t="s">
+      <c r="K149" s="75"/>
+      <c r="L149" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="M149" s="72"/>
-      <c r="N149" s="76"/>
-      <c r="O149" s="72"/>
-      <c r="P149" s="72"/>
-      <c r="Q149" s="72"/>
+      <c r="M149" s="75"/>
+      <c r="N149" s="79"/>
+      <c r="O149" s="75"/>
+      <c r="P149" s="75"/>
+      <c r="Q149" s="75"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -10557,35 +10581,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.86"/>
-    <col customWidth="1" min="3" max="3" width="26.29"/>
-    <col customWidth="1" min="4" max="4" width="28.86"/>
+    <col customWidth="1" min="2" max="2" width="18.25"/>
+    <col customWidth="1" min="3" max="3" width="23.0"/>
+    <col customWidth="1" min="4" max="4" width="25.25"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="90" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>478</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="93" t="s">
         <v>480</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -10593,7 +10617,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>482</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -10605,7 +10629,7 @@
       <c r="D3" s="23"/>
     </row>
     <row r="4">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="92" t="s">
         <v>485</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -10614,10 +10638,10 @@
       <c r="C4" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="94"/>
     </row>
     <row r="5">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="92" t="s">
         <v>488</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -10626,13 +10650,13 @@
       <c r="C5" s="24" t="s">
         <v>490</v>
       </c>
-      <c r="D5" s="91"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="92" t="s">
         <v>491</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="95" t="s">
         <v>492</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -10641,7 +10665,7 @@
       <c r="D6" s="23"/>
     </row>
     <row r="7">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="92" t="s">
         <v>494</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -10650,12 +10674,12 @@
       <c r="C7" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="96" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="92" t="s">
         <v>498</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -10664,12 +10688,12 @@
       <c r="C8" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="96" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="92" t="s">
         <v>497</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -10678,12 +10702,12 @@
       <c r="C9" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="97" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="92" t="s">
         <v>503</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -10692,12 +10716,12 @@
       <c r="C10" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="96" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="92" t="s">
         <v>506</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -10706,421 +10730,421 @@
       <c r="C11" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="D11" s="95"/>
+      <c r="D11" s="98"/>
     </row>
     <row r="12">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="92" t="s">
         <v>509</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="96" t="s">
         <v>510</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="D12" s="95"/>
+      <c r="D12" s="98"/>
     </row>
     <row r="13">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="92" t="s">
         <v>512</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="99" t="s">
         <v>513</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="96" t="s">
         <v>514</v>
       </c>
-      <c r="D13" s="95"/>
+      <c r="D13" s="98"/>
     </row>
     <row r="14">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="92" t="s">
         <v>515</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="99" t="s">
         <v>516</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="96" t="s">
         <v>517</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="98"/>
     </row>
     <row r="15">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="92" t="s">
         <v>518</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="99" t="s">
         <v>519</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="96" t="s">
         <v>520</v>
       </c>
-      <c r="D15" s="95"/>
+      <c r="D15" s="98"/>
     </row>
     <row r="16">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="92" t="s">
         <v>521</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="99" t="s">
         <v>522</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="96" t="s">
         <v>523</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="98"/>
     </row>
     <row r="17">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="92" t="s">
         <v>524</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="99" t="s">
         <v>525</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="96" t="s">
         <v>526</v>
       </c>
-      <c r="D17" s="95"/>
+      <c r="D17" s="98"/>
     </row>
     <row r="18">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="92" t="s">
         <v>527</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="99" t="s">
         <v>528</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="96" t="s">
         <v>529</v>
       </c>
-      <c r="D18" s="95"/>
+      <c r="D18" s="98"/>
     </row>
     <row r="19">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="92" t="s">
         <v>530</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="99" t="s">
         <v>531</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="96" t="s">
         <v>532</v>
       </c>
-      <c r="D19" s="95"/>
+      <c r="D19" s="98"/>
     </row>
     <row r="20">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="92" t="s">
         <v>533</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="100" t="s">
         <v>501</v>
       </c>
-      <c r="D20" s="95"/>
+      <c r="D20" s="98"/>
     </row>
     <row r="21">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="92" t="s">
         <v>535</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="101" t="s">
         <v>536</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="100" t="s">
         <v>537</v>
       </c>
-      <c r="D21" s="95"/>
+      <c r="D21" s="98"/>
     </row>
     <row r="22">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="92" t="s">
         <v>538</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="99" t="s">
         <v>539</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="102" t="s">
         <v>540</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="96" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="92" t="s">
         <v>541</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="103" t="s">
         <v>542</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="104" t="s">
         <v>543</v>
       </c>
-      <c r="D23" s="95"/>
+      <c r="D23" s="98"/>
     </row>
     <row r="24">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="92" t="s">
         <v>544</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="105" t="s">
         <v>545</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="104" t="s">
         <v>546</v>
       </c>
-      <c r="D24" s="95"/>
+      <c r="D24" s="98"/>
     </row>
     <row r="25">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="92" t="s">
         <v>547</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="105" t="s">
         <v>548</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="104" t="s">
         <v>549</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="96" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="92" t="s">
         <v>550</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="96" t="s">
         <v>551</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="96" t="s">
         <v>552</v>
       </c>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="96" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="92" t="s">
         <v>553</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="96" t="s">
         <v>554</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="96" t="s">
         <v>555</v>
       </c>
-      <c r="D27" s="95"/>
+      <c r="D27" s="98"/>
     </row>
     <row r="28">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="96" t="s">
         <v>556</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="96" t="s">
         <v>557</v>
       </c>
-      <c r="D28" s="95"/>
+      <c r="D28" s="98"/>
     </row>
     <row r="29">
       <c r="A29" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="106" t="s">
         <v>559</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="107" t="s">
         <v>560</v>
       </c>
-      <c r="D29" s="104"/>
+      <c r="D29" s="107"/>
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="106" t="s">
         <v>562</v>
       </c>
-      <c r="C30" s="104" t="s">
+      <c r="C30" s="107" t="s">
         <v>563</v>
       </c>
-      <c r="D30" s="104"/>
+      <c r="D30" s="107"/>
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="106" t="s">
         <v>565</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="107" t="s">
         <v>566</v>
       </c>
-      <c r="D31" s="104"/>
+      <c r="D31" s="107"/>
     </row>
     <row r="32">
       <c r="A32" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="106" t="s">
         <v>568</v>
       </c>
-      <c r="C32" s="104" t="s">
+      <c r="C32" s="107" t="s">
         <v>569</v>
       </c>
-      <c r="D32" s="104"/>
+      <c r="D32" s="107"/>
     </row>
     <row r="33">
       <c r="A33" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="106" t="s">
         <v>571</v>
       </c>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="107" t="s">
         <v>572</v>
       </c>
-      <c r="D33" s="104"/>
+      <c r="D33" s="107"/>
     </row>
     <row r="34">
       <c r="A34" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="106" t="s">
         <v>574</v>
       </c>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="D34" s="104"/>
+      <c r="D34" s="107"/>
     </row>
     <row r="35">
       <c r="A35" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="106" t="s">
         <v>577</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="107" t="s">
         <v>578</v>
       </c>
-      <c r="D35" s="104"/>
+      <c r="D35" s="107"/>
     </row>
     <row r="36">
       <c r="A36" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="106" t="s">
         <v>580</v>
       </c>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="107" t="s">
         <v>581</v>
       </c>
-      <c r="D36" s="104"/>
+      <c r="D36" s="107"/>
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="B37" s="103" t="s">
+      <c r="B37" s="106" t="s">
         <v>583</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="107" t="s">
         <v>584</v>
       </c>
-      <c r="D37" s="104"/>
+      <c r="D37" s="107"/>
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="106" t="s">
         <v>586</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="107" t="s">
         <v>587</v>
       </c>
-      <c r="D38" s="104"/>
+      <c r="D38" s="107"/>
     </row>
     <row r="39">
-      <c r="A39" s="105">
+      <c r="A39" s="108">
         <v>54.0</v>
       </c>
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="109" t="s">
         <v>588</v>
       </c>
-      <c r="C39" s="107" t="s">
+      <c r="C39" s="110" t="s">
         <v>589</v>
       </c>
-      <c r="D39" s="108"/>
+      <c r="D39" s="111"/>
     </row>
     <row r="40">
-      <c r="A40" s="105">
+      <c r="A40" s="108">
         <v>55.0</v>
       </c>
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="109" t="s">
         <v>590</v>
       </c>
-      <c r="C40" s="107" t="s">
+      <c r="C40" s="110" t="s">
         <v>591</v>
       </c>
-      <c r="D40" s="102"/>
+      <c r="D40" s="105"/>
     </row>
     <row r="41">
-      <c r="A41" s="105">
+      <c r="A41" s="108">
         <v>56.0</v>
       </c>
-      <c r="B41" s="106" t="s">
+      <c r="B41" s="109" t="s">
         <v>592</v>
       </c>
-      <c r="C41" s="107" t="s">
+      <c r="C41" s="110" t="s">
         <v>593</v>
       </c>
-      <c r="D41" s="108"/>
+      <c r="D41" s="111"/>
     </row>
     <row r="42">
-      <c r="A42" s="105">
+      <c r="A42" s="108">
         <v>116.0</v>
       </c>
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="109" t="s">
         <v>492</v>
       </c>
-      <c r="C42" s="109" t="s">
+      <c r="C42" s="112" t="s">
         <v>594</v>
       </c>
-      <c r="D42" s="95"/>
+      <c r="D42" s="98"/>
     </row>
     <row r="43">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="113" t="s">
         <v>595</v>
       </c>
-      <c r="B43" s="100" t="s">
+      <c r="B43" s="103" t="s">
         <v>596</v>
       </c>
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="112" t="s">
         <v>597</v>
       </c>
-      <c r="D43" s="95"/>
+      <c r="D43" s="98"/>
     </row>
     <row r="44">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="113" t="s">
         <v>598</v>
       </c>
-      <c r="B44" s="100" t="s">
+      <c r="B44" s="103" t="s">
         <v>599</v>
       </c>
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="112" t="s">
         <v>600</v>
       </c>
-      <c r="D44" s="95"/>
+      <c r="D44" s="98"/>
     </row>
     <row r="45">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="113" t="s">
         <v>601</v>
       </c>
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="103" t="s">
         <v>602</v>
       </c>
-      <c r="C45" s="111" t="s">
+      <c r="C45" s="114" t="s">
         <v>603</v>
       </c>
-      <c r="D45" s="95"/>
+      <c r="D45" s="98"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11139,31 +11163,31 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.86"/>
+    <col customWidth="1" min="1" max="1" width="27.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="115" t="s">
         <v>604</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="115" t="s">
         <v>605</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="115" t="s">
         <v>606</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="116" t="s">
         <v>607</v>
       </c>
     </row>
@@ -11181,10 +11205,10 @@
       <c r="E2" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="114">
+      <c r="F2" s="117">
         <v>4.0</v>
       </c>
-      <c r="G2" s="115"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
@@ -11200,7 +11224,7 @@
       <c r="E3" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="114">
+      <c r="F3" s="117">
         <v>4.0</v>
       </c>
       <c r="G3" s="14"/>
@@ -11219,7 +11243,7 @@
       <c r="E4" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="114">
+      <c r="F4" s="117">
         <v>4.0</v>
       </c>
       <c r="G4" s="14"/>
@@ -11238,7 +11262,7 @@
       <c r="E5" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="114">
+      <c r="F5" s="117">
         <v>4.0</v>
       </c>
       <c r="G5" s="14"/>
@@ -11257,7 +11281,7 @@
       <c r="E6" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="114">
+      <c r="F6" s="117">
         <v>4.0</v>
       </c>
       <c r="G6" s="14"/>
@@ -11276,7 +11300,7 @@
       <c r="E7" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="114">
+      <c r="F7" s="117">
         <v>4.0</v>
       </c>
       <c r="G7" s="14"/>
@@ -11295,7 +11319,7 @@
       <c r="E8" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="114">
+      <c r="F8" s="117">
         <v>4.0</v>
       </c>
       <c r="G8" s="14"/>
@@ -11314,7 +11338,7 @@
       <c r="E9" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="114">
+      <c r="F9" s="117">
         <v>4.0</v>
       </c>
       <c r="G9" s="14"/>
@@ -11333,7 +11357,7 @@
       <c r="E10" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="F10" s="114">
+      <c r="F10" s="117">
         <v>4.0</v>
       </c>
       <c r="G10" s="14"/>
@@ -11352,7 +11376,7 @@
       <c r="E11" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="F11" s="114">
+      <c r="F11" s="117">
         <v>4.0</v>
       </c>
       <c r="G11" s="14"/>
@@ -11371,7 +11395,7 @@
       <c r="E12" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="F12" s="114">
+      <c r="F12" s="117">
         <v>16.0</v>
       </c>
       <c r="G12" s="14"/>
@@ -11390,48 +11414,48 @@
       <c r="E13" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="F13" s="114">
+      <c r="F13" s="117">
         <v>16.0</v>
       </c>
       <c r="G13" s="14"/>
     </row>
     <row r="14">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64" t="s">
         <v>645</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="64" t="s">
         <v>646</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="61" t="s">
         <v>414</v>
       </c>
-      <c r="F14" s="116">
+      <c r="F14" s="119">
         <v>4.0</v>
       </c>
-      <c r="G14" s="60"/>
+      <c r="G14" s="63"/>
     </row>
     <row r="15">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="61" t="s">
         <v>647</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="64" t="s">
         <v>648</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="64" t="s">
         <v>649</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="61" t="s">
         <v>417</v>
       </c>
-      <c r="F15" s="116">
+      <c r="F15" s="119">
         <v>4.0</v>
       </c>
-      <c r="G15" s="60"/>
+      <c r="G15" s="63"/>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
@@ -11447,7 +11471,7 @@
       <c r="E16" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="F16" s="114">
+      <c r="F16" s="117">
         <v>4.0</v>
       </c>
       <c r="G16" s="14"/>
@@ -11466,7 +11490,7 @@
       <c r="E17" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="F17" s="114">
+      <c r="F17" s="117">
         <v>4.0</v>
       </c>
       <c r="G17" s="14"/>
@@ -11485,7 +11509,7 @@
       <c r="E18" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="114">
+      <c r="F18" s="117">
         <v>4.0</v>
       </c>
       <c r="G18" s="14"/>
@@ -11504,7 +11528,7 @@
       <c r="E19" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="F19" s="114">
+      <c r="F19" s="117">
         <v>4.0</v>
       </c>
       <c r="G19" s="14"/>
@@ -11523,7 +11547,7 @@
       <c r="E20" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="F20" s="114">
+      <c r="F20" s="117">
         <v>4.0</v>
       </c>
       <c r="G20" s="14"/>
@@ -11542,45 +11566,45 @@
       <c r="E21" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="114">
+      <c r="F21" s="117">
         <v>4.0</v>
       </c>
       <c r="G21" s="14"/>
     </row>
     <row r="22">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="120" t="s">
         <v>668</v>
       </c>
       <c r="B22" s="39"/>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="121" t="s">
         <v>669</v>
       </c>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="121" t="s">
         <v>670</v>
       </c>
-      <c r="E22" s="117" t="s">
+      <c r="E22" s="120" t="s">
         <v>242</v>
       </c>
-      <c r="F22" s="114">
+      <c r="F22" s="117">
         <v>4.0</v>
       </c>
       <c r="G22" s="14"/>
     </row>
     <row r="23">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="120" t="s">
         <v>671</v>
       </c>
       <c r="B23" s="39"/>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="121" t="s">
         <v>672</v>
       </c>
-      <c r="D23" s="119" t="s">
+      <c r="D23" s="122" t="s">
         <v>673</v>
       </c>
-      <c r="E23" s="117" t="s">
+      <c r="E23" s="120" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="114">
+      <c r="F23" s="117">
         <v>4.0</v>
       </c>
       <c r="G23" s="14"/>
@@ -11599,7 +11623,7 @@
       <c r="E24" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="F24" s="114">
+      <c r="F24" s="117">
         <v>4.0</v>
       </c>
       <c r="G24" s="14"/>
@@ -11618,7 +11642,7 @@
       <c r="E25" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="F25" s="114">
+      <c r="F25" s="117">
         <v>4.0</v>
       </c>
       <c r="G25" s="14"/>
@@ -11637,7 +11661,7 @@
       <c r="E26" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="F26" s="114">
+      <c r="F26" s="117">
         <v>4.0</v>
       </c>
       <c r="G26" s="14"/>
@@ -11656,7 +11680,7 @@
       <c r="E27" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="F27" s="114">
+      <c r="F27" s="117">
         <v>4.0</v>
       </c>
       <c r="G27" s="14"/>
@@ -11675,7 +11699,7 @@
       <c r="E28" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="F28" s="114">
+      <c r="F28" s="117">
         <v>4.0</v>
       </c>
       <c r="G28" s="14"/>
@@ -11694,7 +11718,7 @@
       <c r="E29" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="114">
+      <c r="F29" s="117">
         <v>4.0</v>
       </c>
       <c r="G29" s="14"/>
@@ -11713,7 +11737,7 @@
       <c r="E30" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F30" s="114">
+      <c r="F30" s="117">
         <v>4.0</v>
       </c>
       <c r="G30" s="14"/>
@@ -11732,7 +11756,7 @@
       <c r="E31" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="F31" s="114">
+      <c r="F31" s="117">
         <v>4.0</v>
       </c>
       <c r="G31" s="14"/>
@@ -11751,7 +11775,7 @@
       <c r="E32" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="F32" s="114">
+      <c r="F32" s="117">
         <v>4.0</v>
       </c>
       <c r="G32" s="14"/>
@@ -11770,7 +11794,7 @@
       <c r="E33" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="F33" s="114">
+      <c r="F33" s="117">
         <v>4.0</v>
       </c>
       <c r="G33" s="14"/>
@@ -11789,7 +11813,7 @@
       <c r="E34" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="F34" s="114">
+      <c r="F34" s="117">
         <v>4.0</v>
       </c>
       <c r="G34" s="14"/>
@@ -11808,7 +11832,7 @@
       <c r="E35" s="43" t="s">
         <v>461</v>
       </c>
-      <c r="F35" s="114">
+      <c r="F35" s="117">
         <v>4.0</v>
       </c>
       <c r="G35" s="14"/>
@@ -11827,7 +11851,7 @@
       <c r="E36" s="43" t="s">
         <v>464</v>
       </c>
-      <c r="F36" s="114">
+      <c r="F36" s="117">
         <v>4.0</v>
       </c>
       <c r="G36" s="14"/>
@@ -11846,7 +11870,7 @@
       <c r="E37" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="F37" s="114">
+      <c r="F37" s="117">
         <v>4.0</v>
       </c>
       <c r="G37" s="14"/>
@@ -11865,7 +11889,7 @@
       <c r="E38" s="43" t="s">
         <v>469</v>
       </c>
-      <c r="F38" s="114">
+      <c r="F38" s="117">
         <v>4.0</v>
       </c>
       <c r="G38" s="14"/>
@@ -11892,65 +11916,65 @@
       <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.0"/>
-    <col customWidth="1" min="2" max="2" width="61.71"/>
-    <col customWidth="1" min="3" max="3" width="16.57"/>
-    <col customWidth="1" min="4" max="4" width="23.14"/>
-    <col customWidth="1" min="6" max="6" width="18.86"/>
-    <col customWidth="1" min="7" max="7" width="13.14"/>
-    <col customWidth="1" min="8" max="8" width="3.86"/>
-    <col customWidth="1" min="9" max="9" width="4.0"/>
-    <col customWidth="1" min="10" max="10" width="5.57"/>
-    <col customWidth="1" min="11" max="11" width="12.29"/>
-    <col customWidth="1" min="12" max="12" width="25.86"/>
-    <col customWidth="1" min="13" max="13" width="12.14"/>
-    <col customWidth="1" min="14" max="14" width="14.57"/>
-    <col customWidth="1" min="15" max="15" width="27.71"/>
+    <col customWidth="1" min="1" max="1" width="21.88"/>
+    <col customWidth="1" min="2" max="2" width="54.0"/>
+    <col customWidth="1" min="3" max="3" width="14.5"/>
+    <col customWidth="1" min="4" max="4" width="20.25"/>
+    <col customWidth="1" min="6" max="6" width="16.5"/>
+    <col customWidth="1" min="7" max="7" width="11.5"/>
+    <col customWidth="1" min="8" max="8" width="3.38"/>
+    <col customWidth="1" min="9" max="9" width="3.5"/>
+    <col customWidth="1" min="10" max="10" width="4.88"/>
+    <col customWidth="1" min="11" max="11" width="10.75"/>
+    <col customWidth="1" min="12" max="12" width="22.63"/>
+    <col customWidth="1" min="13" max="13" width="10.63"/>
+    <col customWidth="1" min="14" max="14" width="12.75"/>
+    <col customWidth="1" min="15" max="15" width="24.25"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="115" t="s">
         <v>719</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="115" t="s">
         <v>720</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="115" t="s">
         <v>721</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="115" t="s">
         <v>722</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="115" t="s">
         <v>723</v>
       </c>
-      <c r="J1" s="120" t="s">
+      <c r="J1" s="123" t="s">
         <v>724</v>
       </c>
-      <c r="K1" s="121" t="s">
+      <c r="K1" s="124" t="s">
         <v>725</v>
       </c>
-      <c r="L1" s="122" t="s">
+      <c r="L1" s="125" t="s">
         <v>726</v>
       </c>
-      <c r="M1" s="123" t="s">
+      <c r="M1" s="126" t="s">
         <v>727</v>
       </c>
-      <c r="N1" s="123" t="s">
+      <c r="N1" s="126" t="s">
         <v>728</v>
       </c>
       <c r="O1" s="20" t="s">
@@ -11980,18 +12004,18 @@
       <c r="G2" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="H2" s="114">
+      <c r="H2" s="117">
         <v>100.0</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="126" t="s">
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="129" t="s">
         <v>736</v>
       </c>
-      <c r="O2" s="125"/>
+      <c r="O2" s="128"/>
       <c r="P2" s="20">
         <v>1.0</v>
       </c>
@@ -12006,7 +12030,7 @@
       <c r="C3" s="38" t="s">
         <v>739</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="43" t="s">
         <v>214</v>
       </c>
@@ -12014,19 +12038,19 @@
         <v>609</v>
       </c>
       <c r="G3" s="18"/>
-      <c r="H3" s="114">
+      <c r="H3" s="117">
         <v>4.0</v>
       </c>
       <c r="I3" s="32"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="128" t="s">
+      <c r="K3" s="127"/>
+      <c r="L3" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125">
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128">
         <v>2.0</v>
       </c>
     </row>
@@ -12040,7 +12064,7 @@
       <c r="C4" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D4" s="129"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="17" t="s">
         <v>209</v>
       </c>
@@ -12052,16 +12076,16 @@
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="130" t="s">
+      <c r="K4" s="133" t="s">
         <v>743</v>
       </c>
-      <c r="L4" s="131" t="s">
+      <c r="L4" s="134" t="s">
         <v>744</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125">
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128">
         <v>3.0</v>
       </c>
     </row>
@@ -12085,14 +12109,14 @@
       <c r="H5" s="12"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="131" t="s">
+      <c r="K5" s="133"/>
+      <c r="L5" s="134" t="s">
         <v>177</v>
       </c>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125">
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128">
         <v>4.0</v>
       </c>
     </row>
@@ -12116,16 +12140,16 @@
       <c r="H6" s="12"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="130" t="s">
+      <c r="K6" s="133" t="s">
         <v>749</v>
       </c>
-      <c r="L6" s="131" t="s">
+      <c r="L6" s="134" t="s">
         <v>750</v>
       </c>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125">
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128">
         <v>5.0</v>
       </c>
     </row>
@@ -12149,14 +12173,14 @@
       <c r="H7" s="12"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="131" t="s">
+      <c r="K7" s="133"/>
+      <c r="L7" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125">
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128">
         <v>6.0</v>
       </c>
     </row>
@@ -12180,16 +12204,16 @@
       <c r="H8" s="12"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="130" t="s">
+      <c r="K8" s="133" t="s">
         <v>755</v>
       </c>
-      <c r="L8" s="131" t="s">
+      <c r="L8" s="134" t="s">
         <v>756</v>
       </c>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125">
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128">
         <v>7.0</v>
       </c>
     </row>
@@ -12213,14 +12237,14 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="131" t="s">
+      <c r="K9" s="133"/>
+      <c r="L9" s="134" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125">
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128">
         <v>8.0</v>
       </c>
     </row>
@@ -12244,16 +12268,16 @@
       <c r="H10" s="12"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="130" t="s">
+      <c r="K10" s="133" t="s">
         <v>755</v>
       </c>
-      <c r="L10" s="131" t="s">
+      <c r="L10" s="134" t="s">
         <v>761</v>
       </c>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125">
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128">
         <v>9.0</v>
       </c>
     </row>
@@ -12277,14 +12301,14 @@
       <c r="H11" s="12"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="131" t="s">
+      <c r="K11" s="133"/>
+      <c r="L11" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125">
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128">
         <v>10.0</v>
       </c>
     </row>
@@ -12308,16 +12332,16 @@
       <c r="H12" s="12"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="130" t="s">
+      <c r="K12" s="133" t="s">
         <v>749</v>
       </c>
-      <c r="L12" s="131" t="s">
+      <c r="L12" s="134" t="s">
         <v>766</v>
       </c>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="125">
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="128">
         <v>11.0</v>
       </c>
     </row>
@@ -12341,14 +12365,14 @@
       <c r="H13" s="12"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="131" t="s">
+      <c r="K13" s="133"/>
+      <c r="L13" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="125">
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128">
         <v>12.0</v>
       </c>
     </row>
@@ -12372,16 +12396,16 @@
       <c r="H14" s="12"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="130" t="s">
+      <c r="K14" s="133" t="s">
         <v>749</v>
       </c>
-      <c r="L14" s="131" t="s">
+      <c r="L14" s="134" t="s">
         <v>771</v>
       </c>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125">
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128">
         <v>13.0</v>
       </c>
     </row>
@@ -12405,14 +12429,14 @@
       <c r="H15" s="12"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="131" t="s">
+      <c r="K15" s="133"/>
+      <c r="L15" s="134" t="s">
         <v>173</v>
       </c>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125">
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="128">
         <v>14.0</v>
       </c>
     </row>
@@ -12436,16 +12460,16 @@
       <c r="H16" s="12"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="130" t="s">
+      <c r="K16" s="133" t="s">
         <v>749</v>
       </c>
-      <c r="L16" s="131" t="s">
+      <c r="L16" s="134" t="s">
         <v>776</v>
       </c>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125">
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="128">
         <v>15.0</v>
       </c>
     </row>
@@ -12469,14 +12493,14 @@
       <c r="H17" s="12"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="131" t="s">
+      <c r="K17" s="133"/>
+      <c r="L17" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125">
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128">
         <v>16.0</v>
       </c>
     </row>
@@ -12503,16 +12527,16 @@
       <c r="H18" s="12"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="130" t="s">
+      <c r="K18" s="133" t="s">
         <v>782</v>
       </c>
-      <c r="L18" s="131" t="s">
+      <c r="L18" s="134" t="s">
         <v>783</v>
       </c>
-      <c r="M18" s="129"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125">
+      <c r="M18" s="132"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="128">
         <v>17.0</v>
       </c>
     </row>
@@ -12523,7 +12547,7 @@
       <c r="B19" s="22" t="s">
         <v>785</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D19" s="18"/>
@@ -12539,16 +12563,16 @@
       <c r="H19" s="12"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="130" t="s">
+      <c r="K19" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="L19" s="131" t="s">
+      <c r="L19" s="134" t="s">
         <v>788</v>
       </c>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125">
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128">
         <v>18.0</v>
       </c>
     </row>
@@ -12559,7 +12583,7 @@
       <c r="B20" s="22" t="s">
         <v>790</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D20" s="18"/>
@@ -12575,192 +12599,192 @@
       <c r="H20" s="12"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="130" t="s">
+      <c r="K20" s="133" t="s">
         <v>792</v>
       </c>
-      <c r="L20" s="131" t="s">
+      <c r="L20" s="134" t="s">
         <v>793</v>
       </c>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="125">
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="128">
         <v>19.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="56" t="s">
         <v>794</v>
       </c>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="136" t="s">
         <v>795</v>
       </c>
-      <c r="C21" s="134" t="s">
+      <c r="C21" s="137" t="s">
         <v>739</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="54" t="s">
         <v>633</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="135">
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="138">
         <v>6.0</v>
       </c>
-      <c r="L21" s="136" t="s">
+      <c r="L21" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125">
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128">
         <v>20.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="56" t="s">
         <v>796</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="136" t="s">
         <v>797</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="137" t="s">
         <v>742</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="54" t="s">
         <v>634</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="54" t="s">
         <v>798</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="137" t="s">
+      <c r="H22" s="56"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="140" t="s">
         <v>799</v>
       </c>
-      <c r="L22" s="138" t="s">
+      <c r="L22" s="141" t="s">
         <v>800</v>
       </c>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125">
+      <c r="M22" s="141"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128">
         <v>21.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="54" t="s">
         <v>801</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="53" t="s">
         <v>802</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="55" t="s">
         <v>739</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="54" t="s">
         <v>636</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="135">
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="138">
         <v>6.0</v>
       </c>
-      <c r="L23" s="138" t="s">
+      <c r="L23" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125">
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="128">
         <v>22.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="54" t="s">
         <v>803</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="53" t="s">
         <v>804</v>
       </c>
-      <c r="C24" s="134" t="s">
+      <c r="C24" s="137" t="s">
         <v>742</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="54" t="s">
         <v>637</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="54" t="s">
         <v>798</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="137" t="s">
+      <c r="H24" s="56"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="140" t="s">
         <v>799</v>
       </c>
-      <c r="L24" s="136" t="s">
+      <c r="L24" s="139" t="s">
         <v>805</v>
       </c>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125">
+      <c r="M24" s="139"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="128">
         <v>23.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="56" t="s">
         <v>806</v>
       </c>
-      <c r="B25" s="133" t="s">
+      <c r="B25" s="136" t="s">
         <v>807</v>
       </c>
-      <c r="C25" s="134" t="s">
+      <c r="C25" s="137" t="s">
         <v>742</v>
       </c>
-      <c r="D25" s="51"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="54" t="s">
         <v>798</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="53" t="s">
         <v>808</v>
       </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="139" t="s">
+      <c r="H25" s="56"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="142" t="s">
         <v>809</v>
       </c>
-      <c r="L25" s="140" t="s">
+      <c r="L25" s="143" t="s">
         <v>810</v>
       </c>
-      <c r="M25" s="140"/>
-      <c r="N25" s="140"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125">
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128">
         <v>24.0</v>
       </c>
     </row>
@@ -12768,7 +12792,7 @@
       <c r="A26" s="33" t="s">
         <v>811</v>
       </c>
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="144" t="s">
         <v>812</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -12787,7 +12811,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="142">
+      <c r="K26" s="145">
         <v>6.0</v>
       </c>
       <c r="L26" s="19" t="s">
@@ -12795,8 +12819,8 @@
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125">
+      <c r="O26" s="128"/>
+      <c r="P26" s="128">
         <v>25.0</v>
       </c>
     </row>
@@ -12807,7 +12831,7 @@
       <c r="B27" s="22" t="s">
         <v>815</v>
       </c>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D27" s="18"/>
@@ -12817,22 +12841,22 @@
       <c r="F27" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="G27" s="143" t="s">
+      <c r="G27" s="146" t="s">
         <v>816</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="130" t="s">
+      <c r="K27" s="133" t="s">
         <v>817</v>
       </c>
-      <c r="L27" s="131" t="s">
+      <c r="L27" s="134" t="s">
         <v>818</v>
       </c>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125">
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128">
         <v>26.0</v>
       </c>
     </row>
@@ -12859,7 +12883,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="142">
+      <c r="K28" s="145">
         <v>6.0</v>
       </c>
       <c r="L28" s="19" t="s">
@@ -12867,8 +12891,8 @@
       </c>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="125">
+      <c r="O28" s="128"/>
+      <c r="P28" s="128">
         <v>27.0</v>
       </c>
     </row>
@@ -12889,328 +12913,328 @@
       <c r="F29" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="G29" s="144" t="s">
+      <c r="G29" s="147" t="s">
         <v>824</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="130" t="s">
+      <c r="K29" s="133" t="s">
         <v>817</v>
       </c>
-      <c r="L29" s="131" t="s">
+      <c r="L29" s="134" t="s">
         <v>825</v>
       </c>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="125">
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128">
         <v>28.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="145" t="s">
+      <c r="A30" s="148" t="s">
         <v>826</v>
       </c>
-      <c r="B30" s="146" t="s">
+      <c r="B30" s="149" t="s">
         <v>827</v>
       </c>
       <c r="C30" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D30" s="147"/>
+      <c r="D30" s="150"/>
       <c r="E30" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="146" t="s">
+      <c r="F30" s="149" t="s">
         <v>828</v>
       </c>
-      <c r="G30" s="148" t="s">
+      <c r="G30" s="151" t="s">
         <v>829</v>
       </c>
-      <c r="H30" s="149"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="151" t="s">
+      <c r="H30" s="152"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="154" t="s">
         <v>830</v>
       </c>
-      <c r="L30" s="152" t="s">
+      <c r="L30" s="155" t="s">
         <v>831</v>
       </c>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="153"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="155"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="156"/>
     </row>
     <row r="31">
-      <c r="A31" s="145" t="s">
+      <c r="A31" s="148" t="s">
         <v>832</v>
       </c>
-      <c r="B31" s="146" t="s">
+      <c r="B31" s="149" t="s">
         <v>833</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D31" s="147"/>
+      <c r="D31" s="150"/>
       <c r="E31" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F31" s="146" t="s">
+      <c r="F31" s="149" t="s">
         <v>834</v>
       </c>
-      <c r="G31" s="154" t="s">
+      <c r="G31" s="157" t="s">
         <v>828</v>
       </c>
-      <c r="H31" s="149"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="151" t="s">
+      <c r="H31" s="152"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="154" t="s">
         <v>830</v>
       </c>
-      <c r="L31" s="155" t="s">
+      <c r="L31" s="158" t="s">
         <v>835</v>
       </c>
-      <c r="N31" s="155"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="153"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="156"/>
     </row>
     <row r="32">
-      <c r="A32" s="145" t="s">
+      <c r="A32" s="148" t="s">
         <v>836</v>
       </c>
-      <c r="B32" s="146" t="s">
+      <c r="B32" s="149" t="s">
         <v>837</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D32" s="147"/>
+      <c r="D32" s="150"/>
       <c r="E32" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="156" t="s">
+      <c r="F32" s="159" t="s">
         <v>834</v>
       </c>
-      <c r="G32" s="154" t="s">
+      <c r="G32" s="157" t="s">
         <v>816</v>
       </c>
-      <c r="H32" s="149"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="151">
+      <c r="H32" s="152"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="154">
         <v>0.0</v>
       </c>
-      <c r="L32" s="152" t="s">
+      <c r="L32" s="155" t="s">
         <v>318</v>
       </c>
-      <c r="M32" s="152"/>
-      <c r="N32" s="152"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="153"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="156"/>
     </row>
     <row r="33">
-      <c r="A33" s="145" t="s">
+      <c r="A33" s="148" t="s">
         <v>838</v>
       </c>
-      <c r="B33" s="146" t="s">
+      <c r="B33" s="149" t="s">
         <v>839</v>
       </c>
       <c r="C33" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D33" s="147"/>
+      <c r="D33" s="150"/>
       <c r="E33" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="157" t="s">
+      <c r="F33" s="160" t="s">
         <v>840</v>
       </c>
-      <c r="G33" s="158" t="s">
+      <c r="G33" s="161" t="s">
         <v>834</v>
       </c>
-      <c r="H33" s="149"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="151" t="s">
+      <c r="H33" s="152"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="154" t="s">
         <v>830</v>
       </c>
-      <c r="L33" s="152" t="s">
+      <c r="L33" s="155" t="s">
         <v>841</v>
       </c>
-      <c r="M33" s="152"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="153"/>
-      <c r="P33" s="153"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="156"/>
+      <c r="P33" s="156"/>
     </row>
     <row r="34">
-      <c r="A34" s="145" t="s">
+      <c r="A34" s="148" t="s">
         <v>842</v>
       </c>
-      <c r="B34" s="146" t="s">
+      <c r="B34" s="149" t="s">
         <v>843</v>
       </c>
       <c r="C34" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D34" s="147"/>
+      <c r="D34" s="150"/>
       <c r="E34" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="158" t="s">
+      <c r="F34" s="161" t="s">
         <v>840</v>
       </c>
-      <c r="G34" s="159" t="s">
+      <c r="G34" s="162" t="s">
         <v>824</v>
       </c>
-      <c r="H34" s="149"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="151">
+      <c r="H34" s="152"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="154">
         <v>0.0</v>
       </c>
-      <c r="L34" s="152" t="s">
+      <c r="L34" s="155" t="s">
         <v>322</v>
       </c>
-      <c r="M34" s="152"/>
-      <c r="N34" s="152"/>
-      <c r="O34" s="153"/>
-      <c r="P34" s="153"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="155"/>
+      <c r="O34" s="156"/>
+      <c r="P34" s="156"/>
     </row>
     <row r="35">
-      <c r="A35" s="145" t="s">
+      <c r="A35" s="148" t="s">
         <v>844</v>
       </c>
-      <c r="B35" s="146" t="s">
+      <c r="B35" s="149" t="s">
         <v>845</v>
       </c>
       <c r="C35" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D35" s="147"/>
+      <c r="D35" s="150"/>
       <c r="E35" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F35" s="148" t="s">
+      <c r="F35" s="151" t="s">
         <v>846</v>
       </c>
-      <c r="G35" s="160" t="s">
+      <c r="G35" s="163" t="s">
         <v>840</v>
       </c>
-      <c r="H35" s="149"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="151" t="s">
+      <c r="H35" s="152"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="154" t="s">
         <v>830</v>
       </c>
-      <c r="L35" s="152" t="s">
+      <c r="L35" s="155" t="s">
         <v>847</v>
       </c>
-      <c r="M35" s="152"/>
-      <c r="N35" s="152"/>
-      <c r="O35" s="153"/>
-      <c r="P35" s="153"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="156"/>
+      <c r="P35" s="156"/>
     </row>
     <row r="36">
-      <c r="A36" s="145" t="s">
+      <c r="A36" s="148" t="s">
         <v>848</v>
       </c>
-      <c r="B36" s="146" t="s">
+      <c r="B36" s="149" t="s">
         <v>849</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D36" s="147"/>
+      <c r="D36" s="150"/>
       <c r="E36" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F36" s="146" t="s">
+      <c r="F36" s="149" t="s">
         <v>846</v>
       </c>
-      <c r="G36" s="148" t="s">
+      <c r="G36" s="151" t="s">
         <v>850</v>
       </c>
-      <c r="H36" s="149"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="151" t="s">
+      <c r="H36" s="152"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="154" t="s">
         <v>830</v>
       </c>
-      <c r="L36" s="155" t="s">
+      <c r="L36" s="158" t="s">
         <v>851</v>
       </c>
-      <c r="N36" s="155"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
+      <c r="N36" s="158"/>
+      <c r="O36" s="156"/>
+      <c r="P36" s="156"/>
     </row>
     <row r="37">
-      <c r="A37" s="145" t="s">
+      <c r="A37" s="148" t="s">
         <v>852</v>
       </c>
-      <c r="B37" s="146" t="s">
+      <c r="B37" s="149" t="s">
         <v>853</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D37" s="147"/>
+      <c r="D37" s="150"/>
       <c r="E37" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F37" s="146" t="s">
+      <c r="F37" s="149" t="s">
         <v>850</v>
       </c>
-      <c r="G37" s="148" t="s">
+      <c r="G37" s="151" t="s">
         <v>854</v>
       </c>
-      <c r="H37" s="149"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="151" t="s">
+      <c r="H37" s="152"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="154" t="s">
         <v>830</v>
       </c>
-      <c r="L37" s="155" t="s">
+      <c r="L37" s="158" t="s">
         <v>855</v>
       </c>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="153"/>
+      <c r="M37" s="158"/>
+      <c r="N37" s="158"/>
+      <c r="O37" s="156"/>
+      <c r="P37" s="156"/>
     </row>
     <row r="38">
-      <c r="A38" s="145" t="s">
+      <c r="A38" s="148" t="s">
         <v>856</v>
       </c>
-      <c r="B38" s="146" t="s">
+      <c r="B38" s="149" t="s">
         <v>857</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D38" s="147"/>
+      <c r="D38" s="150"/>
       <c r="E38" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F38" s="146" t="s">
+      <c r="F38" s="149" t="s">
         <v>854</v>
       </c>
-      <c r="G38" s="148" t="s">
+      <c r="G38" s="151" t="s">
         <v>858</v>
       </c>
-      <c r="H38" s="149"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="151" t="s">
+      <c r="H38" s="152"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="154" t="s">
         <v>830</v>
       </c>
-      <c r="L38" s="155" t="s">
+      <c r="L38" s="158" t="s">
         <v>859</v>
       </c>
-      <c r="M38" s="155"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
+      <c r="M38" s="158"/>
+      <c r="N38" s="158"/>
+      <c r="O38" s="156"/>
+      <c r="P38" s="156"/>
     </row>
     <row r="39">
       <c r="A39" s="33" t="s">
@@ -13232,16 +13256,16 @@
       <c r="H39" s="12"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="161">
+      <c r="K39" s="164">
         <v>6.0</v>
       </c>
-      <c r="L39" s="131" t="s">
+      <c r="L39" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="M39" s="131"/>
-      <c r="N39" s="131"/>
-      <c r="O39" s="125"/>
-      <c r="P39" s="125">
+      <c r="M39" s="134"/>
+      <c r="N39" s="134"/>
+      <c r="O39" s="128"/>
+      <c r="P39" s="128">
         <v>36.0</v>
       </c>
     </row>
@@ -13268,16 +13292,16 @@
       <c r="H40" s="12"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
-      <c r="K40" s="130" t="s">
+      <c r="K40" s="133" t="s">
         <v>799</v>
       </c>
-      <c r="L40" s="131" t="s">
+      <c r="L40" s="134" t="s">
         <v>800</v>
       </c>
-      <c r="M40" s="131"/>
-      <c r="N40" s="131"/>
-      <c r="O40" s="125"/>
-      <c r="P40" s="125">
+      <c r="M40" s="134"/>
+      <c r="N40" s="134"/>
+      <c r="O40" s="128"/>
+      <c r="P40" s="128">
         <v>37.0</v>
       </c>
     </row>
@@ -13301,16 +13325,16 @@
       <c r="H41" s="12"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
-      <c r="K41" s="161">
+      <c r="K41" s="164">
         <v>6.0</v>
       </c>
-      <c r="L41" s="131" t="s">
+      <c r="L41" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="M41" s="131"/>
-      <c r="N41" s="131"/>
-      <c r="O41" s="125"/>
-      <c r="P41" s="125">
+      <c r="M41" s="134"/>
+      <c r="N41" s="134"/>
+      <c r="O41" s="128"/>
+      <c r="P41" s="128">
         <v>38.0</v>
       </c>
     </row>
@@ -13337,16 +13361,16 @@
       <c r="H42" s="12"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
-      <c r="K42" s="130" t="s">
+      <c r="K42" s="133" t="s">
         <v>799</v>
       </c>
-      <c r="L42" s="131" t="s">
+      <c r="L42" s="134" t="s">
         <v>805</v>
       </c>
-      <c r="M42" s="131"/>
-      <c r="N42" s="131"/>
-      <c r="O42" s="125"/>
-      <c r="P42" s="125">
+      <c r="M42" s="134"/>
+      <c r="N42" s="134"/>
+      <c r="O42" s="128"/>
+      <c r="P42" s="128">
         <v>39.0</v>
       </c>
     </row>
@@ -13371,16 +13395,16 @@
       <c r="H43" s="12"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
-      <c r="K43" s="162" t="s">
+      <c r="K43" s="165" t="s">
         <v>260</v>
       </c>
-      <c r="L43" s="129" t="s">
+      <c r="L43" s="132" t="s">
         <v>871</v>
       </c>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="125"/>
-      <c r="P43" s="125">
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="128"/>
+      <c r="P43" s="128">
         <v>40.0</v>
       </c>
     </row>
@@ -13404,16 +13428,16 @@
       <c r="H44" s="12"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
-      <c r="K44" s="161">
+      <c r="K44" s="164">
         <v>4.0</v>
       </c>
-      <c r="L44" s="131" t="s">
+      <c r="L44" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="M44" s="131"/>
-      <c r="N44" s="131"/>
-      <c r="O44" s="125"/>
-      <c r="P44" s="125">
+      <c r="M44" s="134"/>
+      <c r="N44" s="134"/>
+      <c r="O44" s="128"/>
+      <c r="P44" s="128">
         <v>41.0</v>
       </c>
     </row>
@@ -13440,18 +13464,18 @@
       <c r="H45" s="12"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
-      <c r="K45" s="130" t="s">
+      <c r="K45" s="133" t="s">
         <v>877</v>
       </c>
-      <c r="L45" s="129" t="s">
+      <c r="L45" s="132" t="s">
         <v>878</v>
       </c>
-      <c r="M45" s="129"/>
-      <c r="N45" s="129"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="132"/>
       <c r="O45" s="20" t="s">
         <v>879</v>
       </c>
-      <c r="P45" s="125">
+      <c r="P45" s="128">
         <v>42.0</v>
       </c>
     </row>
@@ -13475,16 +13499,16 @@
       <c r="H46" s="12"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
-      <c r="K46" s="161">
+      <c r="K46" s="164">
         <v>4.0</v>
       </c>
-      <c r="L46" s="131" t="s">
+      <c r="L46" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="M46" s="131"/>
-      <c r="N46" s="131"/>
-      <c r="O46" s="125"/>
-      <c r="P46" s="125">
+      <c r="M46" s="134"/>
+      <c r="N46" s="134"/>
+      <c r="O46" s="128"/>
+      <c r="P46" s="128">
         <v>43.0</v>
       </c>
     </row>
@@ -13511,18 +13535,18 @@
       <c r="H47" s="12"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
-      <c r="K47" s="130" t="s">
+      <c r="K47" s="133" t="s">
         <v>877</v>
       </c>
-      <c r="L47" s="129" t="s">
+      <c r="L47" s="132" t="s">
         <v>884</v>
       </c>
-      <c r="M47" s="129"/>
-      <c r="N47" s="129"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="132"/>
       <c r="O47" s="20" t="s">
         <v>879</v>
       </c>
-      <c r="P47" s="125">
+      <c r="P47" s="128">
         <v>44.0</v>
       </c>
     </row>
@@ -13549,16 +13573,16 @@
       <c r="H48" s="12"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
-      <c r="K48" s="162" t="s">
+      <c r="K48" s="165" t="s">
         <v>888</v>
       </c>
-      <c r="L48" s="129" t="s">
+      <c r="L48" s="132" t="s">
         <v>889</v>
       </c>
-      <c r="M48" s="129"/>
-      <c r="N48" s="129"/>
-      <c r="O48" s="125"/>
-      <c r="P48" s="125">
+      <c r="M48" s="132"/>
+      <c r="N48" s="132"/>
+      <c r="O48" s="128"/>
+      <c r="P48" s="128">
         <v>45.0</v>
       </c>
     </row>
@@ -13566,7 +13590,7 @@
       <c r="A49" s="33" t="s">
         <v>890</v>
       </c>
-      <c r="B49" s="156" t="s">
+      <c r="B49" s="159" t="s">
         <v>891</v>
       </c>
       <c r="C49" s="38" t="s">
@@ -13585,16 +13609,16 @@
       <c r="H49" s="12"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
-      <c r="K49" s="161">
+      <c r="K49" s="164">
         <v>6.0</v>
       </c>
-      <c r="L49" s="131" t="s">
+      <c r="L49" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="M49" s="131"/>
-      <c r="N49" s="131"/>
-      <c r="O49" s="125"/>
-      <c r="P49" s="125">
+      <c r="M49" s="134"/>
+      <c r="N49" s="134"/>
+      <c r="O49" s="128"/>
+      <c r="P49" s="128">
         <v>46.0</v>
       </c>
     </row>
@@ -13621,16 +13645,16 @@
       <c r="H50" s="12"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
-      <c r="K50" s="130" t="s">
+      <c r="K50" s="133" t="s">
         <v>896</v>
       </c>
-      <c r="L50" s="131" t="s">
+      <c r="L50" s="134" t="s">
         <v>897</v>
       </c>
-      <c r="M50" s="131"/>
-      <c r="N50" s="131"/>
-      <c r="O50" s="125"/>
-      <c r="P50" s="125">
+      <c r="M50" s="134"/>
+      <c r="N50" s="134"/>
+      <c r="O50" s="128"/>
+      <c r="P50" s="128">
         <v>47.0</v>
       </c>
     </row>
@@ -13657,16 +13681,16 @@
       <c r="H51" s="12"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
-      <c r="K51" s="161">
+      <c r="K51" s="164">
         <v>6.0</v>
       </c>
-      <c r="L51" s="131" t="s">
+      <c r="L51" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="M51" s="131"/>
-      <c r="N51" s="131"/>
-      <c r="O51" s="125"/>
-      <c r="P51" s="125">
+      <c r="M51" s="134"/>
+      <c r="N51" s="134"/>
+      <c r="O51" s="128"/>
+      <c r="P51" s="128">
         <v>48.0</v>
       </c>
     </row>
@@ -13693,16 +13717,16 @@
       <c r="H52" s="12"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
-      <c r="K52" s="130" t="s">
+      <c r="K52" s="133" t="s">
         <v>896</v>
       </c>
-      <c r="L52" s="131" t="s">
+      <c r="L52" s="134" t="s">
         <v>903</v>
       </c>
-      <c r="M52" s="131"/>
-      <c r="N52" s="131"/>
-      <c r="O52" s="125"/>
-      <c r="P52" s="125">
+      <c r="M52" s="134"/>
+      <c r="N52" s="134"/>
+      <c r="O52" s="128"/>
+      <c r="P52" s="128">
         <v>49.0</v>
       </c>
     </row>
@@ -13729,16 +13753,16 @@
       <c r="H53" s="12"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
-      <c r="K53" s="162" t="s">
+      <c r="K53" s="165" t="s">
         <v>260</v>
       </c>
-      <c r="L53" s="129" t="s">
+      <c r="L53" s="132" t="s">
         <v>907</v>
       </c>
-      <c r="M53" s="129"/>
-      <c r="N53" s="129"/>
-      <c r="O53" s="125"/>
-      <c r="P53" s="125">
+      <c r="M53" s="132"/>
+      <c r="N53" s="132"/>
+      <c r="O53" s="128"/>
+      <c r="P53" s="128">
         <v>50.0</v>
       </c>
     </row>
@@ -13752,7 +13776,7 @@
       <c r="C54" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D54" s="128" t="s">
+      <c r="D54" s="131" t="s">
         <v>910</v>
       </c>
       <c r="E54" s="22"/>
@@ -13767,252 +13791,252 @@
       </c>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
-      <c r="K54" s="130"/>
-      <c r="L54" s="131"/>
-      <c r="M54" s="131"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="134"/>
       <c r="N54" s="17" t="s">
         <v>913</v>
       </c>
-      <c r="O54" s="125"/>
-      <c r="P54" s="125">
+      <c r="O54" s="128"/>
+      <c r="P54" s="128">
         <v>51.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="117" t="s">
+      <c r="A55" s="120" t="s">
         <v>914</v>
       </c>
-      <c r="B55" s="119" t="s">
+      <c r="B55" s="122" t="s">
         <v>915</v>
       </c>
-      <c r="C55" s="163" t="s">
+      <c r="C55" s="166" t="s">
         <v>739</v>
       </c>
-      <c r="D55" s="164"/>
+      <c r="D55" s="167"/>
       <c r="E55" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="F55" s="118" t="s">
+      <c r="F55" s="121" t="s">
         <v>916</v>
       </c>
-      <c r="G55" s="165"/>
-      <c r="H55" s="166"/>
+      <c r="G55" s="168"/>
+      <c r="H55" s="169"/>
       <c r="I55" s="39"/>
       <c r="J55" s="39"/>
-      <c r="K55" s="167">
+      <c r="K55" s="170">
         <v>0.0</v>
       </c>
-      <c r="L55" s="168" t="s">
+      <c r="L55" s="171" t="s">
         <v>310</v>
       </c>
-      <c r="M55" s="168"/>
-      <c r="N55" s="168"/>
-      <c r="O55" s="169"/>
-      <c r="P55" s="125">
+      <c r="M55" s="171"/>
+      <c r="N55" s="171"/>
+      <c r="O55" s="172"/>
+      <c r="P55" s="128">
         <v>52.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="117" t="s">
+      <c r="A56" s="120" t="s">
         <v>917</v>
       </c>
-      <c r="B56" s="119" t="s">
+      <c r="B56" s="122" t="s">
         <v>918</v>
       </c>
-      <c r="C56" s="163" t="s">
+      <c r="C56" s="166" t="s">
         <v>739</v>
       </c>
-      <c r="D56" s="164"/>
+      <c r="D56" s="167"/>
       <c r="E56" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="F56" s="118" t="s">
+      <c r="F56" s="121" t="s">
         <v>919</v>
       </c>
-      <c r="G56" s="165"/>
-      <c r="H56" s="166"/>
+      <c r="G56" s="168"/>
+      <c r="H56" s="169"/>
       <c r="I56" s="39"/>
       <c r="J56" s="39"/>
-      <c r="K56" s="167">
+      <c r="K56" s="170">
         <v>0.0</v>
       </c>
-      <c r="L56" s="168" t="s">
+      <c r="L56" s="171" t="s">
         <v>314</v>
       </c>
-      <c r="M56" s="168"/>
-      <c r="N56" s="168"/>
-      <c r="O56" s="169"/>
-      <c r="P56" s="125">
+      <c r="M56" s="171"/>
+      <c r="N56" s="171"/>
+      <c r="O56" s="172"/>
+      <c r="P56" s="128">
         <v>53.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="117" t="s">
+      <c r="A57" s="120" t="s">
         <v>920</v>
       </c>
-      <c r="B57" s="119" t="s">
+      <c r="B57" s="122" t="s">
         <v>921</v>
       </c>
-      <c r="C57" s="163" t="s">
+      <c r="C57" s="166" t="s">
         <v>739</v>
       </c>
-      <c r="D57" s="164"/>
+      <c r="D57" s="167"/>
       <c r="E57" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="F57" s="118" t="s">
+      <c r="F57" s="121" t="s">
         <v>922</v>
       </c>
-      <c r="G57" s="165"/>
-      <c r="H57" s="166"/>
+      <c r="G57" s="168"/>
+      <c r="H57" s="169"/>
       <c r="I57" s="39"/>
       <c r="J57" s="39"/>
-      <c r="K57" s="167">
+      <c r="K57" s="170">
         <v>0.0</v>
       </c>
-      <c r="L57" s="168" t="s">
+      <c r="L57" s="171" t="s">
         <v>318</v>
       </c>
-      <c r="M57" s="168"/>
-      <c r="N57" s="168"/>
-      <c r="O57" s="169"/>
-      <c r="P57" s="125">
+      <c r="M57" s="171"/>
+      <c r="N57" s="171"/>
+      <c r="O57" s="172"/>
+      <c r="P57" s="128">
         <v>54.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="117" t="s">
+      <c r="A58" s="120" t="s">
         <v>923</v>
       </c>
-      <c r="B58" s="119" t="s">
+      <c r="B58" s="122" t="s">
         <v>924</v>
       </c>
-      <c r="C58" s="163" t="s">
+      <c r="C58" s="166" t="s">
         <v>739</v>
       </c>
-      <c r="D58" s="164"/>
+      <c r="D58" s="167"/>
       <c r="E58" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="F58" s="118" t="s">
+      <c r="F58" s="121" t="s">
         <v>925</v>
       </c>
-      <c r="G58" s="165"/>
-      <c r="H58" s="166"/>
+      <c r="G58" s="168"/>
+      <c r="H58" s="169"/>
       <c r="I58" s="39"/>
       <c r="J58" s="39"/>
-      <c r="K58" s="167">
+      <c r="K58" s="170">
         <v>0.0</v>
       </c>
-      <c r="L58" s="168" t="s">
+      <c r="L58" s="171" t="s">
         <v>322</v>
       </c>
-      <c r="M58" s="168"/>
-      <c r="N58" s="168"/>
-      <c r="O58" s="169"/>
-      <c r="P58" s="125">
+      <c r="M58" s="171"/>
+      <c r="N58" s="171"/>
+      <c r="O58" s="172"/>
+      <c r="P58" s="128">
         <v>55.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="117" t="s">
+      <c r="A59" s="120" t="s">
         <v>926</v>
       </c>
-      <c r="B59" s="119" t="s">
+      <c r="B59" s="122" t="s">
         <v>927</v>
       </c>
-      <c r="C59" s="163" t="s">
+      <c r="C59" s="166" t="s">
         <v>739</v>
       </c>
-      <c r="D59" s="164"/>
+      <c r="D59" s="167"/>
       <c r="E59" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="F59" s="118" t="s">
+      <c r="F59" s="121" t="s">
         <v>928</v>
       </c>
-      <c r="G59" s="165"/>
-      <c r="H59" s="166"/>
+      <c r="G59" s="168"/>
+      <c r="H59" s="169"/>
       <c r="I59" s="39"/>
       <c r="J59" s="39"/>
-      <c r="K59" s="167">
+      <c r="K59" s="170">
         <v>0.0</v>
       </c>
-      <c r="L59" s="168" t="s">
+      <c r="L59" s="171" t="s">
         <v>326</v>
       </c>
-      <c r="M59" s="168"/>
-      <c r="N59" s="168"/>
-      <c r="O59" s="169"/>
-      <c r="P59" s="125">
+      <c r="M59" s="171"/>
+      <c r="N59" s="171"/>
+      <c r="O59" s="172"/>
+      <c r="P59" s="128">
         <v>56.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="117" t="s">
+      <c r="A60" s="120" t="s">
         <v>929</v>
       </c>
-      <c r="B60" s="119" t="s">
+      <c r="B60" s="122" t="s">
         <v>930</v>
       </c>
-      <c r="C60" s="163" t="s">
+      <c r="C60" s="166" t="s">
         <v>739</v>
       </c>
-      <c r="D60" s="164"/>
+      <c r="D60" s="167"/>
       <c r="E60" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="F60" s="118" t="s">
+      <c r="F60" s="121" t="s">
         <v>931</v>
       </c>
-      <c r="G60" s="165"/>
-      <c r="H60" s="166"/>
+      <c r="G60" s="168"/>
+      <c r="H60" s="169"/>
       <c r="I60" s="39"/>
       <c r="J60" s="39"/>
-      <c r="K60" s="167">
+      <c r="K60" s="170">
         <v>0.0</v>
       </c>
-      <c r="L60" s="168" t="s">
+      <c r="L60" s="171" t="s">
         <v>330</v>
       </c>
-      <c r="M60" s="168"/>
-      <c r="N60" s="168"/>
-      <c r="O60" s="169"/>
-      <c r="P60" s="125">
+      <c r="M60" s="171"/>
+      <c r="N60" s="171"/>
+      <c r="O60" s="172"/>
+      <c r="P60" s="128">
         <v>57.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="170" t="s">
+      <c r="A61" s="173" t="s">
         <v>932</v>
       </c>
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="122" t="s">
         <v>933</v>
       </c>
-      <c r="C61" s="163" t="s">
+      <c r="C61" s="166" t="s">
         <v>739</v>
       </c>
-      <c r="D61" s="164"/>
+      <c r="D61" s="167"/>
       <c r="E61" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="118" t="s">
+      <c r="F61" s="121" t="s">
         <v>934</v>
       </c>
-      <c r="G61" s="165"/>
-      <c r="H61" s="166"/>
+      <c r="G61" s="168"/>
+      <c r="H61" s="169"/>
       <c r="I61" s="39"/>
       <c r="J61" s="39"/>
-      <c r="K61" s="167">
+      <c r="K61" s="170">
         <v>0.0</v>
       </c>
-      <c r="L61" s="168" t="s">
+      <c r="L61" s="171" t="s">
         <v>334</v>
       </c>
-      <c r="M61" s="168"/>
-      <c r="N61" s="168"/>
-      <c r="O61" s="169"/>
-      <c r="P61" s="125">
+      <c r="M61" s="171"/>
+      <c r="N61" s="171"/>
+      <c r="O61" s="172"/>
+      <c r="P61" s="128">
         <v>58.0</v>
       </c>
     </row>
@@ -14023,10 +14047,10 @@
       <c r="B62" s="17" t="s">
         <v>936</v>
       </c>
-      <c r="C62" s="132" t="s">
+      <c r="C62" s="135" t="s">
         <v>739</v>
       </c>
-      <c r="D62" s="128"/>
+      <c r="D62" s="131"/>
       <c r="E62" s="43" t="s">
         <v>217</v>
       </c>
@@ -14039,16 +14063,16 @@
       <c r="H62" s="12"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
-      <c r="K62" s="162" t="s">
+      <c r="K62" s="165" t="s">
         <v>260</v>
       </c>
-      <c r="L62" s="171" t="s">
+      <c r="L62" s="174" t="s">
         <v>938</v>
       </c>
-      <c r="M62" s="171"/>
-      <c r="N62" s="171"/>
-      <c r="O62" s="125"/>
-      <c r="P62" s="125">
+      <c r="M62" s="174"/>
+      <c r="N62" s="174"/>
+      <c r="O62" s="128"/>
+      <c r="P62" s="128">
         <v>59.0</v>
       </c>
     </row>
@@ -14059,10 +14083,10 @@
       <c r="B63" s="17" t="s">
         <v>940</v>
       </c>
-      <c r="C63" s="132" t="s">
+      <c r="C63" s="135" t="s">
         <v>739</v>
       </c>
-      <c r="D63" s="128"/>
+      <c r="D63" s="131"/>
       <c r="E63" s="43" t="s">
         <v>217</v>
       </c>
@@ -14075,16 +14099,16 @@
       <c r="H63" s="12"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
-      <c r="K63" s="162" t="s">
+      <c r="K63" s="165" t="s">
         <v>260</v>
       </c>
-      <c r="L63" s="171" t="s">
+      <c r="L63" s="174" t="s">
         <v>941</v>
       </c>
-      <c r="M63" s="171"/>
-      <c r="N63" s="171"/>
-      <c r="O63" s="125"/>
-      <c r="P63" s="125">
+      <c r="M63" s="174"/>
+      <c r="N63" s="174"/>
+      <c r="O63" s="128"/>
+      <c r="P63" s="128">
         <v>60.0</v>
       </c>
     </row>
@@ -14098,7 +14122,7 @@
       <c r="C64" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D64" s="128"/>
+      <c r="D64" s="131"/>
       <c r="E64" s="17" t="s">
         <v>212</v>
       </c>
@@ -14111,16 +14135,16 @@
       <c r="H64" s="12"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
-      <c r="K64" s="162" t="s">
+      <c r="K64" s="165" t="s">
         <v>945</v>
       </c>
-      <c r="L64" s="171" t="s">
+      <c r="L64" s="174" t="s">
         <v>946</v>
       </c>
-      <c r="M64" s="171"/>
-      <c r="N64" s="171"/>
-      <c r="O64" s="125"/>
-      <c r="P64" s="125">
+      <c r="M64" s="174"/>
+      <c r="N64" s="174"/>
+      <c r="O64" s="128"/>
+      <c r="P64" s="128">
         <v>61.0</v>
       </c>
     </row>
@@ -14134,7 +14158,7 @@
       <c r="C65" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D65" s="128"/>
+      <c r="D65" s="131"/>
       <c r="E65" s="17" t="s">
         <v>209</v>
       </c>
@@ -14147,16 +14171,16 @@
       <c r="H65" s="12"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
-      <c r="K65" s="162" t="s">
+      <c r="K65" s="165" t="s">
         <v>950</v>
       </c>
-      <c r="L65" s="171" t="s">
+      <c r="L65" s="174" t="s">
         <v>951</v>
       </c>
-      <c r="M65" s="171"/>
-      <c r="N65" s="171"/>
-      <c r="O65" s="125"/>
-      <c r="P65" s="125">
+      <c r="M65" s="174"/>
+      <c r="N65" s="174"/>
+      <c r="O65" s="128"/>
+      <c r="P65" s="128">
         <v>62.0</v>
       </c>
     </row>
@@ -14170,7 +14194,7 @@
       <c r="C66" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D66" s="128"/>
+      <c r="D66" s="131"/>
       <c r="E66" s="17" t="s">
         <v>209</v>
       </c>
@@ -14183,16 +14207,16 @@
       <c r="H66" s="12"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
-      <c r="K66" s="162" t="s">
+      <c r="K66" s="165" t="s">
         <v>955</v>
       </c>
-      <c r="L66" s="171" t="s">
+      <c r="L66" s="174" t="s">
         <v>951</v>
       </c>
-      <c r="M66" s="171"/>
-      <c r="N66" s="171"/>
-      <c r="O66" s="125"/>
-      <c r="P66" s="125">
+      <c r="M66" s="174"/>
+      <c r="N66" s="174"/>
+      <c r="O66" s="128"/>
+      <c r="P66" s="128">
         <v>63.0</v>
       </c>
     </row>
@@ -14206,7 +14230,7 @@
       <c r="C67" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D67" s="128"/>
+      <c r="D67" s="131"/>
       <c r="E67" s="17" t="s">
         <v>209</v>
       </c>
@@ -14219,16 +14243,16 @@
       <c r="H67" s="12"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
-      <c r="K67" s="162" t="s">
+      <c r="K67" s="165" t="s">
         <v>959</v>
       </c>
-      <c r="L67" s="171" t="s">
+      <c r="L67" s="174" t="s">
         <v>951</v>
       </c>
-      <c r="M67" s="171"/>
-      <c r="N67" s="171"/>
-      <c r="O67" s="125"/>
-      <c r="P67" s="125">
+      <c r="M67" s="174"/>
+      <c r="N67" s="174"/>
+      <c r="O67" s="128"/>
+      <c r="P67" s="128">
         <v>64.0</v>
       </c>
     </row>
@@ -14242,7 +14266,7 @@
       <c r="C68" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D68" s="128"/>
+      <c r="D68" s="131"/>
       <c r="E68" s="17" t="s">
         <v>209</v>
       </c>
@@ -14255,16 +14279,16 @@
       <c r="H68" s="12"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
-      <c r="K68" s="162" t="s">
+      <c r="K68" s="165" t="s">
         <v>963</v>
       </c>
-      <c r="L68" s="171" t="s">
+      <c r="L68" s="174" t="s">
         <v>951</v>
       </c>
-      <c r="M68" s="171"/>
-      <c r="N68" s="171"/>
-      <c r="O68" s="125"/>
-      <c r="P68" s="125">
+      <c r="M68" s="174"/>
+      <c r="N68" s="174"/>
+      <c r="O68" s="128"/>
+      <c r="P68" s="128">
         <v>65.0</v>
       </c>
     </row>
@@ -14278,7 +14302,7 @@
       <c r="C69" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D69" s="128"/>
+      <c r="D69" s="131"/>
       <c r="E69" s="17" t="s">
         <v>209</v>
       </c>
@@ -14291,16 +14315,16 @@
       <c r="H69" s="12"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
-      <c r="K69" s="162" t="s">
+      <c r="K69" s="165" t="s">
         <v>967</v>
       </c>
-      <c r="L69" s="171" t="s">
+      <c r="L69" s="174" t="s">
         <v>951</v>
       </c>
-      <c r="M69" s="171"/>
-      <c r="N69" s="171"/>
-      <c r="O69" s="125"/>
-      <c r="P69" s="125">
+      <c r="M69" s="174"/>
+      <c r="N69" s="174"/>
+      <c r="O69" s="128"/>
+      <c r="P69" s="128">
         <v>66.0</v>
       </c>
     </row>
@@ -14314,7 +14338,7 @@
       <c r="C70" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D70" s="128"/>
+      <c r="D70" s="131"/>
       <c r="E70" s="17" t="s">
         <v>212</v>
       </c>
@@ -14327,16 +14351,16 @@
       <c r="H70" s="12"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
-      <c r="K70" s="162" t="s">
+      <c r="K70" s="165" t="s">
         <v>945</v>
       </c>
-      <c r="L70" s="171" t="s">
+      <c r="L70" s="174" t="s">
         <v>971</v>
       </c>
-      <c r="M70" s="171"/>
-      <c r="N70" s="171"/>
-      <c r="O70" s="125"/>
-      <c r="P70" s="125">
+      <c r="M70" s="174"/>
+      <c r="N70" s="174"/>
+      <c r="O70" s="128"/>
+      <c r="P70" s="128">
         <v>67.0</v>
       </c>
     </row>
@@ -14350,7 +14374,7 @@
       <c r="C71" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D71" s="128"/>
+      <c r="D71" s="131"/>
       <c r="E71" s="17" t="s">
         <v>209</v>
       </c>
@@ -14363,16 +14387,16 @@
       <c r="H71" s="12"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
-      <c r="K71" s="162" t="s">
+      <c r="K71" s="165" t="s">
         <v>950</v>
       </c>
-      <c r="L71" s="171" t="s">
+      <c r="L71" s="174" t="s">
         <v>975</v>
       </c>
-      <c r="M71" s="171"/>
-      <c r="N71" s="171"/>
-      <c r="O71" s="125"/>
-      <c r="P71" s="125">
+      <c r="M71" s="174"/>
+      <c r="N71" s="174"/>
+      <c r="O71" s="128"/>
+      <c r="P71" s="128">
         <v>68.0</v>
       </c>
     </row>
@@ -14386,7 +14410,7 @@
       <c r="C72" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D72" s="128"/>
+      <c r="D72" s="131"/>
       <c r="E72" s="17" t="s">
         <v>209</v>
       </c>
@@ -14399,16 +14423,16 @@
       <c r="H72" s="12"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
-      <c r="K72" s="162" t="s">
+      <c r="K72" s="165" t="s">
         <v>955</v>
       </c>
-      <c r="L72" s="171" t="s">
+      <c r="L72" s="174" t="s">
         <v>975</v>
       </c>
-      <c r="M72" s="171"/>
-      <c r="N72" s="171"/>
-      <c r="O72" s="125"/>
-      <c r="P72" s="125">
+      <c r="M72" s="174"/>
+      <c r="N72" s="174"/>
+      <c r="O72" s="128"/>
+      <c r="P72" s="128">
         <v>69.0</v>
       </c>
     </row>
@@ -14422,7 +14446,7 @@
       <c r="C73" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D73" s="128"/>
+      <c r="D73" s="131"/>
       <c r="E73" s="17" t="s">
         <v>209</v>
       </c>
@@ -14435,16 +14459,16 @@
       <c r="H73" s="12"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
-      <c r="K73" s="162" t="s">
+      <c r="K73" s="165" t="s">
         <v>959</v>
       </c>
-      <c r="L73" s="171" t="s">
+      <c r="L73" s="174" t="s">
         <v>975</v>
       </c>
-      <c r="M73" s="171"/>
-      <c r="N73" s="171"/>
-      <c r="O73" s="125"/>
-      <c r="P73" s="125">
+      <c r="M73" s="174"/>
+      <c r="N73" s="174"/>
+      <c r="O73" s="128"/>
+      <c r="P73" s="128">
         <v>70.0</v>
       </c>
     </row>
@@ -14458,7 +14482,7 @@
       <c r="C74" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D74" s="128"/>
+      <c r="D74" s="131"/>
       <c r="E74" s="17" t="s">
         <v>209</v>
       </c>
@@ -14471,16 +14495,16 @@
       <c r="H74" s="12"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
-      <c r="K74" s="162" t="s">
+      <c r="K74" s="165" t="s">
         <v>963</v>
       </c>
-      <c r="L74" s="171" t="s">
+      <c r="L74" s="174" t="s">
         <v>975</v>
       </c>
-      <c r="M74" s="171"/>
-      <c r="N74" s="171"/>
-      <c r="O74" s="125"/>
-      <c r="P74" s="125">
+      <c r="M74" s="174"/>
+      <c r="N74" s="174"/>
+      <c r="O74" s="128"/>
+      <c r="P74" s="128">
         <v>71.0</v>
       </c>
     </row>
@@ -14494,7 +14518,7 @@
       <c r="C75" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D75" s="128"/>
+      <c r="D75" s="131"/>
       <c r="E75" s="17" t="s">
         <v>209</v>
       </c>
@@ -14507,52 +14531,52 @@
       <c r="H75" s="12"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
-      <c r="K75" s="162" t="s">
+      <c r="K75" s="165" t="s">
         <v>967</v>
       </c>
-      <c r="L75" s="171" t="s">
+      <c r="L75" s="174" t="s">
         <v>975</v>
       </c>
-      <c r="M75" s="171"/>
-      <c r="N75" s="171"/>
-      <c r="O75" s="125"/>
-      <c r="P75" s="125">
+      <c r="M75" s="174"/>
+      <c r="N75" s="174"/>
+      <c r="O75" s="128"/>
+      <c r="P75" s="128">
         <v>72.0</v>
       </c>
     </row>
     <row r="76" ht="45.0" customHeight="1">
-      <c r="A76" s="63" t="s">
+      <c r="A76" s="66" t="s">
         <v>988</v>
       </c>
       <c r="B76" s="37" t="s">
         <v>989</v>
       </c>
-      <c r="C76" s="132" t="s">
+      <c r="C76" s="135" t="s">
         <v>739</v>
       </c>
-      <c r="D76" s="64"/>
+      <c r="D76" s="67"/>
       <c r="E76" s="17" t="s">
         <v>217</v>
       </c>
       <c r="F76" s="37" t="s">
         <v>937</v>
       </c>
-      <c r="G76" s="63" t="s">
+      <c r="G76" s="66" t="s">
         <v>990</v>
       </c>
-      <c r="H76" s="172"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="173" t="s">
+      <c r="H76" s="175"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="176" t="s">
         <v>991</v>
       </c>
-      <c r="L76" s="174" t="s">
+      <c r="L76" s="177" t="s">
         <v>992</v>
       </c>
-      <c r="M76" s="174"/>
-      <c r="N76" s="174"/>
-      <c r="O76" s="175"/>
-      <c r="P76" s="125">
+      <c r="M76" s="177"/>
+      <c r="N76" s="177"/>
+      <c r="O76" s="178"/>
+      <c r="P76" s="128">
         <v>73.0</v>
       </c>
     </row>
@@ -14563,32 +14587,32 @@
       <c r="B77" s="37" t="s">
         <v>994</v>
       </c>
-      <c r="C77" s="132" t="s">
+      <c r="C77" s="135" t="s">
         <v>739</v>
       </c>
-      <c r="D77" s="176"/>
+      <c r="D77" s="179"/>
       <c r="E77" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F77" s="37" t="s">
         <v>990</v>
       </c>
-      <c r="G77" s="63" t="s">
+      <c r="G77" s="66" t="s">
         <v>995</v>
       </c>
-      <c r="H77" s="172"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="173" t="s">
+      <c r="H77" s="175"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="176" t="s">
         <v>996</v>
       </c>
-      <c r="L77" s="174" t="s">
+      <c r="L77" s="177" t="s">
         <v>997</v>
       </c>
-      <c r="M77" s="174"/>
-      <c r="N77" s="174"/>
-      <c r="O77" s="175"/>
-      <c r="P77" s="125">
+      <c r="M77" s="177"/>
+      <c r="N77" s="177"/>
+      <c r="O77" s="178"/>
+      <c r="P77" s="128">
         <v>74.0</v>
       </c>
     </row>
@@ -14599,32 +14623,32 @@
       <c r="B78" s="37" t="s">
         <v>999</v>
       </c>
-      <c r="C78" s="132" t="s">
+      <c r="C78" s="135" t="s">
         <v>739</v>
       </c>
-      <c r="D78" s="176"/>
+      <c r="D78" s="179"/>
       <c r="E78" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F78" s="37" t="s">
         <v>990</v>
       </c>
-      <c r="G78" s="63" t="s">
+      <c r="G78" s="66" t="s">
         <v>1000</v>
       </c>
-      <c r="H78" s="172"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="173" t="s">
+      <c r="H78" s="175"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="176" t="s">
         <v>1001</v>
       </c>
-      <c r="L78" s="177" t="s">
+      <c r="L78" s="180" t="s">
         <v>1002</v>
       </c>
-      <c r="M78" s="177"/>
-      <c r="N78" s="177"/>
-      <c r="O78" s="175"/>
-      <c r="P78" s="125">
+      <c r="M78" s="180"/>
+      <c r="N78" s="180"/>
+      <c r="O78" s="178"/>
+      <c r="P78" s="128">
         <v>75.0</v>
       </c>
     </row>
@@ -14635,32 +14659,32 @@
       <c r="B79" s="37" t="s">
         <v>1004</v>
       </c>
-      <c r="C79" s="132" t="s">
+      <c r="C79" s="135" t="s">
         <v>739</v>
       </c>
-      <c r="D79" s="176"/>
+      <c r="D79" s="179"/>
       <c r="E79" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F79" s="37" t="s">
         <v>990</v>
       </c>
-      <c r="G79" s="63" t="s">
+      <c r="G79" s="66" t="s">
         <v>1005</v>
       </c>
-      <c r="H79" s="172"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="173" t="s">
+      <c r="H79" s="175"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="176" t="s">
         <v>1006</v>
       </c>
-      <c r="L79" s="177" t="s">
+      <c r="L79" s="180" t="s">
         <v>1007</v>
       </c>
-      <c r="M79" s="177"/>
-      <c r="N79" s="177"/>
-      <c r="O79" s="175"/>
-      <c r="P79" s="125">
+      <c r="M79" s="180"/>
+      <c r="N79" s="180"/>
+      <c r="O79" s="178"/>
+      <c r="P79" s="128">
         <v>76.0</v>
       </c>
     </row>
@@ -14671,32 +14695,32 @@
       <c r="B80" s="37" t="s">
         <v>1009</v>
       </c>
-      <c r="C80" s="61" t="s">
+      <c r="C80" s="64" t="s">
         <v>739</v>
       </c>
-      <c r="D80" s="176"/>
+      <c r="D80" s="179"/>
       <c r="E80" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F80" s="37" t="s">
         <v>990</v>
       </c>
-      <c r="G80" s="63" t="s">
+      <c r="G80" s="66" t="s">
         <v>1010</v>
       </c>
-      <c r="H80" s="172"/>
-      <c r="I80" s="60"/>
-      <c r="J80" s="60"/>
-      <c r="K80" s="173" t="s">
+      <c r="H80" s="175"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="176" t="s">
         <v>996</v>
       </c>
-      <c r="L80" s="174" t="s">
+      <c r="L80" s="177" t="s">
         <v>1011</v>
       </c>
-      <c r="M80" s="174"/>
-      <c r="N80" s="174"/>
-      <c r="O80" s="175"/>
-      <c r="P80" s="125">
+      <c r="M80" s="177"/>
+      <c r="N80" s="177"/>
+      <c r="O80" s="178"/>
+      <c r="P80" s="128">
         <v>77.0</v>
       </c>
     </row>
@@ -14707,32 +14731,32 @@
       <c r="B81" s="37" t="s">
         <v>1013</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="64" t="s">
         <v>739</v>
       </c>
-      <c r="D81" s="176"/>
+      <c r="D81" s="179"/>
       <c r="E81" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F81" s="37" t="s">
         <v>990</v>
       </c>
-      <c r="G81" s="63" t="s">
+      <c r="G81" s="66" t="s">
         <v>1014</v>
       </c>
-      <c r="H81" s="172"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="173" t="s">
+      <c r="H81" s="175"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="176" t="s">
         <v>1001</v>
       </c>
-      <c r="L81" s="177" t="s">
+      <c r="L81" s="180" t="s">
         <v>1015</v>
       </c>
-      <c r="M81" s="177"/>
-      <c r="N81" s="177"/>
-      <c r="O81" s="175"/>
-      <c r="P81" s="125">
+      <c r="M81" s="180"/>
+      <c r="N81" s="180"/>
+      <c r="O81" s="178"/>
+      <c r="P81" s="128">
         <v>78.0</v>
       </c>
     </row>
@@ -14743,176 +14767,176 @@
       <c r="B82" s="37" t="s">
         <v>1017</v>
       </c>
-      <c r="C82" s="61" t="s">
+      <c r="C82" s="64" t="s">
         <v>739</v>
       </c>
-      <c r="D82" s="176"/>
+      <c r="D82" s="179"/>
       <c r="E82" s="17" t="s">
         <v>214</v>
       </c>
       <c r="F82" s="37" t="s">
         <v>990</v>
       </c>
-      <c r="G82" s="63" t="s">
+      <c r="G82" s="66" t="s">
         <v>1018</v>
       </c>
-      <c r="H82" s="57"/>
-      <c r="I82" s="60"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="173" t="s">
+      <c r="H82" s="60"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="176" t="s">
         <v>1006</v>
       </c>
-      <c r="L82" s="177" t="s">
+      <c r="L82" s="180" t="s">
         <v>1019</v>
       </c>
-      <c r="M82" s="177"/>
-      <c r="N82" s="177"/>
-      <c r="O82" s="175"/>
-      <c r="P82" s="125">
+      <c r="M82" s="180"/>
+      <c r="N82" s="180"/>
+      <c r="O82" s="178"/>
+      <c r="P82" s="128">
         <v>79.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="117" t="s">
+      <c r="A83" s="120" t="s">
         <v>1020</v>
       </c>
-      <c r="B83" s="119" t="s">
+      <c r="B83" s="122" t="s">
         <v>1021</v>
       </c>
-      <c r="C83" s="163" t="s">
+      <c r="C83" s="166" t="s">
         <v>739</v>
       </c>
-      <c r="D83" s="118"/>
+      <c r="D83" s="121"/>
       <c r="E83" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="F83" s="118" t="s">
+      <c r="F83" s="121" t="s">
         <v>678</v>
       </c>
-      <c r="G83" s="119" t="s">
+      <c r="G83" s="122" t="s">
         <v>1022</v>
       </c>
-      <c r="H83" s="166"/>
+      <c r="H83" s="169"/>
       <c r="I83" s="39"/>
       <c r="J83" s="39"/>
-      <c r="K83" s="178">
+      <c r="K83" s="181">
         <v>0.0</v>
       </c>
-      <c r="L83" s="168" t="s">
+      <c r="L83" s="171" t="s">
         <v>403</v>
       </c>
-      <c r="M83" s="168"/>
-      <c r="N83" s="168"/>
-      <c r="O83" s="169"/>
-      <c r="P83" s="125">
+      <c r="M83" s="171"/>
+      <c r="N83" s="171"/>
+      <c r="O83" s="172"/>
+      <c r="P83" s="128">
         <v>80.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="76" t="s">
+      <c r="A84" s="79" t="s">
         <v>1023</v>
       </c>
-      <c r="B84" s="70" t="s">
+      <c r="B84" s="73" t="s">
         <v>1024</v>
       </c>
       <c r="C84" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D84" s="74"/>
+      <c r="D84" s="77"/>
       <c r="E84" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F84" s="70" t="s">
+      <c r="F84" s="73" t="s">
         <v>679</v>
       </c>
-      <c r="G84" s="78" t="s">
+      <c r="G84" s="81" t="s">
         <v>1025</v>
       </c>
-      <c r="H84" s="74"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="72"/>
-      <c r="K84" s="179" t="s">
+      <c r="H84" s="77"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="182" t="s">
         <v>260</v>
       </c>
-      <c r="L84" s="180" t="s">
+      <c r="L84" s="183" t="s">
         <v>1026</v>
       </c>
-      <c r="M84" s="180"/>
-      <c r="N84" s="180"/>
-      <c r="O84" s="181"/>
-      <c r="P84" s="125">
+      <c r="M84" s="183"/>
+      <c r="N84" s="183"/>
+      <c r="O84" s="184"/>
+      <c r="P84" s="128">
         <v>81.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="76" t="s">
+      <c r="A85" s="79" t="s">
         <v>1027</v>
       </c>
-      <c r="B85" s="70" t="s">
+      <c r="B85" s="73" t="s">
         <v>1028</v>
       </c>
-      <c r="C85" s="182" t="s">
+      <c r="C85" s="185" t="s">
         <v>742</v>
       </c>
-      <c r="D85" s="74"/>
+      <c r="D85" s="77"/>
       <c r="E85" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F85" s="70" t="s">
+      <c r="F85" s="73" t="s">
         <v>1025</v>
       </c>
-      <c r="G85" s="78" t="s">
+      <c r="G85" s="81" t="s">
         <v>1029</v>
       </c>
-      <c r="H85" s="74"/>
-      <c r="I85" s="72"/>
-      <c r="J85" s="72"/>
-      <c r="K85" s="179" t="s">
+      <c r="H85" s="77"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="182" t="s">
         <v>1001</v>
       </c>
-      <c r="L85" s="180" t="s">
+      <c r="L85" s="183" t="s">
         <v>1002</v>
       </c>
-      <c r="M85" s="180"/>
-      <c r="N85" s="180"/>
-      <c r="O85" s="181"/>
-      <c r="P85" s="125">
+      <c r="M85" s="183"/>
+      <c r="N85" s="183"/>
+      <c r="O85" s="184"/>
+      <c r="P85" s="128">
         <v>82.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="76" t="s">
+      <c r="A86" s="79" t="s">
         <v>1030</v>
       </c>
-      <c r="B86" s="70" t="s">
+      <c r="B86" s="73" t="s">
         <v>1031</v>
       </c>
       <c r="C86" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="D86" s="74"/>
+      <c r="D86" s="77"/>
       <c r="E86" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F86" s="70" t="s">
+      <c r="F86" s="73" t="s">
         <v>1025</v>
       </c>
-      <c r="G86" s="78" t="s">
+      <c r="G86" s="81" t="s">
         <v>1032</v>
       </c>
-      <c r="H86" s="74"/>
-      <c r="I86" s="72"/>
-      <c r="J86" s="72"/>
-      <c r="K86" s="179" t="s">
+      <c r="H86" s="77"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="182" t="s">
         <v>1001</v>
       </c>
-      <c r="L86" s="180" t="s">
+      <c r="L86" s="183" t="s">
         <v>1033</v>
       </c>
-      <c r="M86" s="180"/>
-      <c r="N86" s="180"/>
-      <c r="O86" s="181"/>
-      <c r="P86" s="125">
+      <c r="M86" s="183"/>
+      <c r="N86" s="183"/>
+      <c r="O86" s="184"/>
+      <c r="P86" s="128">
         <v>83.0</v>
       </c>
     </row>
@@ -14926,7 +14950,7 @@
       <c r="C87" s="38" t="s">
         <v>739</v>
       </c>
-      <c r="D87" s="128"/>
+      <c r="D87" s="131"/>
       <c r="E87" s="43" t="s">
         <v>214</v>
       </c>
@@ -14939,16 +14963,16 @@
       <c r="H87" s="12"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
-      <c r="K87" s="161">
+      <c r="K87" s="164">
         <v>0.0</v>
       </c>
-      <c r="L87" s="129" t="s">
+      <c r="L87" s="132" t="s">
         <v>395</v>
       </c>
-      <c r="M87" s="129"/>
-      <c r="N87" s="129"/>
-      <c r="O87" s="125"/>
-      <c r="P87" s="125">
+      <c r="M87" s="132"/>
+      <c r="N87" s="132"/>
+      <c r="O87" s="128"/>
+      <c r="P87" s="128">
         <v>84.0</v>
       </c>
     </row>
@@ -14975,16 +14999,16 @@
       <c r="H88" s="18"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
-      <c r="K88" s="162" t="s">
+      <c r="K88" s="165" t="s">
         <v>809</v>
       </c>
-      <c r="L88" s="171" t="s">
+      <c r="L88" s="174" t="s">
         <v>1040</v>
       </c>
-      <c r="M88" s="171"/>
-      <c r="N88" s="171"/>
-      <c r="O88" s="125"/>
-      <c r="P88" s="125">
+      <c r="M88" s="174"/>
+      <c r="N88" s="174"/>
+      <c r="O88" s="128"/>
+      <c r="P88" s="128">
         <v>85.0</v>
       </c>
     </row>
@@ -15011,16 +15035,16 @@
       <c r="H89" s="18"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
-      <c r="K89" s="162" t="s">
+      <c r="K89" s="165" t="s">
         <v>1044</v>
       </c>
-      <c r="L89" s="183" t="s">
+      <c r="L89" s="186" t="s">
         <v>1045</v>
       </c>
-      <c r="M89" s="183"/>
-      <c r="N89" s="183"/>
-      <c r="O89" s="125"/>
-      <c r="P89" s="125">
+      <c r="M89" s="186"/>
+      <c r="N89" s="186"/>
+      <c r="O89" s="128"/>
+      <c r="P89" s="128">
         <v>86.0</v>
       </c>
     </row>
@@ -15047,16 +15071,16 @@
       <c r="H90" s="18"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
-      <c r="K90" s="162" t="s">
+      <c r="K90" s="165" t="s">
         <v>1044</v>
       </c>
-      <c r="L90" s="171" t="s">
+      <c r="L90" s="174" t="s">
         <v>1049</v>
       </c>
-      <c r="M90" s="171"/>
-      <c r="N90" s="171"/>
-      <c r="O90" s="125"/>
-      <c r="P90" s="125">
+      <c r="M90" s="174"/>
+      <c r="N90" s="174"/>
+      <c r="O90" s="128"/>
+      <c r="P90" s="128">
         <v>87.0</v>
       </c>
     </row>
@@ -15083,16 +15107,16 @@
       <c r="H91" s="18"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
-      <c r="K91" s="161">
+      <c r="K91" s="164">
         <v>0.0</v>
       </c>
-      <c r="L91" s="184" t="s">
+      <c r="L91" s="187" t="s">
         <v>310</v>
       </c>
-      <c r="M91" s="184"/>
-      <c r="N91" s="184"/>
-      <c r="O91" s="125"/>
-      <c r="P91" s="125">
+      <c r="M91" s="187"/>
+      <c r="N91" s="187"/>
+      <c r="O91" s="128"/>
+      <c r="P91" s="128">
         <v>88.0</v>
       </c>
     </row>
@@ -15119,16 +15143,16 @@
       <c r="H92" s="18"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
-      <c r="K92" s="161">
+      <c r="K92" s="164">
         <v>0.0</v>
       </c>
-      <c r="L92" s="184" t="s">
+      <c r="L92" s="187" t="s">
         <v>314</v>
       </c>
-      <c r="M92" s="184"/>
-      <c r="N92" s="184"/>
-      <c r="O92" s="125"/>
-      <c r="P92" s="125">
+      <c r="M92" s="187"/>
+      <c r="N92" s="187"/>
+      <c r="O92" s="128"/>
+      <c r="P92" s="128">
         <v>89.0</v>
       </c>
     </row>
@@ -15155,16 +15179,16 @@
       <c r="H93" s="18"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
-      <c r="K93" s="161">
+      <c r="K93" s="164">
         <v>0.0</v>
       </c>
-      <c r="L93" s="184" t="s">
+      <c r="L93" s="187" t="s">
         <v>318</v>
       </c>
-      <c r="M93" s="184"/>
-      <c r="N93" s="184"/>
-      <c r="O93" s="125"/>
-      <c r="P93" s="125">
+      <c r="M93" s="187"/>
+      <c r="N93" s="187"/>
+      <c r="O93" s="128"/>
+      <c r="P93" s="128">
         <v>90.0</v>
       </c>
     </row>
@@ -15191,16 +15215,16 @@
       <c r="H94" s="18"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
-      <c r="K94" s="161">
+      <c r="K94" s="164">
         <v>0.0</v>
       </c>
-      <c r="L94" s="184" t="s">
+      <c r="L94" s="187" t="s">
         <v>322</v>
       </c>
-      <c r="M94" s="184"/>
-      <c r="N94" s="184"/>
-      <c r="O94" s="125"/>
-      <c r="P94" s="125">
+      <c r="M94" s="187"/>
+      <c r="N94" s="187"/>
+      <c r="O94" s="128"/>
+      <c r="P94" s="128">
         <v>91.0</v>
       </c>
     </row>
@@ -15227,16 +15251,16 @@
       <c r="H95" s="18"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
-      <c r="K95" s="161">
+      <c r="K95" s="164">
         <v>0.0</v>
       </c>
-      <c r="L95" s="184" t="s">
+      <c r="L95" s="187" t="s">
         <v>326</v>
       </c>
-      <c r="M95" s="184"/>
-      <c r="N95" s="184"/>
-      <c r="O95" s="125"/>
-      <c r="P95" s="125">
+      <c r="M95" s="187"/>
+      <c r="N95" s="187"/>
+      <c r="O95" s="128"/>
+      <c r="P95" s="128">
         <v>92.0</v>
       </c>
     </row>
@@ -15263,16 +15287,16 @@
       <c r="H96" s="18"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
-      <c r="K96" s="161">
+      <c r="K96" s="164">
         <v>0.0</v>
       </c>
-      <c r="L96" s="184" t="s">
+      <c r="L96" s="187" t="s">
         <v>330</v>
       </c>
-      <c r="M96" s="184"/>
-      <c r="N96" s="184"/>
-      <c r="O96" s="125"/>
-      <c r="P96" s="125">
+      <c r="M96" s="187"/>
+      <c r="N96" s="187"/>
+      <c r="O96" s="128"/>
+      <c r="P96" s="128">
         <v>93.0</v>
       </c>
     </row>
@@ -15299,16 +15323,16 @@
       <c r="H97" s="18"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
-      <c r="K97" s="161">
+      <c r="K97" s="164">
         <v>0.0</v>
       </c>
-      <c r="L97" s="184" t="s">
+      <c r="L97" s="187" t="s">
         <v>334</v>
       </c>
-      <c r="M97" s="184"/>
-      <c r="N97" s="184"/>
-      <c r="O97" s="125"/>
-      <c r="P97" s="125">
+      <c r="M97" s="187"/>
+      <c r="N97" s="187"/>
+      <c r="O97" s="128"/>
+      <c r="P97" s="128">
         <v>94.0</v>
       </c>
     </row>
@@ -15335,16 +15359,16 @@
       <c r="H98" s="18"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
-      <c r="K98" s="161">
+      <c r="K98" s="164">
         <v>0.0</v>
       </c>
-      <c r="L98" s="184" t="s">
+      <c r="L98" s="187" t="s">
         <v>338</v>
       </c>
-      <c r="M98" s="184"/>
-      <c r="N98" s="184"/>
-      <c r="O98" s="125"/>
-      <c r="P98" s="125">
+      <c r="M98" s="187"/>
+      <c r="N98" s="187"/>
+      <c r="O98" s="128"/>
+      <c r="P98" s="128">
         <v>95.0</v>
       </c>
     </row>
@@ -15371,7 +15395,7 @@
       <c r="H99" s="18"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
-      <c r="K99" s="185" t="s">
+      <c r="K99" s="188" t="s">
         <v>1077</v>
       </c>
       <c r="L99" s="19" t="s">
@@ -15379,8 +15403,8 @@
       </c>
       <c r="M99" s="19"/>
       <c r="N99" s="19"/>
-      <c r="O99" s="186"/>
-      <c r="P99" s="125">
+      <c r="O99" s="189"/>
+      <c r="P99" s="128">
         <v>96.0</v>
       </c>
     </row>
@@ -15407,7 +15431,7 @@
       <c r="H100" s="18"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
-      <c r="K100" s="185" t="s">
+      <c r="K100" s="188" t="s">
         <v>1081</v>
       </c>
       <c r="L100" s="19" t="s">
@@ -15415,8 +15439,8 @@
       </c>
       <c r="M100" s="19"/>
       <c r="N100" s="19"/>
-      <c r="O100" s="125"/>
-      <c r="P100" s="125">
+      <c r="O100" s="128"/>
+      <c r="P100" s="128">
         <v>97.0</v>
       </c>
     </row>
@@ -15443,7 +15467,7 @@
       <c r="H101" s="18"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
-      <c r="K101" s="185" t="s">
+      <c r="K101" s="188" t="s">
         <v>1085</v>
       </c>
       <c r="L101" s="19" t="s">
@@ -15451,8 +15475,8 @@
       </c>
       <c r="M101" s="19"/>
       <c r="N101" s="19"/>
-      <c r="O101" s="125"/>
-      <c r="P101" s="125">
+      <c r="O101" s="128"/>
+      <c r="P101" s="128">
         <v>98.0</v>
       </c>
     </row>
@@ -15479,7 +15503,7 @@
       <c r="H102" s="18"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
-      <c r="K102" s="185" t="s">
+      <c r="K102" s="188" t="s">
         <v>1089</v>
       </c>
       <c r="L102" s="19" t="s">
@@ -15487,8 +15511,8 @@
       </c>
       <c r="M102" s="19"/>
       <c r="N102" s="19"/>
-      <c r="O102" s="125"/>
-      <c r="P102" s="125">
+      <c r="O102" s="128"/>
+      <c r="P102" s="128">
         <v>99.0</v>
       </c>
     </row>
@@ -15515,7 +15539,7 @@
       <c r="H103" s="18"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
-      <c r="K103" s="185" t="s">
+      <c r="K103" s="188" t="s">
         <v>1093</v>
       </c>
       <c r="L103" s="19" t="s">
@@ -15523,8 +15547,8 @@
       </c>
       <c r="M103" s="19"/>
       <c r="N103" s="19"/>
-      <c r="O103" s="125"/>
-      <c r="P103" s="125">
+      <c r="O103" s="128"/>
+      <c r="P103" s="128">
         <v>100.0</v>
       </c>
     </row>
@@ -15551,7 +15575,7 @@
       <c r="H104" s="18"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
-      <c r="K104" s="185" t="s">
+      <c r="K104" s="188" t="s">
         <v>991</v>
       </c>
       <c r="L104" s="19" t="s">
@@ -15559,8 +15583,8 @@
       </c>
       <c r="M104" s="19"/>
       <c r="N104" s="19"/>
-      <c r="O104" s="125"/>
-      <c r="P104" s="125">
+      <c r="O104" s="128"/>
+      <c r="P104" s="128">
         <v>101.0</v>
       </c>
     </row>
@@ -15587,7 +15611,7 @@
       <c r="H105" s="18"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
-      <c r="K105" s="185" t="s">
+      <c r="K105" s="188" t="s">
         <v>830</v>
       </c>
       <c r="L105" s="19" t="s">
@@ -15595,8 +15619,8 @@
       </c>
       <c r="M105" s="19"/>
       <c r="N105" s="19"/>
-      <c r="O105" s="125"/>
-      <c r="P105" s="125">
+      <c r="O105" s="128"/>
+      <c r="P105" s="128">
         <v>102.0</v>
       </c>
     </row>
@@ -15623,7 +15647,7 @@
       <c r="H106" s="18"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
-      <c r="K106" s="185" t="s">
+      <c r="K106" s="188" t="s">
         <v>260</v>
       </c>
       <c r="L106" s="19" t="s">
@@ -15631,8 +15655,8 @@
       </c>
       <c r="M106" s="19"/>
       <c r="N106" s="19"/>
-      <c r="O106" s="125"/>
-      <c r="P106" s="125">
+      <c r="O106" s="128"/>
+      <c r="P106" s="128">
         <v>103.0</v>
       </c>
     </row>
@@ -15659,7 +15683,7 @@
       <c r="H107" s="18"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
-      <c r="K107" s="161" t="s">
+      <c r="K107" s="164" t="s">
         <v>830</v>
       </c>
       <c r="L107" s="20" t="s">
@@ -15667,8 +15691,8 @@
       </c>
       <c r="M107" s="20"/>
       <c r="N107" s="20"/>
-      <c r="O107" s="125"/>
-      <c r="P107" s="125">
+      <c r="O107" s="128"/>
+      <c r="P107" s="128">
         <v>104.0</v>
       </c>
     </row>
@@ -15695,7 +15719,7 @@
       <c r="H108" s="18"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
-      <c r="K108" s="161" t="s">
+      <c r="K108" s="164" t="s">
         <v>991</v>
       </c>
       <c r="L108" s="20" t="s">
@@ -15703,8 +15727,8 @@
       </c>
       <c r="M108" s="20"/>
       <c r="N108" s="20"/>
-      <c r="O108" s="125"/>
-      <c r="P108" s="125">
+      <c r="O108" s="128"/>
+      <c r="P108" s="128">
         <v>105.0</v>
       </c>
     </row>
@@ -15731,16 +15755,16 @@
       <c r="H109" s="18"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
-      <c r="K109" s="161" t="s">
+      <c r="K109" s="164" t="s">
         <v>830</v>
       </c>
-      <c r="L109" s="187" t="s">
+      <c r="L109" s="190" t="s">
         <v>1114</v>
       </c>
-      <c r="M109" s="187"/>
-      <c r="N109" s="187"/>
-      <c r="O109" s="125"/>
-      <c r="P109" s="125">
+      <c r="M109" s="190"/>
+      <c r="N109" s="190"/>
+      <c r="O109" s="128"/>
+      <c r="P109" s="128">
         <v>106.0</v>
       </c>
     </row>
@@ -15767,16 +15791,16 @@
       <c r="H110" s="18"/>
       <c r="I110" s="14"/>
       <c r="J110" s="14"/>
-      <c r="K110" s="162" t="s">
+      <c r="K110" s="165" t="s">
         <v>1118</v>
       </c>
-      <c r="L110" s="184" t="s">
+      <c r="L110" s="187" t="s">
         <v>1119</v>
       </c>
-      <c r="M110" s="184"/>
-      <c r="N110" s="184"/>
-      <c r="O110" s="125"/>
-      <c r="P110" s="125">
+      <c r="M110" s="187"/>
+      <c r="N110" s="187"/>
+      <c r="O110" s="128"/>
+      <c r="P110" s="128">
         <v>107.0</v>
       </c>
     </row>
@@ -15803,16 +15827,16 @@
       <c r="H111" s="18"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14"/>
-      <c r="K111" s="162" t="s">
+      <c r="K111" s="165" t="s">
         <v>1118</v>
       </c>
-      <c r="L111" s="184" t="s">
+      <c r="L111" s="187" t="s">
         <v>1123</v>
       </c>
-      <c r="M111" s="184"/>
-      <c r="N111" s="184"/>
-      <c r="O111" s="125"/>
-      <c r="P111" s="125">
+      <c r="M111" s="187"/>
+      <c r="N111" s="187"/>
+      <c r="O111" s="128"/>
+      <c r="P111" s="128">
         <v>108.0</v>
       </c>
     </row>
@@ -15823,7 +15847,7 @@
       <c r="B112" s="17" t="s">
         <v>1125</v>
       </c>
-      <c r="C112" s="132" t="s">
+      <c r="C112" s="135" t="s">
         <v>739</v>
       </c>
       <c r="D112" s="18"/>
@@ -15839,18 +15863,18 @@
       <c r="H112" s="18"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
-      <c r="K112" s="188" t="s">
+      <c r="K112" s="191" t="s">
         <v>260</v>
       </c>
-      <c r="L112" s="189" t="s">
+      <c r="L112" s="192" t="s">
         <v>1127</v>
       </c>
-      <c r="M112" s="189"/>
-      <c r="N112" s="189"/>
+      <c r="M112" s="192"/>
+      <c r="N112" s="192"/>
       <c r="O112" s="20" t="s">
         <v>1128</v>
       </c>
-      <c r="P112" s="125">
+      <c r="P112" s="128">
         <v>109.0</v>
       </c>
     </row>
@@ -15861,7 +15885,7 @@
       <c r="B113" s="17" t="s">
         <v>1130</v>
       </c>
-      <c r="C113" s="132" t="s">
+      <c r="C113" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D113" s="18"/>
@@ -15877,16 +15901,16 @@
       <c r="H113" s="18"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
-      <c r="K113" s="161" t="s">
+      <c r="K113" s="164" t="s">
         <v>945</v>
       </c>
-      <c r="L113" s="184" t="s">
+      <c r="L113" s="187" t="s">
         <v>1132</v>
       </c>
-      <c r="M113" s="184"/>
-      <c r="N113" s="184"/>
-      <c r="O113" s="125"/>
-      <c r="P113" s="125">
+      <c r="M113" s="187"/>
+      <c r="N113" s="187"/>
+      <c r="O113" s="128"/>
+      <c r="P113" s="128">
         <v>110.0</v>
       </c>
     </row>
@@ -15897,7 +15921,7 @@
       <c r="B114" s="17" t="s">
         <v>1134</v>
       </c>
-      <c r="C114" s="132" t="s">
+      <c r="C114" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D114" s="18"/>
@@ -15913,16 +15937,16 @@
       <c r="H114" s="18"/>
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
-      <c r="K114" s="162" t="s">
+      <c r="K114" s="165" t="s">
         <v>1136</v>
       </c>
-      <c r="L114" s="171" t="s">
+      <c r="L114" s="174" t="s">
         <v>1137</v>
       </c>
-      <c r="M114" s="171"/>
-      <c r="N114" s="171"/>
-      <c r="O114" s="125"/>
-      <c r="P114" s="125">
+      <c r="M114" s="174"/>
+      <c r="N114" s="174"/>
+      <c r="O114" s="128"/>
+      <c r="P114" s="128">
         <v>111.0</v>
       </c>
     </row>
@@ -15933,7 +15957,7 @@
       <c r="B115" s="17" t="s">
         <v>1139</v>
       </c>
-      <c r="C115" s="132" t="s">
+      <c r="C115" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D115" s="18"/>
@@ -15949,16 +15973,16 @@
       <c r="H115" s="18"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
-      <c r="K115" s="162" t="s">
+      <c r="K115" s="165" t="s">
         <v>963</v>
       </c>
-      <c r="L115" s="171" t="s">
+      <c r="L115" s="174" t="s">
         <v>1137</v>
       </c>
-      <c r="M115" s="171"/>
-      <c r="N115" s="171"/>
-      <c r="O115" s="125"/>
-      <c r="P115" s="125">
+      <c r="M115" s="174"/>
+      <c r="N115" s="174"/>
+      <c r="O115" s="128"/>
+      <c r="P115" s="128">
         <v>112.0</v>
       </c>
     </row>
@@ -15969,7 +15993,7 @@
       <c r="B116" s="17" t="s">
         <v>1142</v>
       </c>
-      <c r="C116" s="132" t="s">
+      <c r="C116" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D116" s="18"/>
@@ -15985,16 +16009,16 @@
       <c r="H116" s="18"/>
       <c r="I116" s="14"/>
       <c r="J116" s="14"/>
-      <c r="K116" s="162" t="s">
+      <c r="K116" s="165" t="s">
         <v>959</v>
       </c>
-      <c r="L116" s="171" t="s">
+      <c r="L116" s="174" t="s">
         <v>1137</v>
       </c>
-      <c r="M116" s="171"/>
-      <c r="N116" s="171"/>
-      <c r="O116" s="125"/>
-      <c r="P116" s="125">
+      <c r="M116" s="174"/>
+      <c r="N116" s="174"/>
+      <c r="O116" s="128"/>
+      <c r="P116" s="128">
         <v>113.0</v>
       </c>
     </row>
@@ -16005,7 +16029,7 @@
       <c r="B117" s="17" t="s">
         <v>1145</v>
       </c>
-      <c r="C117" s="132" t="s">
+      <c r="C117" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D117" s="18"/>
@@ -16021,16 +16045,16 @@
       <c r="H117" s="18"/>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
-      <c r="K117" s="162" t="s">
+      <c r="K117" s="165" t="s">
         <v>955</v>
       </c>
-      <c r="L117" s="171" t="s">
+      <c r="L117" s="174" t="s">
         <v>1137</v>
       </c>
-      <c r="M117" s="171"/>
-      <c r="N117" s="171"/>
-      <c r="O117" s="125"/>
-      <c r="P117" s="125">
+      <c r="M117" s="174"/>
+      <c r="N117" s="174"/>
+      <c r="O117" s="128"/>
+      <c r="P117" s="128">
         <v>114.0</v>
       </c>
     </row>
@@ -16041,7 +16065,7 @@
       <c r="B118" s="17" t="s">
         <v>1148</v>
       </c>
-      <c r="C118" s="132" t="s">
+      <c r="C118" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D118" s="18"/>
@@ -16057,16 +16081,16 @@
       <c r="H118" s="18"/>
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
-      <c r="K118" s="162" t="s">
+      <c r="K118" s="165" t="s">
         <v>955</v>
       </c>
-      <c r="L118" s="171" t="s">
+      <c r="L118" s="174" t="s">
         <v>1137</v>
       </c>
-      <c r="M118" s="171"/>
-      <c r="N118" s="171"/>
-      <c r="O118" s="125"/>
-      <c r="P118" s="125">
+      <c r="M118" s="174"/>
+      <c r="N118" s="174"/>
+      <c r="O118" s="128"/>
+      <c r="P118" s="128">
         <v>115.0</v>
       </c>
     </row>
@@ -16077,7 +16101,7 @@
       <c r="B119" s="17" t="s">
         <v>1151</v>
       </c>
-      <c r="C119" s="132" t="s">
+      <c r="C119" s="135" t="s">
         <v>739</v>
       </c>
       <c r="D119" s="18"/>
@@ -16093,18 +16117,18 @@
       <c r="H119" s="18"/>
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
-      <c r="K119" s="188" t="s">
+      <c r="K119" s="191" t="s">
         <v>260</v>
       </c>
-      <c r="L119" s="189" t="s">
+      <c r="L119" s="192" t="s">
         <v>1152</v>
       </c>
-      <c r="M119" s="189"/>
-      <c r="N119" s="189"/>
+      <c r="M119" s="192"/>
+      <c r="N119" s="192"/>
       <c r="O119" s="20" t="s">
         <v>1128</v>
       </c>
-      <c r="P119" s="125">
+      <c r="P119" s="128">
         <v>116.0</v>
       </c>
     </row>
@@ -16115,7 +16139,7 @@
       <c r="B120" s="17" t="s">
         <v>1154</v>
       </c>
-      <c r="C120" s="132" t="s">
+      <c r="C120" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D120" s="18"/>
@@ -16131,16 +16155,16 @@
       <c r="H120" s="18"/>
       <c r="I120" s="14"/>
       <c r="J120" s="14"/>
-      <c r="K120" s="161" t="s">
+      <c r="K120" s="164" t="s">
         <v>945</v>
       </c>
-      <c r="L120" s="184" t="s">
+      <c r="L120" s="187" t="s">
         <v>1156</v>
       </c>
-      <c r="M120" s="184"/>
-      <c r="N120" s="184"/>
-      <c r="O120" s="125"/>
-      <c r="P120" s="125">
+      <c r="M120" s="187"/>
+      <c r="N120" s="187"/>
+      <c r="O120" s="128"/>
+      <c r="P120" s="128">
         <v>117.0</v>
       </c>
     </row>
@@ -16151,7 +16175,7 @@
       <c r="B121" s="17" t="s">
         <v>1158</v>
       </c>
-      <c r="C121" s="132" t="s">
+      <c r="C121" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D121" s="18"/>
@@ -16167,16 +16191,16 @@
       <c r="H121" s="18"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
-      <c r="K121" s="162" t="s">
+      <c r="K121" s="165" t="s">
         <v>967</v>
       </c>
-      <c r="L121" s="171" t="s">
+      <c r="L121" s="174" t="s">
         <v>1160</v>
       </c>
-      <c r="M121" s="171"/>
-      <c r="N121" s="171"/>
-      <c r="O121" s="125"/>
-      <c r="P121" s="125">
+      <c r="M121" s="174"/>
+      <c r="N121" s="174"/>
+      <c r="O121" s="128"/>
+      <c r="P121" s="128">
         <v>118.0</v>
       </c>
     </row>
@@ -16187,7 +16211,7 @@
       <c r="B122" s="17" t="s">
         <v>1162</v>
       </c>
-      <c r="C122" s="132" t="s">
+      <c r="C122" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D122" s="18"/>
@@ -16203,16 +16227,16 @@
       <c r="H122" s="18"/>
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
-      <c r="K122" s="162" t="s">
+      <c r="K122" s="165" t="s">
         <v>963</v>
       </c>
-      <c r="L122" s="171" t="s">
+      <c r="L122" s="174" t="s">
         <v>1160</v>
       </c>
-      <c r="M122" s="171"/>
-      <c r="N122" s="171"/>
-      <c r="O122" s="125"/>
-      <c r="P122" s="125">
+      <c r="M122" s="174"/>
+      <c r="N122" s="174"/>
+      <c r="O122" s="128"/>
+      <c r="P122" s="128">
         <v>119.0</v>
       </c>
     </row>
@@ -16223,7 +16247,7 @@
       <c r="B123" s="17" t="s">
         <v>1165</v>
       </c>
-      <c r="C123" s="132" t="s">
+      <c r="C123" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D123" s="18"/>
@@ -16239,16 +16263,16 @@
       <c r="H123" s="18"/>
       <c r="I123" s="14"/>
       <c r="J123" s="14"/>
-      <c r="K123" s="162" t="s">
+      <c r="K123" s="165" t="s">
         <v>959</v>
       </c>
-      <c r="L123" s="171" t="s">
+      <c r="L123" s="174" t="s">
         <v>1160</v>
       </c>
-      <c r="M123" s="171"/>
-      <c r="N123" s="171"/>
-      <c r="O123" s="125"/>
-      <c r="P123" s="125">
+      <c r="M123" s="174"/>
+      <c r="N123" s="174"/>
+      <c r="O123" s="128"/>
+      <c r="P123" s="128">
         <v>120.0</v>
       </c>
     </row>
@@ -16259,7 +16283,7 @@
       <c r="B124" s="17" t="s">
         <v>1168</v>
       </c>
-      <c r="C124" s="132" t="s">
+      <c r="C124" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D124" s="18"/>
@@ -16275,16 +16299,16 @@
       <c r="H124" s="18"/>
       <c r="I124" s="14"/>
       <c r="J124" s="14"/>
-      <c r="K124" s="162" t="s">
+      <c r="K124" s="165" t="s">
         <v>955</v>
       </c>
-      <c r="L124" s="171" t="s">
+      <c r="L124" s="174" t="s">
         <v>1160</v>
       </c>
-      <c r="M124" s="171"/>
-      <c r="N124" s="171"/>
-      <c r="O124" s="125"/>
-      <c r="P124" s="125">
+      <c r="M124" s="174"/>
+      <c r="N124" s="174"/>
+      <c r="O124" s="128"/>
+      <c r="P124" s="128">
         <v>121.0</v>
       </c>
     </row>
@@ -16295,7 +16319,7 @@
       <c r="B125" s="17" t="s">
         <v>1171</v>
       </c>
-      <c r="C125" s="132" t="s">
+      <c r="C125" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D125" s="18"/>
@@ -16311,16 +16335,16 @@
       <c r="H125" s="18"/>
       <c r="I125" s="14"/>
       <c r="J125" s="14"/>
-      <c r="K125" s="162" t="s">
+      <c r="K125" s="165" t="s">
         <v>950</v>
       </c>
-      <c r="L125" s="171" t="s">
+      <c r="L125" s="174" t="s">
         <v>1160</v>
       </c>
-      <c r="M125" s="171"/>
-      <c r="N125" s="171"/>
-      <c r="O125" s="125"/>
-      <c r="P125" s="125">
+      <c r="M125" s="174"/>
+      <c r="N125" s="174"/>
+      <c r="O125" s="128"/>
+      <c r="P125" s="128">
         <v>122.0</v>
       </c>
     </row>
@@ -16331,7 +16355,7 @@
       <c r="B126" s="17" t="s">
         <v>1174</v>
       </c>
-      <c r="C126" s="132" t="s">
+      <c r="C126" s="135" t="s">
         <v>739</v>
       </c>
       <c r="D126" s="18"/>
@@ -16347,7 +16371,7 @@
       <c r="H126" s="18"/>
       <c r="I126" s="14"/>
       <c r="J126" s="14"/>
-      <c r="K126" s="161" t="s">
+      <c r="K126" s="164" t="s">
         <v>260</v>
       </c>
       <c r="L126" s="20" t="s">
@@ -16355,44 +16379,44 @@
       </c>
       <c r="M126" s="20"/>
       <c r="N126" s="20"/>
-      <c r="O126" s="190"/>
-      <c r="P126" s="125">
+      <c r="O126" s="193"/>
+      <c r="P126" s="128">
         <v>123.0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="191" t="s">
+      <c r="A127" s="194" t="s">
         <v>1176</v>
       </c>
-      <c r="B127" s="192" t="s">
+      <c r="B127" s="195" t="s">
         <v>1177</v>
       </c>
-      <c r="C127" s="193" t="s">
+      <c r="C127" s="196" t="s">
         <v>739</v>
       </c>
-      <c r="D127" s="194"/>
-      <c r="E127" s="192" t="s">
+      <c r="D127" s="197"/>
+      <c r="E127" s="195" t="s">
         <v>214</v>
       </c>
-      <c r="F127" s="194" t="s">
+      <c r="F127" s="197" t="s">
         <v>1175</v>
       </c>
-      <c r="G127" s="195" t="s">
+      <c r="G127" s="198" t="s">
         <v>1178</v>
       </c>
-      <c r="H127" s="194"/>
-      <c r="I127" s="195"/>
-      <c r="J127" s="195"/>
-      <c r="K127" s="196" t="s">
+      <c r="H127" s="197"/>
+      <c r="I127" s="198"/>
+      <c r="J127" s="198"/>
+      <c r="K127" s="199" t="s">
         <v>996</v>
       </c>
-      <c r="L127" s="197" t="s">
+      <c r="L127" s="200" t="s">
         <v>1119</v>
       </c>
-      <c r="M127" s="197"/>
-      <c r="N127" s="197"/>
-      <c r="O127" s="198"/>
-      <c r="P127" s="198">
+      <c r="M127" s="200"/>
+      <c r="N127" s="200"/>
+      <c r="O127" s="201"/>
+      <c r="P127" s="201">
         <v>124.0</v>
       </c>
     </row>
@@ -16403,7 +16427,7 @@
       <c r="B128" s="17" t="s">
         <v>1180</v>
       </c>
-      <c r="C128" s="132" t="s">
+      <c r="C128" s="135" t="s">
         <v>739</v>
       </c>
       <c r="D128" s="18"/>
@@ -16419,16 +16443,16 @@
       <c r="H128" s="18"/>
       <c r="I128" s="14"/>
       <c r="J128" s="14"/>
-      <c r="K128" s="162" t="s">
+      <c r="K128" s="165" t="s">
         <v>1001</v>
       </c>
-      <c r="L128" s="171" t="s">
+      <c r="L128" s="174" t="s">
         <v>1002</v>
       </c>
-      <c r="M128" s="171"/>
-      <c r="N128" s="171"/>
-      <c r="O128" s="125"/>
-      <c r="P128" s="125">
+      <c r="M128" s="174"/>
+      <c r="N128" s="174"/>
+      <c r="O128" s="128"/>
+      <c r="P128" s="128">
         <v>125.0</v>
       </c>
     </row>
@@ -16439,7 +16463,7 @@
       <c r="B129" s="17" t="s">
         <v>1183</v>
       </c>
-      <c r="C129" s="132" t="s">
+      <c r="C129" s="135" t="s">
         <v>739</v>
       </c>
       <c r="D129" s="18"/>
@@ -16455,52 +16479,52 @@
       <c r="H129" s="18"/>
       <c r="I129" s="14"/>
       <c r="J129" s="14"/>
-      <c r="K129" s="162" t="s">
+      <c r="K129" s="165" t="s">
         <v>1006</v>
       </c>
-      <c r="L129" s="171" t="s">
+      <c r="L129" s="174" t="s">
         <v>1007</v>
       </c>
-      <c r="M129" s="171"/>
-      <c r="N129" s="171"/>
-      <c r="O129" s="125"/>
-      <c r="P129" s="125">
+      <c r="M129" s="174"/>
+      <c r="N129" s="174"/>
+      <c r="O129" s="128"/>
+      <c r="P129" s="128">
         <v>126.0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="191" t="s">
+      <c r="A130" s="194" t="s">
         <v>1185</v>
       </c>
-      <c r="B130" s="192" t="s">
+      <c r="B130" s="195" t="s">
         <v>1186</v>
       </c>
-      <c r="C130" s="193" t="s">
+      <c r="C130" s="196" t="s">
         <v>739</v>
       </c>
-      <c r="D130" s="194"/>
-      <c r="E130" s="192" t="s">
+      <c r="D130" s="197"/>
+      <c r="E130" s="195" t="s">
         <v>214</v>
       </c>
-      <c r="F130" s="194" t="s">
+      <c r="F130" s="197" t="s">
         <v>1175</v>
       </c>
-      <c r="G130" s="195" t="s">
+      <c r="G130" s="198" t="s">
         <v>1187</v>
       </c>
-      <c r="H130" s="194"/>
-      <c r="I130" s="195"/>
-      <c r="J130" s="195"/>
-      <c r="K130" s="196" t="s">
+      <c r="H130" s="197"/>
+      <c r="I130" s="198"/>
+      <c r="J130" s="198"/>
+      <c r="K130" s="199" t="s">
         <v>996</v>
       </c>
-      <c r="L130" s="197" t="s">
+      <c r="L130" s="200" t="s">
         <v>1123</v>
       </c>
-      <c r="M130" s="197"/>
-      <c r="N130" s="197"/>
-      <c r="O130" s="198"/>
-      <c r="P130" s="198">
+      <c r="M130" s="200"/>
+      <c r="N130" s="200"/>
+      <c r="O130" s="201"/>
+      <c r="P130" s="201">
         <v>127.0</v>
       </c>
     </row>
@@ -16511,7 +16535,7 @@
       <c r="B131" s="17" t="s">
         <v>1189</v>
       </c>
-      <c r="C131" s="132" t="s">
+      <c r="C131" s="135" t="s">
         <v>739</v>
       </c>
       <c r="D131" s="18"/>
@@ -16527,16 +16551,16 @@
       <c r="H131" s="18"/>
       <c r="I131" s="14"/>
       <c r="J131" s="14"/>
-      <c r="K131" s="162" t="s">
+      <c r="K131" s="165" t="s">
         <v>1001</v>
       </c>
-      <c r="L131" s="171" t="s">
+      <c r="L131" s="174" t="s">
         <v>1191</v>
       </c>
-      <c r="M131" s="171"/>
-      <c r="N131" s="171"/>
-      <c r="O131" s="125"/>
-      <c r="P131" s="125">
+      <c r="M131" s="174"/>
+      <c r="N131" s="174"/>
+      <c r="O131" s="128"/>
+      <c r="P131" s="128">
         <v>128.0</v>
       </c>
     </row>
@@ -16547,7 +16571,7 @@
       <c r="B132" s="17" t="s">
         <v>1193</v>
       </c>
-      <c r="C132" s="132" t="s">
+      <c r="C132" s="135" t="s">
         <v>739</v>
       </c>
       <c r="D132" s="18"/>
@@ -16563,16 +16587,16 @@
       <c r="H132" s="18"/>
       <c r="I132" s="14"/>
       <c r="J132" s="14"/>
-      <c r="K132" s="162" t="s">
+      <c r="K132" s="165" t="s">
         <v>1006</v>
       </c>
-      <c r="L132" s="171" t="s">
+      <c r="L132" s="174" t="s">
         <v>1195</v>
       </c>
-      <c r="M132" s="171"/>
-      <c r="N132" s="171"/>
-      <c r="O132" s="125"/>
-      <c r="P132" s="125">
+      <c r="M132" s="174"/>
+      <c r="N132" s="174"/>
+      <c r="O132" s="128"/>
+      <c r="P132" s="128">
         <v>129.0</v>
       </c>
     </row>
@@ -16583,7 +16607,7 @@
       <c r="B133" s="17" t="s">
         <v>1197</v>
       </c>
-      <c r="C133" s="132" t="s">
+      <c r="C133" s="135" t="s">
         <v>739</v>
       </c>
       <c r="D133" s="18"/>
@@ -16599,18 +16623,18 @@
       <c r="H133" s="18"/>
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
-      <c r="K133" s="185" t="s">
+      <c r="K133" s="188" t="s">
         <v>260</v>
       </c>
-      <c r="L133" s="199" t="s">
+      <c r="L133" s="202" t="s">
         <v>1199</v>
       </c>
-      <c r="M133" s="199"/>
-      <c r="N133" s="199"/>
-      <c r="O133" s="190" t="s">
+      <c r="M133" s="202"/>
+      <c r="N133" s="202"/>
+      <c r="O133" s="193" t="s">
         <v>1128</v>
       </c>
-      <c r="P133" s="125">
+      <c r="P133" s="128">
         <v>130.0</v>
       </c>
     </row>
@@ -16621,7 +16645,7 @@
       <c r="B134" s="17" t="s">
         <v>1201</v>
       </c>
-      <c r="C134" s="132" t="s">
+      <c r="C134" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D134" s="18"/>
@@ -16637,16 +16661,16 @@
       <c r="H134" s="18"/>
       <c r="I134" s="14"/>
       <c r="J134" s="14"/>
-      <c r="K134" s="188" t="s">
+      <c r="K134" s="191" t="s">
         <v>945</v>
       </c>
-      <c r="L134" s="184" t="s">
+      <c r="L134" s="187" t="s">
         <v>1132</v>
       </c>
-      <c r="M134" s="184"/>
-      <c r="N134" s="184"/>
-      <c r="O134" s="200"/>
-      <c r="P134" s="125">
+      <c r="M134" s="187"/>
+      <c r="N134" s="187"/>
+      <c r="O134" s="203"/>
+      <c r="P134" s="128">
         <v>131.0</v>
       </c>
     </row>
@@ -16657,7 +16681,7 @@
       <c r="B135" s="17" t="s">
         <v>1204</v>
       </c>
-      <c r="C135" s="132" t="s">
+      <c r="C135" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D135" s="18"/>
@@ -16673,16 +16697,16 @@
       <c r="H135" s="18"/>
       <c r="I135" s="14"/>
       <c r="J135" s="14"/>
-      <c r="K135" s="201" t="s">
+      <c r="K135" s="204" t="s">
         <v>967</v>
       </c>
-      <c r="L135" s="171" t="s">
+      <c r="L135" s="174" t="s">
         <v>1206</v>
       </c>
-      <c r="M135" s="171"/>
-      <c r="N135" s="171"/>
-      <c r="O135" s="200"/>
-      <c r="P135" s="125">
+      <c r="M135" s="174"/>
+      <c r="N135" s="174"/>
+      <c r="O135" s="203"/>
+      <c r="P135" s="128">
         <v>132.0</v>
       </c>
     </row>
@@ -16693,7 +16717,7 @@
       <c r="B136" s="17" t="s">
         <v>1208</v>
       </c>
-      <c r="C136" s="132" t="s">
+      <c r="C136" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D136" s="18"/>
@@ -16709,16 +16733,16 @@
       <c r="H136" s="18"/>
       <c r="I136" s="14"/>
       <c r="J136" s="14"/>
-      <c r="K136" s="201" t="s">
+      <c r="K136" s="204" t="s">
         <v>963</v>
       </c>
-      <c r="L136" s="171" t="s">
+      <c r="L136" s="174" t="s">
         <v>1206</v>
       </c>
-      <c r="M136" s="171"/>
-      <c r="N136" s="171"/>
-      <c r="O136" s="200"/>
-      <c r="P136" s="125">
+      <c r="M136" s="174"/>
+      <c r="N136" s="174"/>
+      <c r="O136" s="203"/>
+      <c r="P136" s="128">
         <v>133.0</v>
       </c>
     </row>
@@ -16729,7 +16753,7 @@
       <c r="B137" s="17" t="s">
         <v>1211</v>
       </c>
-      <c r="C137" s="132" t="s">
+      <c r="C137" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D137" s="18"/>
@@ -16745,16 +16769,16 @@
       <c r="H137" s="18"/>
       <c r="I137" s="14"/>
       <c r="J137" s="14"/>
-      <c r="K137" s="201" t="s">
+      <c r="K137" s="204" t="s">
         <v>959</v>
       </c>
-      <c r="L137" s="171" t="s">
+      <c r="L137" s="174" t="s">
         <v>1206</v>
       </c>
-      <c r="M137" s="171"/>
-      <c r="N137" s="171"/>
-      <c r="O137" s="200"/>
-      <c r="P137" s="125">
+      <c r="M137" s="174"/>
+      <c r="N137" s="174"/>
+      <c r="O137" s="203"/>
+      <c r="P137" s="128">
         <v>134.0</v>
       </c>
     </row>
@@ -16765,7 +16789,7 @@
       <c r="B138" s="17" t="s">
         <v>1214</v>
       </c>
-      <c r="C138" s="132" t="s">
+      <c r="C138" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D138" s="18"/>
@@ -16781,16 +16805,16 @@
       <c r="H138" s="18"/>
       <c r="I138" s="14"/>
       <c r="J138" s="14"/>
-      <c r="K138" s="201" t="s">
+      <c r="K138" s="204" t="s">
         <v>955</v>
       </c>
-      <c r="L138" s="171" t="s">
+      <c r="L138" s="174" t="s">
         <v>1206</v>
       </c>
-      <c r="M138" s="171"/>
-      <c r="N138" s="171"/>
-      <c r="O138" s="200"/>
-      <c r="P138" s="125">
+      <c r="M138" s="174"/>
+      <c r="N138" s="174"/>
+      <c r="O138" s="203"/>
+      <c r="P138" s="128">
         <v>135.0</v>
       </c>
     </row>
@@ -16801,7 +16825,7 @@
       <c r="B139" s="17" t="s">
         <v>1217</v>
       </c>
-      <c r="C139" s="132" t="s">
+      <c r="C139" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D139" s="18"/>
@@ -16817,16 +16841,16 @@
       <c r="H139" s="18"/>
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
-      <c r="K139" s="201" t="s">
+      <c r="K139" s="204" t="s">
         <v>950</v>
       </c>
-      <c r="L139" s="171" t="s">
+      <c r="L139" s="174" t="s">
         <v>1206</v>
       </c>
-      <c r="M139" s="171"/>
-      <c r="N139" s="171"/>
-      <c r="O139" s="200"/>
-      <c r="P139" s="125">
+      <c r="M139" s="174"/>
+      <c r="N139" s="174"/>
+      <c r="O139" s="203"/>
+      <c r="P139" s="128">
         <v>136.0</v>
       </c>
     </row>
@@ -16837,7 +16861,7 @@
       <c r="B140" s="17" t="s">
         <v>1220</v>
       </c>
-      <c r="C140" s="132" t="s">
+      <c r="C140" s="135" t="s">
         <v>739</v>
       </c>
       <c r="D140" s="18"/>
@@ -16853,18 +16877,18 @@
       <c r="H140" s="18"/>
       <c r="I140" s="14"/>
       <c r="J140" s="14"/>
-      <c r="K140" s="161" t="s">
+      <c r="K140" s="164" t="s">
         <v>260</v>
       </c>
-      <c r="L140" s="184" t="s">
+      <c r="L140" s="187" t="s">
         <v>1221</v>
       </c>
-      <c r="M140" s="184"/>
-      <c r="N140" s="184"/>
+      <c r="M140" s="187"/>
+      <c r="N140" s="187"/>
       <c r="O140" s="20" t="s">
         <v>1128</v>
       </c>
-      <c r="P140" s="125">
+      <c r="P140" s="128">
         <v>137.0</v>
       </c>
     </row>
@@ -16875,7 +16899,7 @@
       <c r="B141" s="17" t="s">
         <v>1223</v>
       </c>
-      <c r="C141" s="132" t="s">
+      <c r="C141" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D141" s="18"/>
@@ -16891,16 +16915,16 @@
       <c r="H141" s="18"/>
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
-      <c r="K141" s="162" t="s">
+      <c r="K141" s="165" t="s">
         <v>945</v>
       </c>
-      <c r="L141" s="184" t="s">
+      <c r="L141" s="187" t="s">
         <v>1156</v>
       </c>
-      <c r="M141" s="184"/>
-      <c r="N141" s="184"/>
-      <c r="O141" s="202"/>
-      <c r="P141" s="125">
+      <c r="M141" s="187"/>
+      <c r="N141" s="187"/>
+      <c r="O141" s="205"/>
+      <c r="P141" s="128">
         <v>138.0</v>
       </c>
     </row>
@@ -16911,7 +16935,7 @@
       <c r="B142" s="17" t="s">
         <v>1226</v>
       </c>
-      <c r="C142" s="132" t="s">
+      <c r="C142" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D142" s="18"/>
@@ -16927,16 +16951,16 @@
       <c r="H142" s="18"/>
       <c r="I142" s="14"/>
       <c r="J142" s="14"/>
-      <c r="K142" s="201" t="s">
+      <c r="K142" s="204" t="s">
         <v>967</v>
       </c>
-      <c r="L142" s="171" t="s">
+      <c r="L142" s="174" t="s">
         <v>1160</v>
       </c>
-      <c r="M142" s="171"/>
-      <c r="N142" s="184"/>
-      <c r="O142" s="125"/>
-      <c r="P142" s="125">
+      <c r="M142" s="174"/>
+      <c r="N142" s="187"/>
+      <c r="O142" s="128"/>
+      <c r="P142" s="128">
         <v>139.0</v>
       </c>
     </row>
@@ -16947,7 +16971,7 @@
       <c r="B143" s="17" t="s">
         <v>1229</v>
       </c>
-      <c r="C143" s="132" t="s">
+      <c r="C143" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D143" s="18"/>
@@ -16963,16 +16987,16 @@
       <c r="H143" s="18"/>
       <c r="I143" s="14"/>
       <c r="J143" s="14"/>
-      <c r="K143" s="201" t="s">
+      <c r="K143" s="204" t="s">
         <v>963</v>
       </c>
-      <c r="L143" s="171" t="s">
+      <c r="L143" s="174" t="s">
         <v>1160</v>
       </c>
-      <c r="M143" s="171"/>
-      <c r="N143" s="184"/>
-      <c r="O143" s="125"/>
-      <c r="P143" s="125">
+      <c r="M143" s="174"/>
+      <c r="N143" s="187"/>
+      <c r="O143" s="128"/>
+      <c r="P143" s="128">
         <v>140.0</v>
       </c>
     </row>
@@ -16983,7 +17007,7 @@
       <c r="B144" s="17" t="s">
         <v>1232</v>
       </c>
-      <c r="C144" s="132" t="s">
+      <c r="C144" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D144" s="18"/>
@@ -16999,16 +17023,16 @@
       <c r="H144" s="18"/>
       <c r="I144" s="14"/>
       <c r="J144" s="14"/>
-      <c r="K144" s="201" t="s">
+      <c r="K144" s="204" t="s">
         <v>959</v>
       </c>
-      <c r="L144" s="171" t="s">
+      <c r="L144" s="174" t="s">
         <v>1160</v>
       </c>
-      <c r="M144" s="171"/>
-      <c r="N144" s="184"/>
-      <c r="O144" s="125"/>
-      <c r="P144" s="125">
+      <c r="M144" s="174"/>
+      <c r="N144" s="187"/>
+      <c r="O144" s="128"/>
+      <c r="P144" s="128">
         <v>141.0</v>
       </c>
     </row>
@@ -17019,7 +17043,7 @@
       <c r="B145" s="17" t="s">
         <v>1235</v>
       </c>
-      <c r="C145" s="132" t="s">
+      <c r="C145" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D145" s="18"/>
@@ -17035,16 +17059,16 @@
       <c r="H145" s="18"/>
       <c r="I145" s="14"/>
       <c r="J145" s="14"/>
-      <c r="K145" s="201" t="s">
+      <c r="K145" s="204" t="s">
         <v>955</v>
       </c>
-      <c r="L145" s="171" t="s">
+      <c r="L145" s="174" t="s">
         <v>1160</v>
       </c>
-      <c r="M145" s="171"/>
-      <c r="N145" s="184"/>
-      <c r="O145" s="125"/>
-      <c r="P145" s="125">
+      <c r="M145" s="174"/>
+      <c r="N145" s="187"/>
+      <c r="O145" s="128"/>
+      <c r="P145" s="128">
         <v>142.0</v>
       </c>
     </row>
@@ -17055,7 +17079,7 @@
       <c r="B146" s="17" t="s">
         <v>1238</v>
       </c>
-      <c r="C146" s="132" t="s">
+      <c r="C146" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D146" s="18"/>
@@ -17071,16 +17095,16 @@
       <c r="H146" s="18"/>
       <c r="I146" s="14"/>
       <c r="J146" s="14"/>
-      <c r="K146" s="201" t="s">
+      <c r="K146" s="204" t="s">
         <v>950</v>
       </c>
-      <c r="L146" s="171" t="s">
+      <c r="L146" s="174" t="s">
         <v>1160</v>
       </c>
-      <c r="M146" s="171"/>
-      <c r="N146" s="184"/>
-      <c r="O146" s="200"/>
-      <c r="P146" s="125">
+      <c r="M146" s="174"/>
+      <c r="N146" s="187"/>
+      <c r="O146" s="203"/>
+      <c r="P146" s="128">
         <v>143.0</v>
       </c>
     </row>
@@ -17091,7 +17115,7 @@
       <c r="B147" s="17" t="s">
         <v>1241</v>
       </c>
-      <c r="C147" s="132" t="s">
+      <c r="C147" s="135" t="s">
         <v>739</v>
       </c>
       <c r="D147" s="18"/>
@@ -17107,16 +17131,16 @@
       <c r="H147" s="18"/>
       <c r="I147" s="14"/>
       <c r="J147" s="14"/>
-      <c r="K147" s="162" t="s">
+      <c r="K147" s="165" t="s">
         <v>888</v>
       </c>
-      <c r="L147" s="184" t="s">
+      <c r="L147" s="187" t="s">
         <v>889</v>
       </c>
-      <c r="M147" s="184"/>
-      <c r="N147" s="184"/>
-      <c r="O147" s="125"/>
-      <c r="P147" s="125">
+      <c r="M147" s="187"/>
+      <c r="N147" s="187"/>
+      <c r="O147" s="128"/>
+      <c r="P147" s="128">
         <v>144.0</v>
       </c>
     </row>
@@ -17127,7 +17151,7 @@
       <c r="B148" s="17" t="s">
         <v>1244</v>
       </c>
-      <c r="C148" s="132" t="s">
+      <c r="C148" s="135" t="s">
         <v>739</v>
       </c>
       <c r="D148" s="18"/>
@@ -17143,16 +17167,16 @@
       <c r="H148" s="18"/>
       <c r="I148" s="14"/>
       <c r="J148" s="14"/>
-      <c r="K148" s="162">
+      <c r="K148" s="165">
         <v>0.0</v>
       </c>
-      <c r="L148" s="171" t="s">
+      <c r="L148" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="M148" s="171"/>
-      <c r="N148" s="171"/>
-      <c r="O148" s="125"/>
-      <c r="P148" s="125">
+      <c r="M148" s="174"/>
+      <c r="N148" s="174"/>
+      <c r="O148" s="128"/>
+      <c r="P148" s="128">
         <v>145.0</v>
       </c>
     </row>
@@ -17163,7 +17187,7 @@
       <c r="B149" s="17" t="s">
         <v>1247</v>
       </c>
-      <c r="C149" s="132" t="s">
+      <c r="C149" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D149" s="18"/>
@@ -17179,16 +17203,16 @@
       <c r="H149" s="18"/>
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
-      <c r="K149" s="162" t="s">
+      <c r="K149" s="165" t="s">
         <v>260</v>
       </c>
-      <c r="L149" s="171" t="s">
+      <c r="L149" s="174" t="s">
         <v>1026</v>
       </c>
-      <c r="M149" s="171"/>
-      <c r="N149" s="171"/>
-      <c r="O149" s="125"/>
-      <c r="P149" s="125">
+      <c r="M149" s="174"/>
+      <c r="N149" s="174"/>
+      <c r="O149" s="128"/>
+      <c r="P149" s="128">
         <v>146.0</v>
       </c>
     </row>
@@ -17199,7 +17223,7 @@
       <c r="B150" s="17" t="s">
         <v>1250</v>
       </c>
-      <c r="C150" s="132" t="s">
+      <c r="C150" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D150" s="18"/>
@@ -17215,16 +17239,16 @@
       <c r="H150" s="18"/>
       <c r="I150" s="14"/>
       <c r="J150" s="14"/>
-      <c r="K150" s="162" t="s">
+      <c r="K150" s="165" t="s">
         <v>1001</v>
       </c>
-      <c r="L150" s="171" t="s">
+      <c r="L150" s="174" t="s">
         <v>1252</v>
       </c>
-      <c r="M150" s="171"/>
-      <c r="N150" s="171"/>
-      <c r="O150" s="125"/>
-      <c r="P150" s="125">
+      <c r="M150" s="174"/>
+      <c r="N150" s="174"/>
+      <c r="O150" s="128"/>
+      <c r="P150" s="128">
         <v>147.0</v>
       </c>
     </row>
@@ -17235,7 +17259,7 @@
       <c r="B151" s="17" t="s">
         <v>1254</v>
       </c>
-      <c r="C151" s="132" t="s">
+      <c r="C151" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D151" s="18"/>
@@ -17251,16 +17275,16 @@
       <c r="H151" s="18"/>
       <c r="I151" s="14"/>
       <c r="J151" s="14"/>
-      <c r="K151" s="162" t="s">
+      <c r="K151" s="165" t="s">
         <v>1006</v>
       </c>
-      <c r="L151" s="171" t="s">
+      <c r="L151" s="174" t="s">
         <v>1256</v>
       </c>
-      <c r="M151" s="171"/>
-      <c r="N151" s="171"/>
-      <c r="O151" s="125"/>
-      <c r="P151" s="125">
+      <c r="M151" s="174"/>
+      <c r="N151" s="174"/>
+      <c r="O151" s="128"/>
+      <c r="P151" s="128">
         <v>148.0</v>
       </c>
     </row>
@@ -17271,7 +17295,7 @@
       <c r="B152" s="17" t="s">
         <v>1258</v>
       </c>
-      <c r="C152" s="132" t="s">
+      <c r="C152" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D152" s="18"/>
@@ -17287,16 +17311,16 @@
       <c r="H152" s="18"/>
       <c r="I152" s="14"/>
       <c r="J152" s="14"/>
-      <c r="K152" s="162" t="s">
+      <c r="K152" s="165" t="s">
         <v>1001</v>
       </c>
-      <c r="L152" s="171" t="s">
+      <c r="L152" s="174" t="s">
         <v>1033</v>
       </c>
-      <c r="M152" s="171"/>
-      <c r="N152" s="171"/>
-      <c r="O152" s="125"/>
-      <c r="P152" s="125">
+      <c r="M152" s="174"/>
+      <c r="N152" s="174"/>
+      <c r="O152" s="128"/>
+      <c r="P152" s="128">
         <v>149.0</v>
       </c>
     </row>
@@ -17307,7 +17331,7 @@
       <c r="B153" s="17" t="s">
         <v>1261</v>
       </c>
-      <c r="C153" s="132" t="s">
+      <c r="C153" s="135" t="s">
         <v>742</v>
       </c>
       <c r="D153" s="18"/>
@@ -17323,16 +17347,16 @@
       <c r="H153" s="18"/>
       <c r="I153" s="14"/>
       <c r="J153" s="14"/>
-      <c r="K153" s="162" t="s">
+      <c r="K153" s="165" t="s">
         <v>1006</v>
       </c>
-      <c r="L153" s="171" t="s">
+      <c r="L153" s="174" t="s">
         <v>1019</v>
       </c>
-      <c r="M153" s="171"/>
-      <c r="N153" s="171"/>
-      <c r="O153" s="125"/>
-      <c r="P153" s="125">
+      <c r="M153" s="174"/>
+      <c r="N153" s="174"/>
+      <c r="O153" s="128"/>
+      <c r="P153" s="128">
         <v>150.0</v>
       </c>
     </row>
@@ -17343,7 +17367,7 @@
       <c r="B154" s="18" t="s">
         <v>1264</v>
       </c>
-      <c r="C154" s="132"/>
+      <c r="C154" s="135"/>
       <c r="D154" s="17" t="s">
         <v>1265</v>
       </c>
@@ -17357,14 +17381,14 @@
       <c r="H154" s="18"/>
       <c r="I154" s="14"/>
       <c r="J154" s="14"/>
-      <c r="K154" s="162"/>
-      <c r="L154" s="171"/>
-      <c r="M154" s="171"/>
+      <c r="K154" s="165"/>
+      <c r="L154" s="174"/>
+      <c r="M154" s="174"/>
       <c r="N154" s="17" t="s">
         <v>1268</v>
       </c>
-      <c r="O154" s="125"/>
-      <c r="P154" s="125"/>
+      <c r="O154" s="128"/>
+      <c r="P154" s="128"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -17382,19 +17406,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="115" t="s">
         <v>1269</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -17488,11 +17512,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.71"/>
-    <col customWidth="1" min="2" max="2" width="18.43"/>
-    <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="1" max="1" width="19.0"/>
+    <col customWidth="1" min="2" max="2" width="16.13"/>
+    <col customWidth="1" min="3" max="3" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17654,24 +17678,24 @@
       <c r="A20" s="4" t="s">
         <v>1310</v>
       </c>
-      <c r="B20" s="203" t="s">
+      <c r="B20" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="203"/>
-      <c r="K20" s="203"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="206"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
         <v>1311</v>
       </c>
-      <c r="B21" s="203" t="s">
+      <c r="B21" s="206" t="s">
         <v>1312</v>
       </c>
     </row>
@@ -17694,26 +17718,26 @@
       <c r="A27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="203" t="s">
+      <c r="A28" s="206" t="s">
         <v>1313</v>
       </c>
-      <c r="B28" s="204" t="s">
+      <c r="B28" s="207" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="203" t="s">
+      <c r="A29" s="206" t="s">
         <v>1315</v>
       </c>
-      <c r="B29" s="204" t="s">
+      <c r="B29" s="207" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="203" t="s">
+      <c r="A30" s="206" t="s">
         <v>1317</v>
       </c>
-      <c r="B30" s="204" t="s">
+      <c r="B30" s="207" t="s">
         <v>1318</v>
       </c>
     </row>
@@ -17721,26 +17745,26 @@
       <c r="A31" s="4" t="s">
         <v>1319</v>
       </c>
-      <c r="B31" s="203"/>
+      <c r="B31" s="206"/>
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="4" t="s">
         <v>1320</v>
       </c>
-      <c r="B32" s="203"/>
+      <c r="B32" s="206"/>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
-      <c r="B33" s="203"/>
-      <c r="C33" s="203"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="203"/>
-      <c r="G33" s="203"/>
-      <c r="H33" s="203"/>
-      <c r="I33" s="203"/>
-      <c r="J33" s="203"/>
-      <c r="K33" s="203"/>
+      <c r="B33" s="206"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="206"/>
+      <c r="K33" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17768,10 +17792,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.43"/>
-    <col customWidth="1" min="2" max="2" width="20.0"/>
+    <col customWidth="1" min="1" max="1" width="28.38"/>
+    <col customWidth="1" min="2" max="2" width="17.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17786,7 +17810,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="208" t="s">
         <v>1322</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -17797,7 +17821,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="208" t="s">
         <v>1325</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -17808,7 +17832,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="208" t="s">
         <v>1327</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -17819,7 +17843,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="208" t="s">
         <v>1329</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -17853,18 +17877,19 @@
       <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="29.14"/>
-    <col customWidth="1" min="5" max="5" width="30.86"/>
-    <col customWidth="1" min="6" max="6" width="28.0"/>
-    <col customWidth="1" min="7" max="7" width="20.29"/>
-    <col customWidth="1" min="8" max="8" width="19.29"/>
-    <col customWidth="1" min="9" max="11" width="22.14"/>
+    <col customWidth="1" min="4" max="4" width="25.5"/>
+    <col customWidth="1" min="5" max="5" width="27.0"/>
+    <col customWidth="1" min="6" max="6" width="24.5"/>
+    <col customWidth="1" min="7" max="7" width="17.75"/>
+    <col customWidth="1" min="8" max="8" width="16.88"/>
+    <col customWidth="1" min="9" max="10" width="19.38"/>
+    <col customWidth="1" min="11" max="11" width="27.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -17873,10 +17898,10 @@
       <c r="C1" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="D1" s="206" t="s">
+      <c r="D1" s="209" t="s">
         <v>719</v>
       </c>
-      <c r="E1" s="206" t="s">
+      <c r="E1" s="209" t="s">
         <v>1332</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -17885,7 +17910,7 @@
       <c r="G1" s="4" t="s">
         <v>1334</v>
       </c>
-      <c r="H1" s="203" t="s">
+      <c r="H1" s="206" t="s">
         <v>607</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -17909,15 +17934,15 @@
       <c r="D2" s="4" t="s">
         <v>1338</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="206" t="s">
         <v>1339</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>1340</v>
       </c>
-      <c r="H2" s="202"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
+      <c r="H2" s="205"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -17927,11 +17952,11 @@
         <v>1342</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="207" t="s">
+      <c r="D3" s="210" t="s">
         <v>1343</v>
       </c>
-      <c r="E3" s="202"/>
-      <c r="H3" s="202"/>
+      <c r="E3" s="205"/>
+      <c r="H3" s="205"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
@@ -17940,13 +17965,13 @@
       <c r="B4" s="4" t="s">
         <v>1344</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="129" t="s">
         <v>1345</v>
       </c>
-      <c r="D4" s="202"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="H4" s="203" t="s">
+      <c r="D4" s="205"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="H4" s="206" t="s">
         <v>1346</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -17964,12 +17989,12 @@
       <c r="B5" s="4" t="s">
         <v>1349</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="129" t="s">
         <v>1350</v>
       </c>
-      <c r="E5" s="203"/>
-      <c r="F5" s="208"/>
-      <c r="H5" s="203" t="s">
+      <c r="E5" s="206"/>
+      <c r="F5" s="211"/>
+      <c r="H5" s="206" t="s">
         <v>1351</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -17987,14 +18012,14 @@
       <c r="B6" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="129" t="s">
         <v>1355</v>
       </c>
-      <c r="D6" s="202"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203" t="s">
+      <c r="D6" s="205"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206" t="s">
         <v>1356</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -18015,9 +18040,9 @@
       <c r="C7" s="4" t="s">
         <v>1359</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="208"/>
-      <c r="H7" s="203" t="s">
+      <c r="E7" s="206"/>
+      <c r="F7" s="211"/>
+      <c r="H7" s="206" t="s">
         <v>1360</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -18035,15 +18060,15 @@
       <c r="B8" s="4" t="s">
         <v>1362</v>
       </c>
-      <c r="C8" s="126"/>
+      <c r="C8" s="129"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="208"/>
-      <c r="H8" s="202"/>
+      <c r="F8" s="211"/>
+      <c r="H8" s="205"/>
       <c r="I8" s="4" t="s">
         <v>1363</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
@@ -18052,15 +18077,15 @@
       <c r="B9" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="C9" s="126"/>
+      <c r="C9" s="129"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="208"/>
-      <c r="H9" s="202"/>
+      <c r="F9" s="211"/>
+      <c r="H9" s="205"/>
       <c r="I9" s="4" t="s">
         <v>1365</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -18069,15 +18094,15 @@
       <c r="B10" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="C10" s="126"/>
+      <c r="C10" s="129"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="208"/>
-      <c r="H10" s="202"/>
+      <c r="F10" s="211"/>
+      <c r="H10" s="205"/>
       <c r="I10" s="4" t="s">
         <v>1367</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
@@ -18086,16 +18111,16 @@
       <c r="B11" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="C11" s="126"/>
+      <c r="C11" s="129"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="202"/>
+      <c r="H11" s="205"/>
       <c r="I11" s="4" t="s">
         <v>1369</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
@@ -18104,16 +18129,16 @@
       <c r="B12" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="C12" s="126"/>
+      <c r="C12" s="129"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="202"/>
+      <c r="H12" s="205"/>
       <c r="I12" s="4" t="s">
         <v>1371</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
@@ -18122,16 +18147,16 @@
       <c r="B13" s="4" t="s">
         <v>1372</v>
       </c>
-      <c r="C13" s="126"/>
+      <c r="C13" s="129"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="202"/>
+      <c r="H13" s="205"/>
       <c r="I13" s="4" t="s">
         <v>1373</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
@@ -18140,15 +18165,15 @@
       <c r="B14" s="4" t="s">
         <v>1374</v>
       </c>
-      <c r="C14" s="126"/>
+      <c r="C14" s="129"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="208"/>
-      <c r="H14" s="202"/>
+      <c r="F14" s="211"/>
+      <c r="H14" s="205"/>
       <c r="I14" s="4" t="s">
         <v>1375</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
@@ -18157,12 +18182,12 @@
       <c r="B15" s="4" t="s">
         <v>1376</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="129" t="s">
         <v>1377</v>
       </c>
-      <c r="E15" s="155"/>
-      <c r="F15" s="208"/>
-      <c r="H15" s="203" t="s">
+      <c r="E15" s="158"/>
+      <c r="F15" s="211"/>
+      <c r="H15" s="206" t="s">
         <v>1378</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -18180,10 +18205,10 @@
       <c r="B16" s="4" t="s">
         <v>1381</v>
       </c>
-      <c r="C16" s="126"/>
+      <c r="C16" s="129"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="208"/>
-      <c r="H16" s="202"/>
+      <c r="F16" s="211"/>
+      <c r="H16" s="205"/>
       <c r="I16" s="4" t="s">
         <v>1382</v>
       </c>
@@ -18197,12 +18222,12 @@
       <c r="B17" s="4" t="s">
         <v>1383</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="129" t="s">
         <v>1384</v>
       </c>
-      <c r="E17" s="203"/>
-      <c r="F17" s="208"/>
-      <c r="H17" s="203" t="s">
+      <c r="E17" s="206"/>
+      <c r="F17" s="211"/>
+      <c r="H17" s="206" t="s">
         <v>1385</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -18220,13 +18245,13 @@
       <c r="B18" s="4" t="s">
         <v>1387</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="129" t="s">
         <v>1388</v>
       </c>
-      <c r="D18" s="202"/>
+      <c r="D18" s="205"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="190"/>
-      <c r="H18" s="203" t="s">
+      <c r="F18" s="193"/>
+      <c r="H18" s="206" t="s">
         <v>1389</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -18244,13 +18269,13 @@
       <c r="B19" s="4" t="s">
         <v>1391</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="129" t="s">
         <v>1392</v>
       </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="H19" s="203" t="s">
+      <c r="D19" s="205"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="H19" s="206" t="s">
         <v>1393</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -18268,21 +18293,21 @@
       <c r="B20" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="129" t="s">
         <v>1397</v>
       </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="203" t="s">
+      <c r="D20" s="206"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="206" t="s">
         <v>1398</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>1399</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="209" t="s">
+      <c r="K20" s="212" t="s">
         <v>1400</v>
       </c>
     </row>
@@ -18293,21 +18318,21 @@
       <c r="B21" s="4" t="s">
         <v>1401</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="129" t="s">
         <v>1402</v>
       </c>
-      <c r="D21" s="202"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="203" t="s">
+      <c r="D21" s="205"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206" t="s">
         <v>1403</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>1404</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="209" t="s">
+      <c r="K21" s="212" t="s">
         <v>1400</v>
       </c>
     </row>
@@ -18318,19 +18343,19 @@
       <c r="B22" s="4" t="s">
         <v>1405</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="129" t="s">
         <v>1406</v>
       </c>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="H22" s="203" t="s">
+      <c r="D22" s="206"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="206"/>
+      <c r="H22" s="206" t="s">
         <v>1407</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>1408</v>
       </c>
-      <c r="K22" s="209" t="s">
+      <c r="K22" s="212" t="s">
         <v>1400</v>
       </c>
     </row>
@@ -18344,10 +18369,10 @@
       <c r="C23" s="4" t="s">
         <v>1410</v>
       </c>
-      <c r="D23" s="202"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="H23" s="203" t="s">
+      <c r="D23" s="205"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="206"/>
+      <c r="H23" s="206" t="s">
         <v>1411</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -18365,12 +18390,12 @@
       <c r="B24" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="203" t="s">
+      <c r="C24" s="129"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="206" t="s">
         <v>1416</v>
       </c>
-      <c r="H24" s="202"/>
+      <c r="H24" s="205"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/models/keast-bladder/source/keast-bladder.xlsx
+++ b/models/keast-bladder/source/keast-bladder.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1481">
   <si>
     <t>id</t>
   </si>
@@ -3369,6 +3369,9 @@
     <t>ilxtr:neuron-type-keast-13</t>
   </si>
   <si>
+    <t>descending neuron</t>
+  </si>
+  <si>
     <t>Neuron 14</t>
   </si>
   <si>
@@ -3531,6 +3534,9 @@
     <t>lnk-snl17, lnk-snl27, lnk-sns15, lnk-snl59, lnk-snl69, lnk-snl65, lnk-snl18,lnk-snl28</t>
   </si>
   <si>
+    <t>external</t>
+  </si>
+  <si>
     <t>helper spinal segment layer</t>
   </si>
   <si>
@@ -3715,6 +3721,9 @@
   </si>
   <si>
     <t>KM_22</t>
+  </si>
+  <si>
+    <t>UBERON:0003714</t>
   </si>
   <si>
     <t>UBERON:0000010</t>
@@ -5676,324 +5685,324 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="207" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="C2" s="208" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="D2" s="208"/>
     </row>
     <row r="3">
       <c r="A3" s="209" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="C3" s="208" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="D3" s="208"/>
     </row>
     <row r="4">
       <c r="A4" s="209" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="C4" s="208" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="D4" s="208"/>
     </row>
     <row r="5">
       <c r="A5" s="210" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="C5" s="208" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="D5" s="208"/>
     </row>
     <row r="6">
       <c r="A6" s="210" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="C6" s="208" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="D6" s="208"/>
     </row>
     <row r="7">
       <c r="A7" s="210" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="C7" s="208" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="D7" s="208"/>
     </row>
     <row r="8">
       <c r="A8" s="210" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="C8" s="208" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="D8" s="208"/>
     </row>
     <row r="9">
       <c r="A9" s="210" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="C9" s="208" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="D9" s="208"/>
     </row>
     <row r="10">
       <c r="A10" s="210" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="C10" s="208" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="D10" s="208"/>
     </row>
     <row r="11">
       <c r="A11" s="210" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="C11" s="208" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="D11" s="208"/>
     </row>
     <row r="12">
       <c r="A12" s="210" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="C12" s="208" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="D12" s="208"/>
     </row>
     <row r="13">
       <c r="A13" s="210" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="C13" s="208" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="D13" s="208"/>
     </row>
     <row r="14">
       <c r="A14" s="210" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="C14" s="208" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="D14" s="208"/>
     </row>
     <row r="15">
       <c r="A15" s="210" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="C15" s="208" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="D15" s="208"/>
     </row>
     <row r="16">
       <c r="A16" s="210" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="C16" s="208" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="D16" s="208"/>
     </row>
     <row r="17">
       <c r="A17" s="210" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="C17" s="208" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="D17" s="208"/>
     </row>
     <row r="18">
       <c r="A18" s="210" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="C18" s="208" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="D18" s="208"/>
     </row>
     <row r="19">
       <c r="A19" s="210" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="C19" s="208" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="D19" s="208"/>
     </row>
     <row r="20">
       <c r="A20" s="210" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="C20" s="208" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="D20" s="208"/>
     </row>
     <row r="21">
       <c r="A21" s="211" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="C21" s="208" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="D21" s="208"/>
     </row>
     <row r="22">
       <c r="A22" s="210" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="C22" s="208" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="D22" s="208"/>
     </row>
     <row r="23">
       <c r="A23" s="210" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="C23" s="208" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="D23" s="208"/>
     </row>
     <row r="24">
       <c r="A24" s="210" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="C24" s="208" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="D24" s="208"/>
     </row>
     <row r="25">
       <c r="A25" s="210" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="C25" s="208" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="D25" s="208"/>
     </row>
     <row r="26">
       <c r="A26" s="210" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="C26" s="208" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="D26" s="208"/>
     </row>
     <row r="27">
       <c r="A27" s="210" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="C27" s="208" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="D27" s="208"/>
     </row>
     <row r="28">
       <c r="A28" s="210" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="C28" s="208" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D28" s="208"/>
     </row>
     <row r="29">
       <c r="A29" s="210" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="C29" s="208" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="D29" s="208"/>
     </row>
     <row r="30">
       <c r="A30" s="210" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="C30" s="208" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="D30" s="208"/>
     </row>
     <row r="31">
       <c r="A31" s="210" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="C31" s="208" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="D31" s="208"/>
     </row>
     <row r="32">
       <c r="A32" s="210" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="C32" s="208" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="D32" s="208"/>
     </row>
     <row r="33">
       <c r="A33" s="210" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="C33" s="208" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="D33" s="208"/>
     </row>
     <row r="34">
       <c r="A34" s="210" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="C34" s="208" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="D34" s="208"/>
     </row>
     <row r="35">
       <c r="A35" s="210" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="C35" s="208" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="D35" s="208"/>
     </row>
     <row r="36">
       <c r="A36" s="210" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="C36" s="208" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="D36" s="208"/>
     </row>
@@ -6017,106 +6026,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="212" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="B2" s="213" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="212" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="B3" s="213" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="212" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="B4" s="214" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="212" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="B5" s="215" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="212" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="B6" s="215" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="212" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="B7" s="215" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="212" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="B8" s="215" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="212" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="B9" s="215" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="212" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="B10" s="215" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="212" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="B11" s="215" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="107" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="B12" s="213" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="107" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="B13" s="213" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
     </row>
   </sheetData>
@@ -15946,48 +15955,54 @@
         <v>1104</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="71"/>
+      <c r="K8" s="71" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
         <v>224</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C9" s="107"/>
       <c r="E9" s="17"/>
       <c r="F9" s="168"/>
       <c r="H9" s="164"/>
       <c r="I9" s="4" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="71"/>
+      <c r="K9" s="71" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C10" s="107"/>
       <c r="E10" s="17"/>
       <c r="F10" s="168"/>
       <c r="H10" s="164"/>
       <c r="I10" s="4" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="71" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C11" s="107"/>
       <c r="E11" s="17"/>
@@ -15995,17 +16010,19 @@
       <c r="G11" s="17"/>
       <c r="H11" s="164"/>
       <c r="I11" s="4" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="71"/>
+      <c r="K11" s="71" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
         <v>228</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C12" s="107"/>
       <c r="E12" s="17"/>
@@ -16013,17 +16030,19 @@
       <c r="G12" s="17"/>
       <c r="H12" s="164"/>
       <c r="I12" s="4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="71"/>
+      <c r="K12" s="71" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
         <v>230</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C13" s="107"/>
       <c r="E13" s="17"/>
@@ -16031,49 +16050,53 @@
       <c r="G13" s="17"/>
       <c r="H13" s="164"/>
       <c r="I13" s="4" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="71"/>
+      <c r="K13" s="71" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C14" s="107"/>
       <c r="E14" s="17"/>
       <c r="F14" s="168"/>
       <c r="H14" s="164"/>
       <c r="I14" s="4" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="71"/>
+      <c r="K14" s="71" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E15" s="140"/>
       <c r="F15" s="168"/>
       <c r="H15" s="166" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="16">
@@ -16081,39 +16104,41 @@
         <v>232</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C16" s="107"/>
       <c r="E16" s="17"/>
       <c r="F16" s="168"/>
       <c r="H16" s="164"/>
       <c r="I16" s="4" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="71"/>
+      <c r="K16" s="71" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
         <v>450</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E17" s="166"/>
       <c r="F17" s="168"/>
       <c r="H17" s="166" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="18">
@@ -16121,23 +16146,23 @@
         <v>435</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D18" s="164"/>
       <c r="E18" s="22"/>
       <c r="F18" s="162"/>
       <c r="H18" s="166" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="19">
@@ -16145,23 +16170,23 @@
         <v>432</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C19" s="107" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D19" s="164"/>
       <c r="E19" s="166"/>
       <c r="F19" s="166"/>
       <c r="H19" s="166" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="20">
@@ -16169,24 +16194,24 @@
         <v>413</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C20" s="107" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D20" s="166"/>
       <c r="E20" s="166"/>
       <c r="F20" s="166"/>
       <c r="G20" s="166"/>
       <c r="H20" s="166" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="169" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="21">
@@ -16194,24 +16219,24 @@
         <v>423</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C21" s="107" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D21" s="164"/>
       <c r="E21" s="166"/>
       <c r="F21" s="166"/>
       <c r="G21" s="166"/>
       <c r="H21" s="166" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="169" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="22">
@@ -16219,22 +16244,22 @@
         <v>418</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C22" s="107" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D22" s="166"/>
       <c r="E22" s="166"/>
       <c r="F22" s="166"/>
       <c r="H22" s="166" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="K22" s="169" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="23">
@@ -16242,38 +16267,38 @@
         <v>427</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D23" s="164"/>
       <c r="E23" s="166"/>
       <c r="F23" s="166"/>
       <c r="H23" s="166" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C24" s="107"/>
       <c r="D24" s="170" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E24" s="166" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H24" s="164"/>
     </row>
@@ -16293,8 +16318,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="23.0"/>
-    <col customWidth="1" min="3" max="3" width="27.75"/>
-    <col customWidth="1" min="4" max="5" width="25.25"/>
+    <col customWidth="1" min="3" max="3" width="14.38"/>
+    <col customWidth="1" min="4" max="4" width="27.75"/>
+    <col customWidth="1" min="5" max="6" width="25.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16304,369 +16330,402 @@
       <c r="B1" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="172" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D1" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="171" t="s">
+      <c r="E1" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="172" t="s">
-        <v>1159</v>
+      <c r="F1" s="172" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="173" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B2" s="174" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>1162</v>
-      </c>
+        <v>1163</v>
+      </c>
+      <c r="C2" s="174"/>
       <c r="D2" s="24" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E2" s="24"/>
+        <v>1164</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3">
       <c r="A3" s="173" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D3" s="23"/>
+        <v>1167</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
+        <v>1168</v>
+      </c>
       <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="173" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D4" s="175"/>
+        <v>1170</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24" t="s">
+        <v>1171</v>
+      </c>
       <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
     </row>
     <row r="5">
       <c r="A5" s="173" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D5" s="175"/>
+        <v>1173</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
+        <v>1174</v>
+      </c>
       <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
     </row>
     <row r="6">
       <c r="A6" s="173" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C6" s="176" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D6" s="23"/>
+        <v>1176</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="176" t="s">
+        <v>1177</v>
+      </c>
       <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="173" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D7" s="177" t="s">
         <v>1179</v>
       </c>
-      <c r="E7" s="177"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E7" s="177" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F7" s="177"/>
     </row>
     <row r="8">
       <c r="A8" s="173" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C8" s="23" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E8" s="177" t="s">
         <v>1181</v>
       </c>
-      <c r="D8" s="177" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
     </row>
     <row r="9">
       <c r="A9" s="173" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D9" s="178" t="s">
         <v>1184</v>
       </c>
-      <c r="E9" s="178"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E9" s="178" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F9" s="178"/>
     </row>
     <row r="10">
       <c r="A10" s="173" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D10" s="177" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E10" s="177"/>
+        <v>1188</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E10" s="177" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F10" s="177"/>
     </row>
     <row r="11">
       <c r="A11" s="173" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D11" s="179"/>
+        <v>1191</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
+        <v>1192</v>
+      </c>
       <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
     </row>
     <row r="12">
       <c r="A12" s="173" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B12" s="177" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C12" s="177" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D12" s="179"/>
+        <v>1194</v>
+      </c>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177" t="s">
+        <v>1195</v>
+      </c>
       <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
     </row>
     <row r="13">
       <c r="A13" s="173" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B13" s="177" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C13" s="180" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D13" s="179"/>
+        <v>1197</v>
+      </c>
+      <c r="C13" s="177"/>
+      <c r="D13" s="180" t="s">
+        <v>1198</v>
+      </c>
       <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
     </row>
     <row r="14">
       <c r="A14" s="173" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B14" s="177" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C14" s="180" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D14" s="179"/>
+        <v>1200</v>
+      </c>
+      <c r="C14" s="177"/>
+      <c r="D14" s="180" t="s">
+        <v>1201</v>
+      </c>
       <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
     </row>
     <row r="15">
       <c r="A15" s="173" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B15" s="177" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C15" s="180" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D15" s="179"/>
+        <v>1203</v>
+      </c>
+      <c r="C15" s="177"/>
+      <c r="D15" s="180" t="s">
+        <v>1204</v>
+      </c>
       <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
     </row>
     <row r="16">
       <c r="A16" s="173" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B16" s="177" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C16" s="180" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D16" s="179"/>
+        <v>1206</v>
+      </c>
+      <c r="C16" s="177"/>
+      <c r="D16" s="180" t="s">
+        <v>1207</v>
+      </c>
       <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
     </row>
     <row r="17">
       <c r="A17" s="173" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B17" s="177" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C17" s="180" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D17" s="179"/>
+        <v>1209</v>
+      </c>
+      <c r="C17" s="177"/>
+      <c r="D17" s="180" t="s">
+        <v>1210</v>
+      </c>
       <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
     </row>
     <row r="18">
       <c r="A18" s="173" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B18" s="177" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C18" s="180" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D18" s="179"/>
+        <v>1212</v>
+      </c>
+      <c r="C18" s="177"/>
+      <c r="D18" s="180" t="s">
+        <v>1213</v>
+      </c>
       <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
     </row>
     <row r="19">
       <c r="A19" s="173" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="B19" s="177" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C19" s="180" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D19" s="179"/>
+        <v>1215</v>
+      </c>
+      <c r="C19" s="177"/>
+      <c r="D19" s="180" t="s">
+        <v>1216</v>
+      </c>
       <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
     </row>
     <row r="20">
       <c r="A20" s="173" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="B20" s="181" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C20" s="180" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D20" s="179"/>
+        <v>1184</v>
+      </c>
+      <c r="C20" s="181"/>
+      <c r="D20" s="180" t="s">
+        <v>1218</v>
+      </c>
       <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
     </row>
     <row r="21">
       <c r="A21" s="173" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="B21" s="181" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C21" s="182" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D21" s="179"/>
+        <v>1220</v>
+      </c>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182" t="s">
+        <v>1221</v>
+      </c>
       <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
     </row>
     <row r="22">
       <c r="A22" s="173" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B22" s="183" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C22" s="180" t="s">
         <v>1222</v>
       </c>
-      <c r="D22" s="177" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E22" s="177"/>
+      <c r="B22" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C22" s="183" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D22" s="180" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E22" s="177" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F22" s="177"/>
     </row>
     <row r="23">
       <c r="A23" s="173" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="B23" s="184" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C23" s="185" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D23" s="179"/>
+        <v>1227</v>
+      </c>
+      <c r="C23" s="184"/>
+      <c r="D23" s="185" t="s">
+        <v>1228</v>
+      </c>
       <c r="E23" s="179"/>
+      <c r="F23" s="179"/>
     </row>
     <row r="24">
       <c r="A24" s="173" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="B24" s="184" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C24" s="186" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D24" s="179"/>
+        <v>1230</v>
+      </c>
+      <c r="C24" s="184"/>
+      <c r="D24" s="186" t="s">
+        <v>1231</v>
+      </c>
       <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
     </row>
     <row r="25">
       <c r="A25" s="173" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B25" s="184" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C25" s="186" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D25" s="177" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E25" s="177"/>
+        <v>1232</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C25" s="184" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D25" s="186" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E25" s="177" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F25" s="177"/>
     </row>
     <row r="26">
       <c r="A26" s="173" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="B26" s="177" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C26" s="177" t="s">
-        <v>1234</v>
-      </c>
+        <v>1236</v>
+      </c>
+      <c r="C26" s="177"/>
       <c r="D26" s="177" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E26" s="177"/>
+        <v>1237</v>
+      </c>
+      <c r="E26" s="177" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F26" s="177"/>
     </row>
     <row r="27">
       <c r="A27" s="173" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="B27" s="177" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C27" s="177" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D27" s="179"/>
-      <c r="E27" s="177">
+        <v>1239</v>
+      </c>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E27" s="179"/>
+      <c r="F27" s="177">
         <v>13.0</v>
       </c>
     </row>
@@ -16675,169 +16734,180 @@
         <v>149</v>
       </c>
       <c r="B28" s="177" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C28" s="177" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D28" s="179"/>
+        <v>1241</v>
+      </c>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177" t="s">
+        <v>1242</v>
+      </c>
       <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
     </row>
     <row r="29">
       <c r="A29" s="187" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="B29" s="188" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C29" s="189" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D29" s="188"/>
-      <c r="E29" s="190">
+        <v>1244</v>
+      </c>
+      <c r="C29" s="188"/>
+      <c r="D29" s="189" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E29" s="188"/>
+      <c r="F29" s="190">
         <v>12.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="187" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="B30" s="188" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C30" s="189" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D30" s="188"/>
-      <c r="E30" s="191">
-        <f t="shared" ref="E30:E37" si="1">E29-1</f>
+        <v>1247</v>
+      </c>
+      <c r="C30" s="188"/>
+      <c r="D30" s="189" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E30" s="188"/>
+      <c r="F30" s="191">
+        <f t="shared" ref="F30:F37" si="1">F29-1</f>
         <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="187" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="B31" s="188" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C31" s="189" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D31" s="188"/>
-      <c r="E31" s="191">
+        <v>1250</v>
+      </c>
+      <c r="C31" s="188"/>
+      <c r="D31" s="189" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E31" s="188"/>
+      <c r="F31" s="191">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="187" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="B32" s="188" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C32" s="189" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="191">
+        <v>1253</v>
+      </c>
+      <c r="C32" s="188"/>
+      <c r="D32" s="189" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E32" s="188"/>
+      <c r="F32" s="191">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="187" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="B33" s="188" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C33" s="189" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="191">
+        <v>1256</v>
+      </c>
+      <c r="C33" s="188"/>
+      <c r="D33" s="189" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E33" s="188"/>
+      <c r="F33" s="191">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="187" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="B34" s="188" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C34" s="189" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="191">
+        <v>1259</v>
+      </c>
+      <c r="C34" s="188"/>
+      <c r="D34" s="189" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E34" s="188"/>
+      <c r="F34" s="191">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="187" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="B35" s="188" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C35" s="189" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D35" s="188"/>
-      <c r="E35" s="191">
+        <v>1262</v>
+      </c>
+      <c r="C35" s="188"/>
+      <c r="D35" s="189" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E35" s="188"/>
+      <c r="F35" s="191">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="187" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="B36" s="188" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C36" s="189" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D36" s="188"/>
-      <c r="E36" s="191">
+        <v>1265</v>
+      </c>
+      <c r="C36" s="188"/>
+      <c r="D36" s="189" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E36" s="188"/>
+      <c r="F36" s="191">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="187" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="B37" s="188" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C37" s="189" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D37" s="188"/>
-      <c r="E37" s="191">
+        <v>1268</v>
+      </c>
+      <c r="C37" s="188"/>
+      <c r="D37" s="189" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E37" s="188"/>
+      <c r="F37" s="191">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="B38" s="188" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C38" s="189" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D38" s="188"/>
-      <c r="E38" s="63">
+        <v>1271</v>
+      </c>
+      <c r="C38" s="188"/>
+      <c r="D38" s="189" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E38" s="188"/>
+      <c r="F38" s="63">
         <v>2.0</v>
       </c>
     </row>
@@ -16846,91 +16916,98 @@
         <v>54.0</v>
       </c>
       <c r="B39" s="193" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C39" s="194" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D39" s="195"/>
+        <v>1273</v>
+      </c>
+      <c r="C39" s="193"/>
+      <c r="D39" s="194" t="s">
+        <v>1274</v>
+      </c>
       <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
     </row>
     <row r="40">
       <c r="A40" s="192">
         <v>55.0</v>
       </c>
       <c r="B40" s="193" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C40" s="194" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D40" s="186"/>
+        <v>1275</v>
+      </c>
+      <c r="C40" s="193"/>
+      <c r="D40" s="194" t="s">
+        <v>1276</v>
+      </c>
       <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
     </row>
     <row r="41">
       <c r="A41" s="192">
         <v>56.0</v>
       </c>
       <c r="B41" s="193" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C41" s="194" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D41" s="195"/>
+        <v>1277</v>
+      </c>
+      <c r="C41" s="193"/>
+      <c r="D41" s="194" t="s">
+        <v>1278</v>
+      </c>
       <c r="E41" s="195"/>
+      <c r="F41" s="195"/>
     </row>
     <row r="42">
       <c r="A42" s="192">
         <v>116.0</v>
       </c>
       <c r="B42" s="196" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C42" s="194" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D42" s="179"/>
+        <v>1279</v>
+      </c>
+      <c r="C42" s="196"/>
+      <c r="D42" s="194" t="s">
+        <v>1177</v>
+      </c>
       <c r="E42" s="179"/>
+      <c r="F42" s="179"/>
     </row>
     <row r="43">
       <c r="A43" s="197" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="B43" s="196" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C43" s="185" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D43" s="179"/>
+        <v>1281</v>
+      </c>
+      <c r="C43" s="196"/>
+      <c r="D43" s="185" t="s">
+        <v>1282</v>
+      </c>
       <c r="E43" s="179"/>
+      <c r="F43" s="179"/>
     </row>
     <row r="44">
       <c r="A44" s="197" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="B44" s="198" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C44" s="185" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D44" s="179"/>
+        <v>1284</v>
+      </c>
+      <c r="C44" s="198"/>
+      <c r="D44" s="185" t="s">
+        <v>1285</v>
+      </c>
       <c r="E44" s="179"/>
+      <c r="F44" s="179"/>
     </row>
     <row r="45">
       <c r="A45" s="197" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="B45" s="199" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C45" s="185" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D45" s="179"/>
+        <v>1287</v>
+      </c>
+      <c r="C45" s="199"/>
+      <c r="D45" s="185" t="s">
+        <v>1288</v>
+      </c>
       <c r="E45" s="179"/>
+      <c r="F45" s="179"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -16962,13 +17039,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="95" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="D1" s="95" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="E1" s="95" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="F1" s="95" t="s">
         <v>10</v>
@@ -16979,7 +17056,7 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="s">
@@ -16998,7 +17075,7 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="22" t="s">
@@ -17017,7 +17094,7 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="22" t="s">
@@ -17036,7 +17113,7 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="22" t="s">
@@ -17055,7 +17132,7 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="22" t="s">
@@ -17074,7 +17151,7 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="22" t="s">
@@ -17093,7 +17170,7 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="22" t="s">
@@ -17112,7 +17189,7 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="22" t="s">
@@ -17131,7 +17208,7 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="22" t="s">
@@ -17150,7 +17227,7 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="22" t="s">
@@ -17169,14 +17246,14 @@
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="22" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>395</v>
@@ -17188,14 +17265,14 @@
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="22" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>403</v>
@@ -17207,7 +17284,7 @@
     </row>
     <row r="14">
       <c r="A14" s="66" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="69" t="s">
@@ -17226,7 +17303,7 @@
     </row>
     <row r="15">
       <c r="A15" s="66" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="B15" s="68"/>
       <c r="C15" s="69" t="s">
@@ -17245,7 +17322,7 @@
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="22" t="s">
@@ -17264,7 +17341,7 @@
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="22" t="s">
@@ -17283,7 +17360,7 @@
     </row>
     <row r="18">
       <c r="A18" s="33" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="22" t="s">
@@ -17302,7 +17379,7 @@
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="22" t="s">
@@ -17321,7 +17398,7 @@
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="22" t="s">
@@ -17340,7 +17417,7 @@
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="22" t="s">
@@ -17359,7 +17436,7 @@
     </row>
     <row r="22">
       <c r="A22" s="202" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="203" t="s">
@@ -17378,7 +17455,7 @@
     </row>
     <row r="23">
       <c r="A23" s="202" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="203" t="s">
@@ -17397,7 +17474,7 @@
     </row>
     <row r="24">
       <c r="A24" s="33" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="134" t="s">
@@ -17416,7 +17493,7 @@
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="22" t="s">
@@ -17435,7 +17512,7 @@
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="22" t="s">
@@ -17454,7 +17531,7 @@
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="22" t="s">
@@ -17473,7 +17550,7 @@
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="22" t="s">
@@ -17492,7 +17569,7 @@
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="22" t="s">
@@ -17511,7 +17588,7 @@
     </row>
     <row r="30">
       <c r="A30" s="33" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="22" t="s">
@@ -17530,7 +17607,7 @@
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="22" t="s">
@@ -17549,7 +17626,7 @@
     </row>
     <row r="32">
       <c r="A32" s="33" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="22" t="s">
@@ -17568,7 +17645,7 @@
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="22" t="s">
@@ -17587,7 +17664,7 @@
     </row>
     <row r="34">
       <c r="A34" s="33" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="22" t="s">
@@ -17606,7 +17683,7 @@
     </row>
     <row r="35">
       <c r="A35" s="46" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="22" t="s">
@@ -17625,7 +17702,7 @@
     </row>
     <row r="36">
       <c r="A36" s="46" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="17" t="s">
@@ -17644,7 +17721,7 @@
     </row>
     <row r="37">
       <c r="A37" s="33" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="22" t="s">
@@ -17663,7 +17740,7 @@
     </row>
     <row r="38">
       <c r="A38" s="33" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="17" t="s">
@@ -17709,10 +17786,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="95" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="2">
@@ -17720,7 +17797,7 @@
         <v>495</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="3">
@@ -17728,15 +17805,15 @@
         <v>496</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="E4" s="4" t="b">
         <v>1</v>
@@ -17744,10 +17821,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="E5" s="4" t="b">
         <v>1</v>
@@ -17758,7 +17835,7 @@
         <v>709</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -17767,16 +17844,16 @@
         <v>710</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -17802,16 +17879,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="2">
@@ -17819,24 +17896,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="6">
@@ -17844,34 +17921,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="4" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="4" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>1355</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="10">
@@ -17880,64 +17957,64 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -17948,7 +18025,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
@@ -17957,7 +18034,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="B20" s="166" t="s">
         <v>6</v>
@@ -17974,10 +18051,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="B21" s="166" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="22">
@@ -18000,37 +18077,37 @@
     </row>
     <row r="28">
       <c r="A28" s="166" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="B28" s="204" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="166" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="B29" s="204" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="166" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="B30" s="204" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="31" hidden="1">
       <c r="A31" s="4" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="B31" s="166"/>
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="4" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="B32" s="166"/>
     </row>
@@ -18087,51 +18164,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="205" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="205" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="205" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1388</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="205" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
     </row>
   </sheetData>

--- a/models/keast-bladder/source/keast-bladder.xlsx
+++ b/models/keast-bladder/source/keast-bladder.xlsx
@@ -11,9 +11,10 @@
     <sheet state="visible" name="links" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="nodes" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="neurons" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="contributors" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="references" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="localConventions" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="references" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="localConventions" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="contributors" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Github" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="1571">
   <si>
     <t>id</t>
   </si>
@@ -495,7 +496,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>UBERON:0003040</t>
+    <t>ILX:0793626</t>
   </si>
   <si>
     <t>ventrolateral periaqueductal gray (kblad)</t>
@@ -3315,7 +3316,7 @@
     <t>parasympathetic ganglion neuron of the pelvic ganglion OR pelvic ganglion parasympathetic neuron</t>
   </si>
   <si>
-    <t>PMID:2713886,PMID:4700666,PMID:2571623,PMID:7644029,PMID:1358408,PMID:30704972</t>
+    <t>PMID:2713886, PMID:4700666, PMID:2571623, PMID:7644029, PMID:1358408, PMID:30704972</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-1</t>
@@ -3330,7 +3331,7 @@
     <t>L6-S1 sensory neurons innervating bladder</t>
   </si>
   <si>
-    <t>PMID:1619047,PMID:7174880,PMID:4700666,PMID:11382385,PMID:1358408,PMID:32598494</t>
+    <t>PMID:1619047, PMID:7174880, PMID:4700666, PMID:11382385, PMID:1358408, PMID:32598494</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-10</t>
@@ -3345,7 +3346,7 @@
     <t>L1-L2 sensory neurons innervating bladder</t>
   </si>
   <si>
-    <t>PMID:4700666,PMID:11382385,PMID:3558884,PMID:1619047,PMID:2891149,PMID:1358408</t>
+    <t>PMID:4700666, PMID:11382385, PMID:3558884, PMID:1619047, PMID:2891149, PMID:1358408</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-11</t>
@@ -3414,7 +3415,7 @@
     <t>sympathetic ganglion neuron of the pelvic ganglion OR pelvic ganglion sympathetic neuron</t>
   </si>
   <si>
-    <t>PMID:2713886,PMID:4700666,PMID:1358408,PMID:2571623,PMID:30704972,PMID:7644029</t>
+    <t xml:space="preserve">PMID:2713886, PMID:4700666, PMID:1358408, PMID:2571623, PMID:30704972, PMID:7644029 </t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-2</t>
@@ -3435,7 +3436,7 @@
     <t>inferior mesenteric ganglion neuron</t>
   </si>
   <si>
-    <t>PMID:2891149,PMID:4700666,PMID:1358408,PMID:9622251</t>
+    <t>PMID:2891149, PMID:4700666, PMID:1358408, PMID:9622251</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-3</t>
@@ -3447,7 +3448,7 @@
     <t>sympathetic chain ganglion neuron OR paravertebral sympathetic ganglion neuron</t>
   </si>
   <si>
-    <t>PMID:1358408,PMID:9622251,PMID:7174880,PMID:9442414</t>
+    <t>PMID:1358408, PMID:9622251,  PMID:7174880, PMID:9442414</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-4</t>
@@ -3459,7 +3460,7 @@
     <t>parasympathetic spinal preganglionic neuron</t>
   </si>
   <si>
-    <t>PMID:10473279,PMID:21283532,PMID:6736301,PMID:86176,PMID:12401325,PMID:7174880,PMID:9442414</t>
+    <t>PMID:10473279, PMID:21283532, PMID:6736301, PMID:86176, PMID:12401325, PMID:7174880,  PMID:9442414</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-5</t>
@@ -3474,7 +3475,7 @@
     <t>sympathetic preganglionic neuron innervating pelvic ganglion neuron</t>
   </si>
   <si>
-    <t>PMID:1358408,PMID:3225349,PMID:30704972,PMID:3558884,PMID:2891149,PMID:10473279,PMID:21283532,PMID:758335,PMID:1726105</t>
+    <t>PMID:1358408, PMID:3225349, PMID:30704972, PMID:3558884, PMID:2891149, PMID:10473279, PMID:21283532, PMID:758335, PMID:1726105</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-6</t>
@@ -3489,7 +3490,7 @@
     <t>sympathetic preganglionic neuron innervating inferior mesenteric ganglion neuron</t>
   </si>
   <si>
-    <t>PMID:3558884,PMID:3225349,PMID:2891149,PMID:2567744,PMID:1726105,PMID:3416186</t>
+    <t xml:space="preserve">PMID:3558884, PMID:3225349, PMID:2891149, PMID:2567744 , PMID:1726105, PMID:3416186 </t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-7</t>
@@ -3501,7 +3502,7 @@
     <t>sympathetic preganglionic neuron innervating sympathetic chain ganglion neuron</t>
   </si>
   <si>
-    <t>PMID:1358408,PMID:2891149,PMID:2567744,PMID:1726105</t>
+    <t>PMID:1358408, PMID:2891149,  PMID:2567744, PMID:1726105</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-8</t>
@@ -3513,7 +3514,7 @@
     <t>urethral rhabdosphincter motoneuron OR ontologyTerms urethral sphincter motoneuron</t>
   </si>
   <si>
-    <t>PMID:11382385,PMID:3722467,PMID:12811806,PMID:9421141,PMID:11748568,PMID:7636036,PMID:7174880,PMID:7419745</t>
+    <t>PMID:11382385, PMID:3722467, PMID:12811806, PMID:9421141, PMID:11748568, PMID:7636036, PMID:7174880, PMID:7419745</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-keast-9</t>
@@ -4209,6 +4210,264 @@
     <t>Link to papers (internal)</t>
   </si>
   <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>PMID:1358408</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/1358408</t>
+  </si>
+  <si>
+    <t>PMID:2567744</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/2567744</t>
+  </si>
+  <si>
+    <t>PMID:2891149</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/2891149</t>
+  </si>
+  <si>
+    <t>PMID:3416186</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/3416186</t>
+  </si>
+  <si>
+    <t>PMID:9622251</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/9622251</t>
+  </si>
+  <si>
+    <t>PMID:10473279</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/10473279</t>
+  </si>
+  <si>
+    <t>PMID:11382385</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/11382385</t>
+  </si>
+  <si>
+    <t>PMID:11748568</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/11748568</t>
+  </si>
+  <si>
+    <t>PMID:12401325</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12401325</t>
+  </si>
+  <si>
+    <t>PMID:12811806</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/12811806</t>
+  </si>
+  <si>
+    <t>PMID:1619047</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/1619047</t>
+  </si>
+  <si>
+    <t>PMID:1726105</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/1726105</t>
+  </si>
+  <si>
+    <t>PMID:21283532</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/21283532</t>
+  </si>
+  <si>
+    <t>PMID:2571623</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/2571623</t>
+  </si>
+  <si>
+    <t>PMID:2713886</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/2713886</t>
+  </si>
+  <si>
+    <t>PMID:30704972</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30704972</t>
+  </si>
+  <si>
+    <t>PMID:3225349</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/3225349</t>
+  </si>
+  <si>
+    <t>PMID:3558884</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/3558884</t>
+  </si>
+  <si>
+    <t>PMID:3722467</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/3722467</t>
+  </si>
+  <si>
+    <t>PMID:4700666</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/4700666</t>
+  </si>
+  <si>
+    <t>PMID:6736301</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/6736301</t>
+  </si>
+  <si>
+    <t>PMID:7174880</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/7174880</t>
+  </si>
+  <si>
+    <t>PMID:7419745</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/7419745</t>
+  </si>
+  <si>
+    <t>PMID:758335</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/758335</t>
+  </si>
+  <si>
+    <t>PMID:7636036</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/7636036</t>
+  </si>
+  <si>
+    <t>PMID:7644029</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/7644029</t>
+  </si>
+  <si>
+    <t>PMID:86176</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/86176</t>
+  </si>
+  <si>
+    <t>PMID:9421141</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/9421141</t>
+  </si>
+  <si>
+    <t>PMID:9442414</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/9442414</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>namespace</t>
+  </si>
+  <si>
+    <t>UBERON</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UBERON_</t>
+  </si>
+  <si>
+    <t>CHEBI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_</t>
+  </si>
+  <si>
+    <t>FMA</t>
+  </si>
+  <si>
+    <t>http://purl.org/sig/ont/fma/fma</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GO_</t>
+  </si>
+  <si>
+    <t>ILX</t>
+  </si>
+  <si>
+    <t>http://uri.interlex.org/base/ilx_</t>
+  </si>
+  <si>
+    <t>NLX</t>
+  </si>
+  <si>
+    <t>http://uri.neuinfo.org/nif/nifstd/nlx_</t>
+  </si>
+  <si>
+    <t>SAO</t>
+  </si>
+  <si>
+    <t>http://uri.neuinfo.org/nif/nifstd/sao</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>http://www.ncbi.nlm.nih.gov/pubmed/</t>
+  </si>
+  <si>
+    <t>EMAPA</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EMAPA_</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CL_</t>
+  </si>
+  <si>
+    <t>NCBITaxon</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_</t>
+  </si>
+  <si>
+    <t>ilxtr</t>
+  </si>
+  <si>
+    <t>http://uri.interlex.org/tgbugs/uris/readable/</t>
+  </si>
+  <si>
     <t>notes</t>
   </si>
   <si>
@@ -4239,269 +4498,294 @@
     <t>Bernard de Bono</t>
   </si>
   <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>PMID:1358408</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/1358408</t>
-  </si>
-  <si>
-    <t>PMID:2567744</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/2567744</t>
-  </si>
-  <si>
-    <t>PMID:2891149</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/2891149</t>
-  </si>
-  <si>
-    <t>PMID:3416186</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/3416186</t>
-  </si>
-  <si>
-    <t>PMID:9622251</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/9622251</t>
-  </si>
-  <si>
-    <t>PMID:10473279</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/10473279</t>
-  </si>
-  <si>
-    <t>PMID:11382385</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/11382385</t>
-  </si>
-  <si>
-    <t>PMID:11748568</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/11748568</t>
-  </si>
-  <si>
-    <t>PMID:12401325</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/12401325</t>
-  </si>
-  <si>
-    <t>PMID:12811806</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/12811806</t>
-  </si>
-  <si>
-    <t>PMID:1619047</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/1619047</t>
-  </si>
-  <si>
-    <t>PMID:1726105</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/1726105</t>
-  </si>
-  <si>
-    <t>PMID:21283532</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/21283532</t>
-  </si>
-  <si>
-    <t>PMID:2571623</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/2571623</t>
-  </si>
-  <si>
-    <t>PMID:2713886</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/2713886</t>
-  </si>
-  <si>
-    <t>PMID:30704972</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/30704972</t>
-  </si>
-  <si>
-    <t>PMID:3225349</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/3225349</t>
-  </si>
-  <si>
-    <t>PMID:3558884</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/3558884</t>
-  </si>
-  <si>
-    <t>PMID:3722467</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/3722467</t>
-  </si>
-  <si>
-    <t>PMID:4700666</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/4700666</t>
-  </si>
-  <si>
-    <t>PMID:6736301</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/6736301</t>
-  </si>
-  <si>
-    <t>PMID:7174880</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/7174880</t>
-  </si>
-  <si>
-    <t>PMID:7419745</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/7419745</t>
-  </si>
-  <si>
-    <t>PMID:758335</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/758335</t>
-  </si>
-  <si>
-    <t>PMID:7636036</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/7636036</t>
-  </si>
-  <si>
-    <t>PMID:7644029</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/7644029</t>
-  </si>
-  <si>
-    <t>PMID:86176</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/86176</t>
-  </si>
-  <si>
-    <t>PMID:9421141</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/9421141</t>
-  </si>
-  <si>
-    <t>PMID:9442414</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/9442414</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>namespace</t>
-  </si>
-  <si>
-    <t>UBERON</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UBERON_</t>
-  </si>
-  <si>
-    <t>CHEBI</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_</t>
-  </si>
-  <si>
-    <t>FMA</t>
-  </si>
-  <si>
-    <t>http://purl.org/sig/ont/fma/fma</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/GO_</t>
-  </si>
-  <si>
-    <t>ILX</t>
-  </si>
-  <si>
-    <t>http://uri.interlex.org/base/ilx_</t>
-  </si>
-  <si>
-    <t>NLX</t>
-  </si>
-  <si>
-    <t>http://uri.neuinfo.org/nif/nifstd/nlx_</t>
-  </si>
-  <si>
-    <t>SAO</t>
-  </si>
-  <si>
-    <t>http://uri.neuinfo.org/nif/nifstd/sao</t>
-  </si>
-  <si>
-    <t>PMID</t>
-  </si>
-  <si>
-    <t>http://www.ncbi.nlm.nih.gov/pubmed/</t>
-  </si>
-  <si>
-    <t>EMAPA</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/EMAPA_</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CL_</t>
-  </si>
-  <si>
-    <t>NCBITaxon</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCBITaxon_</t>
-  </si>
-  <si>
-    <t>ilxtr</t>
-  </si>
-  <si>
-    <t>http://uri.interlex.org/tgbugs/uris/readable/</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>Predominantly rodent model of higher brain centers projecting to Barrington’s micturition center, as well as its descending influence to lumbosacral intermediolateral parasympathetic projections to the bladder, synapsing in the pelvic ganglia. In addition, lumbar (i) somatomotor projections to the urethral rhabdosphincter (ii) sympathetic outflows to the bladder muscle and blood vessels via the sympathetic chain, inferior mesenteric ganglion and pelvic ganglia, and (iii) somatic sensing of bladder and urethral stretch, are also modeled.
+This digital record documents the ApiNATOMY representation of neural circuits in the central and peripheral nervous system innervating the urinary bladder and urethra. ApiNATOMY is a set of tools that produces simple, consistent anatomy schematics overlaid with ontological information. These tools are used to build routing and connectivity graphs (or wiring diagrams). This record contains a docs folder, a source folder, and a README text file. The Docs folder contains 2 PDF documents, with a schematic image of the ApiNATOMY model and a slide presentation documenting the anatomical structures each neuron population travels through in the schematic image. The Source folder contains the ApiNATOMY representation of the model in JSON and .xlsx formats. Lastly, the README .md document includes a brief description, keywords, and reference publications to construct the knowledge within the model. Please note, the focus of SPARC is on peripheral connectivity of the ANS and its main points of interaction with the CNS. Therefore, any CNS circuitry represented is not comprehensive unless otherwise specified.</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Bernard de Bono</t>
+  </si>
+  <si>
+    <t>Authors_ORCID</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://orcid.org/0000-0002-2308-8813</t>
+    </r>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>bladder neck (syn: neck of urinary bladder, urinary bladder neck)</t>
+  </si>
+  <si>
+    <t>bladder dome (syn: bladder body)</t>
+  </si>
+  <si>
+    <t>bladder fundus (syn: fundus of urinary bladder)</t>
+  </si>
+  <si>
+    <t>urethra</t>
+  </si>
+  <si>
+    <t>urethral rhabdosphincter (syn: external urethral sphincter)</t>
+  </si>
+  <si>
+    <t>dorsal root ganglia (syn: spinal ganglia)</t>
+  </si>
+  <si>
+    <t>pelvic ganglion/ganglia (syn: major pelvic ganglion/ganglia; paracervical ganglion/ganglia - Female only; inferior hypogastric plexus - human only)</t>
+  </si>
+  <si>
+    <t>inferior mesenteric ganglion</t>
+  </si>
+  <si>
+    <t>paravertebral sympathetic ganglion (syn: sympathetic chain ganglion)</t>
+  </si>
+  <si>
+    <t>pudendal nerve</t>
+  </si>
+  <si>
+    <t>hypogastric nerve</t>
+  </si>
+  <si>
+    <t>pelvic nerve (syn: pelvic splanchnic nerves - human only])</t>
+  </si>
+  <si>
+    <t>lumbar splanchnic nerves</t>
+  </si>
+  <si>
+    <t>spinal cord</t>
+  </si>
+  <si>
+    <t>ventral horn of spinal cord</t>
+  </si>
+  <si>
+    <t>dorsal horn of spinal cord</t>
+  </si>
+  <si>
+    <t>intermediolateral column of spinal cord</t>
+  </si>
+  <si>
+    <t>preganglionic nucleus of spinal cord</t>
+  </si>
+  <si>
+    <t>anatomy</t>
+  </si>
+  <si>
+    <t>apinatomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> autonomic nervous system</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> urination</t>
+  </si>
+  <si>
+    <t>Publications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vera PL, Nadelhaft I. Afferent and sympathetic innervation of the dome and the base of the urinary bladder of the female rat. Brain Res Bull. 1992 Nov;29(5):651-8. doi: 10.1016/0361-9230(92)90134-j. </t>
+  </si>
+  <si>
+    <t>Keast JR, Booth AM, de Groat WC. Distribution of neurons in the major pelvic ganglion of the rat which supply the bladder, colon or penis. Cell Tissue Res. 1989 Apr;256(1):105-12. doi: 10.1007/BF00224723. PMID: 2713886.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadelhaft I, Vera PL. Separate urinary bladder and external urethral sphincter neurons in the central nervous system of the rat: simultaneous labeling with two immunohistochemically distinguishable pseudorabies viruses. Brain Res. 2001 Jun 8;903(1-2):33-44. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purinton PT, Fletcher TF, Bradley WE. Gross and light microscopic features of the pelvic plexus in the rat. Anat Rec. 1973 Apr;175(4):697-705. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keast JR, De Groat WC. Segmental distribution and peptide content of primary afferent neurons innervating the urogenital organs and colon of male rats. J Comp Neurol. 1992 May 22;319(4):615-23. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadelhaft I, McKenna KE. Sexual dimorphism in sympathetic preganglionic neurons of the rat hypogastric nerve. J Comp Neurol. 1987 Feb 8;256(2):308-15. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jänig W, McLachlan EM. Organization of lumbar spinal outflow to distal colon and pelvic organs. Physiol Rev. 1987 Oct;67(4):1332-404. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baron R, Jänig W, Kollmann W. Sympathetic and afferent somata projecting in hindlimb nerves and the anatomical organization of the lumbar sympathetic nervous system of the rat. J Comp Neurol. 1988 Sep 15;275(3):460-8. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marson L, Cai R, Makhanova N. Identification of spinal neurons involved in the urethrogenital reflex in the female rat. J Comp Neurol. 2003 Aug 4;462(4):355-70. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">McKenna KE, Nadelhaft I. The organization of the pudendal nerve in the male and female rat. J Comp Neurol. 1986 Jun 22;248(4):532-49. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vizzard MA, Erickson VL, Card JP, Roppolo JR, de Groat WC. Transneuronal labeling of neurons in the adult rat brainstem and spinal cord after injection of pseudorabies virus into the urethra. J Comp Neurol. 1995 May 15;355(4):629-40. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arellano J, Xelhuantzi N, Mirto N, Hernández ME, Cruz Y. Neural interrelationships of autonomic ganglia from the pelvic region of male rats. Auton Neurosci. 2019 Mar;217:26-34. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hulsebosch CE, Coggeshall RE. An analysis of the axon populations in the nerves to the pelvic viscera in the rat. J Comp Neurol. 1982 Oct 10;211(1):1-10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keast JR. Visualization and immunohistochemical characterization of sympathetic and parasympathetic neurons in the male rat major pelvic ganglion. Neuroscience. 1995 Jun;66(3):655-62. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadelhaft I, Booth AM. The location and morphology of preganglionic neurons and the distribution of visceral afferents from the rat pelvic nerve: a horseradish peroxidase study. J Comp Neurol. 1984 Jun 20;226(2):238-45. </t>
+  </si>
+  <si>
+    <t>Giuliano F, Facchinetti P, Bernabé J, Benoit G, Calas A, Rampin O. Evidence of sympathetic fibers in the male rat pelvic nerve by gross anatomy, retrograde labeling and high resolution autoradiographic study. Int J Impot Res. 1997 Dec;9(4):179-85.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kane DD, Shott S, Hughes WF, Kerns JM. Motor pudendal nerve characterization in the female rat. Anat Rec. 2002 Jan 1;266(1):21-9. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keast JR. Unusual autonomic ganglia: connections, chemistry, and plasticity of pelvic ganglia. Int Rev Cytol. 1999;193:1-69. </t>
+  </si>
+  <si>
+    <t>Marson L. Identification of central nervous system neurons that innervate the bladder body, bladder base, or external urethral sphincter of female rats: a transneuronal tracing study using pseudorabies virus. J Comp Neurol. 1997 Dec 29;389(4):584-602.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miao FJ, Kinnman E, Jänig W, Levine JD. Variation in the anatomy of the lumbar sympathetic chain in the rat. J Auton Nerv Syst. 1995 Dec 5;56(1-2):115-8. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baron R, Jänig W. Afferent and sympathetic neurons projecting into lumbar visceral nerves of the male rat. J Comp Neurol. 1991 Dec 15;314(3):429-36. </t>
+  </si>
+  <si>
+    <t>Thor KB, de Groat WC. Neural control of the female urethral and anal rhabdosphincters and pelvic floor muscles. Am J Physiol Regul Integr Comp Physiol. 2010 Aug;299(2):R416-38. doi: 10.1152/ajpregu.00111.2010. Epub 2010 May 19. PMID: 20484700; PMCID: PMC2928615.</t>
+  </si>
+  <si>
+    <t>Dail WG. The pelvic plexus: innervation of pelvic and extrapelvic visceral tissues. Microsc Res Tech. 1996 Oct 1;35(2):95-106. doi: 10.1002/(SICI)1097-0029(19961001)35:2&lt;95::AID-JEMT1&gt;3.0.CO;2-#. PMID: 8923445.</t>
+  </si>
+  <si>
+    <t>Nadelhaft I, Vera PL. Neurons labelled after the application of tracer to the distal stump of the transected hypogastric nerve in the rat. J Auton Nerv Syst. 1991 Nov;36(2):87-96. doi: 10.1016/0165-1838(91)90104-b. PMID: 1765622.</t>
+  </si>
+  <si>
+    <t>PMID:10494620</t>
+  </si>
+  <si>
+    <t>PMID:8786273</t>
+  </si>
+  <si>
+    <t>PMID:20484700</t>
+  </si>
+  <si>
+    <t>PMID:8923445</t>
+  </si>
+  <si>
+    <t>PMID:1765622</t>
+  </si>
+  <si>
+    <t>References (DOI)</t>
+  </si>
+  <si>
+    <t>10.1016/0361-9230(92)90134-j</t>
+  </si>
+  <si>
+    <t>10.1007/BF00224723</t>
+  </si>
+  <si>
+    <t>10.1016/s0006-8993(01)02349-6</t>
+  </si>
+  <si>
+    <t>10.1002/ar.1091750405</t>
+  </si>
+  <si>
+    <t>doi: 10.1002/cne.903190411</t>
+  </si>
+  <si>
+    <t>10.1002/cne.902560210</t>
+  </si>
+  <si>
+    <t>10.1152/physrev.1987.67.4.1332</t>
+  </si>
+  <si>
+    <t>10.1002/cne.902750310</t>
+  </si>
+  <si>
+    <t>10.1002/cne.10732</t>
+  </si>
+  <si>
+    <t>10.1002/cne.902480406</t>
+  </si>
+  <si>
+    <t>10.1002/cne.903550411</t>
+  </si>
+  <si>
+    <t>10.1016/j.autneu.2018.12.005</t>
+  </si>
+  <si>
+    <t>10.1002/cne.902110102</t>
+  </si>
+  <si>
+    <t>10.1016/0306-4522(94)00595-v</t>
+  </si>
+  <si>
+    <t>10.1002/cne.902260207</t>
+  </si>
+  <si>
+    <t>10.1038/sj.ijir.3900292</t>
+  </si>
+  <si>
+    <t>10.1002/ar.10029</t>
+  </si>
+  <si>
+    <t>10.1016/s0074-7696(08)61778-7</t>
+  </si>
+  <si>
+    <t>10.1016/0165-1838(95)00052-x</t>
+  </si>
+  <si>
+    <t>10.1002/cne.903140302.</t>
+  </si>
+  <si>
+    <t>10.1002/(SICI)1097-0029(19961001)35:2&lt;95::AID-JEMT1&gt;3.0.CO;2-#</t>
+  </si>
+  <si>
+    <t>10.1016/0165-1838(91)90104-b</t>
+  </si>
+  <si>
+    <t>Zenodo keywords</t>
+  </si>
+  <si>
+    <t>Grants</t>
+  </si>
+  <si>
+    <t>National Institutes of Health:</t>
+  </si>
+  <si>
+    <t>Multi-scale, multi-organ, multi-species SPARC map management (3OT3OD025349-01S1)</t>
+  </si>
+  <si>
+    <t>Related identifiers:</t>
+  </si>
+  <si>
+    <t>Derived from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/open-physiology/apinatomy-models </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="30">
+  <fonts count="35">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -4573,6 +4857,21 @@
       <name val="&quot;Courier New&quot;"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
@@ -4608,10 +4907,6 @@
       <color rgb="FF1155CC"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-    </font>
-    <font>
       <b/>
       <color theme="1"/>
       <name val="Droid Sans Mono"/>
@@ -4636,6 +4931,18 @@
     <font>
       <u/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -4716,7 +5023,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -4733,13 +5040,19 @@
       </bottom>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <right/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="232">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4828,9 +5141,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4853,6 +5163,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -5234,19 +5547,31 @@
     <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5277,10 +5602,10 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5295,7 +5620,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5316,16 +5641,16 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5340,36 +5665,72 @@
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5387,6 +5748,10 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5672,460 +6037,111 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.0"/>
-    <col customWidth="1" min="3" max="3" width="33.38"/>
-    <col customWidth="1" min="4" max="4" width="46.13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="206" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="207" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C2" s="208" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D2" s="208"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="209" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C3" s="208" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D3" s="208"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="209" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C4" s="208" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D4" s="208"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="210" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C5" s="208" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D5" s="208"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="210" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C6" s="208" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D6" s="208"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="210" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C7" s="208" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D7" s="208"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="210" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C8" s="208" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D8" s="208"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="210" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C9" s="208" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D9" s="208"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="210" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C10" s="208" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D10" s="208"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="210" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C11" s="208" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D11" s="208"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="210" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C12" s="208" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D12" s="208"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="210" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C13" s="208" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D13" s="208"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="210" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C14" s="208" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D14" s="208"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="210" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C15" s="208" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D15" s="208"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="210" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C16" s="208" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D16" s="208"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="210" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C17" s="208" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D17" s="208"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="210" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C18" s="208" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D18" s="208"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="210" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C19" s="208" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D19" s="208"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="210" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C20" s="208" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D20" s="208"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="211" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C21" s="208" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D21" s="208"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="210" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C22" s="208" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D22" s="208"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="210" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C23" s="208" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D23" s="208"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="210" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C24" s="208" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D24" s="208"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="210" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C25" s="208" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D25" s="208"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="210" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C26" s="208" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D26" s="208"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="210" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C27" s="208" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D27" s="208"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="210" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C28" s="208" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D28" s="208"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="210" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C29" s="208" t="s">
-        <v>1444</v>
-      </c>
-      <c r="D29" s="208"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="210" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C30" s="208" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D30" s="208"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="210" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C31" s="208" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D31" s="208"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="210" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C32" s="208" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D32" s="208"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="210" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C33" s="208" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D33" s="208"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="210" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C34" s="208" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D34" s="208"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="210" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C35" s="208" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D35" s="208"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="210" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C36" s="208" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D36" s="208"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
     <col customWidth="1" min="2" max="2" width="31.13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="215" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B2" s="216" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="215" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B3" s="216" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="215" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B4" s="217" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="215" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B5" s="218" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="215" t="s">
         <v>1455</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B6" s="218" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="212" t="s">
+    <row r="7">
+      <c r="A7" s="215" t="s">
         <v>1457</v>
       </c>
-      <c r="B2" s="213" t="s">
+      <c r="B7" s="218" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="212" t="s">
+    <row r="8">
+      <c r="A8" s="215" t="s">
         <v>1459</v>
       </c>
-      <c r="B3" s="213" t="s">
+      <c r="B8" s="218" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="212" t="s">
+    <row r="9">
+      <c r="A9" s="215" t="s">
         <v>1461</v>
       </c>
-      <c r="B4" s="214" t="s">
+      <c r="B9" s="218" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="212" t="s">
+    <row r="10">
+      <c r="A10" s="215" t="s">
         <v>1463</v>
       </c>
-      <c r="B5" s="215" t="s">
+      <c r="B10" s="218" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="212" t="s">
+    <row r="11">
+      <c r="A11" s="215" t="s">
         <v>1465</v>
       </c>
-      <c r="B6" s="215" t="s">
+      <c r="B11" s="218" t="s">
         <v>1466</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="212" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B7" s="215" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="212" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B8" s="215" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="212" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B9" s="215" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="212" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B10" s="215" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="212" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B11" s="215" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="107" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B12" s="213" t="s">
-        <v>1478</v>
+        <v>1467</v>
+      </c>
+      <c r="B12" s="216" t="s">
+        <v>1468</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="107" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B13" s="213" t="s">
-        <v>1480</v>
+        <v>1469</v>
+      </c>
+      <c r="B13" s="216" t="s">
+        <v>1470</v>
       </c>
     </row>
   </sheetData>
@@ -6144,6 +6160,706 @@
     <hyperlink r:id="rId12" ref="B13"/>
   </hyperlinks>
   <drawing r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="28.38"/>
+    <col customWidth="1" min="2" max="2" width="17.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="219" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="219" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="219" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="219" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+  </hyperlinks>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="73.38"/>
+    <col customWidth="1" min="3" max="3" width="28.38"/>
+    <col customWidth="1" min="4" max="5" width="29.25"/>
+    <col customWidth="1" min="6" max="6" width="41.25"/>
+    <col customWidth="1" min="7" max="7" width="31.88"/>
+    <col customWidth="1" min="8" max="8" width="29.13"/>
+    <col customWidth="1" min="9" max="9" width="37.0"/>
+    <col customWidth="1" min="10" max="10" width="41.0"/>
+    <col customWidth="1" min="11" max="11" width="34.88"/>
+    <col customWidth="1" min="12" max="12" width="36.0"/>
+    <col customWidth="1" min="13" max="13" width="26.38"/>
+    <col customWidth="1" min="14" max="14" width="25.63"/>
+    <col customWidth="1" min="15" max="15" width="39.38"/>
+    <col customWidth="1" min="16" max="16" width="34.75"/>
+    <col customWidth="1" min="17" max="17" width="35.13"/>
+    <col customWidth="1" min="18" max="18" width="34.25"/>
+    <col customWidth="1" min="19" max="19" width="34.88"/>
+    <col customWidth="1" min="20" max="20" width="40.88"/>
+    <col customWidth="1" min="21" max="22" width="39.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B2" s="166" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B3" s="220" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C3" s="166" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D3" s="166" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E3" s="166" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="164"/>
+      <c r="W3" s="164"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B4" s="221" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C4" s="222" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D4" s="222" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E4" s="222" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="164"/>
+      <c r="T4" s="164"/>
+      <c r="U4" s="164"/>
+      <c r="V4" s="164"/>
+      <c r="W4" s="164"/>
+      <c r="X4" s="164"/>
+      <c r="Y4" s="164"/>
+      <c r="Z4" s="164"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B5" s="223" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C5" s="223" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D5" s="223" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E5" s="223" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F5" s="223" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G5" s="223" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H5" s="223" t="s">
+        <v>1495</v>
+      </c>
+      <c r="I5" s="223" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J5" s="223" t="s">
+        <v>1497</v>
+      </c>
+      <c r="K5" s="223" t="s">
+        <v>1498</v>
+      </c>
+      <c r="L5" s="223" t="s">
+        <v>1499</v>
+      </c>
+      <c r="M5" s="223" t="s">
+        <v>1500</v>
+      </c>
+      <c r="N5" s="223" t="s">
+        <v>1501</v>
+      </c>
+      <c r="O5" s="223" t="s">
+        <v>1502</v>
+      </c>
+      <c r="P5" s="223" t="s">
+        <v>1503</v>
+      </c>
+      <c r="Q5" s="223" t="s">
+        <v>1504</v>
+      </c>
+      <c r="R5" s="223" t="s">
+        <v>1505</v>
+      </c>
+      <c r="S5" s="223" t="s">
+        <v>1506</v>
+      </c>
+      <c r="T5" s="224" t="s">
+        <v>1507</v>
+      </c>
+      <c r="U5" s="225" t="s">
+        <v>1508</v>
+      </c>
+      <c r="V5" s="226" t="s">
+        <v>1509</v>
+      </c>
+      <c r="W5" s="226" t="s">
+        <v>1510</v>
+      </c>
+      <c r="X5" s="164"/>
+      <c r="Y5" s="164"/>
+      <c r="Z5" s="164"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="227" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B6" s="226" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C6" s="228" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D6" s="226" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E6" s="226" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F6" s="226" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G6" s="226" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H6" s="226" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I6" s="226" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J6" s="226" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K6" s="226" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L6" s="226" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M6" s="226" t="s">
+        <v>1523</v>
+      </c>
+      <c r="N6" s="226" t="s">
+        <v>1524</v>
+      </c>
+      <c r="O6" s="226" t="s">
+        <v>1525</v>
+      </c>
+      <c r="P6" s="226" t="s">
+        <v>1526</v>
+      </c>
+      <c r="Q6" s="226" t="s">
+        <v>1527</v>
+      </c>
+      <c r="R6" s="226" t="s">
+        <v>1528</v>
+      </c>
+      <c r="S6" s="226" t="s">
+        <v>1529</v>
+      </c>
+      <c r="T6" s="226" t="s">
+        <v>1530</v>
+      </c>
+      <c r="U6" s="226" t="s">
+        <v>1531</v>
+      </c>
+      <c r="V6" s="226" t="s">
+        <v>1532</v>
+      </c>
+      <c r="W6" s="228" t="s">
+        <v>1533</v>
+      </c>
+      <c r="X6" s="228" t="s">
+        <v>1534</v>
+      </c>
+      <c r="Y6" s="228" t="s">
+        <v>1535</v>
+      </c>
+      <c r="Z6" s="229"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="227" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B7" s="230" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C7" s="225" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D7" s="224" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E7" s="226" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F7" s="226" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G7" s="224" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H7" s="224" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I7" s="226" t="s">
+        <v>1419</v>
+      </c>
+      <c r="J7" s="226" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K7" s="226" t="s">
+        <v>1423</v>
+      </c>
+      <c r="L7" s="226" t="s">
+        <v>1435</v>
+      </c>
+      <c r="M7" s="226" t="s">
+        <v>1417</v>
+      </c>
+      <c r="N7" s="226" t="s">
+        <v>1429</v>
+      </c>
+      <c r="O7" s="226" t="s">
+        <v>1437</v>
+      </c>
+      <c r="P7" s="226" t="s">
+        <v>1427</v>
+      </c>
+      <c r="Q7" s="226" t="s">
+        <v>1443</v>
+      </c>
+      <c r="R7" s="226" t="s">
+        <v>1401</v>
+      </c>
+      <c r="S7" s="226" t="s">
+        <v>1536</v>
+      </c>
+      <c r="T7" s="226" t="s">
+        <v>1441</v>
+      </c>
+      <c r="U7" s="226" t="s">
+        <v>1537</v>
+      </c>
+      <c r="V7" s="226" t="s">
+        <v>1409</v>
+      </c>
+      <c r="W7" s="226" t="s">
+        <v>1538</v>
+      </c>
+      <c r="X7" s="226" t="s">
+        <v>1539</v>
+      </c>
+      <c r="Y7" s="226" t="s">
+        <v>1540</v>
+      </c>
+      <c r="Z7" s="229"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="227" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B8" s="224" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C8" s="224" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D8" s="224" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E8" s="230" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F8" s="230" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G8" s="224" t="s">
+        <v>1547</v>
+      </c>
+      <c r="H8" s="226" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I8" s="226" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J8" s="226" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K8" s="226" t="s">
+        <v>1551</v>
+      </c>
+      <c r="L8" s="226" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M8" s="226" t="s">
+        <v>1553</v>
+      </c>
+      <c r="N8" s="226" t="s">
+        <v>1554</v>
+      </c>
+      <c r="O8" s="224" t="s">
+        <v>1555</v>
+      </c>
+      <c r="P8" s="226" t="s">
+        <v>1556</v>
+      </c>
+      <c r="Q8" s="226" t="s">
+        <v>1557</v>
+      </c>
+      <c r="R8" s="226" t="s">
+        <v>1558</v>
+      </c>
+      <c r="S8" s="226" t="s">
+        <v>1559</v>
+      </c>
+      <c r="T8" s="229"/>
+      <c r="U8" s="226" t="s">
+        <v>1560</v>
+      </c>
+      <c r="V8" s="226" t="s">
+        <v>1561</v>
+      </c>
+      <c r="W8" s="229"/>
+      <c r="X8" s="226" t="s">
+        <v>1562</v>
+      </c>
+      <c r="Y8" s="226" t="s">
+        <v>1563</v>
+      </c>
+      <c r="Z8" s="229"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="140" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C10" s="231" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D10" s="166" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E10" s="166" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
+      <c r="U10" s="164"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="164"/>
+      <c r="Y10" s="164"/>
+      <c r="Z10" s="164"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B11" s="166" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C11" s="166" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="164"/>
+      <c r="V11" s="164"/>
+      <c r="W11" s="164"/>
+      <c r="X11" s="164"/>
+      <c r="Y11" s="164"/>
+      <c r="Z11" s="164"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B12" s="166" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C12" s="222" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="164"/>
+      <c r="T12" s="164"/>
+      <c r="U12" s="164"/>
+      <c r="V12" s="164"/>
+      <c r="W12" s="164"/>
+      <c r="X12" s="164"/>
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="164"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B4"/>
+    <hyperlink r:id="rId2" ref="C4"/>
+    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink r:id="rId4" ref="E4"/>
+    <hyperlink r:id="rId5" ref="C12"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -7307,7 +8023,7 @@
       <c r="A38" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="24" t="s">
         <v>147</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -7320,7 +8036,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="30" t="s">
+      <c r="K38" s="29" t="s">
         <v>149</v>
       </c>
       <c r="L38" s="22"/>
@@ -7351,7 +8067,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="30" t="s">
+      <c r="K39" s="29" t="s">
         <v>149</v>
       </c>
       <c r="L39" s="22"/>
@@ -7382,7 +8098,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
-      <c r="K40" s="30" t="s">
+      <c r="K40" s="29" t="s">
         <v>149</v>
       </c>
       <c r="L40" s="22"/>
@@ -7413,7 +8129,7 @@
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
-      <c r="I41" s="31" t="s">
+      <c r="I41" s="30" t="s">
         <v>144</v>
       </c>
       <c r="J41" s="14"/>
@@ -7446,7 +8162,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
-      <c r="K42" s="30" t="s">
+      <c r="K42" s="29" t="s">
         <v>149</v>
       </c>
       <c r="L42" s="22"/>
@@ -7477,7 +8193,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
-      <c r="K43" s="30" t="s">
+      <c r="K43" s="29" t="s">
         <v>149</v>
       </c>
       <c r="L43" s="22"/>
@@ -7508,7 +8224,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
-      <c r="K44" s="30" t="s">
+      <c r="K44" s="29" t="s">
         <v>149</v>
       </c>
       <c r="L44" s="22"/>
@@ -7539,7 +8255,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
-      <c r="K45" s="30" t="s">
+      <c r="K45" s="29" t="s">
         <v>149</v>
       </c>
       <c r="L45" s="22"/>
@@ -7554,7 +8270,7 @@
       <c r="Q45" s="14"/>
     </row>
     <row r="46">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="31" t="s">
         <v>181</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -7570,7 +8286,7 @@
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
-      <c r="I46" s="31" t="s">
+      <c r="I46" s="30" t="s">
         <v>144</v>
       </c>
       <c r="J46" s="14"/>
@@ -7587,7 +8303,7 @@
       <c r="Q46" s="14"/>
     </row>
     <row r="47">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="31" t="s">
         <v>184</v>
       </c>
       <c r="B47" s="23" t="s">
@@ -7603,7 +8319,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
-      <c r="K47" s="30" t="s">
+      <c r="K47" s="29" t="s">
         <v>149</v>
       </c>
       <c r="L47" s="22"/>
@@ -7618,7 +8334,7 @@
       <c r="Q47" s="14"/>
     </row>
     <row r="48">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="32" t="s">
         <v>188</v>
       </c>
       <c r="B48" s="12" t="s">
@@ -7634,7 +8350,7 @@
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
-      <c r="I48" s="31" t="s">
+      <c r="I48" s="30" t="s">
         <v>144</v>
       </c>
       <c r="J48" s="22"/>
@@ -7647,13 +8363,13 @@
       <c r="Q48" s="14"/>
     </row>
     <row r="49">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="35" t="s">
         <v>193</v>
       </c>
       <c r="D49" s="14"/>
@@ -7663,7 +8379,7 @@
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
-      <c r="I49" s="31" t="s">
+      <c r="I49" s="30" t="s">
         <v>144</v>
       </c>
       <c r="J49" s="22"/>
@@ -7672,7 +8388,7 @@
       <c r="M49" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="N49" s="33" t="s">
+      <c r="N49" s="32" t="s">
         <v>196</v>
       </c>
       <c r="O49" s="14"/>
@@ -7680,10 +8396,10 @@
       <c r="Q49" s="14"/>
     </row>
     <row r="50">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="37" t="s">
         <v>198</v>
       </c>
       <c r="C50" s="17" t="s">
@@ -7741,10 +8457,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="37" t="s">
         <v>198</v>
       </c>
       <c r="C52" s="17" t="s">
@@ -7772,10 +8488,10 @@
       <c r="Q52" s="14"/>
     </row>
     <row r="53">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="37" t="s">
         <v>198</v>
       </c>
       <c r="C53" s="17" t="s">
@@ -8151,7 +8867,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="32" t="s">
         <v>233</v>
       </c>
       <c r="B65" s="12" t="s">
@@ -8176,7 +8892,7 @@
       <c r="Q65" s="14"/>
     </row>
     <row r="66">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="32" t="s">
         <v>236</v>
       </c>
       <c r="B66" s="49" t="s">
@@ -8201,7 +8917,7 @@
       <c r="Q66" s="14"/>
     </row>
     <row r="67">
-      <c r="A67" s="33" t="s">
+      <c r="A67" s="32" t="s">
         <v>239</v>
       </c>
       <c r="B67" s="12" t="s">
@@ -8218,11 +8934,11 @@
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="14"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33" t="s">
+      <c r="L67" s="32"/>
+      <c r="M67" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="N67" s="33" t="s">
+      <c r="N67" s="32" t="s">
         <v>151</v>
       </c>
       <c r="O67" s="14"/>
@@ -8230,7 +8946,7 @@
       <c r="Q67" s="14"/>
     </row>
     <row r="68">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="32" t="s">
         <v>243</v>
       </c>
       <c r="B68" s="12" t="s">
@@ -8247,11 +8963,11 @@
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
       <c r="K68" s="14"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33" t="s">
+      <c r="L68" s="32"/>
+      <c r="M68" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="N68" s="33" t="s">
+      <c r="N68" s="32" t="s">
         <v>151</v>
       </c>
       <c r="O68" s="14"/>
@@ -8259,7 +8975,7 @@
       <c r="Q68" s="14"/>
     </row>
     <row r="69">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="32" t="s">
         <v>247</v>
       </c>
       <c r="B69" s="12" t="s">
@@ -8284,7 +9000,7 @@
       <c r="Q69" s="14"/>
     </row>
     <row r="70">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="32" t="s">
         <v>250</v>
       </c>
       <c r="B70" s="12" t="s">
@@ -8309,7 +9025,7 @@
       <c r="Q70" s="14"/>
     </row>
     <row r="71">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="32" t="s">
         <v>253</v>
       </c>
       <c r="B71" s="12" t="s">
@@ -8334,7 +9050,7 @@
       <c r="Q71" s="14"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="32" t="s">
         <v>256</v>
       </c>
       <c r="B72" s="49" t="s">
@@ -8363,7 +9079,7 @@
       <c r="Q72" s="14"/>
     </row>
     <row r="73">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="32" t="s">
         <v>261</v>
       </c>
       <c r="B73" s="12" t="s">
@@ -8392,7 +9108,7 @@
       <c r="Q73" s="14"/>
     </row>
     <row r="74">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="32" t="s">
         <v>265</v>
       </c>
       <c r="B74" s="49" t="s">
@@ -8417,7 +9133,7 @@
       <c r="Q74" s="14"/>
     </row>
     <row r="75">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="32" t="s">
         <v>268</v>
       </c>
       <c r="B75" s="50" t="s">
@@ -8442,7 +9158,7 @@
       <c r="Q75" s="14"/>
     </row>
     <row r="76">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="32" t="s">
         <v>271</v>
       </c>
       <c r="B76" s="50" t="s">
@@ -8467,7 +9183,7 @@
       <c r="Q76" s="14"/>
     </row>
     <row r="77">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="32" t="s">
         <v>274</v>
       </c>
       <c r="B77" s="50" t="s">
@@ -8492,7 +9208,7 @@
       <c r="Q77" s="14"/>
     </row>
     <row r="78">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="32" t="s">
         <v>277</v>
       </c>
       <c r="B78" s="50" t="s">
@@ -8517,7 +9233,7 @@
       <c r="Q78" s="14"/>
     </row>
     <row r="79">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="32" t="s">
         <v>280</v>
       </c>
       <c r="B79" s="51" t="s">
@@ -8542,7 +9258,7 @@
       <c r="Q79" s="14"/>
     </row>
     <row r="80">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="32" t="s">
         <v>283</v>
       </c>
       <c r="B80" s="50" t="s">
@@ -8567,7 +9283,7 @@
       <c r="Q80" s="14"/>
     </row>
     <row r="81">
-      <c r="A81" s="33" t="s">
+      <c r="A81" s="32" t="s">
         <v>286</v>
       </c>
       <c r="B81" s="21" t="s">
@@ -8584,7 +9300,7 @@
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
       <c r="K81" s="14"/>
-      <c r="L81" s="33"/>
+      <c r="L81" s="32"/>
       <c r="M81" s="46"/>
       <c r="N81" s="46"/>
       <c r="O81" s="14"/>
@@ -8592,7 +9308,7 @@
       <c r="Q81" s="14"/>
     </row>
     <row r="82">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="32" t="s">
         <v>289</v>
       </c>
       <c r="B82" s="21" t="s">
@@ -8609,7 +9325,7 @@
       <c r="I82" s="22"/>
       <c r="J82" s="22"/>
       <c r="K82" s="14"/>
-      <c r="L82" s="33"/>
+      <c r="L82" s="32"/>
       <c r="M82" s="46"/>
       <c r="N82" s="46"/>
       <c r="O82" s="14"/>
@@ -8617,7 +9333,7 @@
       <c r="Q82" s="14"/>
     </row>
     <row r="83">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="32" t="s">
         <v>292</v>
       </c>
       <c r="B83" s="21" t="s">
@@ -8634,7 +9350,7 @@
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
       <c r="K83" s="14"/>
-      <c r="L83" s="33"/>
+      <c r="L83" s="32"/>
       <c r="M83" s="46"/>
       <c r="N83" s="46"/>
       <c r="O83" s="14"/>
@@ -8642,7 +9358,7 @@
       <c r="Q83" s="14"/>
     </row>
     <row r="84">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="32" t="s">
         <v>295</v>
       </c>
       <c r="B84" s="21" t="s">
@@ -8659,7 +9375,7 @@
       <c r="I84" s="22"/>
       <c r="J84" s="22"/>
       <c r="K84" s="14"/>
-      <c r="L84" s="33"/>
+      <c r="L84" s="32"/>
       <c r="M84" s="46"/>
       <c r="N84" s="46"/>
       <c r="O84" s="14"/>
@@ -8667,7 +9383,7 @@
       <c r="Q84" s="14"/>
     </row>
     <row r="85">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="32" t="s">
         <v>298</v>
       </c>
       <c r="B85" s="21" t="s">
@@ -8684,7 +9400,7 @@
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
       <c r="K85" s="14"/>
-      <c r="L85" s="33"/>
+      <c r="L85" s="32"/>
       <c r="M85" s="46"/>
       <c r="N85" s="46"/>
       <c r="O85" s="14"/>
@@ -8692,7 +9408,7 @@
       <c r="Q85" s="14"/>
     </row>
     <row r="86">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="32" t="s">
         <v>301</v>
       </c>
       <c r="B86" s="21" t="s">
@@ -8709,7 +9425,7 @@
       <c r="I86" s="22"/>
       <c r="J86" s="22"/>
       <c r="K86" s="14"/>
-      <c r="L86" s="33"/>
+      <c r="L86" s="32"/>
       <c r="M86" s="46"/>
       <c r="N86" s="46"/>
       <c r="O86" s="14"/>
@@ -8717,7 +9433,7 @@
       <c r="Q86" s="14"/>
     </row>
     <row r="87">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="32" t="s">
         <v>304</v>
       </c>
       <c r="B87" s="21" t="s">
@@ -8734,7 +9450,7 @@
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
       <c r="K87" s="14"/>
-      <c r="L87" s="33"/>
+      <c r="L87" s="32"/>
       <c r="M87" s="46"/>
       <c r="N87" s="46"/>
       <c r="O87" s="14"/>
@@ -8742,7 +9458,7 @@
       <c r="Q87" s="14"/>
     </row>
     <row r="88">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="32" t="s">
         <v>307</v>
       </c>
       <c r="B88" s="21" t="s">
@@ -8767,7 +9483,7 @@
       <c r="Q88" s="14"/>
     </row>
     <row r="89">
-      <c r="A89" s="33" t="s">
+      <c r="A89" s="32" t="s">
         <v>310</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -8784,7 +9500,7 @@
       <c r="I89" s="22"/>
       <c r="J89" s="22"/>
       <c r="K89" s="14"/>
-      <c r="L89" s="33"/>
+      <c r="L89" s="32"/>
       <c r="M89" s="46" t="s">
         <v>313</v>
       </c>
@@ -8796,7 +9512,7 @@
       <c r="Q89" s="14"/>
     </row>
     <row r="90">
-      <c r="A90" s="33" t="s">
+      <c r="A90" s="32" t="s">
         <v>314</v>
       </c>
       <c r="B90" s="12" t="s">
@@ -8825,7 +9541,7 @@
       <c r="Q90" s="14"/>
     </row>
     <row r="91">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="32" t="s">
         <v>318</v>
       </c>
       <c r="B91" s="50" t="s">
@@ -8842,7 +9558,7 @@
       <c r="I91" s="22"/>
       <c r="J91" s="22"/>
       <c r="K91" s="14"/>
-      <c r="L91" s="33"/>
+      <c r="L91" s="32"/>
       <c r="M91" s="46" t="s">
         <v>321</v>
       </c>
@@ -8854,7 +9570,7 @@
       <c r="Q91" s="14"/>
     </row>
     <row r="92">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>322</v>
       </c>
       <c r="B92" s="50" t="s">
@@ -8871,7 +9587,7 @@
       <c r="I92" s="22"/>
       <c r="J92" s="22"/>
       <c r="K92" s="14"/>
-      <c r="L92" s="33"/>
+      <c r="L92" s="32"/>
       <c r="M92" s="46" t="s">
         <v>325</v>
       </c>
@@ -8883,7 +9599,7 @@
       <c r="Q92" s="14"/>
     </row>
     <row r="93">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="32" t="s">
         <v>326</v>
       </c>
       <c r="B93" s="50" t="s">
@@ -8912,7 +9628,7 @@
       <c r="Q93" s="14"/>
     </row>
     <row r="94">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="32" t="s">
         <v>330</v>
       </c>
       <c r="B94" s="50" t="s">
@@ -8941,7 +9657,7 @@
       <c r="Q94" s="14"/>
     </row>
     <row r="95">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="32" t="s">
         <v>334</v>
       </c>
       <c r="B95" s="12" t="s">
@@ -8970,7 +9686,7 @@
       <c r="Q95" s="14"/>
     </row>
     <row r="96">
-      <c r="A96" s="33" t="s">
+      <c r="A96" s="32" t="s">
         <v>338</v>
       </c>
       <c r="B96" s="12" t="s">
@@ -8999,7 +9715,7 @@
       <c r="Q96" s="14"/>
     </row>
     <row r="97">
-      <c r="A97" s="33" t="s">
+      <c r="A97" s="32" t="s">
         <v>342</v>
       </c>
       <c r="B97" s="49" t="s">
@@ -9016,15 +9732,15 @@
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
       <c r="K97" s="14"/>
-      <c r="L97" s="33"/>
-      <c r="M97" s="33"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="32"/>
       <c r="N97" s="46"/>
       <c r="O97" s="14"/>
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
     </row>
     <row r="98">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="32" t="s">
         <v>345</v>
       </c>
       <c r="B98" s="49" t="s">
@@ -9043,13 +9759,13 @@
       <c r="K98" s="14"/>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
-      <c r="N98" s="33"/>
+      <c r="N98" s="32"/>
       <c r="O98" s="14"/>
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
     </row>
     <row r="99">
-      <c r="A99" s="33" t="s">
+      <c r="A99" s="32" t="s">
         <v>348</v>
       </c>
       <c r="B99" s="49" t="s">
@@ -9068,13 +9784,13 @@
       <c r="K99" s="14"/>
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
-      <c r="N99" s="33"/>
+      <c r="N99" s="32"/>
       <c r="O99" s="14"/>
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
     </row>
     <row r="100">
-      <c r="A100" s="33" t="s">
+      <c r="A100" s="32" t="s">
         <v>351</v>
       </c>
       <c r="B100" s="49" t="s">
@@ -9099,7 +9815,7 @@
       <c r="Q100" s="14"/>
     </row>
     <row r="101">
-      <c r="A101" s="33" t="s">
+      <c r="A101" s="32" t="s">
         <v>354</v>
       </c>
       <c r="B101" s="49" t="s">
@@ -9124,7 +9840,7 @@
       <c r="Q101" s="14"/>
     </row>
     <row r="102">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="32" t="s">
         <v>357</v>
       </c>
       <c r="B102" s="12" t="s">
@@ -9149,7 +9865,7 @@
       <c r="Q102" s="14"/>
     </row>
     <row r="103">
-      <c r="A103" s="33" t="s">
+      <c r="A103" s="32" t="s">
         <v>360</v>
       </c>
       <c r="B103" s="49" t="s">
@@ -9174,7 +9890,7 @@
       <c r="Q103" s="14"/>
     </row>
     <row r="104">
-      <c r="A104" s="33" t="s">
+      <c r="A104" s="32" t="s">
         <v>363</v>
       </c>
       <c r="B104" s="49" t="s">
@@ -9199,7 +9915,7 @@
       <c r="Q104" s="14"/>
     </row>
     <row r="105">
-      <c r="A105" s="33" t="s">
+      <c r="A105" s="32" t="s">
         <v>366</v>
       </c>
       <c r="B105" s="49" t="s">
@@ -9223,7 +9939,7 @@
       <c r="Q105" s="14"/>
     </row>
     <row r="106">
-      <c r="A106" s="33" t="s">
+      <c r="A106" s="32" t="s">
         <v>369</v>
       </c>
       <c r="B106" s="49" t="s">
@@ -9248,7 +9964,7 @@
       <c r="Q106" s="14"/>
     </row>
     <row r="107">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="32" t="s">
         <v>372</v>
       </c>
       <c r="B107" s="49" t="s">
@@ -9272,7 +9988,7 @@
       <c r="Q107" s="14"/>
     </row>
     <row r="108">
-      <c r="A108" s="33" t="s">
+      <c r="A108" s="32" t="s">
         <v>375</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -9297,7 +10013,7 @@
       <c r="Q108" s="14"/>
     </row>
     <row r="109">
-      <c r="A109" s="33" t="s">
+      <c r="A109" s="32" t="s">
         <v>378</v>
       </c>
       <c r="B109" s="54" t="s">
@@ -9322,10 +10038,10 @@
       <c r="Q109" s="14"/>
     </row>
     <row r="110">
-      <c r="A110" s="33" t="s">
+      <c r="A110" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="B110" s="35" t="s">
+      <c r="B110" s="34" t="s">
         <v>382</v>
       </c>
       <c r="C110" s="24" t="s">
@@ -9352,7 +10068,7 @@
       <c r="Q110" s="14"/>
     </row>
     <row r="111">
-      <c r="A111" s="33" t="s">
+      <c r="A111" s="32" t="s">
         <v>387</v>
       </c>
       <c r="B111" s="22" t="s">
@@ -9383,7 +10099,7 @@
       <c r="Q111" s="14"/>
     </row>
     <row r="112">
-      <c r="A112" s="33" t="s">
+      <c r="A112" s="32" t="s">
         <v>391</v>
       </c>
       <c r="B112" s="22" t="s">
@@ -9439,7 +10155,7 @@
       <c r="Q113" s="59"/>
     </row>
     <row r="114">
-      <c r="A114" s="33" t="s">
+      <c r="A114" s="32" t="s">
         <v>399</v>
       </c>
       <c r="B114" s="12" t="s">
@@ -9460,7 +10176,7 @@
       </c>
       <c r="J114" s="22"/>
       <c r="K114" s="14"/>
-      <c r="L114" s="33"/>
+      <c r="L114" s="32"/>
       <c r="M114" s="46"/>
       <c r="N114" s="46"/>
       <c r="O114" s="14"/>
@@ -9468,7 +10184,7 @@
       <c r="Q114" s="14"/>
     </row>
     <row r="115">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="32" t="s">
         <v>403</v>
       </c>
       <c r="B115" s="12" t="s">
@@ -9497,7 +10213,7 @@
       <c r="Q115" s="14"/>
     </row>
     <row r="116">
-      <c r="A116" s="33" t="s">
+      <c r="A116" s="32" t="s">
         <v>390</v>
       </c>
       <c r="B116" s="65" t="s">
@@ -9524,7 +10240,7 @@
       <c r="Q116" s="14"/>
     </row>
     <row r="117">
-      <c r="A117" s="33" t="s">
+      <c r="A117" s="32" t="s">
         <v>385</v>
       </c>
       <c r="B117" s="65" t="s">
@@ -9551,7 +10267,7 @@
       <c r="Q117" s="14"/>
     </row>
     <row r="118">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="32" t="s">
         <v>411</v>
       </c>
       <c r="B118" s="40" t="s">
@@ -9580,7 +10296,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="33" t="s">
+      <c r="A119" s="32" t="s">
         <v>414</v>
       </c>
       <c r="B119" s="40" t="s">
@@ -9664,7 +10380,7 @@
       <c r="R121" s="72"/>
     </row>
     <row r="122">
-      <c r="A122" s="33" t="s">
+      <c r="A122" s="32" t="s">
         <v>421</v>
       </c>
       <c r="B122" s="40" t="s">
@@ -9694,7 +10410,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="33" t="s">
+      <c r="A123" s="32" t="s">
         <v>424</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -9721,7 +10437,7 @@
       <c r="Q123" s="14"/>
     </row>
     <row r="124">
-      <c r="A124" s="33" t="s">
+      <c r="A124" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B124" s="40" t="s">
@@ -9751,7 +10467,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="33" t="s">
+      <c r="A125" s="32" t="s">
         <v>428</v>
       </c>
       <c r="B125" s="40" t="s">
@@ -9778,7 +10494,7 @@
       <c r="Q125" s="14"/>
     </row>
     <row r="126">
-      <c r="A126" s="33" t="s">
+      <c r="A126" s="32" t="s">
         <v>430</v>
       </c>
       <c r="B126" s="40" t="s">
@@ -9808,7 +10524,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="33" t="s">
+      <c r="A127" s="32" t="s">
         <v>116</v>
       </c>
       <c r="B127" s="40" t="s">
@@ -9835,7 +10551,7 @@
       <c r="Q127" s="14"/>
     </row>
     <row r="128">
-      <c r="A128" s="33" t="s">
+      <c r="A128" s="32" t="s">
         <v>313</v>
       </c>
       <c r="B128" s="40" t="s">
@@ -9869,7 +10585,7 @@
       </c>
     </row>
     <row r="129" ht="15.0" customHeight="1">
-      <c r="A129" s="33" t="s">
+      <c r="A129" s="32" t="s">
         <v>317</v>
       </c>
       <c r="B129" s="40" t="s">
@@ -9898,7 +10614,7 @@
       <c r="Q129" s="14"/>
     </row>
     <row r="130">
-      <c r="A130" s="33" t="s">
+      <c r="A130" s="32" t="s">
         <v>321</v>
       </c>
       <c r="B130" s="40" t="s">
@@ -9927,7 +10643,7 @@
       <c r="Q130" s="14"/>
     </row>
     <row r="131">
-      <c r="A131" s="33" t="s">
+      <c r="A131" s="32" t="s">
         <v>325</v>
       </c>
       <c r="B131" s="40" t="s">
@@ -9956,7 +10672,7 @@
       <c r="Q131" s="14"/>
     </row>
     <row r="132">
-      <c r="A132" s="33" t="s">
+      <c r="A132" s="32" t="s">
         <v>329</v>
       </c>
       <c r="B132" s="40" t="s">
@@ -9985,7 +10701,7 @@
       <c r="Q132" s="14"/>
     </row>
     <row r="133">
-      <c r="A133" s="33" t="s">
+      <c r="A133" s="32" t="s">
         <v>333</v>
       </c>
       <c r="B133" s="40" t="s">
@@ -10014,7 +10730,7 @@
       <c r="Q133" s="14"/>
     </row>
     <row r="134">
-      <c r="A134" s="33" t="s">
+      <c r="A134" s="32" t="s">
         <v>337</v>
       </c>
       <c r="B134" s="40" t="s">
@@ -10043,7 +10759,7 @@
       <c r="Q134" s="14"/>
     </row>
     <row r="135">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="32" t="s">
         <v>341</v>
       </c>
       <c r="B135" s="40" t="s">
@@ -10072,7 +10788,7 @@
       <c r="Q135" s="14"/>
     </row>
     <row r="136">
-      <c r="A136" s="33" t="s">
+      <c r="A136" s="32" t="s">
         <v>443</v>
       </c>
       <c r="B136" s="40" t="s">
@@ -10102,7 +10818,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="33" t="s">
+      <c r="A137" s="32" t="s">
         <v>446</v>
       </c>
       <c r="B137" s="40" t="s">
@@ -10134,7 +10850,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="33" t="s">
+      <c r="A138" s="32" t="s">
         <v>398</v>
       </c>
       <c r="B138" s="40" t="s">
@@ -10166,7 +10882,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="33" t="s">
+      <c r="A139" s="32" t="s">
         <v>451</v>
       </c>
       <c r="B139" s="12" t="s">
@@ -10191,7 +10907,7 @@
       <c r="Q139" s="14"/>
     </row>
     <row r="140">
-      <c r="A140" s="33" t="s">
+      <c r="A140" s="32" t="s">
         <v>454</v>
       </c>
       <c r="B140" s="4" t="s">
@@ -10216,7 +10932,7 @@
       <c r="Q140" s="14"/>
     </row>
     <row r="141">
-      <c r="A141" s="33" t="s">
+      <c r="A141" s="32" t="s">
         <v>457</v>
       </c>
       <c r="B141" s="12" t="s">
@@ -10241,7 +10957,7 @@
       <c r="Q141" s="14"/>
     </row>
     <row r="142">
-      <c r="A142" s="33" t="s">
+      <c r="A142" s="32" t="s">
         <v>460</v>
       </c>
       <c r="B142" s="12" t="s">
@@ -10259,7 +10975,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="14"/>
       <c r="L142" s="76"/>
-      <c r="M142" s="33"/>
+      <c r="M142" s="32"/>
       <c r="N142" s="20"/>
       <c r="O142" s="14"/>
       <c r="P142" s="14"/>
@@ -11374,7 +12090,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>592</v>
       </c>
       <c r="B26" s="127" t="s">
@@ -11410,7 +12126,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="32" t="s">
         <v>596</v>
       </c>
       <c r="B27" s="117" t="s">
@@ -11446,7 +12162,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="32" t="s">
         <v>602</v>
       </c>
       <c r="B28" s="117" t="s">
@@ -11482,7 +12198,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="32" t="s">
         <v>606</v>
       </c>
       <c r="B29" s="117" t="s">
@@ -12000,7 +12716,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="32" t="s">
         <v>662</v>
       </c>
       <c r="B44" s="102" t="s">
@@ -12033,7 +12749,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="32" t="s">
         <v>665</v>
       </c>
       <c r="B45" s="102" t="s">
@@ -12104,7 +12820,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="32" t="s">
         <v>675</v>
       </c>
       <c r="B47" s="102" t="s">
@@ -12142,7 +12858,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="32" t="s">
         <v>679</v>
       </c>
       <c r="B48" s="102" t="s">
@@ -12358,7 +13074,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="32" t="s">
         <v>706</v>
       </c>
       <c r="B54" s="102" t="s">
@@ -13150,7 +13866,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="32" t="s">
         <v>801</v>
       </c>
       <c r="B76" s="102" t="s">
@@ -14954,7 +15670,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="33" t="s">
+      <c r="A126" s="32" t="s">
         <v>993</v>
       </c>
       <c r="B126" s="102" t="s">
@@ -14992,7 +15708,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="33" t="s">
+      <c r="A127" s="32" t="s">
         <v>998</v>
       </c>
       <c r="B127" s="102" t="s">
@@ -15028,7 +15744,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="33" t="s">
+      <c r="A128" s="32" t="s">
         <v>1002</v>
       </c>
       <c r="B128" s="102" t="s">
@@ -15041,7 +15757,7 @@
       <c r="E128" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F128" s="33" t="s">
+      <c r="F128" s="32" t="s">
         <v>1001</v>
       </c>
       <c r="G128" s="14" t="s">
@@ -15064,7 +15780,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="33" t="s">
+      <c r="A129" s="32" t="s">
         <v>1006</v>
       </c>
       <c r="B129" s="102" t="s">
@@ -15077,7 +15793,7 @@
       <c r="E129" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F129" s="33" t="s">
+      <c r="F129" s="32" t="s">
         <v>1001</v>
       </c>
       <c r="G129" s="14" t="s">
@@ -15100,7 +15816,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="33" t="s">
+      <c r="A130" s="32" t="s">
         <v>1009</v>
       </c>
       <c r="B130" s="102" t="s">
@@ -15113,7 +15829,7 @@
       <c r="E130" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F130" s="33" t="s">
+      <c r="F130" s="32" t="s">
         <v>1001</v>
       </c>
       <c r="G130" s="14" t="s">
@@ -15136,7 +15852,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="33" t="s">
+      <c r="A131" s="32" t="s">
         <v>1012</v>
       </c>
       <c r="B131" s="102" t="s">
@@ -15149,7 +15865,7 @@
       <c r="E131" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F131" s="33" t="s">
+      <c r="F131" s="32" t="s">
         <v>1001</v>
       </c>
       <c r="G131" s="14" t="s">
@@ -15172,7 +15888,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="33" t="s">
+      <c r="A132" s="32" t="s">
         <v>1015</v>
       </c>
       <c r="B132" s="102" t="s">
@@ -15185,7 +15901,7 @@
       <c r="E132" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F132" s="33" t="s">
+      <c r="F132" s="32" t="s">
         <v>1001</v>
       </c>
       <c r="G132" s="14" t="s">
@@ -15208,7 +15924,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="33" t="s">
+      <c r="A133" s="32" t="s">
         <v>1018</v>
       </c>
       <c r="B133" s="102" t="s">
@@ -15246,7 +15962,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="33" t="s">
+      <c r="A134" s="32" t="s">
         <v>1022</v>
       </c>
       <c r="B134" s="102" t="s">
@@ -15282,7 +15998,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="33" t="s">
+      <c r="A135" s="32" t="s">
         <v>1026</v>
       </c>
       <c r="B135" s="102" t="s">
@@ -15318,7 +16034,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="33" t="s">
+      <c r="A136" s="32" t="s">
         <v>1029</v>
       </c>
       <c r="B136" s="102" t="s">
@@ -15354,7 +16070,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="33" t="s">
+      <c r="A137" s="32" t="s">
         <v>1032</v>
       </c>
       <c r="B137" s="102" t="s">
@@ -15390,7 +16106,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="33" t="s">
+      <c r="A138" s="32" t="s">
         <v>1035</v>
       </c>
       <c r="B138" s="102" t="s">
@@ -15426,7 +16142,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="33" t="s">
+      <c r="A139" s="32" t="s">
         <v>1038</v>
       </c>
       <c r="B139" s="102" t="s">
@@ -15770,7 +16486,7 @@
     <col customWidth="1" min="5" max="5" width="27.0"/>
     <col customWidth="1" min="6" max="6" width="24.5"/>
     <col customWidth="1" min="7" max="7" width="17.75"/>
-    <col customWidth="1" min="8" max="8" width="16.88"/>
+    <col customWidth="1" min="8" max="8" width="25.25"/>
     <col customWidth="1" min="9" max="10" width="19.38"/>
     <col customWidth="1" min="11" max="11" width="27.13"/>
   </cols>
@@ -15858,7 +16574,7 @@
       <c r="D4" s="164"/>
       <c r="E4" s="166"/>
       <c r="F4" s="166"/>
-      <c r="H4" s="166" t="s">
+      <c r="H4" s="168" t="s">
         <v>1087</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -15880,8 +16596,8 @@
         <v>1091</v>
       </c>
       <c r="E5" s="166"/>
-      <c r="F5" s="168"/>
-      <c r="H5" s="166" t="s">
+      <c r="F5" s="169"/>
+      <c r="H5" s="170" t="s">
         <v>1092</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -15906,7 +16622,7 @@
       <c r="E6" s="166"/>
       <c r="F6" s="166"/>
       <c r="G6" s="166"/>
-      <c r="H6" s="166" t="s">
+      <c r="H6" s="171" t="s">
         <v>1097</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -15928,7 +16644,7 @@
         <v>1100</v>
       </c>
       <c r="E7" s="166"/>
-      <c r="F7" s="168"/>
+      <c r="F7" s="169"/>
       <c r="H7" s="166" t="s">
         <v>1101</v>
       </c>
@@ -15949,7 +16665,7 @@
       </c>
       <c r="C8" s="107"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="168"/>
+      <c r="F8" s="169"/>
       <c r="H8" s="164"/>
       <c r="I8" s="4" t="s">
         <v>1104</v>
@@ -15968,7 +16684,7 @@
       </c>
       <c r="C9" s="107"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="168"/>
+      <c r="F9" s="169"/>
       <c r="H9" s="164"/>
       <c r="I9" s="4" t="s">
         <v>1107</v>
@@ -15987,7 +16703,7 @@
       </c>
       <c r="C10" s="107"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="168"/>
+      <c r="F10" s="169"/>
       <c r="H10" s="164"/>
       <c r="I10" s="4" t="s">
         <v>1109</v>
@@ -16066,7 +16782,7 @@
       </c>
       <c r="C14" s="107"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="168"/>
+      <c r="F14" s="169"/>
       <c r="H14" s="164"/>
       <c r="I14" s="4" t="s">
         <v>1117</v>
@@ -16087,8 +16803,8 @@
         <v>1119</v>
       </c>
       <c r="E15" s="140"/>
-      <c r="F15" s="168"/>
-      <c r="H15" s="166" t="s">
+      <c r="F15" s="169"/>
+      <c r="H15" s="168" t="s">
         <v>1120</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -16108,7 +16824,7 @@
       </c>
       <c r="C16" s="107"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="168"/>
+      <c r="F16" s="169"/>
       <c r="H16" s="164"/>
       <c r="I16" s="4" t="s">
         <v>1124</v>
@@ -16129,8 +16845,8 @@
         <v>1126</v>
       </c>
       <c r="E17" s="166"/>
-      <c r="F17" s="168"/>
-      <c r="H17" s="166" t="s">
+      <c r="F17" s="169"/>
+      <c r="H17" s="168" t="s">
         <v>1127</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -16154,7 +16870,7 @@
       <c r="D18" s="164"/>
       <c r="E18" s="22"/>
       <c r="F18" s="162"/>
-      <c r="H18" s="166" t="s">
+      <c r="H18" s="168" t="s">
         <v>1131</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -16178,7 +16894,7 @@
       <c r="D19" s="164"/>
       <c r="E19" s="166"/>
       <c r="F19" s="166"/>
-      <c r="H19" s="166" t="s">
+      <c r="H19" s="170" t="s">
         <v>1135</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -16203,14 +16919,14 @@
       <c r="E20" s="166"/>
       <c r="F20" s="166"/>
       <c r="G20" s="166"/>
-      <c r="H20" s="166" t="s">
+      <c r="H20" s="170" t="s">
         <v>1140</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>1141</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="169" t="s">
+      <c r="K20" s="172" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -16228,14 +16944,14 @@
       <c r="E21" s="166"/>
       <c r="F21" s="166"/>
       <c r="G21" s="166"/>
-      <c r="H21" s="166" t="s">
+      <c r="H21" s="168" t="s">
         <v>1145</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>1146</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="169" t="s">
+      <c r="K21" s="172" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -16252,13 +16968,13 @@
       <c r="D22" s="166"/>
       <c r="E22" s="166"/>
       <c r="F22" s="166"/>
-      <c r="H22" s="166" t="s">
+      <c r="H22" s="170" t="s">
         <v>1149</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="K22" s="169" t="s">
+      <c r="K22" s="172" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -16275,7 +16991,7 @@
       <c r="D23" s="164"/>
       <c r="E23" s="166"/>
       <c r="F23" s="166"/>
-      <c r="H23" s="166" t="s">
+      <c r="H23" s="173" t="s">
         <v>1153</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -16294,7 +17010,7 @@
         <v>1157</v>
       </c>
       <c r="C24" s="107"/>
-      <c r="D24" s="170" t="s">
+      <c r="D24" s="174" t="s">
         <v>1158</v>
       </c>
       <c r="E24" s="166" t="s">
@@ -16324,33 +17040,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="172" t="s">
+      <c r="C1" s="176" t="s">
         <v>1160</v>
       </c>
-      <c r="D1" s="171" t="s">
+      <c r="D1" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="172" t="s">
+      <c r="F1" s="176" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="177" t="s">
         <v>1162</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="178" t="s">
         <v>1163</v>
       </c>
-      <c r="C2" s="174"/>
+      <c r="C2" s="178"/>
       <c r="D2" s="24" t="s">
         <v>1164</v>
       </c>
@@ -16360,7 +17076,7 @@
       <c r="F2" s="24"/>
     </row>
     <row r="3">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="177" t="s">
         <v>1166</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -16374,7 +17090,7 @@
       <c r="F3" s="23"/>
     </row>
     <row r="4">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="177" t="s">
         <v>1169</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -16384,11 +17100,11 @@
       <c r="D4" s="24" t="s">
         <v>1171</v>
       </c>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
     </row>
     <row r="5">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="177" t="s">
         <v>1172</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -16398,25 +17114,25 @@
       <c r="D5" s="24" t="s">
         <v>1174</v>
       </c>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
     </row>
     <row r="6">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="177" t="s">
         <v>1175</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>1176</v>
       </c>
       <c r="C6" s="24"/>
-      <c r="D6" s="176" t="s">
+      <c r="D6" s="180" t="s">
         <v>1177</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
     </row>
     <row r="7">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="177" t="s">
         <v>1178</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -16426,13 +17142,13 @@
       <c r="D7" s="23" t="s">
         <v>1180</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="181" t="s">
         <v>1181</v>
       </c>
-      <c r="F7" s="177"/>
+      <c r="F7" s="181"/>
     </row>
     <row r="8">
-      <c r="A8" s="173" t="s">
+      <c r="A8" s="177" t="s">
         <v>1182</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -16442,13 +17158,13 @@
       <c r="D8" s="23" t="s">
         <v>1183</v>
       </c>
-      <c r="E8" s="177" t="s">
+      <c r="E8" s="181" t="s">
         <v>1181</v>
       </c>
-      <c r="F8" s="177"/>
+      <c r="F8" s="181"/>
     </row>
     <row r="9">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="177" t="s">
         <v>1181</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -16458,13 +17174,13 @@
       <c r="D9" s="23" t="s">
         <v>1185</v>
       </c>
-      <c r="E9" s="178" t="s">
+      <c r="E9" s="182" t="s">
         <v>1186</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="182"/>
     </row>
     <row r="10">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="177" t="s">
         <v>1187</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -16474,13 +17190,13 @@
       <c r="D10" s="23" t="s">
         <v>1189</v>
       </c>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="181" t="s">
         <v>1181</v>
       </c>
-      <c r="F10" s="177"/>
+      <c r="F10" s="181"/>
     </row>
     <row r="11">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="177" t="s">
         <v>1190</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -16490,407 +17206,407 @@
       <c r="D11" s="24" t="s">
         <v>1192</v>
       </c>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
     </row>
     <row r="12">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="177" t="s">
         <v>1193</v>
       </c>
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="181" t="s">
         <v>1194</v>
       </c>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177" t="s">
+      <c r="C12" s="181"/>
+      <c r="D12" s="181" t="s">
         <v>1195</v>
       </c>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
     </row>
     <row r="13">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="177" t="s">
         <v>1196</v>
       </c>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="181" t="s">
         <v>1197</v>
       </c>
-      <c r="C13" s="177"/>
-      <c r="D13" s="180" t="s">
+      <c r="C13" s="181"/>
+      <c r="D13" s="184" t="s">
         <v>1198</v>
       </c>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
     </row>
     <row r="14">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="177" t="s">
         <v>1199</v>
       </c>
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="181" t="s">
         <v>1200</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="180" t="s">
+      <c r="C14" s="181"/>
+      <c r="D14" s="184" t="s">
         <v>1201</v>
       </c>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
     </row>
     <row r="15">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="177" t="s">
         <v>1202</v>
       </c>
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="181" t="s">
         <v>1203</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="180" t="s">
+      <c r="C15" s="181"/>
+      <c r="D15" s="184" t="s">
         <v>1204</v>
       </c>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
     </row>
     <row r="16">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="177" t="s">
         <v>1205</v>
       </c>
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="181" t="s">
         <v>1206</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="180" t="s">
+      <c r="C16" s="181"/>
+      <c r="D16" s="184" t="s">
         <v>1207</v>
       </c>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
     </row>
     <row r="17">
-      <c r="A17" s="173" t="s">
+      <c r="A17" s="177" t="s">
         <v>1208</v>
       </c>
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="181" t="s">
         <v>1209</v>
       </c>
-      <c r="C17" s="177"/>
-      <c r="D17" s="180" t="s">
+      <c r="C17" s="181"/>
+      <c r="D17" s="184" t="s">
         <v>1210</v>
       </c>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
     </row>
     <row r="18">
-      <c r="A18" s="173" t="s">
+      <c r="A18" s="177" t="s">
         <v>1211</v>
       </c>
-      <c r="B18" s="177" t="s">
+      <c r="B18" s="181" t="s">
         <v>1212</v>
       </c>
-      <c r="C18" s="177"/>
-      <c r="D18" s="180" t="s">
+      <c r="C18" s="181"/>
+      <c r="D18" s="184" t="s">
         <v>1213</v>
       </c>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
     </row>
     <row r="19">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="177" t="s">
         <v>1214</v>
       </c>
-      <c r="B19" s="177" t="s">
+      <c r="B19" s="181" t="s">
         <v>1215</v>
       </c>
-      <c r="C19" s="177"/>
-      <c r="D19" s="180" t="s">
+      <c r="C19" s="181"/>
+      <c r="D19" s="184" t="s">
         <v>1216</v>
       </c>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
     </row>
     <row r="20">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="177" t="s">
         <v>1217</v>
       </c>
-      <c r="B20" s="181" t="s">
+      <c r="B20" s="185" t="s">
         <v>1184</v>
       </c>
-      <c r="C20" s="181"/>
-      <c r="D20" s="180" t="s">
+      <c r="C20" s="185"/>
+      <c r="D20" s="184" t="s">
         <v>1218</v>
       </c>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
     </row>
     <row r="21">
-      <c r="A21" s="173" t="s">
+      <c r="A21" s="177" t="s">
         <v>1219</v>
       </c>
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="185" t="s">
         <v>1220</v>
       </c>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182" t="s">
+      <c r="C21" s="185"/>
+      <c r="D21" s="186" t="s">
         <v>1221</v>
       </c>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
     </row>
     <row r="22">
-      <c r="A22" s="173" t="s">
+      <c r="A22" s="177" t="s">
         <v>1222</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>1223</v>
       </c>
-      <c r="C22" s="183" t="s">
+      <c r="C22" s="187" t="s">
         <v>1224</v>
       </c>
-      <c r="D22" s="180" t="s">
+      <c r="D22" s="184" t="s">
         <v>1225</v>
       </c>
-      <c r="E22" s="177" t="s">
+      <c r="E22" s="181" t="s">
         <v>1175</v>
       </c>
-      <c r="F22" s="177"/>
+      <c r="F22" s="181"/>
     </row>
     <row r="23">
-      <c r="A23" s="173" t="s">
+      <c r="A23" s="177" t="s">
         <v>1226</v>
       </c>
-      <c r="B23" s="184" t="s">
+      <c r="B23" s="188" t="s">
         <v>1227</v>
       </c>
-      <c r="C23" s="184"/>
-      <c r="D23" s="185" t="s">
+      <c r="C23" s="188"/>
+      <c r="D23" s="189" t="s">
         <v>1228</v>
       </c>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
     </row>
     <row r="24">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="177" t="s">
         <v>1229</v>
       </c>
-      <c r="B24" s="184" t="s">
+      <c r="B24" s="188" t="s">
         <v>1230</v>
       </c>
-      <c r="C24" s="184"/>
-      <c r="D24" s="186" t="s">
+      <c r="C24" s="188"/>
+      <c r="D24" s="190" t="s">
         <v>1231</v>
       </c>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
     </row>
     <row r="25">
-      <c r="A25" s="173" t="s">
+      <c r="A25" s="177" t="s">
         <v>1232</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>1223</v>
       </c>
-      <c r="C25" s="184" t="s">
+      <c r="C25" s="188" t="s">
         <v>1233</v>
       </c>
-      <c r="D25" s="186" t="s">
+      <c r="D25" s="190" t="s">
         <v>1234</v>
       </c>
-      <c r="E25" s="177" t="s">
+      <c r="E25" s="181" t="s">
         <v>1175</v>
       </c>
-      <c r="F25" s="177"/>
+      <c r="F25" s="181"/>
     </row>
     <row r="26">
-      <c r="A26" s="173" t="s">
+      <c r="A26" s="177" t="s">
         <v>1235</v>
       </c>
-      <c r="B26" s="177" t="s">
+      <c r="B26" s="181" t="s">
         <v>1236</v>
       </c>
-      <c r="C26" s="177"/>
-      <c r="D26" s="177" t="s">
+      <c r="C26" s="181"/>
+      <c r="D26" s="181" t="s">
         <v>1237</v>
       </c>
-      <c r="E26" s="177" t="s">
+      <c r="E26" s="181" t="s">
         <v>1193</v>
       </c>
-      <c r="F26" s="177"/>
+      <c r="F26" s="181"/>
     </row>
     <row r="27">
-      <c r="A27" s="173" t="s">
+      <c r="A27" s="177" t="s">
         <v>1238</v>
       </c>
-      <c r="B27" s="177" t="s">
+      <c r="B27" s="181" t="s">
         <v>1239</v>
       </c>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177" t="s">
+      <c r="C27" s="181"/>
+      <c r="D27" s="181" t="s">
         <v>1240</v>
       </c>
-      <c r="E27" s="179"/>
-      <c r="F27" s="177">
+      <c r="E27" s="183"/>
+      <c r="F27" s="181">
         <v>13.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="173" t="s">
+      <c r="A28" s="177" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="181" t="s">
         <v>1241</v>
       </c>
-      <c r="C28" s="177"/>
-      <c r="D28" s="177" t="s">
+      <c r="C28" s="181"/>
+      <c r="D28" s="181" t="s">
         <v>1242</v>
       </c>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
     </row>
     <row r="29">
-      <c r="A29" s="187" t="s">
+      <c r="A29" s="191" t="s">
         <v>1243</v>
       </c>
-      <c r="B29" s="188" t="s">
+      <c r="B29" s="192" t="s">
         <v>1244</v>
       </c>
-      <c r="C29" s="188"/>
-      <c r="D29" s="189" t="s">
+      <c r="C29" s="192"/>
+      <c r="D29" s="193" t="s">
         <v>1245</v>
       </c>
-      <c r="E29" s="188"/>
-      <c r="F29" s="190">
+      <c r="E29" s="192"/>
+      <c r="F29" s="194">
         <v>12.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="187" t="s">
+      <c r="A30" s="191" t="s">
         <v>1246</v>
       </c>
-      <c r="B30" s="188" t="s">
+      <c r="B30" s="192" t="s">
         <v>1247</v>
       </c>
-      <c r="C30" s="188"/>
-      <c r="D30" s="189" t="s">
+      <c r="C30" s="192"/>
+      <c r="D30" s="193" t="s">
         <v>1248</v>
       </c>
-      <c r="E30" s="188"/>
-      <c r="F30" s="191">
+      <c r="E30" s="192"/>
+      <c r="F30" s="195">
         <f t="shared" ref="F30:F37" si="1">F29-1</f>
         <v>11</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="187" t="s">
+      <c r="A31" s="191" t="s">
         <v>1249</v>
       </c>
-      <c r="B31" s="188" t="s">
+      <c r="B31" s="192" t="s">
         <v>1250</v>
       </c>
-      <c r="C31" s="188"/>
-      <c r="D31" s="189" t="s">
+      <c r="C31" s="192"/>
+      <c r="D31" s="193" t="s">
         <v>1251</v>
       </c>
-      <c r="E31" s="188"/>
-      <c r="F31" s="191">
+      <c r="E31" s="192"/>
+      <c r="F31" s="195">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="187" t="s">
+      <c r="A32" s="191" t="s">
         <v>1252</v>
       </c>
-      <c r="B32" s="188" t="s">
+      <c r="B32" s="192" t="s">
         <v>1253</v>
       </c>
-      <c r="C32" s="188"/>
-      <c r="D32" s="189" t="s">
+      <c r="C32" s="192"/>
+      <c r="D32" s="193" t="s">
         <v>1254</v>
       </c>
-      <c r="E32" s="188"/>
-      <c r="F32" s="191">
+      <c r="E32" s="192"/>
+      <c r="F32" s="195">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="187" t="s">
+      <c r="A33" s="191" t="s">
         <v>1255</v>
       </c>
-      <c r="B33" s="188" t="s">
+      <c r="B33" s="192" t="s">
         <v>1256</v>
       </c>
-      <c r="C33" s="188"/>
-      <c r="D33" s="189" t="s">
+      <c r="C33" s="192"/>
+      <c r="D33" s="193" t="s">
         <v>1257</v>
       </c>
-      <c r="E33" s="188"/>
-      <c r="F33" s="191">
+      <c r="E33" s="192"/>
+      <c r="F33" s="195">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="187" t="s">
+      <c r="A34" s="191" t="s">
         <v>1258</v>
       </c>
-      <c r="B34" s="188" t="s">
+      <c r="B34" s="192" t="s">
         <v>1259</v>
       </c>
-      <c r="C34" s="188"/>
-      <c r="D34" s="189" t="s">
+      <c r="C34" s="192"/>
+      <c r="D34" s="193" t="s">
         <v>1260</v>
       </c>
-      <c r="E34" s="188"/>
-      <c r="F34" s="191">
+      <c r="E34" s="192"/>
+      <c r="F34" s="195">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="187" t="s">
+      <c r="A35" s="191" t="s">
         <v>1261</v>
       </c>
-      <c r="B35" s="188" t="s">
+      <c r="B35" s="192" t="s">
         <v>1262</v>
       </c>
-      <c r="C35" s="188"/>
-      <c r="D35" s="189" t="s">
+      <c r="C35" s="192"/>
+      <c r="D35" s="193" t="s">
         <v>1263</v>
       </c>
-      <c r="E35" s="188"/>
-      <c r="F35" s="191">
+      <c r="E35" s="192"/>
+      <c r="F35" s="195">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="187" t="s">
+      <c r="A36" s="191" t="s">
         <v>1264</v>
       </c>
-      <c r="B36" s="188" t="s">
+      <c r="B36" s="192" t="s">
         <v>1265</v>
       </c>
-      <c r="C36" s="188"/>
-      <c r="D36" s="189" t="s">
+      <c r="C36" s="192"/>
+      <c r="D36" s="193" t="s">
         <v>1266</v>
       </c>
-      <c r="E36" s="188"/>
-      <c r="F36" s="191">
+      <c r="E36" s="192"/>
+      <c r="F36" s="195">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="187" t="s">
+      <c r="A37" s="191" t="s">
         <v>1267</v>
       </c>
-      <c r="B37" s="188" t="s">
+      <c r="B37" s="192" t="s">
         <v>1268</v>
       </c>
-      <c r="C37" s="188"/>
-      <c r="D37" s="189" t="s">
+      <c r="C37" s="192"/>
+      <c r="D37" s="193" t="s">
         <v>1269</v>
       </c>
-      <c r="E37" s="188"/>
-      <c r="F37" s="191">
+      <c r="E37" s="192"/>
+      <c r="F37" s="195">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -16899,115 +17615,115 @@
       <c r="A38" s="15" t="s">
         <v>1270</v>
       </c>
-      <c r="B38" s="188" t="s">
+      <c r="B38" s="192" t="s">
         <v>1271</v>
       </c>
-      <c r="C38" s="188"/>
-      <c r="D38" s="189" t="s">
+      <c r="C38" s="192"/>
+      <c r="D38" s="193" t="s">
         <v>1272</v>
       </c>
-      <c r="E38" s="188"/>
+      <c r="E38" s="192"/>
       <c r="F38" s="63">
         <v>2.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="192">
+      <c r="A39" s="196">
         <v>54.0</v>
       </c>
-      <c r="B39" s="193" t="s">
+      <c r="B39" s="197" t="s">
         <v>1273</v>
       </c>
-      <c r="C39" s="193"/>
-      <c r="D39" s="194" t="s">
+      <c r="C39" s="197"/>
+      <c r="D39" s="198" t="s">
         <v>1274</v>
       </c>
-      <c r="E39" s="195"/>
-      <c r="F39" s="195"/>
+      <c r="E39" s="199"/>
+      <c r="F39" s="199"/>
     </row>
     <row r="40">
-      <c r="A40" s="192">
+      <c r="A40" s="196">
         <v>55.0</v>
       </c>
-      <c r="B40" s="193" t="s">
+      <c r="B40" s="197" t="s">
         <v>1275</v>
       </c>
-      <c r="C40" s="193"/>
-      <c r="D40" s="194" t="s">
+      <c r="C40" s="197"/>
+      <c r="D40" s="198" t="s">
         <v>1276</v>
       </c>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
+      <c r="E40" s="190"/>
+      <c r="F40" s="190"/>
     </row>
     <row r="41">
-      <c r="A41" s="192">
+      <c r="A41" s="196">
         <v>56.0</v>
       </c>
-      <c r="B41" s="193" t="s">
+      <c r="B41" s="197" t="s">
         <v>1277</v>
       </c>
-      <c r="C41" s="193"/>
-      <c r="D41" s="194" t="s">
+      <c r="C41" s="197"/>
+      <c r="D41" s="198" t="s">
         <v>1278</v>
       </c>
-      <c r="E41" s="195"/>
-      <c r="F41" s="195"/>
+      <c r="E41" s="199"/>
+      <c r="F41" s="199"/>
     </row>
     <row r="42">
-      <c r="A42" s="192">
+      <c r="A42" s="196">
         <v>116.0</v>
       </c>
-      <c r="B42" s="196" t="s">
+      <c r="B42" s="200" t="s">
         <v>1279</v>
       </c>
-      <c r="C42" s="196"/>
-      <c r="D42" s="194" t="s">
+      <c r="C42" s="200"/>
+      <c r="D42" s="198" t="s">
         <v>1177</v>
       </c>
-      <c r="E42" s="179"/>
-      <c r="F42" s="179"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="183"/>
     </row>
     <row r="43">
-      <c r="A43" s="197" t="s">
+      <c r="A43" s="201" t="s">
         <v>1280</v>
       </c>
-      <c r="B43" s="196" t="s">
+      <c r="B43" s="200" t="s">
         <v>1281</v>
       </c>
-      <c r="C43" s="196"/>
-      <c r="D43" s="185" t="s">
+      <c r="C43" s="200"/>
+      <c r="D43" s="189" t="s">
         <v>1282</v>
       </c>
-      <c r="E43" s="179"/>
-      <c r="F43" s="179"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="183"/>
     </row>
     <row r="44">
-      <c r="A44" s="197" t="s">
+      <c r="A44" s="201" t="s">
         <v>1283</v>
       </c>
-      <c r="B44" s="198" t="s">
+      <c r="B44" s="202" t="s">
         <v>1284</v>
       </c>
-      <c r="C44" s="198"/>
-      <c r="D44" s="185" t="s">
+      <c r="C44" s="202"/>
+      <c r="D44" s="189" t="s">
         <v>1285</v>
       </c>
-      <c r="E44" s="179"/>
-      <c r="F44" s="179"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="183"/>
     </row>
     <row r="45">
-      <c r="A45" s="197" t="s">
+      <c r="A45" s="201" t="s">
         <v>1286</v>
       </c>
-      <c r="B45" s="199" t="s">
+      <c r="B45" s="203" t="s">
         <v>1287</v>
       </c>
-      <c r="C45" s="199"/>
-      <c r="D45" s="185" t="s">
+      <c r="C45" s="203"/>
+      <c r="D45" s="189" t="s">
         <v>1288</v>
       </c>
-      <c r="E45" s="179"/>
-      <c r="F45" s="179"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="183"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -17071,7 +17787,7 @@
       <c r="F2" s="104">
         <v>4.0</v>
       </c>
-      <c r="G2" s="200"/>
+      <c r="G2" s="204"/>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
@@ -17296,7 +18012,7 @@
       <c r="E14" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="F14" s="201">
+      <c r="F14" s="205">
         <v>8.0</v>
       </c>
       <c r="G14" s="68"/>
@@ -17315,13 +18031,13 @@
       <c r="E15" s="66" t="s">
         <v>419</v>
       </c>
-      <c r="F15" s="201">
+      <c r="F15" s="205">
         <v>8.0</v>
       </c>
       <c r="G15" s="68"/>
     </row>
     <row r="16">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>1310</v>
       </c>
       <c r="B16" s="14"/>
@@ -17331,7 +18047,7 @@
       <c r="D16" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>421</v>
       </c>
       <c r="F16" s="104">
@@ -17340,7 +18056,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>1311</v>
       </c>
       <c r="B17" s="14"/>
@@ -17350,7 +18066,7 @@
       <c r="D17" s="22" t="s">
         <v>658</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="32" t="s">
         <v>424</v>
       </c>
       <c r="F17" s="104">
@@ -17359,7 +18075,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>1312</v>
       </c>
       <c r="B18" s="14"/>
@@ -17369,7 +18085,7 @@
       <c r="D18" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>106</v>
       </c>
       <c r="F18" s="104">
@@ -17378,7 +18094,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>1313</v>
       </c>
       <c r="B19" s="14"/>
@@ -17388,7 +18104,7 @@
       <c r="D19" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="32" t="s">
         <v>428</v>
       </c>
       <c r="F19" s="104">
@@ -17397,7 +18113,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>1314</v>
       </c>
       <c r="B20" s="14"/>
@@ -17407,7 +18123,7 @@
       <c r="D20" s="22" t="s">
         <v>690</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="32" t="s">
         <v>430</v>
       </c>
       <c r="F20" s="104">
@@ -17416,7 +18132,7 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="32" t="s">
         <v>1315</v>
       </c>
       <c r="B21" s="14"/>
@@ -17426,7 +18142,7 @@
       <c r="D21" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="32" t="s">
         <v>116</v>
       </c>
       <c r="F21" s="104">
@@ -17435,17 +18151,17 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22">
-      <c r="A22" s="202" t="s">
+      <c r="A22" s="206" t="s">
         <v>1316</v>
       </c>
       <c r="B22" s="42"/>
-      <c r="C22" s="203" t="s">
+      <c r="C22" s="207" t="s">
         <v>714</v>
       </c>
-      <c r="D22" s="203" t="s">
+      <c r="D22" s="207" t="s">
         <v>723</v>
       </c>
-      <c r="E22" s="202" t="s">
+      <c r="E22" s="206" t="s">
         <v>242</v>
       </c>
       <c r="F22" s="104">
@@ -17454,17 +18170,17 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23">
-      <c r="A23" s="202" t="s">
+      <c r="A23" s="206" t="s">
         <v>1317</v>
       </c>
       <c r="B23" s="42"/>
-      <c r="C23" s="203" t="s">
+      <c r="C23" s="207" t="s">
         <v>719</v>
       </c>
       <c r="D23" s="149" t="s">
         <v>750</v>
       </c>
-      <c r="E23" s="202" t="s">
+      <c r="E23" s="206" t="s">
         <v>246</v>
       </c>
       <c r="F23" s="104">
@@ -17473,7 +18189,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>1318</v>
       </c>
       <c r="B24" s="14"/>
@@ -17483,7 +18199,7 @@
       <c r="D24" s="134" t="s">
         <v>1050</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="32" t="s">
         <v>443</v>
       </c>
       <c r="F24" s="104">
@@ -17492,7 +18208,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>1319</v>
       </c>
       <c r="B25" s="14"/>
@@ -17502,7 +18218,7 @@
       <c r="D25" s="22" t="s">
         <v>807</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="32" t="s">
         <v>446</v>
       </c>
       <c r="F25" s="104">
@@ -17511,7 +18227,7 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>1320</v>
       </c>
       <c r="B26" s="14"/>
@@ -17521,7 +18237,7 @@
       <c r="D26" s="22" t="s">
         <v>823</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="32" t="s">
         <v>398</v>
       </c>
       <c r="F26" s="104">
@@ -17530,7 +18246,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="32" t="s">
         <v>1321</v>
       </c>
       <c r="B27" s="14"/>
@@ -17549,7 +18265,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="32" t="s">
         <v>1322</v>
       </c>
       <c r="B28" s="14"/>
@@ -17568,7 +18284,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="32" t="s">
         <v>1323</v>
       </c>
       <c r="B29" s="14"/>
@@ -17587,7 +18303,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>1324</v>
       </c>
       <c r="B30" s="14"/>
@@ -17606,7 +18322,7 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="32" t="s">
         <v>1325</v>
       </c>
       <c r="B31" s="14"/>
@@ -17625,7 +18341,7 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="32" t="s">
         <v>1326</v>
       </c>
       <c r="B32" s="14"/>
@@ -17644,7 +18360,7 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="32" t="s">
         <v>1327</v>
       </c>
       <c r="B33" s="14"/>
@@ -17663,7 +18379,7 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="32" t="s">
         <v>1328</v>
       </c>
       <c r="B34" s="14"/>
@@ -17720,7 +18436,7 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="32" t="s">
         <v>1331</v>
       </c>
       <c r="B37" s="14"/>
@@ -17730,7 +18446,7 @@
       <c r="D37" s="22" t="s">
         <v>1000</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="32" t="s">
         <v>468</v>
       </c>
       <c r="F37" s="104">
@@ -17739,7 +18455,7 @@
       <c r="G37" s="14"/>
     </row>
     <row r="38">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="32" t="s">
         <v>1332</v>
       </c>
       <c r="B38" s="14"/>
@@ -18079,7 +18795,7 @@
       <c r="A28" s="166" t="s">
         <v>1377</v>
       </c>
-      <c r="B28" s="204" t="s">
+      <c r="B28" s="208" t="s">
         <v>1378</v>
       </c>
     </row>
@@ -18087,7 +18803,7 @@
       <c r="A29" s="166" t="s">
         <v>1379</v>
       </c>
-      <c r="B29" s="204" t="s">
+      <c r="B29" s="208" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -18095,7 +18811,7 @@
       <c r="A30" s="166" t="s">
         <v>1381</v>
       </c>
-      <c r="B30" s="204" t="s">
+      <c r="B30" s="208" t="s">
         <v>1382</v>
       </c>
     </row>
@@ -18152,72 +18868,341 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.38"/>
-    <col customWidth="1" min="2" max="2" width="17.5"/>
+    <col customWidth="1" min="1" max="1" width="14.0"/>
+    <col customWidth="1" min="3" max="3" width="33.38"/>
+    <col customWidth="1" min="4" max="4" width="46.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>1385</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="205" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="210" t="s">
         <v>1387</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="211" t="s">
         <v>1388</v>
       </c>
+      <c r="D2" s="211"/>
     </row>
     <row r="3">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="212" t="s">
         <v>1389</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="211" t="s">
         <v>1390</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="211"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="212" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C4" s="211" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D4" s="211"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="213" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C5" s="211" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D5" s="211"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="213" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C6" s="211" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D6" s="211"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="213" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C7" s="211" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D7" s="211"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="213" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C8" s="211" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D8" s="211"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="213" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C9" s="211" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D9" s="211"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="213" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C10" s="211" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D10" s="211"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="213" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C11" s="211" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D11" s="211"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="213" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C12" s="211" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="205" t="s">
+      <c r="D12" s="211"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="213" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C13" s="211" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D13" s="211"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="213" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C14" s="211" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D14" s="211"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="213" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C15" s="211" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D15" s="211"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="213" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C16" s="211" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D16" s="211"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="213" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C17" s="211" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D17" s="211"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="213" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C18" s="211" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D18" s="211"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="213" t="s">
         <v>1391</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C19" s="211" t="s">
         <v>1392</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="205" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1388</v>
-      </c>
+      <c r="D19" s="211"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="213" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C20" s="211" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D20" s="211"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="214" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C21" s="211" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D21" s="211"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="213" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C22" s="211" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D22" s="211"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="213" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C23" s="211" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D23" s="211"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="213" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C24" s="211" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D24" s="211"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="213" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C25" s="211" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D25" s="211"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="213" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C26" s="211" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D26" s="211"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="213" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C27" s="211" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D27" s="211"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="213" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C28" s="211" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D28" s="211"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="213" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C29" s="211" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D29" s="211"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="213" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C30" s="211" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D30" s="211"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="213" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C31" s="211" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D31" s="211"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="213" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C32" s="211" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D32" s="211"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="213" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C33" s="211" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D33" s="211"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="213" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C34" s="211" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D34" s="211"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="213" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C35" s="211" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D35" s="211"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="213" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C36" s="211" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D36" s="211"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-  </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>